--- a/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="128">
   <si>
     <t>Subtarea</t>
   </si>
@@ -402,6 +402,9 @@
   </si>
   <si>
     <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Overworld</t>
   </si>
 </sst>
 </file>
@@ -994,30 +997,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1027,28 +1006,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1090,18 +1051,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1110,9 +1059,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1142,48 +1088,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1300,11 +1303,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1518039856"/>
-        <c:axId val="1518042576"/>
+        <c:axId val="1091911424"/>
+        <c:axId val="1091911968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1518039856"/>
+        <c:axId val="1091911424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1314,7 +1317,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1518042576"/>
+        <c:crossAx val="1091911968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1322,7 +1325,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1518042576"/>
+        <c:axId val="1091911968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1333,14 +1336,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1518039856"/>
+        <c:crossAx val="1091911424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1679,8 +1681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1709,22 +1711,22 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="22"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="77"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="13" t="s">
@@ -1748,54 +1750,54 @@
       <c r="H3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="60">
+      <c r="J3" s="42">
         <v>43040</v>
       </c>
-      <c r="K3" s="37">
+      <c r="K3" s="23">
         <v>43041</v>
       </c>
-      <c r="L3" s="36">
+      <c r="L3" s="22">
         <v>43042</v>
       </c>
-      <c r="M3" s="37">
+      <c r="M3" s="23">
         <v>43043</v>
       </c>
-      <c r="N3" s="36">
+      <c r="N3" s="22">
         <v>43044</v>
       </c>
-      <c r="O3" s="37">
+      <c r="O3" s="23">
         <v>43045</v>
       </c>
-      <c r="P3" s="36">
+      <c r="P3" s="22">
         <v>43046</v>
       </c>
-      <c r="Q3" s="37">
+      <c r="Q3" s="23">
         <v>43047</v>
       </c>
-      <c r="R3" s="36">
+      <c r="R3" s="22">
         <v>43048</v>
       </c>
-      <c r="S3" s="37">
+      <c r="S3" s="23">
         <v>43049</v>
       </c>
-      <c r="T3" s="36">
+      <c r="T3" s="22">
         <v>43050</v>
       </c>
-      <c r="U3" s="37">
+      <c r="U3" s="23">
         <v>43051</v>
       </c>
-      <c r="V3" s="36">
+      <c r="V3" s="22">
         <v>43052</v>
       </c>
-      <c r="W3" s="37">
+      <c r="W3" s="23">
         <v>43053</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="83" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1813,10 +1815,10 @@
       <c r="G4" s="7">
         <v>3</v>
       </c>
-      <c r="H4" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I4" s="59">
+      <c r="H4" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I4" s="41">
         <f>SUM(J4:W4)</f>
         <v>0</v>
       </c>
@@ -1824,20 +1826,20 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="51"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="24"/>
-      <c r="C5" s="29" t="s">
+      <c r="B5" s="84"/>
+      <c r="C5" s="66" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -1852,10 +1854,10 @@
       <c r="G5" s="7">
         <v>3</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="32">
         <v>0.1</v>
       </c>
-      <c r="I5" s="59">
+      <c r="I5" s="41">
         <f t="shared" ref="I5:I60" si="0">SUM(J5:W5)</f>
         <v>0</v>
       </c>
@@ -1863,21 +1865,21 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="51"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="24"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="26" t="s">
+      <c r="B6" s="84"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -1889,10 +1891,10 @@
       <c r="G6" s="7">
         <v>3</v>
       </c>
-      <c r="H6" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I6" s="59">
+      <c r="H6" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I6" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1900,19 +1902,19 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="51"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="37"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="24"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1928,10 +1930,10 @@
       <c r="G7" s="7">
         <v>3</v>
       </c>
-      <c r="H7" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I7" s="59">
+      <c r="H7" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I7" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1939,23 +1941,23 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="51"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="37"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="24"/>
-      <c r="C8" s="27" t="s">
+      <c r="B8" s="84"/>
+      <c r="C8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="19" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -1967,10 +1969,10 @@
       <c r="G8" s="7">
         <v>3</v>
       </c>
-      <c r="H8" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I8" s="59">
+      <c r="H8" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I8" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1978,23 +1980,23 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="51"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="37"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="24"/>
-      <c r="C9" s="27" t="s">
+      <c r="B9" s="84"/>
+      <c r="C9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="19" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -2006,10 +2008,10 @@
       <c r="G9" s="7">
         <v>3</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="32">
         <v>0.1</v>
       </c>
-      <c r="I9" s="59">
+      <c r="I9" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2017,23 +2019,23 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="51"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="37"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="24"/>
-      <c r="C10" s="27" t="s">
+      <c r="B10" s="84"/>
+      <c r="C10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="19" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -2045,10 +2047,10 @@
       <c r="G10" s="7">
         <v>3</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="32">
         <v>0.1</v>
       </c>
-      <c r="I10" s="59">
+      <c r="I10" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2056,61 +2058,61 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="51"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="37"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="81"/>
-      <c r="C11" s="67" t="s">
+      <c r="B11" s="85"/>
+      <c r="C11" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="76" t="s">
+      <c r="F11" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="49">
         <v>3</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="57">
         <v>2</v>
       </c>
       <c r="I11" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="71"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="80"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="60"/>
     </row>
     <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="20" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="7"/>
@@ -2123,30 +2125,30 @@
       <c r="G12" s="7">
         <v>3</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="32">
         <v>1</v>
       </c>
-      <c r="I12" s="63">
+      <c r="I12" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="57"/>
+      <c r="J12" s="39"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="66"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="47"/>
     </row>
     <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="33"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
@@ -2160,10 +2162,10 @@
       <c r="G13" s="4">
         <v>4</v>
       </c>
-      <c r="H13" s="47">
+      <c r="H13" s="33">
         <v>0.5</v>
       </c>
-      <c r="I13" s="59">
+      <c r="I13" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2171,96 +2173,98 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="52"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="38"/>
     </row>
     <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="33"/>
-      <c r="C14" s="29" t="s">
+      <c r="B14" s="81"/>
+      <c r="C14" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="E14" s="88" t="s">
+      <c r="E14" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="28">
         <v>4</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="34">
         <v>2</v>
       </c>
-      <c r="I14" s="59">
+      <c r="I14" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="32"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="58"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="40"/>
     </row>
     <row r="15" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="31"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="68" t="s">
+      <c r="B15" s="82"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="E15" s="89" t="s">
+      <c r="E15" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="69" t="s">
+      <c r="F15" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="G15" s="68">
+      <c r="G15" s="49">
         <v>4</v>
       </c>
-      <c r="H15" s="70">
+      <c r="H15" s="51">
         <v>2</v>
       </c>
-      <c r="I15" s="50">
+      <c r="I15" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="71"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="74"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="55"/>
     </row>
     <row r="16" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="53"/>
-      <c r="C16" s="25" t="s">
+      <c r="B16" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="7"/>
@@ -2273,30 +2277,30 @@
       <c r="G16" s="7">
         <v>1</v>
       </c>
-      <c r="H16" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I16" s="63">
+      <c r="H16" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I16" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16" s="57"/>
+      <c r="J16" s="39"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="64"/>
-      <c r="T16" s="64"/>
-      <c r="U16" s="64"/>
-      <c r="V16" s="64"/>
-      <c r="W16" s="66"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="47"/>
     </row>
     <row r="17" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="53"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
@@ -2310,10 +2314,10 @@
       <c r="G17" s="7">
         <v>1</v>
       </c>
-      <c r="H17" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I17" s="59">
+      <c r="H17" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I17" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2321,19 +2325,19 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="52"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="38"/>
     </row>
     <row r="18" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="53"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="4" t="s">
         <v>31</v>
       </c>
@@ -2347,10 +2351,10 @@
       <c r="G18" s="7">
         <v>1</v>
       </c>
-      <c r="H18" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I18" s="59">
+      <c r="H18" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I18" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2358,19 +2362,19 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="52"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="38"/>
     </row>
     <row r="19" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="53"/>
+      <c r="B19" s="78"/>
       <c r="C19" s="4" t="s">
         <v>32</v>
       </c>
@@ -2384,10 +2388,10 @@
       <c r="G19" s="7">
         <v>1</v>
       </c>
-      <c r="H19" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I19" s="59">
+      <c r="H19" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I19" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2395,19 +2399,19 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="52"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="38"/>
     </row>
     <row r="20" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="53"/>
+      <c r="B20" s="78"/>
       <c r="C20" s="4" t="s">
         <v>33</v>
       </c>
@@ -2421,10 +2425,10 @@
       <c r="G20" s="7">
         <v>1</v>
       </c>
-      <c r="H20" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I20" s="59">
+      <c r="H20" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I20" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2432,19 +2436,19 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="52"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="38"/>
     </row>
     <row r="21" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="53"/>
+      <c r="B21" s="78"/>
       <c r="C21" s="4" t="s">
         <v>34</v>
       </c>
@@ -2458,10 +2462,10 @@
       <c r="G21" s="7">
         <v>1</v>
       </c>
-      <c r="H21" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I21" s="59">
+      <c r="H21" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I21" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2469,19 +2473,19 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="52"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="38"/>
     </row>
     <row r="22" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="53"/>
+      <c r="B22" s="78"/>
       <c r="C22" s="4" t="s">
         <v>35</v>
       </c>
@@ -2495,10 +2499,10 @@
       <c r="G22" s="7">
         <v>1</v>
       </c>
-      <c r="H22" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I22" s="59">
+      <c r="H22" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I22" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2506,19 +2510,19 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="52"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="38"/>
     </row>
     <row r="23" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="53"/>
+      <c r="B23" s="78"/>
       <c r="C23" s="4" t="s">
         <v>36</v>
       </c>
@@ -2532,10 +2536,10 @@
       <c r="G23" s="7">
         <v>1</v>
       </c>
-      <c r="H23" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I23" s="59">
+      <c r="H23" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I23" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2543,19 +2547,19 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="52"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="38"/>
     </row>
     <row r="24" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="53"/>
+      <c r="B24" s="78"/>
       <c r="C24" s="4" t="s">
         <v>37</v>
       </c>
@@ -2569,10 +2573,10 @@
       <c r="G24" s="7">
         <v>1</v>
       </c>
-      <c r="H24" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I24" s="59">
+      <c r="H24" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I24" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2580,19 +2584,19 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="52"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="38"/>
     </row>
     <row r="25" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="53"/>
+      <c r="B25" s="78"/>
       <c r="C25" s="4" t="s">
         <v>38</v>
       </c>
@@ -2606,10 +2610,10 @@
       <c r="G25" s="7">
         <v>1</v>
       </c>
-      <c r="H25" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I25" s="59">
+      <c r="H25" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I25" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2617,19 +2621,19 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="52"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="38"/>
     </row>
     <row r="26" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="53"/>
+      <c r="B26" s="78"/>
       <c r="C26" s="4" t="s">
         <v>39</v>
       </c>
@@ -2643,10 +2647,10 @@
       <c r="G26" s="7">
         <v>1</v>
       </c>
-      <c r="H26" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I26" s="59">
+      <c r="H26" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I26" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2654,19 +2658,19 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="52"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="38"/>
     </row>
     <row r="27" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="53"/>
+      <c r="B27" s="78"/>
       <c r="C27" s="4" t="s">
         <v>40</v>
       </c>
@@ -2680,10 +2684,10 @@
       <c r="G27" s="7">
         <v>1</v>
       </c>
-      <c r="H27" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I27" s="59">
+      <c r="H27" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I27" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2691,19 +2695,19 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="52"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="38"/>
     </row>
     <row r="28" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="53"/>
+      <c r="B28" s="78"/>
       <c r="C28" s="4" t="s">
         <v>41</v>
       </c>
@@ -2717,10 +2721,10 @@
       <c r="G28" s="7">
         <v>1</v>
       </c>
-      <c r="H28" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I28" s="59">
+      <c r="H28" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I28" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2728,19 +2732,19 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="52"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="38"/>
     </row>
     <row r="29" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="53"/>
+      <c r="B29" s="78"/>
       <c r="C29" s="4" t="s">
         <v>42</v>
       </c>
@@ -2754,10 +2758,10 @@
       <c r="G29" s="7">
         <v>1</v>
       </c>
-      <c r="H29" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I29" s="59">
+      <c r="H29" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I29" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2765,19 +2769,19 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="52"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="38"/>
     </row>
     <row r="30" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="53"/>
+      <c r="B30" s="78"/>
       <c r="C30" s="4" t="s">
         <v>43</v>
       </c>
@@ -2791,10 +2795,10 @@
       <c r="G30" s="7">
         <v>1</v>
       </c>
-      <c r="H30" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I30" s="59">
+      <c r="H30" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I30" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2802,19 +2806,19 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="41"/>
-      <c r="V30" s="41"/>
-      <c r="W30" s="52"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="38"/>
     </row>
     <row r="31" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="53"/>
+      <c r="B31" s="78"/>
       <c r="C31" s="4" t="s">
         <v>44</v>
       </c>
@@ -2828,10 +2832,10 @@
       <c r="G31" s="7">
         <v>1</v>
       </c>
-      <c r="H31" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I31" s="59">
+      <c r="H31" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I31" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2839,19 +2843,19 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="52"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="38"/>
     </row>
     <row r="32" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="53"/>
+      <c r="B32" s="78"/>
       <c r="C32" s="4" t="s">
         <v>45</v>
       </c>
@@ -2865,10 +2869,10 @@
       <c r="G32" s="7">
         <v>1</v>
       </c>
-      <c r="H32" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I32" s="59">
+      <c r="H32" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I32" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2876,19 +2880,19 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="41"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="52"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="38"/>
     </row>
     <row r="33" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="53"/>
+      <c r="B33" s="78"/>
       <c r="C33" s="4" t="s">
         <v>46</v>
       </c>
@@ -2902,10 +2906,10 @@
       <c r="G33" s="7">
         <v>1</v>
       </c>
-      <c r="H33" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I33" s="59">
+      <c r="H33" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I33" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2913,19 +2917,19 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="52"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="38"/>
     </row>
     <row r="34" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="53"/>
+      <c r="B34" s="78"/>
       <c r="C34" s="4" t="s">
         <v>47</v>
       </c>
@@ -2939,10 +2943,10 @@
       <c r="G34" s="7">
         <v>1</v>
       </c>
-      <c r="H34" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I34" s="59">
+      <c r="H34" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I34" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2950,19 +2954,19 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="52"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="38"/>
     </row>
     <row r="35" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="53"/>
+      <c r="B35" s="78"/>
       <c r="C35" s="4" t="s">
         <v>48</v>
       </c>
@@ -2976,10 +2980,10 @@
       <c r="G35" s="7">
         <v>1</v>
       </c>
-      <c r="H35" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I35" s="59">
+      <c r="H35" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I35" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2987,19 +2991,19 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
-      <c r="W35" s="52"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="38"/>
     </row>
     <row r="36" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="53"/>
+      <c r="B36" s="78"/>
       <c r="C36" s="4" t="s">
         <v>49</v>
       </c>
@@ -3013,10 +3017,10 @@
       <c r="G36" s="7">
         <v>1</v>
       </c>
-      <c r="H36" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I36" s="59">
+      <c r="H36" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I36" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3024,19 +3028,19 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="41"/>
-      <c r="V36" s="41"/>
-      <c r="W36" s="52"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="38"/>
     </row>
     <row r="37" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="53"/>
+      <c r="B37" s="78"/>
       <c r="C37" s="4" t="s">
         <v>50</v>
       </c>
@@ -3050,10 +3054,10 @@
       <c r="G37" s="7">
         <v>1</v>
       </c>
-      <c r="H37" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I37" s="59">
+      <c r="H37" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I37" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3061,19 +3065,19 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="41"/>
-      <c r="V37" s="41"/>
-      <c r="W37" s="52"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="38"/>
     </row>
     <row r="38" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="53"/>
+      <c r="B38" s="78"/>
       <c r="C38" s="4" t="s">
         <v>51</v>
       </c>
@@ -3087,10 +3091,10 @@
       <c r="G38" s="7">
         <v>1</v>
       </c>
-      <c r="H38" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I38" s="59">
+      <c r="H38" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I38" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3098,19 +3102,19 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="41"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="41"/>
-      <c r="V38" s="41"/>
-      <c r="W38" s="52"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="27"/>
+      <c r="W38" s="38"/>
     </row>
     <row r="39" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="53"/>
+      <c r="B39" s="78"/>
       <c r="C39" s="4" t="s">
         <v>52</v>
       </c>
@@ -3124,10 +3128,10 @@
       <c r="G39" s="7">
         <v>1</v>
       </c>
-      <c r="H39" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I39" s="59">
+      <c r="H39" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I39" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3135,19 +3139,19 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="41"/>
-      <c r="W39" s="52"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="27"/>
+      <c r="V39" s="27"/>
+      <c r="W39" s="38"/>
     </row>
     <row r="40" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="53"/>
+      <c r="B40" s="78"/>
       <c r="C40" s="4" t="s">
         <v>53</v>
       </c>
@@ -3161,10 +3165,10 @@
       <c r="G40" s="7">
         <v>1</v>
       </c>
-      <c r="H40" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I40" s="59">
+      <c r="H40" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I40" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3172,19 +3176,19 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="41"/>
-      <c r="T40" s="41"/>
-      <c r="U40" s="41"/>
-      <c r="V40" s="41"/>
-      <c r="W40" s="52"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="38"/>
     </row>
     <row r="41" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="53"/>
+      <c r="B41" s="78"/>
       <c r="C41" s="4" t="s">
         <v>54</v>
       </c>
@@ -3198,10 +3202,10 @@
       <c r="G41" s="7">
         <v>1</v>
       </c>
-      <c r="H41" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I41" s="59">
+      <c r="H41" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I41" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3209,19 +3213,19 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="41"/>
-      <c r="S41" s="41"/>
-      <c r="T41" s="41"/>
-      <c r="U41" s="41"/>
-      <c r="V41" s="41"/>
-      <c r="W41" s="52"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="27"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="38"/>
     </row>
     <row r="42" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="53"/>
+      <c r="B42" s="78"/>
       <c r="C42" s="4" t="s">
         <v>55</v>
       </c>
@@ -3235,10 +3239,10 @@
       <c r="G42" s="7">
         <v>1</v>
       </c>
-      <c r="H42" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I42" s="59">
+      <c r="H42" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I42" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3246,19 +3250,19 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="41"/>
-      <c r="T42" s="41"/>
-      <c r="U42" s="41"/>
-      <c r="V42" s="41"/>
-      <c r="W42" s="52"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="38"/>
     </row>
     <row r="43" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="53"/>
+      <c r="B43" s="78"/>
       <c r="C43" s="4" t="s">
         <v>56</v>
       </c>
@@ -3272,10 +3276,10 @@
       <c r="G43" s="7">
         <v>1</v>
       </c>
-      <c r="H43" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I43" s="59">
+      <c r="H43" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I43" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3283,19 +3287,19 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="41"/>
-      <c r="S43" s="41"/>
-      <c r="T43" s="41"/>
-      <c r="U43" s="41"/>
-      <c r="V43" s="41"/>
-      <c r="W43" s="52"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="38"/>
     </row>
     <row r="44" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="53"/>
+      <c r="B44" s="78"/>
       <c r="C44" s="4" t="s">
         <v>57</v>
       </c>
@@ -3309,10 +3313,10 @@
       <c r="G44" s="7">
         <v>1</v>
       </c>
-      <c r="H44" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I44" s="59">
+      <c r="H44" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I44" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3320,19 +3324,19 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
-      <c r="N44" s="41"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="41"/>
-      <c r="S44" s="41"/>
-      <c r="T44" s="41"/>
-      <c r="U44" s="41"/>
-      <c r="V44" s="41"/>
-      <c r="W44" s="52"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="27"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="38"/>
     </row>
     <row r="45" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="53"/>
+      <c r="B45" s="78"/>
       <c r="C45" s="4" t="s">
         <v>58</v>
       </c>
@@ -3346,10 +3350,10 @@
       <c r="G45" s="7">
         <v>1</v>
       </c>
-      <c r="H45" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I45" s="59">
+      <c r="H45" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I45" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3357,19 +3361,19 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
-      <c r="N45" s="41"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="41"/>
-      <c r="R45" s="41"/>
-      <c r="S45" s="41"/>
-      <c r="T45" s="41"/>
-      <c r="U45" s="41"/>
-      <c r="V45" s="41"/>
-      <c r="W45" s="52"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="38"/>
     </row>
     <row r="46" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="53"/>
+      <c r="B46" s="78"/>
       <c r="C46" s="4" t="s">
         <v>59</v>
       </c>
@@ -3383,10 +3387,10 @@
       <c r="G46" s="7">
         <v>1</v>
       </c>
-      <c r="H46" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I46" s="59">
+      <c r="H46" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I46" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3394,19 +3398,19 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="41"/>
-      <c r="R46" s="41"/>
-      <c r="S46" s="41"/>
-      <c r="T46" s="41"/>
-      <c r="U46" s="41"/>
-      <c r="V46" s="41"/>
-      <c r="W46" s="52"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="27"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="38"/>
     </row>
     <row r="47" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="53"/>
+      <c r="B47" s="78"/>
       <c r="C47" s="4" t="s">
         <v>60</v>
       </c>
@@ -3420,10 +3424,10 @@
       <c r="G47" s="7">
         <v>1</v>
       </c>
-      <c r="H47" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I47" s="59">
+      <c r="H47" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I47" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3431,19 +3435,19 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
-      <c r="N47" s="41"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="41"/>
-      <c r="R47" s="41"/>
-      <c r="S47" s="41"/>
-      <c r="T47" s="41"/>
-      <c r="U47" s="41"/>
-      <c r="V47" s="41"/>
-      <c r="W47" s="52"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="27"/>
+      <c r="T47" s="27"/>
+      <c r="U47" s="27"/>
+      <c r="V47" s="27"/>
+      <c r="W47" s="38"/>
     </row>
     <row r="48" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="53"/>
+      <c r="B48" s="78"/>
       <c r="C48" s="4" t="s">
         <v>61</v>
       </c>
@@ -3457,10 +3461,10 @@
       <c r="G48" s="7">
         <v>1</v>
       </c>
-      <c r="H48" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I48" s="59">
+      <c r="H48" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I48" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3468,19 +3472,19 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
-      <c r="N48" s="41"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="41"/>
-      <c r="R48" s="41"/>
-      <c r="S48" s="41"/>
-      <c r="T48" s="41"/>
-      <c r="U48" s="41"/>
-      <c r="V48" s="41"/>
-      <c r="W48" s="52"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="27"/>
+      <c r="T48" s="27"/>
+      <c r="U48" s="27"/>
+      <c r="V48" s="27"/>
+      <c r="W48" s="38"/>
     </row>
     <row r="49" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="53"/>
+      <c r="B49" s="78"/>
       <c r="C49" s="4" t="s">
         <v>62</v>
       </c>
@@ -3494,10 +3498,10 @@
       <c r="G49" s="7">
         <v>1</v>
       </c>
-      <c r="H49" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I49" s="59">
+      <c r="H49" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I49" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3505,19 +3509,19 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
-      <c r="N49" s="41"/>
-      <c r="O49" s="38"/>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="41"/>
-      <c r="R49" s="41"/>
-      <c r="S49" s="41"/>
-      <c r="T49" s="41"/>
-      <c r="U49" s="41"/>
-      <c r="V49" s="41"/>
-      <c r="W49" s="52"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="38"/>
     </row>
     <row r="50" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="53"/>
+      <c r="B50" s="78"/>
       <c r="C50" s="4" t="s">
         <v>63</v>
       </c>
@@ -3531,10 +3535,10 @@
       <c r="G50" s="7">
         <v>1</v>
       </c>
-      <c r="H50" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I50" s="59">
+      <c r="H50" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I50" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3542,19 +3546,19 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
-      <c r="N50" s="41"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="41"/>
-      <c r="Q50" s="41"/>
-      <c r="R50" s="41"/>
-      <c r="S50" s="41"/>
-      <c r="T50" s="41"/>
-      <c r="U50" s="41"/>
-      <c r="V50" s="41"/>
-      <c r="W50" s="52"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="27"/>
+      <c r="U50" s="27"/>
+      <c r="V50" s="27"/>
+      <c r="W50" s="38"/>
     </row>
     <row r="51" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="53"/>
+      <c r="B51" s="78"/>
       <c r="C51" s="4" t="s">
         <v>64</v>
       </c>
@@ -3568,10 +3572,10 @@
       <c r="G51" s="7">
         <v>1</v>
       </c>
-      <c r="H51" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I51" s="59">
+      <c r="H51" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I51" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3579,19 +3583,19 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
-      <c r="N51" s="41"/>
-      <c r="O51" s="38"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="41"/>
-      <c r="R51" s="41"/>
-      <c r="S51" s="41"/>
-      <c r="T51" s="41"/>
-      <c r="U51" s="41"/>
-      <c r="V51" s="41"/>
-      <c r="W51" s="52"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="27"/>
+      <c r="T51" s="27"/>
+      <c r="U51" s="27"/>
+      <c r="V51" s="27"/>
+      <c r="W51" s="38"/>
     </row>
     <row r="52" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="53"/>
+      <c r="B52" s="78"/>
       <c r="C52" s="4" t="s">
         <v>65</v>
       </c>
@@ -3605,10 +3609,10 @@
       <c r="G52" s="7">
         <v>1</v>
       </c>
-      <c r="H52" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I52" s="59">
+      <c r="H52" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I52" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3616,19 +3620,19 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
-      <c r="N52" s="41"/>
-      <c r="O52" s="38"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="41"/>
-      <c r="R52" s="41"/>
-      <c r="S52" s="41"/>
-      <c r="T52" s="41"/>
-      <c r="U52" s="41"/>
-      <c r="V52" s="41"/>
-      <c r="W52" s="52"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="27"/>
+      <c r="T52" s="27"/>
+      <c r="U52" s="27"/>
+      <c r="V52" s="27"/>
+      <c r="W52" s="38"/>
     </row>
     <row r="53" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="53"/>
+      <c r="B53" s="78"/>
       <c r="C53" s="4" t="s">
         <v>66</v>
       </c>
@@ -3642,10 +3646,10 @@
       <c r="G53" s="7">
         <v>1</v>
       </c>
-      <c r="H53" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I53" s="59">
+      <c r="H53" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I53" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3653,19 +3657,19 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
-      <c r="N53" s="41"/>
-      <c r="O53" s="38"/>
-      <c r="P53" s="41"/>
-      <c r="Q53" s="41"/>
-      <c r="R53" s="41"/>
-      <c r="S53" s="41"/>
-      <c r="T53" s="41"/>
-      <c r="U53" s="41"/>
-      <c r="V53" s="41"/>
-      <c r="W53" s="52"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="27"/>
+      <c r="T53" s="27"/>
+      <c r="U53" s="27"/>
+      <c r="V53" s="27"/>
+      <c r="W53" s="38"/>
     </row>
     <row r="54" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="53"/>
+      <c r="B54" s="78"/>
       <c r="C54" s="4" t="s">
         <v>67</v>
       </c>
@@ -3679,10 +3683,10 @@
       <c r="G54" s="7">
         <v>1</v>
       </c>
-      <c r="H54" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I54" s="59">
+      <c r="H54" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I54" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3690,19 +3694,19 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
-      <c r="N54" s="41"/>
-      <c r="O54" s="38"/>
-      <c r="P54" s="41"/>
-      <c r="Q54" s="41"/>
-      <c r="R54" s="41"/>
-      <c r="S54" s="41"/>
-      <c r="T54" s="41"/>
-      <c r="U54" s="41"/>
-      <c r="V54" s="41"/>
-      <c r="W54" s="52"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="27"/>
+      <c r="S54" s="27"/>
+      <c r="T54" s="27"/>
+      <c r="U54" s="27"/>
+      <c r="V54" s="27"/>
+      <c r="W54" s="38"/>
     </row>
     <row r="55" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="53"/>
+      <c r="B55" s="78"/>
       <c r="C55" s="4" t="s">
         <v>68</v>
       </c>
@@ -3716,10 +3720,10 @@
       <c r="G55" s="7">
         <v>1</v>
       </c>
-      <c r="H55" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I55" s="59">
+      <c r="H55" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I55" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3727,20 +3731,20 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
-      <c r="N55" s="41"/>
-      <c r="O55" s="38"/>
-      <c r="P55" s="41"/>
-      <c r="Q55" s="41"/>
-      <c r="R55" s="41"/>
-      <c r="S55" s="41"/>
-      <c r="T55" s="41"/>
-      <c r="U55" s="41"/>
-      <c r="V55" s="41"/>
-      <c r="W55" s="52"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="27"/>
+      <c r="S55" s="27"/>
+      <c r="T55" s="27"/>
+      <c r="U55" s="27"/>
+      <c r="V55" s="27"/>
+      <c r="W55" s="38"/>
     </row>
     <row r="56" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="53"/>
-      <c r="C56" s="27" t="s">
+      <c r="B56" s="78"/>
+      <c r="C56" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D56" s="4"/>
@@ -3753,10 +3757,10 @@
       <c r="G56" s="4">
         <v>2</v>
       </c>
-      <c r="H56" s="47">
+      <c r="H56" s="33">
         <v>1</v>
       </c>
-      <c r="I56" s="59">
+      <c r="I56" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3764,20 +3768,20 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
-      <c r="N56" s="41"/>
-      <c r="O56" s="38"/>
-      <c r="P56" s="41"/>
-      <c r="Q56" s="41"/>
-      <c r="R56" s="41"/>
-      <c r="S56" s="41"/>
-      <c r="T56" s="41"/>
-      <c r="U56" s="41"/>
-      <c r="V56" s="41"/>
-      <c r="W56" s="52"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="27"/>
+      <c r="Q56" s="27"/>
+      <c r="R56" s="27"/>
+      <c r="S56" s="27"/>
+      <c r="T56" s="27"/>
+      <c r="U56" s="27"/>
+      <c r="V56" s="27"/>
+      <c r="W56" s="38"/>
     </row>
     <row r="57" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="53"/>
-      <c r="C57" s="27" t="s">
+      <c r="B57" s="78"/>
+      <c r="C57" s="19" t="s">
         <v>85</v>
       </c>
       <c r="D57" s="4"/>
@@ -3790,10 +3794,10 @@
       <c r="G57" s="4">
         <v>3</v>
       </c>
-      <c r="H57" s="46">
+      <c r="H57" s="32">
         <v>0.5</v>
       </c>
-      <c r="I57" s="59">
+      <c r="I57" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3801,20 +3805,20 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
-      <c r="N57" s="41"/>
-      <c r="O57" s="38"/>
-      <c r="P57" s="41"/>
-      <c r="Q57" s="41"/>
-      <c r="R57" s="41"/>
-      <c r="S57" s="41"/>
-      <c r="T57" s="41"/>
-      <c r="U57" s="41"/>
-      <c r="V57" s="41"/>
-      <c r="W57" s="52"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="27"/>
+      <c r="T57" s="27"/>
+      <c r="U57" s="27"/>
+      <c r="V57" s="27"/>
+      <c r="W57" s="38"/>
     </row>
     <row r="58" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="53"/>
-      <c r="C58" s="27" t="s">
+      <c r="B58" s="78"/>
+      <c r="C58" s="19" t="s">
         <v>86</v>
       </c>
       <c r="D58" s="4"/>
@@ -3827,10 +3831,10 @@
       <c r="G58" s="4">
         <v>3</v>
       </c>
-      <c r="H58" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I58" s="59">
+      <c r="H58" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I58" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3838,20 +3842,20 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
-      <c r="N58" s="41"/>
-      <c r="O58" s="38"/>
-      <c r="P58" s="41"/>
-      <c r="Q58" s="41"/>
-      <c r="R58" s="41"/>
-      <c r="S58" s="41"/>
-      <c r="T58" s="41"/>
-      <c r="U58" s="41"/>
-      <c r="V58" s="41"/>
-      <c r="W58" s="52"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="27"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="27"/>
+      <c r="T58" s="27"/>
+      <c r="U58" s="27"/>
+      <c r="V58" s="27"/>
+      <c r="W58" s="38"/>
     </row>
     <row r="59" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="53"/>
-      <c r="C59" s="27" t="s">
+      <c r="B59" s="78"/>
+      <c r="C59" s="19" t="s">
         <v>87</v>
       </c>
       <c r="D59" s="4"/>
@@ -3864,10 +3868,10 @@
       <c r="G59" s="4">
         <v>3</v>
       </c>
-      <c r="H59" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I59" s="59">
+      <c r="H59" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I59" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3875,20 +3879,20 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
-      <c r="N59" s="41"/>
-      <c r="O59" s="38"/>
-      <c r="P59" s="41"/>
-      <c r="Q59" s="41"/>
-      <c r="R59" s="41"/>
-      <c r="S59" s="41"/>
-      <c r="T59" s="41"/>
-      <c r="U59" s="41"/>
-      <c r="V59" s="41"/>
-      <c r="W59" s="52"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="27"/>
+      <c r="R59" s="27"/>
+      <c r="S59" s="27"/>
+      <c r="T59" s="27"/>
+      <c r="U59" s="27"/>
+      <c r="V59" s="27"/>
+      <c r="W59" s="38"/>
     </row>
     <row r="60" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="53"/>
-      <c r="C60" s="27" t="s">
+      <c r="B60" s="78"/>
+      <c r="C60" s="19" t="s">
         <v>88</v>
       </c>
       <c r="D60" s="4"/>
@@ -3901,10 +3905,10 @@
       <c r="G60" s="4">
         <v>3</v>
       </c>
-      <c r="H60" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I60" s="59">
+      <c r="H60" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I60" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3912,20 +3916,20 @@
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="38"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="41"/>
-      <c r="S60" s="41"/>
-      <c r="T60" s="41"/>
-      <c r="U60" s="41"/>
-      <c r="V60" s="41"/>
-      <c r="W60" s="52"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="27"/>
+      <c r="Q60" s="27"/>
+      <c r="R60" s="27"/>
+      <c r="S60" s="27"/>
+      <c r="T60" s="27"/>
+      <c r="U60" s="27"/>
+      <c r="V60" s="27"/>
+      <c r="W60" s="38"/>
     </row>
     <row r="61" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="53"/>
-      <c r="C61" s="27" t="s">
+      <c r="B61" s="78"/>
+      <c r="C61" s="19" t="s">
         <v>89</v>
       </c>
       <c r="D61" s="4"/>
@@ -3938,10 +3942,10 @@
       <c r="G61" s="4">
         <v>3</v>
       </c>
-      <c r="H61" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I61" s="59">
+      <c r="H61" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I61" s="41">
         <f t="shared" ref="I61:I115" si="1">SUM(J61:W61)</f>
         <v>0</v>
       </c>
@@ -3949,20 +3953,20 @@
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
-      <c r="N61" s="41"/>
-      <c r="O61" s="38"/>
-      <c r="P61" s="41"/>
-      <c r="Q61" s="41"/>
-      <c r="R61" s="41"/>
-      <c r="S61" s="41"/>
-      <c r="T61" s="41"/>
-      <c r="U61" s="41"/>
-      <c r="V61" s="41"/>
-      <c r="W61" s="52"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="27"/>
+      <c r="Q61" s="27"/>
+      <c r="R61" s="27"/>
+      <c r="S61" s="27"/>
+      <c r="T61" s="27"/>
+      <c r="U61" s="27"/>
+      <c r="V61" s="27"/>
+      <c r="W61" s="38"/>
     </row>
     <row r="62" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="53"/>
-      <c r="C62" s="27" t="s">
+      <c r="B62" s="78"/>
+      <c r="C62" s="19" t="s">
         <v>90</v>
       </c>
       <c r="D62" s="4"/>
@@ -3975,10 +3979,10 @@
       <c r="G62" s="4">
         <v>3</v>
       </c>
-      <c r="H62" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I62" s="59">
+      <c r="H62" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I62" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3986,20 +3990,20 @@
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
-      <c r="N62" s="41"/>
-      <c r="O62" s="38"/>
-      <c r="P62" s="41"/>
-      <c r="Q62" s="41"/>
-      <c r="R62" s="41"/>
-      <c r="S62" s="41"/>
-      <c r="T62" s="41"/>
-      <c r="U62" s="41"/>
-      <c r="V62" s="41"/>
-      <c r="W62" s="52"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="27"/>
+      <c r="Q62" s="27"/>
+      <c r="R62" s="27"/>
+      <c r="S62" s="27"/>
+      <c r="T62" s="27"/>
+      <c r="U62" s="27"/>
+      <c r="V62" s="27"/>
+      <c r="W62" s="38"/>
     </row>
     <row r="63" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="53"/>
-      <c r="C63" s="27" t="s">
+      <c r="B63" s="78"/>
+      <c r="C63" s="19" t="s">
         <v>91</v>
       </c>
       <c r="D63" s="4"/>
@@ -4012,10 +4016,10 @@
       <c r="G63" s="4">
         <v>3</v>
       </c>
-      <c r="H63" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I63" s="59">
+      <c r="H63" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I63" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4023,20 +4027,20 @@
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
-      <c r="N63" s="41"/>
-      <c r="O63" s="38"/>
-      <c r="P63" s="41"/>
-      <c r="Q63" s="41"/>
-      <c r="R63" s="41"/>
-      <c r="S63" s="41"/>
-      <c r="T63" s="41"/>
-      <c r="U63" s="41"/>
-      <c r="V63" s="41"/>
-      <c r="W63" s="52"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="27"/>
+      <c r="Q63" s="27"/>
+      <c r="R63" s="27"/>
+      <c r="S63" s="27"/>
+      <c r="T63" s="27"/>
+      <c r="U63" s="27"/>
+      <c r="V63" s="27"/>
+      <c r="W63" s="38"/>
     </row>
     <row r="64" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="53"/>
-      <c r="C64" s="27" t="s">
+      <c r="B64" s="78"/>
+      <c r="C64" s="19" t="s">
         <v>92</v>
       </c>
       <c r="D64" s="4"/>
@@ -4049,10 +4053,10 @@
       <c r="G64" s="4">
         <v>3</v>
       </c>
-      <c r="H64" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I64" s="59">
+      <c r="H64" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I64" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4060,20 +4064,20 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
-      <c r="N64" s="41"/>
-      <c r="O64" s="38"/>
-      <c r="P64" s="41"/>
-      <c r="Q64" s="41"/>
-      <c r="R64" s="41"/>
-      <c r="S64" s="41"/>
-      <c r="T64" s="41"/>
-      <c r="U64" s="41"/>
-      <c r="V64" s="41"/>
-      <c r="W64" s="52"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="27"/>
+      <c r="Q64" s="27"/>
+      <c r="R64" s="27"/>
+      <c r="S64" s="27"/>
+      <c r="T64" s="27"/>
+      <c r="U64" s="27"/>
+      <c r="V64" s="27"/>
+      <c r="W64" s="38"/>
     </row>
     <row r="65" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="53"/>
-      <c r="C65" s="27" t="s">
+      <c r="B65" s="78"/>
+      <c r="C65" s="19" t="s">
         <v>93</v>
       </c>
       <c r="D65" s="4"/>
@@ -4086,10 +4090,10 @@
       <c r="G65" s="4">
         <v>3</v>
       </c>
-      <c r="H65" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I65" s="59">
+      <c r="H65" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I65" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4097,20 +4101,20 @@
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
-      <c r="N65" s="41"/>
-      <c r="O65" s="38"/>
-      <c r="P65" s="41"/>
-      <c r="Q65" s="41"/>
-      <c r="R65" s="41"/>
-      <c r="S65" s="41"/>
-      <c r="T65" s="41"/>
-      <c r="U65" s="41"/>
-      <c r="V65" s="41"/>
-      <c r="W65" s="52"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="27"/>
+      <c r="Q65" s="27"/>
+      <c r="R65" s="27"/>
+      <c r="S65" s="27"/>
+      <c r="T65" s="27"/>
+      <c r="U65" s="27"/>
+      <c r="V65" s="27"/>
+      <c r="W65" s="38"/>
     </row>
     <row r="66" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="53"/>
-      <c r="C66" s="27" t="s">
+      <c r="B66" s="78"/>
+      <c r="C66" s="19" t="s">
         <v>94</v>
       </c>
       <c r="D66" s="4"/>
@@ -4123,10 +4127,10 @@
       <c r="G66" s="4">
         <v>3</v>
       </c>
-      <c r="H66" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I66" s="59">
+      <c r="H66" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I66" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4134,20 +4138,20 @@
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
-      <c r="N66" s="41"/>
-      <c r="O66" s="38"/>
-      <c r="P66" s="41"/>
-      <c r="Q66" s="41"/>
-      <c r="R66" s="41"/>
-      <c r="S66" s="41"/>
-      <c r="T66" s="41"/>
-      <c r="U66" s="41"/>
-      <c r="V66" s="41"/>
-      <c r="W66" s="52"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="27"/>
+      <c r="Q66" s="27"/>
+      <c r="R66" s="27"/>
+      <c r="S66" s="27"/>
+      <c r="T66" s="27"/>
+      <c r="U66" s="27"/>
+      <c r="V66" s="27"/>
+      <c r="W66" s="38"/>
     </row>
     <row r="67" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="53"/>
-      <c r="C67" s="27" t="s">
+      <c r="B67" s="78"/>
+      <c r="C67" s="19" t="s">
         <v>95</v>
       </c>
       <c r="D67" s="4"/>
@@ -4160,10 +4164,10 @@
       <c r="G67" s="4">
         <v>3</v>
       </c>
-      <c r="H67" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I67" s="59">
+      <c r="H67" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I67" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4171,20 +4175,20 @@
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
-      <c r="N67" s="41"/>
-      <c r="O67" s="38"/>
-      <c r="P67" s="41"/>
-      <c r="Q67" s="41"/>
-      <c r="R67" s="41"/>
-      <c r="S67" s="41"/>
-      <c r="T67" s="41"/>
-      <c r="U67" s="41"/>
-      <c r="V67" s="41"/>
-      <c r="W67" s="52"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="27"/>
+      <c r="Q67" s="27"/>
+      <c r="R67" s="27"/>
+      <c r="S67" s="27"/>
+      <c r="T67" s="27"/>
+      <c r="U67" s="27"/>
+      <c r="V67" s="27"/>
+      <c r="W67" s="38"/>
     </row>
     <row r="68" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="53"/>
-      <c r="C68" s="27" t="s">
+      <c r="B68" s="78"/>
+      <c r="C68" s="19" t="s">
         <v>96</v>
       </c>
       <c r="D68" s="4"/>
@@ -4197,10 +4201,10 @@
       <c r="G68" s="4">
         <v>3</v>
       </c>
-      <c r="H68" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I68" s="59">
+      <c r="H68" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I68" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4208,20 +4212,20 @@
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
-      <c r="N68" s="41"/>
-      <c r="O68" s="38"/>
-      <c r="P68" s="41"/>
-      <c r="Q68" s="41"/>
-      <c r="R68" s="41"/>
-      <c r="S68" s="41"/>
-      <c r="T68" s="41"/>
-      <c r="U68" s="41"/>
-      <c r="V68" s="41"/>
-      <c r="W68" s="52"/>
+      <c r="N68" s="27"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="27"/>
+      <c r="Q68" s="27"/>
+      <c r="R68" s="27"/>
+      <c r="S68" s="27"/>
+      <c r="T68" s="27"/>
+      <c r="U68" s="27"/>
+      <c r="V68" s="27"/>
+      <c r="W68" s="38"/>
     </row>
     <row r="69" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="53"/>
-      <c r="C69" s="27" t="s">
+      <c r="B69" s="78"/>
+      <c r="C69" s="19" t="s">
         <v>97</v>
       </c>
       <c r="D69" s="4"/>
@@ -4234,10 +4238,10 @@
       <c r="G69" s="4">
         <v>3</v>
       </c>
-      <c r="H69" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I69" s="59">
+      <c r="H69" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I69" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4245,59 +4249,59 @@
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
-      <c r="N69" s="41"/>
-      <c r="O69" s="38"/>
-      <c r="P69" s="41"/>
-      <c r="Q69" s="41"/>
-      <c r="R69" s="41"/>
-      <c r="S69" s="41"/>
-      <c r="T69" s="41"/>
-      <c r="U69" s="41"/>
-      <c r="V69" s="41"/>
-      <c r="W69" s="52"/>
+      <c r="N69" s="27"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="27"/>
+      <c r="Q69" s="27"/>
+      <c r="R69" s="27"/>
+      <c r="S69" s="27"/>
+      <c r="T69" s="27"/>
+      <c r="U69" s="27"/>
+      <c r="V69" s="27"/>
+      <c r="W69" s="38"/>
     </row>
     <row r="70" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="75"/>
-      <c r="C70" s="67" t="s">
+      <c r="B70" s="79"/>
+      <c r="C70" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="D70" s="68"/>
-      <c r="E70" s="69" t="s">
+      <c r="D70" s="49"/>
+      <c r="E70" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="F70" s="69" t="s">
+      <c r="F70" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="G70" s="68">
+      <c r="G70" s="49">
         <v>3</v>
       </c>
-      <c r="H70" s="87">
+      <c r="H70" s="61">
         <v>0.25</v>
       </c>
       <c r="I70" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J70" s="71"/>
-      <c r="K70" s="68"/>
-      <c r="L70" s="68"/>
-      <c r="M70" s="68"/>
-      <c r="N70" s="72"/>
-      <c r="O70" s="73"/>
-      <c r="P70" s="72"/>
-      <c r="Q70" s="72"/>
-      <c r="R70" s="72"/>
-      <c r="S70" s="72"/>
-      <c r="T70" s="72"/>
-      <c r="U70" s="72"/>
-      <c r="V70" s="72"/>
-      <c r="W70" s="74"/>
+      <c r="J70" s="52"/>
+      <c r="K70" s="49"/>
+      <c r="L70" s="49"/>
+      <c r="M70" s="49"/>
+      <c r="N70" s="53"/>
+      <c r="O70" s="54"/>
+      <c r="P70" s="53"/>
+      <c r="Q70" s="53"/>
+      <c r="R70" s="53"/>
+      <c r="S70" s="53"/>
+      <c r="T70" s="53"/>
+      <c r="U70" s="53"/>
+      <c r="V70" s="53"/>
+      <c r="W70" s="55"/>
     </row>
     <row r="71" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="82" t="s">
+      <c r="B71" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="62" t="s">
+      <c r="C71" s="43" t="s">
         <v>71</v>
       </c>
       <c r="D71" s="7"/>
@@ -4310,31 +4314,31 @@
       <c r="G71" s="7">
         <v>2</v>
       </c>
-      <c r="H71" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I71" s="63">
+      <c r="H71" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I71" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J71" s="57"/>
+      <c r="J71" s="39"/>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
-      <c r="N71" s="64"/>
-      <c r="O71" s="65"/>
-      <c r="P71" s="64"/>
-      <c r="Q71" s="64"/>
-      <c r="R71" s="64"/>
-      <c r="S71" s="64"/>
-      <c r="T71" s="64"/>
-      <c r="U71" s="64"/>
-      <c r="V71" s="64"/>
-      <c r="W71" s="66"/>
+      <c r="N71" s="45"/>
+      <c r="O71" s="46"/>
+      <c r="P71" s="45"/>
+      <c r="Q71" s="45"/>
+      <c r="R71" s="45"/>
+      <c r="S71" s="45"/>
+      <c r="T71" s="45"/>
+      <c r="U71" s="45"/>
+      <c r="V71" s="45"/>
+      <c r="W71" s="47"/>
     </row>
     <row r="72" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="53"/>
-      <c r="C72" s="27" t="s">
+      <c r="B72" s="78"/>
+      <c r="C72" s="19" t="s">
         <v>72</v>
       </c>
       <c r="D72" s="4"/>
@@ -4347,10 +4351,10 @@
       <c r="G72" s="4">
         <v>2</v>
       </c>
-      <c r="H72" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I72" s="59">
+      <c r="H72" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I72" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4358,20 +4362,20 @@
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
-      <c r="N72" s="41"/>
-      <c r="O72" s="38"/>
-      <c r="P72" s="41"/>
-      <c r="Q72" s="41"/>
-      <c r="R72" s="41"/>
-      <c r="S72" s="41"/>
-      <c r="T72" s="41"/>
-      <c r="U72" s="41"/>
-      <c r="V72" s="41"/>
-      <c r="W72" s="52"/>
+      <c r="N72" s="27"/>
+      <c r="O72" s="24"/>
+      <c r="P72" s="27"/>
+      <c r="Q72" s="27"/>
+      <c r="R72" s="27"/>
+      <c r="S72" s="27"/>
+      <c r="T72" s="27"/>
+      <c r="U72" s="27"/>
+      <c r="V72" s="27"/>
+      <c r="W72" s="38"/>
     </row>
     <row r="73" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="53"/>
-      <c r="C73" s="27" t="s">
+      <c r="B73" s="78"/>
+      <c r="C73" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D73" s="4"/>
@@ -4384,10 +4388,10 @@
       <c r="G73" s="4">
         <v>2</v>
       </c>
-      <c r="H73" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I73" s="59">
+      <c r="H73" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I73" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4395,20 +4399,20 @@
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
-      <c r="N73" s="41"/>
-      <c r="O73" s="38"/>
-      <c r="P73" s="41"/>
-      <c r="Q73" s="41"/>
-      <c r="R73" s="41"/>
-      <c r="S73" s="41"/>
-      <c r="T73" s="41"/>
-      <c r="U73" s="41"/>
-      <c r="V73" s="41"/>
-      <c r="W73" s="52"/>
+      <c r="N73" s="27"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="27"/>
+      <c r="Q73" s="27"/>
+      <c r="R73" s="27"/>
+      <c r="S73" s="27"/>
+      <c r="T73" s="27"/>
+      <c r="U73" s="27"/>
+      <c r="V73" s="27"/>
+      <c r="W73" s="38"/>
     </row>
     <row r="74" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="53"/>
-      <c r="C74" s="27" t="s">
+      <c r="B74" s="78"/>
+      <c r="C74" s="19" t="s">
         <v>74</v>
       </c>
       <c r="D74" s="4"/>
@@ -4421,10 +4425,10 @@
       <c r="G74" s="4">
         <v>2</v>
       </c>
-      <c r="H74" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I74" s="59">
+      <c r="H74" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I74" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4432,20 +4436,20 @@
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
-      <c r="N74" s="41"/>
-      <c r="O74" s="38"/>
-      <c r="P74" s="41"/>
-      <c r="Q74" s="41"/>
-      <c r="R74" s="41"/>
-      <c r="S74" s="41"/>
-      <c r="T74" s="41"/>
-      <c r="U74" s="41"/>
-      <c r="V74" s="41"/>
-      <c r="W74" s="52"/>
+      <c r="N74" s="27"/>
+      <c r="O74" s="24"/>
+      <c r="P74" s="27"/>
+      <c r="Q74" s="27"/>
+      <c r="R74" s="27"/>
+      <c r="S74" s="27"/>
+      <c r="T74" s="27"/>
+      <c r="U74" s="27"/>
+      <c r="V74" s="27"/>
+      <c r="W74" s="38"/>
     </row>
     <row r="75" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="53"/>
-      <c r="C75" s="27" t="s">
+      <c r="B75" s="78"/>
+      <c r="C75" s="19" t="s">
         <v>75</v>
       </c>
       <c r="D75" s="4"/>
@@ -4458,10 +4462,10 @@
       <c r="G75" s="4">
         <v>2</v>
       </c>
-      <c r="H75" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I75" s="59">
+      <c r="H75" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I75" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4469,20 +4473,20 @@
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
-      <c r="N75" s="41"/>
-      <c r="O75" s="38"/>
-      <c r="P75" s="41"/>
-      <c r="Q75" s="41"/>
-      <c r="R75" s="41"/>
-      <c r="S75" s="41"/>
-      <c r="T75" s="41"/>
-      <c r="U75" s="41"/>
-      <c r="V75" s="41"/>
-      <c r="W75" s="52"/>
+      <c r="N75" s="27"/>
+      <c r="O75" s="24"/>
+      <c r="P75" s="27"/>
+      <c r="Q75" s="27"/>
+      <c r="R75" s="27"/>
+      <c r="S75" s="27"/>
+      <c r="T75" s="27"/>
+      <c r="U75" s="27"/>
+      <c r="V75" s="27"/>
+      <c r="W75" s="38"/>
     </row>
     <row r="76" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="53"/>
-      <c r="C76" s="27" t="s">
+      <c r="B76" s="78"/>
+      <c r="C76" s="19" t="s">
         <v>76</v>
       </c>
       <c r="D76" s="4"/>
@@ -4495,10 +4499,10 @@
       <c r="G76" s="4">
         <v>2</v>
       </c>
-      <c r="H76" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I76" s="59">
+      <c r="H76" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I76" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4506,20 +4510,20 @@
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
-      <c r="N76" s="41"/>
-      <c r="O76" s="38"/>
-      <c r="P76" s="41"/>
-      <c r="Q76" s="41"/>
-      <c r="R76" s="41"/>
-      <c r="S76" s="41"/>
-      <c r="T76" s="41"/>
-      <c r="U76" s="41"/>
-      <c r="V76" s="41"/>
-      <c r="W76" s="52"/>
+      <c r="N76" s="27"/>
+      <c r="O76" s="24"/>
+      <c r="P76" s="27"/>
+      <c r="Q76" s="27"/>
+      <c r="R76" s="27"/>
+      <c r="S76" s="27"/>
+      <c r="T76" s="27"/>
+      <c r="U76" s="27"/>
+      <c r="V76" s="27"/>
+      <c r="W76" s="38"/>
     </row>
     <row r="77" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="53"/>
-      <c r="C77" s="27" t="s">
+      <c r="B77" s="78"/>
+      <c r="C77" s="19" t="s">
         <v>77</v>
       </c>
       <c r="D77" s="4"/>
@@ -4532,10 +4536,10 @@
       <c r="G77" s="4">
         <v>2</v>
       </c>
-      <c r="H77" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I77" s="59">
+      <c r="H77" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I77" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4543,20 +4547,20 @@
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
-      <c r="N77" s="41"/>
-      <c r="O77" s="38"/>
-      <c r="P77" s="41"/>
-      <c r="Q77" s="41"/>
-      <c r="R77" s="41"/>
-      <c r="S77" s="41"/>
-      <c r="T77" s="41"/>
-      <c r="U77" s="41"/>
-      <c r="V77" s="41"/>
-      <c r="W77" s="52"/>
+      <c r="N77" s="27"/>
+      <c r="O77" s="24"/>
+      <c r="P77" s="27"/>
+      <c r="Q77" s="27"/>
+      <c r="R77" s="27"/>
+      <c r="S77" s="27"/>
+      <c r="T77" s="27"/>
+      <c r="U77" s="27"/>
+      <c r="V77" s="27"/>
+      <c r="W77" s="38"/>
     </row>
     <row r="78" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="53"/>
-      <c r="C78" s="27" t="s">
+      <c r="B78" s="78"/>
+      <c r="C78" s="19" t="s">
         <v>78</v>
       </c>
       <c r="D78" s="4"/>
@@ -4569,10 +4573,10 @@
       <c r="G78" s="4">
         <v>2</v>
       </c>
-      <c r="H78" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I78" s="59">
+      <c r="H78" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I78" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4580,20 +4584,20 @@
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
-      <c r="N78" s="41"/>
-      <c r="O78" s="38"/>
-      <c r="P78" s="41"/>
-      <c r="Q78" s="41"/>
-      <c r="R78" s="41"/>
-      <c r="S78" s="41"/>
-      <c r="T78" s="41"/>
-      <c r="U78" s="41"/>
-      <c r="V78" s="41"/>
-      <c r="W78" s="52"/>
+      <c r="N78" s="27"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="27"/>
+      <c r="Q78" s="27"/>
+      <c r="R78" s="27"/>
+      <c r="S78" s="27"/>
+      <c r="T78" s="27"/>
+      <c r="U78" s="27"/>
+      <c r="V78" s="27"/>
+      <c r="W78" s="38"/>
     </row>
     <row r="79" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="53"/>
-      <c r="C79" s="27" t="s">
+      <c r="B79" s="78"/>
+      <c r="C79" s="19" t="s">
         <v>79</v>
       </c>
       <c r="D79" s="4"/>
@@ -4606,10 +4610,10 @@
       <c r="G79" s="4">
         <v>2</v>
       </c>
-      <c r="H79" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I79" s="59">
+      <c r="H79" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I79" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4617,20 +4621,20 @@
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
-      <c r="N79" s="41"/>
-      <c r="O79" s="38"/>
-      <c r="P79" s="41"/>
-      <c r="Q79" s="41"/>
-      <c r="R79" s="41"/>
-      <c r="S79" s="41"/>
-      <c r="T79" s="41"/>
-      <c r="U79" s="41"/>
-      <c r="V79" s="41"/>
-      <c r="W79" s="52"/>
+      <c r="N79" s="27"/>
+      <c r="O79" s="24"/>
+      <c r="P79" s="27"/>
+      <c r="Q79" s="27"/>
+      <c r="R79" s="27"/>
+      <c r="S79" s="27"/>
+      <c r="T79" s="27"/>
+      <c r="U79" s="27"/>
+      <c r="V79" s="27"/>
+      <c r="W79" s="38"/>
     </row>
     <row r="80" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="53"/>
-      <c r="C80" s="27" t="s">
+      <c r="B80" s="78"/>
+      <c r="C80" s="19" t="s">
         <v>80</v>
       </c>
       <c r="D80" s="4"/>
@@ -4643,10 +4647,10 @@
       <c r="G80" s="4">
         <v>2</v>
       </c>
-      <c r="H80" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I80" s="59">
+      <c r="H80" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I80" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4654,20 +4658,20 @@
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
-      <c r="N80" s="41"/>
-      <c r="O80" s="38"/>
-      <c r="P80" s="41"/>
-      <c r="Q80" s="41"/>
-      <c r="R80" s="41"/>
-      <c r="S80" s="41"/>
-      <c r="T80" s="41"/>
-      <c r="U80" s="41"/>
-      <c r="V80" s="41"/>
-      <c r="W80" s="52"/>
+      <c r="N80" s="27"/>
+      <c r="O80" s="24"/>
+      <c r="P80" s="27"/>
+      <c r="Q80" s="27"/>
+      <c r="R80" s="27"/>
+      <c r="S80" s="27"/>
+      <c r="T80" s="27"/>
+      <c r="U80" s="27"/>
+      <c r="V80" s="27"/>
+      <c r="W80" s="38"/>
     </row>
     <row r="81" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="53"/>
-      <c r="C81" s="27" t="s">
+      <c r="B81" s="78"/>
+      <c r="C81" s="19" t="s">
         <v>81</v>
       </c>
       <c r="D81" s="4"/>
@@ -4680,10 +4684,10 @@
       <c r="G81" s="4">
         <v>2</v>
       </c>
-      <c r="H81" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I81" s="59">
+      <c r="H81" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I81" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4691,20 +4695,20 @@
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
-      <c r="N81" s="41"/>
-      <c r="O81" s="38"/>
-      <c r="P81" s="41"/>
-      <c r="Q81" s="41"/>
-      <c r="R81" s="41"/>
-      <c r="S81" s="41"/>
-      <c r="T81" s="41"/>
-      <c r="U81" s="41"/>
-      <c r="V81" s="41"/>
-      <c r="W81" s="52"/>
+      <c r="N81" s="27"/>
+      <c r="O81" s="24"/>
+      <c r="P81" s="27"/>
+      <c r="Q81" s="27"/>
+      <c r="R81" s="27"/>
+      <c r="S81" s="27"/>
+      <c r="T81" s="27"/>
+      <c r="U81" s="27"/>
+      <c r="V81" s="27"/>
+      <c r="W81" s="38"/>
     </row>
     <row r="82" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="53"/>
-      <c r="C82" s="27" t="s">
+      <c r="B82" s="78"/>
+      <c r="C82" s="19" t="s">
         <v>82</v>
       </c>
       <c r="D82" s="4"/>
@@ -4717,10 +4721,10 @@
       <c r="G82" s="4">
         <v>2</v>
       </c>
-      <c r="H82" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I82" s="59">
+      <c r="H82" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I82" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4728,20 +4732,20 @@
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
-      <c r="N82" s="41"/>
-      <c r="O82" s="38"/>
-      <c r="P82" s="41"/>
-      <c r="Q82" s="41"/>
-      <c r="R82" s="41"/>
-      <c r="S82" s="41"/>
-      <c r="T82" s="41"/>
-      <c r="U82" s="41"/>
-      <c r="V82" s="41"/>
-      <c r="W82" s="52"/>
+      <c r="N82" s="27"/>
+      <c r="O82" s="24"/>
+      <c r="P82" s="27"/>
+      <c r="Q82" s="27"/>
+      <c r="R82" s="27"/>
+      <c r="S82" s="27"/>
+      <c r="T82" s="27"/>
+      <c r="U82" s="27"/>
+      <c r="V82" s="27"/>
+      <c r="W82" s="38"/>
     </row>
     <row r="83" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="53"/>
-      <c r="C83" s="27" t="s">
+      <c r="B83" s="78"/>
+      <c r="C83" s="19" t="s">
         <v>83</v>
       </c>
       <c r="D83" s="4"/>
@@ -4754,10 +4758,10 @@
       <c r="G83" s="4">
         <v>2</v>
       </c>
-      <c r="H83" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I83" s="59">
+      <c r="H83" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I83" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4765,56 +4769,56 @@
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
-      <c r="N83" s="41"/>
-      <c r="O83" s="38"/>
-      <c r="P83" s="41"/>
-      <c r="Q83" s="41"/>
-      <c r="R83" s="41"/>
-      <c r="S83" s="41"/>
-      <c r="T83" s="41"/>
-      <c r="U83" s="41"/>
-      <c r="V83" s="41"/>
-      <c r="W83" s="52"/>
+      <c r="N83" s="27"/>
+      <c r="O83" s="24"/>
+      <c r="P83" s="27"/>
+      <c r="Q83" s="27"/>
+      <c r="R83" s="27"/>
+      <c r="S83" s="27"/>
+      <c r="T83" s="27"/>
+      <c r="U83" s="27"/>
+      <c r="V83" s="27"/>
+      <c r="W83" s="38"/>
     </row>
     <row r="84" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="75"/>
-      <c r="C84" s="67" t="s">
+      <c r="B84" s="79"/>
+      <c r="C84" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="D84" s="68"/>
-      <c r="E84" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="F84" s="68" t="s">
+      <c r="D84" s="49"/>
+      <c r="E84" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="F84" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="G84" s="68">
+      <c r="G84" s="49">
         <v>2</v>
       </c>
-      <c r="H84" s="87">
+      <c r="H84" s="61">
         <v>0.25</v>
       </c>
       <c r="I84" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J84" s="71"/>
-      <c r="K84" s="68"/>
-      <c r="L84" s="68"/>
-      <c r="M84" s="68"/>
-      <c r="N84" s="72"/>
-      <c r="O84" s="73"/>
-      <c r="P84" s="72"/>
-      <c r="Q84" s="72"/>
-      <c r="R84" s="72"/>
-      <c r="S84" s="72"/>
-      <c r="T84" s="72"/>
-      <c r="U84" s="72"/>
-      <c r="V84" s="72"/>
-      <c r="W84" s="74"/>
+      <c r="J84" s="52"/>
+      <c r="K84" s="49"/>
+      <c r="L84" s="49"/>
+      <c r="M84" s="49"/>
+      <c r="N84" s="53"/>
+      <c r="O84" s="54"/>
+      <c r="P84" s="53"/>
+      <c r="Q84" s="53"/>
+      <c r="R84" s="53"/>
+      <c r="S84" s="53"/>
+      <c r="T84" s="53"/>
+      <c r="U84" s="53"/>
+      <c r="V84" s="53"/>
+      <c r="W84" s="55"/>
     </row>
     <row r="85" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="84" t="s">
+      <c r="B85" s="68" t="s">
         <v>99</v>
       </c>
       <c r="C85" s="7" t="s">
@@ -4830,30 +4834,30 @@
       <c r="G85" s="7">
         <v>1</v>
       </c>
-      <c r="H85" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I85" s="63">
+      <c r="H85" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I85" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J85" s="57"/>
+      <c r="J85" s="39"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
-      <c r="N85" s="64"/>
-      <c r="O85" s="65"/>
-      <c r="P85" s="64"/>
-      <c r="Q85" s="64"/>
-      <c r="R85" s="64"/>
-      <c r="S85" s="64"/>
-      <c r="T85" s="64"/>
-      <c r="U85" s="64"/>
-      <c r="V85" s="64"/>
-      <c r="W85" s="66"/>
+      <c r="N85" s="45"/>
+      <c r="O85" s="46"/>
+      <c r="P85" s="45"/>
+      <c r="Q85" s="45"/>
+      <c r="R85" s="45"/>
+      <c r="S85" s="45"/>
+      <c r="T85" s="45"/>
+      <c r="U85" s="45"/>
+      <c r="V85" s="45"/>
+      <c r="W85" s="47"/>
     </row>
     <row r="86" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="54"/>
+      <c r="B86" s="69"/>
       <c r="C86" s="4" t="s">
         <v>29</v>
       </c>
@@ -4867,10 +4871,10 @@
       <c r="G86" s="7">
         <v>1</v>
       </c>
-      <c r="H86" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I86" s="59">
+      <c r="H86" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I86" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4878,19 +4882,19 @@
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
-      <c r="N86" s="41"/>
-      <c r="O86" s="38"/>
-      <c r="P86" s="41"/>
-      <c r="Q86" s="41"/>
-      <c r="R86" s="41"/>
-      <c r="S86" s="41"/>
-      <c r="T86" s="41"/>
-      <c r="U86" s="41"/>
-      <c r="V86" s="41"/>
-      <c r="W86" s="52"/>
+      <c r="N86" s="27"/>
+      <c r="O86" s="24"/>
+      <c r="P86" s="27"/>
+      <c r="Q86" s="27"/>
+      <c r="R86" s="27"/>
+      <c r="S86" s="27"/>
+      <c r="T86" s="27"/>
+      <c r="U86" s="27"/>
+      <c r="V86" s="27"/>
+      <c r="W86" s="38"/>
     </row>
     <row r="87" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="54"/>
+      <c r="B87" s="69"/>
       <c r="C87" s="4" t="s">
         <v>31</v>
       </c>
@@ -4904,10 +4908,10 @@
       <c r="G87" s="7">
         <v>1</v>
       </c>
-      <c r="H87" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I87" s="59">
+      <c r="H87" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I87" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4915,19 +4919,19 @@
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
-      <c r="N87" s="41"/>
-      <c r="O87" s="38"/>
-      <c r="P87" s="41"/>
-      <c r="Q87" s="41"/>
-      <c r="R87" s="41"/>
-      <c r="S87" s="41"/>
-      <c r="T87" s="41"/>
-      <c r="U87" s="41"/>
-      <c r="V87" s="41"/>
-      <c r="W87" s="52"/>
+      <c r="N87" s="27"/>
+      <c r="O87" s="24"/>
+      <c r="P87" s="27"/>
+      <c r="Q87" s="27"/>
+      <c r="R87" s="27"/>
+      <c r="S87" s="27"/>
+      <c r="T87" s="27"/>
+      <c r="U87" s="27"/>
+      <c r="V87" s="27"/>
+      <c r="W87" s="38"/>
     </row>
     <row r="88" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="54"/>
+      <c r="B88" s="69"/>
       <c r="C88" s="4" t="s">
         <v>32</v>
       </c>
@@ -4941,10 +4945,10 @@
       <c r="G88" s="7">
         <v>1</v>
       </c>
-      <c r="H88" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I88" s="59">
+      <c r="H88" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I88" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4952,19 +4956,19 @@
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
-      <c r="N88" s="41"/>
-      <c r="O88" s="38"/>
-      <c r="P88" s="41"/>
-      <c r="Q88" s="41"/>
-      <c r="R88" s="41"/>
-      <c r="S88" s="41"/>
-      <c r="T88" s="41"/>
-      <c r="U88" s="41"/>
-      <c r="V88" s="41"/>
-      <c r="W88" s="52"/>
+      <c r="N88" s="27"/>
+      <c r="O88" s="24"/>
+      <c r="P88" s="27"/>
+      <c r="Q88" s="27"/>
+      <c r="R88" s="27"/>
+      <c r="S88" s="27"/>
+      <c r="T88" s="27"/>
+      <c r="U88" s="27"/>
+      <c r="V88" s="27"/>
+      <c r="W88" s="38"/>
     </row>
     <row r="89" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="54"/>
+      <c r="B89" s="69"/>
       <c r="C89" s="4" t="s">
         <v>33</v>
       </c>
@@ -4978,10 +4982,10 @@
       <c r="G89" s="7">
         <v>1</v>
       </c>
-      <c r="H89" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I89" s="59">
+      <c r="H89" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I89" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4989,19 +4993,19 @@
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
-      <c r="N89" s="41"/>
-      <c r="O89" s="38"/>
-      <c r="P89" s="41"/>
-      <c r="Q89" s="41"/>
-      <c r="R89" s="41"/>
-      <c r="S89" s="41"/>
-      <c r="T89" s="41"/>
-      <c r="U89" s="41"/>
-      <c r="V89" s="41"/>
-      <c r="W89" s="52"/>
+      <c r="N89" s="27"/>
+      <c r="O89" s="24"/>
+      <c r="P89" s="27"/>
+      <c r="Q89" s="27"/>
+      <c r="R89" s="27"/>
+      <c r="S89" s="27"/>
+      <c r="T89" s="27"/>
+      <c r="U89" s="27"/>
+      <c r="V89" s="27"/>
+      <c r="W89" s="38"/>
     </row>
     <row r="90" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="54"/>
+      <c r="B90" s="69"/>
       <c r="C90" s="4" t="s">
         <v>34</v>
       </c>
@@ -5015,10 +5019,10 @@
       <c r="G90" s="7">
         <v>1</v>
       </c>
-      <c r="H90" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I90" s="59">
+      <c r="H90" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I90" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5026,19 +5030,19 @@
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
-      <c r="N90" s="41"/>
-      <c r="O90" s="38"/>
-      <c r="P90" s="41"/>
-      <c r="Q90" s="41"/>
-      <c r="R90" s="41"/>
-      <c r="S90" s="41"/>
-      <c r="T90" s="41"/>
-      <c r="U90" s="41"/>
-      <c r="V90" s="41"/>
-      <c r="W90" s="52"/>
+      <c r="N90" s="27"/>
+      <c r="O90" s="24"/>
+      <c r="P90" s="27"/>
+      <c r="Q90" s="27"/>
+      <c r="R90" s="27"/>
+      <c r="S90" s="27"/>
+      <c r="T90" s="27"/>
+      <c r="U90" s="27"/>
+      <c r="V90" s="27"/>
+      <c r="W90" s="38"/>
     </row>
     <row r="91" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="54"/>
+      <c r="B91" s="69"/>
       <c r="C91" s="4" t="s">
         <v>35</v>
       </c>
@@ -5052,10 +5056,10 @@
       <c r="G91" s="7">
         <v>1</v>
       </c>
-      <c r="H91" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I91" s="59">
+      <c r="H91" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I91" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5063,19 +5067,19 @@
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
-      <c r="N91" s="41"/>
-      <c r="O91" s="38"/>
-      <c r="P91" s="41"/>
-      <c r="Q91" s="41"/>
-      <c r="R91" s="41"/>
-      <c r="S91" s="41"/>
-      <c r="T91" s="41"/>
-      <c r="U91" s="41"/>
-      <c r="V91" s="41"/>
-      <c r="W91" s="52"/>
+      <c r="N91" s="27"/>
+      <c r="O91" s="24"/>
+      <c r="P91" s="27"/>
+      <c r="Q91" s="27"/>
+      <c r="R91" s="27"/>
+      <c r="S91" s="27"/>
+      <c r="T91" s="27"/>
+      <c r="U91" s="27"/>
+      <c r="V91" s="27"/>
+      <c r="W91" s="38"/>
     </row>
     <row r="92" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="54"/>
+      <c r="B92" s="69"/>
       <c r="C92" s="4" t="s">
         <v>36</v>
       </c>
@@ -5089,10 +5093,10 @@
       <c r="G92" s="7">
         <v>1</v>
       </c>
-      <c r="H92" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I92" s="59">
+      <c r="H92" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I92" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5100,19 +5104,19 @@
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
-      <c r="N92" s="41"/>
-      <c r="O92" s="38"/>
-      <c r="P92" s="41"/>
-      <c r="Q92" s="41"/>
-      <c r="R92" s="41"/>
-      <c r="S92" s="41"/>
-      <c r="T92" s="41"/>
-      <c r="U92" s="41"/>
-      <c r="V92" s="41"/>
-      <c r="W92" s="52"/>
+      <c r="N92" s="27"/>
+      <c r="O92" s="24"/>
+      <c r="P92" s="27"/>
+      <c r="Q92" s="27"/>
+      <c r="R92" s="27"/>
+      <c r="S92" s="27"/>
+      <c r="T92" s="27"/>
+      <c r="U92" s="27"/>
+      <c r="V92" s="27"/>
+      <c r="W92" s="38"/>
     </row>
     <row r="93" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="54"/>
+      <c r="B93" s="69"/>
       <c r="C93" s="4" t="s">
         <v>37</v>
       </c>
@@ -5126,10 +5130,10 @@
       <c r="G93" s="7">
         <v>1</v>
       </c>
-      <c r="H93" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I93" s="59">
+      <c r="H93" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I93" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5137,19 +5141,19 @@
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
-      <c r="N93" s="41"/>
-      <c r="O93" s="38"/>
-      <c r="P93" s="41"/>
-      <c r="Q93" s="41"/>
-      <c r="R93" s="41"/>
-      <c r="S93" s="41"/>
-      <c r="T93" s="41"/>
-      <c r="U93" s="41"/>
-      <c r="V93" s="41"/>
-      <c r="W93" s="52"/>
+      <c r="N93" s="27"/>
+      <c r="O93" s="24"/>
+      <c r="P93" s="27"/>
+      <c r="Q93" s="27"/>
+      <c r="R93" s="27"/>
+      <c r="S93" s="27"/>
+      <c r="T93" s="27"/>
+      <c r="U93" s="27"/>
+      <c r="V93" s="27"/>
+      <c r="W93" s="38"/>
     </row>
     <row r="94" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="54"/>
+      <c r="B94" s="69"/>
       <c r="C94" s="4" t="s">
         <v>38</v>
       </c>
@@ -5163,10 +5167,10 @@
       <c r="G94" s="7">
         <v>1</v>
       </c>
-      <c r="H94" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I94" s="59">
+      <c r="H94" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I94" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5174,19 +5178,19 @@
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
-      <c r="N94" s="41"/>
-      <c r="O94" s="38"/>
-      <c r="P94" s="41"/>
-      <c r="Q94" s="41"/>
-      <c r="R94" s="41"/>
-      <c r="S94" s="41"/>
-      <c r="T94" s="41"/>
-      <c r="U94" s="41"/>
-      <c r="V94" s="41"/>
-      <c r="W94" s="52"/>
+      <c r="N94" s="27"/>
+      <c r="O94" s="24"/>
+      <c r="P94" s="27"/>
+      <c r="Q94" s="27"/>
+      <c r="R94" s="27"/>
+      <c r="S94" s="27"/>
+      <c r="T94" s="27"/>
+      <c r="U94" s="27"/>
+      <c r="V94" s="27"/>
+      <c r="W94" s="38"/>
     </row>
     <row r="95" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="54"/>
+      <c r="B95" s="69"/>
       <c r="C95" s="4" t="s">
         <v>39</v>
       </c>
@@ -5200,10 +5204,10 @@
       <c r="G95" s="7">
         <v>1</v>
       </c>
-      <c r="H95" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I95" s="59">
+      <c r="H95" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I95" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5211,19 +5215,19 @@
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
-      <c r="N95" s="41"/>
-      <c r="O95" s="38"/>
-      <c r="P95" s="41"/>
-      <c r="Q95" s="41"/>
-      <c r="R95" s="41"/>
-      <c r="S95" s="41"/>
-      <c r="T95" s="41"/>
-      <c r="U95" s="41"/>
-      <c r="V95" s="41"/>
-      <c r="W95" s="52"/>
+      <c r="N95" s="27"/>
+      <c r="O95" s="24"/>
+      <c r="P95" s="27"/>
+      <c r="Q95" s="27"/>
+      <c r="R95" s="27"/>
+      <c r="S95" s="27"/>
+      <c r="T95" s="27"/>
+      <c r="U95" s="27"/>
+      <c r="V95" s="27"/>
+      <c r="W95" s="38"/>
     </row>
     <row r="96" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="54"/>
+      <c r="B96" s="69"/>
       <c r="C96" s="4" t="s">
         <v>40</v>
       </c>
@@ -5237,10 +5241,10 @@
       <c r="G96" s="7">
         <v>1</v>
       </c>
-      <c r="H96" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I96" s="59">
+      <c r="H96" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I96" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5248,19 +5252,19 @@
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
-      <c r="N96" s="41"/>
-      <c r="O96" s="38"/>
-      <c r="P96" s="41"/>
-      <c r="Q96" s="41"/>
-      <c r="R96" s="41"/>
-      <c r="S96" s="41"/>
-      <c r="T96" s="41"/>
-      <c r="U96" s="41"/>
-      <c r="V96" s="41"/>
-      <c r="W96" s="52"/>
+      <c r="N96" s="27"/>
+      <c r="O96" s="24"/>
+      <c r="P96" s="27"/>
+      <c r="Q96" s="27"/>
+      <c r="R96" s="27"/>
+      <c r="S96" s="27"/>
+      <c r="T96" s="27"/>
+      <c r="U96" s="27"/>
+      <c r="V96" s="27"/>
+      <c r="W96" s="38"/>
     </row>
     <row r="97" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="54"/>
+      <c r="B97" s="69"/>
       <c r="C97" s="4" t="s">
         <v>41</v>
       </c>
@@ -5274,10 +5278,10 @@
       <c r="G97" s="7">
         <v>1</v>
       </c>
-      <c r="H97" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I97" s="59">
+      <c r="H97" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I97" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5285,19 +5289,19 @@
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
-      <c r="N97" s="41"/>
-      <c r="O97" s="38"/>
-      <c r="P97" s="41"/>
-      <c r="Q97" s="41"/>
-      <c r="R97" s="41"/>
-      <c r="S97" s="41"/>
-      <c r="T97" s="41"/>
-      <c r="U97" s="41"/>
-      <c r="V97" s="41"/>
-      <c r="W97" s="52"/>
+      <c r="N97" s="27"/>
+      <c r="O97" s="24"/>
+      <c r="P97" s="27"/>
+      <c r="Q97" s="27"/>
+      <c r="R97" s="27"/>
+      <c r="S97" s="27"/>
+      <c r="T97" s="27"/>
+      <c r="U97" s="27"/>
+      <c r="V97" s="27"/>
+      <c r="W97" s="38"/>
     </row>
     <row r="98" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="54"/>
+      <c r="B98" s="69"/>
       <c r="C98" s="4" t="s">
         <v>42</v>
       </c>
@@ -5311,10 +5315,10 @@
       <c r="G98" s="7">
         <v>1</v>
       </c>
-      <c r="H98" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I98" s="59">
+      <c r="H98" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I98" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5322,19 +5326,19 @@
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
-      <c r="N98" s="41"/>
-      <c r="O98" s="38"/>
-      <c r="P98" s="41"/>
-      <c r="Q98" s="41"/>
-      <c r="R98" s="41"/>
-      <c r="S98" s="41"/>
-      <c r="T98" s="41"/>
-      <c r="U98" s="41"/>
-      <c r="V98" s="41"/>
-      <c r="W98" s="52"/>
+      <c r="N98" s="27"/>
+      <c r="O98" s="24"/>
+      <c r="P98" s="27"/>
+      <c r="Q98" s="27"/>
+      <c r="R98" s="27"/>
+      <c r="S98" s="27"/>
+      <c r="T98" s="27"/>
+      <c r="U98" s="27"/>
+      <c r="V98" s="27"/>
+      <c r="W98" s="38"/>
     </row>
     <row r="99" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="54"/>
+      <c r="B99" s="69"/>
       <c r="C99" s="4" t="s">
         <v>43</v>
       </c>
@@ -5348,10 +5352,10 @@
       <c r="G99" s="7">
         <v>1</v>
       </c>
-      <c r="H99" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I99" s="59">
+      <c r="H99" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I99" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5359,19 +5363,19 @@
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
-      <c r="N99" s="41"/>
-      <c r="O99" s="38"/>
-      <c r="P99" s="41"/>
-      <c r="Q99" s="41"/>
-      <c r="R99" s="41"/>
-      <c r="S99" s="41"/>
-      <c r="T99" s="41"/>
-      <c r="U99" s="41"/>
-      <c r="V99" s="41"/>
-      <c r="W99" s="52"/>
+      <c r="N99" s="27"/>
+      <c r="O99" s="24"/>
+      <c r="P99" s="27"/>
+      <c r="Q99" s="27"/>
+      <c r="R99" s="27"/>
+      <c r="S99" s="27"/>
+      <c r="T99" s="27"/>
+      <c r="U99" s="27"/>
+      <c r="V99" s="27"/>
+      <c r="W99" s="38"/>
     </row>
     <row r="100" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="54"/>
+      <c r="B100" s="69"/>
       <c r="C100" s="4" t="s">
         <v>44</v>
       </c>
@@ -5385,10 +5389,10 @@
       <c r="G100" s="7">
         <v>1</v>
       </c>
-      <c r="H100" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I100" s="59">
+      <c r="H100" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I100" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5396,19 +5400,19 @@
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
-      <c r="N100" s="41"/>
-      <c r="O100" s="38"/>
-      <c r="P100" s="41"/>
-      <c r="Q100" s="41"/>
-      <c r="R100" s="41"/>
-      <c r="S100" s="41"/>
-      <c r="T100" s="41"/>
-      <c r="U100" s="41"/>
-      <c r="V100" s="41"/>
-      <c r="W100" s="52"/>
+      <c r="N100" s="27"/>
+      <c r="O100" s="24"/>
+      <c r="P100" s="27"/>
+      <c r="Q100" s="27"/>
+      <c r="R100" s="27"/>
+      <c r="S100" s="27"/>
+      <c r="T100" s="27"/>
+      <c r="U100" s="27"/>
+      <c r="V100" s="27"/>
+      <c r="W100" s="38"/>
     </row>
     <row r="101" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="54"/>
+      <c r="B101" s="69"/>
       <c r="C101" s="4" t="s">
         <v>45</v>
       </c>
@@ -5422,10 +5426,10 @@
       <c r="G101" s="7">
         <v>1</v>
       </c>
-      <c r="H101" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I101" s="59">
+      <c r="H101" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I101" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5433,59 +5437,59 @@
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
-      <c r="N101" s="41"/>
-      <c r="O101" s="38"/>
-      <c r="P101" s="41"/>
-      <c r="Q101" s="41"/>
-      <c r="R101" s="41"/>
-      <c r="S101" s="41"/>
-      <c r="T101" s="41"/>
-      <c r="U101" s="41"/>
-      <c r="V101" s="41"/>
-      <c r="W101" s="52"/>
+      <c r="N101" s="27"/>
+      <c r="O101" s="24"/>
+      <c r="P101" s="27"/>
+      <c r="Q101" s="27"/>
+      <c r="R101" s="27"/>
+      <c r="S101" s="27"/>
+      <c r="T101" s="27"/>
+      <c r="U101" s="27"/>
+      <c r="V101" s="27"/>
+      <c r="W101" s="38"/>
     </row>
     <row r="102" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="85"/>
-      <c r="C102" s="67" t="s">
+      <c r="B102" s="70"/>
+      <c r="C102" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="D102" s="68"/>
-      <c r="E102" s="69" t="s">
+      <c r="D102" s="49"/>
+      <c r="E102" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="F102" s="68" t="s">
+      <c r="F102" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="G102" s="68">
+      <c r="G102" s="49">
         <v>2</v>
       </c>
-      <c r="H102" s="87">
+      <c r="H102" s="61">
         <v>0.25</v>
       </c>
       <c r="I102" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J102" s="71"/>
-      <c r="K102" s="68"/>
-      <c r="L102" s="68"/>
-      <c r="M102" s="68"/>
-      <c r="N102" s="72"/>
-      <c r="O102" s="73"/>
-      <c r="P102" s="72"/>
-      <c r="Q102" s="72"/>
-      <c r="R102" s="72"/>
-      <c r="S102" s="72"/>
-      <c r="T102" s="72"/>
-      <c r="U102" s="72"/>
-      <c r="V102" s="72"/>
-      <c r="W102" s="74"/>
+      <c r="J102" s="52"/>
+      <c r="K102" s="49"/>
+      <c r="L102" s="49"/>
+      <c r="M102" s="49"/>
+      <c r="N102" s="53"/>
+      <c r="O102" s="54"/>
+      <c r="P102" s="53"/>
+      <c r="Q102" s="53"/>
+      <c r="R102" s="53"/>
+      <c r="S102" s="53"/>
+      <c r="T102" s="53"/>
+      <c r="U102" s="53"/>
+      <c r="V102" s="53"/>
+      <c r="W102" s="55"/>
     </row>
     <row r="103" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="55" t="s">
+      <c r="B103" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="C103" s="83" t="s">
+      <c r="C103" s="71" t="s">
         <v>102</v>
       </c>
       <c r="D103" s="7" t="s">
@@ -5500,31 +5504,31 @@
       <c r="G103" s="7">
         <v>4</v>
       </c>
-      <c r="H103" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I103" s="63">
+      <c r="H103" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I103" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J103" s="57"/>
+      <c r="J103" s="39"/>
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
-      <c r="N103" s="64"/>
-      <c r="O103" s="65"/>
-      <c r="P103" s="64"/>
-      <c r="Q103" s="64"/>
-      <c r="R103" s="64"/>
-      <c r="S103" s="64"/>
-      <c r="T103" s="64"/>
-      <c r="U103" s="64"/>
-      <c r="V103" s="64"/>
-      <c r="W103" s="66"/>
+      <c r="N103" s="45"/>
+      <c r="O103" s="46"/>
+      <c r="P103" s="45"/>
+      <c r="Q103" s="45"/>
+      <c r="R103" s="45"/>
+      <c r="S103" s="45"/>
+      <c r="T103" s="45"/>
+      <c r="U103" s="45"/>
+      <c r="V103" s="45"/>
+      <c r="W103" s="47"/>
     </row>
     <row r="104" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="55"/>
-      <c r="C104" s="61"/>
+      <c r="B104" s="73"/>
+      <c r="C104" s="72"/>
       <c r="D104" s="4" t="s">
         <v>104</v>
       </c>
@@ -5537,10 +5541,10 @@
       <c r="G104" s="4">
         <v>4</v>
       </c>
-      <c r="H104" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I104" s="59">
+      <c r="H104" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I104" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5548,20 +5552,20 @@
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
-      <c r="N104" s="41"/>
-      <c r="O104" s="38"/>
-      <c r="P104" s="41"/>
-      <c r="Q104" s="41"/>
-      <c r="R104" s="41"/>
-      <c r="S104" s="41"/>
-      <c r="T104" s="41"/>
-      <c r="U104" s="41"/>
-      <c r="V104" s="41"/>
-      <c r="W104" s="52"/>
+      <c r="N104" s="27"/>
+      <c r="O104" s="24"/>
+      <c r="P104" s="27"/>
+      <c r="Q104" s="27"/>
+      <c r="R104" s="27"/>
+      <c r="S104" s="27"/>
+      <c r="T104" s="27"/>
+      <c r="U104" s="27"/>
+      <c r="V104" s="27"/>
+      <c r="W104" s="38"/>
     </row>
     <row r="105" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="55"/>
-      <c r="C105" s="61"/>
+      <c r="B105" s="73"/>
+      <c r="C105" s="72"/>
       <c r="D105" s="4" t="s">
         <v>105</v>
       </c>
@@ -5574,10 +5578,10 @@
       <c r="G105" s="4">
         <v>4</v>
       </c>
-      <c r="H105" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I105" s="59">
+      <c r="H105" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I105" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5585,20 +5589,20 @@
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
-      <c r="N105" s="41"/>
-      <c r="O105" s="38"/>
-      <c r="P105" s="41"/>
-      <c r="Q105" s="41"/>
-      <c r="R105" s="41"/>
-      <c r="S105" s="41"/>
-      <c r="T105" s="41"/>
-      <c r="U105" s="41"/>
-      <c r="V105" s="41"/>
-      <c r="W105" s="52"/>
+      <c r="N105" s="27"/>
+      <c r="O105" s="24"/>
+      <c r="P105" s="27"/>
+      <c r="Q105" s="27"/>
+      <c r="R105" s="27"/>
+      <c r="S105" s="27"/>
+      <c r="T105" s="27"/>
+      <c r="U105" s="27"/>
+      <c r="V105" s="27"/>
+      <c r="W105" s="38"/>
     </row>
     <row r="106" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="55"/>
-      <c r="C106" s="27" t="s">
+      <c r="B106" s="73"/>
+      <c r="C106" s="19" t="s">
         <v>123</v>
       </c>
       <c r="D106" s="4"/>
@@ -5611,10 +5615,10 @@
       <c r="G106" s="4">
         <v>4</v>
       </c>
-      <c r="H106" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="I106" s="59">
+      <c r="H106" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I106" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5622,20 +5626,20 @@
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
       <c r="M106" s="4"/>
-      <c r="N106" s="41"/>
-      <c r="O106" s="38"/>
-      <c r="P106" s="41"/>
-      <c r="Q106" s="41"/>
-      <c r="R106" s="41"/>
-      <c r="S106" s="41"/>
-      <c r="T106" s="41"/>
-      <c r="U106" s="41"/>
-      <c r="V106" s="41"/>
-      <c r="W106" s="52"/>
+      <c r="N106" s="27"/>
+      <c r="O106" s="24"/>
+      <c r="P106" s="27"/>
+      <c r="Q106" s="27"/>
+      <c r="R106" s="27"/>
+      <c r="S106" s="27"/>
+      <c r="T106" s="27"/>
+      <c r="U106" s="27"/>
+      <c r="V106" s="27"/>
+      <c r="W106" s="38"/>
     </row>
     <row r="107" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="55"/>
-      <c r="C107" s="27" t="s">
+      <c r="B107" s="73"/>
+      <c r="C107" s="19" t="s">
         <v>106</v>
       </c>
       <c r="D107" s="4"/>
@@ -5648,10 +5652,10 @@
       <c r="G107" s="4">
         <v>3</v>
       </c>
-      <c r="H107" s="47">
+      <c r="H107" s="33">
         <v>1</v>
       </c>
-      <c r="I107" s="59">
+      <c r="I107" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5659,20 +5663,20 @@
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
-      <c r="N107" s="41"/>
-      <c r="O107" s="38"/>
-      <c r="P107" s="41"/>
-      <c r="Q107" s="41"/>
-      <c r="R107" s="41"/>
-      <c r="S107" s="41"/>
-      <c r="T107" s="41"/>
-      <c r="U107" s="41"/>
-      <c r="V107" s="41"/>
-      <c r="W107" s="52"/>
+      <c r="N107" s="27"/>
+      <c r="O107" s="24"/>
+      <c r="P107" s="27"/>
+      <c r="Q107" s="27"/>
+      <c r="R107" s="27"/>
+      <c r="S107" s="27"/>
+      <c r="T107" s="27"/>
+      <c r="U107" s="27"/>
+      <c r="V107" s="27"/>
+      <c r="W107" s="38"/>
     </row>
     <row r="108" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="55"/>
-      <c r="C108" s="27" t="s">
+      <c r="B108" s="73"/>
+      <c r="C108" s="19" t="s">
         <v>107</v>
       </c>
       <c r="D108" s="4"/>
@@ -5685,10 +5689,10 @@
       <c r="G108" s="4">
         <v>3</v>
       </c>
-      <c r="H108" s="47">
+      <c r="H108" s="33">
         <v>0.5</v>
       </c>
-      <c r="I108" s="59">
+      <c r="I108" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5696,20 +5700,20 @@
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
-      <c r="N108" s="41"/>
-      <c r="O108" s="38"/>
-      <c r="P108" s="41"/>
-      <c r="Q108" s="41"/>
-      <c r="R108" s="41"/>
-      <c r="S108" s="41"/>
-      <c r="T108" s="41"/>
-      <c r="U108" s="41"/>
-      <c r="V108" s="41"/>
-      <c r="W108" s="52"/>
+      <c r="N108" s="27"/>
+      <c r="O108" s="24"/>
+      <c r="P108" s="27"/>
+      <c r="Q108" s="27"/>
+      <c r="R108" s="27"/>
+      <c r="S108" s="27"/>
+      <c r="T108" s="27"/>
+      <c r="U108" s="27"/>
+      <c r="V108" s="27"/>
+      <c r="W108" s="38"/>
     </row>
     <row r="109" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="55"/>
-      <c r="C109" s="27" t="s">
+      <c r="B109" s="73"/>
+      <c r="C109" s="19" t="s">
         <v>108</v>
       </c>
       <c r="D109" s="4"/>
@@ -5722,10 +5726,10 @@
       <c r="G109" s="4">
         <v>2</v>
       </c>
-      <c r="H109" s="47">
+      <c r="H109" s="33">
         <v>0.3</v>
       </c>
-      <c r="I109" s="59">
+      <c r="I109" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5733,20 +5737,20 @@
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
-      <c r="N109" s="41"/>
-      <c r="O109" s="38"/>
-      <c r="P109" s="41"/>
-      <c r="Q109" s="41"/>
-      <c r="R109" s="41"/>
-      <c r="S109" s="41"/>
-      <c r="T109" s="41"/>
-      <c r="U109" s="41"/>
-      <c r="V109" s="41"/>
-      <c r="W109" s="52"/>
+      <c r="N109" s="27"/>
+      <c r="O109" s="24"/>
+      <c r="P109" s="27"/>
+      <c r="Q109" s="27"/>
+      <c r="R109" s="27"/>
+      <c r="S109" s="27"/>
+      <c r="T109" s="27"/>
+      <c r="U109" s="27"/>
+      <c r="V109" s="27"/>
+      <c r="W109" s="38"/>
     </row>
     <row r="110" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="55"/>
-      <c r="C110" s="27" t="s">
+      <c r="B110" s="73"/>
+      <c r="C110" s="19" t="s">
         <v>109</v>
       </c>
       <c r="D110" s="4"/>
@@ -5759,10 +5763,10 @@
       <c r="G110" s="4">
         <v>4</v>
       </c>
-      <c r="H110" s="47">
-        <v>0.25</v>
-      </c>
-      <c r="I110" s="59">
+      <c r="H110" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="I110" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5770,20 +5774,20 @@
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
-      <c r="N110" s="41"/>
-      <c r="O110" s="38"/>
-      <c r="P110" s="41"/>
-      <c r="Q110" s="41"/>
-      <c r="R110" s="41"/>
-      <c r="S110" s="41"/>
-      <c r="T110" s="41"/>
-      <c r="U110" s="41"/>
-      <c r="V110" s="41"/>
-      <c r="W110" s="52"/>
+      <c r="N110" s="27"/>
+      <c r="O110" s="24"/>
+      <c r="P110" s="27"/>
+      <c r="Q110" s="27"/>
+      <c r="R110" s="27"/>
+      <c r="S110" s="27"/>
+      <c r="T110" s="27"/>
+      <c r="U110" s="27"/>
+      <c r="V110" s="27"/>
+      <c r="W110" s="38"/>
     </row>
     <row r="111" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="56"/>
-      <c r="C111" s="27" t="s">
+      <c r="B111" s="74"/>
+      <c r="C111" s="19" t="s">
         <v>110</v>
       </c>
       <c r="D111" s="4"/>
@@ -5796,10 +5800,10 @@
       <c r="G111" s="4">
         <v>4</v>
       </c>
-      <c r="H111" s="47">
+      <c r="H111" s="33">
         <v>1</v>
       </c>
-      <c r="I111" s="59">
+      <c r="I111" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5807,22 +5811,22 @@
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
-      <c r="N111" s="41"/>
-      <c r="O111" s="38"/>
-      <c r="P111" s="41"/>
-      <c r="Q111" s="41"/>
-      <c r="R111" s="41"/>
-      <c r="S111" s="41"/>
-      <c r="T111" s="41"/>
-      <c r="U111" s="41"/>
-      <c r="V111" s="41"/>
-      <c r="W111" s="52"/>
+      <c r="N111" s="27"/>
+      <c r="O111" s="24"/>
+      <c r="P111" s="27"/>
+      <c r="Q111" s="27"/>
+      <c r="R111" s="27"/>
+      <c r="S111" s="27"/>
+      <c r="T111" s="27"/>
+      <c r="U111" s="27"/>
+      <c r="V111" s="27"/>
+      <c r="W111" s="38"/>
     </row>
     <row r="112" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B112" s="57" t="s">
+      <c r="B112" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="C112" s="27" t="s">
+      <c r="C112" s="19" t="s">
         <v>28</v>
       </c>
       <c r="D112" s="4"/>
@@ -5835,10 +5839,10 @@
       <c r="G112" s="4">
         <v>2</v>
       </c>
-      <c r="H112" s="47">
+      <c r="H112" s="33">
         <v>0.5</v>
       </c>
-      <c r="I112" s="59">
+      <c r="I112" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5846,22 +5850,22 @@
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
-      <c r="N112" s="41"/>
-      <c r="O112" s="38"/>
-      <c r="P112" s="41"/>
-      <c r="Q112" s="41"/>
-      <c r="R112" s="41"/>
-      <c r="S112" s="41"/>
-      <c r="T112" s="41"/>
-      <c r="U112" s="41"/>
-      <c r="V112" s="41"/>
-      <c r="W112" s="52"/>
+      <c r="N112" s="27"/>
+      <c r="O112" s="24"/>
+      <c r="P112" s="27"/>
+      <c r="Q112" s="27"/>
+      <c r="R112" s="27"/>
+      <c r="S112" s="27"/>
+      <c r="T112" s="27"/>
+      <c r="U112" s="27"/>
+      <c r="V112" s="27"/>
+      <c r="W112" s="38"/>
     </row>
     <row r="113" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="57" t="s">
+      <c r="B113" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="C113" s="27"/>
+      <c r="C113" s="19"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5" t="s">
         <v>122</v>
@@ -5870,10 +5874,10 @@
         <v>114</v>
       </c>
       <c r="G113" s="4"/>
-      <c r="H113" s="47">
+      <c r="H113" s="33">
         <v>0.1</v>
       </c>
-      <c r="I113" s="59">
+      <c r="I113" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5881,22 +5885,22 @@
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
-      <c r="N113" s="41"/>
-      <c r="O113" s="38"/>
-      <c r="P113" s="41"/>
-      <c r="Q113" s="41"/>
-      <c r="R113" s="41"/>
-      <c r="S113" s="41"/>
-      <c r="T113" s="41"/>
-      <c r="U113" s="41"/>
-      <c r="V113" s="41"/>
-      <c r="W113" s="52"/>
+      <c r="N113" s="27"/>
+      <c r="O113" s="24"/>
+      <c r="P113" s="27"/>
+      <c r="Q113" s="27"/>
+      <c r="R113" s="27"/>
+      <c r="S113" s="27"/>
+      <c r="T113" s="27"/>
+      <c r="U113" s="27"/>
+      <c r="V113" s="27"/>
+      <c r="W113" s="38"/>
     </row>
     <row r="114" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="57" t="s">
+      <c r="B114" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="C114" s="41"/>
+      <c r="C114" s="27"/>
       <c r="D114" s="4"/>
       <c r="E114" s="5" t="s">
         <v>122</v>
@@ -5905,10 +5909,10 @@
         <v>112</v>
       </c>
       <c r="G114" s="4"/>
-      <c r="H114" s="47">
+      <c r="H114" s="33">
         <v>0.1</v>
       </c>
-      <c r="I114" s="59">
+      <c r="I114" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5916,123 +5920,123 @@
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
-      <c r="N114" s="41"/>
-      <c r="O114" s="38"/>
-      <c r="P114" s="41"/>
-      <c r="Q114" s="41"/>
-      <c r="R114" s="41"/>
-      <c r="S114" s="41"/>
-      <c r="T114" s="41"/>
-      <c r="U114" s="41"/>
-      <c r="V114" s="41"/>
-      <c r="W114" s="52"/>
+      <c r="N114" s="27"/>
+      <c r="O114" s="24"/>
+      <c r="P114" s="27"/>
+      <c r="Q114" s="27"/>
+      <c r="R114" s="27"/>
+      <c r="S114" s="27"/>
+      <c r="T114" s="27"/>
+      <c r="U114" s="27"/>
+      <c r="V114" s="27"/>
+      <c r="W114" s="38"/>
     </row>
     <row r="115" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="32" t="s">
+      <c r="B115" s="21" t="s">
         <v>121</v>
       </c>
       <c r="C115" s="12"/>
-      <c r="D115" s="42"/>
+      <c r="D115" s="28"/>
       <c r="E115" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F115" s="43" t="s">
+      <c r="F115" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G115" s="42"/>
-      <c r="H115" s="47">
+      <c r="G115" s="28"/>
+      <c r="H115" s="33">
         <v>0.1</v>
       </c>
-      <c r="I115" s="59">
+      <c r="I115" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J115" s="32"/>
-      <c r="K115" s="42"/>
-      <c r="L115" s="42"/>
-      <c r="M115" s="42"/>
-      <c r="N115" s="44"/>
-      <c r="O115" s="45"/>
-      <c r="P115" s="44"/>
-      <c r="Q115" s="44"/>
-      <c r="R115" s="44"/>
-      <c r="S115" s="44"/>
-      <c r="T115" s="44"/>
-      <c r="U115" s="44"/>
-      <c r="V115" s="44"/>
-      <c r="W115" s="58"/>
+      <c r="J115" s="21"/>
+      <c r="K115" s="28"/>
+      <c r="L115" s="28"/>
+      <c r="M115" s="28"/>
+      <c r="N115" s="30"/>
+      <c r="O115" s="31"/>
+      <c r="P115" s="30"/>
+      <c r="Q115" s="30"/>
+      <c r="R115" s="30"/>
+      <c r="S115" s="30"/>
+      <c r="T115" s="30"/>
+      <c r="U115" s="30"/>
+      <c r="V115" s="30"/>
+      <c r="W115" s="40"/>
     </row>
     <row r="116" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="17" t="s">
+      <c r="B116" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C116" s="18"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="49">
-        <f>SUM(H4:H115)</f>
+      <c r="C116" s="89"/>
+      <c r="D116" s="89"/>
+      <c r="E116" s="89"/>
+      <c r="F116" s="89"/>
+      <c r="G116" s="89"/>
+      <c r="H116" s="35">
+        <f t="shared" ref="H116:W116" si="2">SUM(H4:H115)</f>
         <v>36.4</v>
       </c>
       <c r="I116" s="15">
-        <f>SUM(I4:I115)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J116" s="13">
-        <f>SUM(J4:J115)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K116" s="14">
-        <f>SUM(K4:K115)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L116" s="14">
-        <f>SUM(L4:L115)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M116" s="16">
-        <f>SUM(M4:M115)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N116" s="16">
-        <f>SUM(N4:N115)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O116" s="16">
-        <f>SUM(O4:O115)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P116" s="16">
-        <f>SUM(P4:P115)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q116" s="16">
-        <f>SUM(Q4:Q115)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R116" s="16">
-        <f>SUM(R4:R115)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S116" s="16">
-        <f>SUM(S4:S115)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T116" s="16">
-        <f>SUM(T4:T115)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U116" s="16">
-        <f>SUM(U4:U115)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V116" s="16">
-        <f>SUM(V4:V115)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W116" s="16">
-        <f>SUM(W4:W115)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6045,22 +6049,22 @@
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
-      <c r="J117" s="19" t="s">
+      <c r="J117" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="K117" s="21"/>
-      <c r="L117" s="21"/>
-      <c r="M117" s="21"/>
-      <c r="N117" s="21"/>
-      <c r="O117" s="21"/>
-      <c r="P117" s="21"/>
-      <c r="Q117" s="21"/>
-      <c r="R117" s="21"/>
-      <c r="S117" s="21"/>
-      <c r="T117" s="21"/>
-      <c r="U117" s="21"/>
-      <c r="V117" s="21"/>
-      <c r="W117" s="22"/>
+      <c r="K117" s="76"/>
+      <c r="L117" s="76"/>
+      <c r="M117" s="76"/>
+      <c r="N117" s="76"/>
+      <c r="O117" s="76"/>
+      <c r="P117" s="76"/>
+      <c r="Q117" s="76"/>
+      <c r="R117" s="76"/>
+      <c r="S117" s="76"/>
+      <c r="T117" s="76"/>
+      <c r="U117" s="76"/>
+      <c r="V117" s="76"/>
+      <c r="W117" s="77"/>
     </row>
     <row r="118" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B118" s="2"/>
@@ -6085,10 +6089,10 @@
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
-      <c r="H119" s="19" t="s">
+      <c r="H119" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="I119" s="20"/>
+      <c r="I119" s="87"/>
       <c r="J119" s="14">
         <f>H116-J116</f>
         <v>36.4</v>
@@ -6106,43 +6110,43 @@
         <v>36.4</v>
       </c>
       <c r="N119" s="14">
-        <f t="shared" ref="N119:W119" si="2">M119-N116</f>
+        <f t="shared" ref="N119:W119" si="3">M119-N116</f>
         <v>36.4</v>
       </c>
       <c r="O119" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36.4</v>
       </c>
       <c r="P119" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36.4</v>
       </c>
       <c r="Q119" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36.4</v>
       </c>
       <c r="R119" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36.4</v>
       </c>
       <c r="S119" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36.4</v>
       </c>
       <c r="T119" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36.4</v>
       </c>
       <c r="U119" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36.4</v>
       </c>
       <c r="V119" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36.4</v>
       </c>
       <c r="W119" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36.4</v>
       </c>
     </row>
@@ -6166,27 +6170,27 @@
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
-      <c r="H121" s="19" t="s">
+      <c r="H121" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="I121" s="20"/>
-      <c r="J121" s="34">
+      <c r="I121" s="87"/>
+      <c r="J121" s="64">
         <f>H116-I116</f>
         <v>36.4</v>
       </c>
-      <c r="K121" s="35"/>
-      <c r="L121" s="35"/>
-      <c r="M121" s="35"/>
-      <c r="N121" s="35"/>
-      <c r="O121" s="35"/>
-      <c r="P121" s="35"/>
-      <c r="Q121" s="35"/>
-      <c r="R121" s="35"/>
-      <c r="S121" s="35"/>
-      <c r="T121" s="35"/>
-      <c r="U121" s="35"/>
-      <c r="V121" s="35"/>
-      <c r="W121" s="35"/>
+      <c r="K121" s="65"/>
+      <c r="L121" s="65"/>
+      <c r="M121" s="65"/>
+      <c r="N121" s="65"/>
+      <c r="O121" s="65"/>
+      <c r="P121" s="65"/>
+      <c r="Q121" s="65"/>
+      <c r="R121" s="65"/>
+      <c r="S121" s="65"/>
+      <c r="T121" s="65"/>
+      <c r="U121" s="65"/>
+      <c r="V121" s="65"/>
+      <c r="W121" s="65"/>
     </row>
     <row r="122" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B122" s="3"/>
@@ -6274,11 +6278,6 @@
     <row r="140" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="J121:W121"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B85:B102"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="B103:B111"/>
     <mergeCell ref="J2:W2"/>
     <mergeCell ref="J117:W117"/>
     <mergeCell ref="B16:B70"/>
@@ -6286,9 +6285,14 @@
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B4:B11"/>
     <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="J121:W121"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B85:B102"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="B103:B111"/>
     <mergeCell ref="H119:I119"/>
     <mergeCell ref="H121:I121"/>
-    <mergeCell ref="B116:G116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devildrake\Documents\MAP_LegendOfRadev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\MAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="124">
   <si>
     <t>Subtarea</t>
   </si>
@@ -387,12 +387,18 @@
   </si>
   <si>
     <t>Overworld</t>
+  </si>
+  <si>
+    <t>Habilitar/Preparar Tilesets Dungeon</t>
+  </si>
+  <si>
+    <t>Preparando Paredes/Puertas de las salas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1005,7 +1011,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1169,76 +1175,7 @@
     <xf numFmtId="16" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1259,9 +1196,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1287,6 +1221,99 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1307,9 +1334,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1344,56 +1371,61 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$J$114:$W$114</c:f>
+              <c:f>Hoja1!$J$116:$W$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>35.15</c:v>
+                  <c:v>36.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.15</c:v>
+                  <c:v>36.15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.15</c:v>
+                  <c:v>36.049999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.08</c:v>
+                  <c:v>35.979999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.08</c:v>
+                  <c:v>35.979999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.08</c:v>
+                  <c:v>33.479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.234999999999999</c:v>
+                  <c:v>27.835000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.234999999999999</c:v>
+                  <c:v>27.835000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.234999999999999</c:v>
+                  <c:v>27.835000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.234999999999999</c:v>
+                  <c:v>27.835000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33.234999999999999</c:v>
+                  <c:v>27.835000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33.234999999999999</c:v>
+                  <c:v>27.835000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>33.234999999999999</c:v>
+                  <c:v>27.835000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33.234999999999999</c:v>
+                  <c:v>27.835000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-08BE-4709-9DE4-AEC2E98B8D97}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1444,7 +1476,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1471,12 +1502,18 @@
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>568035</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>84668</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvPr id="4" name="3 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1495,7 +1532,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1570,6 +1607,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1605,6 +1659,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1781,30 +1852,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W135"/>
+  <dimension ref="A1:W137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K101" sqref="K101"/>
+    <sheetView tabSelected="1" topLeftCell="C73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U107" sqref="U107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.21875" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>120</v>
       </c>
@@ -1812,25 +1883,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="65" t="s">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="67"/>
-    </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="87"/>
+    </row>
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
@@ -1898,60 +1969,60 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="83" t="s">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="91" t="s">
+      <c r="D4" s="67"/>
+      <c r="E4" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="91" t="s">
+      <c r="F4" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="90">
+      <c r="G4" s="67">
         <v>3</v>
       </c>
-      <c r="H4" s="92">
+      <c r="H4" s="69">
         <v>0.25</v>
       </c>
       <c r="I4" s="34">
         <f>SUM(J4:W4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="104">
-        <v>0</v>
-      </c>
-      <c r="K4" s="93">
-        <v>0</v>
-      </c>
-      <c r="L4" s="93">
-        <v>0</v>
-      </c>
-      <c r="M4" s="93">
-        <v>0</v>
-      </c>
-      <c r="N4" s="93">
-        <v>0</v>
-      </c>
-      <c r="O4" s="93">
-        <v>0</v>
-      </c>
-      <c r="P4" s="94"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="95"/>
-      <c r="W4" s="96"/>
-    </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="84"/>
-      <c r="C5" s="68" t="s">
+      <c r="J4" s="80">
+        <v>0</v>
+      </c>
+      <c r="K4" s="70">
+        <v>0</v>
+      </c>
+      <c r="L4" s="70">
+        <v>0</v>
+      </c>
+      <c r="M4" s="70">
+        <v>0</v>
+      </c>
+      <c r="N4" s="70">
+        <v>0</v>
+      </c>
+      <c r="O4" s="70">
+        <v>0</v>
+      </c>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="73"/>
+    </row>
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="95"/>
+      <c r="C5" s="97" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="56" t="s">
@@ -1973,7 +2044,7 @@
         <f t="shared" ref="I5:I55" si="0">SUM(J5:W5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="105">
+      <c r="J5" s="81">
         <v>0</v>
       </c>
       <c r="K5" s="58">
@@ -2000,9 +2071,9 @@
       <c r="V5" s="20"/>
       <c r="W5" s="30"/>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="84"/>
-      <c r="C6" s="86"/>
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="95"/>
+      <c r="C6" s="98"/>
       <c r="D6" s="17" t="s">
         <v>22</v>
       </c>
@@ -2022,7 +2093,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="105">
+      <c r="J6" s="81">
         <v>0</v>
       </c>
       <c r="K6" s="58">
@@ -2049,8 +2120,8 @@
       <c r="V6" s="20"/>
       <c r="W6" s="30"/>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="84"/>
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="95"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
@@ -2071,7 +2142,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="105">
+      <c r="J7" s="81">
         <v>0</v>
       </c>
       <c r="K7" s="58">
@@ -2098,8 +2169,8 @@
       <c r="V7" s="20"/>
       <c r="W7" s="30"/>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="84"/>
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="95"/>
       <c r="C8" s="57" t="s">
         <v>18</v>
       </c>
@@ -2120,7 +2191,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="105">
+      <c r="J8" s="81">
         <v>0</v>
       </c>
       <c r="K8" s="58">
@@ -2147,8 +2218,8 @@
       <c r="V8" s="20"/>
       <c r="W8" s="30"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="84"/>
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="95"/>
       <c r="C9" s="57" t="s">
         <v>17</v>
       </c>
@@ -2169,7 +2240,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="105">
+      <c r="J9" s="81">
         <v>0</v>
       </c>
       <c r="K9" s="58">
@@ -2196,8 +2267,8 @@
       <c r="V9" s="20"/>
       <c r="W9" s="30"/>
     </row>
-    <row r="10" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="84"/>
+    <row r="10" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="95"/>
       <c r="C10" s="57" t="s">
         <v>16</v>
       </c>
@@ -2218,7 +2289,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="105">
+      <c r="J10" s="81">
         <v>0</v>
       </c>
       <c r="K10" s="58">
@@ -2245,8 +2316,8 @@
       <c r="V10" s="20"/>
       <c r="W10" s="30"/>
     </row>
-    <row r="11" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="85"/>
+    <row r="11" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="96"/>
       <c r="C11" s="39" t="s">
         <v>111</v>
       </c>
@@ -2267,7 +2338,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="106">
+      <c r="J11" s="82">
         <v>0</v>
       </c>
       <c r="K11" s="59">
@@ -2294,59 +2365,59 @@
       <c r="V11" s="44"/>
       <c r="W11" s="49"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B12" s="97" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="98" t="s">
+      <c r="C12" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="90"/>
-      <c r="E12" s="91" t="s">
+      <c r="D12" s="67"/>
+      <c r="E12" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="91" t="s">
+      <c r="F12" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="90">
+      <c r="G12" s="67">
         <v>3</v>
       </c>
-      <c r="H12" s="92">
+      <c r="H12" s="69">
         <v>1</v>
       </c>
-      <c r="I12" s="101">
+      <c r="I12" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="104">
-        <v>0</v>
-      </c>
-      <c r="K12" s="93">
-        <v>0</v>
-      </c>
-      <c r="L12" s="93">
-        <v>0</v>
-      </c>
-      <c r="M12" s="93">
-        <v>0</v>
-      </c>
-      <c r="N12" s="93">
-        <v>0</v>
-      </c>
-      <c r="O12" s="93">
-        <v>0</v>
-      </c>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="99"/>
-      <c r="T12" s="99"/>
-      <c r="U12" s="99"/>
-      <c r="V12" s="99"/>
-      <c r="W12" s="100"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B13" s="81"/>
+      <c r="J12" s="80">
+        <v>0</v>
+      </c>
+      <c r="K12" s="70">
+        <v>0</v>
+      </c>
+      <c r="L12" s="70">
+        <v>0</v>
+      </c>
+      <c r="M12" s="70">
+        <v>0</v>
+      </c>
+      <c r="N12" s="70">
+        <v>0</v>
+      </c>
+      <c r="O12" s="70">
+        <v>0</v>
+      </c>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="76"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="92"/>
       <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
@@ -2363,11 +2434,11 @@
       <c r="H13" s="27">
         <v>0.5</v>
       </c>
-      <c r="I13" s="102">
+      <c r="I13" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="105">
+      <c r="J13" s="81">
         <v>0</v>
       </c>
       <c r="K13" s="58">
@@ -2394,9 +2465,9 @@
       <c r="V13" s="22"/>
       <c r="W13" s="31"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B14" s="81"/>
-      <c r="C14" s="68" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="92"/>
+      <c r="C14" s="97" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="55" t="s">
@@ -2414,11 +2485,11 @@
       <c r="H14" s="28">
         <v>2</v>
       </c>
-      <c r="I14" s="102">
+      <c r="I14" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="105">
+      <c r="J14" s="81">
         <v>0</v>
       </c>
       <c r="K14" s="58">
@@ -2445,9 +2516,9 @@
       <c r="V14" s="25"/>
       <c r="W14" s="33"/>
     </row>
-    <row r="15" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="82"/>
-      <c r="C15" s="69"/>
+    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="93"/>
+      <c r="C15" s="101"/>
       <c r="D15" s="40" t="s">
         <v>119</v>
       </c>
@@ -2463,11 +2534,11 @@
       <c r="H15" s="42">
         <v>2</v>
       </c>
-      <c r="I15" s="103">
+      <c r="I15" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="106">
+      <c r="J15" s="82">
         <v>0</v>
       </c>
       <c r="K15" s="59">
@@ -2494,8 +2565,8 @@
       <c r="V15" s="43"/>
       <c r="W15" s="45"/>
     </row>
-    <row r="16" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="78" t="s">
+    <row r="16" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="88" t="s">
         <v>121</v>
       </c>
       <c r="C16" s="16" t="s">
@@ -2536,33 +2607,33 @@
       <c r="O16" s="60">
         <v>0</v>
       </c>
-      <c r="P16" s="107">
+      <c r="P16" s="83">
         <v>0.12</v>
       </c>
-      <c r="Q16" s="107">
-        <v>0</v>
-      </c>
-      <c r="R16" s="107">
-        <v>0</v>
-      </c>
-      <c r="S16" s="107">
-        <v>0</v>
-      </c>
-      <c r="T16" s="107">
-        <v>0</v>
-      </c>
-      <c r="U16" s="107">
-        <v>0</v>
-      </c>
-      <c r="V16" s="107">
-        <v>0</v>
-      </c>
-      <c r="W16" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="78"/>
+      <c r="Q16" s="83">
+        <v>0</v>
+      </c>
+      <c r="R16" s="83">
+        <v>0</v>
+      </c>
+      <c r="S16" s="83">
+        <v>0</v>
+      </c>
+      <c r="T16" s="83">
+        <v>0</v>
+      </c>
+      <c r="U16" s="83">
+        <v>0</v>
+      </c>
+      <c r="V16" s="83">
+        <v>0</v>
+      </c>
+      <c r="W16" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="88"/>
       <c r="C17" s="4" t="s">
         <v>28</v>
       </c>
@@ -2601,33 +2672,33 @@
       <c r="O17" s="58">
         <v>0</v>
       </c>
-      <c r="P17" s="89">
+      <c r="P17" s="66">
         <v>0.1</v>
       </c>
-      <c r="Q17" s="107">
-        <v>0</v>
-      </c>
-      <c r="R17" s="107">
-        <v>0</v>
-      </c>
-      <c r="S17" s="107">
-        <v>0</v>
-      </c>
-      <c r="T17" s="107">
-        <v>0</v>
-      </c>
-      <c r="U17" s="107">
-        <v>0</v>
-      </c>
-      <c r="V17" s="107">
-        <v>0</v>
-      </c>
-      <c r="W17" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="78"/>
+      <c r="Q17" s="83">
+        <v>0</v>
+      </c>
+      <c r="R17" s="83">
+        <v>0</v>
+      </c>
+      <c r="S17" s="83">
+        <v>0</v>
+      </c>
+      <c r="T17" s="83">
+        <v>0</v>
+      </c>
+      <c r="U17" s="83">
+        <v>0</v>
+      </c>
+      <c r="V17" s="83">
+        <v>0</v>
+      </c>
+      <c r="W17" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="88"/>
       <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
@@ -2666,33 +2737,33 @@
       <c r="O18" s="58">
         <v>0</v>
       </c>
-      <c r="P18" s="89">
+      <c r="P18" s="66">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="Q18" s="107">
-        <v>0</v>
-      </c>
-      <c r="R18" s="107">
-        <v>0</v>
-      </c>
-      <c r="S18" s="107">
-        <v>0</v>
-      </c>
-      <c r="T18" s="107">
-        <v>0</v>
-      </c>
-      <c r="U18" s="107">
-        <v>0</v>
-      </c>
-      <c r="V18" s="107">
-        <v>0</v>
-      </c>
-      <c r="W18" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="78"/>
+      <c r="Q18" s="83">
+        <v>0</v>
+      </c>
+      <c r="R18" s="83">
+        <v>0</v>
+      </c>
+      <c r="S18" s="83">
+        <v>0</v>
+      </c>
+      <c r="T18" s="83">
+        <v>0</v>
+      </c>
+      <c r="U18" s="83">
+        <v>0</v>
+      </c>
+      <c r="V18" s="83">
+        <v>0</v>
+      </c>
+      <c r="W18" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="88"/>
       <c r="C19" s="4" t="s">
         <v>31</v>
       </c>
@@ -2731,33 +2802,33 @@
       <c r="O19" s="58">
         <v>0</v>
       </c>
-      <c r="P19" s="89">
+      <c r="P19" s="66">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="Q19" s="107">
-        <v>0</v>
-      </c>
-      <c r="R19" s="107">
-        <v>0</v>
-      </c>
-      <c r="S19" s="107">
-        <v>0</v>
-      </c>
-      <c r="T19" s="107">
-        <v>0</v>
-      </c>
-      <c r="U19" s="107">
-        <v>0</v>
-      </c>
-      <c r="V19" s="107">
-        <v>0</v>
-      </c>
-      <c r="W19" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="78"/>
+      <c r="Q19" s="83">
+        <v>0</v>
+      </c>
+      <c r="R19" s="83">
+        <v>0</v>
+      </c>
+      <c r="S19" s="83">
+        <v>0</v>
+      </c>
+      <c r="T19" s="83">
+        <v>0</v>
+      </c>
+      <c r="U19" s="83">
+        <v>0</v>
+      </c>
+      <c r="V19" s="83">
+        <v>0</v>
+      </c>
+      <c r="W19" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="88"/>
       <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
@@ -2796,33 +2867,33 @@
       <c r="O20" s="58">
         <v>0</v>
       </c>
-      <c r="P20" s="89">
+      <c r="P20" s="66">
         <v>0.05</v>
       </c>
-      <c r="Q20" s="107">
-        <v>0</v>
-      </c>
-      <c r="R20" s="107">
-        <v>0</v>
-      </c>
-      <c r="S20" s="107">
-        <v>0</v>
-      </c>
-      <c r="T20" s="107">
-        <v>0</v>
-      </c>
-      <c r="U20" s="107">
-        <v>0</v>
-      </c>
-      <c r="V20" s="107">
-        <v>0</v>
-      </c>
-      <c r="W20" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="78"/>
+      <c r="Q20" s="83">
+        <v>0</v>
+      </c>
+      <c r="R20" s="83">
+        <v>0</v>
+      </c>
+      <c r="S20" s="83">
+        <v>0</v>
+      </c>
+      <c r="T20" s="83">
+        <v>0</v>
+      </c>
+      <c r="U20" s="83">
+        <v>0</v>
+      </c>
+      <c r="V20" s="83">
+        <v>0</v>
+      </c>
+      <c r="W20" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="88"/>
       <c r="C21" s="4" t="s">
         <v>33</v>
       </c>
@@ -2861,33 +2932,33 @@
       <c r="O21" s="58">
         <v>0</v>
       </c>
-      <c r="P21" s="89">
+      <c r="P21" s="66">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="Q21" s="107">
-        <v>0</v>
-      </c>
-      <c r="R21" s="107">
-        <v>0</v>
-      </c>
-      <c r="S21" s="107">
-        <v>0</v>
-      </c>
-      <c r="T21" s="107">
-        <v>0</v>
-      </c>
-      <c r="U21" s="107">
-        <v>0</v>
-      </c>
-      <c r="V21" s="107">
-        <v>0</v>
-      </c>
-      <c r="W21" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="78"/>
+      <c r="Q21" s="83">
+        <v>0</v>
+      </c>
+      <c r="R21" s="83">
+        <v>0</v>
+      </c>
+      <c r="S21" s="83">
+        <v>0</v>
+      </c>
+      <c r="T21" s="83">
+        <v>0</v>
+      </c>
+      <c r="U21" s="83">
+        <v>0</v>
+      </c>
+      <c r="V21" s="83">
+        <v>0</v>
+      </c>
+      <c r="W21" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="88"/>
       <c r="C22" s="4" t="s">
         <v>34</v>
       </c>
@@ -2926,33 +2997,33 @@
       <c r="O22" s="58">
         <v>0</v>
       </c>
-      <c r="P22" s="89">
+      <c r="P22" s="66">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="Q22" s="107">
-        <v>0</v>
-      </c>
-      <c r="R22" s="107">
-        <v>0</v>
-      </c>
-      <c r="S22" s="107">
-        <v>0</v>
-      </c>
-      <c r="T22" s="107">
-        <v>0</v>
-      </c>
-      <c r="U22" s="107">
-        <v>0</v>
-      </c>
-      <c r="V22" s="107">
-        <v>0</v>
-      </c>
-      <c r="W22" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="78"/>
+      <c r="Q22" s="83">
+        <v>0</v>
+      </c>
+      <c r="R22" s="83">
+        <v>0</v>
+      </c>
+      <c r="S22" s="83">
+        <v>0</v>
+      </c>
+      <c r="T22" s="83">
+        <v>0</v>
+      </c>
+      <c r="U22" s="83">
+        <v>0</v>
+      </c>
+      <c r="V22" s="83">
+        <v>0</v>
+      </c>
+      <c r="W22" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="88"/>
       <c r="C23" s="4" t="s">
         <v>35</v>
       </c>
@@ -2991,33 +3062,33 @@
       <c r="O23" s="58">
         <v>0</v>
       </c>
-      <c r="P23" s="89">
+      <c r="P23" s="66">
         <v>0.05</v>
       </c>
-      <c r="Q23" s="107">
-        <v>0</v>
-      </c>
-      <c r="R23" s="107">
-        <v>0</v>
-      </c>
-      <c r="S23" s="107">
-        <v>0</v>
-      </c>
-      <c r="T23" s="107">
-        <v>0</v>
-      </c>
-      <c r="U23" s="107">
-        <v>0</v>
-      </c>
-      <c r="V23" s="107">
-        <v>0</v>
-      </c>
-      <c r="W23" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="78"/>
+      <c r="Q23" s="83">
+        <v>0</v>
+      </c>
+      <c r="R23" s="83">
+        <v>0</v>
+      </c>
+      <c r="S23" s="83">
+        <v>0</v>
+      </c>
+      <c r="T23" s="83">
+        <v>0</v>
+      </c>
+      <c r="U23" s="83">
+        <v>0</v>
+      </c>
+      <c r="V23" s="83">
+        <v>0</v>
+      </c>
+      <c r="W23" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="88"/>
       <c r="C24" s="4" t="s">
         <v>36</v>
       </c>
@@ -3056,33 +3127,33 @@
       <c r="O24" s="58">
         <v>0</v>
       </c>
-      <c r="P24" s="89">
+      <c r="P24" s="66">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="Q24" s="107">
-        <v>0</v>
-      </c>
-      <c r="R24" s="107">
-        <v>0</v>
-      </c>
-      <c r="S24" s="107">
-        <v>0</v>
-      </c>
-      <c r="T24" s="107">
-        <v>0</v>
-      </c>
-      <c r="U24" s="107">
-        <v>0</v>
-      </c>
-      <c r="V24" s="107">
-        <v>0</v>
-      </c>
-      <c r="W24" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="78"/>
+      <c r="Q24" s="83">
+        <v>0</v>
+      </c>
+      <c r="R24" s="83">
+        <v>0</v>
+      </c>
+      <c r="S24" s="83">
+        <v>0</v>
+      </c>
+      <c r="T24" s="83">
+        <v>0</v>
+      </c>
+      <c r="U24" s="83">
+        <v>0</v>
+      </c>
+      <c r="V24" s="83">
+        <v>0</v>
+      </c>
+      <c r="W24" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="88"/>
       <c r="C25" s="4" t="s">
         <v>37</v>
       </c>
@@ -3121,33 +3192,33 @@
       <c r="O25" s="58">
         <v>0</v>
       </c>
-      <c r="P25" s="89">
+      <c r="P25" s="66">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="Q25" s="107">
-        <v>0</v>
-      </c>
-      <c r="R25" s="107">
-        <v>0</v>
-      </c>
-      <c r="S25" s="107">
-        <v>0</v>
-      </c>
-      <c r="T25" s="107">
-        <v>0</v>
-      </c>
-      <c r="U25" s="107">
-        <v>0</v>
-      </c>
-      <c r="V25" s="107">
-        <v>0</v>
-      </c>
-      <c r="W25" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="78"/>
+      <c r="Q25" s="83">
+        <v>0</v>
+      </c>
+      <c r="R25" s="83">
+        <v>0</v>
+      </c>
+      <c r="S25" s="83">
+        <v>0</v>
+      </c>
+      <c r="T25" s="83">
+        <v>0</v>
+      </c>
+      <c r="U25" s="83">
+        <v>0</v>
+      </c>
+      <c r="V25" s="83">
+        <v>0</v>
+      </c>
+      <c r="W25" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="88"/>
       <c r="C26" s="4" t="s">
         <v>38</v>
       </c>
@@ -3186,33 +3257,33 @@
       <c r="O26" s="58">
         <v>0</v>
       </c>
-      <c r="P26" s="89">
+      <c r="P26" s="66">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="Q26" s="107">
-        <v>0</v>
-      </c>
-      <c r="R26" s="107">
-        <v>0</v>
-      </c>
-      <c r="S26" s="107">
-        <v>0</v>
-      </c>
-      <c r="T26" s="107">
-        <v>0</v>
-      </c>
-      <c r="U26" s="107">
-        <v>0</v>
-      </c>
-      <c r="V26" s="107">
-        <v>0</v>
-      </c>
-      <c r="W26" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="78"/>
+      <c r="Q26" s="83">
+        <v>0</v>
+      </c>
+      <c r="R26" s="83">
+        <v>0</v>
+      </c>
+      <c r="S26" s="83">
+        <v>0</v>
+      </c>
+      <c r="T26" s="83">
+        <v>0</v>
+      </c>
+      <c r="U26" s="83">
+        <v>0</v>
+      </c>
+      <c r="V26" s="83">
+        <v>0</v>
+      </c>
+      <c r="W26" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="88"/>
       <c r="C27" s="4" t="s">
         <v>39</v>
       </c>
@@ -3251,33 +3322,33 @@
       <c r="O27" s="58">
         <v>0</v>
       </c>
-      <c r="P27" s="89">
+      <c r="P27" s="66">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="Q27" s="107">
-        <v>0</v>
-      </c>
-      <c r="R27" s="107">
-        <v>0</v>
-      </c>
-      <c r="S27" s="107">
-        <v>0</v>
-      </c>
-      <c r="T27" s="107">
-        <v>0</v>
-      </c>
-      <c r="U27" s="107">
-        <v>0</v>
-      </c>
-      <c r="V27" s="107">
-        <v>0</v>
-      </c>
-      <c r="W27" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="78"/>
+      <c r="Q27" s="83">
+        <v>0</v>
+      </c>
+      <c r="R27" s="83">
+        <v>0</v>
+      </c>
+      <c r="S27" s="83">
+        <v>0</v>
+      </c>
+      <c r="T27" s="83">
+        <v>0</v>
+      </c>
+      <c r="U27" s="83">
+        <v>0</v>
+      </c>
+      <c r="V27" s="83">
+        <v>0</v>
+      </c>
+      <c r="W27" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="88"/>
       <c r="C28" s="4" t="s">
         <v>40</v>
       </c>
@@ -3316,33 +3387,33 @@
       <c r="O28" s="58">
         <v>0</v>
       </c>
-      <c r="P28" s="89">
+      <c r="P28" s="66">
         <v>0.05</v>
       </c>
-      <c r="Q28" s="107">
-        <v>0</v>
-      </c>
-      <c r="R28" s="107">
-        <v>0</v>
-      </c>
-      <c r="S28" s="107">
-        <v>0</v>
-      </c>
-      <c r="T28" s="107">
-        <v>0</v>
-      </c>
-      <c r="U28" s="107">
-        <v>0</v>
-      </c>
-      <c r="V28" s="107">
-        <v>0</v>
-      </c>
-      <c r="W28" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="78"/>
+      <c r="Q28" s="83">
+        <v>0</v>
+      </c>
+      <c r="R28" s="83">
+        <v>0</v>
+      </c>
+      <c r="S28" s="83">
+        <v>0</v>
+      </c>
+      <c r="T28" s="83">
+        <v>0</v>
+      </c>
+      <c r="U28" s="83">
+        <v>0</v>
+      </c>
+      <c r="V28" s="83">
+        <v>0</v>
+      </c>
+      <c r="W28" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="88"/>
       <c r="C29" s="4" t="s">
         <v>41</v>
       </c>
@@ -3381,33 +3452,33 @@
       <c r="O29" s="58">
         <v>0</v>
       </c>
-      <c r="P29" s="89">
+      <c r="P29" s="66">
         <v>0.05</v>
       </c>
-      <c r="Q29" s="107">
-        <v>0</v>
-      </c>
-      <c r="R29" s="107">
-        <v>0</v>
-      </c>
-      <c r="S29" s="107">
-        <v>0</v>
-      </c>
-      <c r="T29" s="107">
-        <v>0</v>
-      </c>
-      <c r="U29" s="107">
-        <v>0</v>
-      </c>
-      <c r="V29" s="107">
-        <v>0</v>
-      </c>
-      <c r="W29" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="78"/>
+      <c r="Q29" s="83">
+        <v>0</v>
+      </c>
+      <c r="R29" s="83">
+        <v>0</v>
+      </c>
+      <c r="S29" s="83">
+        <v>0</v>
+      </c>
+      <c r="T29" s="83">
+        <v>0</v>
+      </c>
+      <c r="U29" s="83">
+        <v>0</v>
+      </c>
+      <c r="V29" s="83">
+        <v>0</v>
+      </c>
+      <c r="W29" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="88"/>
       <c r="C30" s="4" t="s">
         <v>42</v>
       </c>
@@ -3446,33 +3517,33 @@
       <c r="O30" s="58">
         <v>0</v>
       </c>
-      <c r="P30" s="89">
+      <c r="P30" s="66">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="Q30" s="107">
-        <v>0</v>
-      </c>
-      <c r="R30" s="107">
-        <v>0</v>
-      </c>
-      <c r="S30" s="107">
-        <v>0</v>
-      </c>
-      <c r="T30" s="107">
-        <v>0</v>
-      </c>
-      <c r="U30" s="107">
-        <v>0</v>
-      </c>
-      <c r="V30" s="107">
-        <v>0</v>
-      </c>
-      <c r="W30" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="78"/>
+      <c r="Q30" s="83">
+        <v>0</v>
+      </c>
+      <c r="R30" s="83">
+        <v>0</v>
+      </c>
+      <c r="S30" s="83">
+        <v>0</v>
+      </c>
+      <c r="T30" s="83">
+        <v>0</v>
+      </c>
+      <c r="U30" s="83">
+        <v>0</v>
+      </c>
+      <c r="V30" s="83">
+        <v>0</v>
+      </c>
+      <c r="W30" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="88"/>
       <c r="C31" s="4" t="s">
         <v>43</v>
       </c>
@@ -3511,33 +3582,33 @@
       <c r="O31" s="58">
         <v>0</v>
       </c>
-      <c r="P31" s="89">
+      <c r="P31" s="66">
         <v>0.1</v>
       </c>
-      <c r="Q31" s="107">
-        <v>0</v>
-      </c>
-      <c r="R31" s="107">
-        <v>0</v>
-      </c>
-      <c r="S31" s="107">
-        <v>0</v>
-      </c>
-      <c r="T31" s="107">
-        <v>0</v>
-      </c>
-      <c r="U31" s="107">
-        <v>0</v>
-      </c>
-      <c r="V31" s="107">
-        <v>0</v>
-      </c>
-      <c r="W31" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="78"/>
+      <c r="Q31" s="83">
+        <v>0</v>
+      </c>
+      <c r="R31" s="83">
+        <v>0</v>
+      </c>
+      <c r="S31" s="83">
+        <v>0</v>
+      </c>
+      <c r="T31" s="83">
+        <v>0</v>
+      </c>
+      <c r="U31" s="83">
+        <v>0</v>
+      </c>
+      <c r="V31" s="83">
+        <v>0</v>
+      </c>
+      <c r="W31" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="88"/>
       <c r="C32" s="4" t="s">
         <v>44</v>
       </c>
@@ -3576,33 +3647,33 @@
       <c r="O32" s="58">
         <v>0</v>
       </c>
-      <c r="P32" s="89">
+      <c r="P32" s="66">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="Q32" s="107">
-        <v>0</v>
-      </c>
-      <c r="R32" s="107">
-        <v>0</v>
-      </c>
-      <c r="S32" s="107">
-        <v>0</v>
-      </c>
-      <c r="T32" s="107">
-        <v>0</v>
-      </c>
-      <c r="U32" s="107">
-        <v>0</v>
-      </c>
-      <c r="V32" s="107">
-        <v>0</v>
-      </c>
-      <c r="W32" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="78"/>
+      <c r="Q32" s="83">
+        <v>0</v>
+      </c>
+      <c r="R32" s="83">
+        <v>0</v>
+      </c>
+      <c r="S32" s="83">
+        <v>0</v>
+      </c>
+      <c r="T32" s="83">
+        <v>0</v>
+      </c>
+      <c r="U32" s="83">
+        <v>0</v>
+      </c>
+      <c r="V32" s="83">
+        <v>0</v>
+      </c>
+      <c r="W32" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="88"/>
       <c r="C33" s="4" t="s">
         <v>45</v>
       </c>
@@ -3641,33 +3712,33 @@
       <c r="O33" s="58">
         <v>0</v>
       </c>
-      <c r="P33" s="89">
+      <c r="P33" s="66">
         <v>0.05</v>
       </c>
-      <c r="Q33" s="107">
-        <v>0</v>
-      </c>
-      <c r="R33" s="107">
-        <v>0</v>
-      </c>
-      <c r="S33" s="107">
-        <v>0</v>
-      </c>
-      <c r="T33" s="107">
-        <v>0</v>
-      </c>
-      <c r="U33" s="107">
-        <v>0</v>
-      </c>
-      <c r="V33" s="107">
-        <v>0</v>
-      </c>
-      <c r="W33" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="78"/>
+      <c r="Q33" s="83">
+        <v>0</v>
+      </c>
+      <c r="R33" s="83">
+        <v>0</v>
+      </c>
+      <c r="S33" s="83">
+        <v>0</v>
+      </c>
+      <c r="T33" s="83">
+        <v>0</v>
+      </c>
+      <c r="U33" s="83">
+        <v>0</v>
+      </c>
+      <c r="V33" s="83">
+        <v>0</v>
+      </c>
+      <c r="W33" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="88"/>
       <c r="C34" s="4" t="s">
         <v>46</v>
       </c>
@@ -3706,33 +3777,33 @@
       <c r="O34" s="58">
         <v>0</v>
       </c>
-      <c r="P34" s="89">
+      <c r="P34" s="66">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="Q34" s="107">
-        <v>0</v>
-      </c>
-      <c r="R34" s="107">
-        <v>0</v>
-      </c>
-      <c r="S34" s="107">
-        <v>0</v>
-      </c>
-      <c r="T34" s="107">
-        <v>0</v>
-      </c>
-      <c r="U34" s="107">
-        <v>0</v>
-      </c>
-      <c r="V34" s="107">
-        <v>0</v>
-      </c>
-      <c r="W34" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="78"/>
+      <c r="Q34" s="83">
+        <v>0</v>
+      </c>
+      <c r="R34" s="83">
+        <v>0</v>
+      </c>
+      <c r="S34" s="83">
+        <v>0</v>
+      </c>
+      <c r="T34" s="83">
+        <v>0</v>
+      </c>
+      <c r="U34" s="83">
+        <v>0</v>
+      </c>
+      <c r="V34" s="83">
+        <v>0</v>
+      </c>
+      <c r="W34" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="88"/>
       <c r="C35" s="4" t="s">
         <v>47</v>
       </c>
@@ -3771,33 +3842,33 @@
       <c r="O35" s="58">
         <v>0</v>
       </c>
-      <c r="P35" s="89">
+      <c r="P35" s="66">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="Q35" s="107">
-        <v>0</v>
-      </c>
-      <c r="R35" s="107">
-        <v>0</v>
-      </c>
-      <c r="S35" s="107">
-        <v>0</v>
-      </c>
-      <c r="T35" s="107">
-        <v>0</v>
-      </c>
-      <c r="U35" s="107">
-        <v>0</v>
-      </c>
-      <c r="V35" s="107">
-        <v>0</v>
-      </c>
-      <c r="W35" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="78"/>
+      <c r="Q35" s="83">
+        <v>0</v>
+      </c>
+      <c r="R35" s="83">
+        <v>0</v>
+      </c>
+      <c r="S35" s="83">
+        <v>0</v>
+      </c>
+      <c r="T35" s="83">
+        <v>0</v>
+      </c>
+      <c r="U35" s="83">
+        <v>0</v>
+      </c>
+      <c r="V35" s="83">
+        <v>0</v>
+      </c>
+      <c r="W35" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="88"/>
       <c r="C36" s="4" t="s">
         <v>48</v>
       </c>
@@ -3836,33 +3907,33 @@
       <c r="O36" s="58">
         <v>0</v>
       </c>
-      <c r="P36" s="89">
+      <c r="P36" s="66">
         <v>0.05</v>
       </c>
-      <c r="Q36" s="107">
-        <v>0</v>
-      </c>
-      <c r="R36" s="107">
-        <v>0</v>
-      </c>
-      <c r="S36" s="107">
-        <v>0</v>
-      </c>
-      <c r="T36" s="107">
-        <v>0</v>
-      </c>
-      <c r="U36" s="107">
-        <v>0</v>
-      </c>
-      <c r="V36" s="107">
-        <v>0</v>
-      </c>
-      <c r="W36" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="78"/>
+      <c r="Q36" s="83">
+        <v>0</v>
+      </c>
+      <c r="R36" s="83">
+        <v>0</v>
+      </c>
+      <c r="S36" s="83">
+        <v>0</v>
+      </c>
+      <c r="T36" s="83">
+        <v>0</v>
+      </c>
+      <c r="U36" s="83">
+        <v>0</v>
+      </c>
+      <c r="V36" s="83">
+        <v>0</v>
+      </c>
+      <c r="W36" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="88"/>
       <c r="C37" s="4" t="s">
         <v>49</v>
       </c>
@@ -3901,33 +3972,33 @@
       <c r="O37" s="58">
         <v>0</v>
       </c>
-      <c r="P37" s="89">
+      <c r="P37" s="66">
         <v>0.05</v>
       </c>
-      <c r="Q37" s="107">
-        <v>0</v>
-      </c>
-      <c r="R37" s="107">
-        <v>0</v>
-      </c>
-      <c r="S37" s="107">
-        <v>0</v>
-      </c>
-      <c r="T37" s="107">
-        <v>0</v>
-      </c>
-      <c r="U37" s="107">
-        <v>0</v>
-      </c>
-      <c r="V37" s="107">
-        <v>0</v>
-      </c>
-      <c r="W37" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="78"/>
+      <c r="Q37" s="83">
+        <v>0</v>
+      </c>
+      <c r="R37" s="83">
+        <v>0</v>
+      </c>
+      <c r="S37" s="83">
+        <v>0</v>
+      </c>
+      <c r="T37" s="83">
+        <v>0</v>
+      </c>
+      <c r="U37" s="83">
+        <v>0</v>
+      </c>
+      <c r="V37" s="83">
+        <v>0</v>
+      </c>
+      <c r="W37" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="88"/>
       <c r="C38" s="4" t="s">
         <v>50</v>
       </c>
@@ -3966,33 +4037,33 @@
       <c r="O38" s="58">
         <v>0</v>
       </c>
-      <c r="P38" s="89">
+      <c r="P38" s="66">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="Q38" s="107">
-        <v>0</v>
-      </c>
-      <c r="R38" s="107">
-        <v>0</v>
-      </c>
-      <c r="S38" s="107">
-        <v>0</v>
-      </c>
-      <c r="T38" s="107">
-        <v>0</v>
-      </c>
-      <c r="U38" s="107">
-        <v>0</v>
-      </c>
-      <c r="V38" s="107">
-        <v>0</v>
-      </c>
-      <c r="W38" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="78"/>
+      <c r="Q38" s="83">
+        <v>0</v>
+      </c>
+      <c r="R38" s="83">
+        <v>0</v>
+      </c>
+      <c r="S38" s="83">
+        <v>0</v>
+      </c>
+      <c r="T38" s="83">
+        <v>0</v>
+      </c>
+      <c r="U38" s="83">
+        <v>0</v>
+      </c>
+      <c r="V38" s="83">
+        <v>0</v>
+      </c>
+      <c r="W38" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="88"/>
       <c r="C39" s="4" t="s">
         <v>51</v>
       </c>
@@ -4031,33 +4102,33 @@
       <c r="O39" s="58">
         <v>0</v>
       </c>
-      <c r="P39" s="89">
+      <c r="P39" s="66">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="Q39" s="107">
-        <v>0</v>
-      </c>
-      <c r="R39" s="107">
-        <v>0</v>
-      </c>
-      <c r="S39" s="107">
-        <v>0</v>
-      </c>
-      <c r="T39" s="107">
-        <v>0</v>
-      </c>
-      <c r="U39" s="107">
-        <v>0</v>
-      </c>
-      <c r="V39" s="107">
-        <v>0</v>
-      </c>
-      <c r="W39" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="78"/>
+      <c r="Q39" s="83">
+        <v>0</v>
+      </c>
+      <c r="R39" s="83">
+        <v>0</v>
+      </c>
+      <c r="S39" s="83">
+        <v>0</v>
+      </c>
+      <c r="T39" s="83">
+        <v>0</v>
+      </c>
+      <c r="U39" s="83">
+        <v>0</v>
+      </c>
+      <c r="V39" s="83">
+        <v>0</v>
+      </c>
+      <c r="W39" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="88"/>
       <c r="C40" s="4" t="s">
         <v>52</v>
       </c>
@@ -4096,33 +4167,33 @@
       <c r="O40" s="58">
         <v>0</v>
       </c>
-      <c r="P40" s="89">
+      <c r="P40" s="66">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="Q40" s="107">
-        <v>0</v>
-      </c>
-      <c r="R40" s="107">
-        <v>0</v>
-      </c>
-      <c r="S40" s="107">
-        <v>0</v>
-      </c>
-      <c r="T40" s="107">
-        <v>0</v>
-      </c>
-      <c r="U40" s="107">
-        <v>0</v>
-      </c>
-      <c r="V40" s="107">
-        <v>0</v>
-      </c>
-      <c r="W40" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="78"/>
+      <c r="Q40" s="83">
+        <v>0</v>
+      </c>
+      <c r="R40" s="83">
+        <v>0</v>
+      </c>
+      <c r="S40" s="83">
+        <v>0</v>
+      </c>
+      <c r="T40" s="83">
+        <v>0</v>
+      </c>
+      <c r="U40" s="83">
+        <v>0</v>
+      </c>
+      <c r="V40" s="83">
+        <v>0</v>
+      </c>
+      <c r="W40" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="88"/>
       <c r="C41" s="4" t="s">
         <v>53</v>
       </c>
@@ -4161,33 +4232,33 @@
       <c r="O41" s="58">
         <v>0</v>
       </c>
-      <c r="P41" s="89">
+      <c r="P41" s="66">
         <v>0.05</v>
       </c>
-      <c r="Q41" s="107">
-        <v>0</v>
-      </c>
-      <c r="R41" s="107">
-        <v>0</v>
-      </c>
-      <c r="S41" s="107">
-        <v>0</v>
-      </c>
-      <c r="T41" s="107">
-        <v>0</v>
-      </c>
-      <c r="U41" s="107">
-        <v>0</v>
-      </c>
-      <c r="V41" s="107">
-        <v>0</v>
-      </c>
-      <c r="W41" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="78"/>
+      <c r="Q41" s="83">
+        <v>0</v>
+      </c>
+      <c r="R41" s="83">
+        <v>0</v>
+      </c>
+      <c r="S41" s="83">
+        <v>0</v>
+      </c>
+      <c r="T41" s="83">
+        <v>0</v>
+      </c>
+      <c r="U41" s="83">
+        <v>0</v>
+      </c>
+      <c r="V41" s="83">
+        <v>0</v>
+      </c>
+      <c r="W41" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="88"/>
       <c r="C42" s="4" t="s">
         <v>54</v>
       </c>
@@ -4226,33 +4297,33 @@
       <c r="O42" s="58">
         <v>0</v>
       </c>
-      <c r="P42" s="89">
+      <c r="P42" s="66">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="Q42" s="107">
-        <v>0</v>
-      </c>
-      <c r="R42" s="107">
-        <v>0</v>
-      </c>
-      <c r="S42" s="107">
-        <v>0</v>
-      </c>
-      <c r="T42" s="107">
-        <v>0</v>
-      </c>
-      <c r="U42" s="107">
-        <v>0</v>
-      </c>
-      <c r="V42" s="107">
-        <v>0</v>
-      </c>
-      <c r="W42" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="78"/>
+      <c r="Q42" s="83">
+        <v>0</v>
+      </c>
+      <c r="R42" s="83">
+        <v>0</v>
+      </c>
+      <c r="S42" s="83">
+        <v>0</v>
+      </c>
+      <c r="T42" s="83">
+        <v>0</v>
+      </c>
+      <c r="U42" s="83">
+        <v>0</v>
+      </c>
+      <c r="V42" s="83">
+        <v>0</v>
+      </c>
+      <c r="W42" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="88"/>
       <c r="C43" s="4" t="s">
         <v>55</v>
       </c>
@@ -4291,33 +4362,33 @@
       <c r="O43" s="58">
         <v>0</v>
       </c>
-      <c r="P43" s="89">
+      <c r="P43" s="66">
         <v>0.05</v>
       </c>
-      <c r="Q43" s="107">
-        <v>0</v>
-      </c>
-      <c r="R43" s="107">
-        <v>0</v>
-      </c>
-      <c r="S43" s="107">
-        <v>0</v>
-      </c>
-      <c r="T43" s="107">
-        <v>0</v>
-      </c>
-      <c r="U43" s="107">
-        <v>0</v>
-      </c>
-      <c r="V43" s="107">
-        <v>0</v>
-      </c>
-      <c r="W43" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="78"/>
+      <c r="Q43" s="83">
+        <v>0</v>
+      </c>
+      <c r="R43" s="83">
+        <v>0</v>
+      </c>
+      <c r="S43" s="83">
+        <v>0</v>
+      </c>
+      <c r="T43" s="83">
+        <v>0</v>
+      </c>
+      <c r="U43" s="83">
+        <v>0</v>
+      </c>
+      <c r="V43" s="83">
+        <v>0</v>
+      </c>
+      <c r="W43" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="88"/>
       <c r="C44" s="4" t="s">
         <v>56</v>
       </c>
@@ -4356,33 +4427,33 @@
       <c r="O44" s="58">
         <v>0</v>
       </c>
-      <c r="P44" s="89">
+      <c r="P44" s="66">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="Q44" s="107">
-        <v>0</v>
-      </c>
-      <c r="R44" s="107">
-        <v>0</v>
-      </c>
-      <c r="S44" s="107">
-        <v>0</v>
-      </c>
-      <c r="T44" s="107">
-        <v>0</v>
-      </c>
-      <c r="U44" s="107">
-        <v>0</v>
-      </c>
-      <c r="V44" s="107">
-        <v>0</v>
-      </c>
-      <c r="W44" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="78"/>
+      <c r="Q44" s="83">
+        <v>0</v>
+      </c>
+      <c r="R44" s="83">
+        <v>0</v>
+      </c>
+      <c r="S44" s="83">
+        <v>0</v>
+      </c>
+      <c r="T44" s="83">
+        <v>0</v>
+      </c>
+      <c r="U44" s="83">
+        <v>0</v>
+      </c>
+      <c r="V44" s="83">
+        <v>0</v>
+      </c>
+      <c r="W44" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="88"/>
       <c r="C45" s="4" t="s">
         <v>57</v>
       </c>
@@ -4421,33 +4492,33 @@
       <c r="O45" s="58">
         <v>0</v>
       </c>
-      <c r="P45" s="89">
+      <c r="P45" s="66">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="Q45" s="107">
-        <v>0</v>
-      </c>
-      <c r="R45" s="107">
-        <v>0</v>
-      </c>
-      <c r="S45" s="107">
-        <v>0</v>
-      </c>
-      <c r="T45" s="107">
-        <v>0</v>
-      </c>
-      <c r="U45" s="107">
-        <v>0</v>
-      </c>
-      <c r="V45" s="107">
-        <v>0</v>
-      </c>
-      <c r="W45" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="78"/>
+      <c r="Q45" s="83">
+        <v>0</v>
+      </c>
+      <c r="R45" s="83">
+        <v>0</v>
+      </c>
+      <c r="S45" s="83">
+        <v>0</v>
+      </c>
+      <c r="T45" s="83">
+        <v>0</v>
+      </c>
+      <c r="U45" s="83">
+        <v>0</v>
+      </c>
+      <c r="V45" s="83">
+        <v>0</v>
+      </c>
+      <c r="W45" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="88"/>
       <c r="C46" s="4" t="s">
         <v>58</v>
       </c>
@@ -4486,33 +4557,33 @@
       <c r="O46" s="58">
         <v>0</v>
       </c>
-      <c r="P46" s="89">
+      <c r="P46" s="66">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="Q46" s="107">
-        <v>0</v>
-      </c>
-      <c r="R46" s="107">
-        <v>0</v>
-      </c>
-      <c r="S46" s="107">
-        <v>0</v>
-      </c>
-      <c r="T46" s="107">
-        <v>0</v>
-      </c>
-      <c r="U46" s="107">
-        <v>0</v>
-      </c>
-      <c r="V46" s="107">
-        <v>0</v>
-      </c>
-      <c r="W46" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="78"/>
+      <c r="Q46" s="83">
+        <v>0</v>
+      </c>
+      <c r="R46" s="83">
+        <v>0</v>
+      </c>
+      <c r="S46" s="83">
+        <v>0</v>
+      </c>
+      <c r="T46" s="83">
+        <v>0</v>
+      </c>
+      <c r="U46" s="83">
+        <v>0</v>
+      </c>
+      <c r="V46" s="83">
+        <v>0</v>
+      </c>
+      <c r="W46" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="88"/>
       <c r="C47" s="4" t="s">
         <v>59</v>
       </c>
@@ -4551,33 +4622,33 @@
       <c r="O47" s="58">
         <v>0</v>
       </c>
-      <c r="P47" s="89">
+      <c r="P47" s="66">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="Q47" s="107">
-        <v>0</v>
-      </c>
-      <c r="R47" s="107">
-        <v>0</v>
-      </c>
-      <c r="S47" s="107">
-        <v>0</v>
-      </c>
-      <c r="T47" s="107">
-        <v>0</v>
-      </c>
-      <c r="U47" s="107">
-        <v>0</v>
-      </c>
-      <c r="V47" s="107">
-        <v>0</v>
-      </c>
-      <c r="W47" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="78"/>
+      <c r="Q47" s="83">
+        <v>0</v>
+      </c>
+      <c r="R47" s="83">
+        <v>0</v>
+      </c>
+      <c r="S47" s="83">
+        <v>0</v>
+      </c>
+      <c r="T47" s="83">
+        <v>0</v>
+      </c>
+      <c r="U47" s="83">
+        <v>0</v>
+      </c>
+      <c r="V47" s="83">
+        <v>0</v>
+      </c>
+      <c r="W47" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="88"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
@@ -4616,33 +4687,33 @@
       <c r="O48" s="58">
         <v>0</v>
       </c>
-      <c r="P48" s="89">
+      <c r="P48" s="66">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="Q48" s="107">
-        <v>0</v>
-      </c>
-      <c r="R48" s="107">
-        <v>0</v>
-      </c>
-      <c r="S48" s="107">
-        <v>0</v>
-      </c>
-      <c r="T48" s="107">
-        <v>0</v>
-      </c>
-      <c r="U48" s="107">
-        <v>0</v>
-      </c>
-      <c r="V48" s="107">
-        <v>0</v>
-      </c>
-      <c r="W48" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="78"/>
+      <c r="Q48" s="83">
+        <v>0</v>
+      </c>
+      <c r="R48" s="83">
+        <v>0</v>
+      </c>
+      <c r="S48" s="83">
+        <v>0</v>
+      </c>
+      <c r="T48" s="83">
+        <v>0</v>
+      </c>
+      <c r="U48" s="83">
+        <v>0</v>
+      </c>
+      <c r="V48" s="83">
+        <v>0</v>
+      </c>
+      <c r="W48" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="88"/>
       <c r="C49" s="4" t="s">
         <v>61</v>
       </c>
@@ -4681,33 +4752,33 @@
       <c r="O49" s="58">
         <v>0</v>
       </c>
-      <c r="P49" s="89">
+      <c r="P49" s="66">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="Q49" s="107">
-        <v>0</v>
-      </c>
-      <c r="R49" s="107">
-        <v>0</v>
-      </c>
-      <c r="S49" s="107">
-        <v>0</v>
-      </c>
-      <c r="T49" s="107">
-        <v>0</v>
-      </c>
-      <c r="U49" s="107">
-        <v>0</v>
-      </c>
-      <c r="V49" s="107">
-        <v>0</v>
-      </c>
-      <c r="W49" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="78"/>
+      <c r="Q49" s="83">
+        <v>0</v>
+      </c>
+      <c r="R49" s="83">
+        <v>0</v>
+      </c>
+      <c r="S49" s="83">
+        <v>0</v>
+      </c>
+      <c r="T49" s="83">
+        <v>0</v>
+      </c>
+      <c r="U49" s="83">
+        <v>0</v>
+      </c>
+      <c r="V49" s="83">
+        <v>0</v>
+      </c>
+      <c r="W49" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="88"/>
       <c r="C50" s="4" t="s">
         <v>62</v>
       </c>
@@ -4746,33 +4817,33 @@
       <c r="O50" s="58">
         <v>0</v>
       </c>
-      <c r="P50" s="89">
+      <c r="P50" s="66">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="Q50" s="107">
-        <v>0</v>
-      </c>
-      <c r="R50" s="107">
-        <v>0</v>
-      </c>
-      <c r="S50" s="107">
-        <v>0</v>
-      </c>
-      <c r="T50" s="107">
-        <v>0</v>
-      </c>
-      <c r="U50" s="107">
-        <v>0</v>
-      </c>
-      <c r="V50" s="107">
-        <v>0</v>
-      </c>
-      <c r="W50" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="78"/>
+      <c r="Q50" s="83">
+        <v>0</v>
+      </c>
+      <c r="R50" s="83">
+        <v>0</v>
+      </c>
+      <c r="S50" s="83">
+        <v>0</v>
+      </c>
+      <c r="T50" s="83">
+        <v>0</v>
+      </c>
+      <c r="U50" s="83">
+        <v>0</v>
+      </c>
+      <c r="V50" s="83">
+        <v>0</v>
+      </c>
+      <c r="W50" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="88"/>
       <c r="C51" s="18" t="s">
         <v>63</v>
       </c>
@@ -4820,8 +4891,8 @@
       <c r="V51" s="22"/>
       <c r="W51" s="31"/>
     </row>
-    <row r="52" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="78"/>
+    <row r="52" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="88"/>
       <c r="C52" s="18" t="s">
         <v>79</v>
       </c>
@@ -4869,8 +4940,8 @@
       <c r="V52" s="22"/>
       <c r="W52" s="31"/>
     </row>
-    <row r="53" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="78"/>
+    <row r="53" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="88"/>
       <c r="C53" s="18" t="s">
         <v>80</v>
       </c>
@@ -4918,8 +4989,8 @@
       <c r="V53" s="22"/>
       <c r="W53" s="31"/>
     </row>
-    <row r="54" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="78"/>
+    <row r="54" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="88"/>
       <c r="C54" s="18" t="s">
         <v>81</v>
       </c>
@@ -4967,8 +5038,8 @@
       <c r="V54" s="22"/>
       <c r="W54" s="31"/>
     </row>
-    <row r="55" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="78"/>
+    <row r="55" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="88"/>
       <c r="C55" s="18" t="s">
         <v>82</v>
       </c>
@@ -5016,8 +5087,8 @@
       <c r="V55" s="22"/>
       <c r="W55" s="31"/>
     </row>
-    <row r="56" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="78"/>
+    <row r="56" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="88"/>
       <c r="C56" s="18" t="s">
         <v>83</v>
       </c>
@@ -5035,7 +5106,7 @@
         <v>0.25</v>
       </c>
       <c r="I56" s="34">
-        <f t="shared" ref="I56:I110" si="1">SUM(J56:W56)</f>
+        <f t="shared" ref="I56:I112" si="1">SUM(J56:W56)</f>
         <v>0</v>
       </c>
       <c r="J56" s="58">
@@ -5065,8 +5136,8 @@
       <c r="V56" s="22"/>
       <c r="W56" s="31"/>
     </row>
-    <row r="57" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="78"/>
+    <row r="57" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="88"/>
       <c r="C57" s="18" t="s">
         <v>84</v>
       </c>
@@ -5114,8 +5185,8 @@
       <c r="V57" s="22"/>
       <c r="W57" s="31"/>
     </row>
-    <row r="58" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="78"/>
+    <row r="58" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="88"/>
       <c r="C58" s="18" t="s">
         <v>85</v>
       </c>
@@ -5163,8 +5234,8 @@
       <c r="V58" s="22"/>
       <c r="W58" s="31"/>
     </row>
-    <row r="59" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="78"/>
+    <row r="59" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="88"/>
       <c r="C59" s="18" t="s">
         <v>86</v>
       </c>
@@ -5212,8 +5283,8 @@
       <c r="V59" s="22"/>
       <c r="W59" s="31"/>
     </row>
-    <row r="60" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="78"/>
+    <row r="60" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="88"/>
       <c r="C60" s="18" t="s">
         <v>87</v>
       </c>
@@ -5261,8 +5332,8 @@
       <c r="V60" s="22"/>
       <c r="W60" s="31"/>
     </row>
-    <row r="61" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="78"/>
+    <row r="61" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="88"/>
       <c r="C61" s="18" t="s">
         <v>88</v>
       </c>
@@ -5310,8 +5381,8 @@
       <c r="V61" s="22"/>
       <c r="W61" s="31"/>
     </row>
-    <row r="62" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="78"/>
+    <row r="62" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="88"/>
       <c r="C62" s="18" t="s">
         <v>89</v>
       </c>
@@ -5359,8 +5430,8 @@
       <c r="V62" s="22"/>
       <c r="W62" s="31"/>
     </row>
-    <row r="63" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="78"/>
+    <row r="63" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="88"/>
       <c r="C63" s="18" t="s">
         <v>90</v>
       </c>
@@ -5408,8 +5479,8 @@
       <c r="V63" s="22"/>
       <c r="W63" s="31"/>
     </row>
-    <row r="64" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="78"/>
+    <row r="64" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="88"/>
       <c r="C64" s="18" t="s">
         <v>91</v>
       </c>
@@ -5457,8 +5528,8 @@
       <c r="V64" s="22"/>
       <c r="W64" s="31"/>
     </row>
-    <row r="65" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="79"/>
+    <row r="65" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="89"/>
       <c r="C65" s="39" t="s">
         <v>92</v>
       </c>
@@ -5506,8 +5577,8 @@
       <c r="V65" s="43"/>
       <c r="W65" s="45"/>
     </row>
-    <row r="66" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="80" t="s">
+    <row r="66" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="90" t="s">
         <v>64</v>
       </c>
       <c r="C66" s="35" t="s">
@@ -5557,8 +5628,8 @@
       <c r="V66" s="37"/>
       <c r="W66" s="38"/>
     </row>
-    <row r="67" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="78"/>
+    <row r="67" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="88"/>
       <c r="C67" s="18" t="s">
         <v>66</v>
       </c>
@@ -5606,8 +5677,8 @@
       <c r="V67" s="22"/>
       <c r="W67" s="31"/>
     </row>
-    <row r="68" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="78"/>
+    <row r="68" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="88"/>
       <c r="C68" s="18" t="s">
         <v>67</v>
       </c>
@@ -5655,8 +5726,8 @@
       <c r="V68" s="22"/>
       <c r="W68" s="31"/>
     </row>
-    <row r="69" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="78"/>
+    <row r="69" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="88"/>
       <c r="C69" s="18" t="s">
         <v>68</v>
       </c>
@@ -5704,8 +5775,8 @@
       <c r="V69" s="22"/>
       <c r="W69" s="31"/>
     </row>
-    <row r="70" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="78"/>
+    <row r="70" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="88"/>
       <c r="C70" s="18" t="s">
         <v>69</v>
       </c>
@@ -5753,8 +5824,8 @@
       <c r="V70" s="22"/>
       <c r="W70" s="31"/>
     </row>
-    <row r="71" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="78"/>
+    <row r="71" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="88"/>
       <c r="C71" s="18" t="s">
         <v>70</v>
       </c>
@@ -5802,8 +5873,8 @@
       <c r="V71" s="22"/>
       <c r="W71" s="31"/>
     </row>
-    <row r="72" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="78"/>
+    <row r="72" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="88"/>
       <c r="C72" s="18" t="s">
         <v>71</v>
       </c>
@@ -5851,8 +5922,8 @@
       <c r="V72" s="22"/>
       <c r="W72" s="31"/>
     </row>
-    <row r="73" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="78"/>
+    <row r="73" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="88"/>
       <c r="C73" s="18" t="s">
         <v>72</v>
       </c>
@@ -5900,8 +5971,8 @@
       <c r="V73" s="22"/>
       <c r="W73" s="31"/>
     </row>
-    <row r="74" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="78"/>
+    <row r="74" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="88"/>
       <c r="C74" s="18" t="s">
         <v>73</v>
       </c>
@@ -5949,8 +6020,8 @@
       <c r="V74" s="22"/>
       <c r="W74" s="31"/>
     </row>
-    <row r="75" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="78"/>
+    <row r="75" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="88"/>
       <c r="C75" s="18" t="s">
         <v>74</v>
       </c>
@@ -5998,8 +6069,8 @@
       <c r="V75" s="22"/>
       <c r="W75" s="31"/>
     </row>
-    <row r="76" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="78"/>
+    <row r="76" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="88"/>
       <c r="C76" s="18" t="s">
         <v>75</v>
       </c>
@@ -6047,8 +6118,8 @@
       <c r="V76" s="22"/>
       <c r="W76" s="31"/>
     </row>
-    <row r="77" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="78"/>
+    <row r="77" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="88"/>
       <c r="C77" s="18" t="s">
         <v>76</v>
       </c>
@@ -6096,8 +6167,8 @@
       <c r="V77" s="22"/>
       <c r="W77" s="31"/>
     </row>
-    <row r="78" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="78"/>
+    <row r="78" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="88"/>
       <c r="C78" s="18" t="s">
         <v>77</v>
       </c>
@@ -6145,8 +6216,8 @@
       <c r="V78" s="22"/>
       <c r="W78" s="31"/>
     </row>
-    <row r="79" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="79"/>
+    <row r="79" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="89"/>
       <c r="C79" s="39" t="s">
         <v>78</v>
       </c>
@@ -6194,8 +6265,8 @@
       <c r="V79" s="43"/>
       <c r="W79" s="45"/>
     </row>
-    <row r="80" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="70" t="s">
+    <row r="80" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="102" t="s">
         <v>93</v>
       </c>
       <c r="C80" s="6" t="s">
@@ -6216,7 +6287,7 @@
       </c>
       <c r="I80" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J80" s="60">
         <v>0</v>
@@ -6236,17 +6307,33 @@
       <c r="O80" s="60">
         <v>0</v>
       </c>
-      <c r="P80" s="37"/>
-      <c r="Q80" s="37"/>
-      <c r="R80" s="37"/>
-      <c r="S80" s="37"/>
-      <c r="T80" s="37"/>
-      <c r="U80" s="37"/>
-      <c r="V80" s="37"/>
-      <c r="W80" s="38"/>
-    </row>
-    <row r="81" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="71"/>
+      <c r="P80" s="112">
+        <v>0.05</v>
+      </c>
+      <c r="Q80" s="112">
+        <v>0</v>
+      </c>
+      <c r="R80" s="112">
+        <v>0</v>
+      </c>
+      <c r="S80" s="112">
+        <v>0</v>
+      </c>
+      <c r="T80" s="112">
+        <v>0</v>
+      </c>
+      <c r="U80" s="112">
+        <v>0</v>
+      </c>
+      <c r="V80" s="112">
+        <v>0</v>
+      </c>
+      <c r="W80" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="103"/>
       <c r="C81" s="4" t="s">
         <v>28</v>
       </c>
@@ -6265,7 +6352,7 @@
       </c>
       <c r="I81" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J81" s="58">
         <v>0</v>
@@ -6285,17 +6372,33 @@
       <c r="O81" s="58">
         <v>0</v>
       </c>
-      <c r="P81" s="22"/>
-      <c r="Q81" s="22"/>
-      <c r="R81" s="22"/>
-      <c r="S81" s="22"/>
-      <c r="T81" s="22"/>
-      <c r="U81" s="22"/>
-      <c r="V81" s="22"/>
-      <c r="W81" s="31"/>
-    </row>
-    <row r="82" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="71"/>
+      <c r="P81" s="84">
+        <v>0.03</v>
+      </c>
+      <c r="Q81" s="84">
+        <v>0</v>
+      </c>
+      <c r="R81" s="84">
+        <v>0</v>
+      </c>
+      <c r="S81" s="84">
+        <v>0</v>
+      </c>
+      <c r="T81" s="84">
+        <v>0</v>
+      </c>
+      <c r="U81" s="84">
+        <v>0</v>
+      </c>
+      <c r="V81" s="84">
+        <v>0</v>
+      </c>
+      <c r="W81" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="103"/>
       <c r="C82" s="4" t="s">
         <v>30</v>
       </c>
@@ -6314,7 +6417,7 @@
       </c>
       <c r="I82" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J82" s="58">
         <v>0</v>
@@ -6334,17 +6437,33 @@
       <c r="O82" s="58">
         <v>0</v>
       </c>
-      <c r="P82" s="22"/>
-      <c r="Q82" s="22"/>
-      <c r="R82" s="22"/>
-      <c r="S82" s="22"/>
-      <c r="T82" s="22"/>
-      <c r="U82" s="22"/>
-      <c r="V82" s="22"/>
-      <c r="W82" s="31"/>
-    </row>
-    <row r="83" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="71"/>
+      <c r="P82" s="84">
+        <v>0.03</v>
+      </c>
+      <c r="Q82" s="84">
+        <v>0</v>
+      </c>
+      <c r="R82" s="84">
+        <v>0</v>
+      </c>
+      <c r="S82" s="84">
+        <v>0</v>
+      </c>
+      <c r="T82" s="84">
+        <v>0</v>
+      </c>
+      <c r="U82" s="84">
+        <v>0</v>
+      </c>
+      <c r="V82" s="84">
+        <v>0</v>
+      </c>
+      <c r="W82" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="103"/>
       <c r="C83" s="4" t="s">
         <v>31</v>
       </c>
@@ -6363,7 +6482,7 @@
       </c>
       <c r="I83" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J83" s="58">
         <v>0</v>
@@ -6383,17 +6502,33 @@
       <c r="O83" s="58">
         <v>0</v>
       </c>
-      <c r="P83" s="22"/>
-      <c r="Q83" s="22"/>
-      <c r="R83" s="22"/>
-      <c r="S83" s="22"/>
-      <c r="T83" s="22"/>
-      <c r="U83" s="22"/>
-      <c r="V83" s="22"/>
-      <c r="W83" s="31"/>
-    </row>
-    <row r="84" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="71"/>
+      <c r="P83" s="84">
+        <v>0.03</v>
+      </c>
+      <c r="Q83" s="84">
+        <v>0</v>
+      </c>
+      <c r="R83" s="84">
+        <v>0</v>
+      </c>
+      <c r="S83" s="84">
+        <v>0</v>
+      </c>
+      <c r="T83" s="84">
+        <v>0</v>
+      </c>
+      <c r="U83" s="84">
+        <v>0</v>
+      </c>
+      <c r="V83" s="84">
+        <v>0</v>
+      </c>
+      <c r="W83" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="103"/>
       <c r="C84" s="4" t="s">
         <v>32</v>
       </c>
@@ -6412,7 +6547,7 @@
       </c>
       <c r="I84" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J84" s="58">
         <v>0</v>
@@ -6432,17 +6567,33 @@
       <c r="O84" s="58">
         <v>0</v>
       </c>
-      <c r="P84" s="22"/>
-      <c r="Q84" s="22"/>
-      <c r="R84" s="22"/>
-      <c r="S84" s="22"/>
-      <c r="T84" s="22"/>
-      <c r="U84" s="22"/>
-      <c r="V84" s="22"/>
-      <c r="W84" s="31"/>
-    </row>
-    <row r="85" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="71"/>
+      <c r="P84" s="84">
+        <v>0.03</v>
+      </c>
+      <c r="Q84" s="84">
+        <v>0</v>
+      </c>
+      <c r="R84" s="84">
+        <v>0</v>
+      </c>
+      <c r="S84" s="84">
+        <v>0</v>
+      </c>
+      <c r="T84" s="84">
+        <v>0</v>
+      </c>
+      <c r="U84" s="84">
+        <v>0</v>
+      </c>
+      <c r="V84" s="84">
+        <v>0</v>
+      </c>
+      <c r="W84" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="103"/>
       <c r="C85" s="4" t="s">
         <v>33</v>
       </c>
@@ -6461,7 +6612,7 @@
       </c>
       <c r="I85" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J85" s="58">
         <v>0</v>
@@ -6481,17 +6632,33 @@
       <c r="O85" s="58">
         <v>0</v>
       </c>
-      <c r="P85" s="22"/>
-      <c r="Q85" s="22"/>
-      <c r="R85" s="22"/>
-      <c r="S85" s="22"/>
-      <c r="T85" s="22"/>
-      <c r="U85" s="22"/>
-      <c r="V85" s="22"/>
-      <c r="W85" s="31"/>
-    </row>
-    <row r="86" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="71"/>
+      <c r="P85" s="84">
+        <v>0.03</v>
+      </c>
+      <c r="Q85" s="84">
+        <v>0</v>
+      </c>
+      <c r="R85" s="84">
+        <v>0</v>
+      </c>
+      <c r="S85" s="84">
+        <v>0</v>
+      </c>
+      <c r="T85" s="84">
+        <v>0</v>
+      </c>
+      <c r="U85" s="84">
+        <v>0</v>
+      </c>
+      <c r="V85" s="84">
+        <v>0</v>
+      </c>
+      <c r="W85" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="103"/>
       <c r="C86" s="4" t="s">
         <v>34</v>
       </c>
@@ -6510,7 +6677,7 @@
       </c>
       <c r="I86" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J86" s="58">
         <v>0</v>
@@ -6530,17 +6697,33 @@
       <c r="O86" s="58">
         <v>0</v>
       </c>
-      <c r="P86" s="22"/>
-      <c r="Q86" s="22"/>
-      <c r="R86" s="22"/>
-      <c r="S86" s="22"/>
-      <c r="T86" s="22"/>
-      <c r="U86" s="22"/>
-      <c r="V86" s="22"/>
-      <c r="W86" s="31"/>
-    </row>
-    <row r="87" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="71"/>
+      <c r="P86" s="84">
+        <v>0.03</v>
+      </c>
+      <c r="Q86" s="84">
+        <v>0</v>
+      </c>
+      <c r="R86" s="84">
+        <v>0</v>
+      </c>
+      <c r="S86" s="84">
+        <v>0</v>
+      </c>
+      <c r="T86" s="84">
+        <v>0</v>
+      </c>
+      <c r="U86" s="84">
+        <v>0</v>
+      </c>
+      <c r="V86" s="84">
+        <v>0</v>
+      </c>
+      <c r="W86" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="103"/>
       <c r="C87" s="4" t="s">
         <v>35</v>
       </c>
@@ -6559,7 +6742,7 @@
       </c>
       <c r="I87" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J87" s="58">
         <v>0</v>
@@ -6579,17 +6762,33 @@
       <c r="O87" s="58">
         <v>0</v>
       </c>
-      <c r="P87" s="22"/>
-      <c r="Q87" s="22"/>
-      <c r="R87" s="22"/>
-      <c r="S87" s="22"/>
-      <c r="T87" s="22"/>
-      <c r="U87" s="22"/>
-      <c r="V87" s="22"/>
-      <c r="W87" s="31"/>
-    </row>
-    <row r="88" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="71"/>
+      <c r="P87" s="84">
+        <v>0.03</v>
+      </c>
+      <c r="Q87" s="84">
+        <v>0</v>
+      </c>
+      <c r="R87" s="84">
+        <v>0</v>
+      </c>
+      <c r="S87" s="84">
+        <v>0</v>
+      </c>
+      <c r="T87" s="84">
+        <v>0</v>
+      </c>
+      <c r="U87" s="84">
+        <v>0</v>
+      </c>
+      <c r="V87" s="84">
+        <v>0</v>
+      </c>
+      <c r="W87" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="103"/>
       <c r="C88" s="4" t="s">
         <v>36</v>
       </c>
@@ -6608,7 +6807,7 @@
       </c>
       <c r="I88" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J88" s="58">
         <v>0</v>
@@ -6628,17 +6827,33 @@
       <c r="O88" s="58">
         <v>0</v>
       </c>
-      <c r="P88" s="22"/>
-      <c r="Q88" s="22"/>
-      <c r="R88" s="22"/>
-      <c r="S88" s="22"/>
-      <c r="T88" s="22"/>
-      <c r="U88" s="22"/>
-      <c r="V88" s="22"/>
-      <c r="W88" s="31"/>
-    </row>
-    <row r="89" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="71"/>
+      <c r="P88" s="84">
+        <v>0.03</v>
+      </c>
+      <c r="Q88" s="84">
+        <v>0</v>
+      </c>
+      <c r="R88" s="84">
+        <v>0</v>
+      </c>
+      <c r="S88" s="84">
+        <v>0</v>
+      </c>
+      <c r="T88" s="84">
+        <v>0</v>
+      </c>
+      <c r="U88" s="84">
+        <v>0</v>
+      </c>
+      <c r="V88" s="84">
+        <v>0</v>
+      </c>
+      <c r="W88" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="103"/>
       <c r="C89" s="4" t="s">
         <v>37</v>
       </c>
@@ -6657,7 +6872,7 @@
       </c>
       <c r="I89" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J89" s="58">
         <v>0</v>
@@ -6677,17 +6892,33 @@
       <c r="O89" s="58">
         <v>0</v>
       </c>
-      <c r="P89" s="22"/>
-      <c r="Q89" s="22"/>
-      <c r="R89" s="22"/>
-      <c r="S89" s="22"/>
-      <c r="T89" s="22"/>
-      <c r="U89" s="22"/>
-      <c r="V89" s="22"/>
-      <c r="W89" s="31"/>
-    </row>
-    <row r="90" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="71"/>
+      <c r="P89" s="84">
+        <v>0.03</v>
+      </c>
+      <c r="Q89" s="84">
+        <v>0</v>
+      </c>
+      <c r="R89" s="84">
+        <v>0</v>
+      </c>
+      <c r="S89" s="84">
+        <v>0</v>
+      </c>
+      <c r="T89" s="84">
+        <v>0</v>
+      </c>
+      <c r="U89" s="84">
+        <v>0</v>
+      </c>
+      <c r="V89" s="84">
+        <v>0</v>
+      </c>
+      <c r="W89" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="103"/>
       <c r="C90" s="4" t="s">
         <v>38</v>
       </c>
@@ -6706,7 +6937,7 @@
       </c>
       <c r="I90" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J90" s="58">
         <v>0</v>
@@ -6726,17 +6957,33 @@
       <c r="O90" s="58">
         <v>0</v>
       </c>
-      <c r="P90" s="22"/>
-      <c r="Q90" s="22"/>
-      <c r="R90" s="22"/>
-      <c r="S90" s="22"/>
-      <c r="T90" s="22"/>
-      <c r="U90" s="22"/>
-      <c r="V90" s="22"/>
-      <c r="W90" s="31"/>
-    </row>
-    <row r="91" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="71"/>
+      <c r="P90" s="84">
+        <v>0.03</v>
+      </c>
+      <c r="Q90" s="84">
+        <v>0</v>
+      </c>
+      <c r="R90" s="84">
+        <v>0</v>
+      </c>
+      <c r="S90" s="84">
+        <v>0</v>
+      </c>
+      <c r="T90" s="84">
+        <v>0</v>
+      </c>
+      <c r="U90" s="84">
+        <v>0</v>
+      </c>
+      <c r="V90" s="84">
+        <v>0</v>
+      </c>
+      <c r="W90" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="103"/>
       <c r="C91" s="4" t="s">
         <v>39</v>
       </c>
@@ -6755,7 +7002,7 @@
       </c>
       <c r="I91" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J91" s="58">
         <v>0</v>
@@ -6775,17 +7022,33 @@
       <c r="O91" s="58">
         <v>0</v>
       </c>
-      <c r="P91" s="22"/>
-      <c r="Q91" s="22"/>
-      <c r="R91" s="22"/>
-      <c r="S91" s="22"/>
-      <c r="T91" s="22"/>
-      <c r="U91" s="22"/>
-      <c r="V91" s="22"/>
-      <c r="W91" s="31"/>
-    </row>
-    <row r="92" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="71"/>
+      <c r="P91" s="84">
+        <v>0.03</v>
+      </c>
+      <c r="Q91" s="84">
+        <v>0</v>
+      </c>
+      <c r="R91" s="84">
+        <v>0</v>
+      </c>
+      <c r="S91" s="84">
+        <v>0</v>
+      </c>
+      <c r="T91" s="84">
+        <v>0</v>
+      </c>
+      <c r="U91" s="84">
+        <v>0</v>
+      </c>
+      <c r="V91" s="84">
+        <v>0</v>
+      </c>
+      <c r="W91" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="103"/>
       <c r="C92" s="4" t="s">
         <v>40</v>
       </c>
@@ -6804,7 +7067,7 @@
       </c>
       <c r="I92" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J92" s="58">
         <v>0</v>
@@ -6824,17 +7087,33 @@
       <c r="O92" s="58">
         <v>0</v>
       </c>
-      <c r="P92" s="22"/>
-      <c r="Q92" s="22"/>
-      <c r="R92" s="22"/>
-      <c r="S92" s="22"/>
-      <c r="T92" s="22"/>
-      <c r="U92" s="22"/>
-      <c r="V92" s="22"/>
-      <c r="W92" s="31"/>
-    </row>
-    <row r="93" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="71"/>
+      <c r="P92" s="84">
+        <v>0.03</v>
+      </c>
+      <c r="Q92" s="84">
+        <v>0</v>
+      </c>
+      <c r="R92" s="84">
+        <v>0</v>
+      </c>
+      <c r="S92" s="84">
+        <v>0</v>
+      </c>
+      <c r="T92" s="84">
+        <v>0</v>
+      </c>
+      <c r="U92" s="84">
+        <v>0</v>
+      </c>
+      <c r="V92" s="84">
+        <v>0</v>
+      </c>
+      <c r="W92" s="111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="103"/>
       <c r="C93" s="4" t="s">
         <v>41</v>
       </c>
@@ -6853,7 +7132,7 @@
       </c>
       <c r="I93" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J93" s="58">
         <v>0</v>
@@ -6873,17 +7152,33 @@
       <c r="O93" s="58">
         <v>0</v>
       </c>
-      <c r="P93" s="22"/>
-      <c r="Q93" s="22"/>
-      <c r="R93" s="22"/>
-      <c r="S93" s="22"/>
-      <c r="T93" s="22"/>
-      <c r="U93" s="22"/>
-      <c r="V93" s="22"/>
-      <c r="W93" s="31"/>
-    </row>
-    <row r="94" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="71"/>
+      <c r="P93" s="84">
+        <v>0.03</v>
+      </c>
+      <c r="Q93" s="84">
+        <v>0</v>
+      </c>
+      <c r="R93" s="84">
+        <v>0</v>
+      </c>
+      <c r="S93" s="84">
+        <v>0</v>
+      </c>
+      <c r="T93" s="84">
+        <v>0</v>
+      </c>
+      <c r="U93" s="84">
+        <v>0</v>
+      </c>
+      <c r="V93" s="84">
+        <v>0</v>
+      </c>
+      <c r="W93" s="111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="103"/>
       <c r="C94" s="4" t="s">
         <v>42</v>
       </c>
@@ -6902,7 +7197,7 @@
       </c>
       <c r="I94" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J94" s="58">
         <v>0</v>
@@ -6922,17 +7217,33 @@
       <c r="O94" s="58">
         <v>0</v>
       </c>
-      <c r="P94" s="22"/>
-      <c r="Q94" s="22"/>
-      <c r="R94" s="22"/>
-      <c r="S94" s="22"/>
-      <c r="T94" s="22"/>
-      <c r="U94" s="22"/>
-      <c r="V94" s="22"/>
-      <c r="W94" s="31"/>
-    </row>
-    <row r="95" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="71"/>
+      <c r="P94" s="112">
+        <v>0.03</v>
+      </c>
+      <c r="Q94" s="84">
+        <v>0</v>
+      </c>
+      <c r="R94" s="84">
+        <v>0</v>
+      </c>
+      <c r="S94" s="84">
+        <v>0</v>
+      </c>
+      <c r="T94" s="84">
+        <v>0</v>
+      </c>
+      <c r="U94" s="84">
+        <v>0</v>
+      </c>
+      <c r="V94" s="84">
+        <v>0</v>
+      </c>
+      <c r="W94" s="111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="103"/>
       <c r="C95" s="4" t="s">
         <v>43</v>
       </c>
@@ -6951,7 +7262,7 @@
       </c>
       <c r="I95" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J95" s="58">
         <v>0</v>
@@ -6971,19 +7282,35 @@
       <c r="O95" s="58">
         <v>0</v>
       </c>
-      <c r="P95" s="22"/>
-      <c r="Q95" s="22"/>
-      <c r="R95" s="22"/>
-      <c r="S95" s="22"/>
-      <c r="T95" s="22"/>
-      <c r="U95" s="22"/>
-      <c r="V95" s="22"/>
-      <c r="W95" s="31"/>
-    </row>
-    <row r="96" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="71"/>
+      <c r="P95" s="112">
+        <v>0.03</v>
+      </c>
+      <c r="Q95" s="84">
+        <v>0</v>
+      </c>
+      <c r="R95" s="84">
+        <v>0</v>
+      </c>
+      <c r="S95" s="84">
+        <v>0</v>
+      </c>
+      <c r="T95" s="84">
+        <v>0</v>
+      </c>
+      <c r="U95" s="84">
+        <v>0</v>
+      </c>
+      <c r="V95" s="84">
+        <v>0</v>
+      </c>
+      <c r="W95" s="111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="103"/>
       <c r="C96" s="4" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
@@ -6992,199 +7319,247 @@
       <c r="F96" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G96" s="6">
+      <c r="G96" s="65">
         <v>1</v>
       </c>
       <c r="H96" s="26">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I96" s="34">
+        <f>SUM(J96:W96)</f>
+        <v>2.5</v>
+      </c>
+      <c r="J96" s="58">
+        <v>0</v>
+      </c>
+      <c r="K96" s="58">
+        <v>0</v>
+      </c>
+      <c r="L96" s="58">
+        <v>0</v>
+      </c>
+      <c r="M96" s="58">
+        <v>0</v>
+      </c>
+      <c r="N96" s="58">
+        <v>0</v>
+      </c>
+      <c r="O96" s="110">
+        <v>2.5</v>
+      </c>
+      <c r="P96" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="84">
+        <v>0</v>
+      </c>
+      <c r="R96" s="84">
+        <v>0</v>
+      </c>
+      <c r="S96" s="84">
+        <v>0</v>
+      </c>
+      <c r="T96" s="84">
+        <v>0</v>
+      </c>
+      <c r="U96" s="84">
+        <v>0</v>
+      </c>
+      <c r="V96" s="84">
+        <v>0</v>
+      </c>
+      <c r="W96" s="111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="103"/>
+      <c r="C97" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G97" s="65">
+        <v>1</v>
+      </c>
+      <c r="H97" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="I97" s="34">
+        <f>SUM(J97:W97)</f>
+        <v>3</v>
+      </c>
+      <c r="J97" s="58">
+        <v>0</v>
+      </c>
+      <c r="K97" s="58">
+        <v>0</v>
+      </c>
+      <c r="L97" s="58">
+        <v>0</v>
+      </c>
+      <c r="M97" s="58">
+        <v>0</v>
+      </c>
+      <c r="N97" s="58">
+        <v>0</v>
+      </c>
+      <c r="O97" s="58">
+        <v>0</v>
+      </c>
+      <c r="P97" s="84">
+        <v>3</v>
+      </c>
+      <c r="Q97" s="84">
+        <v>0</v>
+      </c>
+      <c r="R97" s="84">
+        <v>0</v>
+      </c>
+      <c r="S97" s="84">
+        <v>0</v>
+      </c>
+      <c r="T97" s="84">
+        <v>0</v>
+      </c>
+      <c r="U97" s="84">
+        <v>0</v>
+      </c>
+      <c r="V97" s="84">
+        <v>0</v>
+      </c>
+      <c r="W97" s="111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="103"/>
+      <c r="C98" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G98" s="6">
+        <v>1</v>
+      </c>
+      <c r="H98" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="I98" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="58">
-        <v>0</v>
-      </c>
-      <c r="K96" s="58">
-        <v>0</v>
-      </c>
-      <c r="L96" s="58">
-        <v>0</v>
-      </c>
-      <c r="M96" s="58">
-        <v>0</v>
-      </c>
-      <c r="N96" s="58">
-        <v>0</v>
-      </c>
-      <c r="O96" s="58">
-        <v>0</v>
-      </c>
-      <c r="P96" s="22"/>
-      <c r="Q96" s="22"/>
-      <c r="R96" s="22"/>
-      <c r="S96" s="22"/>
-      <c r="T96" s="22"/>
-      <c r="U96" s="22"/>
-      <c r="V96" s="22"/>
-      <c r="W96" s="31"/>
-    </row>
-    <row r="97" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="72"/>
-      <c r="C97" s="39" t="s">
+        <v>0.3</v>
+      </c>
+      <c r="J98" s="58">
+        <v>0</v>
+      </c>
+      <c r="K98" s="58">
+        <v>0</v>
+      </c>
+      <c r="L98" s="58">
+        <v>0</v>
+      </c>
+      <c r="M98" s="58">
+        <v>0</v>
+      </c>
+      <c r="N98" s="58">
+        <v>0</v>
+      </c>
+      <c r="O98" s="58">
+        <v>0</v>
+      </c>
+      <c r="P98" s="84">
+        <v>0.3</v>
+      </c>
+      <c r="Q98" s="84">
+        <v>0</v>
+      </c>
+      <c r="R98" s="84">
+        <v>0</v>
+      </c>
+      <c r="S98" s="84">
+        <v>0</v>
+      </c>
+      <c r="T98" s="84">
+        <v>0</v>
+      </c>
+      <c r="U98" s="84">
+        <v>0</v>
+      </c>
+      <c r="V98" s="84">
+        <v>0</v>
+      </c>
+      <c r="W98" s="111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="104"/>
+      <c r="C99" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D97" s="40"/>
-      <c r="E97" s="41" t="s">
+      <c r="D99" s="40"/>
+      <c r="E99" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="F97" s="40" t="s">
+      <c r="F99" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="G97" s="40">
+      <c r="G99" s="40">
         <v>2</v>
       </c>
-      <c r="H97" s="50">
-        <v>0.25</v>
-      </c>
-      <c r="I97" s="54">
+      <c r="H99" s="50">
+        <v>0.25</v>
+      </c>
+      <c r="I99" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J97" s="59">
-        <v>0</v>
-      </c>
-      <c r="K97" s="59">
-        <v>0</v>
-      </c>
-      <c r="L97" s="59">
-        <v>0</v>
-      </c>
-      <c r="M97" s="59">
-        <v>0</v>
-      </c>
-      <c r="N97" s="59">
-        <v>0</v>
-      </c>
-      <c r="O97" s="59">
-        <v>0</v>
-      </c>
-      <c r="P97" s="43"/>
-      <c r="Q97" s="43"/>
-      <c r="R97" s="43"/>
-      <c r="S97" s="43"/>
-      <c r="T97" s="43"/>
-      <c r="U97" s="43"/>
-      <c r="V97" s="43"/>
-      <c r="W97" s="45"/>
-    </row>
-    <row r="98" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="75" t="s">
+      <c r="J99" s="59">
+        <v>0</v>
+      </c>
+      <c r="K99" s="59">
+        <v>0</v>
+      </c>
+      <c r="L99" s="59">
+        <v>0</v>
+      </c>
+      <c r="M99" s="59">
+        <v>0</v>
+      </c>
+      <c r="N99" s="59">
+        <v>0</v>
+      </c>
+      <c r="O99" s="59">
+        <v>0</v>
+      </c>
+      <c r="P99" s="43"/>
+      <c r="Q99" s="43"/>
+      <c r="R99" s="43"/>
+      <c r="S99" s="43"/>
+      <c r="T99" s="43"/>
+      <c r="U99" s="43"/>
+      <c r="V99" s="43"/>
+      <c r="W99" s="45"/>
+    </row>
+    <row r="100" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="C98" s="73" t="s">
+      <c r="C100" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D100" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G98" s="6">
-        <v>4</v>
-      </c>
-      <c r="H98" s="26">
-        <v>0.25</v>
-      </c>
-      <c r="I98" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="60">
-        <v>0</v>
-      </c>
-      <c r="K98" s="60">
-        <v>0</v>
-      </c>
-      <c r="L98" s="60">
-        <v>0</v>
-      </c>
-      <c r="M98" s="60">
-        <v>0</v>
-      </c>
-      <c r="N98" s="60">
-        <v>0</v>
-      </c>
-      <c r="O98" s="60">
-        <v>0</v>
-      </c>
-      <c r="P98" s="37"/>
-      <c r="Q98" s="37"/>
-      <c r="R98" s="37"/>
-      <c r="S98" s="37"/>
-      <c r="T98" s="37"/>
-      <c r="U98" s="37"/>
-      <c r="V98" s="37"/>
-      <c r="W98" s="38"/>
-    </row>
-    <row r="99" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="75"/>
-      <c r="C99" s="74"/>
-      <c r="D99" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G99" s="4">
-        <v>4</v>
-      </c>
-      <c r="H99" s="26">
-        <v>0.25</v>
-      </c>
-      <c r="I99" s="34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J99" s="58">
-        <v>0</v>
-      </c>
-      <c r="K99" s="58">
-        <v>0</v>
-      </c>
-      <c r="L99" s="58">
-        <v>0</v>
-      </c>
-      <c r="M99" s="58">
-        <v>0</v>
-      </c>
-      <c r="N99" s="58">
-        <v>0</v>
-      </c>
-      <c r="O99" s="58">
-        <v>0</v>
-      </c>
-      <c r="P99" s="22"/>
-      <c r="Q99" s="22"/>
-      <c r="R99" s="22"/>
-      <c r="S99" s="22"/>
-      <c r="T99" s="22"/>
-      <c r="U99" s="22"/>
-      <c r="V99" s="22"/>
-      <c r="W99" s="31"/>
-    </row>
-    <row r="100" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="75"/>
-      <c r="C100" s="74"/>
-      <c r="D100" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>112</v>
@@ -7192,49 +7567,49 @@
       <c r="F100" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G100" s="4">
+      <c r="G100" s="6">
         <v>4</v>
       </c>
       <c r="H100" s="26">
         <v>0.25</v>
       </c>
-      <c r="I100" s="34">
+      <c r="I100" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J100" s="58">
-        <v>0</v>
-      </c>
-      <c r="K100" s="58">
-        <v>0</v>
-      </c>
-      <c r="L100" s="58">
-        <v>0</v>
-      </c>
-      <c r="M100" s="58">
-        <v>0</v>
-      </c>
-      <c r="N100" s="58">
-        <v>0</v>
-      </c>
-      <c r="O100" s="58">
-        <v>0</v>
-      </c>
-      <c r="P100" s="22"/>
-      <c r="Q100" s="22"/>
-      <c r="R100" s="22"/>
-      <c r="S100" s="22"/>
-      <c r="T100" s="22"/>
-      <c r="U100" s="22"/>
-      <c r="V100" s="22"/>
-      <c r="W100" s="31"/>
-    </row>
-    <row r="101" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="75"/>
-      <c r="C101" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D101" s="4"/>
+      <c r="J100" s="60">
+        <v>0</v>
+      </c>
+      <c r="K100" s="60">
+        <v>0</v>
+      </c>
+      <c r="L100" s="60">
+        <v>0</v>
+      </c>
+      <c r="M100" s="60">
+        <v>0</v>
+      </c>
+      <c r="N100" s="60">
+        <v>0</v>
+      </c>
+      <c r="O100" s="60">
+        <v>0</v>
+      </c>
+      <c r="P100" s="37"/>
+      <c r="Q100" s="37"/>
+      <c r="R100" s="37"/>
+      <c r="S100" s="37"/>
+      <c r="T100" s="37"/>
+      <c r="U100" s="37"/>
+      <c r="V100" s="37"/>
+      <c r="W100" s="38"/>
+    </row>
+    <row r="101" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="107"/>
+      <c r="C101" s="106"/>
+      <c r="D101" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="E101" s="7" t="s">
         <v>112</v>
       </c>
@@ -7278,23 +7653,23 @@
       <c r="V101" s="22"/>
       <c r="W101" s="31"/>
     </row>
-    <row r="102" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="75"/>
-      <c r="C102" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D102" s="4"/>
-      <c r="E102" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F102" s="5" t="s">
+    <row r="102" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="107"/>
+      <c r="C102" s="106"/>
+      <c r="D102" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F102" s="7" t="s">
         <v>106</v>
       </c>
       <c r="G102" s="4">
-        <v>3</v>
-      </c>
-      <c r="H102" s="27">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="H102" s="26">
+        <v>0.25</v>
       </c>
       <c r="I102" s="34">
         <f t="shared" si="1"/>
@@ -7327,23 +7702,23 @@
       <c r="V102" s="22"/>
       <c r="W102" s="31"/>
     </row>
-    <row r="103" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="75"/>
+    <row r="103" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="107"/>
       <c r="C103" s="18" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="D103" s="4"/>
-      <c r="E103" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F103" s="5" t="s">
+      <c r="E103" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F103" s="7" t="s">
         <v>106</v>
       </c>
       <c r="G103" s="4">
-        <v>3</v>
-      </c>
-      <c r="H103" s="27">
-        <v>0.5</v>
+        <v>4</v>
+      </c>
+      <c r="H103" s="26">
+        <v>0.25</v>
       </c>
       <c r="I103" s="34">
         <f t="shared" si="1"/>
@@ -7376,10 +7751,10 @@
       <c r="V103" s="22"/>
       <c r="W103" s="31"/>
     </row>
-    <row r="104" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="75"/>
+    <row r="104" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="107"/>
       <c r="C104" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="5" t="s">
@@ -7389,10 +7764,10 @@
         <v>106</v>
       </c>
       <c r="G104" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H104" s="27">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="I104" s="34">
         <f t="shared" si="1"/>
@@ -7425,23 +7800,23 @@
       <c r="V104" s="22"/>
       <c r="W104" s="31"/>
     </row>
-    <row r="105" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="75"/>
+    <row r="105" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="107"/>
       <c r="C105" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="5" t="s">
         <v>110</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G105" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H105" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I105" s="34">
         <f t="shared" si="1"/>
@@ -7474,23 +7849,23 @@
       <c r="V105" s="22"/>
       <c r="W105" s="31"/>
     </row>
-    <row r="106" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="76"/>
+    <row r="106" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="107"/>
       <c r="C106" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="5" t="s">
         <v>110</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G106" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H106" s="27">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="I106" s="34">
         <f t="shared" si="1"/>
@@ -7523,12 +7898,10 @@
       <c r="V106" s="22"/>
       <c r="W106" s="31"/>
     </row>
-    <row r="107" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="32" t="s">
-        <v>105</v>
-      </c>
+    <row r="107" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="107"/>
       <c r="C107" s="18" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="5" t="s">
@@ -7538,10 +7911,10 @@
         <v>108</v>
       </c>
       <c r="G107" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H107" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I107" s="34">
         <f t="shared" si="1"/>
@@ -7574,23 +7947,23 @@
       <c r="V107" s="22"/>
       <c r="W107" s="31"/>
     </row>
-    <row r="108" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C108" s="18"/>
+    <row r="108" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="108"/>
+      <c r="C108" s="18" t="s">
+        <v>104</v>
+      </c>
       <c r="D108" s="4"/>
       <c r="E108" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G108" s="4">
+        <v>4</v>
+      </c>
+      <c r="H108" s="27">
         <v>1</v>
-      </c>
-      <c r="H108" s="27">
-        <v>0.1</v>
       </c>
       <c r="I108" s="34">
         <f t="shared" si="1"/>
@@ -7623,27 +7996,29 @@
       <c r="V108" s="22"/>
       <c r="W108" s="31"/>
     </row>
-    <row r="109" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B109" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C109" s="22"/>
+        <v>105</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="D109" s="4"/>
       <c r="E109" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G109" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H109" s="27">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I109" s="34">
         <f t="shared" si="1"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="J109" s="58">
         <v>0</v>
@@ -7654,53 +8029,37 @@
       <c r="L109" s="58">
         <v>0</v>
       </c>
-      <c r="M109" s="61">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N109" s="108">
-        <v>0</v>
-      </c>
-      <c r="O109" s="108">
-        <v>0</v>
-      </c>
-      <c r="P109" s="108">
-        <v>0</v>
-      </c>
-      <c r="Q109" s="108">
-        <v>0</v>
-      </c>
-      <c r="R109" s="108">
-        <v>0</v>
-      </c>
-      <c r="S109" s="108">
-        <v>0</v>
-      </c>
-      <c r="T109" s="108">
-        <v>0</v>
-      </c>
-      <c r="U109" s="108">
-        <v>0</v>
-      </c>
-      <c r="V109" s="108">
-        <v>0</v>
-      </c>
-      <c r="W109" s="108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C110" s="11"/>
-      <c r="D110" s="23"/>
+      <c r="M109" s="58">
+        <v>0</v>
+      </c>
+      <c r="N109" s="58">
+        <v>0</v>
+      </c>
+      <c r="O109" s="58">
+        <v>0</v>
+      </c>
+      <c r="P109" s="22"/>
+      <c r="Q109" s="22"/>
+      <c r="R109" s="22"/>
+      <c r="S109" s="22"/>
+      <c r="T109" s="22"/>
+      <c r="U109" s="22"/>
+      <c r="V109" s="22"/>
+      <c r="W109" s="31"/>
+    </row>
+    <row r="110" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C110" s="18"/>
+      <c r="D110" s="4"/>
       <c r="E110" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F110" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="G110" s="23">
+      <c r="F110" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G110" s="4">
         <v>1</v>
       </c>
       <c r="H110" s="27">
@@ -7728,242 +8087,330 @@
       <c r="O110" s="58">
         <v>0</v>
       </c>
-      <c r="P110" s="25"/>
-      <c r="Q110" s="25"/>
-      <c r="R110" s="25"/>
-      <c r="S110" s="25"/>
-      <c r="T110" s="25"/>
-      <c r="U110" s="25"/>
-      <c r="V110" s="25"/>
-      <c r="W110" s="33"/>
-    </row>
-    <row r="111" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="87" t="s">
+      <c r="P110" s="22"/>
+      <c r="Q110" s="22"/>
+      <c r="R110" s="22"/>
+      <c r="S110" s="22"/>
+      <c r="T110" s="22"/>
+      <c r="U110" s="22"/>
+      <c r="V110" s="22"/>
+      <c r="W110" s="31"/>
+    </row>
+    <row r="111" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111" s="22"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G111" s="4">
+        <v>1</v>
+      </c>
+      <c r="H111" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="I111" s="34">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J111" s="58">
+        <v>0</v>
+      </c>
+      <c r="K111" s="58">
+        <v>0</v>
+      </c>
+      <c r="L111" s="58">
+        <v>0</v>
+      </c>
+      <c r="M111" s="61">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N111" s="84">
+        <v>0</v>
+      </c>
+      <c r="O111" s="84">
+        <v>0</v>
+      </c>
+      <c r="P111" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="84">
+        <v>0</v>
+      </c>
+      <c r="R111" s="84">
+        <v>0</v>
+      </c>
+      <c r="S111" s="84">
+        <v>0</v>
+      </c>
+      <c r="T111" s="84">
+        <v>0</v>
+      </c>
+      <c r="U111" s="84">
+        <v>0</v>
+      </c>
+      <c r="V111" s="84">
+        <v>0</v>
+      </c>
+      <c r="W111" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" s="11"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F112" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G112" s="23">
+        <v>1</v>
+      </c>
+      <c r="H112" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="I112" s="34">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="J112" s="58">
+        <v>0</v>
+      </c>
+      <c r="K112" s="58">
+        <v>0</v>
+      </c>
+      <c r="L112" s="113">
+        <v>0.1</v>
+      </c>
+      <c r="M112" s="113">
+        <v>0</v>
+      </c>
+      <c r="N112" s="113">
+        <v>0</v>
+      </c>
+      <c r="O112" s="113">
+        <v>0</v>
+      </c>
+      <c r="P112" s="114">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="114">
+        <v>0</v>
+      </c>
+      <c r="R112" s="114">
+        <v>0</v>
+      </c>
+      <c r="S112" s="114">
+        <v>0</v>
+      </c>
+      <c r="T112" s="114">
+        <v>0</v>
+      </c>
+      <c r="U112" s="114">
+        <v>0</v>
+      </c>
+      <c r="V112" s="114">
+        <v>0</v>
+      </c>
+      <c r="W112" s="115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="C111" s="88"/>
-      <c r="D111" s="88"/>
-      <c r="E111" s="88"/>
-      <c r="F111" s="88"/>
-      <c r="G111" s="88"/>
-      <c r="H111" s="29">
-        <f>SUM(H4:H110)</f>
-        <v>35.15</v>
-      </c>
-      <c r="I111" s="14">
-        <f>SUM(I4:I110)</f>
-        <v>1.915</v>
-      </c>
-      <c r="J111" s="12">
-        <f>SUM(J4:J110)</f>
-        <v>0</v>
-      </c>
-      <c r="K111" s="13">
-        <f>SUM(K4:K110)</f>
-        <v>0</v>
-      </c>
-      <c r="L111" s="13">
-        <f>SUM(L4:L110)</f>
-        <v>0</v>
-      </c>
-      <c r="M111" s="15">
-        <f>SUM(M4:M110)</f>
+      <c r="C113" s="100"/>
+      <c r="D113" s="100"/>
+      <c r="E113" s="100"/>
+      <c r="F113" s="100"/>
+      <c r="G113" s="100"/>
+      <c r="H113" s="29">
+        <f t="shared" ref="H113:W113" si="2">SUM(H4:H112)</f>
+        <v>36.15</v>
+      </c>
+      <c r="I113" s="14">
+        <f t="shared" si="2"/>
+        <v>8.3149999999999977</v>
+      </c>
+      <c r="J113" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K113" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L113" s="13">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="M113" s="15">
+        <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N111" s="15">
-        <f>SUM(N4:N110)</f>
-        <v>0</v>
-      </c>
-      <c r="O111" s="15">
-        <f>SUM(O4:O110)</f>
-        <v>0</v>
-      </c>
-      <c r="P111" s="15">
-        <f>SUM(P4:P110)</f>
-        <v>1.845</v>
-      </c>
-      <c r="Q111" s="15">
-        <f>SUM(Q4:Q110)</f>
-        <v>0</v>
-      </c>
-      <c r="R111" s="15">
-        <f>SUM(R4:R110)</f>
-        <v>0</v>
-      </c>
-      <c r="S111" s="15">
-        <f>SUM(S4:S110)</f>
-        <v>0</v>
-      </c>
-      <c r="T111" s="15">
-        <f>SUM(T4:T110)</f>
-        <v>0</v>
-      </c>
-      <c r="U111" s="15">
-        <f>SUM(U4:U110)</f>
-        <v>0</v>
-      </c>
-      <c r="V111" s="15">
-        <f>SUM(V4:V110)</f>
-        <v>0</v>
-      </c>
-      <c r="W111" s="15">
-        <f>SUM(W4:W110)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="65" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="66"/>
-      <c r="L112" s="66"/>
-      <c r="M112" s="66"/>
-      <c r="N112" s="66"/>
-      <c r="O112" s="66"/>
-      <c r="P112" s="66"/>
-      <c r="Q112" s="66"/>
-      <c r="R112" s="66"/>
-      <c r="S112" s="66"/>
-      <c r="T112" s="66"/>
-      <c r="U112" s="66"/>
-      <c r="V112" s="66"/>
-      <c r="W112" s="67"/>
-    </row>
-    <row r="113" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="3"/>
-      <c r="K113" s="3"/>
-      <c r="L113" s="3"/>
-      <c r="M113" s="3"/>
-      <c r="O113" s="11"/>
-      <c r="P113" s="11"/>
-    </row>
-    <row r="114" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N113" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O113" s="15">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="P113" s="15">
+        <f t="shared" si="2"/>
+        <v>5.6449999999999978</v>
+      </c>
+      <c r="Q113" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R113" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S113" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T113" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U113" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V113" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W113" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
-      <c r="H114" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="I114" s="77"/>
-      <c r="J114" s="13">
-        <f>H111-J111</f>
-        <v>35.15</v>
-      </c>
-      <c r="K114" s="13">
-        <f>J114-K111</f>
-        <v>35.15</v>
-      </c>
-      <c r="L114" s="13">
-        <f>K114-L111</f>
-        <v>35.15</v>
-      </c>
-      <c r="M114" s="13">
-        <f>L114-M111</f>
-        <v>35.08</v>
-      </c>
-      <c r="N114" s="13">
-        <f t="shared" ref="N114:W114" si="2">M114-N111</f>
-        <v>35.08</v>
-      </c>
-      <c r="O114" s="13">
-        <f t="shared" si="2"/>
-        <v>35.08</v>
-      </c>
-      <c r="P114" s="13">
-        <f t="shared" si="2"/>
-        <v>33.234999999999999</v>
-      </c>
-      <c r="Q114" s="13">
-        <f t="shared" si="2"/>
-        <v>33.234999999999999</v>
-      </c>
-      <c r="R114" s="13">
-        <f t="shared" si="2"/>
-        <v>33.234999999999999</v>
-      </c>
-      <c r="S114" s="13">
-        <f t="shared" si="2"/>
-        <v>33.234999999999999</v>
-      </c>
-      <c r="T114" s="13">
-        <f t="shared" si="2"/>
-        <v>33.234999999999999</v>
-      </c>
-      <c r="U114" s="13">
-        <f t="shared" si="2"/>
-        <v>33.234999999999999</v>
-      </c>
-      <c r="V114" s="13">
-        <f t="shared" si="2"/>
-        <v>33.234999999999999</v>
-      </c>
-      <c r="W114" s="13">
-        <f t="shared" si="2"/>
-        <v>33.234999999999999</v>
-      </c>
-    </row>
-    <row r="115" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="86"/>
+      <c r="L114" s="86"/>
+      <c r="M114" s="86"/>
+      <c r="N114" s="86"/>
+      <c r="O114" s="86"/>
+      <c r="P114" s="86"/>
+      <c r="Q114" s="86"/>
+      <c r="R114" s="86"/>
+      <c r="S114" s="86"/>
+      <c r="T114" s="86"/>
+      <c r="U114" s="86"/>
+      <c r="V114" s="86"/>
+      <c r="W114" s="87"/>
+    </row>
+    <row r="115" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
-    </row>
-    <row r="116" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="H116" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="I116" s="66"/>
-      <c r="J116" s="65">
-        <f>H111-I111</f>
-        <v>33.234999999999999</v>
-      </c>
-      <c r="K116" s="66"/>
-      <c r="L116" s="66"/>
-      <c r="M116" s="66"/>
-      <c r="N116" s="66"/>
-      <c r="O116" s="66"/>
-      <c r="P116" s="66"/>
-      <c r="Q116" s="66"/>
-      <c r="R116" s="66"/>
-      <c r="S116" s="66"/>
-      <c r="T116" s="66"/>
-      <c r="U116" s="66"/>
-      <c r="V116" s="66"/>
-      <c r="W116" s="67"/>
-    </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="O115" s="11"/>
+      <c r="P115" s="11"/>
+    </row>
+    <row r="116" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="I116" s="109"/>
+      <c r="J116" s="13">
+        <f>H113-J113</f>
+        <v>36.15</v>
+      </c>
+      <c r="K116" s="13">
+        <f>J116-K113</f>
+        <v>36.15</v>
+      </c>
+      <c r="L116" s="13">
+        <f>K116-L113</f>
+        <v>36.049999999999997</v>
+      </c>
+      <c r="M116" s="13">
+        <f>L116-M113</f>
+        <v>35.979999999999997</v>
+      </c>
+      <c r="N116" s="13">
+        <f t="shared" ref="N116:W116" si="3">M116-N113</f>
+        <v>35.979999999999997</v>
+      </c>
+      <c r="O116" s="13">
+        <f t="shared" si="3"/>
+        <v>33.479999999999997</v>
+      </c>
+      <c r="P116" s="13">
+        <f t="shared" si="3"/>
+        <v>27.835000000000001</v>
+      </c>
+      <c r="Q116" s="13">
+        <f t="shared" si="3"/>
+        <v>27.835000000000001</v>
+      </c>
+      <c r="R116" s="13">
+        <f t="shared" si="3"/>
+        <v>27.835000000000001</v>
+      </c>
+      <c r="S116" s="13">
+        <f t="shared" si="3"/>
+        <v>27.835000000000001</v>
+      </c>
+      <c r="T116" s="13">
+        <f t="shared" si="3"/>
+        <v>27.835000000000001</v>
+      </c>
+      <c r="U116" s="13">
+        <f t="shared" si="3"/>
+        <v>27.835000000000001</v>
+      </c>
+      <c r="V116" s="13">
+        <f t="shared" si="3"/>
+        <v>27.835000000000001</v>
+      </c>
+      <c r="W116" s="13">
+        <f t="shared" si="3"/>
+        <v>27.835000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -7977,21 +8424,35 @@
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
     </row>
-    <row r="118" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
-      <c r="K118" s="3"/>
-      <c r="L118" s="3"/>
-      <c r="M118" s="3"/>
-    </row>
-    <row r="119" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="H118" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="I118" s="86"/>
+      <c r="J118" s="85">
+        <f>H113-I113</f>
+        <v>27.835000000000001</v>
+      </c>
+      <c r="K118" s="86"/>
+      <c r="L118" s="86"/>
+      <c r="M118" s="86"/>
+      <c r="N118" s="86"/>
+      <c r="O118" s="86"/>
+      <c r="P118" s="86"/>
+      <c r="Q118" s="86"/>
+      <c r="R118" s="86"/>
+      <c r="S118" s="86"/>
+      <c r="T118" s="86"/>
+      <c r="U118" s="86"/>
+      <c r="V118" s="86"/>
+      <c r="W118" s="87"/>
+    </row>
+    <row r="119" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -8005,65 +8466,93 @@
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
     </row>
-    <row r="120" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="9"/>
-    </row>
-    <row r="123" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="9"/>
-    </row>
-    <row r="124" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3"/>
+    </row>
+    <row r="121" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+    </row>
+    <row r="122" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="9"/>
     </row>
-    <row r="125" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="9"/>
     </row>
-    <row r="126" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126" s="9"/>
     </row>
-    <row r="127" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="9"/>
     </row>
-    <row r="128" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="9"/>
     </row>
-    <row r="129" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129" s="9"/>
     </row>
-    <row r="130" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B130" s="9"/>
     </row>
-    <row r="131" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B131" s="9"/>
     </row>
-    <row r="132" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B132" s="9"/>
     </row>
-    <row r="133" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B133" s="9"/>
     </row>
-    <row r="134" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="9"/>
     </row>
-    <row r="135" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="9"/>
+    </row>
+    <row r="136" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="9"/>
+    </row>
+    <row r="137" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="J118:W118"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B80:B99"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="B100:B108"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H118:I118"/>
     <mergeCell ref="J2:W2"/>
-    <mergeCell ref="J112:W112"/>
+    <mergeCell ref="J114:W114"/>
     <mergeCell ref="B16:B65"/>
     <mergeCell ref="B66:B79"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B4:B11"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="J116:W116"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B80:B97"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="B98:B106"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="B113:G113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8077,7 +8566,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8089,7 +8578,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\MAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Enti\MAP\The_Legend_of_Radev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1011,7 +1011,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1223,6 +1223,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1232,6 +1250,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1259,9 +1307,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1271,51 +1316,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1336,7 +1338,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1382,40 +1384,40 @@
                   <c:v>36.15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.049999999999997</c:v>
+                  <c:v>35.949999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.979999999999997</c:v>
+                  <c:v>35.879999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.979999999999997</c:v>
+                  <c:v>35.879999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.479999999999997</c:v>
+                  <c:v>33.379999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.835000000000001</c:v>
+                  <c:v>25.904999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.835000000000001</c:v>
+                  <c:v>25.904999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.835000000000001</c:v>
+                  <c:v>25.904999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.835000000000001</c:v>
+                  <c:v>25.904999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.835000000000001</c:v>
+                  <c:v>25.904999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27.835000000000001</c:v>
+                  <c:v>25.904999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.835000000000001</c:v>
+                  <c:v>25.904999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27.835000000000001</c:v>
+                  <c:v>25.904999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1476,6 +1478,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1532,7 +1535,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1607,23 +1610,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1659,23 +1645,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1854,11 +1823,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U107" sqref="U107"/>
+    <sheetView tabSelected="1" topLeftCell="C55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q127" sqref="Q127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
@@ -1884,22 +1853,22 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="85" t="s">
+      <c r="J2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="87"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="93"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
@@ -1970,7 +1939,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="110" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="67" t="s">
@@ -2021,8 +1990,8 @@
       <c r="W4" s="73"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="95"/>
-      <c r="C5" s="97" t="s">
+      <c r="B5" s="111"/>
+      <c r="C5" s="94" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="56" t="s">
@@ -2072,8 +2041,8 @@
       <c r="W5" s="30"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="95"/>
-      <c r="C6" s="98"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="113"/>
       <c r="D6" s="17" t="s">
         <v>22</v>
       </c>
@@ -2121,7 +2090,7 @@
       <c r="W6" s="30"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="95"/>
+      <c r="B7" s="111"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
@@ -2170,7 +2139,7 @@
       <c r="W7" s="30"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="95"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="57" t="s">
         <v>18</v>
       </c>
@@ -2219,7 +2188,7 @@
       <c r="W8" s="30"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="95"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="57" t="s">
         <v>17</v>
       </c>
@@ -2268,7 +2237,7 @@
       <c r="W9" s="30"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="95"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="57" t="s">
         <v>16</v>
       </c>
@@ -2317,7 +2286,7 @@
       <c r="W10" s="30"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="96"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="39" t="s">
         <v>111</v>
       </c>
@@ -2366,7 +2335,7 @@
       <c r="W11" s="49"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="107" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="74" t="s">
@@ -2417,7 +2386,7 @@
       <c r="W12" s="76"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="92"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
@@ -2466,8 +2435,8 @@
       <c r="W13" s="31"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="92"/>
-      <c r="C14" s="97" t="s">
+      <c r="B14" s="108"/>
+      <c r="C14" s="94" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="55" t="s">
@@ -2517,8 +2486,8 @@
       <c r="W14" s="33"/>
     </row>
     <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="93"/>
-      <c r="C15" s="101"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="95"/>
       <c r="D15" s="40" t="s">
         <v>119</v>
       </c>
@@ -2566,7 +2535,7 @@
       <c r="W15" s="45"/>
     </row>
     <row r="16" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="104" t="s">
         <v>121</v>
       </c>
       <c r="C16" s="16" t="s">
@@ -2633,7 +2602,7 @@
       </c>
     </row>
     <row r="17" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="88"/>
+      <c r="B17" s="104"/>
       <c r="C17" s="4" t="s">
         <v>28</v>
       </c>
@@ -2698,7 +2667,7 @@
       </c>
     </row>
     <row r="18" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="88"/>
+      <c r="B18" s="104"/>
       <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
@@ -2763,7 +2732,7 @@
       </c>
     </row>
     <row r="19" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="88"/>
+      <c r="B19" s="104"/>
       <c r="C19" s="4" t="s">
         <v>31</v>
       </c>
@@ -2828,7 +2797,7 @@
       </c>
     </row>
     <row r="20" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="88"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
@@ -2893,7 +2862,7 @@
       </c>
     </row>
     <row r="21" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="88"/>
+      <c r="B21" s="104"/>
       <c r="C21" s="4" t="s">
         <v>33</v>
       </c>
@@ -2958,7 +2927,7 @@
       </c>
     </row>
     <row r="22" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="88"/>
+      <c r="B22" s="104"/>
       <c r="C22" s="4" t="s">
         <v>34</v>
       </c>
@@ -3023,7 +2992,7 @@
       </c>
     </row>
     <row r="23" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="88"/>
+      <c r="B23" s="104"/>
       <c r="C23" s="4" t="s">
         <v>35</v>
       </c>
@@ -3088,7 +3057,7 @@
       </c>
     </row>
     <row r="24" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="88"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="4" t="s">
         <v>36</v>
       </c>
@@ -3153,7 +3122,7 @@
       </c>
     </row>
     <row r="25" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="88"/>
+      <c r="B25" s="104"/>
       <c r="C25" s="4" t="s">
         <v>37</v>
       </c>
@@ -3218,7 +3187,7 @@
       </c>
     </row>
     <row r="26" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="88"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="4" t="s">
         <v>38</v>
       </c>
@@ -3283,7 +3252,7 @@
       </c>
     </row>
     <row r="27" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="88"/>
+      <c r="B27" s="104"/>
       <c r="C27" s="4" t="s">
         <v>39</v>
       </c>
@@ -3348,7 +3317,7 @@
       </c>
     </row>
     <row r="28" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="88"/>
+      <c r="B28" s="104"/>
       <c r="C28" s="4" t="s">
         <v>40</v>
       </c>
@@ -3413,7 +3382,7 @@
       </c>
     </row>
     <row r="29" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="88"/>
+      <c r="B29" s="104"/>
       <c r="C29" s="4" t="s">
         <v>41</v>
       </c>
@@ -3478,7 +3447,7 @@
       </c>
     </row>
     <row r="30" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="88"/>
+      <c r="B30" s="104"/>
       <c r="C30" s="4" t="s">
         <v>42</v>
       </c>
@@ -3543,7 +3512,7 @@
       </c>
     </row>
     <row r="31" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="88"/>
+      <c r="B31" s="104"/>
       <c r="C31" s="4" t="s">
         <v>43</v>
       </c>
@@ -3608,7 +3577,7 @@
       </c>
     </row>
     <row r="32" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="88"/>
+      <c r="B32" s="104"/>
       <c r="C32" s="4" t="s">
         <v>44</v>
       </c>
@@ -3673,7 +3642,7 @@
       </c>
     </row>
     <row r="33" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="88"/>
+      <c r="B33" s="104"/>
       <c r="C33" s="4" t="s">
         <v>45</v>
       </c>
@@ -3738,7 +3707,7 @@
       </c>
     </row>
     <row r="34" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="88"/>
+      <c r="B34" s="104"/>
       <c r="C34" s="4" t="s">
         <v>46</v>
       </c>
@@ -3803,7 +3772,7 @@
       </c>
     </row>
     <row r="35" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="88"/>
+      <c r="B35" s="104"/>
       <c r="C35" s="4" t="s">
         <v>47</v>
       </c>
@@ -3868,7 +3837,7 @@
       </c>
     </row>
     <row r="36" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="88"/>
+      <c r="B36" s="104"/>
       <c r="C36" s="4" t="s">
         <v>48</v>
       </c>
@@ -3933,7 +3902,7 @@
       </c>
     </row>
     <row r="37" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="88"/>
+      <c r="B37" s="104"/>
       <c r="C37" s="4" t="s">
         <v>49</v>
       </c>
@@ -3998,7 +3967,7 @@
       </c>
     </row>
     <row r="38" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="88"/>
+      <c r="B38" s="104"/>
       <c r="C38" s="4" t="s">
         <v>50</v>
       </c>
@@ -4063,7 +4032,7 @@
       </c>
     </row>
     <row r="39" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="88"/>
+      <c r="B39" s="104"/>
       <c r="C39" s="4" t="s">
         <v>51</v>
       </c>
@@ -4128,7 +4097,7 @@
       </c>
     </row>
     <row r="40" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="88"/>
+      <c r="B40" s="104"/>
       <c r="C40" s="4" t="s">
         <v>52</v>
       </c>
@@ -4193,7 +4162,7 @@
       </c>
     </row>
     <row r="41" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="88"/>
+      <c r="B41" s="104"/>
       <c r="C41" s="4" t="s">
         <v>53</v>
       </c>
@@ -4258,7 +4227,7 @@
       </c>
     </row>
     <row r="42" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="88"/>
+      <c r="B42" s="104"/>
       <c r="C42" s="4" t="s">
         <v>54</v>
       </c>
@@ -4323,7 +4292,7 @@
       </c>
     </row>
     <row r="43" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="88"/>
+      <c r="B43" s="104"/>
       <c r="C43" s="4" t="s">
         <v>55</v>
       </c>
@@ -4388,7 +4357,7 @@
       </c>
     </row>
     <row r="44" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="88"/>
+      <c r="B44" s="104"/>
       <c r="C44" s="4" t="s">
         <v>56</v>
       </c>
@@ -4453,7 +4422,7 @@
       </c>
     </row>
     <row r="45" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="88"/>
+      <c r="B45" s="104"/>
       <c r="C45" s="4" t="s">
         <v>57</v>
       </c>
@@ -4518,7 +4487,7 @@
       </c>
     </row>
     <row r="46" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="88"/>
+      <c r="B46" s="104"/>
       <c r="C46" s="4" t="s">
         <v>58</v>
       </c>
@@ -4583,7 +4552,7 @@
       </c>
     </row>
     <row r="47" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="88"/>
+      <c r="B47" s="104"/>
       <c r="C47" s="4" t="s">
         <v>59</v>
       </c>
@@ -4648,7 +4617,7 @@
       </c>
     </row>
     <row r="48" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="88"/>
+      <c r="B48" s="104"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
@@ -4713,7 +4682,7 @@
       </c>
     </row>
     <row r="49" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="88"/>
+      <c r="B49" s="104"/>
       <c r="C49" s="4" t="s">
         <v>61</v>
       </c>
@@ -4778,7 +4747,7 @@
       </c>
     </row>
     <row r="50" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="88"/>
+      <c r="B50" s="104"/>
       <c r="C50" s="4" t="s">
         <v>62</v>
       </c>
@@ -4843,7 +4812,7 @@
       </c>
     </row>
     <row r="51" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="88"/>
+      <c r="B51" s="104"/>
       <c r="C51" s="18" t="s">
         <v>63</v>
       </c>
@@ -4892,7 +4861,7 @@
       <c r="W51" s="31"/>
     </row>
     <row r="52" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="88"/>
+      <c r="B52" s="104"/>
       <c r="C52" s="18" t="s">
         <v>79</v>
       </c>
@@ -4941,7 +4910,7 @@
       <c r="W52" s="31"/>
     </row>
     <row r="53" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="88"/>
+      <c r="B53" s="104"/>
       <c r="C53" s="18" t="s">
         <v>80</v>
       </c>
@@ -4990,7 +4959,7 @@
       <c r="W53" s="31"/>
     </row>
     <row r="54" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="88"/>
+      <c r="B54" s="104"/>
       <c r="C54" s="18" t="s">
         <v>81</v>
       </c>
@@ -5039,7 +5008,7 @@
       <c r="W54" s="31"/>
     </row>
     <row r="55" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="88"/>
+      <c r="B55" s="104"/>
       <c r="C55" s="18" t="s">
         <v>82</v>
       </c>
@@ -5088,7 +5057,7 @@
       <c r="W55" s="31"/>
     </row>
     <row r="56" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="88"/>
+      <c r="B56" s="104"/>
       <c r="C56" s="18" t="s">
         <v>83</v>
       </c>
@@ -5137,7 +5106,7 @@
       <c r="W56" s="31"/>
     </row>
     <row r="57" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="88"/>
+      <c r="B57" s="104"/>
       <c r="C57" s="18" t="s">
         <v>84</v>
       </c>
@@ -5186,7 +5155,7 @@
       <c r="W57" s="31"/>
     </row>
     <row r="58" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="88"/>
+      <c r="B58" s="104"/>
       <c r="C58" s="18" t="s">
         <v>85</v>
       </c>
@@ -5235,7 +5204,7 @@
       <c r="W58" s="31"/>
     </row>
     <row r="59" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="88"/>
+      <c r="B59" s="104"/>
       <c r="C59" s="18" t="s">
         <v>86</v>
       </c>
@@ -5284,7 +5253,7 @@
       <c r="W59" s="31"/>
     </row>
     <row r="60" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="88"/>
+      <c r="B60" s="104"/>
       <c r="C60" s="18" t="s">
         <v>87</v>
       </c>
@@ -5333,7 +5302,7 @@
       <c r="W60" s="31"/>
     </row>
     <row r="61" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="88"/>
+      <c r="B61" s="104"/>
       <c r="C61" s="18" t="s">
         <v>88</v>
       </c>
@@ -5382,7 +5351,7 @@
       <c r="W61" s="31"/>
     </row>
     <row r="62" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="88"/>
+      <c r="B62" s="104"/>
       <c r="C62" s="18" t="s">
         <v>89</v>
       </c>
@@ -5431,7 +5400,7 @@
       <c r="W62" s="31"/>
     </row>
     <row r="63" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="88"/>
+      <c r="B63" s="104"/>
       <c r="C63" s="18" t="s">
         <v>90</v>
       </c>
@@ -5480,7 +5449,7 @@
       <c r="W63" s="31"/>
     </row>
     <row r="64" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="88"/>
+      <c r="B64" s="104"/>
       <c r="C64" s="18" t="s">
         <v>91</v>
       </c>
@@ -5529,7 +5498,7 @@
       <c r="W64" s="31"/>
     </row>
     <row r="65" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="89"/>
+      <c r="B65" s="105"/>
       <c r="C65" s="39" t="s">
         <v>92</v>
       </c>
@@ -5578,7 +5547,7 @@
       <c r="W65" s="45"/>
     </row>
     <row r="66" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="90" t="s">
+      <c r="B66" s="106" t="s">
         <v>64</v>
       </c>
       <c r="C66" s="35" t="s">
@@ -5599,7 +5568,7 @@
       </c>
       <c r="I66" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="J66" s="60">
         <v>0</v>
@@ -5619,17 +5588,19 @@
       <c r="O66" s="60">
         <v>0</v>
       </c>
-      <c r="P66" s="37"/>
-      <c r="Q66" s="37"/>
-      <c r="R66" s="37"/>
-      <c r="S66" s="37"/>
-      <c r="T66" s="37"/>
-      <c r="U66" s="37"/>
-      <c r="V66" s="37"/>
-      <c r="W66" s="38"/>
+      <c r="P66" s="83">
+        <v>1.83</v>
+      </c>
+      <c r="Q66" s="83"/>
+      <c r="R66" s="83"/>
+      <c r="S66" s="83"/>
+      <c r="T66" s="83"/>
+      <c r="U66" s="83"/>
+      <c r="V66" s="83"/>
+      <c r="W66" s="116"/>
     </row>
     <row r="67" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="88"/>
+      <c r="B67" s="104"/>
       <c r="C67" s="18" t="s">
         <v>66</v>
       </c>
@@ -5678,7 +5649,7 @@
       <c r="W67" s="31"/>
     </row>
     <row r="68" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="88"/>
+      <c r="B68" s="104"/>
       <c r="C68" s="18" t="s">
         <v>67</v>
       </c>
@@ -5727,7 +5698,7 @@
       <c r="W68" s="31"/>
     </row>
     <row r="69" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="88"/>
+      <c r="B69" s="104"/>
       <c r="C69" s="18" t="s">
         <v>68</v>
       </c>
@@ -5776,7 +5747,7 @@
       <c r="W69" s="31"/>
     </row>
     <row r="70" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="88"/>
+      <c r="B70" s="104"/>
       <c r="C70" s="18" t="s">
         <v>69</v>
       </c>
@@ -5825,7 +5796,7 @@
       <c r="W70" s="31"/>
     </row>
     <row r="71" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="88"/>
+      <c r="B71" s="104"/>
       <c r="C71" s="18" t="s">
         <v>70</v>
       </c>
@@ -5874,7 +5845,7 @@
       <c r="W71" s="31"/>
     </row>
     <row r="72" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="88"/>
+      <c r="B72" s="104"/>
       <c r="C72" s="18" t="s">
         <v>71</v>
       </c>
@@ -5923,7 +5894,7 @@
       <c r="W72" s="31"/>
     </row>
     <row r="73" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="88"/>
+      <c r="B73" s="104"/>
       <c r="C73" s="18" t="s">
         <v>72</v>
       </c>
@@ -5972,7 +5943,7 @@
       <c r="W73" s="31"/>
     </row>
     <row r="74" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="88"/>
+      <c r="B74" s="104"/>
       <c r="C74" s="18" t="s">
         <v>73</v>
       </c>
@@ -6021,7 +5992,7 @@
       <c r="W74" s="31"/>
     </row>
     <row r="75" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="88"/>
+      <c r="B75" s="104"/>
       <c r="C75" s="18" t="s">
         <v>74</v>
       </c>
@@ -6070,7 +6041,7 @@
       <c r="W75" s="31"/>
     </row>
     <row r="76" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="88"/>
+      <c r="B76" s="104"/>
       <c r="C76" s="18" t="s">
         <v>75</v>
       </c>
@@ -6119,7 +6090,7 @@
       <c r="W76" s="31"/>
     </row>
     <row r="77" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="88"/>
+      <c r="B77" s="104"/>
       <c r="C77" s="18" t="s">
         <v>76</v>
       </c>
@@ -6168,7 +6139,7 @@
       <c r="W77" s="31"/>
     </row>
     <row r="78" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="88"/>
+      <c r="B78" s="104"/>
       <c r="C78" s="18" t="s">
         <v>77</v>
       </c>
@@ -6217,7 +6188,7 @@
       <c r="W78" s="31"/>
     </row>
     <row r="79" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="89"/>
+      <c r="B79" s="105"/>
       <c r="C79" s="39" t="s">
         <v>78</v>
       </c>
@@ -6266,7 +6237,7 @@
       <c r="W79" s="45"/>
     </row>
     <row r="80" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="102" t="s">
+      <c r="B80" s="96" t="s">
         <v>93</v>
       </c>
       <c r="C80" s="6" t="s">
@@ -6307,33 +6278,33 @@
       <c r="O80" s="60">
         <v>0</v>
       </c>
-      <c r="P80" s="112">
+      <c r="P80" s="87">
         <v>0.05</v>
       </c>
-      <c r="Q80" s="112">
-        <v>0</v>
-      </c>
-      <c r="R80" s="112">
-        <v>0</v>
-      </c>
-      <c r="S80" s="112">
-        <v>0</v>
-      </c>
-      <c r="T80" s="112">
-        <v>0</v>
-      </c>
-      <c r="U80" s="112">
-        <v>0</v>
-      </c>
-      <c r="V80" s="112">
-        <v>0</v>
-      </c>
-      <c r="W80" s="112">
+      <c r="Q80" s="87">
+        <v>0</v>
+      </c>
+      <c r="R80" s="87">
+        <v>0</v>
+      </c>
+      <c r="S80" s="87">
+        <v>0</v>
+      </c>
+      <c r="T80" s="87">
+        <v>0</v>
+      </c>
+      <c r="U80" s="87">
+        <v>0</v>
+      </c>
+      <c r="V80" s="87">
+        <v>0</v>
+      </c>
+      <c r="W80" s="87">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="103"/>
+      <c r="B81" s="97"/>
       <c r="C81" s="4" t="s">
         <v>28</v>
       </c>
@@ -6398,7 +6369,7 @@
       </c>
     </row>
     <row r="82" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="103"/>
+      <c r="B82" s="97"/>
       <c r="C82" s="4" t="s">
         <v>30</v>
       </c>
@@ -6463,7 +6434,7 @@
       </c>
     </row>
     <row r="83" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="103"/>
+      <c r="B83" s="97"/>
       <c r="C83" s="4" t="s">
         <v>31</v>
       </c>
@@ -6528,7 +6499,7 @@
       </c>
     </row>
     <row r="84" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="103"/>
+      <c r="B84" s="97"/>
       <c r="C84" s="4" t="s">
         <v>32</v>
       </c>
@@ -6593,7 +6564,7 @@
       </c>
     </row>
     <row r="85" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="103"/>
+      <c r="B85" s="97"/>
       <c r="C85" s="4" t="s">
         <v>33</v>
       </c>
@@ -6658,7 +6629,7 @@
       </c>
     </row>
     <row r="86" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="103"/>
+      <c r="B86" s="97"/>
       <c r="C86" s="4" t="s">
         <v>34</v>
       </c>
@@ -6723,7 +6694,7 @@
       </c>
     </row>
     <row r="87" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="103"/>
+      <c r="B87" s="97"/>
       <c r="C87" s="4" t="s">
         <v>35</v>
       </c>
@@ -6788,7 +6759,7 @@
       </c>
     </row>
     <row r="88" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="103"/>
+      <c r="B88" s="97"/>
       <c r="C88" s="4" t="s">
         <v>36</v>
       </c>
@@ -6853,7 +6824,7 @@
       </c>
     </row>
     <row r="89" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="103"/>
+      <c r="B89" s="97"/>
       <c r="C89" s="4" t="s">
         <v>37</v>
       </c>
@@ -6918,7 +6889,7 @@
       </c>
     </row>
     <row r="90" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="103"/>
+      <c r="B90" s="97"/>
       <c r="C90" s="4" t="s">
         <v>38</v>
       </c>
@@ -6983,7 +6954,7 @@
       </c>
     </row>
     <row r="91" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="103"/>
+      <c r="B91" s="97"/>
       <c r="C91" s="4" t="s">
         <v>39</v>
       </c>
@@ -7048,7 +7019,7 @@
       </c>
     </row>
     <row r="92" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="103"/>
+      <c r="B92" s="97"/>
       <c r="C92" s="4" t="s">
         <v>40</v>
       </c>
@@ -7108,12 +7079,12 @@
       <c r="V92" s="84">
         <v>0</v>
       </c>
-      <c r="W92" s="111">
+      <c r="W92" s="86">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="103"/>
+      <c r="B93" s="97"/>
       <c r="C93" s="4" t="s">
         <v>41</v>
       </c>
@@ -7173,12 +7144,12 @@
       <c r="V93" s="84">
         <v>0</v>
       </c>
-      <c r="W93" s="111">
+      <c r="W93" s="86">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="103"/>
+      <c r="B94" s="97"/>
       <c r="C94" s="4" t="s">
         <v>42</v>
       </c>
@@ -7217,7 +7188,7 @@
       <c r="O94" s="58">
         <v>0</v>
       </c>
-      <c r="P94" s="112">
+      <c r="P94" s="87">
         <v>0.03</v>
       </c>
       <c r="Q94" s="84">
@@ -7238,12 +7209,12 @@
       <c r="V94" s="84">
         <v>0</v>
       </c>
-      <c r="W94" s="111">
+      <c r="W94" s="86">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="103"/>
+      <c r="B95" s="97"/>
       <c r="C95" s="4" t="s">
         <v>43</v>
       </c>
@@ -7282,7 +7253,7 @@
       <c r="O95" s="58">
         <v>0</v>
       </c>
-      <c r="P95" s="112">
+      <c r="P95" s="87">
         <v>0.03</v>
       </c>
       <c r="Q95" s="84">
@@ -7303,12 +7274,12 @@
       <c r="V95" s="84">
         <v>0</v>
       </c>
-      <c r="W95" s="111">
+      <c r="W95" s="86">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="103"/>
+      <c r="B96" s="97"/>
       <c r="C96" s="4" t="s">
         <v>122</v>
       </c>
@@ -7344,7 +7315,7 @@
       <c r="N96" s="58">
         <v>0</v>
       </c>
-      <c r="O96" s="110">
+      <c r="O96" s="85">
         <v>2.5</v>
       </c>
       <c r="P96" s="84">
@@ -7368,12 +7339,12 @@
       <c r="V96" s="84">
         <v>0</v>
       </c>
-      <c r="W96" s="111">
+      <c r="W96" s="86">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="103"/>
+      <c r="B97" s="97"/>
       <c r="C97" s="4" t="s">
         <v>123</v>
       </c>
@@ -7433,12 +7404,12 @@
       <c r="V97" s="84">
         <v>0</v>
       </c>
-      <c r="W97" s="111">
+      <c r="W97" s="86">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="103"/>
+      <c r="B98" s="97"/>
       <c r="C98" s="4" t="s">
         <v>44</v>
       </c>
@@ -7498,12 +7469,12 @@
       <c r="V98" s="84">
         <v>0</v>
       </c>
-      <c r="W98" s="111">
+      <c r="W98" s="86">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="104"/>
+      <c r="B99" s="98"/>
       <c r="C99" s="39" t="s">
         <v>94</v>
       </c>
@@ -7552,10 +7523,10 @@
       <c r="W99" s="45"/>
     </row>
     <row r="100" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="107" t="s">
+      <c r="B100" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="C100" s="105" t="s">
+      <c r="C100" s="99" t="s">
         <v>96</v>
       </c>
       <c r="D100" s="6" t="s">
@@ -7605,8 +7576,8 @@
       <c r="W100" s="38"/>
     </row>
     <row r="101" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="107"/>
-      <c r="C101" s="106"/>
+      <c r="B101" s="101"/>
+      <c r="C101" s="100"/>
       <c r="D101" s="4" t="s">
         <v>98</v>
       </c>
@@ -7654,8 +7625,8 @@
       <c r="W101" s="31"/>
     </row>
     <row r="102" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="107"/>
-      <c r="C102" s="106"/>
+      <c r="B102" s="101"/>
+      <c r="C102" s="100"/>
       <c r="D102" s="4" t="s">
         <v>99</v>
       </c>
@@ -7703,7 +7674,7 @@
       <c r="W102" s="31"/>
     </row>
     <row r="103" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="107"/>
+      <c r="B103" s="101"/>
       <c r="C103" s="18" t="s">
         <v>117</v>
       </c>
@@ -7752,7 +7723,7 @@
       <c r="W103" s="31"/>
     </row>
     <row r="104" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="107"/>
+      <c r="B104" s="101"/>
       <c r="C104" s="18" t="s">
         <v>100</v>
       </c>
@@ -7801,7 +7772,7 @@
       <c r="W104" s="31"/>
     </row>
     <row r="105" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="107"/>
+      <c r="B105" s="101"/>
       <c r="C105" s="18" t="s">
         <v>101</v>
       </c>
@@ -7850,7 +7821,7 @@
       <c r="W105" s="31"/>
     </row>
     <row r="106" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="107"/>
+      <c r="B106" s="101"/>
       <c r="C106" s="18" t="s">
         <v>102</v>
       </c>
@@ -7899,7 +7870,7 @@
       <c r="W106" s="31"/>
     </row>
     <row r="107" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="107"/>
+      <c r="B107" s="101"/>
       <c r="C107" s="18" t="s">
         <v>103</v>
       </c>
@@ -7948,7 +7919,7 @@
       <c r="W107" s="31"/>
     </row>
     <row r="108" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="108"/>
+      <c r="B108" s="102"/>
       <c r="C108" s="18" t="s">
         <v>104</v>
       </c>
@@ -8067,7 +8038,7 @@
       </c>
       <c r="I110" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J110" s="58">
         <v>0</v>
@@ -8075,26 +8046,26 @@
       <c r="K110" s="58">
         <v>0</v>
       </c>
-      <c r="L110" s="58">
-        <v>0</v>
-      </c>
-      <c r="M110" s="58">
-        <v>0</v>
-      </c>
-      <c r="N110" s="58">
-        <v>0</v>
-      </c>
-      <c r="O110" s="58">
-        <v>0</v>
-      </c>
-      <c r="P110" s="22"/>
-      <c r="Q110" s="22"/>
-      <c r="R110" s="22"/>
-      <c r="S110" s="22"/>
-      <c r="T110" s="22"/>
-      <c r="U110" s="22"/>
-      <c r="V110" s="22"/>
-      <c r="W110" s="31"/>
+      <c r="L110" s="88">
+        <v>0.1</v>
+      </c>
+      <c r="M110" s="88">
+        <v>0</v>
+      </c>
+      <c r="N110" s="88">
+        <v>0</v>
+      </c>
+      <c r="O110" s="88">
+        <v>0</v>
+      </c>
+      <c r="P110" s="66"/>
+      <c r="Q110" s="66"/>
+      <c r="R110" s="66"/>
+      <c r="S110" s="66"/>
+      <c r="T110" s="66"/>
+      <c r="U110" s="66"/>
+      <c r="V110" s="66"/>
+      <c r="W110" s="117"/>
     </row>
     <row r="111" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B111" s="32" t="s">
@@ -8189,59 +8160,59 @@
       <c r="K112" s="58">
         <v>0</v>
       </c>
-      <c r="L112" s="113">
+      <c r="L112" s="88">
         <v>0.1</v>
       </c>
-      <c r="M112" s="113">
-        <v>0</v>
-      </c>
-      <c r="N112" s="113">
-        <v>0</v>
-      </c>
-      <c r="O112" s="113">
-        <v>0</v>
-      </c>
-      <c r="P112" s="114">
-        <v>0</v>
-      </c>
-      <c r="Q112" s="114">
-        <v>0</v>
-      </c>
-      <c r="R112" s="114">
-        <v>0</v>
-      </c>
-      <c r="S112" s="114">
-        <v>0</v>
-      </c>
-      <c r="T112" s="114">
-        <v>0</v>
-      </c>
-      <c r="U112" s="114">
-        <v>0</v>
-      </c>
-      <c r="V112" s="114">
-        <v>0</v>
-      </c>
-      <c r="W112" s="115">
+      <c r="M112" s="88">
+        <v>0</v>
+      </c>
+      <c r="N112" s="88">
+        <v>0</v>
+      </c>
+      <c r="O112" s="88">
+        <v>0</v>
+      </c>
+      <c r="P112" s="89">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="89">
+        <v>0</v>
+      </c>
+      <c r="R112" s="89">
+        <v>0</v>
+      </c>
+      <c r="S112" s="89">
+        <v>0</v>
+      </c>
+      <c r="T112" s="89">
+        <v>0</v>
+      </c>
+      <c r="U112" s="89">
+        <v>0</v>
+      </c>
+      <c r="V112" s="89">
+        <v>0</v>
+      </c>
+      <c r="W112" s="90">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="99" t="s">
+      <c r="B113" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="C113" s="100"/>
-      <c r="D113" s="100"/>
-      <c r="E113" s="100"/>
-      <c r="F113" s="100"/>
-      <c r="G113" s="100"/>
+      <c r="C113" s="115"/>
+      <c r="D113" s="115"/>
+      <c r="E113" s="115"/>
+      <c r="F113" s="115"/>
+      <c r="G113" s="115"/>
       <c r="H113" s="29">
         <f t="shared" ref="H113:W113" si="2">SUM(H4:H112)</f>
         <v>36.15</v>
       </c>
       <c r="I113" s="14">
         <f t="shared" si="2"/>
-        <v>8.3149999999999977</v>
+        <v>10.244999999999999</v>
       </c>
       <c r="J113" s="12">
         <f t="shared" si="2"/>
@@ -8253,7 +8224,7 @@
       </c>
       <c r="L113" s="13">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M113" s="15">
         <f t="shared" si="2"/>
@@ -8269,7 +8240,7 @@
       </c>
       <c r="P113" s="15">
         <f t="shared" si="2"/>
-        <v>5.6449999999999978</v>
+        <v>7.4749999999999988</v>
       </c>
       <c r="Q113" s="15">
         <f t="shared" si="2"/>
@@ -8309,22 +8280,22 @@
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
-      <c r="J114" s="85" t="s">
+      <c r="J114" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="K114" s="86"/>
-      <c r="L114" s="86"/>
-      <c r="M114" s="86"/>
-      <c r="N114" s="86"/>
-      <c r="O114" s="86"/>
-      <c r="P114" s="86"/>
-      <c r="Q114" s="86"/>
-      <c r="R114" s="86"/>
-      <c r="S114" s="86"/>
-      <c r="T114" s="86"/>
-      <c r="U114" s="86"/>
-      <c r="V114" s="86"/>
-      <c r="W114" s="87"/>
+      <c r="K114" s="92"/>
+      <c r="L114" s="92"/>
+      <c r="M114" s="92"/>
+      <c r="N114" s="92"/>
+      <c r="O114" s="92"/>
+      <c r="P114" s="92"/>
+      <c r="Q114" s="92"/>
+      <c r="R114" s="92"/>
+      <c r="S114" s="92"/>
+      <c r="T114" s="92"/>
+      <c r="U114" s="92"/>
+      <c r="V114" s="92"/>
+      <c r="W114" s="93"/>
     </row>
     <row r="115" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B115" s="2"/>
@@ -8349,10 +8320,10 @@
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
-      <c r="H116" s="85" t="s">
+      <c r="H116" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="I116" s="109"/>
+      <c r="I116" s="103"/>
       <c r="J116" s="13">
         <f>H113-J113</f>
         <v>36.15</v>
@@ -8363,51 +8334,51 @@
       </c>
       <c r="L116" s="13">
         <f>K116-L113</f>
-        <v>36.049999999999997</v>
+        <v>35.949999999999996</v>
       </c>
       <c r="M116" s="13">
         <f>L116-M113</f>
-        <v>35.979999999999997</v>
+        <v>35.879999999999995</v>
       </c>
       <c r="N116" s="13">
         <f t="shared" ref="N116:W116" si="3">M116-N113</f>
-        <v>35.979999999999997</v>
+        <v>35.879999999999995</v>
       </c>
       <c r="O116" s="13">
         <f t="shared" si="3"/>
-        <v>33.479999999999997</v>
+        <v>33.379999999999995</v>
       </c>
       <c r="P116" s="13">
         <f t="shared" si="3"/>
-        <v>27.835000000000001</v>
+        <v>25.904999999999998</v>
       </c>
       <c r="Q116" s="13">
         <f t="shared" si="3"/>
-        <v>27.835000000000001</v>
+        <v>25.904999999999998</v>
       </c>
       <c r="R116" s="13">
         <f t="shared" si="3"/>
-        <v>27.835000000000001</v>
+        <v>25.904999999999998</v>
       </c>
       <c r="S116" s="13">
         <f t="shared" si="3"/>
-        <v>27.835000000000001</v>
+        <v>25.904999999999998</v>
       </c>
       <c r="T116" s="13">
         <f t="shared" si="3"/>
-        <v>27.835000000000001</v>
+        <v>25.904999999999998</v>
       </c>
       <c r="U116" s="13">
         <f t="shared" si="3"/>
-        <v>27.835000000000001</v>
+        <v>25.904999999999998</v>
       </c>
       <c r="V116" s="13">
         <f t="shared" si="3"/>
-        <v>27.835000000000001</v>
+        <v>25.904999999999998</v>
       </c>
       <c r="W116" s="13">
         <f t="shared" si="3"/>
-        <v>27.835000000000001</v>
+        <v>25.904999999999998</v>
       </c>
     </row>
     <row r="117" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8430,27 +8401,27 @@
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
-      <c r="H118" s="85" t="s">
+      <c r="H118" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="I118" s="86"/>
-      <c r="J118" s="85">
+      <c r="I118" s="92"/>
+      <c r="J118" s="91">
         <f>H113-I113</f>
-        <v>27.835000000000001</v>
-      </c>
-      <c r="K118" s="86"/>
-      <c r="L118" s="86"/>
-      <c r="M118" s="86"/>
-      <c r="N118" s="86"/>
-      <c r="O118" s="86"/>
-      <c r="P118" s="86"/>
-      <c r="Q118" s="86"/>
-      <c r="R118" s="86"/>
-      <c r="S118" s="86"/>
-      <c r="T118" s="86"/>
-      <c r="U118" s="86"/>
-      <c r="V118" s="86"/>
-      <c r="W118" s="87"/>
+        <v>25.905000000000001</v>
+      </c>
+      <c r="K118" s="92"/>
+      <c r="L118" s="92"/>
+      <c r="M118" s="92"/>
+      <c r="N118" s="92"/>
+      <c r="O118" s="92"/>
+      <c r="P118" s="92"/>
+      <c r="Q118" s="92"/>
+      <c r="R118" s="92"/>
+      <c r="S118" s="92"/>
+      <c r="T118" s="92"/>
+      <c r="U118" s="92"/>
+      <c r="V118" s="92"/>
+      <c r="W118" s="93"/>
     </row>
     <row r="119" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B119" s="3"/>
@@ -8538,13 +8509,6 @@
     <row r="137" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="J118:W118"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B80:B99"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="B100:B108"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="H118:I118"/>
     <mergeCell ref="J2:W2"/>
     <mergeCell ref="J114:W114"/>
     <mergeCell ref="B16:B65"/>
@@ -8553,6 +8517,13 @@
     <mergeCell ref="B4:B11"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B113:G113"/>
+    <mergeCell ref="J118:W118"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B80:B99"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="B100:B108"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H118:I118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8566,7 +8537,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8578,7 +8549,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devildrake\Documents\MAP_LegendOfRadev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Enti\MAP\The_Legend_of_Radev\MAP_LegendOfRadev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1257,78 +1257,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1373,6 +1301,78 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1393,7 +1393,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1456,31 +1456,31 @@
                   <c:v>24.055</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.067999999999998</c:v>
+                  <c:v>21.067999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.067999999999998</c:v>
+                  <c:v>21.067999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.067999999999998</c:v>
+                  <c:v>21.067999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.067999999999998</c:v>
+                  <c:v>21.067999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.067999999999998</c:v>
+                  <c:v>21.067999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.067999999999998</c:v>
+                  <c:v>21.067999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22.067999999999998</c:v>
+                  <c:v>21.067999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-08BE-4709-9DE4-AEC2E98B8D97}"/>
             </c:ext>
@@ -1570,7 +1570,7 @@
         <xdr:cNvPr id="4" name="3 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1880,28 +1880,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T62" sqref="T62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>118</v>
       </c>
@@ -1909,94 +1909,94 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="81" t="s">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="83"/>
-    </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="114" t="s">
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="99"/>
+    </row>
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="115" t="s">
+      <c r="C3" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="115" t="s">
+      <c r="E3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="115" t="s">
+      <c r="F3" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="115" t="s">
+      <c r="G3" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="116" t="s">
+      <c r="H3" s="92" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="117">
+      <c r="J3" s="93">
         <v>43040</v>
       </c>
-      <c r="K3" s="113">
+      <c r="K3" s="89">
         <v>43041</v>
       </c>
-      <c r="L3" s="112">
+      <c r="L3" s="88">
         <v>43042</v>
       </c>
-      <c r="M3" s="113">
+      <c r="M3" s="89">
         <v>43043</v>
       </c>
-      <c r="N3" s="112">
+      <c r="N3" s="88">
         <v>43044</v>
       </c>
-      <c r="O3" s="113">
+      <c r="O3" s="89">
         <v>43045</v>
       </c>
-      <c r="P3" s="112">
+      <c r="P3" s="88">
         <v>43046</v>
       </c>
-      <c r="Q3" s="113">
+      <c r="Q3" s="89">
         <v>43047</v>
       </c>
-      <c r="R3" s="112">
+      <c r="R3" s="88">
         <v>43048</v>
       </c>
-      <c r="S3" s="113">
+      <c r="S3" s="89">
         <v>43049</v>
       </c>
-      <c r="T3" s="112">
+      <c r="T3" s="88">
         <v>43050</v>
       </c>
-      <c r="U3" s="113">
+      <c r="U3" s="89">
         <v>43051</v>
       </c>
-      <c r="V3" s="112">
+      <c r="V3" s="88">
         <v>43052</v>
       </c>
-      <c r="W3" s="113">
+      <c r="W3" s="89">
         <v>43053</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="89" t="s">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="115" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="56" t="s">
@@ -2043,28 +2043,28 @@
       <c r="Q4" s="79">
         <v>0.05</v>
       </c>
-      <c r="R4" s="106">
-        <v>0</v>
-      </c>
-      <c r="S4" s="106">
-        <v>0</v>
-      </c>
-      <c r="T4" s="106">
-        <v>0</v>
-      </c>
-      <c r="U4" s="106">
-        <v>0</v>
-      </c>
-      <c r="V4" s="106">
-        <v>0</v>
-      </c>
-      <c r="W4" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="90"/>
-      <c r="C5" s="92" t="s">
+      <c r="R4" s="82">
+        <v>0</v>
+      </c>
+      <c r="S4" s="82">
+        <v>0</v>
+      </c>
+      <c r="T4" s="82">
+        <v>0</v>
+      </c>
+      <c r="U4" s="82">
+        <v>0</v>
+      </c>
+      <c r="V4" s="82">
+        <v>0</v>
+      </c>
+      <c r="W4" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="116"/>
+      <c r="C5" s="100" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="78" t="s">
@@ -2110,28 +2110,28 @@
       <c r="Q5" s="80">
         <v>0.5</v>
       </c>
-      <c r="R5" s="108">
-        <v>0</v>
-      </c>
-      <c r="S5" s="108">
-        <v>0</v>
-      </c>
-      <c r="T5" s="108">
-        <v>0</v>
-      </c>
-      <c r="U5" s="108">
-        <v>0</v>
-      </c>
-      <c r="V5" s="108">
-        <v>0</v>
-      </c>
-      <c r="W5" s="109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="90"/>
-      <c r="C6" s="93"/>
+      <c r="R5" s="84">
+        <v>0</v>
+      </c>
+      <c r="S5" s="84">
+        <v>0</v>
+      </c>
+      <c r="T5" s="84">
+        <v>0</v>
+      </c>
+      <c r="U5" s="84">
+        <v>0</v>
+      </c>
+      <c r="V5" s="84">
+        <v>0</v>
+      </c>
+      <c r="W5" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="116"/>
+      <c r="C6" s="118"/>
       <c r="D6" s="17" t="s">
         <v>20</v>
       </c>
@@ -2175,27 +2175,27 @@
       <c r="Q6" s="80">
         <v>0.1</v>
       </c>
-      <c r="R6" s="108">
-        <v>0</v>
-      </c>
-      <c r="S6" s="108">
-        <v>0</v>
-      </c>
-      <c r="T6" s="108">
-        <v>0</v>
-      </c>
-      <c r="U6" s="108">
-        <v>0</v>
-      </c>
-      <c r="V6" s="108">
-        <v>0</v>
-      </c>
-      <c r="W6" s="109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="90"/>
+      <c r="R6" s="84">
+        <v>0</v>
+      </c>
+      <c r="S6" s="84">
+        <v>0</v>
+      </c>
+      <c r="T6" s="84">
+        <v>0</v>
+      </c>
+      <c r="U6" s="84">
+        <v>0</v>
+      </c>
+      <c r="V6" s="84">
+        <v>0</v>
+      </c>
+      <c r="W6" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="116"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
@@ -2240,27 +2240,27 @@
       <c r="Q7" s="80">
         <v>0.68700000000000006</v>
       </c>
-      <c r="R7" s="108">
-        <v>0</v>
-      </c>
-      <c r="S7" s="108">
-        <v>0</v>
-      </c>
-      <c r="T7" s="108">
-        <v>0</v>
-      </c>
-      <c r="U7" s="108">
-        <v>0</v>
-      </c>
-      <c r="V7" s="108">
-        <v>0</v>
-      </c>
-      <c r="W7" s="109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="90"/>
+      <c r="R7" s="84">
+        <v>0</v>
+      </c>
+      <c r="S7" s="84">
+        <v>0</v>
+      </c>
+      <c r="T7" s="84">
+        <v>0</v>
+      </c>
+      <c r="U7" s="84">
+        <v>0</v>
+      </c>
+      <c r="V7" s="84">
+        <v>0</v>
+      </c>
+      <c r="W7" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="116"/>
       <c r="C8" s="77" t="s">
         <v>16</v>
       </c>
@@ -2305,27 +2305,27 @@
       <c r="Q8" s="80">
         <v>0.25</v>
       </c>
-      <c r="R8" s="108">
-        <v>0</v>
-      </c>
-      <c r="S8" s="108">
-        <v>0</v>
-      </c>
-      <c r="T8" s="108">
-        <v>0</v>
-      </c>
-      <c r="U8" s="108">
-        <v>0</v>
-      </c>
-      <c r="V8" s="108">
-        <v>0</v>
-      </c>
-      <c r="W8" s="109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="91"/>
+      <c r="R8" s="84">
+        <v>0</v>
+      </c>
+      <c r="S8" s="84">
+        <v>0</v>
+      </c>
+      <c r="T8" s="84">
+        <v>0</v>
+      </c>
+      <c r="U8" s="84">
+        <v>0</v>
+      </c>
+      <c r="V8" s="84">
+        <v>0</v>
+      </c>
+      <c r="W8" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="117"/>
       <c r="C9" s="36" t="s">
         <v>109</v>
       </c>
@@ -2367,33 +2367,33 @@
       <c r="P9" s="51">
         <v>0</v>
       </c>
-      <c r="Q9" s="105">
+      <c r="Q9" s="81">
         <v>0.4</v>
       </c>
-      <c r="R9" s="110">
-        <v>0</v>
-      </c>
-      <c r="S9" s="110">
-        <v>0</v>
-      </c>
-      <c r="T9" s="110">
-        <v>0</v>
-      </c>
-      <c r="U9" s="110">
-        <v>0</v>
-      </c>
-      <c r="V9" s="110">
-        <v>0</v>
-      </c>
-      <c r="W9" s="111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B10" s="87" t="s">
+      <c r="R9" s="86">
+        <v>0</v>
+      </c>
+      <c r="S9" s="86">
+        <v>0</v>
+      </c>
+      <c r="T9" s="86">
+        <v>0</v>
+      </c>
+      <c r="U9" s="86">
+        <v>0</v>
+      </c>
+      <c r="V9" s="86">
+        <v>0</v>
+      </c>
+      <c r="W9" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="94" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="78"/>
@@ -2409,11 +2409,11 @@
       <c r="H10" s="24">
         <v>1</v>
       </c>
-      <c r="I10" s="119">
+      <c r="I10" s="95">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="120">
+      <c r="J10" s="96">
         <v>0</v>
       </c>
       <c r="K10" s="52">
@@ -2442,8 +2442,8 @@
       <c r="V10" s="34"/>
       <c r="W10" s="35"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B11" s="87"/>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="113"/>
       <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2493,9 +2493,9 @@
       <c r="V11" s="20"/>
       <c r="W11" s="28"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B12" s="87"/>
-      <c r="C12" s="92" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="113"/>
+      <c r="C12" s="100" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="49" t="s">
@@ -2546,9 +2546,9 @@
       <c r="V12" s="23"/>
       <c r="W12" s="30"/>
     </row>
-    <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="88"/>
-      <c r="C13" s="96"/>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="114"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="37" t="s">
         <v>117</v>
       </c>
@@ -2597,8 +2597,8 @@
       <c r="V13" s="40"/>
       <c r="W13" s="41"/>
     </row>
-    <row r="14" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="84" t="s">
+    <row r="14" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="110" t="s">
         <v>119</v>
       </c>
       <c r="C14" s="16" t="s">
@@ -2664,8 +2664,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="84"/>
+    <row r="15" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="110"/>
       <c r="C15" s="4" t="s">
         <v>26</v>
       </c>
@@ -2729,8 +2729,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="84"/>
+    <row r="16" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="110"/>
       <c r="C16" s="4" t="s">
         <v>28</v>
       </c>
@@ -2794,8 +2794,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="84"/>
+    <row r="17" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="110"/>
       <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
@@ -2859,8 +2859,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="84"/>
+    <row r="18" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="110"/>
       <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
@@ -2924,8 +2924,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="84"/>
+    <row r="19" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="110"/>
       <c r="C19" s="4" t="s">
         <v>31</v>
       </c>
@@ -2989,8 +2989,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="84"/>
+    <row r="20" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="110"/>
       <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
@@ -3054,8 +3054,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="84"/>
+    <row r="21" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="110"/>
       <c r="C21" s="4" t="s">
         <v>33</v>
       </c>
@@ -3119,8 +3119,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="84"/>
+    <row r="22" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="110"/>
       <c r="C22" s="4" t="s">
         <v>34</v>
       </c>
@@ -3184,8 +3184,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="84"/>
+    <row r="23" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="110"/>
       <c r="C23" s="4" t="s">
         <v>35</v>
       </c>
@@ -3249,8 +3249,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="84"/>
+    <row r="24" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="110"/>
       <c r="C24" s="4" t="s">
         <v>36</v>
       </c>
@@ -3314,8 +3314,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="84"/>
+    <row r="25" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="110"/>
       <c r="C25" s="4" t="s">
         <v>37</v>
       </c>
@@ -3379,8 +3379,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="84"/>
+    <row r="26" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="110"/>
       <c r="C26" s="4" t="s">
         <v>38</v>
       </c>
@@ -3444,8 +3444,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="84"/>
+    <row r="27" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="110"/>
       <c r="C27" s="4" t="s">
         <v>39</v>
       </c>
@@ -3509,8 +3509,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="84"/>
+    <row r="28" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="110"/>
       <c r="C28" s="4" t="s">
         <v>40</v>
       </c>
@@ -3574,8 +3574,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="84"/>
+    <row r="29" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="110"/>
       <c r="C29" s="4" t="s">
         <v>41</v>
       </c>
@@ -3639,8 +3639,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="84"/>
+    <row r="30" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="110"/>
       <c r="C30" s="4" t="s">
         <v>42</v>
       </c>
@@ -3704,8 +3704,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="84"/>
+    <row r="31" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="110"/>
       <c r="C31" s="4" t="s">
         <v>43</v>
       </c>
@@ -3769,8 +3769,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="84"/>
+    <row r="32" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="110"/>
       <c r="C32" s="4" t="s">
         <v>44</v>
       </c>
@@ -3834,8 +3834,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="84"/>
+    <row r="33" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="110"/>
       <c r="C33" s="4" t="s">
         <v>45</v>
       </c>
@@ -3899,8 +3899,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="84"/>
+    <row r="34" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="110"/>
       <c r="C34" s="4" t="s">
         <v>46</v>
       </c>
@@ -3964,8 +3964,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="84"/>
+    <row r="35" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="110"/>
       <c r="C35" s="4" t="s">
         <v>47</v>
       </c>
@@ -4029,8 +4029,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="84"/>
+    <row r="36" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="110"/>
       <c r="C36" s="4" t="s">
         <v>48</v>
       </c>
@@ -4094,8 +4094,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="84"/>
+    <row r="37" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="110"/>
       <c r="C37" s="4" t="s">
         <v>49</v>
       </c>
@@ -4159,8 +4159,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="84"/>
+    <row r="38" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="110"/>
       <c r="C38" s="4" t="s">
         <v>50</v>
       </c>
@@ -4224,8 +4224,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="84"/>
+    <row r="39" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="110"/>
       <c r="C39" s="4" t="s">
         <v>51</v>
       </c>
@@ -4289,8 +4289,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="84"/>
+    <row r="40" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="110"/>
       <c r="C40" s="4" t="s">
         <v>52</v>
       </c>
@@ -4354,8 +4354,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="84"/>
+    <row r="41" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="110"/>
       <c r="C41" s="4" t="s">
         <v>53</v>
       </c>
@@ -4419,8 +4419,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="84"/>
+    <row r="42" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="110"/>
       <c r="C42" s="4" t="s">
         <v>54</v>
       </c>
@@ -4484,8 +4484,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="84"/>
+    <row r="43" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="110"/>
       <c r="C43" s="4" t="s">
         <v>55</v>
       </c>
@@ -4549,8 +4549,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="84"/>
+    <row r="44" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="110"/>
       <c r="C44" s="4" t="s">
         <v>56</v>
       </c>
@@ -4614,8 +4614,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="84"/>
+    <row r="45" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="110"/>
       <c r="C45" s="4" t="s">
         <v>57</v>
       </c>
@@ -4679,8 +4679,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="84"/>
+    <row r="46" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="110"/>
       <c r="C46" s="4" t="s">
         <v>58</v>
       </c>
@@ -4744,8 +4744,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="84"/>
+    <row r="47" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="110"/>
       <c r="C47" s="4" t="s">
         <v>59</v>
       </c>
@@ -4809,8 +4809,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="84"/>
+    <row r="48" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="110"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
@@ -4874,8 +4874,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="84"/>
+    <row r="49" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="110"/>
       <c r="C49" s="18" t="s">
         <v>61</v>
       </c>
@@ -4894,7 +4894,7 @@
       </c>
       <c r="I49" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="50">
         <v>0</v>
@@ -4917,16 +4917,18 @@
       <c r="P49" s="50">
         <v>0</v>
       </c>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="20"/>
-      <c r="T49" s="20"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="20"/>
-      <c r="W49" s="28"/>
-    </row>
-    <row r="50" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="84"/>
+      <c r="Q49" s="55">
+        <v>1</v>
+      </c>
+      <c r="R49" s="55"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="55"/>
+      <c r="W49" s="75"/>
+    </row>
+    <row r="50" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="110"/>
       <c r="C50" s="18" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +4978,8 @@
       <c r="V50" s="20"/>
       <c r="W50" s="28"/>
     </row>
-    <row r="51" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="84"/>
+    <row r="51" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="110"/>
       <c r="C51" s="18" t="s">
         <v>78</v>
       </c>
@@ -5027,8 +5029,8 @@
       <c r="V51" s="20"/>
       <c r="W51" s="28"/>
     </row>
-    <row r="52" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="84"/>
+    <row r="52" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="110"/>
       <c r="C52" s="18" t="s">
         <v>79</v>
       </c>
@@ -5078,8 +5080,8 @@
       <c r="V52" s="20"/>
       <c r="W52" s="28"/>
     </row>
-    <row r="53" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="84"/>
+    <row r="53" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="110"/>
       <c r="C53" s="18" t="s">
         <v>80</v>
       </c>
@@ -5129,8 +5131,8 @@
       <c r="V53" s="20"/>
       <c r="W53" s="28"/>
     </row>
-    <row r="54" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="84"/>
+    <row r="54" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="110"/>
       <c r="C54" s="18" t="s">
         <v>81</v>
       </c>
@@ -5180,8 +5182,8 @@
       <c r="V54" s="20"/>
       <c r="W54" s="28"/>
     </row>
-    <row r="55" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="84"/>
+    <row r="55" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="110"/>
       <c r="C55" s="18" t="s">
         <v>82</v>
       </c>
@@ -5231,8 +5233,8 @@
       <c r="V55" s="20"/>
       <c r="W55" s="28"/>
     </row>
-    <row r="56" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="84"/>
+    <row r="56" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="110"/>
       <c r="C56" s="18" t="s">
         <v>83</v>
       </c>
@@ -5282,8 +5284,8 @@
       <c r="V56" s="20"/>
       <c r="W56" s="28"/>
     </row>
-    <row r="57" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="84"/>
+    <row r="57" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="110"/>
       <c r="C57" s="18" t="s">
         <v>84</v>
       </c>
@@ -5333,8 +5335,8 @@
       <c r="V57" s="20"/>
       <c r="W57" s="28"/>
     </row>
-    <row r="58" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="84"/>
+    <row r="58" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="110"/>
       <c r="C58" s="18" t="s">
         <v>85</v>
       </c>
@@ -5384,8 +5386,8 @@
       <c r="V58" s="20"/>
       <c r="W58" s="28"/>
     </row>
-    <row r="59" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="84"/>
+    <row r="59" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="110"/>
       <c r="C59" s="18" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5437,8 @@
       <c r="V59" s="20"/>
       <c r="W59" s="28"/>
     </row>
-    <row r="60" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="84"/>
+    <row r="60" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="110"/>
       <c r="C60" s="18" t="s">
         <v>87</v>
       </c>
@@ -5486,8 +5488,8 @@
       <c r="V60" s="20"/>
       <c r="W60" s="28"/>
     </row>
-    <row r="61" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="84"/>
+    <row r="61" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="110"/>
       <c r="C61" s="18" t="s">
         <v>88</v>
       </c>
@@ -5537,8 +5539,8 @@
       <c r="V61" s="20"/>
       <c r="W61" s="28"/>
     </row>
-    <row r="62" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="84"/>
+    <row r="62" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="110"/>
       <c r="C62" s="18" t="s">
         <v>89</v>
       </c>
@@ -5588,8 +5590,8 @@
       <c r="V62" s="20"/>
       <c r="W62" s="28"/>
     </row>
-    <row r="63" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="85"/>
+    <row r="63" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="111"/>
       <c r="C63" s="36" t="s">
         <v>90</v>
       </c>
@@ -5639,8 +5641,8 @@
       <c r="V63" s="40"/>
       <c r="W63" s="41"/>
     </row>
-    <row r="64" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="86" t="s">
+    <row r="64" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="112" t="s">
         <v>62</v>
       </c>
       <c r="C64" s="32" t="s">
@@ -5692,8 +5694,8 @@
       <c r="V64" s="66"/>
       <c r="W64" s="74"/>
     </row>
-    <row r="65" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="84"/>
+    <row r="65" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="110"/>
       <c r="C65" s="18" t="s">
         <v>64</v>
       </c>
@@ -5743,8 +5745,8 @@
       <c r="V65" s="20"/>
       <c r="W65" s="28"/>
     </row>
-    <row r="66" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="84"/>
+    <row r="66" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="110"/>
       <c r="C66" s="18" t="s">
         <v>65</v>
       </c>
@@ -5794,8 +5796,8 @@
       <c r="V66" s="20"/>
       <c r="W66" s="28"/>
     </row>
-    <row r="67" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="84"/>
+    <row r="67" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="110"/>
       <c r="C67" s="18" t="s">
         <v>66</v>
       </c>
@@ -5845,8 +5847,8 @@
       <c r="V67" s="20"/>
       <c r="W67" s="28"/>
     </row>
-    <row r="68" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="84"/>
+    <row r="68" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="110"/>
       <c r="C68" s="18" t="s">
         <v>67</v>
       </c>
@@ -5896,8 +5898,8 @@
       <c r="V68" s="20"/>
       <c r="W68" s="28"/>
     </row>
-    <row r="69" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="84"/>
+    <row r="69" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="110"/>
       <c r="C69" s="18" t="s">
         <v>68</v>
       </c>
@@ -5947,8 +5949,8 @@
       <c r="V69" s="20"/>
       <c r="W69" s="28"/>
     </row>
-    <row r="70" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="84"/>
+    <row r="70" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="110"/>
       <c r="C70" s="18" t="s">
         <v>69</v>
       </c>
@@ -5998,8 +6000,8 @@
       <c r="V70" s="20"/>
       <c r="W70" s="28"/>
     </row>
-    <row r="71" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="84"/>
+    <row r="71" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="110"/>
       <c r="C71" s="18" t="s">
         <v>70</v>
       </c>
@@ -6049,8 +6051,8 @@
       <c r="V71" s="20"/>
       <c r="W71" s="28"/>
     </row>
-    <row r="72" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="84"/>
+    <row r="72" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="110"/>
       <c r="C72" s="18" t="s">
         <v>71</v>
       </c>
@@ -6100,8 +6102,8 @@
       <c r="V72" s="20"/>
       <c r="W72" s="28"/>
     </row>
-    <row r="73" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="84"/>
+    <row r="73" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="110"/>
       <c r="C73" s="18" t="s">
         <v>72</v>
       </c>
@@ -6151,8 +6153,8 @@
       <c r="V73" s="20"/>
       <c r="W73" s="28"/>
     </row>
-    <row r="74" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="84"/>
+    <row r="74" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="110"/>
       <c r="C74" s="18" t="s">
         <v>73</v>
       </c>
@@ -6202,8 +6204,8 @@
       <c r="V74" s="20"/>
       <c r="W74" s="28"/>
     </row>
-    <row r="75" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="84"/>
+    <row r="75" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="110"/>
       <c r="C75" s="18" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6255,8 @@
       <c r="V75" s="20"/>
       <c r="W75" s="28"/>
     </row>
-    <row r="76" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="84"/>
+    <row r="76" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="110"/>
       <c r="C76" s="18" t="s">
         <v>75</v>
       </c>
@@ -6304,8 +6306,8 @@
       <c r="V76" s="20"/>
       <c r="W76" s="28"/>
     </row>
-    <row r="77" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="85"/>
+    <row r="77" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="111"/>
       <c r="C77" s="36" t="s">
         <v>76</v>
       </c>
@@ -6355,8 +6357,8 @@
       <c r="V77" s="40"/>
       <c r="W77" s="41"/>
     </row>
-    <row r="78" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="97" t="s">
+    <row r="78" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="102" t="s">
         <v>91</v>
       </c>
       <c r="C78" s="6" t="s">
@@ -6422,8 +6424,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="98"/>
+    <row r="79" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="103"/>
       <c r="C79" s="4" t="s">
         <v>26</v>
       </c>
@@ -6487,8 +6489,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="98"/>
+    <row r="80" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="103"/>
       <c r="C80" s="4" t="s">
         <v>28</v>
       </c>
@@ -6552,8 +6554,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="98"/>
+    <row r="81" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="103"/>
       <c r="C81" s="4" t="s">
         <v>29</v>
       </c>
@@ -6617,8 +6619,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="98"/>
+    <row r="82" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="103"/>
       <c r="C82" s="4" t="s">
         <v>30</v>
       </c>
@@ -6682,8 +6684,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="98"/>
+    <row r="83" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="103"/>
       <c r="C83" s="4" t="s">
         <v>31</v>
       </c>
@@ -6747,8 +6749,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="98"/>
+    <row r="84" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="103"/>
       <c r="C84" s="4" t="s">
         <v>32</v>
       </c>
@@ -6812,8 +6814,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="98"/>
+    <row r="85" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="103"/>
       <c r="C85" s="4" t="s">
         <v>33</v>
       </c>
@@ -6877,8 +6879,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="98"/>
+    <row r="86" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="103"/>
       <c r="C86" s="4" t="s">
         <v>34</v>
       </c>
@@ -6942,8 +6944,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="98"/>
+    <row r="87" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="103"/>
       <c r="C87" s="4" t="s">
         <v>35</v>
       </c>
@@ -7007,8 +7009,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="98"/>
+    <row r="88" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="103"/>
       <c r="C88" s="4" t="s">
         <v>36</v>
       </c>
@@ -7072,8 +7074,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="98"/>
+    <row r="89" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="103"/>
       <c r="C89" s="4" t="s">
         <v>37</v>
       </c>
@@ -7137,8 +7139,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="98"/>
+    <row r="90" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="103"/>
       <c r="C90" s="4" t="s">
         <v>38</v>
       </c>
@@ -7202,8 +7204,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="98"/>
+    <row r="91" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="103"/>
       <c r="C91" s="4" t="s">
         <v>39</v>
       </c>
@@ -7267,8 +7269,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="98"/>
+    <row r="92" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="103"/>
       <c r="C92" s="4" t="s">
         <v>40</v>
       </c>
@@ -7332,8 +7334,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="98"/>
+    <row r="93" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="103"/>
       <c r="C93" s="4" t="s">
         <v>41</v>
       </c>
@@ -7397,8 +7399,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="98"/>
+    <row r="94" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="103"/>
       <c r="C94" s="4" t="s">
         <v>120</v>
       </c>
@@ -7462,8 +7464,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="98"/>
+    <row r="95" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="103"/>
       <c r="C95" s="4" t="s">
         <v>121</v>
       </c>
@@ -7527,8 +7529,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="98"/>
+    <row r="96" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="103"/>
       <c r="C96" s="4" t="s">
         <v>42</v>
       </c>
@@ -7592,8 +7594,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="99"/>
+    <row r="97" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="104"/>
       <c r="C97" s="36" t="s">
         <v>92</v>
       </c>
@@ -7643,11 +7645,11 @@
       <c r="V97" s="40"/>
       <c r="W97" s="41"/>
     </row>
-    <row r="98" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="102" t="s">
+    <row r="98" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="C98" s="100" t="s">
+      <c r="C98" s="105" t="s">
         <v>94</v>
       </c>
       <c r="D98" s="6" t="s">
@@ -7698,9 +7700,9 @@
       <c r="V98" s="34"/>
       <c r="W98" s="35"/>
     </row>
-    <row r="99" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="102"/>
-      <c r="C99" s="101"/>
+    <row r="99" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="107"/>
+      <c r="C99" s="106"/>
       <c r="D99" s="4" t="s">
         <v>96</v>
       </c>
@@ -7749,9 +7751,9 @@
       <c r="V99" s="20"/>
       <c r="W99" s="28"/>
     </row>
-    <row r="100" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="102"/>
-      <c r="C100" s="101"/>
+    <row r="100" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="107"/>
+      <c r="C100" s="106"/>
       <c r="D100" s="4" t="s">
         <v>97</v>
       </c>
@@ -7800,8 +7802,8 @@
       <c r="V100" s="20"/>
       <c r="W100" s="28"/>
     </row>
-    <row r="101" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="102"/>
+    <row r="101" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="107"/>
       <c r="C101" s="18" t="s">
         <v>115</v>
       </c>
@@ -7851,8 +7853,8 @@
       <c r="V101" s="20"/>
       <c r="W101" s="28"/>
     </row>
-    <row r="102" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="102"/>
+    <row r="102" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="107"/>
       <c r="C102" s="18" t="s">
         <v>98</v>
       </c>
@@ -7902,8 +7904,8 @@
       <c r="V102" s="20"/>
       <c r="W102" s="28"/>
     </row>
-    <row r="103" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="102"/>
+    <row r="103" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="107"/>
       <c r="C103" s="18" t="s">
         <v>99</v>
       </c>
@@ -7953,8 +7955,8 @@
       <c r="V103" s="20"/>
       <c r="W103" s="28"/>
     </row>
-    <row r="104" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="102"/>
+    <row r="104" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="107"/>
       <c r="C104" s="18" t="s">
         <v>100</v>
       </c>
@@ -8004,8 +8006,8 @@
       <c r="V104" s="20"/>
       <c r="W104" s="28"/>
     </row>
-    <row r="105" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="102"/>
+    <row r="105" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="107"/>
       <c r="C105" s="18" t="s">
         <v>101</v>
       </c>
@@ -8055,8 +8057,8 @@
       <c r="V105" s="20"/>
       <c r="W105" s="28"/>
     </row>
-    <row r="106" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="103"/>
+    <row r="106" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="108"/>
       <c r="C106" s="18" t="s">
         <v>102</v>
       </c>
@@ -8106,7 +8108,7 @@
       <c r="V106" s="20"/>
       <c r="W106" s="28"/>
     </row>
-    <row r="107" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="29" t="s">
         <v>103</v>
       </c>
@@ -8159,7 +8161,7 @@
       <c r="V107" s="20"/>
       <c r="W107" s="28"/>
     </row>
-    <row r="108" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="29" t="s">
         <v>111</v>
       </c>
@@ -8208,7 +8210,7 @@
       <c r="V108" s="55"/>
       <c r="W108" s="75"/>
     </row>
-    <row r="109" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B109" s="29" t="s">
         <v>112</v>
       </c>
@@ -8273,7 +8275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="19" t="s">
         <v>113</v>
       </c>
@@ -8338,81 +8340,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="94" t="s">
+    <row r="111" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="C111" s="95"/>
-      <c r="D111" s="95"/>
-      <c r="E111" s="95"/>
-      <c r="F111" s="95"/>
-      <c r="G111" s="95"/>
+      <c r="C111" s="120"/>
+      <c r="D111" s="120"/>
+      <c r="E111" s="120"/>
+      <c r="F111" s="120"/>
+      <c r="G111" s="120"/>
       <c r="H111" s="27">
-        <f>SUM(H4:H110)</f>
+        <f t="shared" ref="H111:W111" si="2">SUM(H4:H110)</f>
         <v>35.800000000000004</v>
       </c>
       <c r="I111" s="14">
-        <f>SUM(I4:I110)</f>
-        <v>13.732000000000005</v>
+        <f t="shared" si="2"/>
+        <v>14.731999999999992</v>
       </c>
       <c r="J111" s="12">
-        <f>SUM(J4:J110)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K111" s="13">
-        <f>SUM(K4:K110)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L111" s="13">
-        <f>SUM(L4:L110)</f>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="M111" s="15">
-        <f>SUM(M4:M110)</f>
+        <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N111" s="15">
-        <f>SUM(N4:N110)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O111" s="15">
-        <f>SUM(O4:O110)</f>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="P111" s="15">
-        <f>SUM(P4:P110)</f>
+        <f t="shared" si="2"/>
         <v>8.9750000000000014</v>
       </c>
       <c r="Q111" s="15">
-        <f>SUM(Q4:Q110)</f>
-        <v>1.9870000000000001</v>
+        <f t="shared" si="2"/>
+        <v>2.9870000000000001</v>
       </c>
       <c r="R111" s="15">
-        <f>SUM(R4:R110)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S111" s="15">
-        <f>SUM(S4:S110)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T111" s="15">
-        <f>SUM(T4:T110)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U111" s="15">
-        <f>SUM(U4:U110)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V111" s="15">
-        <f>SUM(V4:V110)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W111" s="15">
-        <f>SUM(W4:W110)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -8421,24 +8423,24 @@
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
-      <c r="J112" s="81" t="s">
+      <c r="J112" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="K112" s="82"/>
-      <c r="L112" s="82"/>
-      <c r="M112" s="82"/>
-      <c r="N112" s="82"/>
-      <c r="O112" s="82"/>
-      <c r="P112" s="82"/>
-      <c r="Q112" s="82"/>
-      <c r="R112" s="82"/>
-      <c r="S112" s="82"/>
-      <c r="T112" s="82"/>
-      <c r="U112" s="82"/>
-      <c r="V112" s="82"/>
-      <c r="W112" s="83"/>
-    </row>
-    <row r="113" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K112" s="98"/>
+      <c r="L112" s="98"/>
+      <c r="M112" s="98"/>
+      <c r="N112" s="98"/>
+      <c r="O112" s="98"/>
+      <c r="P112" s="98"/>
+      <c r="Q112" s="98"/>
+      <c r="R112" s="98"/>
+      <c r="S112" s="98"/>
+      <c r="T112" s="98"/>
+      <c r="U112" s="98"/>
+      <c r="V112" s="98"/>
+      <c r="W112" s="99"/>
+    </row>
+    <row r="113" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -8454,17 +8456,17 @@
       <c r="O113" s="11"/>
       <c r="P113" s="11"/>
     </row>
-    <row r="114" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
-      <c r="H114" s="81" t="s">
+      <c r="H114" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="I114" s="104"/>
+      <c r="I114" s="109"/>
       <c r="J114" s="13">
         <f>H111-J111</f>
         <v>35.800000000000004</v>
@@ -8482,47 +8484,47 @@
         <v>35.53</v>
       </c>
       <c r="N114" s="13">
-        <f t="shared" ref="N114:W114" si="2">M114-N111</f>
+        <f t="shared" ref="N114:W114" si="3">M114-N111</f>
         <v>35.53</v>
       </c>
       <c r="O114" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33.03</v>
       </c>
       <c r="P114" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.055</v>
       </c>
       <c r="Q114" s="13">
-        <f t="shared" si="2"/>
-        <v>22.067999999999998</v>
+        <f t="shared" si="3"/>
+        <v>21.067999999999998</v>
       </c>
       <c r="R114" s="13">
-        <f t="shared" si="2"/>
-        <v>22.067999999999998</v>
+        <f t="shared" si="3"/>
+        <v>21.067999999999998</v>
       </c>
       <c r="S114" s="13">
-        <f t="shared" si="2"/>
-        <v>22.067999999999998</v>
+        <f t="shared" si="3"/>
+        <v>21.067999999999998</v>
       </c>
       <c r="T114" s="13">
-        <f t="shared" si="2"/>
-        <v>22.067999999999998</v>
+        <f t="shared" si="3"/>
+        <v>21.067999999999998</v>
       </c>
       <c r="U114" s="13">
-        <f t="shared" si="2"/>
-        <v>22.067999999999998</v>
+        <f t="shared" si="3"/>
+        <v>21.067999999999998</v>
       </c>
       <c r="V114" s="13">
-        <f t="shared" si="2"/>
-        <v>22.067999999999998</v>
+        <f t="shared" si="3"/>
+        <v>21.067999999999998</v>
       </c>
       <c r="W114" s="13">
-        <f t="shared" si="2"/>
-        <v>22.067999999999998</v>
-      </c>
-    </row>
-    <row r="115" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>21.067999999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -8536,35 +8538,35 @@
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
     </row>
-    <row r="116" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
-      <c r="H116" s="81" t="s">
+      <c r="H116" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="I116" s="82"/>
-      <c r="J116" s="81">
+      <c r="I116" s="98"/>
+      <c r="J116" s="97">
         <f>H111-I111</f>
-        <v>22.067999999999998</v>
-      </c>
-      <c r="K116" s="82"/>
-      <c r="L116" s="82"/>
-      <c r="M116" s="82"/>
-      <c r="N116" s="82"/>
-      <c r="O116" s="82"/>
-      <c r="P116" s="82"/>
-      <c r="Q116" s="82"/>
-      <c r="R116" s="82"/>
-      <c r="S116" s="82"/>
-      <c r="T116" s="82"/>
-      <c r="U116" s="82"/>
-      <c r="V116" s="82"/>
-      <c r="W116" s="83"/>
-    </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.3">
+        <v>21.068000000000012</v>
+      </c>
+      <c r="K116" s="98"/>
+      <c r="L116" s="98"/>
+      <c r="M116" s="98"/>
+      <c r="N116" s="98"/>
+      <c r="O116" s="98"/>
+      <c r="P116" s="98"/>
+      <c r="Q116" s="98"/>
+      <c r="R116" s="98"/>
+      <c r="S116" s="98"/>
+      <c r="T116" s="98"/>
+      <c r="U116" s="98"/>
+      <c r="V116" s="98"/>
+      <c r="W116" s="99"/>
+    </row>
+    <row r="117" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -8578,7 +8580,7 @@
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
     </row>
-    <row r="118" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -8592,7 +8594,7 @@
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
     </row>
-    <row r="119" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -8606,57 +8608,50 @@
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
     </row>
-    <row r="120" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="9"/>
     </row>
-    <row r="123" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B123" s="9"/>
     </row>
-    <row r="124" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="9"/>
     </row>
-    <row r="125" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="9"/>
     </row>
-    <row r="126" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126" s="9"/>
     </row>
-    <row r="127" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="9"/>
     </row>
-    <row r="128" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="9"/>
     </row>
-    <row r="129" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129" s="9"/>
     </row>
-    <row r="130" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B130" s="9"/>
     </row>
-    <row r="131" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B131" s="9"/>
     </row>
-    <row r="132" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B132" s="9"/>
     </row>
-    <row r="133" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B133" s="9"/>
     </row>
-    <row r="134" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="9"/>
     </row>
-    <row r="135" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="J116:W116"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B78:B97"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="B98:B106"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H116:I116"/>
     <mergeCell ref="J2:W2"/>
     <mergeCell ref="J112:W112"/>
     <mergeCell ref="B14:B63"/>
@@ -8665,6 +8660,13 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B111:G111"/>
+    <mergeCell ref="J116:W116"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B78:B97"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="B98:B106"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H116:I116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8678,7 +8680,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8690,7 +8692,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Enti\MAP\The_Legend_of_Radev\MAP_LegendOfRadev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devildrake\Documents\MAP_LegendOfRadev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1049,7 +1049,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1312,9 +1312,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1342,39 +1375,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1393,7 +1395,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1456,31 +1458,31 @@
                   <c:v>24.055</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.067999999999998</c:v>
+                  <c:v>20.567999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.067999999999998</c:v>
+                  <c:v>20.467999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.067999999999998</c:v>
+                  <c:v>20.467999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.067999999999998</c:v>
+                  <c:v>20.467999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.067999999999998</c:v>
+                  <c:v>20.467999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.067999999999998</c:v>
+                  <c:v>20.467999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21.067999999999998</c:v>
+                  <c:v>20.467999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-08BE-4709-9DE4-AEC2E98B8D97}"/>
             </c:ext>
@@ -1495,11 +1497,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="448299040"/>
-        <c:axId val="448303936"/>
+        <c:axId val="1620211200"/>
+        <c:axId val="1620222624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="448299040"/>
+        <c:axId val="1620211200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1509,7 +1511,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="448303936"/>
+        <c:crossAx val="1620222624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1517,7 +1519,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="448303936"/>
+        <c:axId val="1620222624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1528,7 +1530,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="448299040"/>
+        <c:crossAx val="1620211200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1570,7 +1572,7 @@
         <xdr:cNvPr id="4" name="3 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1880,28 +1882,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T62" sqref="T62"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P97" sqref="P97:Q107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>118</v>
       </c>
@@ -1909,7 +1911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J2" s="97" t="s">
         <v>5</v>
       </c>
@@ -1927,7 +1929,7 @@
       <c r="V2" s="98"/>
       <c r="W2" s="99"/>
     </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="90" t="s">
         <v>7</v>
       </c>
@@ -1995,8 +1997,8 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="115" t="s">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="105" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="56" t="s">
@@ -2062,9 +2064,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="116"/>
-      <c r="C5" s="100" t="s">
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="106"/>
+      <c r="C5" s="108" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="78" t="s">
@@ -2129,9 +2131,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="116"/>
-      <c r="C6" s="118"/>
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="106"/>
+      <c r="C6" s="109"/>
       <c r="D6" s="17" t="s">
         <v>20</v>
       </c>
@@ -2194,8 +2196,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="116"/>
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="106"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
@@ -2259,8 +2261,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="116"/>
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="106"/>
       <c r="C8" s="77" t="s">
         <v>16</v>
       </c>
@@ -2324,8 +2326,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="117"/>
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="107"/>
       <c r="C9" s="36" t="s">
         <v>109</v>
       </c>
@@ -2389,8 +2391,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="113" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B10" s="103" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="94" t="s">
@@ -2434,7 +2436,9 @@
       <c r="P10" s="52">
         <v>0</v>
       </c>
-      <c r="Q10" s="34"/>
+      <c r="Q10" s="52">
+        <v>0</v>
+      </c>
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
       <c r="T10" s="34"/>
@@ -2442,8 +2446,8 @@
       <c r="V10" s="34"/>
       <c r="W10" s="35"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="113"/>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B11" s="103"/>
       <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2485,7 +2489,9 @@
       <c r="P11" s="50">
         <v>0</v>
       </c>
-      <c r="Q11" s="20"/>
+      <c r="Q11" s="50">
+        <v>0</v>
+      </c>
       <c r="R11" s="20"/>
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
@@ -2493,9 +2499,9 @@
       <c r="V11" s="20"/>
       <c r="W11" s="28"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="113"/>
-      <c r="C12" s="100" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B12" s="103"/>
+      <c r="C12" s="108" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="49" t="s">
@@ -2538,7 +2544,9 @@
       <c r="P12" s="50">
         <v>0</v>
       </c>
-      <c r="Q12" s="23"/>
+      <c r="Q12" s="50">
+        <v>0</v>
+      </c>
       <c r="R12" s="23"/>
       <c r="S12" s="23"/>
       <c r="T12" s="23"/>
@@ -2546,9 +2554,9 @@
       <c r="V12" s="23"/>
       <c r="W12" s="30"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="114"/>
-      <c r="C13" s="101"/>
+    <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="104"/>
+      <c r="C13" s="112"/>
       <c r="D13" s="37" t="s">
         <v>117</v>
       </c>
@@ -2589,7 +2597,9 @@
       <c r="P13" s="51">
         <v>0</v>
       </c>
-      <c r="Q13" s="40"/>
+      <c r="Q13" s="51">
+        <v>0</v>
+      </c>
       <c r="R13" s="40"/>
       <c r="S13" s="40"/>
       <c r="T13" s="40"/>
@@ -2597,8 +2607,8 @@
       <c r="V13" s="40"/>
       <c r="W13" s="41"/>
     </row>
-    <row r="14" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="110" t="s">
+    <row r="14" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="100" t="s">
         <v>119</v>
       </c>
       <c r="C14" s="16" t="s">
@@ -2664,8 +2674,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="110"/>
+    <row r="15" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="100"/>
       <c r="C15" s="4" t="s">
         <v>26</v>
       </c>
@@ -2729,8 +2739,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="110"/>
+    <row r="16" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="100"/>
       <c r="C16" s="4" t="s">
         <v>28</v>
       </c>
@@ -2794,8 +2804,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="110"/>
+    <row r="17" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="100"/>
       <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
@@ -2859,8 +2869,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="110"/>
+    <row r="18" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="100"/>
       <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
@@ -2924,8 +2934,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="110"/>
+    <row r="19" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="100"/>
       <c r="C19" s="4" t="s">
         <v>31</v>
       </c>
@@ -2989,8 +2999,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="110"/>
+    <row r="20" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="100"/>
       <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
@@ -3054,8 +3064,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="110"/>
+    <row r="21" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="100"/>
       <c r="C21" s="4" t="s">
         <v>33</v>
       </c>
@@ -3119,8 +3129,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="110"/>
+    <row r="22" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="100"/>
       <c r="C22" s="4" t="s">
         <v>34</v>
       </c>
@@ -3184,8 +3194,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="110"/>
+    <row r="23" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="100"/>
       <c r="C23" s="4" t="s">
         <v>35</v>
       </c>
@@ -3249,8 +3259,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="110"/>
+    <row r="24" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="100"/>
       <c r="C24" s="4" t="s">
         <v>36</v>
       </c>
@@ -3314,8 +3324,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="110"/>
+    <row r="25" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="100"/>
       <c r="C25" s="4" t="s">
         <v>37</v>
       </c>
@@ -3379,8 +3389,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="110"/>
+    <row r="26" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="100"/>
       <c r="C26" s="4" t="s">
         <v>38</v>
       </c>
@@ -3444,8 +3454,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="110"/>
+    <row r="27" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="100"/>
       <c r="C27" s="4" t="s">
         <v>39</v>
       </c>
@@ -3509,8 +3519,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="110"/>
+    <row r="28" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="100"/>
       <c r="C28" s="4" t="s">
         <v>40</v>
       </c>
@@ -3574,8 +3584,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="110"/>
+    <row r="29" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="100"/>
       <c r="C29" s="4" t="s">
         <v>41</v>
       </c>
@@ -3639,8 +3649,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="110"/>
+    <row r="30" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="100"/>
       <c r="C30" s="4" t="s">
         <v>42</v>
       </c>
@@ -3704,8 +3714,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="110"/>
+    <row r="31" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="100"/>
       <c r="C31" s="4" t="s">
         <v>43</v>
       </c>
@@ -3769,8 +3779,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="110"/>
+    <row r="32" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="100"/>
       <c r="C32" s="4" t="s">
         <v>44</v>
       </c>
@@ -3834,8 +3844,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="110"/>
+    <row r="33" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="100"/>
       <c r="C33" s="4" t="s">
         <v>45</v>
       </c>
@@ -3899,8 +3909,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="110"/>
+    <row r="34" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="100"/>
       <c r="C34" s="4" t="s">
         <v>46</v>
       </c>
@@ -3964,8 +3974,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="110"/>
+    <row r="35" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="100"/>
       <c r="C35" s="4" t="s">
         <v>47</v>
       </c>
@@ -4029,8 +4039,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="110"/>
+    <row r="36" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="100"/>
       <c r="C36" s="4" t="s">
         <v>48</v>
       </c>
@@ -4094,8 +4104,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="110"/>
+    <row r="37" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="100"/>
       <c r="C37" s="4" t="s">
         <v>49</v>
       </c>
@@ -4159,8 +4169,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="110"/>
+    <row r="38" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="100"/>
       <c r="C38" s="4" t="s">
         <v>50</v>
       </c>
@@ -4224,8 +4234,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="110"/>
+    <row r="39" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="100"/>
       <c r="C39" s="4" t="s">
         <v>51</v>
       </c>
@@ -4289,8 +4299,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="110"/>
+    <row r="40" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="100"/>
       <c r="C40" s="4" t="s">
         <v>52</v>
       </c>
@@ -4354,8 +4364,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="110"/>
+    <row r="41" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="100"/>
       <c r="C41" s="4" t="s">
         <v>53</v>
       </c>
@@ -4419,8 +4429,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="110"/>
+    <row r="42" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="100"/>
       <c r="C42" s="4" t="s">
         <v>54</v>
       </c>
@@ -4484,8 +4494,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="110"/>
+    <row r="43" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="100"/>
       <c r="C43" s="4" t="s">
         <v>55</v>
       </c>
@@ -4549,8 +4559,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="110"/>
+    <row r="44" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="100"/>
       <c r="C44" s="4" t="s">
         <v>56</v>
       </c>
@@ -4614,8 +4624,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="110"/>
+    <row r="45" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="100"/>
       <c r="C45" s="4" t="s">
         <v>57</v>
       </c>
@@ -4679,8 +4689,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="110"/>
+    <row r="46" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="100"/>
       <c r="C46" s="4" t="s">
         <v>58</v>
       </c>
@@ -4744,8 +4754,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="110"/>
+    <row r="47" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="100"/>
       <c r="C47" s="4" t="s">
         <v>59</v>
       </c>
@@ -4809,8 +4819,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="110"/>
+    <row r="48" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="100"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
@@ -4829,34 +4839,34 @@
       </c>
       <c r="I48" s="31">
         <f t="shared" si="0"/>
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="J48" s="50">
+        <v>0</v>
+      </c>
+      <c r="K48" s="50">
+        <v>0</v>
+      </c>
+      <c r="L48" s="50">
+        <v>0</v>
+      </c>
+      <c r="M48" s="50">
+        <v>0</v>
+      </c>
+      <c r="N48" s="50">
+        <v>0</v>
+      </c>
+      <c r="O48" s="50">
+        <v>0</v>
+      </c>
+      <c r="P48" s="121">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="J48" s="50">
-        <v>0</v>
-      </c>
-      <c r="K48" s="50">
-        <v>0</v>
-      </c>
-      <c r="L48" s="50">
-        <v>0</v>
-      </c>
-      <c r="M48" s="50">
-        <v>0</v>
-      </c>
-      <c r="N48" s="50">
-        <v>0</v>
-      </c>
-      <c r="O48" s="50">
-        <v>0</v>
-      </c>
-      <c r="P48" s="55">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="Q48" s="66">
-        <v>0</v>
+      <c r="Q48" s="122">
+        <v>0.5</v>
       </c>
       <c r="R48" s="66">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S48" s="66">
         <v>0</v>
@@ -4874,8 +4884,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="110"/>
+    <row r="49" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="100"/>
       <c r="C49" s="18" t="s">
         <v>61</v>
       </c>
@@ -4927,8 +4937,8 @@
       <c r="V49" s="55"/>
       <c r="W49" s="75"/>
     </row>
-    <row r="50" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="110"/>
+    <row r="50" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="100"/>
       <c r="C50" s="18" t="s">
         <v>77</v>
       </c>
@@ -4970,7 +4980,9 @@
       <c r="P50" s="50">
         <v>0</v>
       </c>
-      <c r="Q50" s="20"/>
+      <c r="Q50" s="50">
+        <v>0</v>
+      </c>
       <c r="R50" s="20"/>
       <c r="S50" s="20"/>
       <c r="T50" s="20"/>
@@ -4978,8 +4990,8 @@
       <c r="V50" s="20"/>
       <c r="W50" s="28"/>
     </row>
-    <row r="51" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="110"/>
+    <row r="51" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="100"/>
       <c r="C51" s="18" t="s">
         <v>78</v>
       </c>
@@ -5021,7 +5033,9 @@
       <c r="P51" s="50">
         <v>0</v>
       </c>
-      <c r="Q51" s="20"/>
+      <c r="Q51" s="50">
+        <v>0</v>
+      </c>
       <c r="R51" s="20"/>
       <c r="S51" s="20"/>
       <c r="T51" s="20"/>
@@ -5029,8 +5043,8 @@
       <c r="V51" s="20"/>
       <c r="W51" s="28"/>
     </row>
-    <row r="52" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="110"/>
+    <row r="52" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="100"/>
       <c r="C52" s="18" t="s">
         <v>79</v>
       </c>
@@ -5072,7 +5086,9 @@
       <c r="P52" s="50">
         <v>0</v>
       </c>
-      <c r="Q52" s="20"/>
+      <c r="Q52" s="50">
+        <v>0</v>
+      </c>
       <c r="R52" s="20"/>
       <c r="S52" s="20"/>
       <c r="T52" s="20"/>
@@ -5080,8 +5096,8 @@
       <c r="V52" s="20"/>
       <c r="W52" s="28"/>
     </row>
-    <row r="53" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="110"/>
+    <row r="53" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="100"/>
       <c r="C53" s="18" t="s">
         <v>80</v>
       </c>
@@ -5123,7 +5139,9 @@
       <c r="P53" s="50">
         <v>0</v>
       </c>
-      <c r="Q53" s="20"/>
+      <c r="Q53" s="50">
+        <v>0</v>
+      </c>
       <c r="R53" s="20"/>
       <c r="S53" s="20"/>
       <c r="T53" s="20"/>
@@ -5131,8 +5149,8 @@
       <c r="V53" s="20"/>
       <c r="W53" s="28"/>
     </row>
-    <row r="54" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="110"/>
+    <row r="54" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="100"/>
       <c r="C54" s="18" t="s">
         <v>81</v>
       </c>
@@ -5174,7 +5192,9 @@
       <c r="P54" s="50">
         <v>0</v>
       </c>
-      <c r="Q54" s="20"/>
+      <c r="Q54" s="50">
+        <v>0</v>
+      </c>
       <c r="R54" s="20"/>
       <c r="S54" s="20"/>
       <c r="T54" s="20"/>
@@ -5182,8 +5202,8 @@
       <c r="V54" s="20"/>
       <c r="W54" s="28"/>
     </row>
-    <row r="55" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="110"/>
+    <row r="55" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="100"/>
       <c r="C55" s="18" t="s">
         <v>82</v>
       </c>
@@ -5225,7 +5245,9 @@
       <c r="P55" s="50">
         <v>0</v>
       </c>
-      <c r="Q55" s="20"/>
+      <c r="Q55" s="50">
+        <v>0</v>
+      </c>
       <c r="R55" s="20"/>
       <c r="S55" s="20"/>
       <c r="T55" s="20"/>
@@ -5233,8 +5255,8 @@
       <c r="V55" s="20"/>
       <c r="W55" s="28"/>
     </row>
-    <row r="56" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="110"/>
+    <row r="56" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="100"/>
       <c r="C56" s="18" t="s">
         <v>83</v>
       </c>
@@ -5276,7 +5298,9 @@
       <c r="P56" s="50">
         <v>0</v>
       </c>
-      <c r="Q56" s="20"/>
+      <c r="Q56" s="50">
+        <v>0</v>
+      </c>
       <c r="R56" s="20"/>
       <c r="S56" s="20"/>
       <c r="T56" s="20"/>
@@ -5284,8 +5308,8 @@
       <c r="V56" s="20"/>
       <c r="W56" s="28"/>
     </row>
-    <row r="57" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="110"/>
+    <row r="57" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="100"/>
       <c r="C57" s="18" t="s">
         <v>84</v>
       </c>
@@ -5327,7 +5351,9 @@
       <c r="P57" s="50">
         <v>0</v>
       </c>
-      <c r="Q57" s="20"/>
+      <c r="Q57" s="50">
+        <v>0</v>
+      </c>
       <c r="R57" s="20"/>
       <c r="S57" s="20"/>
       <c r="T57" s="20"/>
@@ -5335,8 +5361,8 @@
       <c r="V57" s="20"/>
       <c r="W57" s="28"/>
     </row>
-    <row r="58" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="110"/>
+    <row r="58" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="100"/>
       <c r="C58" s="18" t="s">
         <v>85</v>
       </c>
@@ -5378,7 +5404,9 @@
       <c r="P58" s="50">
         <v>0</v>
       </c>
-      <c r="Q58" s="20"/>
+      <c r="Q58" s="50">
+        <v>0</v>
+      </c>
       <c r="R58" s="20"/>
       <c r="S58" s="20"/>
       <c r="T58" s="20"/>
@@ -5386,8 +5414,8 @@
       <c r="V58" s="20"/>
       <c r="W58" s="28"/>
     </row>
-    <row r="59" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="110"/>
+    <row r="59" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="100"/>
       <c r="C59" s="18" t="s">
         <v>86</v>
       </c>
@@ -5429,7 +5457,9 @@
       <c r="P59" s="50">
         <v>0</v>
       </c>
-      <c r="Q59" s="20"/>
+      <c r="Q59" s="50">
+        <v>0</v>
+      </c>
       <c r="R59" s="20"/>
       <c r="S59" s="20"/>
       <c r="T59" s="20"/>
@@ -5437,8 +5467,8 @@
       <c r="V59" s="20"/>
       <c r="W59" s="28"/>
     </row>
-    <row r="60" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="110"/>
+    <row r="60" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="100"/>
       <c r="C60" s="18" t="s">
         <v>87</v>
       </c>
@@ -5480,7 +5510,9 @@
       <c r="P60" s="50">
         <v>0</v>
       </c>
-      <c r="Q60" s="20"/>
+      <c r="Q60" s="50">
+        <v>0</v>
+      </c>
       <c r="R60" s="20"/>
       <c r="S60" s="20"/>
       <c r="T60" s="20"/>
@@ -5488,8 +5520,8 @@
       <c r="V60" s="20"/>
       <c r="W60" s="28"/>
     </row>
-    <row r="61" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="110"/>
+    <row r="61" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="100"/>
       <c r="C61" s="18" t="s">
         <v>88</v>
       </c>
@@ -5531,7 +5563,9 @@
       <c r="P61" s="50">
         <v>0</v>
       </c>
-      <c r="Q61" s="20"/>
+      <c r="Q61" s="50">
+        <v>0</v>
+      </c>
       <c r="R61" s="20"/>
       <c r="S61" s="20"/>
       <c r="T61" s="20"/>
@@ -5539,8 +5573,8 @@
       <c r="V61" s="20"/>
       <c r="W61" s="28"/>
     </row>
-    <row r="62" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="110"/>
+    <row r="62" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="100"/>
       <c r="C62" s="18" t="s">
         <v>89</v>
       </c>
@@ -5582,7 +5616,9 @@
       <c r="P62" s="50">
         <v>0</v>
       </c>
-      <c r="Q62" s="20"/>
+      <c r="Q62" s="50">
+        <v>0</v>
+      </c>
       <c r="R62" s="20"/>
       <c r="S62" s="20"/>
       <c r="T62" s="20"/>
@@ -5590,8 +5626,8 @@
       <c r="V62" s="20"/>
       <c r="W62" s="28"/>
     </row>
-    <row r="63" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="111"/>
+    <row r="63" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="101"/>
       <c r="C63" s="36" t="s">
         <v>90</v>
       </c>
@@ -5633,7 +5669,9 @@
       <c r="P63" s="51">
         <v>0</v>
       </c>
-      <c r="Q63" s="40"/>
+      <c r="Q63" s="51">
+        <v>0</v>
+      </c>
       <c r="R63" s="40"/>
       <c r="S63" s="40"/>
       <c r="T63" s="40"/>
@@ -5641,8 +5679,8 @@
       <c r="V63" s="40"/>
       <c r="W63" s="41"/>
     </row>
-    <row r="64" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="112" t="s">
+    <row r="64" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="102" t="s">
         <v>62</v>
       </c>
       <c r="C64" s="32" t="s">
@@ -5694,8 +5732,8 @@
       <c r="V64" s="66"/>
       <c r="W64" s="74"/>
     </row>
-    <row r="65" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="110"/>
+    <row r="65" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="100"/>
       <c r="C65" s="18" t="s">
         <v>64</v>
       </c>
@@ -5737,7 +5775,9 @@
       <c r="P65" s="50">
         <v>0</v>
       </c>
-      <c r="Q65" s="20"/>
+      <c r="Q65" s="50">
+        <v>0</v>
+      </c>
       <c r="R65" s="20"/>
       <c r="S65" s="20"/>
       <c r="T65" s="20"/>
@@ -5745,8 +5785,8 @@
       <c r="V65" s="20"/>
       <c r="W65" s="28"/>
     </row>
-    <row r="66" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="110"/>
+    <row r="66" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="100"/>
       <c r="C66" s="18" t="s">
         <v>65</v>
       </c>
@@ -5788,7 +5828,9 @@
       <c r="P66" s="50">
         <v>0</v>
       </c>
-      <c r="Q66" s="20"/>
+      <c r="Q66" s="50">
+        <v>0</v>
+      </c>
       <c r="R66" s="20"/>
       <c r="S66" s="20"/>
       <c r="T66" s="20"/>
@@ -5796,8 +5838,8 @@
       <c r="V66" s="20"/>
       <c r="W66" s="28"/>
     </row>
-    <row r="67" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="110"/>
+    <row r="67" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="100"/>
       <c r="C67" s="18" t="s">
         <v>66</v>
       </c>
@@ -5839,7 +5881,9 @@
       <c r="P67" s="50">
         <v>0</v>
       </c>
-      <c r="Q67" s="20"/>
+      <c r="Q67" s="50">
+        <v>0</v>
+      </c>
       <c r="R67" s="20"/>
       <c r="S67" s="20"/>
       <c r="T67" s="20"/>
@@ -5847,8 +5891,8 @@
       <c r="V67" s="20"/>
       <c r="W67" s="28"/>
     </row>
-    <row r="68" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="110"/>
+    <row r="68" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="100"/>
       <c r="C68" s="18" t="s">
         <v>67</v>
       </c>
@@ -5890,7 +5934,9 @@
       <c r="P68" s="50">
         <v>0</v>
       </c>
-      <c r="Q68" s="20"/>
+      <c r="Q68" s="50">
+        <v>0</v>
+      </c>
       <c r="R68" s="20"/>
       <c r="S68" s="20"/>
       <c r="T68" s="20"/>
@@ -5898,8 +5944,8 @@
       <c r="V68" s="20"/>
       <c r="W68" s="28"/>
     </row>
-    <row r="69" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="110"/>
+    <row r="69" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="100"/>
       <c r="C69" s="18" t="s">
         <v>68</v>
       </c>
@@ -5941,7 +5987,9 @@
       <c r="P69" s="50">
         <v>0</v>
       </c>
-      <c r="Q69" s="20"/>
+      <c r="Q69" s="50">
+        <v>0</v>
+      </c>
       <c r="R69" s="20"/>
       <c r="S69" s="20"/>
       <c r="T69" s="20"/>
@@ -5949,8 +5997,8 @@
       <c r="V69" s="20"/>
       <c r="W69" s="28"/>
     </row>
-    <row r="70" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="110"/>
+    <row r="70" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="100"/>
       <c r="C70" s="18" t="s">
         <v>69</v>
       </c>
@@ -5992,7 +6040,9 @@
       <c r="P70" s="50">
         <v>0</v>
       </c>
-      <c r="Q70" s="20"/>
+      <c r="Q70" s="50">
+        <v>0</v>
+      </c>
       <c r="R70" s="20"/>
       <c r="S70" s="20"/>
       <c r="T70" s="20"/>
@@ -6000,8 +6050,8 @@
       <c r="V70" s="20"/>
       <c r="W70" s="28"/>
     </row>
-    <row r="71" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="110"/>
+    <row r="71" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="100"/>
       <c r="C71" s="18" t="s">
         <v>70</v>
       </c>
@@ -6043,7 +6093,9 @@
       <c r="P71" s="50">
         <v>0</v>
       </c>
-      <c r="Q71" s="20"/>
+      <c r="Q71" s="50">
+        <v>0</v>
+      </c>
       <c r="R71" s="20"/>
       <c r="S71" s="20"/>
       <c r="T71" s="20"/>
@@ -6051,8 +6103,8 @@
       <c r="V71" s="20"/>
       <c r="W71" s="28"/>
     </row>
-    <row r="72" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="110"/>
+    <row r="72" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="100"/>
       <c r="C72" s="18" t="s">
         <v>71</v>
       </c>
@@ -6094,7 +6146,9 @@
       <c r="P72" s="50">
         <v>0</v>
       </c>
-      <c r="Q72" s="20"/>
+      <c r="Q72" s="50">
+        <v>0</v>
+      </c>
       <c r="R72" s="20"/>
       <c r="S72" s="20"/>
       <c r="T72" s="20"/>
@@ -6102,8 +6156,8 @@
       <c r="V72" s="20"/>
       <c r="W72" s="28"/>
     </row>
-    <row r="73" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="110"/>
+    <row r="73" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="100"/>
       <c r="C73" s="18" t="s">
         <v>72</v>
       </c>
@@ -6145,7 +6199,9 @@
       <c r="P73" s="50">
         <v>0</v>
       </c>
-      <c r="Q73" s="20"/>
+      <c r="Q73" s="50">
+        <v>0</v>
+      </c>
       <c r="R73" s="20"/>
       <c r="S73" s="20"/>
       <c r="T73" s="20"/>
@@ -6153,8 +6209,8 @@
       <c r="V73" s="20"/>
       <c r="W73" s="28"/>
     </row>
-    <row r="74" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="110"/>
+    <row r="74" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="100"/>
       <c r="C74" s="18" t="s">
         <v>73</v>
       </c>
@@ -6196,7 +6252,9 @@
       <c r="P74" s="50">
         <v>0</v>
       </c>
-      <c r="Q74" s="20"/>
+      <c r="Q74" s="50">
+        <v>0</v>
+      </c>
       <c r="R74" s="20"/>
       <c r="S74" s="20"/>
       <c r="T74" s="20"/>
@@ -6204,8 +6262,8 @@
       <c r="V74" s="20"/>
       <c r="W74" s="28"/>
     </row>
-    <row r="75" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="110"/>
+    <row r="75" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="100"/>
       <c r="C75" s="18" t="s">
         <v>74</v>
       </c>
@@ -6247,7 +6305,9 @@
       <c r="P75" s="50">
         <v>0</v>
       </c>
-      <c r="Q75" s="20"/>
+      <c r="Q75" s="50">
+        <v>0</v>
+      </c>
       <c r="R75" s="20"/>
       <c r="S75" s="20"/>
       <c r="T75" s="20"/>
@@ -6255,8 +6315,8 @@
       <c r="V75" s="20"/>
       <c r="W75" s="28"/>
     </row>
-    <row r="76" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="110"/>
+    <row r="76" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="100"/>
       <c r="C76" s="18" t="s">
         <v>75</v>
       </c>
@@ -6298,7 +6358,9 @@
       <c r="P76" s="50">
         <v>0</v>
       </c>
-      <c r="Q76" s="20"/>
+      <c r="Q76" s="50">
+        <v>0</v>
+      </c>
       <c r="R76" s="20"/>
       <c r="S76" s="20"/>
       <c r="T76" s="20"/>
@@ -6306,8 +6368,8 @@
       <c r="V76" s="20"/>
       <c r="W76" s="28"/>
     </row>
-    <row r="77" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="111"/>
+    <row r="77" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="101"/>
       <c r="C77" s="36" t="s">
         <v>76</v>
       </c>
@@ -6349,7 +6411,9 @@
       <c r="P77" s="51">
         <v>0</v>
       </c>
-      <c r="Q77" s="40"/>
+      <c r="Q77" s="51">
+        <v>0</v>
+      </c>
       <c r="R77" s="40"/>
       <c r="S77" s="40"/>
       <c r="T77" s="40"/>
@@ -6357,8 +6421,8 @@
       <c r="V77" s="40"/>
       <c r="W77" s="41"/>
     </row>
-    <row r="78" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="102" t="s">
+    <row r="78" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="113" t="s">
         <v>91</v>
       </c>
       <c r="C78" s="6" t="s">
@@ -6424,8 +6488,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="103"/>
+    <row r="79" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="114"/>
       <c r="C79" s="4" t="s">
         <v>26</v>
       </c>
@@ -6489,8 +6553,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="103"/>
+    <row r="80" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="114"/>
       <c r="C80" s="4" t="s">
         <v>28</v>
       </c>
@@ -6554,8 +6618,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="103"/>
+    <row r="81" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="114"/>
       <c r="C81" s="4" t="s">
         <v>29</v>
       </c>
@@ -6619,8 +6683,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="103"/>
+    <row r="82" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="114"/>
       <c r="C82" s="4" t="s">
         <v>30</v>
       </c>
@@ -6684,8 +6748,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="103"/>
+    <row r="83" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="114"/>
       <c r="C83" s="4" t="s">
         <v>31</v>
       </c>
@@ -6749,8 +6813,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="103"/>
+    <row r="84" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="114"/>
       <c r="C84" s="4" t="s">
         <v>32</v>
       </c>
@@ -6814,8 +6878,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="103"/>
+    <row r="85" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="114"/>
       <c r="C85" s="4" t="s">
         <v>33</v>
       </c>
@@ -6879,8 +6943,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="103"/>
+    <row r="86" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="114"/>
       <c r="C86" s="4" t="s">
         <v>34</v>
       </c>
@@ -6944,8 +7008,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="103"/>
+    <row r="87" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="114"/>
       <c r="C87" s="4" t="s">
         <v>35</v>
       </c>
@@ -7009,8 +7073,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="103"/>
+    <row r="88" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="114"/>
       <c r="C88" s="4" t="s">
         <v>36</v>
       </c>
@@ -7074,8 +7138,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="103"/>
+    <row r="89" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="114"/>
       <c r="C89" s="4" t="s">
         <v>37</v>
       </c>
@@ -7139,8 +7203,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="103"/>
+    <row r="90" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="114"/>
       <c r="C90" s="4" t="s">
         <v>38</v>
       </c>
@@ -7204,8 +7268,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="103"/>
+    <row r="91" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="114"/>
       <c r="C91" s="4" t="s">
         <v>39</v>
       </c>
@@ -7269,8 +7333,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="103"/>
+    <row r="92" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="114"/>
       <c r="C92" s="4" t="s">
         <v>40</v>
       </c>
@@ -7334,8 +7398,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="103"/>
+    <row r="93" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="114"/>
       <c r="C93" s="4" t="s">
         <v>41</v>
       </c>
@@ -7399,8 +7463,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="103"/>
+    <row r="94" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="114"/>
       <c r="C94" s="4" t="s">
         <v>120</v>
       </c>
@@ -7464,8 +7528,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="103"/>
+    <row r="95" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="114"/>
       <c r="C95" s="4" t="s">
         <v>121</v>
       </c>
@@ -7529,8 +7593,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="103"/>
+    <row r="96" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="114"/>
       <c r="C96" s="4" t="s">
         <v>42</v>
       </c>
@@ -7594,8 +7658,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="104"/>
+    <row r="97" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="115"/>
       <c r="C97" s="36" t="s">
         <v>92</v>
       </c>
@@ -7637,7 +7701,9 @@
       <c r="P97" s="51">
         <v>0</v>
       </c>
-      <c r="Q97" s="40"/>
+      <c r="Q97" s="51">
+        <v>0</v>
+      </c>
       <c r="R97" s="40"/>
       <c r="S97" s="40"/>
       <c r="T97" s="40"/>
@@ -7645,11 +7711,11 @@
       <c r="V97" s="40"/>
       <c r="W97" s="41"/>
     </row>
-    <row r="98" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="107" t="s">
+    <row r="98" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="C98" s="105" t="s">
+      <c r="C98" s="116" t="s">
         <v>94</v>
       </c>
       <c r="D98" s="6" t="s">
@@ -7692,7 +7758,9 @@
       <c r="P98" s="52">
         <v>0</v>
       </c>
-      <c r="Q98" s="34"/>
+      <c r="Q98" s="52">
+        <v>0</v>
+      </c>
       <c r="R98" s="34"/>
       <c r="S98" s="34"/>
       <c r="T98" s="34"/>
@@ -7700,9 +7768,9 @@
       <c r="V98" s="34"/>
       <c r="W98" s="35"/>
     </row>
-    <row r="99" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="107"/>
-      <c r="C99" s="106"/>
+    <row r="99" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="118"/>
+      <c r="C99" s="117"/>
       <c r="D99" s="4" t="s">
         <v>96</v>
       </c>
@@ -7743,7 +7811,9 @@
       <c r="P99" s="50">
         <v>0</v>
       </c>
-      <c r="Q99" s="20"/>
+      <c r="Q99" s="50">
+        <v>0</v>
+      </c>
       <c r="R99" s="20"/>
       <c r="S99" s="20"/>
       <c r="T99" s="20"/>
@@ -7751,9 +7821,9 @@
       <c r="V99" s="20"/>
       <c r="W99" s="28"/>
     </row>
-    <row r="100" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="107"/>
-      <c r="C100" s="106"/>
+    <row r="100" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="118"/>
+      <c r="C100" s="117"/>
       <c r="D100" s="4" t="s">
         <v>97</v>
       </c>
@@ -7794,7 +7864,9 @@
       <c r="P100" s="50">
         <v>0</v>
       </c>
-      <c r="Q100" s="20"/>
+      <c r="Q100" s="50">
+        <v>0</v>
+      </c>
       <c r="R100" s="20"/>
       <c r="S100" s="20"/>
       <c r="T100" s="20"/>
@@ -7802,8 +7874,8 @@
       <c r="V100" s="20"/>
       <c r="W100" s="28"/>
     </row>
-    <row r="101" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="107"/>
+    <row r="101" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="118"/>
       <c r="C101" s="18" t="s">
         <v>115</v>
       </c>
@@ -7845,7 +7917,9 @@
       <c r="P101" s="50">
         <v>0</v>
       </c>
-      <c r="Q101" s="20"/>
+      <c r="Q101" s="50">
+        <v>0</v>
+      </c>
       <c r="R101" s="20"/>
       <c r="S101" s="20"/>
       <c r="T101" s="20"/>
@@ -7853,8 +7927,8 @@
       <c r="V101" s="20"/>
       <c r="W101" s="28"/>
     </row>
-    <row r="102" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="107"/>
+    <row r="102" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="118"/>
       <c r="C102" s="18" t="s">
         <v>98</v>
       </c>
@@ -7896,7 +7970,9 @@
       <c r="P102" s="50">
         <v>0</v>
       </c>
-      <c r="Q102" s="20"/>
+      <c r="Q102" s="50">
+        <v>0</v>
+      </c>
       <c r="R102" s="20"/>
       <c r="S102" s="20"/>
       <c r="T102" s="20"/>
@@ -7904,8 +7980,8 @@
       <c r="V102" s="20"/>
       <c r="W102" s="28"/>
     </row>
-    <row r="103" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="107"/>
+    <row r="103" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B103" s="118"/>
       <c r="C103" s="18" t="s">
         <v>99</v>
       </c>
@@ -7947,7 +8023,9 @@
       <c r="P103" s="50">
         <v>0</v>
       </c>
-      <c r="Q103" s="20"/>
+      <c r="Q103" s="50">
+        <v>0</v>
+      </c>
       <c r="R103" s="20"/>
       <c r="S103" s="20"/>
       <c r="T103" s="20"/>
@@ -7955,8 +8033,8 @@
       <c r="V103" s="20"/>
       <c r="W103" s="28"/>
     </row>
-    <row r="104" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="107"/>
+    <row r="104" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B104" s="118"/>
       <c r="C104" s="18" t="s">
         <v>100</v>
       </c>
@@ -7998,7 +8076,9 @@
       <c r="P104" s="50">
         <v>0</v>
       </c>
-      <c r="Q104" s="20"/>
+      <c r="Q104" s="50">
+        <v>0</v>
+      </c>
       <c r="R104" s="20"/>
       <c r="S104" s="20"/>
       <c r="T104" s="20"/>
@@ -8006,8 +8086,8 @@
       <c r="V104" s="20"/>
       <c r="W104" s="28"/>
     </row>
-    <row r="105" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="107"/>
+    <row r="105" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B105" s="118"/>
       <c r="C105" s="18" t="s">
         <v>101</v>
       </c>
@@ -8049,7 +8129,9 @@
       <c r="P105" s="50">
         <v>0</v>
       </c>
-      <c r="Q105" s="20"/>
+      <c r="Q105" s="50">
+        <v>0</v>
+      </c>
       <c r="R105" s="20"/>
       <c r="S105" s="20"/>
       <c r="T105" s="20"/>
@@ -8057,8 +8139,8 @@
       <c r="V105" s="20"/>
       <c r="W105" s="28"/>
     </row>
-    <row r="106" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="108"/>
+    <row r="106" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B106" s="119"/>
       <c r="C106" s="18" t="s">
         <v>102</v>
       </c>
@@ -8100,7 +8182,9 @@
       <c r="P106" s="50">
         <v>0</v>
       </c>
-      <c r="Q106" s="20"/>
+      <c r="Q106" s="50">
+        <v>0</v>
+      </c>
       <c r="R106" s="20"/>
       <c r="S106" s="20"/>
       <c r="T106" s="20"/>
@@ -8108,7 +8192,7 @@
       <c r="V106" s="20"/>
       <c r="W106" s="28"/>
     </row>
-    <row r="107" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B107" s="29" t="s">
         <v>103</v>
       </c>
@@ -8153,7 +8237,9 @@
       <c r="P107" s="50">
         <v>0</v>
       </c>
-      <c r="Q107" s="20"/>
+      <c r="Q107" s="50">
+        <v>0</v>
+      </c>
       <c r="R107" s="20"/>
       <c r="S107" s="20"/>
       <c r="T107" s="20"/>
@@ -8161,7 +8247,7 @@
       <c r="V107" s="20"/>
       <c r="W107" s="28"/>
     </row>
-    <row r="108" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B108" s="29" t="s">
         <v>111</v>
       </c>
@@ -8210,7 +8296,7 @@
       <c r="V108" s="55"/>
       <c r="W108" s="75"/>
     </row>
-    <row r="109" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B109" s="29" t="s">
         <v>112</v>
       </c>
@@ -8275,7 +8361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B110" s="19" t="s">
         <v>113</v>
       </c>
@@ -8340,22 +8426,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="119" t="s">
+    <row r="111" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B111" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="C111" s="120"/>
-      <c r="D111" s="120"/>
-      <c r="E111" s="120"/>
-      <c r="F111" s="120"/>
-      <c r="G111" s="120"/>
+      <c r="C111" s="111"/>
+      <c r="D111" s="111"/>
+      <c r="E111" s="111"/>
+      <c r="F111" s="111"/>
+      <c r="G111" s="111"/>
       <c r="H111" s="27">
         <f t="shared" ref="H111:W111" si="2">SUM(H4:H110)</f>
         <v>35.800000000000004</v>
       </c>
       <c r="I111" s="14">
         <f t="shared" si="2"/>
-        <v>14.731999999999992</v>
+        <v>15.331999999999992</v>
       </c>
       <c r="J111" s="12">
         <f t="shared" si="2"/>
@@ -8387,11 +8473,11 @@
       </c>
       <c r="Q111" s="15">
         <f t="shared" si="2"/>
-        <v>2.9870000000000001</v>
+        <v>3.4870000000000001</v>
       </c>
       <c r="R111" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S111" s="15">
         <f t="shared" si="2"/>
@@ -8414,7 +8500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -8440,7 +8526,7 @@
       <c r="V112" s="98"/>
       <c r="W112" s="99"/>
     </row>
-    <row r="113" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -8456,7 +8542,7 @@
       <c r="O113" s="11"/>
       <c r="P113" s="11"/>
     </row>
-    <row r="114" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -8466,7 +8552,7 @@
       <c r="H114" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="I114" s="109"/>
+      <c r="I114" s="120"/>
       <c r="J114" s="13">
         <f>H111-J111</f>
         <v>35.800000000000004</v>
@@ -8497,34 +8583,34 @@
       </c>
       <c r="Q114" s="13">
         <f t="shared" si="3"/>
-        <v>21.067999999999998</v>
+        <v>20.567999999999998</v>
       </c>
       <c r="R114" s="13">
         <f t="shared" si="3"/>
-        <v>21.067999999999998</v>
+        <v>20.467999999999996</v>
       </c>
       <c r="S114" s="13">
         <f t="shared" si="3"/>
-        <v>21.067999999999998</v>
+        <v>20.467999999999996</v>
       </c>
       <c r="T114" s="13">
         <f t="shared" si="3"/>
-        <v>21.067999999999998</v>
+        <v>20.467999999999996</v>
       </c>
       <c r="U114" s="13">
         <f t="shared" si="3"/>
-        <v>21.067999999999998</v>
+        <v>20.467999999999996</v>
       </c>
       <c r="V114" s="13">
         <f t="shared" si="3"/>
-        <v>21.067999999999998</v>
+        <v>20.467999999999996</v>
       </c>
       <c r="W114" s="13">
         <f t="shared" si="3"/>
-        <v>21.067999999999998</v>
-      </c>
-    </row>
-    <row r="115" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>20.467999999999996</v>
+      </c>
+    </row>
+    <row r="115" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -8538,7 +8624,7 @@
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
     </row>
-    <row r="116" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -8550,7 +8636,7 @@
       <c r="I116" s="98"/>
       <c r="J116" s="97">
         <f>H111-I111</f>
-        <v>21.068000000000012</v>
+        <v>20.468000000000011</v>
       </c>
       <c r="K116" s="98"/>
       <c r="L116" s="98"/>
@@ -8566,7 +8652,7 @@
       <c r="V116" s="98"/>
       <c r="W116" s="99"/>
     </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -8580,7 +8666,7 @@
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
     </row>
-    <row r="118" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -8594,7 +8680,7 @@
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
     </row>
-    <row r="119" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -8608,50 +8694,57 @@
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
     </row>
-    <row r="120" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B122" s="9"/>
     </row>
-    <row r="123" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B123" s="9"/>
     </row>
-    <row r="124" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B124" s="9"/>
     </row>
-    <row r="125" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B125" s="9"/>
     </row>
-    <row r="126" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
     </row>
-    <row r="127" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B127" s="9"/>
     </row>
-    <row r="128" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B128" s="9"/>
     </row>
-    <row r="129" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B129" s="9"/>
     </row>
-    <row r="130" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B130" s="9"/>
     </row>
-    <row r="131" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B131" s="9"/>
     </row>
-    <row r="132" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B132" s="9"/>
     </row>
-    <row r="133" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B133" s="9"/>
     </row>
-    <row r="134" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B134" s="9"/>
     </row>
-    <row r="135" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="J116:W116"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B78:B97"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="B98:B106"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H116:I116"/>
     <mergeCell ref="J2:W2"/>
     <mergeCell ref="J112:W112"/>
     <mergeCell ref="B14:B63"/>
@@ -8660,13 +8753,6 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B111:G111"/>
-    <mergeCell ref="J116:W116"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B78:B97"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="B98:B106"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H116:I116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8680,7 +8766,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8692,7 +8778,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
@@ -1049,7 +1049,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1244,7 +1244,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1303,6 +1302,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1312,6 +1313,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1336,9 +1367,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1348,35 +1376,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1461,22 +1469,22 @@
                   <c:v>20.567999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.467999999999996</c:v>
+                  <c:v>17.997999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.467999999999996</c:v>
+                  <c:v>17.997999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.467999999999996</c:v>
+                  <c:v>17.997999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.467999999999996</c:v>
+                  <c:v>17.997999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.467999999999996</c:v>
+                  <c:v>17.997999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.467999999999996</c:v>
+                  <c:v>17.997999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1497,11 +1505,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1620211200"/>
-        <c:axId val="1620222624"/>
+        <c:axId val="-198824704"/>
+        <c:axId val="-198839936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1620211200"/>
+        <c:axId val="-198824704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1511,7 +1519,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1620222624"/>
+        <c:crossAx val="-198839936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1519,7 +1527,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1620222624"/>
+        <c:axId val="-198839936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1530,7 +1538,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1620211200"/>
+        <c:crossAx val="-198824704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1572,7 +1580,7 @@
         <xdr:cNvPr id="4" name="3 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1883,7 +1891,7 @@
   <dimension ref="A1:W135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P97" sqref="P97:Q107"/>
+      <selection activeCell="Q64" sqref="Q64:W64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1912,93 +1920,93 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="97" t="s">
+      <c r="J2" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="100"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="91" t="s">
+      <c r="C3" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="91" t="s">
+      <c r="E3" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="91" t="s">
+      <c r="F3" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="91" t="s">
+      <c r="G3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="91" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="93">
+      <c r="J3" s="92">
         <v>43040</v>
       </c>
-      <c r="K3" s="89">
+      <c r="K3" s="88">
         <v>43041</v>
       </c>
-      <c r="L3" s="88">
+      <c r="L3" s="87">
         <v>43042</v>
       </c>
-      <c r="M3" s="89">
+      <c r="M3" s="88">
         <v>43043</v>
       </c>
-      <c r="N3" s="88">
+      <c r="N3" s="87">
         <v>43044</v>
       </c>
-      <c r="O3" s="89">
+      <c r="O3" s="88">
         <v>43045</v>
       </c>
-      <c r="P3" s="88">
+      <c r="P3" s="87">
         <v>43046</v>
       </c>
-      <c r="Q3" s="89">
+      <c r="Q3" s="88">
         <v>43047</v>
       </c>
-      <c r="R3" s="88">
+      <c r="R3" s="87">
         <v>43048</v>
       </c>
-      <c r="S3" s="89">
+      <c r="S3" s="88">
         <v>43049</v>
       </c>
-      <c r="T3" s="88">
+      <c r="T3" s="87">
         <v>43050</v>
       </c>
-      <c r="U3" s="89">
+      <c r="U3" s="88">
         <v>43051</v>
       </c>
-      <c r="V3" s="88">
+      <c r="V3" s="87">
         <v>43052</v>
       </c>
-      <c r="W3" s="89">
+      <c r="W3" s="88">
         <v>43053</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="116" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="56" t="s">
@@ -2042,34 +2050,34 @@
       <c r="P4" s="59">
         <v>0</v>
       </c>
-      <c r="Q4" s="79">
+      <c r="Q4" s="78">
         <v>0.05</v>
       </c>
-      <c r="R4" s="82">
-        <v>0</v>
-      </c>
-      <c r="S4" s="82">
-        <v>0</v>
-      </c>
-      <c r="T4" s="82">
-        <v>0</v>
-      </c>
-      <c r="U4" s="82">
-        <v>0</v>
-      </c>
-      <c r="V4" s="82">
-        <v>0</v>
-      </c>
-      <c r="W4" s="83">
+      <c r="R4" s="81">
+        <v>0</v>
+      </c>
+      <c r="S4" s="81">
+        <v>0</v>
+      </c>
+      <c r="T4" s="81">
+        <v>0</v>
+      </c>
+      <c r="U4" s="81">
+        <v>0</v>
+      </c>
+      <c r="V4" s="81">
+        <v>0</v>
+      </c>
+      <c r="W4" s="82">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="106"/>
-      <c r="C5" s="108" t="s">
+      <c r="B5" s="117"/>
+      <c r="C5" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="77" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -2078,7 +2086,7 @@
       <c r="F5" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="78">
+      <c r="G5" s="77">
         <v>3</v>
       </c>
       <c r="H5" s="24">
@@ -2109,31 +2117,31 @@
       <c r="P5" s="50">
         <v>0</v>
       </c>
-      <c r="Q5" s="80">
+      <c r="Q5" s="79">
         <v>0.5</v>
       </c>
-      <c r="R5" s="84">
-        <v>0</v>
-      </c>
-      <c r="S5" s="84">
-        <v>0</v>
-      </c>
-      <c r="T5" s="84">
-        <v>0</v>
-      </c>
-      <c r="U5" s="84">
-        <v>0</v>
-      </c>
-      <c r="V5" s="84">
-        <v>0</v>
-      </c>
-      <c r="W5" s="85">
+      <c r="R5" s="83">
+        <v>0</v>
+      </c>
+      <c r="S5" s="83">
+        <v>0</v>
+      </c>
+      <c r="T5" s="83">
+        <v>0</v>
+      </c>
+      <c r="U5" s="83">
+        <v>0</v>
+      </c>
+      <c r="V5" s="83">
+        <v>0</v>
+      </c>
+      <c r="W5" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="106"/>
-      <c r="C6" s="109"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="119"/>
       <c r="D6" s="17" t="s">
         <v>20</v>
       </c>
@@ -2143,7 +2151,7 @@
       <c r="F6" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="78">
+      <c r="G6" s="77">
         <v>3</v>
       </c>
       <c r="H6" s="24">
@@ -2174,30 +2182,30 @@
       <c r="P6" s="50">
         <v>0</v>
       </c>
-      <c r="Q6" s="80">
+      <c r="Q6" s="79">
         <v>0.1</v>
       </c>
-      <c r="R6" s="84">
-        <v>0</v>
-      </c>
-      <c r="S6" s="84">
-        <v>0</v>
-      </c>
-      <c r="T6" s="84">
-        <v>0</v>
-      </c>
-      <c r="U6" s="84">
-        <v>0</v>
-      </c>
-      <c r="V6" s="84">
-        <v>0</v>
-      </c>
-      <c r="W6" s="85">
+      <c r="R6" s="83">
+        <v>0</v>
+      </c>
+      <c r="S6" s="83">
+        <v>0</v>
+      </c>
+      <c r="T6" s="83">
+        <v>0</v>
+      </c>
+      <c r="U6" s="83">
+        <v>0</v>
+      </c>
+      <c r="V6" s="83">
+        <v>0</v>
+      </c>
+      <c r="W6" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="106"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
@@ -2208,7 +2216,7 @@
       <c r="F7" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="78">
+      <c r="G7" s="77">
         <v>3</v>
       </c>
       <c r="H7" s="24">
@@ -2239,41 +2247,41 @@
       <c r="P7" s="50">
         <v>0</v>
       </c>
-      <c r="Q7" s="80">
+      <c r="Q7" s="79">
         <v>0.68700000000000006</v>
       </c>
-      <c r="R7" s="84">
-        <v>0</v>
-      </c>
-      <c r="S7" s="84">
-        <v>0</v>
-      </c>
-      <c r="T7" s="84">
-        <v>0</v>
-      </c>
-      <c r="U7" s="84">
-        <v>0</v>
-      </c>
-      <c r="V7" s="84">
-        <v>0</v>
-      </c>
-      <c r="W7" s="85">
+      <c r="R7" s="83">
+        <v>0</v>
+      </c>
+      <c r="S7" s="83">
+        <v>0</v>
+      </c>
+      <c r="T7" s="83">
+        <v>0</v>
+      </c>
+      <c r="U7" s="83">
+        <v>0</v>
+      </c>
+      <c r="V7" s="83">
+        <v>0</v>
+      </c>
+      <c r="W7" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="106"/>
-      <c r="C8" s="77" t="s">
+      <c r="B8" s="117"/>
+      <c r="C8" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="77"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="7" t="s">
         <v>108</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="78">
+      <c r="G8" s="77">
         <v>3</v>
       </c>
       <c r="H8" s="24">
@@ -2304,30 +2312,30 @@
       <c r="P8" s="50">
         <v>0</v>
       </c>
-      <c r="Q8" s="80">
-        <v>0.25</v>
-      </c>
-      <c r="R8" s="84">
-        <v>0</v>
-      </c>
-      <c r="S8" s="84">
-        <v>0</v>
-      </c>
-      <c r="T8" s="84">
-        <v>0</v>
-      </c>
-      <c r="U8" s="84">
-        <v>0</v>
-      </c>
-      <c r="V8" s="84">
-        <v>0</v>
-      </c>
-      <c r="W8" s="85">
+      <c r="Q8" s="79">
+        <v>0.25</v>
+      </c>
+      <c r="R8" s="83">
+        <v>0</v>
+      </c>
+      <c r="S8" s="83">
+        <v>0</v>
+      </c>
+      <c r="T8" s="83">
+        <v>0</v>
+      </c>
+      <c r="U8" s="83">
+        <v>0</v>
+      </c>
+      <c r="V8" s="83">
+        <v>0</v>
+      </c>
+      <c r="W8" s="84">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="107"/>
+      <c r="B9" s="118"/>
       <c r="C9" s="36" t="s">
         <v>109</v>
       </c>
@@ -2344,7 +2352,7 @@
       <c r="H9" s="43">
         <v>2</v>
       </c>
-      <c r="I9" s="76">
+      <c r="I9" s="75">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
@@ -2369,53 +2377,53 @@
       <c r="P9" s="51">
         <v>0</v>
       </c>
-      <c r="Q9" s="81">
+      <c r="Q9" s="80">
         <v>0.4</v>
       </c>
-      <c r="R9" s="86">
-        <v>0</v>
-      </c>
-      <c r="S9" s="86">
-        <v>0</v>
-      </c>
-      <c r="T9" s="86">
-        <v>0</v>
-      </c>
-      <c r="U9" s="86">
-        <v>0</v>
-      </c>
-      <c r="V9" s="86">
-        <v>0</v>
-      </c>
-      <c r="W9" s="87">
+      <c r="R9" s="85">
+        <v>0</v>
+      </c>
+      <c r="S9" s="85">
+        <v>0</v>
+      </c>
+      <c r="T9" s="85">
+        <v>0</v>
+      </c>
+      <c r="U9" s="85">
+        <v>0</v>
+      </c>
+      <c r="V9" s="85">
+        <v>0</v>
+      </c>
+      <c r="W9" s="86">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="78"/>
+      <c r="D10" s="77"/>
       <c r="E10" s="7" t="s">
         <v>108</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G10" s="78">
+      <c r="G10" s="77">
         <v>3</v>
       </c>
       <c r="H10" s="24">
         <v>1</v>
       </c>
-      <c r="I10" s="95">
+      <c r="I10" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="96">
+      <c r="J10" s="95">
         <v>0</v>
       </c>
       <c r="K10" s="52">
@@ -2447,7 +2455,7 @@
       <c r="W10" s="35"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B11" s="103"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2500,8 +2508,8 @@
       <c r="W11" s="28"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B12" s="103"/>
-      <c r="C12" s="108" t="s">
+      <c r="B12" s="114"/>
+      <c r="C12" s="101" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="49" t="s">
@@ -2555,8 +2563,8 @@
       <c r="W12" s="30"/>
     </row>
     <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="104"/>
-      <c r="C13" s="112"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="37" t="s">
         <v>117</v>
       </c>
@@ -2608,7 +2616,7 @@
       <c r="W13" s="41"/>
     </row>
     <row r="14" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="111" t="s">
         <v>119</v>
       </c>
       <c r="C14" s="16" t="s">
@@ -2675,7 +2683,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="100"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="4" t="s">
         <v>26</v>
       </c>
@@ -2740,7 +2748,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="100"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="4" t="s">
         <v>28</v>
       </c>
@@ -2805,7 +2813,7 @@
       </c>
     </row>
     <row r="17" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="100"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
@@ -2870,7 +2878,7 @@
       </c>
     </row>
     <row r="18" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="100"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
@@ -2935,7 +2943,7 @@
       </c>
     </row>
     <row r="19" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="100"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="4" t="s">
         <v>31</v>
       </c>
@@ -3000,7 +3008,7 @@
       </c>
     </row>
     <row r="20" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="100"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
@@ -3065,7 +3073,7 @@
       </c>
     </row>
     <row r="21" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="100"/>
+      <c r="B21" s="111"/>
       <c r="C21" s="4" t="s">
         <v>33</v>
       </c>
@@ -3130,7 +3138,7 @@
       </c>
     </row>
     <row r="22" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="100"/>
+      <c r="B22" s="111"/>
       <c r="C22" s="4" t="s">
         <v>34</v>
       </c>
@@ -3195,7 +3203,7 @@
       </c>
     </row>
     <row r="23" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="100"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="4" t="s">
         <v>35</v>
       </c>
@@ -3260,7 +3268,7 @@
       </c>
     </row>
     <row r="24" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="100"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="4" t="s">
         <v>36</v>
       </c>
@@ -3325,7 +3333,7 @@
       </c>
     </row>
     <row r="25" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="100"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="4" t="s">
         <v>37</v>
       </c>
@@ -3390,7 +3398,7 @@
       </c>
     </row>
     <row r="26" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="100"/>
+      <c r="B26" s="111"/>
       <c r="C26" s="4" t="s">
         <v>38</v>
       </c>
@@ -3455,7 +3463,7 @@
       </c>
     </row>
     <row r="27" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="100"/>
+      <c r="B27" s="111"/>
       <c r="C27" s="4" t="s">
         <v>39</v>
       </c>
@@ -3520,7 +3528,7 @@
       </c>
     </row>
     <row r="28" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="100"/>
+      <c r="B28" s="111"/>
       <c r="C28" s="4" t="s">
         <v>40</v>
       </c>
@@ -3585,7 +3593,7 @@
       </c>
     </row>
     <row r="29" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="100"/>
+      <c r="B29" s="111"/>
       <c r="C29" s="4" t="s">
         <v>41</v>
       </c>
@@ -3650,7 +3658,7 @@
       </c>
     </row>
     <row r="30" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="100"/>
+      <c r="B30" s="111"/>
       <c r="C30" s="4" t="s">
         <v>42</v>
       </c>
@@ -3715,7 +3723,7 @@
       </c>
     </row>
     <row r="31" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="100"/>
+      <c r="B31" s="111"/>
       <c r="C31" s="4" t="s">
         <v>43</v>
       </c>
@@ -3780,7 +3788,7 @@
       </c>
     </row>
     <row r="32" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="100"/>
+      <c r="B32" s="111"/>
       <c r="C32" s="4" t="s">
         <v>44</v>
       </c>
@@ -3845,7 +3853,7 @@
       </c>
     </row>
     <row r="33" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="100"/>
+      <c r="B33" s="111"/>
       <c r="C33" s="4" t="s">
         <v>45</v>
       </c>
@@ -3910,7 +3918,7 @@
       </c>
     </row>
     <row r="34" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="100"/>
+      <c r="B34" s="111"/>
       <c r="C34" s="4" t="s">
         <v>46</v>
       </c>
@@ -3975,7 +3983,7 @@
       </c>
     </row>
     <row r="35" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="100"/>
+      <c r="B35" s="111"/>
       <c r="C35" s="4" t="s">
         <v>47</v>
       </c>
@@ -4040,7 +4048,7 @@
       </c>
     </row>
     <row r="36" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="100"/>
+      <c r="B36" s="111"/>
       <c r="C36" s="4" t="s">
         <v>48</v>
       </c>
@@ -4105,7 +4113,7 @@
       </c>
     </row>
     <row r="37" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="100"/>
+      <c r="B37" s="111"/>
       <c r="C37" s="4" t="s">
         <v>49</v>
       </c>
@@ -4170,7 +4178,7 @@
       </c>
     </row>
     <row r="38" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="100"/>
+      <c r="B38" s="111"/>
       <c r="C38" s="4" t="s">
         <v>50</v>
       </c>
@@ -4235,7 +4243,7 @@
       </c>
     </row>
     <row r="39" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="100"/>
+      <c r="B39" s="111"/>
       <c r="C39" s="4" t="s">
         <v>51</v>
       </c>
@@ -4300,7 +4308,7 @@
       </c>
     </row>
     <row r="40" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="100"/>
+      <c r="B40" s="111"/>
       <c r="C40" s="4" t="s">
         <v>52</v>
       </c>
@@ -4365,7 +4373,7 @@
       </c>
     </row>
     <row r="41" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="100"/>
+      <c r="B41" s="111"/>
       <c r="C41" s="4" t="s">
         <v>53</v>
       </c>
@@ -4430,7 +4438,7 @@
       </c>
     </row>
     <row r="42" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="100"/>
+      <c r="B42" s="111"/>
       <c r="C42" s="4" t="s">
         <v>54</v>
       </c>
@@ -4495,7 +4503,7 @@
       </c>
     </row>
     <row r="43" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="100"/>
+      <c r="B43" s="111"/>
       <c r="C43" s="4" t="s">
         <v>55</v>
       </c>
@@ -4560,7 +4568,7 @@
       </c>
     </row>
     <row r="44" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="100"/>
+      <c r="B44" s="111"/>
       <c r="C44" s="4" t="s">
         <v>56</v>
       </c>
@@ -4625,7 +4633,7 @@
       </c>
     </row>
     <row r="45" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="100"/>
+      <c r="B45" s="111"/>
       <c r="C45" s="4" t="s">
         <v>57</v>
       </c>
@@ -4690,7 +4698,7 @@
       </c>
     </row>
     <row r="46" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="100"/>
+      <c r="B46" s="111"/>
       <c r="C46" s="4" t="s">
         <v>58</v>
       </c>
@@ -4755,7 +4763,7 @@
       </c>
     </row>
     <row r="47" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="100"/>
+      <c r="B47" s="111"/>
       <c r="C47" s="4" t="s">
         <v>59</v>
       </c>
@@ -4820,7 +4828,7 @@
       </c>
     </row>
     <row r="48" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="100"/>
+      <c r="B48" s="111"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
@@ -4859,10 +4867,10 @@
       <c r="O48" s="50">
         <v>0</v>
       </c>
-      <c r="P48" s="121">
+      <c r="P48" s="96">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="Q48" s="122">
+      <c r="Q48" s="97">
         <v>0.5</v>
       </c>
       <c r="R48" s="66">
@@ -4885,7 +4893,7 @@
       </c>
     </row>
     <row r="49" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="100"/>
+      <c r="B49" s="111"/>
       <c r="C49" s="18" t="s">
         <v>61</v>
       </c>
@@ -4927,18 +4935,30 @@
       <c r="P49" s="50">
         <v>0</v>
       </c>
-      <c r="Q49" s="55">
+      <c r="Q49" s="67">
         <v>1</v>
       </c>
-      <c r="R49" s="55"/>
-      <c r="S49" s="55"/>
-      <c r="T49" s="55"/>
-      <c r="U49" s="55"/>
-      <c r="V49" s="55"/>
-      <c r="W49" s="75"/>
+      <c r="R49" s="55">
+        <v>0</v>
+      </c>
+      <c r="S49" s="55">
+        <v>0</v>
+      </c>
+      <c r="T49" s="55">
+        <v>0</v>
+      </c>
+      <c r="U49" s="55">
+        <v>0</v>
+      </c>
+      <c r="V49" s="55">
+        <v>0</v>
+      </c>
+      <c r="W49" s="55">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="100"/>
+      <c r="B50" s="111"/>
       <c r="C50" s="18" t="s">
         <v>77</v>
       </c>
@@ -4991,7 +5011,7 @@
       <c r="W50" s="28"/>
     </row>
     <row r="51" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="100"/>
+      <c r="B51" s="111"/>
       <c r="C51" s="18" t="s">
         <v>78</v>
       </c>
@@ -5044,7 +5064,7 @@
       <c r="W51" s="28"/>
     </row>
     <row r="52" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="100"/>
+      <c r="B52" s="111"/>
       <c r="C52" s="18" t="s">
         <v>79</v>
       </c>
@@ -5097,7 +5117,7 @@
       <c r="W52" s="28"/>
     </row>
     <row r="53" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="100"/>
+      <c r="B53" s="111"/>
       <c r="C53" s="18" t="s">
         <v>80</v>
       </c>
@@ -5150,7 +5170,7 @@
       <c r="W53" s="28"/>
     </row>
     <row r="54" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="100"/>
+      <c r="B54" s="111"/>
       <c r="C54" s="18" t="s">
         <v>81</v>
       </c>
@@ -5203,7 +5223,7 @@
       <c r="W54" s="28"/>
     </row>
     <row r="55" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="100"/>
+      <c r="B55" s="111"/>
       <c r="C55" s="18" t="s">
         <v>82</v>
       </c>
@@ -5256,7 +5276,7 @@
       <c r="W55" s="28"/>
     </row>
     <row r="56" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="100"/>
+      <c r="B56" s="111"/>
       <c r="C56" s="18" t="s">
         <v>83</v>
       </c>
@@ -5309,7 +5329,7 @@
       <c r="W56" s="28"/>
     </row>
     <row r="57" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="100"/>
+      <c r="B57" s="111"/>
       <c r="C57" s="18" t="s">
         <v>84</v>
       </c>
@@ -5362,7 +5382,7 @@
       <c r="W57" s="28"/>
     </row>
     <row r="58" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="100"/>
+      <c r="B58" s="111"/>
       <c r="C58" s="18" t="s">
         <v>85</v>
       </c>
@@ -5415,7 +5435,7 @@
       <c r="W58" s="28"/>
     </row>
     <row r="59" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="100"/>
+      <c r="B59" s="111"/>
       <c r="C59" s="18" t="s">
         <v>86</v>
       </c>
@@ -5468,7 +5488,7 @@
       <c r="W59" s="28"/>
     </row>
     <row r="60" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="100"/>
+      <c r="B60" s="111"/>
       <c r="C60" s="18" t="s">
         <v>87</v>
       </c>
@@ -5521,7 +5541,7 @@
       <c r="W60" s="28"/>
     </row>
     <row r="61" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="100"/>
+      <c r="B61" s="111"/>
       <c r="C61" s="18" t="s">
         <v>88</v>
       </c>
@@ -5574,7 +5594,7 @@
       <c r="W61" s="28"/>
     </row>
     <row r="62" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="100"/>
+      <c r="B62" s="111"/>
       <c r="C62" s="18" t="s">
         <v>89</v>
       </c>
@@ -5627,7 +5647,7 @@
       <c r="W62" s="28"/>
     </row>
     <row r="63" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="101"/>
+      <c r="B63" s="112"/>
       <c r="C63" s="36" t="s">
         <v>90</v>
       </c>
@@ -5680,7 +5700,7 @@
       <c r="W63" s="41"/>
     </row>
     <row r="64" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="102" t="s">
+      <c r="B64" s="113" t="s">
         <v>62</v>
       </c>
       <c r="C64" s="32" t="s">
@@ -5724,16 +5744,30 @@
       <c r="P64" s="66">
         <v>1.83</v>
       </c>
-      <c r="Q64" s="66"/>
-      <c r="R64" s="66"/>
-      <c r="S64" s="66"/>
-      <c r="T64" s="66"/>
-      <c r="U64" s="66"/>
-      <c r="V64" s="66"/>
-      <c r="W64" s="74"/>
+      <c r="Q64" s="70">
+        <v>0</v>
+      </c>
+      <c r="R64" s="70">
+        <v>0</v>
+      </c>
+      <c r="S64" s="70">
+        <v>0</v>
+      </c>
+      <c r="T64" s="70">
+        <v>0</v>
+      </c>
+      <c r="U64" s="70">
+        <v>0</v>
+      </c>
+      <c r="V64" s="70">
+        <v>0</v>
+      </c>
+      <c r="W64" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="100"/>
+      <c r="B65" s="111"/>
       <c r="C65" s="18" t="s">
         <v>64</v>
       </c>
@@ -5786,7 +5820,7 @@
       <c r="W65" s="28"/>
     </row>
     <row r="66" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="100"/>
+      <c r="B66" s="111"/>
       <c r="C66" s="18" t="s">
         <v>65</v>
       </c>
@@ -5839,7 +5873,7 @@
       <c r="W66" s="28"/>
     </row>
     <row r="67" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="100"/>
+      <c r="B67" s="111"/>
       <c r="C67" s="18" t="s">
         <v>66</v>
       </c>
@@ -5892,7 +5926,7 @@
       <c r="W67" s="28"/>
     </row>
     <row r="68" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="100"/>
+      <c r="B68" s="111"/>
       <c r="C68" s="18" t="s">
         <v>67</v>
       </c>
@@ -5945,7 +5979,7 @@
       <c r="W68" s="28"/>
     </row>
     <row r="69" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="100"/>
+      <c r="B69" s="111"/>
       <c r="C69" s="18" t="s">
         <v>68</v>
       </c>
@@ -5998,7 +6032,7 @@
       <c r="W69" s="28"/>
     </row>
     <row r="70" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="100"/>
+      <c r="B70" s="111"/>
       <c r="C70" s="18" t="s">
         <v>69</v>
       </c>
@@ -6051,7 +6085,7 @@
       <c r="W70" s="28"/>
     </row>
     <row r="71" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="100"/>
+      <c r="B71" s="111"/>
       <c r="C71" s="18" t="s">
         <v>70</v>
       </c>
@@ -6104,7 +6138,7 @@
       <c r="W71" s="28"/>
     </row>
     <row r="72" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="100"/>
+      <c r="B72" s="111"/>
       <c r="C72" s="18" t="s">
         <v>71</v>
       </c>
@@ -6157,7 +6191,7 @@
       <c r="W72" s="28"/>
     </row>
     <row r="73" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="100"/>
+      <c r="B73" s="111"/>
       <c r="C73" s="18" t="s">
         <v>72</v>
       </c>
@@ -6210,7 +6244,7 @@
       <c r="W73" s="28"/>
     </row>
     <row r="74" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="100"/>
+      <c r="B74" s="111"/>
       <c r="C74" s="18" t="s">
         <v>73</v>
       </c>
@@ -6263,7 +6297,7 @@
       <c r="W74" s="28"/>
     </row>
     <row r="75" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="100"/>
+      <c r="B75" s="111"/>
       <c r="C75" s="18" t="s">
         <v>74</v>
       </c>
@@ -6316,7 +6350,7 @@
       <c r="W75" s="28"/>
     </row>
     <row r="76" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="100"/>
+      <c r="B76" s="111"/>
       <c r="C76" s="18" t="s">
         <v>75</v>
       </c>
@@ -6369,7 +6403,7 @@
       <c r="W76" s="28"/>
     </row>
     <row r="77" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="101"/>
+      <c r="B77" s="112"/>
       <c r="C77" s="36" t="s">
         <v>76</v>
       </c>
@@ -6422,7 +6456,7 @@
       <c r="W77" s="41"/>
     </row>
     <row r="78" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="113" t="s">
+      <c r="B78" s="103" t="s">
         <v>91</v>
       </c>
       <c r="C78" s="6" t="s">
@@ -6489,7 +6523,7 @@
       </c>
     </row>
     <row r="79" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="114"/>
+      <c r="B79" s="104"/>
       <c r="C79" s="4" t="s">
         <v>26</v>
       </c>
@@ -6554,7 +6588,7 @@
       </c>
     </row>
     <row r="80" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="114"/>
+      <c r="B80" s="104"/>
       <c r="C80" s="4" t="s">
         <v>28</v>
       </c>
@@ -6619,7 +6653,7 @@
       </c>
     </row>
     <row r="81" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="114"/>
+      <c r="B81" s="104"/>
       <c r="C81" s="4" t="s">
         <v>29</v>
       </c>
@@ -6684,7 +6718,7 @@
       </c>
     </row>
     <row r="82" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="114"/>
+      <c r="B82" s="104"/>
       <c r="C82" s="4" t="s">
         <v>30</v>
       </c>
@@ -6749,7 +6783,7 @@
       </c>
     </row>
     <row r="83" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="114"/>
+      <c r="B83" s="104"/>
       <c r="C83" s="4" t="s">
         <v>31</v>
       </c>
@@ -6814,7 +6848,7 @@
       </c>
     </row>
     <row r="84" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="114"/>
+      <c r="B84" s="104"/>
       <c r="C84" s="4" t="s">
         <v>32</v>
       </c>
@@ -6879,7 +6913,7 @@
       </c>
     </row>
     <row r="85" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="114"/>
+      <c r="B85" s="104"/>
       <c r="C85" s="4" t="s">
         <v>33</v>
       </c>
@@ -6944,7 +6978,7 @@
       </c>
     </row>
     <row r="86" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="114"/>
+      <c r="B86" s="104"/>
       <c r="C86" s="4" t="s">
         <v>34</v>
       </c>
@@ -7009,7 +7043,7 @@
       </c>
     </row>
     <row r="87" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="114"/>
+      <c r="B87" s="104"/>
       <c r="C87" s="4" t="s">
         <v>35</v>
       </c>
@@ -7074,7 +7108,7 @@
       </c>
     </row>
     <row r="88" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="114"/>
+      <c r="B88" s="104"/>
       <c r="C88" s="4" t="s">
         <v>36</v>
       </c>
@@ -7139,7 +7173,7 @@
       </c>
     </row>
     <row r="89" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="114"/>
+      <c r="B89" s="104"/>
       <c r="C89" s="4" t="s">
         <v>37</v>
       </c>
@@ -7204,7 +7238,7 @@
       </c>
     </row>
     <row r="90" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="114"/>
+      <c r="B90" s="104"/>
       <c r="C90" s="4" t="s">
         <v>38</v>
       </c>
@@ -7269,7 +7303,7 @@
       </c>
     </row>
     <row r="91" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="114"/>
+      <c r="B91" s="104"/>
       <c r="C91" s="4" t="s">
         <v>39</v>
       </c>
@@ -7334,7 +7368,7 @@
       </c>
     </row>
     <row r="92" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="114"/>
+      <c r="B92" s="104"/>
       <c r="C92" s="4" t="s">
         <v>40</v>
       </c>
@@ -7399,7 +7433,7 @@
       </c>
     </row>
     <row r="93" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="114"/>
+      <c r="B93" s="104"/>
       <c r="C93" s="4" t="s">
         <v>41</v>
       </c>
@@ -7464,7 +7498,7 @@
       </c>
     </row>
     <row r="94" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="114"/>
+      <c r="B94" s="104"/>
       <c r="C94" s="4" t="s">
         <v>120</v>
       </c>
@@ -7529,7 +7563,7 @@
       </c>
     </row>
     <row r="95" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="114"/>
+      <c r="B95" s="104"/>
       <c r="C95" s="4" t="s">
         <v>121</v>
       </c>
@@ -7594,7 +7628,7 @@
       </c>
     </row>
     <row r="96" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="114"/>
+      <c r="B96" s="104"/>
       <c r="C96" s="4" t="s">
         <v>42</v>
       </c>
@@ -7659,7 +7693,7 @@
       </c>
     </row>
     <row r="97" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="115"/>
+      <c r="B97" s="105"/>
       <c r="C97" s="36" t="s">
         <v>92</v>
       </c>
@@ -7712,10 +7746,10 @@
       <c r="W97" s="41"/>
     </row>
     <row r="98" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="118" t="s">
+      <c r="B98" s="108" t="s">
         <v>93</v>
       </c>
-      <c r="C98" s="116" t="s">
+      <c r="C98" s="106" t="s">
         <v>94</v>
       </c>
       <c r="D98" s="6" t="s">
@@ -7735,7 +7769,7 @@
       </c>
       <c r="I98" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="J98" s="52">
         <v>0</v>
@@ -7761,16 +7795,28 @@
       <c r="Q98" s="52">
         <v>0</v>
       </c>
-      <c r="R98" s="34"/>
-      <c r="S98" s="34"/>
-      <c r="T98" s="34"/>
-      <c r="U98" s="34"/>
-      <c r="V98" s="34"/>
-      <c r="W98" s="35"/>
+      <c r="R98" s="70">
+        <v>0.7</v>
+      </c>
+      <c r="S98" s="70">
+        <v>0</v>
+      </c>
+      <c r="T98" s="70">
+        <v>0</v>
+      </c>
+      <c r="U98" s="70">
+        <v>0</v>
+      </c>
+      <c r="V98" s="70">
+        <v>0</v>
+      </c>
+      <c r="W98" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="118"/>
-      <c r="C99" s="117"/>
+      <c r="B99" s="108"/>
+      <c r="C99" s="107"/>
       <c r="D99" s="4" t="s">
         <v>96</v>
       </c>
@@ -7788,7 +7834,7 @@
       </c>
       <c r="I99" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="J99" s="50">
         <v>0</v>
@@ -7814,16 +7860,28 @@
       <c r="Q99" s="50">
         <v>0</v>
       </c>
-      <c r="R99" s="20"/>
-      <c r="S99" s="20"/>
-      <c r="T99" s="20"/>
-      <c r="U99" s="20"/>
-      <c r="V99" s="20"/>
-      <c r="W99" s="28"/>
+      <c r="R99" s="67">
+        <v>0.93</v>
+      </c>
+      <c r="S99" s="70">
+        <v>0</v>
+      </c>
+      <c r="T99" s="70">
+        <v>0</v>
+      </c>
+      <c r="U99" s="70">
+        <v>0</v>
+      </c>
+      <c r="V99" s="70">
+        <v>0</v>
+      </c>
+      <c r="W99" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="118"/>
-      <c r="C100" s="117"/>
+      <c r="B100" s="108"/>
+      <c r="C100" s="107"/>
       <c r="D100" s="4" t="s">
         <v>97</v>
       </c>
@@ -7867,15 +7925,15 @@
       <c r="Q100" s="50">
         <v>0</v>
       </c>
-      <c r="R100" s="20"/>
-      <c r="S100" s="20"/>
-      <c r="T100" s="20"/>
-      <c r="U100" s="20"/>
-      <c r="V100" s="20"/>
-      <c r="W100" s="28"/>
+      <c r="R100" s="122"/>
+      <c r="S100" s="122"/>
+      <c r="T100" s="122"/>
+      <c r="U100" s="122"/>
+      <c r="V100" s="122"/>
+      <c r="W100" s="123"/>
     </row>
     <row r="101" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="118"/>
+      <c r="B101" s="108"/>
       <c r="C101" s="18" t="s">
         <v>115</v>
       </c>
@@ -7920,15 +7978,15 @@
       <c r="Q101" s="50">
         <v>0</v>
       </c>
-      <c r="R101" s="20"/>
-      <c r="S101" s="20"/>
-      <c r="T101" s="20"/>
-      <c r="U101" s="20"/>
-      <c r="V101" s="20"/>
-      <c r="W101" s="28"/>
+      <c r="R101" s="122"/>
+      <c r="S101" s="122"/>
+      <c r="T101" s="122"/>
+      <c r="U101" s="122"/>
+      <c r="V101" s="122"/>
+      <c r="W101" s="123"/>
     </row>
     <row r="102" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="118"/>
+      <c r="B102" s="108"/>
       <c r="C102" s="18" t="s">
         <v>98</v>
       </c>
@@ -7973,15 +8031,15 @@
       <c r="Q102" s="50">
         <v>0</v>
       </c>
-      <c r="R102" s="20"/>
-      <c r="S102" s="20"/>
-      <c r="T102" s="20"/>
-      <c r="U102" s="20"/>
-      <c r="V102" s="20"/>
-      <c r="W102" s="28"/>
+      <c r="R102" s="122"/>
+      <c r="S102" s="122"/>
+      <c r="T102" s="122"/>
+      <c r="U102" s="122"/>
+      <c r="V102" s="122"/>
+      <c r="W102" s="123"/>
     </row>
     <row r="103" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="118"/>
+      <c r="B103" s="108"/>
       <c r="C103" s="18" t="s">
         <v>99</v>
       </c>
@@ -8026,15 +8084,15 @@
       <c r="Q103" s="50">
         <v>0</v>
       </c>
-      <c r="R103" s="20"/>
-      <c r="S103" s="20"/>
-      <c r="T103" s="20"/>
-      <c r="U103" s="20"/>
-      <c r="V103" s="20"/>
-      <c r="W103" s="28"/>
+      <c r="R103" s="124"/>
+      <c r="S103" s="122"/>
+      <c r="T103" s="122"/>
+      <c r="U103" s="122"/>
+      <c r="V103" s="122"/>
+      <c r="W103" s="123"/>
     </row>
     <row r="104" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="118"/>
+      <c r="B104" s="108"/>
       <c r="C104" s="18" t="s">
         <v>100</v>
       </c>
@@ -8053,7 +8111,7 @@
       </c>
       <c r="I104" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="J104" s="50">
         <v>0</v>
@@ -8079,15 +8137,27 @@
       <c r="Q104" s="50">
         <v>0</v>
       </c>
-      <c r="R104" s="20"/>
-      <c r="S104" s="20"/>
-      <c r="T104" s="20"/>
-      <c r="U104" s="20"/>
-      <c r="V104" s="20"/>
-      <c r="W104" s="28"/>
+      <c r="R104" s="67">
+        <v>0.84</v>
+      </c>
+      <c r="S104" s="67">
+        <v>0</v>
+      </c>
+      <c r="T104" s="67">
+        <v>0</v>
+      </c>
+      <c r="U104" s="67">
+        <v>0</v>
+      </c>
+      <c r="V104" s="67">
+        <v>0</v>
+      </c>
+      <c r="W104" s="67">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="118"/>
+      <c r="B105" s="108"/>
       <c r="C105" s="18" t="s">
         <v>101</v>
       </c>
@@ -8132,15 +8202,15 @@
       <c r="Q105" s="50">
         <v>0</v>
       </c>
-      <c r="R105" s="20"/>
-      <c r="S105" s="20"/>
-      <c r="T105" s="20"/>
-      <c r="U105" s="20"/>
-      <c r="V105" s="20"/>
-      <c r="W105" s="28"/>
+      <c r="R105" s="122"/>
+      <c r="S105" s="122"/>
+      <c r="T105" s="122"/>
+      <c r="U105" s="122"/>
+      <c r="V105" s="122"/>
+      <c r="W105" s="123"/>
     </row>
     <row r="106" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="119"/>
+      <c r="B106" s="109"/>
       <c r="C106" s="18" t="s">
         <v>102</v>
       </c>
@@ -8294,7 +8364,7 @@
       <c r="T108" s="55"/>
       <c r="U108" s="55"/>
       <c r="V108" s="55"/>
-      <c r="W108" s="75"/>
+      <c r="W108" s="74"/>
     </row>
     <row r="109" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B109" s="29" t="s">
@@ -8427,21 +8497,21 @@
       </c>
     </row>
     <row r="111" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="110" t="s">
+      <c r="B111" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="C111" s="111"/>
-      <c r="D111" s="111"/>
-      <c r="E111" s="111"/>
-      <c r="F111" s="111"/>
-      <c r="G111" s="111"/>
+      <c r="C111" s="121"/>
+      <c r="D111" s="121"/>
+      <c r="E111" s="121"/>
+      <c r="F111" s="121"/>
+      <c r="G111" s="121"/>
       <c r="H111" s="27">
         <f t="shared" ref="H111:W111" si="2">SUM(H4:H110)</f>
         <v>35.800000000000004</v>
       </c>
       <c r="I111" s="14">
         <f t="shared" si="2"/>
-        <v>15.331999999999992</v>
+        <v>17.801999999999996</v>
       </c>
       <c r="J111" s="12">
         <f t="shared" si="2"/>
@@ -8477,7 +8547,7 @@
       </c>
       <c r="R111" s="15">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>2.57</v>
       </c>
       <c r="S111" s="15">
         <f t="shared" si="2"/>
@@ -8509,22 +8579,22 @@
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
-      <c r="J112" s="97" t="s">
+      <c r="J112" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="K112" s="98"/>
-      <c r="L112" s="98"/>
-      <c r="M112" s="98"/>
-      <c r="N112" s="98"/>
-      <c r="O112" s="98"/>
-      <c r="P112" s="98"/>
-      <c r="Q112" s="98"/>
-      <c r="R112" s="98"/>
-      <c r="S112" s="98"/>
-      <c r="T112" s="98"/>
-      <c r="U112" s="98"/>
-      <c r="V112" s="98"/>
-      <c r="W112" s="99"/>
+      <c r="K112" s="99"/>
+      <c r="L112" s="99"/>
+      <c r="M112" s="99"/>
+      <c r="N112" s="99"/>
+      <c r="O112" s="99"/>
+      <c r="P112" s="99"/>
+      <c r="Q112" s="99"/>
+      <c r="R112" s="99"/>
+      <c r="S112" s="99"/>
+      <c r="T112" s="99"/>
+      <c r="U112" s="99"/>
+      <c r="V112" s="99"/>
+      <c r="W112" s="100"/>
     </row>
     <row r="113" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B113" s="2"/>
@@ -8549,10 +8619,10 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
-      <c r="H114" s="97" t="s">
+      <c r="H114" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="I114" s="120"/>
+      <c r="I114" s="110"/>
       <c r="J114" s="13">
         <f>H111-J111</f>
         <v>35.800000000000004</v>
@@ -8587,27 +8657,27 @@
       </c>
       <c r="R114" s="13">
         <f t="shared" si="3"/>
-        <v>20.467999999999996</v>
+        <v>17.997999999999998</v>
       </c>
       <c r="S114" s="13">
         <f t="shared" si="3"/>
-        <v>20.467999999999996</v>
+        <v>17.997999999999998</v>
       </c>
       <c r="T114" s="13">
         <f t="shared" si="3"/>
-        <v>20.467999999999996</v>
+        <v>17.997999999999998</v>
       </c>
       <c r="U114" s="13">
         <f t="shared" si="3"/>
-        <v>20.467999999999996</v>
+        <v>17.997999999999998</v>
       </c>
       <c r="V114" s="13">
         <f t="shared" si="3"/>
-        <v>20.467999999999996</v>
+        <v>17.997999999999998</v>
       </c>
       <c r="W114" s="13">
         <f t="shared" si="3"/>
-        <v>20.467999999999996</v>
+        <v>17.997999999999998</v>
       </c>
     </row>
     <row r="115" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8630,27 +8700,27 @@
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
-      <c r="H116" s="97" t="s">
+      <c r="H116" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="I116" s="98"/>
-      <c r="J116" s="97">
+      <c r="I116" s="99"/>
+      <c r="J116" s="98">
         <f>H111-I111</f>
-        <v>20.468000000000011</v>
-      </c>
-      <c r="K116" s="98"/>
-      <c r="L116" s="98"/>
-      <c r="M116" s="98"/>
-      <c r="N116" s="98"/>
-      <c r="O116" s="98"/>
-      <c r="P116" s="98"/>
-      <c r="Q116" s="98"/>
-      <c r="R116" s="98"/>
-      <c r="S116" s="98"/>
-      <c r="T116" s="98"/>
-      <c r="U116" s="98"/>
-      <c r="V116" s="98"/>
-      <c r="W116" s="99"/>
+        <v>17.998000000000008</v>
+      </c>
+      <c r="K116" s="99"/>
+      <c r="L116" s="99"/>
+      <c r="M116" s="99"/>
+      <c r="N116" s="99"/>
+      <c r="O116" s="99"/>
+      <c r="P116" s="99"/>
+      <c r="Q116" s="99"/>
+      <c r="R116" s="99"/>
+      <c r="S116" s="99"/>
+      <c r="T116" s="99"/>
+      <c r="U116" s="99"/>
+      <c r="V116" s="99"/>
+      <c r="W116" s="100"/>
     </row>
     <row r="117" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B117" s="3"/>
@@ -8738,13 +8808,6 @@
     <row r="135" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="J116:W116"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B78:B97"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="B98:B106"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H116:I116"/>
     <mergeCell ref="J2:W2"/>
     <mergeCell ref="J112:W112"/>
     <mergeCell ref="B14:B63"/>
@@ -8753,6 +8816,13 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B111:G111"/>
+    <mergeCell ref="J116:W116"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B78:B97"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="B98:B106"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H116:I116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
@@ -1304,6 +1304,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1313,9 +1322,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1342,48 +1384,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1469,22 +1469,22 @@
                   <c:v>20.567999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.997999999999998</c:v>
+                  <c:v>17.080999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.997999999999998</c:v>
+                  <c:v>17.080999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.997999999999998</c:v>
+                  <c:v>17.080999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17.997999999999998</c:v>
+                  <c:v>17.080999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.997999999999998</c:v>
+                  <c:v>17.080999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.997999999999998</c:v>
+                  <c:v>17.080999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1505,11 +1505,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-198824704"/>
-        <c:axId val="-198839936"/>
+        <c:axId val="1042440816"/>
+        <c:axId val="1042434832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-198824704"/>
+        <c:axId val="1042440816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1519,7 +1519,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-198839936"/>
+        <c:crossAx val="1042434832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1527,7 +1527,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-198839936"/>
+        <c:axId val="1042434832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1538,7 +1538,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-198824704"/>
+        <c:crossAx val="1042440816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1580,7 +1580,7 @@
         <xdr:cNvPr id="4" name="3 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,8 +1890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q64" sqref="Q64:W64"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R108" sqref="R108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1920,22 +1920,22 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="98" t="s">
+      <c r="J2" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="100"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="103"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="89" t="s">
@@ -2006,7 +2006,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="109" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="56" t="s">
@@ -2073,8 +2073,8 @@
       </c>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="117"/>
-      <c r="C5" s="101" t="s">
+      <c r="B5" s="110"/>
+      <c r="C5" s="112" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="77" t="s">
@@ -2140,8 +2140,8 @@
       </c>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="117"/>
-      <c r="C6" s="119"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="113"/>
       <c r="D6" s="17" t="s">
         <v>20</v>
       </c>
@@ -2205,7 +2205,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="117"/>
+      <c r="B7" s="110"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
@@ -2270,7 +2270,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="117"/>
+      <c r="B8" s="110"/>
       <c r="C8" s="76" t="s">
         <v>16</v>
       </c>
@@ -2335,7 +2335,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="118"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="36" t="s">
         <v>109</v>
       </c>
@@ -2400,7 +2400,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="107" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="93" t="s">
@@ -2455,7 +2455,7 @@
       <c r="W10" s="35"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B11" s="114"/>
+      <c r="B11" s="107"/>
       <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2508,8 +2508,8 @@
       <c r="W11" s="28"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B12" s="114"/>
-      <c r="C12" s="101" t="s">
+      <c r="B12" s="107"/>
+      <c r="C12" s="112" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="49" t="s">
@@ -2563,8 +2563,8 @@
       <c r="W12" s="30"/>
     </row>
     <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="115"/>
-      <c r="C13" s="102"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="116"/>
       <c r="D13" s="37" t="s">
         <v>117</v>
       </c>
@@ -2616,7 +2616,7 @@
       <c r="W13" s="41"/>
     </row>
     <row r="14" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="111" t="s">
+      <c r="B14" s="104" t="s">
         <v>119</v>
       </c>
       <c r="C14" s="16" t="s">
@@ -2683,7 +2683,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="111"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="4" t="s">
         <v>26</v>
       </c>
@@ -2748,7 +2748,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="111"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="4" t="s">
         <v>28</v>
       </c>
@@ -2813,7 +2813,7 @@
       </c>
     </row>
     <row r="17" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="111"/>
+      <c r="B17" s="104"/>
       <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
@@ -2878,7 +2878,7 @@
       </c>
     </row>
     <row r="18" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="111"/>
+      <c r="B18" s="104"/>
       <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
@@ -2943,7 +2943,7 @@
       </c>
     </row>
     <row r="19" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="111"/>
+      <c r="B19" s="104"/>
       <c r="C19" s="4" t="s">
         <v>31</v>
       </c>
@@ -3008,7 +3008,7 @@
       </c>
     </row>
     <row r="20" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="111"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
@@ -3073,7 +3073,7 @@
       </c>
     </row>
     <row r="21" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="111"/>
+      <c r="B21" s="104"/>
       <c r="C21" s="4" t="s">
         <v>33</v>
       </c>
@@ -3138,7 +3138,7 @@
       </c>
     </row>
     <row r="22" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="111"/>
+      <c r="B22" s="104"/>
       <c r="C22" s="4" t="s">
         <v>34</v>
       </c>
@@ -3203,7 +3203,7 @@
       </c>
     </row>
     <row r="23" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="111"/>
+      <c r="B23" s="104"/>
       <c r="C23" s="4" t="s">
         <v>35</v>
       </c>
@@ -3268,7 +3268,7 @@
       </c>
     </row>
     <row r="24" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="111"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="4" t="s">
         <v>36</v>
       </c>
@@ -3333,7 +3333,7 @@
       </c>
     </row>
     <row r="25" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="111"/>
+      <c r="B25" s="104"/>
       <c r="C25" s="4" t="s">
         <v>37</v>
       </c>
@@ -3398,7 +3398,7 @@
       </c>
     </row>
     <row r="26" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="111"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="4" t="s">
         <v>38</v>
       </c>
@@ -3463,7 +3463,7 @@
       </c>
     </row>
     <row r="27" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="111"/>
+      <c r="B27" s="104"/>
       <c r="C27" s="4" t="s">
         <v>39</v>
       </c>
@@ -3528,7 +3528,7 @@
       </c>
     </row>
     <row r="28" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="111"/>
+      <c r="B28" s="104"/>
       <c r="C28" s="4" t="s">
         <v>40</v>
       </c>
@@ -3593,7 +3593,7 @@
       </c>
     </row>
     <row r="29" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="111"/>
+      <c r="B29" s="104"/>
       <c r="C29" s="4" t="s">
         <v>41</v>
       </c>
@@ -3658,7 +3658,7 @@
       </c>
     </row>
     <row r="30" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="111"/>
+      <c r="B30" s="104"/>
       <c r="C30" s="4" t="s">
         <v>42</v>
       </c>
@@ -3723,7 +3723,7 @@
       </c>
     </row>
     <row r="31" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="111"/>
+      <c r="B31" s="104"/>
       <c r="C31" s="4" t="s">
         <v>43</v>
       </c>
@@ -3788,7 +3788,7 @@
       </c>
     </row>
     <row r="32" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="111"/>
+      <c r="B32" s="104"/>
       <c r="C32" s="4" t="s">
         <v>44</v>
       </c>
@@ -3853,7 +3853,7 @@
       </c>
     </row>
     <row r="33" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="111"/>
+      <c r="B33" s="104"/>
       <c r="C33" s="4" t="s">
         <v>45</v>
       </c>
@@ -3918,7 +3918,7 @@
       </c>
     </row>
     <row r="34" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="111"/>
+      <c r="B34" s="104"/>
       <c r="C34" s="4" t="s">
         <v>46</v>
       </c>
@@ -3983,7 +3983,7 @@
       </c>
     </row>
     <row r="35" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="111"/>
+      <c r="B35" s="104"/>
       <c r="C35" s="4" t="s">
         <v>47</v>
       </c>
@@ -4048,7 +4048,7 @@
       </c>
     </row>
     <row r="36" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="111"/>
+      <c r="B36" s="104"/>
       <c r="C36" s="4" t="s">
         <v>48</v>
       </c>
@@ -4113,7 +4113,7 @@
       </c>
     </row>
     <row r="37" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="111"/>
+      <c r="B37" s="104"/>
       <c r="C37" s="4" t="s">
         <v>49</v>
       </c>
@@ -4178,7 +4178,7 @@
       </c>
     </row>
     <row r="38" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="111"/>
+      <c r="B38" s="104"/>
       <c r="C38" s="4" t="s">
         <v>50</v>
       </c>
@@ -4243,7 +4243,7 @@
       </c>
     </row>
     <row r="39" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="111"/>
+      <c r="B39" s="104"/>
       <c r="C39" s="4" t="s">
         <v>51</v>
       </c>
@@ -4308,7 +4308,7 @@
       </c>
     </row>
     <row r="40" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="111"/>
+      <c r="B40" s="104"/>
       <c r="C40" s="4" t="s">
         <v>52</v>
       </c>
@@ -4373,7 +4373,7 @@
       </c>
     </row>
     <row r="41" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="111"/>
+      <c r="B41" s="104"/>
       <c r="C41" s="4" t="s">
         <v>53</v>
       </c>
@@ -4438,7 +4438,7 @@
       </c>
     </row>
     <row r="42" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="111"/>
+      <c r="B42" s="104"/>
       <c r="C42" s="4" t="s">
         <v>54</v>
       </c>
@@ -4503,7 +4503,7 @@
       </c>
     </row>
     <row r="43" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="111"/>
+      <c r="B43" s="104"/>
       <c r="C43" s="4" t="s">
         <v>55</v>
       </c>
@@ -4568,7 +4568,7 @@
       </c>
     </row>
     <row r="44" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="111"/>
+      <c r="B44" s="104"/>
       <c r="C44" s="4" t="s">
         <v>56</v>
       </c>
@@ -4633,7 +4633,7 @@
       </c>
     </row>
     <row r="45" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="111"/>
+      <c r="B45" s="104"/>
       <c r="C45" s="4" t="s">
         <v>57</v>
       </c>
@@ -4698,7 +4698,7 @@
       </c>
     </row>
     <row r="46" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="111"/>
+      <c r="B46" s="104"/>
       <c r="C46" s="4" t="s">
         <v>58</v>
       </c>
@@ -4763,7 +4763,7 @@
       </c>
     </row>
     <row r="47" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="111"/>
+      <c r="B47" s="104"/>
       <c r="C47" s="4" t="s">
         <v>59</v>
       </c>
@@ -4828,7 +4828,7 @@
       </c>
     </row>
     <row r="48" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="111"/>
+      <c r="B48" s="104"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
@@ -4893,7 +4893,7 @@
       </c>
     </row>
     <row r="49" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="111"/>
+      <c r="B49" s="104"/>
       <c r="C49" s="18" t="s">
         <v>61</v>
       </c>
@@ -4958,7 +4958,7 @@
       </c>
     </row>
     <row r="50" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="111"/>
+      <c r="B50" s="104"/>
       <c r="C50" s="18" t="s">
         <v>77</v>
       </c>
@@ -5011,7 +5011,7 @@
       <c r="W50" s="28"/>
     </row>
     <row r="51" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="111"/>
+      <c r="B51" s="104"/>
       <c r="C51" s="18" t="s">
         <v>78</v>
       </c>
@@ -5064,7 +5064,7 @@
       <c r="W51" s="28"/>
     </row>
     <row r="52" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="111"/>
+      <c r="B52" s="104"/>
       <c r="C52" s="18" t="s">
         <v>79</v>
       </c>
@@ -5117,7 +5117,7 @@
       <c r="W52" s="28"/>
     </row>
     <row r="53" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="111"/>
+      <c r="B53" s="104"/>
       <c r="C53" s="18" t="s">
         <v>80</v>
       </c>
@@ -5170,7 +5170,7 @@
       <c r="W53" s="28"/>
     </row>
     <row r="54" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="111"/>
+      <c r="B54" s="104"/>
       <c r="C54" s="18" t="s">
         <v>81</v>
       </c>
@@ -5223,7 +5223,7 @@
       <c r="W54" s="28"/>
     </row>
     <row r="55" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="111"/>
+      <c r="B55" s="104"/>
       <c r="C55" s="18" t="s">
         <v>82</v>
       </c>
@@ -5276,7 +5276,7 @@
       <c r="W55" s="28"/>
     </row>
     <row r="56" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="111"/>
+      <c r="B56" s="104"/>
       <c r="C56" s="18" t="s">
         <v>83</v>
       </c>
@@ -5329,7 +5329,7 @@
       <c r="W56" s="28"/>
     </row>
     <row r="57" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="111"/>
+      <c r="B57" s="104"/>
       <c r="C57" s="18" t="s">
         <v>84</v>
       </c>
@@ -5382,7 +5382,7 @@
       <c r="W57" s="28"/>
     </row>
     <row r="58" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="111"/>
+      <c r="B58" s="104"/>
       <c r="C58" s="18" t="s">
         <v>85</v>
       </c>
@@ -5435,7 +5435,7 @@
       <c r="W58" s="28"/>
     </row>
     <row r="59" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="111"/>
+      <c r="B59" s="104"/>
       <c r="C59" s="18" t="s">
         <v>86</v>
       </c>
@@ -5488,7 +5488,7 @@
       <c r="W59" s="28"/>
     </row>
     <row r="60" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="111"/>
+      <c r="B60" s="104"/>
       <c r="C60" s="18" t="s">
         <v>87</v>
       </c>
@@ -5541,7 +5541,7 @@
       <c r="W60" s="28"/>
     </row>
     <row r="61" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="111"/>
+      <c r="B61" s="104"/>
       <c r="C61" s="18" t="s">
         <v>88</v>
       </c>
@@ -5594,7 +5594,7 @@
       <c r="W61" s="28"/>
     </row>
     <row r="62" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="111"/>
+      <c r="B62" s="104"/>
       <c r="C62" s="18" t="s">
         <v>89</v>
       </c>
@@ -5647,7 +5647,7 @@
       <c r="W62" s="28"/>
     </row>
     <row r="63" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="112"/>
+      <c r="B63" s="105"/>
       <c r="C63" s="36" t="s">
         <v>90</v>
       </c>
@@ -5700,7 +5700,7 @@
       <c r="W63" s="41"/>
     </row>
     <row r="64" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="113" t="s">
+      <c r="B64" s="106" t="s">
         <v>62</v>
       </c>
       <c r="C64" s="32" t="s">
@@ -5767,7 +5767,7 @@
       </c>
     </row>
     <row r="65" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="111"/>
+      <c r="B65" s="104"/>
       <c r="C65" s="18" t="s">
         <v>64</v>
       </c>
@@ -5820,7 +5820,7 @@
       <c r="W65" s="28"/>
     </row>
     <row r="66" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="111"/>
+      <c r="B66" s="104"/>
       <c r="C66" s="18" t="s">
         <v>65</v>
       </c>
@@ -5873,7 +5873,7 @@
       <c r="W66" s="28"/>
     </row>
     <row r="67" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="111"/>
+      <c r="B67" s="104"/>
       <c r="C67" s="18" t="s">
         <v>66</v>
       </c>
@@ -5926,7 +5926,7 @@
       <c r="W67" s="28"/>
     </row>
     <row r="68" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="111"/>
+      <c r="B68" s="104"/>
       <c r="C68" s="18" t="s">
         <v>67</v>
       </c>
@@ -5979,7 +5979,7 @@
       <c r="W68" s="28"/>
     </row>
     <row r="69" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="111"/>
+      <c r="B69" s="104"/>
       <c r="C69" s="18" t="s">
         <v>68</v>
       </c>
@@ -6032,7 +6032,7 @@
       <c r="W69" s="28"/>
     </row>
     <row r="70" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="111"/>
+      <c r="B70" s="104"/>
       <c r="C70" s="18" t="s">
         <v>69</v>
       </c>
@@ -6085,7 +6085,7 @@
       <c r="W70" s="28"/>
     </row>
     <row r="71" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="111"/>
+      <c r="B71" s="104"/>
       <c r="C71" s="18" t="s">
         <v>70</v>
       </c>
@@ -6138,7 +6138,7 @@
       <c r="W71" s="28"/>
     </row>
     <row r="72" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="111"/>
+      <c r="B72" s="104"/>
       <c r="C72" s="18" t="s">
         <v>71</v>
       </c>
@@ -6191,7 +6191,7 @@
       <c r="W72" s="28"/>
     </row>
     <row r="73" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="111"/>
+      <c r="B73" s="104"/>
       <c r="C73" s="18" t="s">
         <v>72</v>
       </c>
@@ -6244,7 +6244,7 @@
       <c r="W73" s="28"/>
     </row>
     <row r="74" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="111"/>
+      <c r="B74" s="104"/>
       <c r="C74" s="18" t="s">
         <v>73</v>
       </c>
@@ -6297,7 +6297,7 @@
       <c r="W74" s="28"/>
     </row>
     <row r="75" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="111"/>
+      <c r="B75" s="104"/>
       <c r="C75" s="18" t="s">
         <v>74</v>
       </c>
@@ -6350,7 +6350,7 @@
       <c r="W75" s="28"/>
     </row>
     <row r="76" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="111"/>
+      <c r="B76" s="104"/>
       <c r="C76" s="18" t="s">
         <v>75</v>
       </c>
@@ -6403,7 +6403,7 @@
       <c r="W76" s="28"/>
     </row>
     <row r="77" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="112"/>
+      <c r="B77" s="105"/>
       <c r="C77" s="36" t="s">
         <v>76</v>
       </c>
@@ -6456,7 +6456,7 @@
       <c r="W77" s="41"/>
     </row>
     <row r="78" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="103" t="s">
+      <c r="B78" s="117" t="s">
         <v>91</v>
       </c>
       <c r="C78" s="6" t="s">
@@ -6523,7 +6523,7 @@
       </c>
     </row>
     <row r="79" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="104"/>
+      <c r="B79" s="118"/>
       <c r="C79" s="4" t="s">
         <v>26</v>
       </c>
@@ -6588,7 +6588,7 @@
       </c>
     </row>
     <row r="80" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="104"/>
+      <c r="B80" s="118"/>
       <c r="C80" s="4" t="s">
         <v>28</v>
       </c>
@@ -6653,7 +6653,7 @@
       </c>
     </row>
     <row r="81" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="104"/>
+      <c r="B81" s="118"/>
       <c r="C81" s="4" t="s">
         <v>29</v>
       </c>
@@ -6718,7 +6718,7 @@
       </c>
     </row>
     <row r="82" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="104"/>
+      <c r="B82" s="118"/>
       <c r="C82" s="4" t="s">
         <v>30</v>
       </c>
@@ -6783,7 +6783,7 @@
       </c>
     </row>
     <row r="83" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="104"/>
+      <c r="B83" s="118"/>
       <c r="C83" s="4" t="s">
         <v>31</v>
       </c>
@@ -6848,7 +6848,7 @@
       </c>
     </row>
     <row r="84" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="104"/>
+      <c r="B84" s="118"/>
       <c r="C84" s="4" t="s">
         <v>32</v>
       </c>
@@ -6913,7 +6913,7 @@
       </c>
     </row>
     <row r="85" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="104"/>
+      <c r="B85" s="118"/>
       <c r="C85" s="4" t="s">
         <v>33</v>
       </c>
@@ -6978,7 +6978,7 @@
       </c>
     </row>
     <row r="86" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="104"/>
+      <c r="B86" s="118"/>
       <c r="C86" s="4" t="s">
         <v>34</v>
       </c>
@@ -7043,7 +7043,7 @@
       </c>
     </row>
     <row r="87" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="104"/>
+      <c r="B87" s="118"/>
       <c r="C87" s="4" t="s">
         <v>35</v>
       </c>
@@ -7108,7 +7108,7 @@
       </c>
     </row>
     <row r="88" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="104"/>
+      <c r="B88" s="118"/>
       <c r="C88" s="4" t="s">
         <v>36</v>
       </c>
@@ -7173,7 +7173,7 @@
       </c>
     </row>
     <row r="89" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="104"/>
+      <c r="B89" s="118"/>
       <c r="C89" s="4" t="s">
         <v>37</v>
       </c>
@@ -7238,7 +7238,7 @@
       </c>
     </row>
     <row r="90" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="104"/>
+      <c r="B90" s="118"/>
       <c r="C90" s="4" t="s">
         <v>38</v>
       </c>
@@ -7303,7 +7303,7 @@
       </c>
     </row>
     <row r="91" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="104"/>
+      <c r="B91" s="118"/>
       <c r="C91" s="4" t="s">
         <v>39</v>
       </c>
@@ -7368,7 +7368,7 @@
       </c>
     </row>
     <row r="92" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="104"/>
+      <c r="B92" s="118"/>
       <c r="C92" s="4" t="s">
         <v>40</v>
       </c>
@@ -7433,7 +7433,7 @@
       </c>
     </row>
     <row r="93" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="104"/>
+      <c r="B93" s="118"/>
       <c r="C93" s="4" t="s">
         <v>41</v>
       </c>
@@ -7498,7 +7498,7 @@
       </c>
     </row>
     <row r="94" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="104"/>
+      <c r="B94" s="118"/>
       <c r="C94" s="4" t="s">
         <v>120</v>
       </c>
@@ -7563,7 +7563,7 @@
       </c>
     </row>
     <row r="95" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="104"/>
+      <c r="B95" s="118"/>
       <c r="C95" s="4" t="s">
         <v>121</v>
       </c>
@@ -7628,7 +7628,7 @@
       </c>
     </row>
     <row r="96" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="104"/>
+      <c r="B96" s="118"/>
       <c r="C96" s="4" t="s">
         <v>42</v>
       </c>
@@ -7693,7 +7693,7 @@
       </c>
     </row>
     <row r="97" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="105"/>
+      <c r="B97" s="119"/>
       <c r="C97" s="36" t="s">
         <v>92</v>
       </c>
@@ -7746,10 +7746,10 @@
       <c r="W97" s="41"/>
     </row>
     <row r="98" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="108" t="s">
+      <c r="B98" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="C98" s="106" t="s">
+      <c r="C98" s="120" t="s">
         <v>94</v>
       </c>
       <c r="D98" s="6" t="s">
@@ -7815,8 +7815,8 @@
       </c>
     </row>
     <row r="99" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="108"/>
-      <c r="C99" s="107"/>
+      <c r="B99" s="122"/>
+      <c r="C99" s="121"/>
       <c r="D99" s="4" t="s">
         <v>96</v>
       </c>
@@ -7880,8 +7880,8 @@
       </c>
     </row>
     <row r="100" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="108"/>
-      <c r="C100" s="107"/>
+      <c r="B100" s="122"/>
+      <c r="C100" s="121"/>
       <c r="D100" s="4" t="s">
         <v>97</v>
       </c>
@@ -7899,7 +7899,7 @@
       </c>
       <c r="I100" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="J100" s="50">
         <v>0</v>
@@ -7925,15 +7925,27 @@
       <c r="Q100" s="50">
         <v>0</v>
       </c>
-      <c r="R100" s="122"/>
-      <c r="S100" s="122"/>
-      <c r="T100" s="122"/>
-      <c r="U100" s="122"/>
-      <c r="V100" s="122"/>
-      <c r="W100" s="123"/>
+      <c r="R100" s="67">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="S100" s="70">
+        <v>0</v>
+      </c>
+      <c r="T100" s="70">
+        <v>0</v>
+      </c>
+      <c r="U100" s="70">
+        <v>0</v>
+      </c>
+      <c r="V100" s="70">
+        <v>0</v>
+      </c>
+      <c r="W100" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="108"/>
+      <c r="B101" s="122"/>
       <c r="C101" s="18" t="s">
         <v>115</v>
       </c>
@@ -7978,15 +7990,15 @@
       <c r="Q101" s="50">
         <v>0</v>
       </c>
-      <c r="R101" s="122"/>
-      <c r="S101" s="122"/>
-      <c r="T101" s="122"/>
-      <c r="U101" s="122"/>
-      <c r="V101" s="122"/>
-      <c r="W101" s="123"/>
+      <c r="R101" s="98"/>
+      <c r="S101" s="98"/>
+      <c r="T101" s="98"/>
+      <c r="U101" s="98"/>
+      <c r="V101" s="98"/>
+      <c r="W101" s="99"/>
     </row>
     <row r="102" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="108"/>
+      <c r="B102" s="122"/>
       <c r="C102" s="18" t="s">
         <v>98</v>
       </c>
@@ -8031,15 +8043,15 @@
       <c r="Q102" s="50">
         <v>0</v>
       </c>
-      <c r="R102" s="122"/>
-      <c r="S102" s="122"/>
-      <c r="T102" s="122"/>
-      <c r="U102" s="122"/>
-      <c r="V102" s="122"/>
-      <c r="W102" s="123"/>
+      <c r="R102" s="98"/>
+      <c r="S102" s="98"/>
+      <c r="T102" s="98"/>
+      <c r="U102" s="98"/>
+      <c r="V102" s="98"/>
+      <c r="W102" s="99"/>
     </row>
     <row r="103" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="108"/>
+      <c r="B103" s="122"/>
       <c r="C103" s="18" t="s">
         <v>99</v>
       </c>
@@ -8084,15 +8096,15 @@
       <c r="Q103" s="50">
         <v>0</v>
       </c>
-      <c r="R103" s="124"/>
-      <c r="S103" s="122"/>
-      <c r="T103" s="122"/>
-      <c r="U103" s="122"/>
-      <c r="V103" s="122"/>
-      <c r="W103" s="123"/>
+      <c r="R103" s="100"/>
+      <c r="S103" s="98"/>
+      <c r="T103" s="98"/>
+      <c r="U103" s="98"/>
+      <c r="V103" s="98"/>
+      <c r="W103" s="99"/>
     </row>
     <row r="104" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="108"/>
+      <c r="B104" s="122"/>
       <c r="C104" s="18" t="s">
         <v>100</v>
       </c>
@@ -8157,7 +8169,7 @@
       </c>
     </row>
     <row r="105" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="108"/>
+      <c r="B105" s="122"/>
       <c r="C105" s="18" t="s">
         <v>101</v>
       </c>
@@ -8202,15 +8214,15 @@
       <c r="Q105" s="50">
         <v>0</v>
       </c>
-      <c r="R105" s="122"/>
-      <c r="S105" s="122"/>
-      <c r="T105" s="122"/>
-      <c r="U105" s="122"/>
-      <c r="V105" s="122"/>
-      <c r="W105" s="123"/>
+      <c r="R105" s="98"/>
+      <c r="S105" s="98"/>
+      <c r="T105" s="98"/>
+      <c r="U105" s="98"/>
+      <c r="V105" s="98"/>
+      <c r="W105" s="99"/>
     </row>
     <row r="106" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="109"/>
+      <c r="B106" s="123"/>
       <c r="C106" s="18" t="s">
         <v>102</v>
       </c>
@@ -8497,21 +8509,21 @@
       </c>
     </row>
     <row r="111" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="120" t="s">
+      <c r="B111" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="C111" s="121"/>
-      <c r="D111" s="121"/>
-      <c r="E111" s="121"/>
-      <c r="F111" s="121"/>
-      <c r="G111" s="121"/>
+      <c r="C111" s="115"/>
+      <c r="D111" s="115"/>
+      <c r="E111" s="115"/>
+      <c r="F111" s="115"/>
+      <c r="G111" s="115"/>
       <c r="H111" s="27">
         <f t="shared" ref="H111:W111" si="2">SUM(H4:H110)</f>
         <v>35.800000000000004</v>
       </c>
       <c r="I111" s="14">
         <f t="shared" si="2"/>
-        <v>17.801999999999996</v>
+        <v>18.718999999999998</v>
       </c>
       <c r="J111" s="12">
         <f t="shared" si="2"/>
@@ -8547,7 +8559,7 @@
       </c>
       <c r="R111" s="15">
         <f t="shared" si="2"/>
-        <v>2.57</v>
+        <v>3.4870000000000001</v>
       </c>
       <c r="S111" s="15">
         <f t="shared" si="2"/>
@@ -8579,22 +8591,22 @@
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
-      <c r="J112" s="98" t="s">
+      <c r="J112" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="K112" s="99"/>
-      <c r="L112" s="99"/>
-      <c r="M112" s="99"/>
-      <c r="N112" s="99"/>
-      <c r="O112" s="99"/>
-      <c r="P112" s="99"/>
-      <c r="Q112" s="99"/>
-      <c r="R112" s="99"/>
-      <c r="S112" s="99"/>
-      <c r="T112" s="99"/>
-      <c r="U112" s="99"/>
-      <c r="V112" s="99"/>
-      <c r="W112" s="100"/>
+      <c r="K112" s="102"/>
+      <c r="L112" s="102"/>
+      <c r="M112" s="102"/>
+      <c r="N112" s="102"/>
+      <c r="O112" s="102"/>
+      <c r="P112" s="102"/>
+      <c r="Q112" s="102"/>
+      <c r="R112" s="102"/>
+      <c r="S112" s="102"/>
+      <c r="T112" s="102"/>
+      <c r="U112" s="102"/>
+      <c r="V112" s="102"/>
+      <c r="W112" s="103"/>
     </row>
     <row r="113" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B113" s="2"/>
@@ -8619,10 +8631,10 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
-      <c r="H114" s="98" t="s">
+      <c r="H114" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="I114" s="110"/>
+      <c r="I114" s="124"/>
       <c r="J114" s="13">
         <f>H111-J111</f>
         <v>35.800000000000004</v>
@@ -8657,27 +8669,27 @@
       </c>
       <c r="R114" s="13">
         <f t="shared" si="3"/>
-        <v>17.997999999999998</v>
+        <v>17.080999999999996</v>
       </c>
       <c r="S114" s="13">
         <f t="shared" si="3"/>
-        <v>17.997999999999998</v>
+        <v>17.080999999999996</v>
       </c>
       <c r="T114" s="13">
         <f t="shared" si="3"/>
-        <v>17.997999999999998</v>
+        <v>17.080999999999996</v>
       </c>
       <c r="U114" s="13">
         <f t="shared" si="3"/>
-        <v>17.997999999999998</v>
+        <v>17.080999999999996</v>
       </c>
       <c r="V114" s="13">
         <f t="shared" si="3"/>
-        <v>17.997999999999998</v>
+        <v>17.080999999999996</v>
       </c>
       <c r="W114" s="13">
         <f t="shared" si="3"/>
-        <v>17.997999999999998</v>
+        <v>17.080999999999996</v>
       </c>
     </row>
     <row r="115" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8700,27 +8712,27 @@
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
-      <c r="H116" s="98" t="s">
+      <c r="H116" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="I116" s="99"/>
-      <c r="J116" s="98">
+      <c r="I116" s="102"/>
+      <c r="J116" s="101">
         <f>H111-I111</f>
-        <v>17.998000000000008</v>
-      </c>
-      <c r="K116" s="99"/>
-      <c r="L116" s="99"/>
-      <c r="M116" s="99"/>
-      <c r="N116" s="99"/>
-      <c r="O116" s="99"/>
-      <c r="P116" s="99"/>
-      <c r="Q116" s="99"/>
-      <c r="R116" s="99"/>
-      <c r="S116" s="99"/>
-      <c r="T116" s="99"/>
-      <c r="U116" s="99"/>
-      <c r="V116" s="99"/>
-      <c r="W116" s="100"/>
+        <v>17.081000000000007</v>
+      </c>
+      <c r="K116" s="102"/>
+      <c r="L116" s="102"/>
+      <c r="M116" s="102"/>
+      <c r="N116" s="102"/>
+      <c r="O116" s="102"/>
+      <c r="P116" s="102"/>
+      <c r="Q116" s="102"/>
+      <c r="R116" s="102"/>
+      <c r="S116" s="102"/>
+      <c r="T116" s="102"/>
+      <c r="U116" s="102"/>
+      <c r="V116" s="102"/>
+      <c r="W116" s="103"/>
     </row>
     <row r="117" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B117" s="3"/>
@@ -8808,6 +8820,13 @@
     <row r="135" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="J116:W116"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B78:B97"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="B98:B106"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H116:I116"/>
     <mergeCell ref="J2:W2"/>
     <mergeCell ref="J112:W112"/>
     <mergeCell ref="B14:B63"/>
@@ -8816,13 +8835,6 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B111:G111"/>
-    <mergeCell ref="J116:W116"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B78:B97"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="B98:B106"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H116:I116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devildrake\Documents\MAP_LegendOfRadev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Enti\MAP\The_Legend_of_Radev\MAP_LegendOfRadev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1049,7 +1049,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1322,6 +1322,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1346,9 +1376,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1358,32 +1385,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1403,7 +1406,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1469,28 +1472,28 @@
                   <c:v>20.567999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.080999999999996</c:v>
+                  <c:v>16.920999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.080999999999996</c:v>
+                  <c:v>16.920999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.080999999999996</c:v>
+                  <c:v>16.920999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17.080999999999996</c:v>
+                  <c:v>16.920999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.080999999999996</c:v>
+                  <c:v>16.920999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.080999999999996</c:v>
+                  <c:v>16.920999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-08BE-4709-9DE4-AEC2E98B8D97}"/>
             </c:ext>
@@ -1580,7 +1583,7 @@
         <xdr:cNvPr id="4" name="3 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,28 +1893,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R108" sqref="R108"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R69" sqref="R69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>118</v>
       </c>
@@ -1919,7 +1922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J2" s="101" t="s">
         <v>5</v>
       </c>
@@ -1937,7 +1940,7 @@
       <c r="V2" s="102"/>
       <c r="W2" s="103"/>
     </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="89" t="s">
         <v>7</v>
       </c>
@@ -2005,8 +2008,8 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="109" t="s">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="119" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="56" t="s">
@@ -2072,9 +2075,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="110"/>
-      <c r="C5" s="112" t="s">
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="120"/>
+      <c r="C5" s="104" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="77" t="s">
@@ -2139,9 +2142,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="110"/>
-      <c r="C6" s="113"/>
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="120"/>
+      <c r="C6" s="122"/>
       <c r="D6" s="17" t="s">
         <v>20</v>
       </c>
@@ -2204,8 +2207,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="110"/>
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="120"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
@@ -2269,8 +2272,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="110"/>
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="120"/>
       <c r="C8" s="76" t="s">
         <v>16</v>
       </c>
@@ -2334,8 +2337,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="111"/>
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="121"/>
       <c r="C9" s="36" t="s">
         <v>109</v>
       </c>
@@ -2399,8 +2402,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B10" s="107" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="117" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="93" t="s">
@@ -2454,8 +2457,8 @@
       <c r="V10" s="34"/>
       <c r="W10" s="35"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B11" s="107"/>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="117"/>
       <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2507,9 +2510,9 @@
       <c r="V11" s="20"/>
       <c r="W11" s="28"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B12" s="107"/>
-      <c r="C12" s="112" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="117"/>
+      <c r="C12" s="104" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="49" t="s">
@@ -2562,9 +2565,9 @@
       <c r="V12" s="23"/>
       <c r="W12" s="30"/>
     </row>
-    <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="108"/>
-      <c r="C13" s="116"/>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="118"/>
+      <c r="C13" s="105"/>
       <c r="D13" s="37" t="s">
         <v>117</v>
       </c>
@@ -2615,8 +2618,8 @@
       <c r="V13" s="40"/>
       <c r="W13" s="41"/>
     </row>
-    <row r="14" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="104" t="s">
+    <row r="14" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="114" t="s">
         <v>119</v>
       </c>
       <c r="C14" s="16" t="s">
@@ -2682,8 +2685,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="104"/>
+    <row r="15" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="114"/>
       <c r="C15" s="4" t="s">
         <v>26</v>
       </c>
@@ -2747,8 +2750,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="104"/>
+    <row r="16" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="114"/>
       <c r="C16" s="4" t="s">
         <v>28</v>
       </c>
@@ -2812,8 +2815,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="104"/>
+    <row r="17" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="114"/>
       <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
@@ -2877,8 +2880,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="104"/>
+    <row r="18" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="114"/>
       <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
@@ -2942,8 +2945,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="104"/>
+    <row r="19" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="114"/>
       <c r="C19" s="4" t="s">
         <v>31</v>
       </c>
@@ -3007,8 +3010,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="104"/>
+    <row r="20" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="114"/>
       <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
@@ -3072,8 +3075,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="104"/>
+    <row r="21" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="114"/>
       <c r="C21" s="4" t="s">
         <v>33</v>
       </c>
@@ -3137,8 +3140,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="104"/>
+    <row r="22" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="114"/>
       <c r="C22" s="4" t="s">
         <v>34</v>
       </c>
@@ -3202,8 +3205,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="104"/>
+    <row r="23" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="114"/>
       <c r="C23" s="4" t="s">
         <v>35</v>
       </c>
@@ -3267,8 +3270,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="104"/>
+    <row r="24" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="114"/>
       <c r="C24" s="4" t="s">
         <v>36</v>
       </c>
@@ -3332,8 +3335,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="104"/>
+    <row r="25" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="114"/>
       <c r="C25" s="4" t="s">
         <v>37</v>
       </c>
@@ -3397,8 +3400,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="104"/>
+    <row r="26" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="114"/>
       <c r="C26" s="4" t="s">
         <v>38</v>
       </c>
@@ -3462,8 +3465,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="104"/>
+    <row r="27" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="114"/>
       <c r="C27" s="4" t="s">
         <v>39</v>
       </c>
@@ -3527,8 +3530,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="104"/>
+    <row r="28" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="114"/>
       <c r="C28" s="4" t="s">
         <v>40</v>
       </c>
@@ -3592,8 +3595,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="104"/>
+    <row r="29" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="114"/>
       <c r="C29" s="4" t="s">
         <v>41</v>
       </c>
@@ -3657,8 +3660,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="104"/>
+    <row r="30" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="114"/>
       <c r="C30" s="4" t="s">
         <v>42</v>
       </c>
@@ -3722,8 +3725,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="104"/>
+    <row r="31" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="114"/>
       <c r="C31" s="4" t="s">
         <v>43</v>
       </c>
@@ -3787,8 +3790,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="104"/>
+    <row r="32" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="114"/>
       <c r="C32" s="4" t="s">
         <v>44</v>
       </c>
@@ -3852,8 +3855,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="104"/>
+    <row r="33" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="114"/>
       <c r="C33" s="4" t="s">
         <v>45</v>
       </c>
@@ -3917,8 +3920,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="104"/>
+    <row r="34" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="114"/>
       <c r="C34" s="4" t="s">
         <v>46</v>
       </c>
@@ -3982,8 +3985,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="104"/>
+    <row r="35" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="114"/>
       <c r="C35" s="4" t="s">
         <v>47</v>
       </c>
@@ -4047,8 +4050,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="104"/>
+    <row r="36" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="114"/>
       <c r="C36" s="4" t="s">
         <v>48</v>
       </c>
@@ -4112,8 +4115,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="104"/>
+    <row r="37" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="114"/>
       <c r="C37" s="4" t="s">
         <v>49</v>
       </c>
@@ -4177,8 +4180,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="104"/>
+    <row r="38" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="114"/>
       <c r="C38" s="4" t="s">
         <v>50</v>
       </c>
@@ -4242,8 +4245,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="104"/>
+    <row r="39" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="114"/>
       <c r="C39" s="4" t="s">
         <v>51</v>
       </c>
@@ -4307,8 +4310,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="104"/>
+    <row r="40" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="114"/>
       <c r="C40" s="4" t="s">
         <v>52</v>
       </c>
@@ -4372,8 +4375,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="104"/>
+    <row r="41" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="114"/>
       <c r="C41" s="4" t="s">
         <v>53</v>
       </c>
@@ -4437,8 +4440,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="104"/>
+    <row r="42" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="114"/>
       <c r="C42" s="4" t="s">
         <v>54</v>
       </c>
@@ -4502,8 +4505,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="104"/>
+    <row r="43" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="114"/>
       <c r="C43" s="4" t="s">
         <v>55</v>
       </c>
@@ -4567,8 +4570,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="104"/>
+    <row r="44" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="114"/>
       <c r="C44" s="4" t="s">
         <v>56</v>
       </c>
@@ -4632,8 +4635,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="104"/>
+    <row r="45" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="114"/>
       <c r="C45" s="4" t="s">
         <v>57</v>
       </c>
@@ -4697,8 +4700,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="104"/>
+    <row r="46" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="114"/>
       <c r="C46" s="4" t="s">
         <v>58</v>
       </c>
@@ -4762,8 +4765,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="104"/>
+    <row r="47" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="114"/>
       <c r="C47" s="4" t="s">
         <v>59</v>
       </c>
@@ -4827,8 +4830,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="104"/>
+    <row r="48" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="114"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
@@ -4892,8 +4895,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="104"/>
+    <row r="49" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="114"/>
       <c r="C49" s="18" t="s">
         <v>61</v>
       </c>
@@ -4957,8 +4960,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="104"/>
+    <row r="50" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="114"/>
       <c r="C50" s="18" t="s">
         <v>77</v>
       </c>
@@ -5010,8 +5013,8 @@
       <c r="V50" s="20"/>
       <c r="W50" s="28"/>
     </row>
-    <row r="51" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="104"/>
+    <row r="51" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="114"/>
       <c r="C51" s="18" t="s">
         <v>78</v>
       </c>
@@ -5063,8 +5066,8 @@
       <c r="V51" s="20"/>
       <c r="W51" s="28"/>
     </row>
-    <row r="52" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="104"/>
+    <row r="52" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="114"/>
       <c r="C52" s="18" t="s">
         <v>79</v>
       </c>
@@ -5116,8 +5119,8 @@
       <c r="V52" s="20"/>
       <c r="W52" s="28"/>
     </row>
-    <row r="53" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="104"/>
+    <row r="53" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="114"/>
       <c r="C53" s="18" t="s">
         <v>80</v>
       </c>
@@ -5169,8 +5172,8 @@
       <c r="V53" s="20"/>
       <c r="W53" s="28"/>
     </row>
-    <row r="54" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="104"/>
+    <row r="54" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="114"/>
       <c r="C54" s="18" t="s">
         <v>81</v>
       </c>
@@ -5222,8 +5225,8 @@
       <c r="V54" s="20"/>
       <c r="W54" s="28"/>
     </row>
-    <row r="55" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="104"/>
+    <row r="55" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="114"/>
       <c r="C55" s="18" t="s">
         <v>82</v>
       </c>
@@ -5275,8 +5278,8 @@
       <c r="V55" s="20"/>
       <c r="W55" s="28"/>
     </row>
-    <row r="56" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="104"/>
+    <row r="56" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="114"/>
       <c r="C56" s="18" t="s">
         <v>83</v>
       </c>
@@ -5328,8 +5331,8 @@
       <c r="V56" s="20"/>
       <c r="W56" s="28"/>
     </row>
-    <row r="57" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="104"/>
+    <row r="57" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="114"/>
       <c r="C57" s="18" t="s">
         <v>84</v>
       </c>
@@ -5381,8 +5384,8 @@
       <c r="V57" s="20"/>
       <c r="W57" s="28"/>
     </row>
-    <row r="58" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="104"/>
+    <row r="58" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="114"/>
       <c r="C58" s="18" t="s">
         <v>85</v>
       </c>
@@ -5434,8 +5437,8 @@
       <c r="V58" s="20"/>
       <c r="W58" s="28"/>
     </row>
-    <row r="59" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="104"/>
+    <row r="59" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="114"/>
       <c r="C59" s="18" t="s">
         <v>86</v>
       </c>
@@ -5487,8 +5490,8 @@
       <c r="V59" s="20"/>
       <c r="W59" s="28"/>
     </row>
-    <row r="60" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="104"/>
+    <row r="60" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="114"/>
       <c r="C60" s="18" t="s">
         <v>87</v>
       </c>
@@ -5540,8 +5543,8 @@
       <c r="V60" s="20"/>
       <c r="W60" s="28"/>
     </row>
-    <row r="61" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="104"/>
+    <row r="61" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="114"/>
       <c r="C61" s="18" t="s">
         <v>88</v>
       </c>
@@ -5593,8 +5596,8 @@
       <c r="V61" s="20"/>
       <c r="W61" s="28"/>
     </row>
-    <row r="62" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="104"/>
+    <row r="62" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="114"/>
       <c r="C62" s="18" t="s">
         <v>89</v>
       </c>
@@ -5646,8 +5649,8 @@
       <c r="V62" s="20"/>
       <c r="W62" s="28"/>
     </row>
-    <row r="63" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="105"/>
+    <row r="63" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="115"/>
       <c r="C63" s="36" t="s">
         <v>90</v>
       </c>
@@ -5699,8 +5702,8 @@
       <c r="V63" s="40"/>
       <c r="W63" s="41"/>
     </row>
-    <row r="64" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="106" t="s">
+    <row r="64" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="116" t="s">
         <v>62</v>
       </c>
       <c r="C64" s="32" t="s">
@@ -5766,8 +5769,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="104"/>
+    <row r="65" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="114"/>
       <c r="C65" s="18" t="s">
         <v>64</v>
       </c>
@@ -5786,7 +5789,7 @@
       </c>
       <c r="I65" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="J65" s="50">
         <v>0</v>
@@ -5812,15 +5815,17 @@
       <c r="Q65" s="50">
         <v>0</v>
       </c>
-      <c r="R65" s="20"/>
+      <c r="R65" s="125">
+        <v>0.16</v>
+      </c>
       <c r="S65" s="20"/>
       <c r="T65" s="20"/>
       <c r="U65" s="20"/>
       <c r="V65" s="20"/>
       <c r="W65" s="28"/>
     </row>
-    <row r="66" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="104"/>
+    <row r="66" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="114"/>
       <c r="C66" s="18" t="s">
         <v>65</v>
       </c>
@@ -5872,8 +5877,8 @@
       <c r="V66" s="20"/>
       <c r="W66" s="28"/>
     </row>
-    <row r="67" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="104"/>
+    <row r="67" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="114"/>
       <c r="C67" s="18" t="s">
         <v>66</v>
       </c>
@@ -5925,8 +5930,8 @@
       <c r="V67" s="20"/>
       <c r="W67" s="28"/>
     </row>
-    <row r="68" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="104"/>
+    <row r="68" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="114"/>
       <c r="C68" s="18" t="s">
         <v>67</v>
       </c>
@@ -5978,8 +5983,8 @@
       <c r="V68" s="20"/>
       <c r="W68" s="28"/>
     </row>
-    <row r="69" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="104"/>
+    <row r="69" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="114"/>
       <c r="C69" s="18" t="s">
         <v>68</v>
       </c>
@@ -6031,8 +6036,8 @@
       <c r="V69" s="20"/>
       <c r="W69" s="28"/>
     </row>
-    <row r="70" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="104"/>
+    <row r="70" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="114"/>
       <c r="C70" s="18" t="s">
         <v>69</v>
       </c>
@@ -6084,8 +6089,8 @@
       <c r="V70" s="20"/>
       <c r="W70" s="28"/>
     </row>
-    <row r="71" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="104"/>
+    <row r="71" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="114"/>
       <c r="C71" s="18" t="s">
         <v>70</v>
       </c>
@@ -6137,8 +6142,8 @@
       <c r="V71" s="20"/>
       <c r="W71" s="28"/>
     </row>
-    <row r="72" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="104"/>
+    <row r="72" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="114"/>
       <c r="C72" s="18" t="s">
         <v>71</v>
       </c>
@@ -6190,8 +6195,8 @@
       <c r="V72" s="20"/>
       <c r="W72" s="28"/>
     </row>
-    <row r="73" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="104"/>
+    <row r="73" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="114"/>
       <c r="C73" s="18" t="s">
         <v>72</v>
       </c>
@@ -6243,8 +6248,8 @@
       <c r="V73" s="20"/>
       <c r="W73" s="28"/>
     </row>
-    <row r="74" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="104"/>
+    <row r="74" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="114"/>
       <c r="C74" s="18" t="s">
         <v>73</v>
       </c>
@@ -6296,8 +6301,8 @@
       <c r="V74" s="20"/>
       <c r="W74" s="28"/>
     </row>
-    <row r="75" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="104"/>
+    <row r="75" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="114"/>
       <c r="C75" s="18" t="s">
         <v>74</v>
       </c>
@@ -6349,8 +6354,8 @@
       <c r="V75" s="20"/>
       <c r="W75" s="28"/>
     </row>
-    <row r="76" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="104"/>
+    <row r="76" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="114"/>
       <c r="C76" s="18" t="s">
         <v>75</v>
       </c>
@@ -6402,8 +6407,8 @@
       <c r="V76" s="20"/>
       <c r="W76" s="28"/>
     </row>
-    <row r="77" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="105"/>
+    <row r="77" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="115"/>
       <c r="C77" s="36" t="s">
         <v>76</v>
       </c>
@@ -6455,8 +6460,8 @@
       <c r="V77" s="40"/>
       <c r="W77" s="41"/>
     </row>
-    <row r="78" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="117" t="s">
+    <row r="78" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="106" t="s">
         <v>91</v>
       </c>
       <c r="C78" s="6" t="s">
@@ -6522,8 +6527,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="118"/>
+    <row r="79" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="107"/>
       <c r="C79" s="4" t="s">
         <v>26</v>
       </c>
@@ -6587,8 +6592,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="118"/>
+    <row r="80" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="107"/>
       <c r="C80" s="4" t="s">
         <v>28</v>
       </c>
@@ -6652,8 +6657,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="118"/>
+    <row r="81" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="107"/>
       <c r="C81" s="4" t="s">
         <v>29</v>
       </c>
@@ -6717,8 +6722,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="118"/>
+    <row r="82" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="107"/>
       <c r="C82" s="4" t="s">
         <v>30</v>
       </c>
@@ -6782,8 +6787,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="118"/>
+    <row r="83" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="107"/>
       <c r="C83" s="4" t="s">
         <v>31</v>
       </c>
@@ -6847,8 +6852,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="118"/>
+    <row r="84" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="107"/>
       <c r="C84" s="4" t="s">
         <v>32</v>
       </c>
@@ -6912,8 +6917,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="118"/>
+    <row r="85" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="107"/>
       <c r="C85" s="4" t="s">
         <v>33</v>
       </c>
@@ -6977,8 +6982,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="118"/>
+    <row r="86" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="107"/>
       <c r="C86" s="4" t="s">
         <v>34</v>
       </c>
@@ -7042,8 +7047,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="118"/>
+    <row r="87" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="107"/>
       <c r="C87" s="4" t="s">
         <v>35</v>
       </c>
@@ -7107,8 +7112,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="118"/>
+    <row r="88" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="107"/>
       <c r="C88" s="4" t="s">
         <v>36</v>
       </c>
@@ -7172,8 +7177,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="118"/>
+    <row r="89" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="107"/>
       <c r="C89" s="4" t="s">
         <v>37</v>
       </c>
@@ -7237,8 +7242,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="118"/>
+    <row r="90" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="107"/>
       <c r="C90" s="4" t="s">
         <v>38</v>
       </c>
@@ -7302,8 +7307,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="118"/>
+    <row r="91" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="107"/>
       <c r="C91" s="4" t="s">
         <v>39</v>
       </c>
@@ -7367,8 +7372,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="118"/>
+    <row r="92" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="107"/>
       <c r="C92" s="4" t="s">
         <v>40</v>
       </c>
@@ -7432,8 +7437,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="118"/>
+    <row r="93" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="107"/>
       <c r="C93" s="4" t="s">
         <v>41</v>
       </c>
@@ -7497,8 +7502,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="118"/>
+    <row r="94" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="107"/>
       <c r="C94" s="4" t="s">
         <v>120</v>
       </c>
@@ -7562,8 +7567,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="118"/>
+    <row r="95" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="107"/>
       <c r="C95" s="4" t="s">
         <v>121</v>
       </c>
@@ -7627,8 +7632,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="118"/>
+    <row r="96" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="107"/>
       <c r="C96" s="4" t="s">
         <v>42</v>
       </c>
@@ -7692,8 +7697,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="119"/>
+    <row r="97" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="108"/>
       <c r="C97" s="36" t="s">
         <v>92</v>
       </c>
@@ -7745,11 +7750,11 @@
       <c r="V97" s="40"/>
       <c r="W97" s="41"/>
     </row>
-    <row r="98" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="122" t="s">
+    <row r="98" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="111" t="s">
         <v>93</v>
       </c>
-      <c r="C98" s="120" t="s">
+      <c r="C98" s="109" t="s">
         <v>94</v>
       </c>
       <c r="D98" s="6" t="s">
@@ -7814,9 +7819,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="122"/>
-      <c r="C99" s="121"/>
+    <row r="99" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="111"/>
+      <c r="C99" s="110"/>
       <c r="D99" s="4" t="s">
         <v>96</v>
       </c>
@@ -7879,9 +7884,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="122"/>
-      <c r="C100" s="121"/>
+    <row r="100" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="111"/>
+      <c r="C100" s="110"/>
       <c r="D100" s="4" t="s">
         <v>97</v>
       </c>
@@ -7944,8 +7949,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="122"/>
+    <row r="101" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="111"/>
       <c r="C101" s="18" t="s">
         <v>115</v>
       </c>
@@ -7997,8 +8002,8 @@
       <c r="V101" s="98"/>
       <c r="W101" s="99"/>
     </row>
-    <row r="102" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="122"/>
+    <row r="102" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="111"/>
       <c r="C102" s="18" t="s">
         <v>98</v>
       </c>
@@ -8050,8 +8055,8 @@
       <c r="V102" s="98"/>
       <c r="W102" s="99"/>
     </row>
-    <row r="103" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="122"/>
+    <row r="103" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="111"/>
       <c r="C103" s="18" t="s">
         <v>99</v>
       </c>
@@ -8103,8 +8108,8 @@
       <c r="V103" s="98"/>
       <c r="W103" s="99"/>
     </row>
-    <row r="104" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="122"/>
+    <row r="104" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="111"/>
       <c r="C104" s="18" t="s">
         <v>100</v>
       </c>
@@ -8168,8 +8173,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="122"/>
+    <row r="105" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="111"/>
       <c r="C105" s="18" t="s">
         <v>101</v>
       </c>
@@ -8221,8 +8226,8 @@
       <c r="V105" s="98"/>
       <c r="W105" s="99"/>
     </row>
-    <row r="106" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="123"/>
+    <row r="106" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="112"/>
       <c r="C106" s="18" t="s">
         <v>102</v>
       </c>
@@ -8274,7 +8279,7 @@
       <c r="V106" s="20"/>
       <c r="W106" s="28"/>
     </row>
-    <row r="107" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="29" t="s">
         <v>103</v>
       </c>
@@ -8329,7 +8334,7 @@
       <c r="V107" s="20"/>
       <c r="W107" s="28"/>
     </row>
-    <row r="108" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="29" t="s">
         <v>111</v>
       </c>
@@ -8378,7 +8383,7 @@
       <c r="V108" s="55"/>
       <c r="W108" s="74"/>
     </row>
-    <row r="109" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B109" s="29" t="s">
         <v>112</v>
       </c>
@@ -8443,7 +8448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="19" t="s">
         <v>113</v>
       </c>
@@ -8508,22 +8513,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="114" t="s">
+    <row r="111" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="C111" s="115"/>
-      <c r="D111" s="115"/>
-      <c r="E111" s="115"/>
-      <c r="F111" s="115"/>
-      <c r="G111" s="115"/>
+      <c r="C111" s="124"/>
+      <c r="D111" s="124"/>
+      <c r="E111" s="124"/>
+      <c r="F111" s="124"/>
+      <c r="G111" s="124"/>
       <c r="H111" s="27">
         <f t="shared" ref="H111:W111" si="2">SUM(H4:H110)</f>
         <v>35.800000000000004</v>
       </c>
       <c r="I111" s="14">
         <f t="shared" si="2"/>
-        <v>18.718999999999998</v>
+        <v>18.878999999999998</v>
       </c>
       <c r="J111" s="12">
         <f t="shared" si="2"/>
@@ -8559,7 +8564,7 @@
       </c>
       <c r="R111" s="15">
         <f t="shared" si="2"/>
-        <v>3.4870000000000001</v>
+        <v>3.6470000000000002</v>
       </c>
       <c r="S111" s="15">
         <f t="shared" si="2"/>
@@ -8582,7 +8587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -8608,7 +8613,7 @@
       <c r="V112" s="102"/>
       <c r="W112" s="103"/>
     </row>
-    <row r="113" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -8624,7 +8629,7 @@
       <c r="O113" s="11"/>
       <c r="P113" s="11"/>
     </row>
-    <row r="114" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -8634,7 +8639,7 @@
       <c r="H114" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="I114" s="124"/>
+      <c r="I114" s="113"/>
       <c r="J114" s="13">
         <f>H111-J111</f>
         <v>35.800000000000004</v>
@@ -8669,30 +8674,30 @@
       </c>
       <c r="R114" s="13">
         <f t="shared" si="3"/>
-        <v>17.080999999999996</v>
+        <v>16.920999999999999</v>
       </c>
       <c r="S114" s="13">
         <f t="shared" si="3"/>
-        <v>17.080999999999996</v>
+        <v>16.920999999999999</v>
       </c>
       <c r="T114" s="13">
         <f t="shared" si="3"/>
-        <v>17.080999999999996</v>
+        <v>16.920999999999999</v>
       </c>
       <c r="U114" s="13">
         <f t="shared" si="3"/>
-        <v>17.080999999999996</v>
+        <v>16.920999999999999</v>
       </c>
       <c r="V114" s="13">
         <f t="shared" si="3"/>
-        <v>17.080999999999996</v>
+        <v>16.920999999999999</v>
       </c>
       <c r="W114" s="13">
         <f t="shared" si="3"/>
-        <v>17.080999999999996</v>
-      </c>
-    </row>
-    <row r="115" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>16.920999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -8706,7 +8711,7 @@
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
     </row>
-    <row r="116" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -8718,7 +8723,7 @@
       <c r="I116" s="102"/>
       <c r="J116" s="101">
         <f>H111-I111</f>
-        <v>17.081000000000007</v>
+        <v>16.921000000000006</v>
       </c>
       <c r="K116" s="102"/>
       <c r="L116" s="102"/>
@@ -8734,7 +8739,7 @@
       <c r="V116" s="102"/>
       <c r="W116" s="103"/>
     </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -8748,7 +8753,7 @@
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
     </row>
-    <row r="118" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -8762,7 +8767,7 @@
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
     </row>
-    <row r="119" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -8776,57 +8781,50 @@
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
     </row>
-    <row r="120" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="9"/>
     </row>
-    <row r="123" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B123" s="9"/>
     </row>
-    <row r="124" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="9"/>
     </row>
-    <row r="125" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="9"/>
     </row>
-    <row r="126" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126" s="9"/>
     </row>
-    <row r="127" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="9"/>
     </row>
-    <row r="128" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="9"/>
     </row>
-    <row r="129" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129" s="9"/>
     </row>
-    <row r="130" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B130" s="9"/>
     </row>
-    <row r="131" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B131" s="9"/>
     </row>
-    <row r="132" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B132" s="9"/>
     </row>
-    <row r="133" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B133" s="9"/>
     </row>
-    <row r="134" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="9"/>
     </row>
-    <row r="135" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="J116:W116"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B78:B97"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="B98:B106"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H116:I116"/>
     <mergeCell ref="J2:W2"/>
     <mergeCell ref="J112:W112"/>
     <mergeCell ref="B14:B63"/>
@@ -8835,6 +8833,13 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B111:G111"/>
+    <mergeCell ref="J116:W116"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B78:B97"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="B98:B106"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H116:I116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8848,7 +8853,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8860,7 +8865,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Enti\MAP\The_Legend_of_Radev\MAP_LegendOfRadev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devildrake\Documents\MAP_LegendOfRadev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1310,7 +1310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1322,9 +1322,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1352,40 +1385,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1406,7 +1406,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1472,28 +1472,28 @@
                   <c:v>20.567999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.920999999999999</c:v>
+                  <c:v>16.160999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.920999999999999</c:v>
+                  <c:v>16.160999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.920999999999999</c:v>
+                  <c:v>16.160999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.920999999999999</c:v>
+                  <c:v>16.160999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.920999999999999</c:v>
+                  <c:v>16.160999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.920999999999999</c:v>
+                  <c:v>16.160999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-08BE-4709-9DE4-AEC2E98B8D97}"/>
             </c:ext>
@@ -1508,11 +1508,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1042440816"/>
-        <c:axId val="1042434832"/>
+        <c:axId val="-349567968"/>
+        <c:axId val="-349567424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1042440816"/>
+        <c:axId val="-349567968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1522,7 +1522,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1042434832"/>
+        <c:crossAx val="-349567424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1530,7 +1530,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1042434832"/>
+        <c:axId val="-349567424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1541,7 +1541,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1042440816"/>
+        <c:crossAx val="-349567968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1583,7 +1583,7 @@
         <xdr:cNvPr id="4" name="3 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1893,28 +1893,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R69" sqref="R69"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R104" sqref="R104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>118</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J2" s="101" t="s">
         <v>5</v>
       </c>
@@ -1940,7 +1940,7 @@
       <c r="V2" s="102"/>
       <c r="W2" s="103"/>
     </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="89" t="s">
         <v>7</v>
       </c>
@@ -2008,8 +2008,8 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="119" t="s">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="109" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="56" t="s">
@@ -2075,9 +2075,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="120"/>
-      <c r="C5" s="104" t="s">
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="110"/>
+      <c r="C5" s="112" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="77" t="s">
@@ -2142,9 +2142,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="120"/>
-      <c r="C6" s="122"/>
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="110"/>
+      <c r="C6" s="113"/>
       <c r="D6" s="17" t="s">
         <v>20</v>
       </c>
@@ -2207,8 +2207,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="120"/>
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="110"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
@@ -2272,8 +2272,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="120"/>
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="110"/>
       <c r="C8" s="76" t="s">
         <v>16</v>
       </c>
@@ -2337,8 +2337,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="121"/>
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="111"/>
       <c r="C9" s="36" t="s">
         <v>109</v>
       </c>
@@ -2402,8 +2402,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="117" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B10" s="107" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="93" t="s">
@@ -2457,8 +2457,8 @@
       <c r="V10" s="34"/>
       <c r="W10" s="35"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="117"/>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B11" s="107"/>
       <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2510,9 +2510,9 @@
       <c r="V11" s="20"/>
       <c r="W11" s="28"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="117"/>
-      <c r="C12" s="104" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B12" s="107"/>
+      <c r="C12" s="112" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="49" t="s">
@@ -2565,9 +2565,9 @@
       <c r="V12" s="23"/>
       <c r="W12" s="30"/>
     </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="118"/>
-      <c r="C13" s="105"/>
+    <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="108"/>
+      <c r="C13" s="116"/>
       <c r="D13" s="37" t="s">
         <v>117</v>
       </c>
@@ -2618,8 +2618,8 @@
       <c r="V13" s="40"/>
       <c r="W13" s="41"/>
     </row>
-    <row r="14" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="114" t="s">
+    <row r="14" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="104" t="s">
         <v>119</v>
       </c>
       <c r="C14" s="16" t="s">
@@ -2685,8 +2685,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="114"/>
+    <row r="15" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="104"/>
       <c r="C15" s="4" t="s">
         <v>26</v>
       </c>
@@ -2750,8 +2750,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="114"/>
+    <row r="16" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="104"/>
       <c r="C16" s="4" t="s">
         <v>28</v>
       </c>
@@ -2815,8 +2815,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="114"/>
+    <row r="17" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="104"/>
       <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
@@ -2880,8 +2880,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="114"/>
+    <row r="18" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="104"/>
       <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
@@ -2945,8 +2945,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="114"/>
+    <row r="19" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="104"/>
       <c r="C19" s="4" t="s">
         <v>31</v>
       </c>
@@ -3010,8 +3010,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="114"/>
+    <row r="20" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="104"/>
       <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
@@ -3075,8 +3075,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="114"/>
+    <row r="21" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="104"/>
       <c r="C21" s="4" t="s">
         <v>33</v>
       </c>
@@ -3140,8 +3140,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="114"/>
+    <row r="22" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="104"/>
       <c r="C22" s="4" t="s">
         <v>34</v>
       </c>
@@ -3205,8 +3205,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="114"/>
+    <row r="23" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="104"/>
       <c r="C23" s="4" t="s">
         <v>35</v>
       </c>
@@ -3270,8 +3270,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="114"/>
+    <row r="24" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="104"/>
       <c r="C24" s="4" t="s">
         <v>36</v>
       </c>
@@ -3335,8 +3335,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="114"/>
+    <row r="25" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="104"/>
       <c r="C25" s="4" t="s">
         <v>37</v>
       </c>
@@ -3400,8 +3400,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="114"/>
+    <row r="26" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="104"/>
       <c r="C26" s="4" t="s">
         <v>38</v>
       </c>
@@ -3465,8 +3465,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="114"/>
+    <row r="27" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="104"/>
       <c r="C27" s="4" t="s">
         <v>39</v>
       </c>
@@ -3530,8 +3530,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="114"/>
+    <row r="28" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="104"/>
       <c r="C28" s="4" t="s">
         <v>40</v>
       </c>
@@ -3595,8 +3595,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="114"/>
+    <row r="29" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="104"/>
       <c r="C29" s="4" t="s">
         <v>41</v>
       </c>
@@ -3660,8 +3660,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="114"/>
+    <row r="30" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="104"/>
       <c r="C30" s="4" t="s">
         <v>42</v>
       </c>
@@ -3725,8 +3725,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="114"/>
+    <row r="31" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="104"/>
       <c r="C31" s="4" t="s">
         <v>43</v>
       </c>
@@ -3790,8 +3790,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="114"/>
+    <row r="32" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="104"/>
       <c r="C32" s="4" t="s">
         <v>44</v>
       </c>
@@ -3855,8 +3855,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="114"/>
+    <row r="33" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="104"/>
       <c r="C33" s="4" t="s">
         <v>45</v>
       </c>
@@ -3920,8 +3920,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="114"/>
+    <row r="34" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="104"/>
       <c r="C34" s="4" t="s">
         <v>46</v>
       </c>
@@ -3985,8 +3985,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="114"/>
+    <row r="35" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="104"/>
       <c r="C35" s="4" t="s">
         <v>47</v>
       </c>
@@ -4050,8 +4050,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="114"/>
+    <row r="36" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="104"/>
       <c r="C36" s="4" t="s">
         <v>48</v>
       </c>
@@ -4115,8 +4115,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="114"/>
+    <row r="37" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="104"/>
       <c r="C37" s="4" t="s">
         <v>49</v>
       </c>
@@ -4180,8 +4180,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="114"/>
+    <row r="38" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="104"/>
       <c r="C38" s="4" t="s">
         <v>50</v>
       </c>
@@ -4245,8 +4245,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="114"/>
+    <row r="39" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="104"/>
       <c r="C39" s="4" t="s">
         <v>51</v>
       </c>
@@ -4310,8 +4310,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="114"/>
+    <row r="40" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="104"/>
       <c r="C40" s="4" t="s">
         <v>52</v>
       </c>
@@ -4375,8 +4375,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="114"/>
+    <row r="41" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="104"/>
       <c r="C41" s="4" t="s">
         <v>53</v>
       </c>
@@ -4440,8 +4440,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="114"/>
+    <row r="42" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="104"/>
       <c r="C42" s="4" t="s">
         <v>54</v>
       </c>
@@ -4505,8 +4505,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="114"/>
+    <row r="43" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="104"/>
       <c r="C43" s="4" t="s">
         <v>55</v>
       </c>
@@ -4570,8 +4570,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="114"/>
+    <row r="44" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="104"/>
       <c r="C44" s="4" t="s">
         <v>56</v>
       </c>
@@ -4635,8 +4635,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="114"/>
+    <row r="45" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="104"/>
       <c r="C45" s="4" t="s">
         <v>57</v>
       </c>
@@ -4700,8 +4700,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="114"/>
+    <row r="46" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="104"/>
       <c r="C46" s="4" t="s">
         <v>58</v>
       </c>
@@ -4765,8 +4765,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="114"/>
+    <row r="47" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="104"/>
       <c r="C47" s="4" t="s">
         <v>59</v>
       </c>
@@ -4830,8 +4830,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="114"/>
+    <row r="48" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="104"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
@@ -4895,8 +4895,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="114"/>
+    <row r="49" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="104"/>
       <c r="C49" s="18" t="s">
         <v>61</v>
       </c>
@@ -4960,8 +4960,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="114"/>
+    <row r="50" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="104"/>
       <c r="C50" s="18" t="s">
         <v>77</v>
       </c>
@@ -5013,8 +5013,8 @@
       <c r="V50" s="20"/>
       <c r="W50" s="28"/>
     </row>
-    <row r="51" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="114"/>
+    <row r="51" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="104"/>
       <c r="C51" s="18" t="s">
         <v>78</v>
       </c>
@@ -5066,8 +5066,8 @@
       <c r="V51" s="20"/>
       <c r="W51" s="28"/>
     </row>
-    <row r="52" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="114"/>
+    <row r="52" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="104"/>
       <c r="C52" s="18" t="s">
         <v>79</v>
       </c>
@@ -5119,8 +5119,8 @@
       <c r="V52" s="20"/>
       <c r="W52" s="28"/>
     </row>
-    <row r="53" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="114"/>
+    <row r="53" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="104"/>
       <c r="C53" s="18" t="s">
         <v>80</v>
       </c>
@@ -5172,8 +5172,8 @@
       <c r="V53" s="20"/>
       <c r="W53" s="28"/>
     </row>
-    <row r="54" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="114"/>
+    <row r="54" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="104"/>
       <c r="C54" s="18" t="s">
         <v>81</v>
       </c>
@@ -5225,8 +5225,8 @@
       <c r="V54" s="20"/>
       <c r="W54" s="28"/>
     </row>
-    <row r="55" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="114"/>
+    <row r="55" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="104"/>
       <c r="C55" s="18" t="s">
         <v>82</v>
       </c>
@@ -5278,8 +5278,8 @@
       <c r="V55" s="20"/>
       <c r="W55" s="28"/>
     </row>
-    <row r="56" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="114"/>
+    <row r="56" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="104"/>
       <c r="C56" s="18" t="s">
         <v>83</v>
       </c>
@@ -5331,8 +5331,8 @@
       <c r="V56" s="20"/>
       <c r="W56" s="28"/>
     </row>
-    <row r="57" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="114"/>
+    <row r="57" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="104"/>
       <c r="C57" s="18" t="s">
         <v>84</v>
       </c>
@@ -5384,8 +5384,8 @@
       <c r="V57" s="20"/>
       <c r="W57" s="28"/>
     </row>
-    <row r="58" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="114"/>
+    <row r="58" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="104"/>
       <c r="C58" s="18" t="s">
         <v>85</v>
       </c>
@@ -5437,8 +5437,8 @@
       <c r="V58" s="20"/>
       <c r="W58" s="28"/>
     </row>
-    <row r="59" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="114"/>
+    <row r="59" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="104"/>
       <c r="C59" s="18" t="s">
         <v>86</v>
       </c>
@@ -5490,8 +5490,8 @@
       <c r="V59" s="20"/>
       <c r="W59" s="28"/>
     </row>
-    <row r="60" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="114"/>
+    <row r="60" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="104"/>
       <c r="C60" s="18" t="s">
         <v>87</v>
       </c>
@@ -5543,8 +5543,8 @@
       <c r="V60" s="20"/>
       <c r="W60" s="28"/>
     </row>
-    <row r="61" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="114"/>
+    <row r="61" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="104"/>
       <c r="C61" s="18" t="s">
         <v>88</v>
       </c>
@@ -5596,8 +5596,8 @@
       <c r="V61" s="20"/>
       <c r="W61" s="28"/>
     </row>
-    <row r="62" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="114"/>
+    <row r="62" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="104"/>
       <c r="C62" s="18" t="s">
         <v>89</v>
       </c>
@@ -5649,8 +5649,8 @@
       <c r="V62" s="20"/>
       <c r="W62" s="28"/>
     </row>
-    <row r="63" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="115"/>
+    <row r="63" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="105"/>
       <c r="C63" s="36" t="s">
         <v>90</v>
       </c>
@@ -5702,8 +5702,8 @@
       <c r="V63" s="40"/>
       <c r="W63" s="41"/>
     </row>
-    <row r="64" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="116" t="s">
+    <row r="64" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="106" t="s">
         <v>62</v>
       </c>
       <c r="C64" s="32" t="s">
@@ -5744,7 +5744,7 @@
       <c r="O64" s="52">
         <v>0</v>
       </c>
-      <c r="P64" s="66">
+      <c r="P64" s="70">
         <v>1.83</v>
       </c>
       <c r="Q64" s="70">
@@ -5769,8 +5769,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="114"/>
+    <row r="65" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="104"/>
       <c r="C65" s="18" t="s">
         <v>64</v>
       </c>
@@ -5815,7 +5815,7 @@
       <c r="Q65" s="50">
         <v>0</v>
       </c>
-      <c r="R65" s="125">
+      <c r="R65" s="100">
         <v>0.16</v>
       </c>
       <c r="S65" s="20"/>
@@ -5824,8 +5824,8 @@
       <c r="V65" s="20"/>
       <c r="W65" s="28"/>
     </row>
-    <row r="66" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="114"/>
+    <row r="66" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="104"/>
       <c r="C66" s="18" t="s">
         <v>65</v>
       </c>
@@ -5877,8 +5877,8 @@
       <c r="V66" s="20"/>
       <c r="W66" s="28"/>
     </row>
-    <row r="67" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="114"/>
+    <row r="67" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="104"/>
       <c r="C67" s="18" t="s">
         <v>66</v>
       </c>
@@ -5930,8 +5930,8 @@
       <c r="V67" s="20"/>
       <c r="W67" s="28"/>
     </row>
-    <row r="68" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="114"/>
+    <row r="68" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="104"/>
       <c r="C68" s="18" t="s">
         <v>67</v>
       </c>
@@ -5983,8 +5983,8 @@
       <c r="V68" s="20"/>
       <c r="W68" s="28"/>
     </row>
-    <row r="69" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="114"/>
+    <row r="69" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="104"/>
       <c r="C69" s="18" t="s">
         <v>68</v>
       </c>
@@ -6036,8 +6036,8 @@
       <c r="V69" s="20"/>
       <c r="W69" s="28"/>
     </row>
-    <row r="70" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="114"/>
+    <row r="70" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="104"/>
       <c r="C70" s="18" t="s">
         <v>69</v>
       </c>
@@ -6089,8 +6089,8 @@
       <c r="V70" s="20"/>
       <c r="W70" s="28"/>
     </row>
-    <row r="71" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="114"/>
+    <row r="71" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="104"/>
       <c r="C71" s="18" t="s">
         <v>70</v>
       </c>
@@ -6142,8 +6142,8 @@
       <c r="V71" s="20"/>
       <c r="W71" s="28"/>
     </row>
-    <row r="72" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="114"/>
+    <row r="72" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="104"/>
       <c r="C72" s="18" t="s">
         <v>71</v>
       </c>
@@ -6195,8 +6195,8 @@
       <c r="V72" s="20"/>
       <c r="W72" s="28"/>
     </row>
-    <row r="73" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="114"/>
+    <row r="73" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="104"/>
       <c r="C73" s="18" t="s">
         <v>72</v>
       </c>
@@ -6248,8 +6248,8 @@
       <c r="V73" s="20"/>
       <c r="W73" s="28"/>
     </row>
-    <row r="74" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="114"/>
+    <row r="74" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="104"/>
       <c r="C74" s="18" t="s">
         <v>73</v>
       </c>
@@ -6301,8 +6301,8 @@
       <c r="V74" s="20"/>
       <c r="W74" s="28"/>
     </row>
-    <row r="75" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="114"/>
+    <row r="75" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="104"/>
       <c r="C75" s="18" t="s">
         <v>74</v>
       </c>
@@ -6354,8 +6354,8 @@
       <c r="V75" s="20"/>
       <c r="W75" s="28"/>
     </row>
-    <row r="76" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="114"/>
+    <row r="76" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="104"/>
       <c r="C76" s="18" t="s">
         <v>75</v>
       </c>
@@ -6407,8 +6407,8 @@
       <c r="V76" s="20"/>
       <c r="W76" s="28"/>
     </row>
-    <row r="77" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="115"/>
+    <row r="77" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="105"/>
       <c r="C77" s="36" t="s">
         <v>76</v>
       </c>
@@ -6460,8 +6460,8 @@
       <c r="V77" s="40"/>
       <c r="W77" s="41"/>
     </row>
-    <row r="78" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="106" t="s">
+    <row r="78" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="117" t="s">
         <v>91</v>
       </c>
       <c r="C78" s="6" t="s">
@@ -6527,8 +6527,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="107"/>
+    <row r="79" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="118"/>
       <c r="C79" s="4" t="s">
         <v>26</v>
       </c>
@@ -6592,8 +6592,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="107"/>
+    <row r="80" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="118"/>
       <c r="C80" s="4" t="s">
         <v>28</v>
       </c>
@@ -6657,8 +6657,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="107"/>
+    <row r="81" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="118"/>
       <c r="C81" s="4" t="s">
         <v>29</v>
       </c>
@@ -6722,8 +6722,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="107"/>
+    <row r="82" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="118"/>
       <c r="C82" s="4" t="s">
         <v>30</v>
       </c>
@@ -6787,8 +6787,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="107"/>
+    <row r="83" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="118"/>
       <c r="C83" s="4" t="s">
         <v>31</v>
       </c>
@@ -6852,8 +6852,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="107"/>
+    <row r="84" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="118"/>
       <c r="C84" s="4" t="s">
         <v>32</v>
       </c>
@@ -6917,8 +6917,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="107"/>
+    <row r="85" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="118"/>
       <c r="C85" s="4" t="s">
         <v>33</v>
       </c>
@@ -6982,8 +6982,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="107"/>
+    <row r="86" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="118"/>
       <c r="C86" s="4" t="s">
         <v>34</v>
       </c>
@@ -7047,8 +7047,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="107"/>
+    <row r="87" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="118"/>
       <c r="C87" s="4" t="s">
         <v>35</v>
       </c>
@@ -7112,8 +7112,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="107"/>
+    <row r="88" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="118"/>
       <c r="C88" s="4" t="s">
         <v>36</v>
       </c>
@@ -7177,8 +7177,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="107"/>
+    <row r="89" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="118"/>
       <c r="C89" s="4" t="s">
         <v>37</v>
       </c>
@@ -7242,8 +7242,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="107"/>
+    <row r="90" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="118"/>
       <c r="C90" s="4" t="s">
         <v>38</v>
       </c>
@@ -7307,8 +7307,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="107"/>
+    <row r="91" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="118"/>
       <c r="C91" s="4" t="s">
         <v>39</v>
       </c>
@@ -7372,8 +7372,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="107"/>
+    <row r="92" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="118"/>
       <c r="C92" s="4" t="s">
         <v>40</v>
       </c>
@@ -7437,8 +7437,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="107"/>
+    <row r="93" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="118"/>
       <c r="C93" s="4" t="s">
         <v>41</v>
       </c>
@@ -7502,8 +7502,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="107"/>
+    <row r="94" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="118"/>
       <c r="C94" s="4" t="s">
         <v>120</v>
       </c>
@@ -7567,8 +7567,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="107"/>
+    <row r="95" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="118"/>
       <c r="C95" s="4" t="s">
         <v>121</v>
       </c>
@@ -7632,8 +7632,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="107"/>
+    <row r="96" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="118"/>
       <c r="C96" s="4" t="s">
         <v>42</v>
       </c>
@@ -7697,8 +7697,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="108"/>
+    <row r="97" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="119"/>
       <c r="C97" s="36" t="s">
         <v>92</v>
       </c>
@@ -7750,11 +7750,11 @@
       <c r="V97" s="40"/>
       <c r="W97" s="41"/>
     </row>
-    <row r="98" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="111" t="s">
+    <row r="98" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="C98" s="109" t="s">
+      <c r="C98" s="120" t="s">
         <v>94</v>
       </c>
       <c r="D98" s="6" t="s">
@@ -7819,9 +7819,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="111"/>
-      <c r="C99" s="110"/>
+    <row r="99" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="122"/>
+      <c r="C99" s="121"/>
       <c r="D99" s="4" t="s">
         <v>96</v>
       </c>
@@ -7884,9 +7884,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="111"/>
-      <c r="C100" s="110"/>
+    <row r="100" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="122"/>
+      <c r="C100" s="121"/>
       <c r="D100" s="4" t="s">
         <v>97</v>
       </c>
@@ -7949,8 +7949,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="111"/>
+    <row r="101" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="122"/>
       <c r="C101" s="18" t="s">
         <v>115</v>
       </c>
@@ -8002,8 +8002,8 @@
       <c r="V101" s="98"/>
       <c r="W101" s="99"/>
     </row>
-    <row r="102" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="111"/>
+    <row r="102" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="122"/>
       <c r="C102" s="18" t="s">
         <v>98</v>
       </c>
@@ -8055,8 +8055,8 @@
       <c r="V102" s="98"/>
       <c r="W102" s="99"/>
     </row>
-    <row r="103" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="111"/>
+    <row r="103" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B103" s="122"/>
       <c r="C103" s="18" t="s">
         <v>99</v>
       </c>
@@ -8075,7 +8075,7 @@
       </c>
       <c r="I103" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="J103" s="50">
         <v>0</v>
@@ -8101,15 +8101,17 @@
       <c r="Q103" s="50">
         <v>0</v>
       </c>
-      <c r="R103" s="100"/>
+      <c r="R103" s="125">
+        <v>0.76</v>
+      </c>
       <c r="S103" s="98"/>
       <c r="T103" s="98"/>
       <c r="U103" s="98"/>
       <c r="V103" s="98"/>
       <c r="W103" s="99"/>
     </row>
-    <row r="104" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="111"/>
+    <row r="104" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B104" s="122"/>
       <c r="C104" s="18" t="s">
         <v>100</v>
       </c>
@@ -8173,8 +8175,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="111"/>
+    <row r="105" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B105" s="122"/>
       <c r="C105" s="18" t="s">
         <v>101</v>
       </c>
@@ -8226,8 +8228,8 @@
       <c r="V105" s="98"/>
       <c r="W105" s="99"/>
     </row>
-    <row r="106" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="112"/>
+    <row r="106" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B106" s="123"/>
       <c r="C106" s="18" t="s">
         <v>102</v>
       </c>
@@ -8279,7 +8281,7 @@
       <c r="V106" s="20"/>
       <c r="W106" s="28"/>
     </row>
-    <row r="107" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B107" s="29" t="s">
         <v>103</v>
       </c>
@@ -8334,7 +8336,7 @@
       <c r="V107" s="20"/>
       <c r="W107" s="28"/>
     </row>
-    <row r="108" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B108" s="29" t="s">
         <v>111</v>
       </c>
@@ -8383,7 +8385,7 @@
       <c r="V108" s="55"/>
       <c r="W108" s="74"/>
     </row>
-    <row r="109" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B109" s="29" t="s">
         <v>112</v>
       </c>
@@ -8448,7 +8450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B110" s="19" t="s">
         <v>113</v>
       </c>
@@ -8513,22 +8515,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="123" t="s">
+    <row r="111" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B111" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="C111" s="124"/>
-      <c r="D111" s="124"/>
-      <c r="E111" s="124"/>
-      <c r="F111" s="124"/>
-      <c r="G111" s="124"/>
+      <c r="C111" s="115"/>
+      <c r="D111" s="115"/>
+      <c r="E111" s="115"/>
+      <c r="F111" s="115"/>
+      <c r="G111" s="115"/>
       <c r="H111" s="27">
         <f t="shared" ref="H111:W111" si="2">SUM(H4:H110)</f>
         <v>35.800000000000004</v>
       </c>
       <c r="I111" s="14">
         <f t="shared" si="2"/>
-        <v>18.878999999999998</v>
+        <v>19.638999999999999</v>
       </c>
       <c r="J111" s="12">
         <f t="shared" si="2"/>
@@ -8564,7 +8566,7 @@
       </c>
       <c r="R111" s="15">
         <f t="shared" si="2"/>
-        <v>3.6470000000000002</v>
+        <v>4.407</v>
       </c>
       <c r="S111" s="15">
         <f t="shared" si="2"/>
@@ -8587,7 +8589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -8613,7 +8615,7 @@
       <c r="V112" s="102"/>
       <c r="W112" s="103"/>
     </row>
-    <row r="113" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -8629,7 +8631,7 @@
       <c r="O113" s="11"/>
       <c r="P113" s="11"/>
     </row>
-    <row r="114" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -8639,7 +8641,7 @@
       <c r="H114" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="I114" s="113"/>
+      <c r="I114" s="124"/>
       <c r="J114" s="13">
         <f>H111-J111</f>
         <v>35.800000000000004</v>
@@ -8674,30 +8676,30 @@
       </c>
       <c r="R114" s="13">
         <f t="shared" si="3"/>
-        <v>16.920999999999999</v>
+        <v>16.160999999999998</v>
       </c>
       <c r="S114" s="13">
         <f t="shared" si="3"/>
-        <v>16.920999999999999</v>
+        <v>16.160999999999998</v>
       </c>
       <c r="T114" s="13">
         <f t="shared" si="3"/>
-        <v>16.920999999999999</v>
+        <v>16.160999999999998</v>
       </c>
       <c r="U114" s="13">
         <f t="shared" si="3"/>
-        <v>16.920999999999999</v>
+        <v>16.160999999999998</v>
       </c>
       <c r="V114" s="13">
         <f t="shared" si="3"/>
-        <v>16.920999999999999</v>
+        <v>16.160999999999998</v>
       </c>
       <c r="W114" s="13">
         <f t="shared" si="3"/>
-        <v>16.920999999999999</v>
-      </c>
-    </row>
-    <row r="115" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>16.160999999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -8711,7 +8713,7 @@
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
     </row>
-    <row r="116" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -8723,7 +8725,7 @@
       <c r="I116" s="102"/>
       <c r="J116" s="101">
         <f>H111-I111</f>
-        <v>16.921000000000006</v>
+        <v>16.161000000000005</v>
       </c>
       <c r="K116" s="102"/>
       <c r="L116" s="102"/>
@@ -8739,7 +8741,7 @@
       <c r="V116" s="102"/>
       <c r="W116" s="103"/>
     </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -8753,7 +8755,7 @@
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
     </row>
-    <row r="118" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -8767,7 +8769,7 @@
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
     </row>
-    <row r="119" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -8781,50 +8783,57 @@
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
     </row>
-    <row r="120" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B122" s="9"/>
     </row>
-    <row r="123" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B123" s="9"/>
     </row>
-    <row r="124" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B124" s="9"/>
     </row>
-    <row r="125" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B125" s="9"/>
     </row>
-    <row r="126" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
     </row>
-    <row r="127" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B127" s="9"/>
     </row>
-    <row r="128" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B128" s="9"/>
     </row>
-    <row r="129" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B129" s="9"/>
     </row>
-    <row r="130" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B130" s="9"/>
     </row>
-    <row r="131" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B131" s="9"/>
     </row>
-    <row r="132" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B132" s="9"/>
     </row>
-    <row r="133" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B133" s="9"/>
     </row>
-    <row r="134" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B134" s="9"/>
     </row>
-    <row r="135" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="J116:W116"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B78:B97"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="B98:B106"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H116:I116"/>
     <mergeCell ref="J2:W2"/>
     <mergeCell ref="J112:W112"/>
     <mergeCell ref="B14:B63"/>
@@ -8833,13 +8842,6 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B111:G111"/>
-    <mergeCell ref="J116:W116"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B78:B97"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="B98:B106"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H116:I116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8853,7 +8855,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8865,7 +8867,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
@@ -1313,6 +1313,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1322,6 +1325,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1346,9 +1379,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1357,36 +1387,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1475,19 +1475,19 @@
                   <c:v>16.160999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.160999999999998</c:v>
+                  <c:v>14.660999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.160999999999998</c:v>
+                  <c:v>14.660999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.160999999999998</c:v>
+                  <c:v>14.660999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.160999999999998</c:v>
+                  <c:v>14.660999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.160999999999998</c:v>
+                  <c:v>14.660999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1508,11 +1508,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-349567968"/>
-        <c:axId val="-349567424"/>
+        <c:axId val="1228711376"/>
+        <c:axId val="1228710288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-349567968"/>
+        <c:axId val="1228711376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1522,7 +1522,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-349567424"/>
+        <c:crossAx val="1228710288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1530,7 +1530,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-349567424"/>
+        <c:axId val="1228710288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1541,7 +1541,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-349567968"/>
+        <c:crossAx val="1228711376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1583,7 +1583,7 @@
         <xdr:cNvPr id="4" name="3 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1894,7 +1894,7 @@
   <dimension ref="A1:W135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R104" sqref="R104"/>
+      <selection activeCell="T104" sqref="T103:W104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1923,22 +1923,22 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="101" t="s">
+      <c r="J2" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="104"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="89" t="s">
@@ -2009,7 +2009,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="120" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="56" t="s">
@@ -2076,8 +2076,8 @@
       </c>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="110"/>
-      <c r="C5" s="112" t="s">
+      <c r="B5" s="121"/>
+      <c r="C5" s="105" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="77" t="s">
@@ -2143,8 +2143,8 @@
       </c>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="110"/>
-      <c r="C6" s="113"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="123"/>
       <c r="D6" s="17" t="s">
         <v>20</v>
       </c>
@@ -2208,7 +2208,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="110"/>
+      <c r="B7" s="121"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
@@ -2273,7 +2273,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="110"/>
+      <c r="B8" s="121"/>
       <c r="C8" s="76" t="s">
         <v>16</v>
       </c>
@@ -2338,7 +2338,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="111"/>
+      <c r="B9" s="122"/>
       <c r="C9" s="36" t="s">
         <v>109</v>
       </c>
@@ -2403,7 +2403,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="118" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="93" t="s">
@@ -2458,7 +2458,7 @@
       <c r="W10" s="35"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B11" s="107"/>
+      <c r="B11" s="118"/>
       <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2511,8 +2511,8 @@
       <c r="W11" s="28"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B12" s="107"/>
-      <c r="C12" s="112" t="s">
+      <c r="B12" s="118"/>
+      <c r="C12" s="105" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="49" t="s">
@@ -2566,8 +2566,8 @@
       <c r="W12" s="30"/>
     </row>
     <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="108"/>
-      <c r="C13" s="116"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="106"/>
       <c r="D13" s="37" t="s">
         <v>117</v>
       </c>
@@ -2619,7 +2619,7 @@
       <c r="W13" s="41"/>
     </row>
     <row r="14" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="115" t="s">
         <v>119</v>
       </c>
       <c r="C14" s="16" t="s">
@@ -2686,7 +2686,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="104"/>
+      <c r="B15" s="115"/>
       <c r="C15" s="4" t="s">
         <v>26</v>
       </c>
@@ -2751,7 +2751,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="104"/>
+      <c r="B16" s="115"/>
       <c r="C16" s="4" t="s">
         <v>28</v>
       </c>
@@ -2816,7 +2816,7 @@
       </c>
     </row>
     <row r="17" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="104"/>
+      <c r="B17" s="115"/>
       <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
@@ -2881,7 +2881,7 @@
       </c>
     </row>
     <row r="18" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="104"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
@@ -2946,7 +2946,7 @@
       </c>
     </row>
     <row r="19" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="104"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="4" t="s">
         <v>31</v>
       </c>
@@ -3011,7 +3011,7 @@
       </c>
     </row>
     <row r="20" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="104"/>
+      <c r="B20" s="115"/>
       <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
@@ -3076,7 +3076,7 @@
       </c>
     </row>
     <row r="21" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="104"/>
+      <c r="B21" s="115"/>
       <c r="C21" s="4" t="s">
         <v>33</v>
       </c>
@@ -3141,7 +3141,7 @@
       </c>
     </row>
     <row r="22" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="104"/>
+      <c r="B22" s="115"/>
       <c r="C22" s="4" t="s">
         <v>34</v>
       </c>
@@ -3206,7 +3206,7 @@
       </c>
     </row>
     <row r="23" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="104"/>
+      <c r="B23" s="115"/>
       <c r="C23" s="4" t="s">
         <v>35</v>
       </c>
@@ -3271,7 +3271,7 @@
       </c>
     </row>
     <row r="24" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="104"/>
+      <c r="B24" s="115"/>
       <c r="C24" s="4" t="s">
         <v>36</v>
       </c>
@@ -3336,7 +3336,7 @@
       </c>
     </row>
     <row r="25" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="104"/>
+      <c r="B25" s="115"/>
       <c r="C25" s="4" t="s">
         <v>37</v>
       </c>
@@ -3401,7 +3401,7 @@
       </c>
     </row>
     <row r="26" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="104"/>
+      <c r="B26" s="115"/>
       <c r="C26" s="4" t="s">
         <v>38</v>
       </c>
@@ -3466,7 +3466,7 @@
       </c>
     </row>
     <row r="27" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="104"/>
+      <c r="B27" s="115"/>
       <c r="C27" s="4" t="s">
         <v>39</v>
       </c>
@@ -3531,7 +3531,7 @@
       </c>
     </row>
     <row r="28" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="104"/>
+      <c r="B28" s="115"/>
       <c r="C28" s="4" t="s">
         <v>40</v>
       </c>
@@ -3596,7 +3596,7 @@
       </c>
     </row>
     <row r="29" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="104"/>
+      <c r="B29" s="115"/>
       <c r="C29" s="4" t="s">
         <v>41</v>
       </c>
@@ -3661,7 +3661,7 @@
       </c>
     </row>
     <row r="30" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="104"/>
+      <c r="B30" s="115"/>
       <c r="C30" s="4" t="s">
         <v>42</v>
       </c>
@@ -3726,7 +3726,7 @@
       </c>
     </row>
     <row r="31" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="104"/>
+      <c r="B31" s="115"/>
       <c r="C31" s="4" t="s">
         <v>43</v>
       </c>
@@ -3791,7 +3791,7 @@
       </c>
     </row>
     <row r="32" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="104"/>
+      <c r="B32" s="115"/>
       <c r="C32" s="4" t="s">
         <v>44</v>
       </c>
@@ -3856,7 +3856,7 @@
       </c>
     </row>
     <row r="33" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="104"/>
+      <c r="B33" s="115"/>
       <c r="C33" s="4" t="s">
         <v>45</v>
       </c>
@@ -3921,7 +3921,7 @@
       </c>
     </row>
     <row r="34" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="104"/>
+      <c r="B34" s="115"/>
       <c r="C34" s="4" t="s">
         <v>46</v>
       </c>
@@ -3986,7 +3986,7 @@
       </c>
     </row>
     <row r="35" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="104"/>
+      <c r="B35" s="115"/>
       <c r="C35" s="4" t="s">
         <v>47</v>
       </c>
@@ -4051,7 +4051,7 @@
       </c>
     </row>
     <row r="36" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="104"/>
+      <c r="B36" s="115"/>
       <c r="C36" s="4" t="s">
         <v>48</v>
       </c>
@@ -4116,7 +4116,7 @@
       </c>
     </row>
     <row r="37" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="104"/>
+      <c r="B37" s="115"/>
       <c r="C37" s="4" t="s">
         <v>49</v>
       </c>
@@ -4181,7 +4181,7 @@
       </c>
     </row>
     <row r="38" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="104"/>
+      <c r="B38" s="115"/>
       <c r="C38" s="4" t="s">
         <v>50</v>
       </c>
@@ -4246,7 +4246,7 @@
       </c>
     </row>
     <row r="39" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="104"/>
+      <c r="B39" s="115"/>
       <c r="C39" s="4" t="s">
         <v>51</v>
       </c>
@@ -4311,7 +4311,7 @@
       </c>
     </row>
     <row r="40" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="104"/>
+      <c r="B40" s="115"/>
       <c r="C40" s="4" t="s">
         <v>52</v>
       </c>
@@ -4376,7 +4376,7 @@
       </c>
     </row>
     <row r="41" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="104"/>
+      <c r="B41" s="115"/>
       <c r="C41" s="4" t="s">
         <v>53</v>
       </c>
@@ -4441,7 +4441,7 @@
       </c>
     </row>
     <row r="42" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="104"/>
+      <c r="B42" s="115"/>
       <c r="C42" s="4" t="s">
         <v>54</v>
       </c>
@@ -4506,7 +4506,7 @@
       </c>
     </row>
     <row r="43" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="104"/>
+      <c r="B43" s="115"/>
       <c r="C43" s="4" t="s">
         <v>55</v>
       </c>
@@ -4571,7 +4571,7 @@
       </c>
     </row>
     <row r="44" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="104"/>
+      <c r="B44" s="115"/>
       <c r="C44" s="4" t="s">
         <v>56</v>
       </c>
@@ -4636,7 +4636,7 @@
       </c>
     </row>
     <row r="45" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="104"/>
+      <c r="B45" s="115"/>
       <c r="C45" s="4" t="s">
         <v>57</v>
       </c>
@@ -4701,7 +4701,7 @@
       </c>
     </row>
     <row r="46" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="104"/>
+      <c r="B46" s="115"/>
       <c r="C46" s="4" t="s">
         <v>58</v>
       </c>
@@ -4766,7 +4766,7 @@
       </c>
     </row>
     <row r="47" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="104"/>
+      <c r="B47" s="115"/>
       <c r="C47" s="4" t="s">
         <v>59</v>
       </c>
@@ -4831,7 +4831,7 @@
       </c>
     </row>
     <row r="48" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="104"/>
+      <c r="B48" s="115"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
@@ -4896,7 +4896,7 @@
       </c>
     </row>
     <row r="49" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="104"/>
+      <c r="B49" s="115"/>
       <c r="C49" s="18" t="s">
         <v>61</v>
       </c>
@@ -4961,7 +4961,7 @@
       </c>
     </row>
     <row r="50" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="104"/>
+      <c r="B50" s="115"/>
       <c r="C50" s="18" t="s">
         <v>77</v>
       </c>
@@ -5014,7 +5014,7 @@
       <c r="W50" s="28"/>
     </row>
     <row r="51" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="104"/>
+      <c r="B51" s="115"/>
       <c r="C51" s="18" t="s">
         <v>78</v>
       </c>
@@ -5067,7 +5067,7 @@
       <c r="W51" s="28"/>
     </row>
     <row r="52" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="104"/>
+      <c r="B52" s="115"/>
       <c r="C52" s="18" t="s">
         <v>79</v>
       </c>
@@ -5120,7 +5120,7 @@
       <c r="W52" s="28"/>
     </row>
     <row r="53" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="104"/>
+      <c r="B53" s="115"/>
       <c r="C53" s="18" t="s">
         <v>80</v>
       </c>
@@ -5173,7 +5173,7 @@
       <c r="W53" s="28"/>
     </row>
     <row r="54" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="104"/>
+      <c r="B54" s="115"/>
       <c r="C54" s="18" t="s">
         <v>81</v>
       </c>
@@ -5226,7 +5226,7 @@
       <c r="W54" s="28"/>
     </row>
     <row r="55" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="104"/>
+      <c r="B55" s="115"/>
       <c r="C55" s="18" t="s">
         <v>82</v>
       </c>
@@ -5279,7 +5279,7 @@
       <c r="W55" s="28"/>
     </row>
     <row r="56" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="104"/>
+      <c r="B56" s="115"/>
       <c r="C56" s="18" t="s">
         <v>83</v>
       </c>
@@ -5332,7 +5332,7 @@
       <c r="W56" s="28"/>
     </row>
     <row r="57" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="104"/>
+      <c r="B57" s="115"/>
       <c r="C57" s="18" t="s">
         <v>84</v>
       </c>
@@ -5385,7 +5385,7 @@
       <c r="W57" s="28"/>
     </row>
     <row r="58" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="104"/>
+      <c r="B58" s="115"/>
       <c r="C58" s="18" t="s">
         <v>85</v>
       </c>
@@ -5438,7 +5438,7 @@
       <c r="W58" s="28"/>
     </row>
     <row r="59" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="104"/>
+      <c r="B59" s="115"/>
       <c r="C59" s="18" t="s">
         <v>86</v>
       </c>
@@ -5491,7 +5491,7 @@
       <c r="W59" s="28"/>
     </row>
     <row r="60" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="104"/>
+      <c r="B60" s="115"/>
       <c r="C60" s="18" t="s">
         <v>87</v>
       </c>
@@ -5544,7 +5544,7 @@
       <c r="W60" s="28"/>
     </row>
     <row r="61" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="104"/>
+      <c r="B61" s="115"/>
       <c r="C61" s="18" t="s">
         <v>88</v>
       </c>
@@ -5597,7 +5597,7 @@
       <c r="W61" s="28"/>
     </row>
     <row r="62" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="104"/>
+      <c r="B62" s="115"/>
       <c r="C62" s="18" t="s">
         <v>89</v>
       </c>
@@ -5650,7 +5650,7 @@
       <c r="W62" s="28"/>
     </row>
     <row r="63" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="105"/>
+      <c r="B63" s="116"/>
       <c r="C63" s="36" t="s">
         <v>90</v>
       </c>
@@ -5703,7 +5703,7 @@
       <c r="W63" s="41"/>
     </row>
     <row r="64" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="106" t="s">
+      <c r="B64" s="117" t="s">
         <v>62</v>
       </c>
       <c r="C64" s="32" t="s">
@@ -5770,7 +5770,7 @@
       </c>
     </row>
     <row r="65" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="104"/>
+      <c r="B65" s="115"/>
       <c r="C65" s="18" t="s">
         <v>64</v>
       </c>
@@ -5825,7 +5825,7 @@
       <c r="W65" s="28"/>
     </row>
     <row r="66" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="104"/>
+      <c r="B66" s="115"/>
       <c r="C66" s="18" t="s">
         <v>65</v>
       </c>
@@ -5878,7 +5878,7 @@
       <c r="W66" s="28"/>
     </row>
     <row r="67" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="104"/>
+      <c r="B67" s="115"/>
       <c r="C67" s="18" t="s">
         <v>66</v>
       </c>
@@ -5931,7 +5931,7 @@
       <c r="W67" s="28"/>
     </row>
     <row r="68" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="104"/>
+      <c r="B68" s="115"/>
       <c r="C68" s="18" t="s">
         <v>67</v>
       </c>
@@ -5984,7 +5984,7 @@
       <c r="W68" s="28"/>
     </row>
     <row r="69" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="104"/>
+      <c r="B69" s="115"/>
       <c r="C69" s="18" t="s">
         <v>68</v>
       </c>
@@ -6037,7 +6037,7 @@
       <c r="W69" s="28"/>
     </row>
     <row r="70" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="104"/>
+      <c r="B70" s="115"/>
       <c r="C70" s="18" t="s">
         <v>69</v>
       </c>
@@ -6090,7 +6090,7 @@
       <c r="W70" s="28"/>
     </row>
     <row r="71" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="104"/>
+      <c r="B71" s="115"/>
       <c r="C71" s="18" t="s">
         <v>70</v>
       </c>
@@ -6143,7 +6143,7 @@
       <c r="W71" s="28"/>
     </row>
     <row r="72" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="104"/>
+      <c r="B72" s="115"/>
       <c r="C72" s="18" t="s">
         <v>71</v>
       </c>
@@ -6196,7 +6196,7 @@
       <c r="W72" s="28"/>
     </row>
     <row r="73" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="104"/>
+      <c r="B73" s="115"/>
       <c r="C73" s="18" t="s">
         <v>72</v>
       </c>
@@ -6249,7 +6249,7 @@
       <c r="W73" s="28"/>
     </row>
     <row r="74" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="104"/>
+      <c r="B74" s="115"/>
       <c r="C74" s="18" t="s">
         <v>73</v>
       </c>
@@ -6302,7 +6302,7 @@
       <c r="W74" s="28"/>
     </row>
     <row r="75" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="104"/>
+      <c r="B75" s="115"/>
       <c r="C75" s="18" t="s">
         <v>74</v>
       </c>
@@ -6355,7 +6355,7 @@
       <c r="W75" s="28"/>
     </row>
     <row r="76" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="104"/>
+      <c r="B76" s="115"/>
       <c r="C76" s="18" t="s">
         <v>75</v>
       </c>
@@ -6408,7 +6408,7 @@
       <c r="W76" s="28"/>
     </row>
     <row r="77" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="105"/>
+      <c r="B77" s="116"/>
       <c r="C77" s="36" t="s">
         <v>76</v>
       </c>
@@ -6461,7 +6461,7 @@
       <c r="W77" s="41"/>
     </row>
     <row r="78" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="117" t="s">
+      <c r="B78" s="107" t="s">
         <v>91</v>
       </c>
       <c r="C78" s="6" t="s">
@@ -6528,7 +6528,7 @@
       </c>
     </row>
     <row r="79" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="118"/>
+      <c r="B79" s="108"/>
       <c r="C79" s="4" t="s">
         <v>26</v>
       </c>
@@ -6593,7 +6593,7 @@
       </c>
     </row>
     <row r="80" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="118"/>
+      <c r="B80" s="108"/>
       <c r="C80" s="4" t="s">
         <v>28</v>
       </c>
@@ -6658,7 +6658,7 @@
       </c>
     </row>
     <row r="81" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="118"/>
+      <c r="B81" s="108"/>
       <c r="C81" s="4" t="s">
         <v>29</v>
       </c>
@@ -6723,7 +6723,7 @@
       </c>
     </row>
     <row r="82" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="118"/>
+      <c r="B82" s="108"/>
       <c r="C82" s="4" t="s">
         <v>30</v>
       </c>
@@ -6788,7 +6788,7 @@
       </c>
     </row>
     <row r="83" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="118"/>
+      <c r="B83" s="108"/>
       <c r="C83" s="4" t="s">
         <v>31</v>
       </c>
@@ -6853,7 +6853,7 @@
       </c>
     </row>
     <row r="84" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="118"/>
+      <c r="B84" s="108"/>
       <c r="C84" s="4" t="s">
         <v>32</v>
       </c>
@@ -6918,7 +6918,7 @@
       </c>
     </row>
     <row r="85" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="118"/>
+      <c r="B85" s="108"/>
       <c r="C85" s="4" t="s">
         <v>33</v>
       </c>
@@ -6983,7 +6983,7 @@
       </c>
     </row>
     <row r="86" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="118"/>
+      <c r="B86" s="108"/>
       <c r="C86" s="4" t="s">
         <v>34</v>
       </c>
@@ -7048,7 +7048,7 @@
       </c>
     </row>
     <row r="87" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="118"/>
+      <c r="B87" s="108"/>
       <c r="C87" s="4" t="s">
         <v>35</v>
       </c>
@@ -7113,7 +7113,7 @@
       </c>
     </row>
     <row r="88" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="118"/>
+      <c r="B88" s="108"/>
       <c r="C88" s="4" t="s">
         <v>36</v>
       </c>
@@ -7178,7 +7178,7 @@
       </c>
     </row>
     <row r="89" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="118"/>
+      <c r="B89" s="108"/>
       <c r="C89" s="4" t="s">
         <v>37</v>
       </c>
@@ -7243,7 +7243,7 @@
       </c>
     </row>
     <row r="90" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="118"/>
+      <c r="B90" s="108"/>
       <c r="C90" s="4" t="s">
         <v>38</v>
       </c>
@@ -7308,7 +7308,7 @@
       </c>
     </row>
     <row r="91" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="118"/>
+      <c r="B91" s="108"/>
       <c r="C91" s="4" t="s">
         <v>39</v>
       </c>
@@ -7373,7 +7373,7 @@
       </c>
     </row>
     <row r="92" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="118"/>
+      <c r="B92" s="108"/>
       <c r="C92" s="4" t="s">
         <v>40</v>
       </c>
@@ -7438,7 +7438,7 @@
       </c>
     </row>
     <row r="93" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="118"/>
+      <c r="B93" s="108"/>
       <c r="C93" s="4" t="s">
         <v>41</v>
       </c>
@@ -7503,7 +7503,7 @@
       </c>
     </row>
     <row r="94" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="118"/>
+      <c r="B94" s="108"/>
       <c r="C94" s="4" t="s">
         <v>120</v>
       </c>
@@ -7568,7 +7568,7 @@
       </c>
     </row>
     <row r="95" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="118"/>
+      <c r="B95" s="108"/>
       <c r="C95" s="4" t="s">
         <v>121</v>
       </c>
@@ -7633,7 +7633,7 @@
       </c>
     </row>
     <row r="96" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="118"/>
+      <c r="B96" s="108"/>
       <c r="C96" s="4" t="s">
         <v>42</v>
       </c>
@@ -7698,7 +7698,7 @@
       </c>
     </row>
     <row r="97" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="119"/>
+      <c r="B97" s="109"/>
       <c r="C97" s="36" t="s">
         <v>92</v>
       </c>
@@ -7751,10 +7751,10 @@
       <c r="W97" s="41"/>
     </row>
     <row r="98" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="122" t="s">
+      <c r="B98" s="112" t="s">
         <v>93</v>
       </c>
-      <c r="C98" s="120" t="s">
+      <c r="C98" s="110" t="s">
         <v>94</v>
       </c>
       <c r="D98" s="6" t="s">
@@ -7820,8 +7820,8 @@
       </c>
     </row>
     <row r="99" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="122"/>
-      <c r="C99" s="121"/>
+      <c r="B99" s="112"/>
+      <c r="C99" s="111"/>
       <c r="D99" s="4" t="s">
         <v>96</v>
       </c>
@@ -7885,8 +7885,8 @@
       </c>
     </row>
     <row r="100" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="122"/>
-      <c r="C100" s="121"/>
+      <c r="B100" s="112"/>
+      <c r="C100" s="111"/>
       <c r="D100" s="4" t="s">
         <v>97</v>
       </c>
@@ -7950,7 +7950,7 @@
       </c>
     </row>
     <row r="101" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="122"/>
+      <c r="B101" s="112"/>
       <c r="C101" s="18" t="s">
         <v>115</v>
       </c>
@@ -8003,7 +8003,7 @@
       <c r="W101" s="99"/>
     </row>
     <row r="102" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="122"/>
+      <c r="B102" s="112"/>
       <c r="C102" s="18" t="s">
         <v>98</v>
       </c>
@@ -8056,7 +8056,7 @@
       <c r="W102" s="99"/>
     </row>
     <row r="103" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="122"/>
+      <c r="B103" s="112"/>
       <c r="C103" s="18" t="s">
         <v>99</v>
       </c>
@@ -8075,43 +8075,53 @@
       </c>
       <c r="I103" s="31">
         <f t="shared" si="1"/>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="J103" s="50">
+        <v>0</v>
+      </c>
+      <c r="K103" s="50">
+        <v>0</v>
+      </c>
+      <c r="L103" s="50">
+        <v>0</v>
+      </c>
+      <c r="M103" s="50">
+        <v>0</v>
+      </c>
+      <c r="N103" s="50">
+        <v>0</v>
+      </c>
+      <c r="O103" s="50">
+        <v>0</v>
+      </c>
+      <c r="P103" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="50">
+        <v>0</v>
+      </c>
+      <c r="R103" s="101">
         <v>0.76</v>
       </c>
-      <c r="J103" s="50">
-        <v>0</v>
-      </c>
-      <c r="K103" s="50">
-        <v>0</v>
-      </c>
-      <c r="L103" s="50">
-        <v>0</v>
-      </c>
-      <c r="M103" s="50">
-        <v>0</v>
-      </c>
-      <c r="N103" s="50">
-        <v>0</v>
-      </c>
-      <c r="O103" s="50">
-        <v>0</v>
-      </c>
-      <c r="P103" s="50">
-        <v>0</v>
-      </c>
-      <c r="Q103" s="50">
-        <v>0</v>
-      </c>
-      <c r="R103" s="125">
-        <v>0.76</v>
-      </c>
-      <c r="S103" s="98"/>
-      <c r="T103" s="98"/>
-      <c r="U103" s="98"/>
-      <c r="V103" s="98"/>
-      <c r="W103" s="99"/>
+      <c r="S103" s="67">
+        <v>1.5</v>
+      </c>
+      <c r="T103" s="67">
+        <v>0</v>
+      </c>
+      <c r="U103" s="67">
+        <v>0</v>
+      </c>
+      <c r="V103" s="67">
+        <v>0</v>
+      </c>
+      <c r="W103" s="67">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="122"/>
+      <c r="B104" s="112"/>
       <c r="C104" s="18" t="s">
         <v>100</v>
       </c>
@@ -8176,7 +8186,7 @@
       </c>
     </row>
     <row r="105" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="122"/>
+      <c r="B105" s="112"/>
       <c r="C105" s="18" t="s">
         <v>101</v>
       </c>
@@ -8229,7 +8239,7 @@
       <c r="W105" s="99"/>
     </row>
     <row r="106" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="123"/>
+      <c r="B106" s="113"/>
       <c r="C106" s="18" t="s">
         <v>102</v>
       </c>
@@ -8516,21 +8526,21 @@
       </c>
     </row>
     <row r="111" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="114" t="s">
+      <c r="B111" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C111" s="115"/>
-      <c r="D111" s="115"/>
-      <c r="E111" s="115"/>
-      <c r="F111" s="115"/>
-      <c r="G111" s="115"/>
+      <c r="C111" s="125"/>
+      <c r="D111" s="125"/>
+      <c r="E111" s="125"/>
+      <c r="F111" s="125"/>
+      <c r="G111" s="125"/>
       <c r="H111" s="27">
         <f t="shared" ref="H111:W111" si="2">SUM(H4:H110)</f>
         <v>35.800000000000004</v>
       </c>
       <c r="I111" s="14">
         <f t="shared" si="2"/>
-        <v>19.638999999999999</v>
+        <v>21.138999999999999</v>
       </c>
       <c r="J111" s="12">
         <f t="shared" si="2"/>
@@ -8570,7 +8580,7 @@
       </c>
       <c r="S111" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T111" s="15">
         <f t="shared" si="2"/>
@@ -8598,22 +8608,22 @@
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
-      <c r="J112" s="101" t="s">
+      <c r="J112" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="K112" s="102"/>
-      <c r="L112" s="102"/>
-      <c r="M112" s="102"/>
-      <c r="N112" s="102"/>
-      <c r="O112" s="102"/>
-      <c r="P112" s="102"/>
-      <c r="Q112" s="102"/>
-      <c r="R112" s="102"/>
-      <c r="S112" s="102"/>
-      <c r="T112" s="102"/>
-      <c r="U112" s="102"/>
-      <c r="V112" s="102"/>
-      <c r="W112" s="103"/>
+      <c r="K112" s="103"/>
+      <c r="L112" s="103"/>
+      <c r="M112" s="103"/>
+      <c r="N112" s="103"/>
+      <c r="O112" s="103"/>
+      <c r="P112" s="103"/>
+      <c r="Q112" s="103"/>
+      <c r="R112" s="103"/>
+      <c r="S112" s="103"/>
+      <c r="T112" s="103"/>
+      <c r="U112" s="103"/>
+      <c r="V112" s="103"/>
+      <c r="W112" s="104"/>
     </row>
     <row r="113" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B113" s="2"/>
@@ -8638,10 +8648,10 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
-      <c r="H114" s="101" t="s">
+      <c r="H114" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="I114" s="124"/>
+      <c r="I114" s="114"/>
       <c r="J114" s="13">
         <f>H111-J111</f>
         <v>35.800000000000004</v>
@@ -8680,23 +8690,23 @@
       </c>
       <c r="S114" s="13">
         <f t="shared" si="3"/>
-        <v>16.160999999999998</v>
+        <v>14.660999999999998</v>
       </c>
       <c r="T114" s="13">
         <f t="shared" si="3"/>
-        <v>16.160999999999998</v>
+        <v>14.660999999999998</v>
       </c>
       <c r="U114" s="13">
         <f t="shared" si="3"/>
-        <v>16.160999999999998</v>
+        <v>14.660999999999998</v>
       </c>
       <c r="V114" s="13">
         <f t="shared" si="3"/>
-        <v>16.160999999999998</v>
+        <v>14.660999999999998</v>
       </c>
       <c r="W114" s="13">
         <f t="shared" si="3"/>
-        <v>16.160999999999998</v>
+        <v>14.660999999999998</v>
       </c>
     </row>
     <row r="115" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8719,27 +8729,27 @@
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
-      <c r="H116" s="101" t="s">
+      <c r="H116" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="I116" s="102"/>
-      <c r="J116" s="101">
+      <c r="I116" s="103"/>
+      <c r="J116" s="102">
         <f>H111-I111</f>
-        <v>16.161000000000005</v>
-      </c>
-      <c r="K116" s="102"/>
-      <c r="L116" s="102"/>
-      <c r="M116" s="102"/>
-      <c r="N116" s="102"/>
-      <c r="O116" s="102"/>
-      <c r="P116" s="102"/>
-      <c r="Q116" s="102"/>
-      <c r="R116" s="102"/>
-      <c r="S116" s="102"/>
-      <c r="T116" s="102"/>
-      <c r="U116" s="102"/>
-      <c r="V116" s="102"/>
-      <c r="W116" s="103"/>
+        <v>14.661000000000005</v>
+      </c>
+      <c r="K116" s="103"/>
+      <c r="L116" s="103"/>
+      <c r="M116" s="103"/>
+      <c r="N116" s="103"/>
+      <c r="O116" s="103"/>
+      <c r="P116" s="103"/>
+      <c r="Q116" s="103"/>
+      <c r="R116" s="103"/>
+      <c r="S116" s="103"/>
+      <c r="T116" s="103"/>
+      <c r="U116" s="103"/>
+      <c r="V116" s="103"/>
+      <c r="W116" s="104"/>
     </row>
     <row r="117" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B117" s="3"/>
@@ -8827,13 +8837,6 @@
     <row r="135" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="J116:W116"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B78:B97"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="B98:B106"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H116:I116"/>
     <mergeCell ref="J2:W2"/>
     <mergeCell ref="J112:W112"/>
     <mergeCell ref="B14:B63"/>
@@ -8842,6 +8845,13 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B111:G111"/>
+    <mergeCell ref="J116:W116"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B78:B97"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="B98:B106"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H116:I116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devildrake\Documents\MAP_LegendOfRadev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acanut\Documents\ENTI\MAP\MAP_LegendOfRadev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="117">
   <si>
     <t>Subtarea</t>
   </si>
@@ -237,21 +237,6 @@
   </si>
   <si>
     <t>Introducir escena sala secreta 9</t>
-  </si>
-  <si>
-    <t>Introducir escena sala secreta 10</t>
-  </si>
-  <si>
-    <t>Introducir escena sala secreta 11</t>
-  </si>
-  <si>
-    <t>Introducir escena sala secreta 12</t>
-  </si>
-  <si>
-    <t>Introducir escena sala secreta 13</t>
-  </si>
-  <si>
-    <t>Introducir escena sala secreta 14</t>
   </si>
   <si>
     <t>Introducir entrada sala secreta 1</t>
@@ -392,7 +377,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1049,7 +1034,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1319,15 +1304,51 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1355,39 +1376,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1406,7 +1396,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1443,57 +1433,57 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$J$114:$W$114</c:f>
+              <c:f>Hoja1!$J$109:$W$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>35.800000000000004</c:v>
+                  <c:v>34.550000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.800000000000004</c:v>
+                  <c:v>34.550000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.6</c:v>
+                  <c:v>34.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.53</c:v>
+                  <c:v>34.28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.53</c:v>
+                  <c:v>34.28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.03</c:v>
+                  <c:v>31.78</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.055</c:v>
+                  <c:v>22.805</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.567999999999998</c:v>
+                  <c:v>19.317999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.160999999999998</c:v>
+                  <c:v>14.910999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.660999999999998</c:v>
+                  <c:v>10.420999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.660999999999998</c:v>
+                  <c:v>10.420999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.660999999999998</c:v>
+                  <c:v>10.420999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.660999999999998</c:v>
+                  <c:v>10.420999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.660999999999998</c:v>
+                  <c:v>10.420999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-08BE-4709-9DE4-AEC2E98B8D97}"/>
             </c:ext>
@@ -1575,7 +1565,7 @@
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>568035</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>84668</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1583,7 +1573,7 @@
         <xdr:cNvPr id="4" name="3 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1891,56 +1881,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W135"/>
+  <dimension ref="A1:W130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T104" sqref="T103:W104"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X65" sqref="X65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="102" t="s">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="104"/>
-    </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="105"/>
+    </row>
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="89" t="s">
         <v>7</v>
       </c>
@@ -2008,8 +1998,8 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="120" t="s">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="111" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="56" t="s">
@@ -2017,10 +2007,10 @@
       </c>
       <c r="D4" s="56"/>
       <c r="E4" s="57" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G4" s="56">
         <v>3</v>
@@ -2075,19 +2065,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="121"/>
-      <c r="C5" s="105" t="s">
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="112"/>
+      <c r="C5" s="114" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="77" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G5" s="77">
         <v>3</v>
@@ -2142,17 +2132,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="121"/>
-      <c r="C6" s="123"/>
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="112"/>
+      <c r="C6" s="115"/>
       <c r="D6" s="17" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G6" s="77">
         <v>3</v>
@@ -2207,17 +2197,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="121"/>
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="112"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G7" s="77">
         <v>3</v>
@@ -2272,17 +2262,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="121"/>
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="112"/>
       <c r="C8" s="76" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="76"/>
       <c r="E8" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G8" s="77">
         <v>3</v>
@@ -2337,17 +2327,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="122"/>
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="113"/>
       <c r="C9" s="36" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D9" s="36"/>
       <c r="E9" s="38" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G9" s="37">
         <v>3</v>
@@ -2402,8 +2392,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B10" s="118" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="109" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="93" t="s">
@@ -2411,10 +2401,10 @@
       </c>
       <c r="D10" s="77"/>
       <c r="E10" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G10" s="77">
         <v>3</v>
@@ -2457,17 +2447,17 @@
       <c r="V10" s="34"/>
       <c r="W10" s="35"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B11" s="118"/>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="109"/>
       <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G11" s="4">
         <v>4</v>
@@ -2510,19 +2500,19 @@
       <c r="V11" s="20"/>
       <c r="W11" s="28"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B12" s="118"/>
-      <c r="C12" s="105" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="109"/>
+      <c r="C12" s="114" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G12" s="49">
         <v>4</v>
@@ -2565,17 +2555,17 @@
       <c r="V12" s="23"/>
       <c r="W12" s="30"/>
     </row>
-    <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="119"/>
-      <c r="C13" s="106"/>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="110"/>
+      <c r="C13" s="118"/>
       <c r="D13" s="37" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G13" s="37">
         <v>4</v>
@@ -2618,19 +2608,19 @@
       <c r="V13" s="40"/>
       <c r="W13" s="41"/>
     </row>
-    <row r="14" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="115" t="s">
-        <v>119</v>
+    <row r="14" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="106" t="s">
+        <v>114</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G14" s="6">
         <v>1</v>
@@ -2685,17 +2675,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="115"/>
+    <row r="15" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="106"/>
       <c r="C15" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G15" s="6">
         <v>1</v>
@@ -2750,17 +2740,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="115"/>
+    <row r="16" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="106"/>
       <c r="C16" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G16" s="6">
         <v>1</v>
@@ -2815,17 +2805,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="115"/>
+    <row r="17" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="106"/>
       <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G17" s="6">
         <v>1</v>
@@ -2880,17 +2870,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="115"/>
+    <row r="18" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="106"/>
       <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G18" s="6">
         <v>1</v>
@@ -2945,17 +2935,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="115"/>
+    <row r="19" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="106"/>
       <c r="C19" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G19" s="6">
         <v>1</v>
@@ -3010,17 +3000,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="115"/>
+    <row r="20" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="106"/>
       <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G20" s="6">
         <v>1</v>
@@ -3075,17 +3065,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="115"/>
+    <row r="21" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="106"/>
       <c r="C21" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G21" s="6">
         <v>1</v>
@@ -3140,17 +3130,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="115"/>
+    <row r="22" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="106"/>
       <c r="C22" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G22" s="6">
         <v>1</v>
@@ -3205,17 +3195,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="115"/>
+    <row r="23" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="106"/>
       <c r="C23" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G23" s="6">
         <v>1</v>
@@ -3270,17 +3260,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="115"/>
+    <row r="24" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="106"/>
       <c r="C24" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G24" s="6">
         <v>1</v>
@@ -3335,17 +3325,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="115"/>
+    <row r="25" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="106"/>
       <c r="C25" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G25" s="6">
         <v>1</v>
@@ -3400,17 +3390,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="115"/>
+    <row r="26" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="106"/>
       <c r="C26" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G26" s="6">
         <v>1</v>
@@ -3465,17 +3455,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="115"/>
+    <row r="27" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="106"/>
       <c r="C27" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G27" s="6">
         <v>1</v>
@@ -3530,17 +3520,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="115"/>
+    <row r="28" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="106"/>
       <c r="C28" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G28" s="6">
         <v>1</v>
@@ -3595,17 +3585,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="115"/>
+    <row r="29" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="106"/>
       <c r="C29" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G29" s="6">
         <v>1</v>
@@ -3660,17 +3650,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="115"/>
+    <row r="30" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="106"/>
       <c r="C30" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G30" s="6">
         <v>1</v>
@@ -3725,17 +3715,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="115"/>
+    <row r="31" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="106"/>
       <c r="C31" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G31" s="6">
         <v>1</v>
@@ -3790,17 +3780,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="115"/>
+    <row r="32" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="106"/>
       <c r="C32" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G32" s="6">
         <v>1</v>
@@ -3855,17 +3845,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="115"/>
+    <row r="33" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="106"/>
       <c r="C33" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G33" s="6">
         <v>1</v>
@@ -3920,17 +3910,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="115"/>
+    <row r="34" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="106"/>
       <c r="C34" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G34" s="6">
         <v>1</v>
@@ -3985,17 +3975,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="115"/>
+    <row r="35" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="106"/>
       <c r="C35" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G35" s="6">
         <v>1</v>
@@ -4050,17 +4040,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="115"/>
+    <row r="36" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="106"/>
       <c r="C36" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G36" s="6">
         <v>1</v>
@@ -4115,17 +4105,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="115"/>
+    <row r="37" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="106"/>
       <c r="C37" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G37" s="6">
         <v>1</v>
@@ -4180,17 +4170,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="115"/>
+    <row r="38" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="106"/>
       <c r="C38" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G38" s="6">
         <v>1</v>
@@ -4245,17 +4235,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="115"/>
+    <row r="39" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="106"/>
       <c r="C39" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G39" s="6">
         <v>1</v>
@@ -4310,17 +4300,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="115"/>
+    <row r="40" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="106"/>
       <c r="C40" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G40" s="6">
         <v>1</v>
@@ -4375,17 +4365,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="115"/>
+    <row r="41" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="106"/>
       <c r="C41" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G41" s="6">
         <v>1</v>
@@ -4440,17 +4430,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="115"/>
+    <row r="42" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="106"/>
       <c r="C42" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G42" s="6">
         <v>1</v>
@@ -4505,17 +4495,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="115"/>
+    <row r="43" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="106"/>
       <c r="C43" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G43" s="6">
         <v>1</v>
@@ -4570,17 +4560,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="115"/>
+    <row r="44" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="106"/>
       <c r="C44" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G44" s="6">
         <v>1</v>
@@ -4635,17 +4625,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="115"/>
+    <row r="45" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="106"/>
       <c r="C45" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G45" s="6">
         <v>1</v>
@@ -4700,17 +4690,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="115"/>
+    <row r="46" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="106"/>
       <c r="C46" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G46" s="6">
         <v>1</v>
@@ -4765,17 +4755,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="115"/>
+    <row r="47" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="106"/>
       <c r="C47" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G47" s="6">
         <v>1</v>
@@ -4830,17 +4820,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="115"/>
+    <row r="48" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="106"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G48" s="6">
         <v>1</v>
@@ -4895,17 +4885,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="115"/>
+    <row r="49" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="106"/>
       <c r="C49" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G49" s="4">
         <v>2</v>
@@ -4960,17 +4950,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="115"/>
+    <row r="50" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="106"/>
       <c r="C50" s="18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G50" s="4">
         <v>3</v>
@@ -5013,17 +5003,17 @@
       <c r="V50" s="20"/>
       <c r="W50" s="28"/>
     </row>
-    <row r="51" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="115"/>
+    <row r="51" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="106"/>
       <c r="C51" s="18" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G51" s="4">
         <v>3</v>
@@ -5066,17 +5056,17 @@
       <c r="V51" s="20"/>
       <c r="W51" s="28"/>
     </row>
-    <row r="52" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="115"/>
+    <row r="52" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="106"/>
       <c r="C52" s="18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G52" s="4">
         <v>3</v>
@@ -5119,17 +5109,17 @@
       <c r="V52" s="20"/>
       <c r="W52" s="28"/>
     </row>
-    <row r="53" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="115"/>
+    <row r="53" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="106"/>
       <c r="C53" s="18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G53" s="4">
         <v>3</v>
@@ -5172,17 +5162,17 @@
       <c r="V53" s="20"/>
       <c r="W53" s="28"/>
     </row>
-    <row r="54" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="115"/>
+    <row r="54" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="106"/>
       <c r="C54" s="18" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G54" s="4">
         <v>3</v>
@@ -5191,7 +5181,7 @@
         <v>0.25</v>
       </c>
       <c r="I54" s="31">
-        <f t="shared" ref="I54:I110" si="1">SUM(J54:W54)</f>
+        <f t="shared" ref="I54:I105" si="1">SUM(J54:W54)</f>
         <v>0</v>
       </c>
       <c r="J54" s="50">
@@ -5225,17 +5215,17 @@
       <c r="V54" s="20"/>
       <c r="W54" s="28"/>
     </row>
-    <row r="55" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="115"/>
+    <row r="55" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="106"/>
       <c r="C55" s="18" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G55" s="4">
         <v>3</v>
@@ -5278,17 +5268,17 @@
       <c r="V55" s="20"/>
       <c r="W55" s="28"/>
     </row>
-    <row r="56" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="115"/>
+    <row r="56" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="106"/>
       <c r="C56" s="18" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G56" s="4">
         <v>3</v>
@@ -5331,17 +5321,17 @@
       <c r="V56" s="20"/>
       <c r="W56" s="28"/>
     </row>
-    <row r="57" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="115"/>
+    <row r="57" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="106"/>
       <c r="C57" s="18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G57" s="4">
         <v>3</v>
@@ -5384,17 +5374,17 @@
       <c r="V57" s="20"/>
       <c r="W57" s="28"/>
     </row>
-    <row r="58" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="115"/>
+    <row r="58" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="106"/>
       <c r="C58" s="18" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G58" s="4">
         <v>3</v>
@@ -5437,17 +5427,17 @@
       <c r="V58" s="20"/>
       <c r="W58" s="28"/>
     </row>
-    <row r="59" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="115"/>
+    <row r="59" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="106"/>
       <c r="C59" s="18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G59" s="4">
         <v>3</v>
@@ -5490,17 +5480,17 @@
       <c r="V59" s="20"/>
       <c r="W59" s="28"/>
     </row>
-    <row r="60" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="115"/>
+    <row r="60" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="106"/>
       <c r="C60" s="18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G60" s="4">
         <v>3</v>
@@ -5543,17 +5533,17 @@
       <c r="V60" s="20"/>
       <c r="W60" s="28"/>
     </row>
-    <row r="61" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="115"/>
+    <row r="61" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="106"/>
       <c r="C61" s="18" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G61" s="4">
         <v>3</v>
@@ -5596,17 +5586,17 @@
       <c r="V61" s="20"/>
       <c r="W61" s="28"/>
     </row>
-    <row r="62" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="115"/>
+    <row r="62" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="106"/>
       <c r="C62" s="18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G62" s="4">
         <v>3</v>
@@ -5649,17 +5639,17 @@
       <c r="V62" s="20"/>
       <c r="W62" s="28"/>
     </row>
-    <row r="63" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="116"/>
+    <row r="63" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="107"/>
       <c r="C63" s="36" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D63" s="37"/>
       <c r="E63" s="38" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F63" s="38" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G63" s="37">
         <v>3</v>
@@ -5702,8 +5692,8 @@
       <c r="V63" s="40"/>
       <c r="W63" s="41"/>
     </row>
-    <row r="64" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="117" t="s">
+    <row r="64" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="108" t="s">
         <v>62</v>
       </c>
       <c r="C64" s="32" t="s">
@@ -5711,10 +5701,10 @@
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G64" s="6">
         <v>2</v>
@@ -5769,17 +5759,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="115"/>
+    <row r="65" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="106"/>
       <c r="C65" s="18" t="s">
         <v>64</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G65" s="4">
         <v>2</v>
@@ -5789,7 +5779,7 @@
       </c>
       <c r="I65" s="31">
         <f t="shared" si="1"/>
-        <v>0.16</v>
+        <v>0.66</v>
       </c>
       <c r="J65" s="50">
         <v>0</v>
@@ -5818,23 +5808,33 @@
       <c r="R65" s="100">
         <v>0.16</v>
       </c>
-      <c r="S65" s="20"/>
-      <c r="T65" s="20"/>
-      <c r="U65" s="20"/>
-      <c r="V65" s="20"/>
-      <c r="W65" s="28"/>
-    </row>
-    <row r="66" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="115"/>
+      <c r="S65" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="T65" s="70">
+        <v>0</v>
+      </c>
+      <c r="U65" s="70">
+        <v>0</v>
+      </c>
+      <c r="V65" s="70">
+        <v>0</v>
+      </c>
+      <c r="W65" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="106"/>
       <c r="C66" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G66" s="4">
         <v>2</v>
@@ -5844,7 +5844,7 @@
       </c>
       <c r="I66" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J66" s="50">
         <v>0</v>
@@ -5870,24 +5870,36 @@
       <c r="Q66" s="50">
         <v>0</v>
       </c>
-      <c r="R66" s="20"/>
-      <c r="S66" s="20"/>
-      <c r="T66" s="20"/>
-      <c r="U66" s="20"/>
-      <c r="V66" s="20"/>
-      <c r="W66" s="28"/>
-    </row>
-    <row r="67" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="115"/>
+      <c r="R66" s="96">
+        <v>0</v>
+      </c>
+      <c r="S66" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="T66" s="70">
+        <v>0</v>
+      </c>
+      <c r="U66" s="70">
+        <v>0</v>
+      </c>
+      <c r="V66" s="70">
+        <v>0</v>
+      </c>
+      <c r="W66" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="106"/>
       <c r="C67" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G67" s="4">
         <v>2</v>
@@ -5897,7 +5909,7 @@
       </c>
       <c r="I67" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="J67" s="50">
         <v>0</v>
@@ -5923,24 +5935,36 @@
       <c r="Q67" s="50">
         <v>0</v>
       </c>
-      <c r="R67" s="20"/>
-      <c r="S67" s="20"/>
-      <c r="T67" s="20"/>
-      <c r="U67" s="20"/>
-      <c r="V67" s="20"/>
-      <c r="W67" s="28"/>
-    </row>
-    <row r="68" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="115"/>
+      <c r="R67" s="96">
+        <v>0</v>
+      </c>
+      <c r="S67" s="55">
+        <v>0.23</v>
+      </c>
+      <c r="T67" s="70">
+        <v>0</v>
+      </c>
+      <c r="U67" s="70">
+        <v>0</v>
+      </c>
+      <c r="V67" s="70">
+        <v>0</v>
+      </c>
+      <c r="W67" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="106"/>
       <c r="C68" s="18" t="s">
         <v>67</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G68" s="4">
         <v>2</v>
@@ -5950,7 +5974,7 @@
       </c>
       <c r="I68" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="J68" s="50">
         <v>0</v>
@@ -5976,24 +6000,36 @@
       <c r="Q68" s="50">
         <v>0</v>
       </c>
-      <c r="R68" s="20"/>
-      <c r="S68" s="20"/>
-      <c r="T68" s="20"/>
-      <c r="U68" s="20"/>
-      <c r="V68" s="20"/>
-      <c r="W68" s="28"/>
-    </row>
-    <row r="69" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="115"/>
+      <c r="R68" s="96">
+        <v>0</v>
+      </c>
+      <c r="S68" s="55">
+        <v>0.33</v>
+      </c>
+      <c r="T68" s="70">
+        <v>0</v>
+      </c>
+      <c r="U68" s="70">
+        <v>0</v>
+      </c>
+      <c r="V68" s="70">
+        <v>0</v>
+      </c>
+      <c r="W68" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="106"/>
       <c r="C69" s="18" t="s">
         <v>68</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G69" s="4">
         <v>2</v>
@@ -6003,7 +6039,7 @@
       </c>
       <c r="I69" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J69" s="50">
         <v>0</v>
@@ -6029,24 +6065,36 @@
       <c r="Q69" s="50">
         <v>0</v>
       </c>
-      <c r="R69" s="20"/>
-      <c r="S69" s="20"/>
-      <c r="T69" s="20"/>
-      <c r="U69" s="20"/>
-      <c r="V69" s="20"/>
-      <c r="W69" s="28"/>
-    </row>
-    <row r="70" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="115"/>
+      <c r="R69" s="96">
+        <v>0</v>
+      </c>
+      <c r="S69" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="T69" s="70">
+        <v>0</v>
+      </c>
+      <c r="U69" s="70">
+        <v>0</v>
+      </c>
+      <c r="V69" s="70">
+        <v>0</v>
+      </c>
+      <c r="W69" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="106"/>
       <c r="C70" s="18" t="s">
         <v>69</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G70" s="4">
         <v>2</v>
@@ -6056,7 +6104,7 @@
       </c>
       <c r="I70" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J70" s="50">
         <v>0</v>
@@ -6082,24 +6130,36 @@
       <c r="Q70" s="50">
         <v>0</v>
       </c>
-      <c r="R70" s="20"/>
-      <c r="S70" s="20"/>
-      <c r="T70" s="20"/>
-      <c r="U70" s="20"/>
-      <c r="V70" s="20"/>
-      <c r="W70" s="28"/>
-    </row>
-    <row r="71" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="115"/>
+      <c r="R70" s="96">
+        <v>0</v>
+      </c>
+      <c r="S70" s="55">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T70" s="70">
+        <v>0</v>
+      </c>
+      <c r="U70" s="70">
+        <v>0</v>
+      </c>
+      <c r="V70" s="70">
+        <v>0</v>
+      </c>
+      <c r="W70" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="106"/>
       <c r="C71" s="18" t="s">
         <v>70</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G71" s="4">
         <v>2</v>
@@ -6109,7 +6169,7 @@
       </c>
       <c r="I71" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J71" s="50">
         <v>0</v>
@@ -6135,140 +6195,178 @@
       <c r="Q71" s="50">
         <v>0</v>
       </c>
-      <c r="R71" s="20"/>
-      <c r="S71" s="20"/>
-      <c r="T71" s="20"/>
-      <c r="U71" s="20"/>
-      <c r="V71" s="20"/>
-      <c r="W71" s="28"/>
-    </row>
-    <row r="72" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="115"/>
-      <c r="C72" s="18" t="s">
+      <c r="R71" s="96">
+        <v>0</v>
+      </c>
+      <c r="S71" s="55">
+        <v>0.25</v>
+      </c>
+      <c r="T71" s="70">
+        <v>0</v>
+      </c>
+      <c r="U71" s="70">
+        <v>0</v>
+      </c>
+      <c r="V71" s="70">
+        <v>0</v>
+      </c>
+      <c r="W71" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="106"/>
+      <c r="C72" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G72" s="4">
+      <c r="D72" s="37"/>
+      <c r="E72" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F72" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G72" s="37">
         <v>2</v>
       </c>
-      <c r="H72" s="24">
+      <c r="H72" s="43">
         <v>0.25</v>
       </c>
-      <c r="I72" s="31">
+      <c r="I72" s="102">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J72" s="50">
-        <v>0</v>
-      </c>
-      <c r="K72" s="50">
-        <v>0</v>
-      </c>
-      <c r="L72" s="50">
-        <v>0</v>
-      </c>
-      <c r="M72" s="50">
-        <v>0</v>
-      </c>
-      <c r="N72" s="50">
-        <v>0</v>
-      </c>
-      <c r="O72" s="50">
-        <v>0</v>
-      </c>
-      <c r="P72" s="50">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="50">
-        <v>0</v>
-      </c>
-      <c r="R72" s="20"/>
-      <c r="S72" s="20"/>
-      <c r="T72" s="20"/>
-      <c r="U72" s="20"/>
-      <c r="V72" s="20"/>
-      <c r="W72" s="28"/>
-    </row>
-    <row r="73" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="115"/>
-      <c r="C73" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G73" s="4">
-        <v>2</v>
+        <v>0.1</v>
+      </c>
+      <c r="J72" s="51">
+        <v>0</v>
+      </c>
+      <c r="K72" s="51">
+        <v>0</v>
+      </c>
+      <c r="L72" s="51">
+        <v>0</v>
+      </c>
+      <c r="M72" s="51">
+        <v>0</v>
+      </c>
+      <c r="N72" s="51">
+        <v>0</v>
+      </c>
+      <c r="O72" s="51">
+        <v>0</v>
+      </c>
+      <c r="P72" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="51">
+        <v>0</v>
+      </c>
+      <c r="R72" s="96">
+        <v>0</v>
+      </c>
+      <c r="S72" s="127">
+        <v>0.1</v>
+      </c>
+      <c r="T72" s="70">
+        <v>0</v>
+      </c>
+      <c r="U72" s="70">
+        <v>0</v>
+      </c>
+      <c r="V72" s="70">
+        <v>0</v>
+      </c>
+      <c r="W72" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="119" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G73" s="6">
+        <v>1</v>
       </c>
       <c r="H73" s="24">
         <v>0.25</v>
       </c>
-      <c r="I73" s="31">
+      <c r="I73" s="33">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="50">
-        <v>0</v>
-      </c>
-      <c r="K73" s="50">
-        <v>0</v>
-      </c>
-      <c r="L73" s="50">
-        <v>0</v>
-      </c>
-      <c r="M73" s="50">
-        <v>0</v>
-      </c>
-      <c r="N73" s="50">
-        <v>0</v>
-      </c>
-      <c r="O73" s="50">
-        <v>0</v>
-      </c>
-      <c r="P73" s="50">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="50">
-        <v>0</v>
-      </c>
-      <c r="R73" s="20"/>
-      <c r="S73" s="20"/>
-      <c r="T73" s="20"/>
-      <c r="U73" s="20"/>
-      <c r="V73" s="20"/>
-      <c r="W73" s="28"/>
-    </row>
-    <row r="74" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="115"/>
-      <c r="C74" s="18" t="s">
-        <v>73</v>
+        <v>0.05</v>
+      </c>
+      <c r="J73" s="52">
+        <v>0</v>
+      </c>
+      <c r="K73" s="52">
+        <v>0</v>
+      </c>
+      <c r="L73" s="52">
+        <v>0</v>
+      </c>
+      <c r="M73" s="52">
+        <v>0</v>
+      </c>
+      <c r="N73" s="52">
+        <v>0</v>
+      </c>
+      <c r="O73" s="52">
+        <v>0</v>
+      </c>
+      <c r="P73" s="70">
+        <v>0.05</v>
+      </c>
+      <c r="Q73" s="70">
+        <v>0</v>
+      </c>
+      <c r="R73" s="70">
+        <v>0</v>
+      </c>
+      <c r="S73" s="70">
+        <v>0</v>
+      </c>
+      <c r="T73" s="70">
+        <v>0</v>
+      </c>
+      <c r="U73" s="70">
+        <v>0</v>
+      </c>
+      <c r="V73" s="70">
+        <v>0</v>
+      </c>
+      <c r="W73" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="120"/>
+      <c r="C74" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G74" s="4">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="G74" s="6">
+        <v>1</v>
       </c>
       <c r="H74" s="24">
         <v>0.25</v>
       </c>
       <c r="I74" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J74" s="50">
         <v>0</v>
@@ -6288,40 +6386,52 @@
       <c r="O74" s="50">
         <v>0</v>
       </c>
-      <c r="P74" s="50">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="50">
-        <v>0</v>
-      </c>
-      <c r="R74" s="20"/>
-      <c r="S74" s="20"/>
-      <c r="T74" s="20"/>
-      <c r="U74" s="20"/>
-      <c r="V74" s="20"/>
-      <c r="W74" s="28"/>
-    </row>
-    <row r="75" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="115"/>
-      <c r="C75" s="18" t="s">
-        <v>74</v>
+      <c r="P74" s="67">
+        <v>0.03</v>
+      </c>
+      <c r="Q74" s="67">
+        <v>0</v>
+      </c>
+      <c r="R74" s="67">
+        <v>0</v>
+      </c>
+      <c r="S74" s="67">
+        <v>0</v>
+      </c>
+      <c r="T74" s="67">
+        <v>0</v>
+      </c>
+      <c r="U74" s="67">
+        <v>0</v>
+      </c>
+      <c r="V74" s="67">
+        <v>0</v>
+      </c>
+      <c r="W74" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="120"/>
+      <c r="C75" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G75" s="4">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="G75" s="6">
+        <v>1</v>
       </c>
       <c r="H75" s="24">
         <v>0.25</v>
       </c>
       <c r="I75" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J75" s="50">
         <v>0</v>
@@ -6341,40 +6451,52 @@
       <c r="O75" s="50">
         <v>0</v>
       </c>
-      <c r="P75" s="50">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="50">
-        <v>0</v>
-      </c>
-      <c r="R75" s="20"/>
-      <c r="S75" s="20"/>
-      <c r="T75" s="20"/>
-      <c r="U75" s="20"/>
-      <c r="V75" s="20"/>
-      <c r="W75" s="28"/>
-    </row>
-    <row r="76" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="115"/>
-      <c r="C76" s="18" t="s">
-        <v>75</v>
+      <c r="P75" s="67">
+        <v>0.03</v>
+      </c>
+      <c r="Q75" s="67">
+        <v>0</v>
+      </c>
+      <c r="R75" s="67">
+        <v>0</v>
+      </c>
+      <c r="S75" s="67">
+        <v>0</v>
+      </c>
+      <c r="T75" s="67">
+        <v>0</v>
+      </c>
+      <c r="U75" s="67">
+        <v>0</v>
+      </c>
+      <c r="V75" s="67">
+        <v>0</v>
+      </c>
+      <c r="W75" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="120"/>
+      <c r="C76" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G76" s="4">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="G76" s="6">
+        <v>1</v>
       </c>
       <c r="H76" s="24">
         <v>0.25</v>
       </c>
       <c r="I76" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J76" s="50">
         <v>0</v>
@@ -6394,85 +6516,107 @@
       <c r="O76" s="50">
         <v>0</v>
       </c>
-      <c r="P76" s="50">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="50">
-        <v>0</v>
-      </c>
-      <c r="R76" s="20"/>
-      <c r="S76" s="20"/>
-      <c r="T76" s="20"/>
-      <c r="U76" s="20"/>
-      <c r="V76" s="20"/>
-      <c r="W76" s="28"/>
-    </row>
-    <row r="77" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="116"/>
-      <c r="C77" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D77" s="37"/>
-      <c r="E77" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="F77" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="G77" s="37">
-        <v>2</v>
-      </c>
-      <c r="H77" s="44">
+      <c r="P76" s="67">
+        <v>0.03</v>
+      </c>
+      <c r="Q76" s="67">
+        <v>0</v>
+      </c>
+      <c r="R76" s="67">
+        <v>0</v>
+      </c>
+      <c r="S76" s="67">
+        <v>0</v>
+      </c>
+      <c r="T76" s="67">
+        <v>0</v>
+      </c>
+      <c r="U76" s="67">
+        <v>0</v>
+      </c>
+      <c r="V76" s="67">
+        <v>0</v>
+      </c>
+      <c r="W76" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="120"/>
+      <c r="C77" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G77" s="6">
+        <v>1</v>
+      </c>
+      <c r="H77" s="24">
         <v>0.25</v>
       </c>
-      <c r="I77" s="14">
+      <c r="I77" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="51">
-        <v>0</v>
-      </c>
-      <c r="K77" s="51">
-        <v>0</v>
-      </c>
-      <c r="L77" s="51">
-        <v>0</v>
-      </c>
-      <c r="M77" s="51">
-        <v>0</v>
-      </c>
-      <c r="N77" s="51">
-        <v>0</v>
-      </c>
-      <c r="O77" s="51">
-        <v>0</v>
-      </c>
-      <c r="P77" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="51">
-        <v>0</v>
-      </c>
-      <c r="R77" s="40"/>
-      <c r="S77" s="40"/>
-      <c r="T77" s="40"/>
-      <c r="U77" s="40"/>
-      <c r="V77" s="40"/>
-      <c r="W77" s="41"/>
-    </row>
-    <row r="78" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="107" t="s">
-        <v>91</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>105</v>
+        <v>0.03</v>
+      </c>
+      <c r="J77" s="50">
+        <v>0</v>
+      </c>
+      <c r="K77" s="50">
+        <v>0</v>
+      </c>
+      <c r="L77" s="50">
+        <v>0</v>
+      </c>
+      <c r="M77" s="50">
+        <v>0</v>
+      </c>
+      <c r="N77" s="50">
+        <v>0</v>
+      </c>
+      <c r="O77" s="50">
+        <v>0</v>
+      </c>
+      <c r="P77" s="67">
+        <v>0.03</v>
+      </c>
+      <c r="Q77" s="67">
+        <v>0</v>
+      </c>
+      <c r="R77" s="67">
+        <v>0</v>
+      </c>
+      <c r="S77" s="67">
+        <v>0</v>
+      </c>
+      <c r="T77" s="67">
+        <v>0</v>
+      </c>
+      <c r="U77" s="67">
+        <v>0</v>
+      </c>
+      <c r="V77" s="67">
+        <v>0</v>
+      </c>
+      <c r="W77" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="120"/>
+      <c r="C78" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="G78" s="6">
         <v>1</v>
@@ -6480,64 +6624,64 @@
       <c r="H78" s="24">
         <v>0.25</v>
       </c>
-      <c r="I78" s="33">
+      <c r="I78" s="31">
         <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="J78" s="52">
-        <v>0</v>
-      </c>
-      <c r="K78" s="52">
-        <v>0</v>
-      </c>
-      <c r="L78" s="52">
-        <v>0</v>
-      </c>
-      <c r="M78" s="52">
-        <v>0</v>
-      </c>
-      <c r="N78" s="52">
-        <v>0</v>
-      </c>
-      <c r="O78" s="52">
-        <v>0</v>
-      </c>
-      <c r="P78" s="70">
-        <v>0.05</v>
-      </c>
-      <c r="Q78" s="70">
-        <v>0</v>
-      </c>
-      <c r="R78" s="70">
-        <v>0</v>
-      </c>
-      <c r="S78" s="70">
-        <v>0</v>
-      </c>
-      <c r="T78" s="70">
-        <v>0</v>
-      </c>
-      <c r="U78" s="70">
-        <v>0</v>
-      </c>
-      <c r="V78" s="70">
-        <v>0</v>
-      </c>
-      <c r="W78" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="108"/>
+        <v>0.03</v>
+      </c>
+      <c r="J78" s="50">
+        <v>0</v>
+      </c>
+      <c r="K78" s="50">
+        <v>0</v>
+      </c>
+      <c r="L78" s="50">
+        <v>0</v>
+      </c>
+      <c r="M78" s="50">
+        <v>0</v>
+      </c>
+      <c r="N78" s="50">
+        <v>0</v>
+      </c>
+      <c r="O78" s="50">
+        <v>0</v>
+      </c>
+      <c r="P78" s="67">
+        <v>0.03</v>
+      </c>
+      <c r="Q78" s="67">
+        <v>0</v>
+      </c>
+      <c r="R78" s="67">
+        <v>0</v>
+      </c>
+      <c r="S78" s="67">
+        <v>0</v>
+      </c>
+      <c r="T78" s="67">
+        <v>0</v>
+      </c>
+      <c r="U78" s="67">
+        <v>0</v>
+      </c>
+      <c r="V78" s="67">
+        <v>0</v>
+      </c>
+      <c r="W78" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="120"/>
       <c r="C79" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G79" s="6">
         <v>1</v>
@@ -6592,17 +6736,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="108"/>
+    <row r="80" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="120"/>
       <c r="C80" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G80" s="6">
         <v>1</v>
@@ -6657,17 +6801,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="108"/>
+    <row r="81" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="120"/>
       <c r="C81" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G81" s="6">
         <v>1</v>
@@ -6722,17 +6866,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="108"/>
+    <row r="82" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="120"/>
       <c r="C82" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G82" s="6">
         <v>1</v>
@@ -6787,17 +6931,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="108"/>
+    <row r="83" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="120"/>
       <c r="C83" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G83" s="6">
         <v>1</v>
@@ -6852,17 +6996,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="108"/>
+    <row r="84" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="120"/>
       <c r="C84" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G84" s="6">
         <v>1</v>
@@ -6917,17 +7061,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="108"/>
+    <row r="85" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="120"/>
       <c r="C85" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G85" s="6">
         <v>1</v>
@@ -6978,21 +7122,21 @@
       <c r="V85" s="67">
         <v>0</v>
       </c>
-      <c r="W85" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="108"/>
+      <c r="W85" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="120"/>
       <c r="C86" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G86" s="6">
         <v>1</v>
@@ -7043,21 +7187,21 @@
       <c r="V86" s="67">
         <v>0</v>
       </c>
-      <c r="W86" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="108"/>
+      <c r="W86" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="120"/>
       <c r="C87" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G87" s="6">
         <v>1</v>
@@ -7087,7 +7231,7 @@
       <c r="O87" s="50">
         <v>0</v>
       </c>
-      <c r="P87" s="67">
+      <c r="P87" s="70">
         <v>0.03</v>
       </c>
       <c r="Q87" s="67">
@@ -7108,21 +7252,21 @@
       <c r="V87" s="67">
         <v>0</v>
       </c>
-      <c r="W87" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="108"/>
+      <c r="W87" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="120"/>
       <c r="C88" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G88" s="6">
         <v>1</v>
@@ -7152,7 +7296,7 @@
       <c r="O88" s="50">
         <v>0</v>
       </c>
-      <c r="P88" s="67">
+      <c r="P88" s="70">
         <v>0.03</v>
       </c>
       <c r="Q88" s="67">
@@ -7173,31 +7317,31 @@
       <c r="V88" s="67">
         <v>0</v>
       </c>
-      <c r="W88" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="108"/>
+      <c r="W88" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="120"/>
       <c r="C89" s="4" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G89" s="6">
+        <v>100</v>
+      </c>
+      <c r="G89" s="54">
         <v>1</v>
       </c>
       <c r="H89" s="24">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I89" s="31">
-        <f t="shared" si="1"/>
-        <v>0.03</v>
+        <f>SUM(J89:W89)</f>
+        <v>2.5</v>
       </c>
       <c r="J89" s="50">
         <v>0</v>
@@ -7214,11 +7358,11 @@
       <c r="N89" s="50">
         <v>0</v>
       </c>
-      <c r="O89" s="50">
-        <v>0</v>
+      <c r="O89" s="68">
+        <v>2.5</v>
       </c>
       <c r="P89" s="67">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="67">
         <v>0</v>
@@ -7238,31 +7382,31 @@
       <c r="V89" s="67">
         <v>0</v>
       </c>
-      <c r="W89" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="108"/>
+      <c r="W89" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="120"/>
       <c r="C90" s="4" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G90" s="6">
+        <v>100</v>
+      </c>
+      <c r="G90" s="54">
         <v>1</v>
       </c>
       <c r="H90" s="24">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I90" s="31">
-        <f t="shared" si="1"/>
-        <v>0.03</v>
+        <f>SUM(J90:W90)</f>
+        <v>3</v>
       </c>
       <c r="J90" s="50">
         <v>0</v>
@@ -7283,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="P90" s="67">
-        <v>0.03</v>
+        <v>3</v>
       </c>
       <c r="Q90" s="67">
         <v>0</v>
@@ -7307,17 +7451,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="108"/>
+    <row r="91" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="120"/>
       <c r="C91" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G91" s="6">
         <v>1</v>
@@ -7327,7 +7471,7 @@
       </c>
       <c r="I91" s="31">
         <f t="shared" si="1"/>
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="J91" s="50">
         <v>0</v>
@@ -7348,7 +7492,7 @@
         <v>0</v>
       </c>
       <c r="P91" s="67">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="Q91" s="67">
         <v>0</v>
@@ -7372,157 +7516,151 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="108"/>
-      <c r="C92" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F92" s="4" t="s">
+    <row r="92" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="121"/>
+      <c r="C92" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D92" s="37"/>
+      <c r="E92" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="F92" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="G92" s="37">
+        <v>2</v>
+      </c>
+      <c r="H92" s="44">
+        <v>0.25</v>
+      </c>
+      <c r="I92" s="48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="51">
+        <v>0</v>
+      </c>
+      <c r="K92" s="51">
+        <v>0</v>
+      </c>
+      <c r="L92" s="51">
+        <v>0</v>
+      </c>
+      <c r="M92" s="51">
+        <v>0</v>
+      </c>
+      <c r="N92" s="51">
+        <v>0</v>
+      </c>
+      <c r="O92" s="51">
+        <v>0</v>
+      </c>
+      <c r="P92" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="51">
+        <v>0</v>
+      </c>
+      <c r="R92" s="128">
+        <v>0</v>
+      </c>
+      <c r="S92" s="40"/>
+      <c r="T92" s="40"/>
+      <c r="U92" s="40"/>
+      <c r="V92" s="40"/>
+      <c r="W92" s="41"/>
+    </row>
+    <row r="93" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" s="122" t="s">
+        <v>89</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E93" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G92" s="6">
-        <v>1</v>
-      </c>
-      <c r="H92" s="24">
-        <v>0.25</v>
-      </c>
-      <c r="I92" s="31">
-        <f t="shared" si="1"/>
-        <v>0.03</v>
-      </c>
-      <c r="J92" s="50">
-        <v>0</v>
-      </c>
-      <c r="K92" s="50">
-        <v>0</v>
-      </c>
-      <c r="L92" s="50">
-        <v>0</v>
-      </c>
-      <c r="M92" s="50">
-        <v>0</v>
-      </c>
-      <c r="N92" s="50">
-        <v>0</v>
-      </c>
-      <c r="O92" s="50">
-        <v>0</v>
-      </c>
-      <c r="P92" s="70">
-        <v>0.03</v>
-      </c>
-      <c r="Q92" s="67">
-        <v>0</v>
-      </c>
-      <c r="R92" s="67">
-        <v>0</v>
-      </c>
-      <c r="S92" s="67">
-        <v>0</v>
-      </c>
-      <c r="T92" s="67">
-        <v>0</v>
-      </c>
-      <c r="U92" s="67">
-        <v>0</v>
-      </c>
-      <c r="V92" s="67">
-        <v>0</v>
-      </c>
-      <c r="W92" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="108"/>
-      <c r="C93" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>105</v>
+      <c r="F93" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="G93" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H93" s="24">
         <v>0.25</v>
       </c>
-      <c r="I93" s="31">
+      <c r="I93" s="33">
         <f t="shared" si="1"/>
-        <v>0.03</v>
-      </c>
-      <c r="J93" s="50">
-        <v>0</v>
-      </c>
-      <c r="K93" s="50">
-        <v>0</v>
-      </c>
-      <c r="L93" s="50">
-        <v>0</v>
-      </c>
-      <c r="M93" s="50">
-        <v>0</v>
-      </c>
-      <c r="N93" s="50">
-        <v>0</v>
-      </c>
-      <c r="O93" s="50">
-        <v>0</v>
-      </c>
-      <c r="P93" s="70">
-        <v>0.03</v>
-      </c>
-      <c r="Q93" s="67">
-        <v>0</v>
-      </c>
-      <c r="R93" s="67">
-        <v>0</v>
-      </c>
-      <c r="S93" s="67">
-        <v>0</v>
-      </c>
-      <c r="T93" s="67">
-        <v>0</v>
-      </c>
-      <c r="U93" s="67">
-        <v>0</v>
-      </c>
-      <c r="V93" s="67">
-        <v>0</v>
-      </c>
-      <c r="W93" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="108"/>
-      <c r="C94" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F94" s="4" t="s">
+        <v>0.7</v>
+      </c>
+      <c r="J93" s="52">
+        <v>0</v>
+      </c>
+      <c r="K93" s="52">
+        <v>0</v>
+      </c>
+      <c r="L93" s="52">
+        <v>0</v>
+      </c>
+      <c r="M93" s="52">
+        <v>0</v>
+      </c>
+      <c r="N93" s="52">
+        <v>0</v>
+      </c>
+      <c r="O93" s="52">
+        <v>0</v>
+      </c>
+      <c r="P93" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="52">
+        <v>0</v>
+      </c>
+      <c r="R93" s="70">
+        <v>0.7</v>
+      </c>
+      <c r="S93" s="70">
+        <v>0</v>
+      </c>
+      <c r="T93" s="70">
+        <v>0</v>
+      </c>
+      <c r="U93" s="70">
+        <v>0</v>
+      </c>
+      <c r="V93" s="70">
+        <v>0</v>
+      </c>
+      <c r="W93" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="124"/>
+      <c r="C94" s="123"/>
+      <c r="D94" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E94" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G94" s="54">
-        <v>1</v>
+      <c r="F94" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G94" s="4">
+        <v>4</v>
       </c>
       <c r="H94" s="24">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I94" s="31">
-        <f>SUM(J94:W94)</f>
-        <v>2.5</v>
+        <f t="shared" si="1"/>
+        <v>0.93</v>
       </c>
       <c r="J94" s="50">
         <v>0</v>
@@ -7539,55 +7677,55 @@
       <c r="N94" s="50">
         <v>0</v>
       </c>
-      <c r="O94" s="68">
-        <v>2.5</v>
-      </c>
-      <c r="P94" s="67">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="67">
+      <c r="O94" s="50">
+        <v>0</v>
+      </c>
+      <c r="P94" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="50">
         <v>0</v>
       </c>
       <c r="R94" s="67">
-        <v>0</v>
-      </c>
-      <c r="S94" s="67">
-        <v>0</v>
-      </c>
-      <c r="T94" s="67">
-        <v>0</v>
-      </c>
-      <c r="U94" s="67">
-        <v>0</v>
-      </c>
-      <c r="V94" s="67">
-        <v>0</v>
-      </c>
-      <c r="W94" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="108"/>
-      <c r="C95" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F95" s="4" t="s">
+        <v>0.93</v>
+      </c>
+      <c r="S94" s="70">
+        <v>0</v>
+      </c>
+      <c r="T94" s="70">
+        <v>0</v>
+      </c>
+      <c r="U94" s="70">
+        <v>0</v>
+      </c>
+      <c r="V94" s="70">
+        <v>0</v>
+      </c>
+      <c r="W94" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="124"/>
+      <c r="C95" s="123"/>
+      <c r="D95" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E95" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G95" s="54">
-        <v>1</v>
+      <c r="F95" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G95" s="4">
+        <v>4</v>
       </c>
       <c r="H95" s="24">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I95" s="31">
-        <f>SUM(J95:W95)</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0.91700000000000004</v>
       </c>
       <c r="J95" s="50">
         <v>0</v>
@@ -7607,239 +7745,223 @@
       <c r="O95" s="50">
         <v>0</v>
       </c>
-      <c r="P95" s="67">
-        <v>3</v>
-      </c>
-      <c r="Q95" s="67">
+      <c r="P95" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="50">
         <v>0</v>
       </c>
       <c r="R95" s="67">
-        <v>0</v>
-      </c>
-      <c r="S95" s="67">
-        <v>0</v>
-      </c>
-      <c r="T95" s="67">
-        <v>0</v>
-      </c>
-      <c r="U95" s="67">
-        <v>0</v>
-      </c>
-      <c r="V95" s="67">
-        <v>0</v>
-      </c>
-      <c r="W95" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="108"/>
-      <c r="C96" s="4" t="s">
-        <v>42</v>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="S95" s="70">
+        <v>0</v>
+      </c>
+      <c r="T95" s="70">
+        <v>0</v>
+      </c>
+      <c r="U95" s="70">
+        <v>0</v>
+      </c>
+      <c r="V95" s="70">
+        <v>0</v>
+      </c>
+      <c r="W95" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="124"/>
+      <c r="C96" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="D96" s="4"/>
-      <c r="E96" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F96" s="4" t="s">
+      <c r="E96" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G96" s="6">
-        <v>1</v>
+      <c r="F96" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G96" s="4">
+        <v>4</v>
       </c>
       <c r="H96" s="24">
         <v>0.25</v>
       </c>
       <c r="I96" s="31">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="50">
+        <v>0</v>
+      </c>
+      <c r="K96" s="50">
+        <v>0</v>
+      </c>
+      <c r="L96" s="50">
+        <v>0</v>
+      </c>
+      <c r="M96" s="50">
+        <v>0</v>
+      </c>
+      <c r="N96" s="50">
+        <v>0</v>
+      </c>
+      <c r="O96" s="50">
+        <v>0</v>
+      </c>
+      <c r="P96" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="50">
+        <v>0</v>
+      </c>
+      <c r="R96" s="98"/>
+      <c r="S96" s="98"/>
+      <c r="T96" s="98"/>
+      <c r="U96" s="98"/>
+      <c r="V96" s="98"/>
+      <c r="W96" s="99"/>
+    </row>
+    <row r="97" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="124"/>
+      <c r="C97" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D97" s="4"/>
+      <c r="E97" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G97" s="4">
+        <v>3</v>
+      </c>
+      <c r="H97" s="25">
+        <v>1</v>
+      </c>
+      <c r="I97" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="50">
+        <v>0</v>
+      </c>
+      <c r="K97" s="50">
+        <v>0</v>
+      </c>
+      <c r="L97" s="50">
+        <v>0</v>
+      </c>
+      <c r="M97" s="50">
+        <v>0</v>
+      </c>
+      <c r="N97" s="50">
+        <v>0</v>
+      </c>
+      <c r="O97" s="50">
+        <v>0</v>
+      </c>
+      <c r="P97" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="50">
+        <v>0</v>
+      </c>
+      <c r="R97" s="98"/>
+      <c r="S97" s="98"/>
+      <c r="T97" s="98"/>
+      <c r="U97" s="98"/>
+      <c r="V97" s="98"/>
+      <c r="W97" s="99"/>
+    </row>
+    <row r="98" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="124"/>
+      <c r="C98" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D98" s="4"/>
+      <c r="E98" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G98" s="4">
+        <v>3</v>
+      </c>
+      <c r="H98" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="I98" s="31">
+        <f t="shared" si="1"/>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="J98" s="50">
+        <v>0</v>
+      </c>
+      <c r="K98" s="50">
+        <v>0</v>
+      </c>
+      <c r="L98" s="50">
+        <v>0</v>
+      </c>
+      <c r="M98" s="50">
+        <v>0</v>
+      </c>
+      <c r="N98" s="50">
+        <v>0</v>
+      </c>
+      <c r="O98" s="50">
+        <v>0</v>
+      </c>
+      <c r="P98" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="50">
+        <v>0</v>
+      </c>
+      <c r="R98" s="101">
+        <v>0.76</v>
+      </c>
+      <c r="S98" s="67">
+        <v>1.5</v>
+      </c>
+      <c r="T98" s="67">
+        <v>0</v>
+      </c>
+      <c r="U98" s="67">
+        <v>0</v>
+      </c>
+      <c r="V98" s="67">
+        <v>0</v>
+      </c>
+      <c r="W98" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="124"/>
+      <c r="C99" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D99" s="4"/>
+      <c r="E99" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G99" s="4">
+        <v>2</v>
+      </c>
+      <c r="H99" s="25">
         <v>0.3</v>
-      </c>
-      <c r="J96" s="50">
-        <v>0</v>
-      </c>
-      <c r="K96" s="50">
-        <v>0</v>
-      </c>
-      <c r="L96" s="50">
-        <v>0</v>
-      </c>
-      <c r="M96" s="50">
-        <v>0</v>
-      </c>
-      <c r="N96" s="50">
-        <v>0</v>
-      </c>
-      <c r="O96" s="50">
-        <v>0</v>
-      </c>
-      <c r="P96" s="67">
-        <v>0.3</v>
-      </c>
-      <c r="Q96" s="67">
-        <v>0</v>
-      </c>
-      <c r="R96" s="67">
-        <v>0</v>
-      </c>
-      <c r="S96" s="67">
-        <v>0</v>
-      </c>
-      <c r="T96" s="67">
-        <v>0</v>
-      </c>
-      <c r="U96" s="67">
-        <v>0</v>
-      </c>
-      <c r="V96" s="67">
-        <v>0</v>
-      </c>
-      <c r="W96" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="109"/>
-      <c r="C97" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D97" s="37"/>
-      <c r="E97" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="F97" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="G97" s="37">
-        <v>2</v>
-      </c>
-      <c r="H97" s="44">
-        <v>0.25</v>
-      </c>
-      <c r="I97" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J97" s="51">
-        <v>0</v>
-      </c>
-      <c r="K97" s="51">
-        <v>0</v>
-      </c>
-      <c r="L97" s="51">
-        <v>0</v>
-      </c>
-      <c r="M97" s="51">
-        <v>0</v>
-      </c>
-      <c r="N97" s="51">
-        <v>0</v>
-      </c>
-      <c r="O97" s="51">
-        <v>0</v>
-      </c>
-      <c r="P97" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="51">
-        <v>0</v>
-      </c>
-      <c r="R97" s="40"/>
-      <c r="S97" s="40"/>
-      <c r="T97" s="40"/>
-      <c r="U97" s="40"/>
-      <c r="V97" s="40"/>
-      <c r="W97" s="41"/>
-    </row>
-    <row r="98" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="112" t="s">
-        <v>93</v>
-      </c>
-      <c r="C98" s="110" t="s">
-        <v>94</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G98" s="6">
-        <v>4</v>
-      </c>
-      <c r="H98" s="24">
-        <v>0.25</v>
-      </c>
-      <c r="I98" s="33">
-        <f t="shared" si="1"/>
-        <v>0.7</v>
-      </c>
-      <c r="J98" s="52">
-        <v>0</v>
-      </c>
-      <c r="K98" s="52">
-        <v>0</v>
-      </c>
-      <c r="L98" s="52">
-        <v>0</v>
-      </c>
-      <c r="M98" s="52">
-        <v>0</v>
-      </c>
-      <c r="N98" s="52">
-        <v>0</v>
-      </c>
-      <c r="O98" s="52">
-        <v>0</v>
-      </c>
-      <c r="P98" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="52">
-        <v>0</v>
-      </c>
-      <c r="R98" s="70">
-        <v>0.7</v>
-      </c>
-      <c r="S98" s="70">
-        <v>0</v>
-      </c>
-      <c r="T98" s="70">
-        <v>0</v>
-      </c>
-      <c r="U98" s="70">
-        <v>0</v>
-      </c>
-      <c r="V98" s="70">
-        <v>0</v>
-      </c>
-      <c r="W98" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="112"/>
-      <c r="C99" s="111"/>
-      <c r="D99" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G99" s="4">
-        <v>4</v>
-      </c>
-      <c r="H99" s="24">
-        <v>0.25</v>
       </c>
       <c r="I99" s="31">
         <f t="shared" si="1"/>
-        <v>0.93</v>
+        <v>0.84</v>
       </c>
       <c r="J99" s="50">
         <v>0</v>
@@ -7866,45 +7988,45 @@
         <v>0</v>
       </c>
       <c r="R99" s="67">
-        <v>0.93</v>
-      </c>
-      <c r="S99" s="70">
-        <v>0</v>
-      </c>
-      <c r="T99" s="70">
-        <v>0</v>
-      </c>
-      <c r="U99" s="70">
-        <v>0</v>
-      </c>
-      <c r="V99" s="70">
-        <v>0</v>
-      </c>
-      <c r="W99" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="112"/>
-      <c r="C100" s="111"/>
-      <c r="D100" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>104</v>
+        <v>0.84</v>
+      </c>
+      <c r="S99" s="67">
+        <v>0</v>
+      </c>
+      <c r="T99" s="67">
+        <v>0</v>
+      </c>
+      <c r="U99" s="67">
+        <v>0</v>
+      </c>
+      <c r="V99" s="67">
+        <v>0</v>
+      </c>
+      <c r="W99" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="124"/>
+      <c r="C100" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D100" s="4"/>
+      <c r="E100" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="G100" s="4">
         <v>4</v>
       </c>
-      <c r="H100" s="24">
+      <c r="H100" s="25">
         <v>0.25</v>
       </c>
       <c r="I100" s="31">
         <f t="shared" si="1"/>
-        <v>0.91700000000000004</v>
+        <v>0</v>
       </c>
       <c r="J100" s="50">
         <v>0</v>
@@ -7930,42 +8052,30 @@
       <c r="Q100" s="50">
         <v>0</v>
       </c>
-      <c r="R100" s="67">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="S100" s="70">
-        <v>0</v>
-      </c>
-      <c r="T100" s="70">
-        <v>0</v>
-      </c>
-      <c r="U100" s="70">
-        <v>0</v>
-      </c>
-      <c r="V100" s="70">
-        <v>0</v>
-      </c>
-      <c r="W100" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="112"/>
+      <c r="R100" s="98"/>
+      <c r="S100" s="98"/>
+      <c r="T100" s="98"/>
+      <c r="U100" s="98"/>
+      <c r="V100" s="98"/>
+      <c r="W100" s="99"/>
+    </row>
+    <row r="101" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="125"/>
       <c r="C101" s="18" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D101" s="4"/>
-      <c r="E101" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>104</v>
+      <c r="E101" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="G101" s="4">
         <v>4</v>
       </c>
-      <c r="H101" s="24">
-        <v>0.25</v>
+      <c r="H101" s="25">
+        <v>1</v>
       </c>
       <c r="I101" s="31">
         <f t="shared" si="1"/>
@@ -7995,30 +8105,32 @@
       <c r="Q101" s="50">
         <v>0</v>
       </c>
-      <c r="R101" s="98"/>
-      <c r="S101" s="98"/>
-      <c r="T101" s="98"/>
-      <c r="U101" s="98"/>
-      <c r="V101" s="98"/>
-      <c r="W101" s="99"/>
-    </row>
-    <row r="102" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="112"/>
+      <c r="R101" s="20"/>
+      <c r="S101" s="20"/>
+      <c r="T101" s="20"/>
+      <c r="U101" s="20"/>
+      <c r="V101" s="20"/>
+      <c r="W101" s="28"/>
+    </row>
+    <row r="102" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="29" t="s">
+        <v>98</v>
+      </c>
       <c r="C102" s="18" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G102" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H102" s="25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I102" s="31">
         <f t="shared" si="1"/>
@@ -8048,34 +8160,34 @@
       <c r="Q102" s="50">
         <v>0</v>
       </c>
-      <c r="R102" s="98"/>
-      <c r="S102" s="98"/>
-      <c r="T102" s="98"/>
-      <c r="U102" s="98"/>
-      <c r="V102" s="98"/>
-      <c r="W102" s="99"/>
-    </row>
-    <row r="103" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="112"/>
-      <c r="C103" s="18" t="s">
-        <v>99</v>
-      </c>
+      <c r="R102" s="20"/>
+      <c r="S102" s="20"/>
+      <c r="T102" s="20"/>
+      <c r="U102" s="20"/>
+      <c r="V102" s="20"/>
+      <c r="W102" s="28"/>
+    </row>
+    <row r="103" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" s="18"/>
       <c r="D103" s="4"/>
       <c r="E103" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G103" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H103" s="25">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I103" s="31">
         <f t="shared" si="1"/>
-        <v>2.2599999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J103" s="50">
         <v>0</v>
@@ -8083,64 +8195,48 @@
       <c r="K103" s="50">
         <v>0</v>
       </c>
-      <c r="L103" s="50">
-        <v>0</v>
-      </c>
-      <c r="M103" s="50">
-        <v>0</v>
-      </c>
-      <c r="N103" s="50">
-        <v>0</v>
-      </c>
-      <c r="O103" s="50">
-        <v>0</v>
-      </c>
-      <c r="P103" s="50">
-        <v>0</v>
-      </c>
-      <c r="Q103" s="50">
-        <v>0</v>
-      </c>
-      <c r="R103" s="101">
-        <v>0.76</v>
-      </c>
-      <c r="S103" s="67">
-        <v>1.5</v>
-      </c>
-      <c r="T103" s="67">
-        <v>0</v>
-      </c>
-      <c r="U103" s="67">
-        <v>0</v>
-      </c>
-      <c r="V103" s="67">
-        <v>0</v>
-      </c>
-      <c r="W103" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="112"/>
-      <c r="C104" s="18" t="s">
-        <v>100</v>
-      </c>
+      <c r="L103" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="M103" s="71">
+        <v>0</v>
+      </c>
+      <c r="N103" s="71">
+        <v>0</v>
+      </c>
+      <c r="O103" s="71">
+        <v>0</v>
+      </c>
+      <c r="P103" s="55"/>
+      <c r="Q103" s="55"/>
+      <c r="R103" s="55"/>
+      <c r="S103" s="55"/>
+      <c r="T103" s="55"/>
+      <c r="U103" s="55"/>
+      <c r="V103" s="55"/>
+      <c r="W103" s="74"/>
+    </row>
+    <row r="104" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104" s="20"/>
       <c r="D104" s="4"/>
       <c r="E104" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G104" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104" s="25">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I104" s="31">
         <f t="shared" si="1"/>
-        <v>0.84</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J104" s="50">
         <v>0</v>
@@ -8151,23 +8247,23 @@
       <c r="L104" s="50">
         <v>0</v>
       </c>
-      <c r="M104" s="50">
-        <v>0</v>
-      </c>
-      <c r="N104" s="50">
-        <v>0</v>
-      </c>
-      <c r="O104" s="50">
-        <v>0</v>
-      </c>
-      <c r="P104" s="50">
-        <v>0</v>
-      </c>
-      <c r="Q104" s="50">
+      <c r="M104" s="53">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N104" s="67">
+        <v>0</v>
+      </c>
+      <c r="O104" s="67">
+        <v>0</v>
+      </c>
+      <c r="P104" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="67">
         <v>0</v>
       </c>
       <c r="R104" s="67">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="S104" s="67">
         <v>0</v>
@@ -8185,27 +8281,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="112"/>
-      <c r="C105" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D105" s="4"/>
+    <row r="105" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C105" s="11"/>
+      <c r="D105" s="21"/>
       <c r="E105" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G105" s="4">
-        <v>4</v>
+        <v>109</v>
+      </c>
+      <c r="F105" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G105" s="21">
+        <v>1</v>
       </c>
       <c r="H105" s="25">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I105" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J105" s="50">
         <v>0</v>
@@ -8213,645 +8309,370 @@
       <c r="K105" s="50">
         <v>0</v>
       </c>
-      <c r="L105" s="50">
-        <v>0</v>
-      </c>
-      <c r="M105" s="50">
-        <v>0</v>
-      </c>
-      <c r="N105" s="50">
-        <v>0</v>
-      </c>
-      <c r="O105" s="50">
-        <v>0</v>
-      </c>
-      <c r="P105" s="50">
-        <v>0</v>
-      </c>
-      <c r="Q105" s="50">
-        <v>0</v>
-      </c>
-      <c r="R105" s="98"/>
-      <c r="S105" s="98"/>
-      <c r="T105" s="98"/>
-      <c r="U105" s="98"/>
-      <c r="V105" s="98"/>
-      <c r="W105" s="99"/>
-    </row>
-    <row r="106" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="113"/>
-      <c r="C106" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D106" s="4"/>
-      <c r="E106" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G106" s="4">
-        <v>4</v>
-      </c>
-      <c r="H106" s="25">
-        <v>1</v>
-      </c>
-      <c r="I106" s="31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J106" s="50">
-        <v>0</v>
-      </c>
-      <c r="K106" s="50">
-        <v>0</v>
-      </c>
-      <c r="L106" s="50">
-        <v>0</v>
-      </c>
-      <c r="M106" s="50">
-        <v>0</v>
-      </c>
-      <c r="N106" s="50">
-        <v>0</v>
-      </c>
-      <c r="O106" s="50">
-        <v>0</v>
-      </c>
-      <c r="P106" s="50">
-        <v>0</v>
-      </c>
-      <c r="Q106" s="50">
-        <v>0</v>
-      </c>
-      <c r="R106" s="20"/>
-      <c r="S106" s="20"/>
-      <c r="T106" s="20"/>
-      <c r="U106" s="20"/>
-      <c r="V106" s="20"/>
-      <c r="W106" s="28"/>
-    </row>
-    <row r="107" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C107" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D107" s="4"/>
-      <c r="E107" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G107" s="4">
-        <v>2</v>
-      </c>
-      <c r="H107" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="I107" s="31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J107" s="50">
-        <v>0</v>
-      </c>
-      <c r="K107" s="50">
-        <v>0</v>
-      </c>
-      <c r="L107" s="50">
-        <v>0</v>
-      </c>
-      <c r="M107" s="50">
-        <v>0</v>
-      </c>
-      <c r="N107" s="50">
-        <v>0</v>
-      </c>
-      <c r="O107" s="50">
-        <v>0</v>
-      </c>
-      <c r="P107" s="50">
-        <v>0</v>
-      </c>
-      <c r="Q107" s="50">
-        <v>0</v>
-      </c>
-      <c r="R107" s="20"/>
-      <c r="S107" s="20"/>
-      <c r="T107" s="20"/>
-      <c r="U107" s="20"/>
-      <c r="V107" s="20"/>
-      <c r="W107" s="28"/>
-    </row>
-    <row r="108" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C108" s="18"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G108" s="4">
-        <v>1</v>
-      </c>
-      <c r="H108" s="25">
+      <c r="L105" s="71">
         <v>0.1</v>
       </c>
-      <c r="I108" s="31">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="J108" s="50">
-        <v>0</v>
-      </c>
-      <c r="K108" s="50">
-        <v>0</v>
-      </c>
-      <c r="L108" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="M108" s="71">
-        <v>0</v>
-      </c>
-      <c r="N108" s="71">
-        <v>0</v>
-      </c>
-      <c r="O108" s="71">
-        <v>0</v>
-      </c>
-      <c r="P108" s="55"/>
-      <c r="Q108" s="55"/>
-      <c r="R108" s="55"/>
-      <c r="S108" s="55"/>
-      <c r="T108" s="55"/>
-      <c r="U108" s="55"/>
-      <c r="V108" s="55"/>
-      <c r="W108" s="74"/>
-    </row>
-    <row r="109" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C109" s="20"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G109" s="4">
-        <v>1</v>
-      </c>
-      <c r="H109" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="I109" s="31">
-        <f t="shared" si="1"/>
+      <c r="M105" s="71">
+        <v>0</v>
+      </c>
+      <c r="N105" s="71">
+        <v>0</v>
+      </c>
+      <c r="O105" s="71">
+        <v>0</v>
+      </c>
+      <c r="P105" s="72">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="72">
+        <v>0</v>
+      </c>
+      <c r="R105" s="72">
+        <v>0</v>
+      </c>
+      <c r="S105" s="72">
+        <v>0</v>
+      </c>
+      <c r="T105" s="72">
+        <v>0</v>
+      </c>
+      <c r="U105" s="72">
+        <v>0</v>
+      </c>
+      <c r="V105" s="72">
+        <v>0</v>
+      </c>
+      <c r="W105" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="117"/>
+      <c r="D106" s="117"/>
+      <c r="E106" s="117"/>
+      <c r="F106" s="117"/>
+      <c r="G106" s="117"/>
+      <c r="H106" s="27">
+        <f>SUM(H4:H105)</f>
+        <v>34.550000000000004</v>
+      </c>
+      <c r="I106" s="14">
+        <f>SUM(I4:I105)</f>
+        <v>24.128999999999994</v>
+      </c>
+      <c r="J106" s="12">
+        <f>SUM(J4:J105)</f>
+        <v>0</v>
+      </c>
+      <c r="K106" s="13">
+        <f>SUM(K4:K105)</f>
+        <v>0</v>
+      </c>
+      <c r="L106" s="13">
+        <f>SUM(L4:L105)</f>
+        <v>0.2</v>
+      </c>
+      <c r="M106" s="15">
+        <f>SUM(M4:M105)</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J109" s="50">
-        <v>0</v>
-      </c>
-      <c r="K109" s="50">
-        <v>0</v>
-      </c>
-      <c r="L109" s="50">
-        <v>0</v>
-      </c>
-      <c r="M109" s="53">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N109" s="67">
-        <v>0</v>
-      </c>
-      <c r="O109" s="67">
-        <v>0</v>
-      </c>
-      <c r="P109" s="67">
-        <v>0</v>
-      </c>
-      <c r="Q109" s="67">
-        <v>0</v>
-      </c>
-      <c r="R109" s="67">
-        <v>0</v>
-      </c>
-      <c r="S109" s="67">
-        <v>0</v>
-      </c>
-      <c r="T109" s="67">
-        <v>0</v>
-      </c>
-      <c r="U109" s="67">
-        <v>0</v>
-      </c>
-      <c r="V109" s="67">
-        <v>0</v>
-      </c>
-      <c r="W109" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C110" s="11"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F110" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="G110" s="21">
-        <v>1</v>
-      </c>
-      <c r="H110" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="I110" s="31">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="J110" s="50">
-        <v>0</v>
-      </c>
-      <c r="K110" s="50">
-        <v>0</v>
-      </c>
-      <c r="L110" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="M110" s="71">
-        <v>0</v>
-      </c>
-      <c r="N110" s="71">
-        <v>0</v>
-      </c>
-      <c r="O110" s="71">
-        <v>0</v>
-      </c>
-      <c r="P110" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q110" s="72">
-        <v>0</v>
-      </c>
-      <c r="R110" s="72">
-        <v>0</v>
-      </c>
-      <c r="S110" s="72">
-        <v>0</v>
-      </c>
-      <c r="T110" s="72">
-        <v>0</v>
-      </c>
-      <c r="U110" s="72">
-        <v>0</v>
-      </c>
-      <c r="V110" s="72">
-        <v>0</v>
-      </c>
-      <c r="W110" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" s="125"/>
-      <c r="D111" s="125"/>
-      <c r="E111" s="125"/>
-      <c r="F111" s="125"/>
-      <c r="G111" s="125"/>
-      <c r="H111" s="27">
-        <f t="shared" ref="H111:W111" si="2">SUM(H4:H110)</f>
-        <v>35.800000000000004</v>
-      </c>
-      <c r="I111" s="14">
+      <c r="N106" s="15">
+        <f>SUM(N4:N105)</f>
+        <v>0</v>
+      </c>
+      <c r="O106" s="15">
+        <f>SUM(O4:O105)</f>
+        <v>2.5</v>
+      </c>
+      <c r="P106" s="15">
+        <f>SUM(P4:P105)</f>
+        <v>8.9750000000000014</v>
+      </c>
+      <c r="Q106" s="15">
+        <f>SUM(Q4:Q105)</f>
+        <v>3.4870000000000001</v>
+      </c>
+      <c r="R106" s="15">
+        <f>SUM(R4:R105)</f>
+        <v>4.407</v>
+      </c>
+      <c r="S106" s="15">
+        <f>SUM(S4:S105)</f>
+        <v>4.49</v>
+      </c>
+      <c r="T106" s="15">
+        <f>SUM(T4:T105)</f>
+        <v>0</v>
+      </c>
+      <c r="U106" s="15">
+        <f>SUM(U4:U105)</f>
+        <v>0</v>
+      </c>
+      <c r="V106" s="15">
+        <f>SUM(V4:V105)</f>
+        <v>0</v>
+      </c>
+      <c r="W106" s="15">
+        <f>SUM(W4:W105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="104"/>
+      <c r="L107" s="104"/>
+      <c r="M107" s="104"/>
+      <c r="N107" s="104"/>
+      <c r="O107" s="104"/>
+      <c r="P107" s="104"/>
+      <c r="Q107" s="104"/>
+      <c r="R107" s="104"/>
+      <c r="S107" s="104"/>
+      <c r="T107" s="104"/>
+      <c r="U107" s="104"/>
+      <c r="V107" s="104"/>
+      <c r="W107" s="105"/>
+    </row>
+    <row r="108" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="O108" s="11"/>
+      <c r="P108" s="11"/>
+    </row>
+    <row r="109" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="I109" s="126"/>
+      <c r="J109" s="13">
+        <f>H106-J106</f>
+        <v>34.550000000000004</v>
+      </c>
+      <c r="K109" s="13">
+        <f>J109-K106</f>
+        <v>34.550000000000004</v>
+      </c>
+      <c r="L109" s="13">
+        <f>K109-L106</f>
+        <v>34.35</v>
+      </c>
+      <c r="M109" s="13">
+        <f>L109-M106</f>
+        <v>34.28</v>
+      </c>
+      <c r="N109" s="13">
+        <f t="shared" ref="N109:W109" si="2">M109-N106</f>
+        <v>34.28</v>
+      </c>
+      <c r="O109" s="13">
         <f t="shared" si="2"/>
-        <v>21.138999999999999</v>
-      </c>
-      <c r="J111" s="12">
+        <v>31.78</v>
+      </c>
+      <c r="P109" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K111" s="13">
+        <v>22.805</v>
+      </c>
+      <c r="Q109" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L111" s="13">
+        <v>19.317999999999998</v>
+      </c>
+      <c r="R109" s="13">
         <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="M111" s="15">
+        <v>14.910999999999998</v>
+      </c>
+      <c r="S109" s="13">
         <f t="shared" si="2"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N111" s="15">
+        <v>10.420999999999998</v>
+      </c>
+      <c r="T109" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O111" s="15">
+        <v>10.420999999999998</v>
+      </c>
+      <c r="U109" s="13">
         <f t="shared" si="2"/>
-        <v>2.5</v>
-      </c>
-      <c r="P111" s="15">
+        <v>10.420999999999998</v>
+      </c>
+      <c r="V109" s="13">
         <f t="shared" si="2"/>
-        <v>8.9750000000000014</v>
-      </c>
-      <c r="Q111" s="15">
+        <v>10.420999999999998</v>
+      </c>
+      <c r="W109" s="13">
         <f t="shared" si="2"/>
-        <v>3.4870000000000001</v>
-      </c>
-      <c r="R111" s="15">
-        <f t="shared" si="2"/>
-        <v>4.407</v>
-      </c>
-      <c r="S111" s="15">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="T111" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U111" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V111" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W111" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="102" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="103"/>
-      <c r="L112" s="103"/>
-      <c r="M112" s="103"/>
-      <c r="N112" s="103"/>
-      <c r="O112" s="103"/>
-      <c r="P112" s="103"/>
-      <c r="Q112" s="103"/>
-      <c r="R112" s="103"/>
-      <c r="S112" s="103"/>
-      <c r="T112" s="103"/>
-      <c r="U112" s="103"/>
-      <c r="V112" s="103"/>
-      <c r="W112" s="104"/>
-    </row>
-    <row r="113" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
+        <v>10.420999999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
+    </row>
+    <row r="111" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="H111" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="I111" s="104"/>
+      <c r="J111" s="103">
+        <f>H106-I106</f>
+        <v>10.42100000000001</v>
+      </c>
+      <c r="K111" s="104"/>
+      <c r="L111" s="104"/>
+      <c r="M111" s="104"/>
+      <c r="N111" s="104"/>
+      <c r="O111" s="104"/>
+      <c r="P111" s="104"/>
+      <c r="Q111" s="104"/>
+      <c r="R111" s="104"/>
+      <c r="S111" s="104"/>
+      <c r="T111" s="104"/>
+      <c r="U111" s="104"/>
+      <c r="V111" s="104"/>
+      <c r="W111" s="105"/>
+    </row>
+    <row r="112" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
-      <c r="O113" s="11"/>
-      <c r="P113" s="11"/>
-    </row>
-    <row r="114" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="102" t="s">
-        <v>9</v>
-      </c>
-      <c r="I114" s="114"/>
-      <c r="J114" s="13">
-        <f>H111-J111</f>
-        <v>35.800000000000004</v>
-      </c>
-      <c r="K114" s="13">
-        <f>J114-K111</f>
-        <v>35.800000000000004</v>
-      </c>
-      <c r="L114" s="13">
-        <f>K114-L111</f>
-        <v>35.6</v>
-      </c>
-      <c r="M114" s="13">
-        <f>L114-M111</f>
-        <v>35.53</v>
-      </c>
-      <c r="N114" s="13">
-        <f t="shared" ref="N114:W114" si="3">M114-N111</f>
-        <v>35.53</v>
-      </c>
-      <c r="O114" s="13">
-        <f t="shared" si="3"/>
-        <v>33.03</v>
-      </c>
-      <c r="P114" s="13">
-        <f t="shared" si="3"/>
-        <v>24.055</v>
-      </c>
-      <c r="Q114" s="13">
-        <f t="shared" si="3"/>
-        <v>20.567999999999998</v>
-      </c>
-      <c r="R114" s="13">
-        <f t="shared" si="3"/>
-        <v>16.160999999999998</v>
-      </c>
-      <c r="S114" s="13">
-        <f t="shared" si="3"/>
-        <v>14.660999999999998</v>
-      </c>
-      <c r="T114" s="13">
-        <f t="shared" si="3"/>
-        <v>14.660999999999998</v>
-      </c>
-      <c r="U114" s="13">
-        <f t="shared" si="3"/>
-        <v>14.660999999999998</v>
-      </c>
-      <c r="V114" s="13">
-        <f t="shared" si="3"/>
-        <v>14.660999999999998</v>
-      </c>
-      <c r="W114" s="13">
-        <f t="shared" si="3"/>
-        <v>14.660999999999998</v>
-      </c>
-    </row>
-    <row r="115" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
-      <c r="K115" s="3"/>
-      <c r="L115" s="3"/>
-      <c r="M115" s="3"/>
-    </row>
-    <row r="116" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="H116" s="102" t="s">
-        <v>10</v>
-      </c>
-      <c r="I116" s="103"/>
-      <c r="J116" s="102">
-        <f>H111-I111</f>
-        <v>14.661000000000005</v>
-      </c>
-      <c r="K116" s="103"/>
-      <c r="L116" s="103"/>
-      <c r="M116" s="103"/>
-      <c r="N116" s="103"/>
-      <c r="O116" s="103"/>
-      <c r="P116" s="103"/>
-      <c r="Q116" s="103"/>
-      <c r="R116" s="103"/>
-      <c r="S116" s="103"/>
-      <c r="T116" s="103"/>
-      <c r="U116" s="103"/>
-      <c r="V116" s="103"/>
-      <c r="W116" s="104"/>
-    </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
-      <c r="K117" s="3"/>
-      <c r="L117" s="3"/>
-      <c r="M117" s="3"/>
-    </row>
-    <row r="118" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
-      <c r="K118" s="3"/>
-      <c r="L118" s="3"/>
-      <c r="M118" s="3"/>
-    </row>
-    <row r="119" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3"/>
-      <c r="L119" s="3"/>
-      <c r="M119" s="3"/>
-    </row>
-    <row r="120" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+    </row>
+    <row r="115" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="9"/>
+    </row>
+    <row r="118" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="9"/>
+    </row>
+    <row r="119" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="9"/>
+    </row>
+    <row r="120" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="9"/>
+    </row>
+    <row r="121" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="9"/>
+    </row>
+    <row r="122" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="9"/>
     </row>
-    <row r="123" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B123" s="9"/>
     </row>
-    <row r="124" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="9"/>
     </row>
-    <row r="125" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="9"/>
     </row>
-    <row r="126" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126" s="9"/>
     </row>
-    <row r="127" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="9"/>
     </row>
-    <row r="128" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="9"/>
     </row>
-    <row r="129" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129" s="9"/>
     </row>
-    <row r="130" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="9"/>
-    </row>
-    <row r="131" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="9"/>
-    </row>
-    <row r="132" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="9"/>
-    </row>
-    <row r="133" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="9"/>
-    </row>
-    <row r="134" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="9"/>
-    </row>
-    <row r="135" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="J111:W111"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B73:B92"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="B93:B101"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H111:I111"/>
     <mergeCell ref="J2:W2"/>
-    <mergeCell ref="J112:W112"/>
+    <mergeCell ref="J107:W107"/>
     <mergeCell ref="B14:B63"/>
-    <mergeCell ref="B64:B77"/>
+    <mergeCell ref="B64:B72"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="J116:W116"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B78:B97"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="B98:B106"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="B106:G106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8865,7 +8686,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8877,7 +8698,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acanut\Documents\ENTI\MAP\MAP_LegendOfRadev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\MAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -1034,7 +1034,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1304,6 +1304,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1313,6 +1315,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1337,9 +1369,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1349,35 +1378,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1398,7 +1404,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1465,19 +1471,19 @@
                   <c:v>14.910999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.420999999999998</c:v>
+                  <c:v>8.070999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.420999999999998</c:v>
+                  <c:v>8.070999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.420999999999998</c:v>
+                  <c:v>8.070999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.420999999999998</c:v>
+                  <c:v>8.070999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.420999999999998</c:v>
+                  <c:v>8.070999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1538,7 +1544,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1595,7 +1600,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1670,6 +1675,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1705,6 +1727,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1883,11 +1922,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="X65" sqref="X65"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U89" sqref="U89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
@@ -1913,22 +1952,22 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="103" t="s">
+      <c r="J2" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="105"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="107"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="89" t="s">
@@ -1999,7 +2038,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="123" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="56" t="s">
@@ -2066,8 +2105,8 @@
       </c>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="112"/>
-      <c r="C5" s="114" t="s">
+      <c r="B5" s="124"/>
+      <c r="C5" s="108" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="77" t="s">
@@ -2133,8 +2172,8 @@
       </c>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="112"/>
-      <c r="C6" s="115"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="126"/>
       <c r="D6" s="17" t="s">
         <v>20</v>
       </c>
@@ -2198,7 +2237,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="112"/>
+      <c r="B7" s="124"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
@@ -2263,7 +2302,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="112"/>
+      <c r="B8" s="124"/>
       <c r="C8" s="76" t="s">
         <v>16</v>
       </c>
@@ -2328,7 +2367,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="113"/>
+      <c r="B9" s="125"/>
       <c r="C9" s="36" t="s">
         <v>104</v>
       </c>
@@ -2393,7 +2432,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="121" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="93" t="s">
@@ -2448,7 +2487,7 @@
       <c r="W10" s="35"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="109"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2501,8 +2540,8 @@
       <c r="W11" s="28"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="109"/>
-      <c r="C12" s="114" t="s">
+      <c r="B12" s="121"/>
+      <c r="C12" s="108" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="49" t="s">
@@ -2556,8 +2595,8 @@
       <c r="W12" s="30"/>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="110"/>
-      <c r="C13" s="118"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="109"/>
       <c r="D13" s="37" t="s">
         <v>112</v>
       </c>
@@ -2609,7 +2648,7 @@
       <c r="W13" s="41"/>
     </row>
     <row r="14" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="118" t="s">
         <v>114</v>
       </c>
       <c r="C14" s="16" t="s">
@@ -2676,7 +2715,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="106"/>
+      <c r="B15" s="118"/>
       <c r="C15" s="4" t="s">
         <v>26</v>
       </c>
@@ -2741,7 +2780,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="106"/>
+      <c r="B16" s="118"/>
       <c r="C16" s="4" t="s">
         <v>28</v>
       </c>
@@ -2806,7 +2845,7 @@
       </c>
     </row>
     <row r="17" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="106"/>
+      <c r="B17" s="118"/>
       <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
@@ -2871,7 +2910,7 @@
       </c>
     </row>
     <row r="18" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="106"/>
+      <c r="B18" s="118"/>
       <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
@@ -2936,7 +2975,7 @@
       </c>
     </row>
     <row r="19" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="106"/>
+      <c r="B19" s="118"/>
       <c r="C19" s="4" t="s">
         <v>31</v>
       </c>
@@ -3001,7 +3040,7 @@
       </c>
     </row>
     <row r="20" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="106"/>
+      <c r="B20" s="118"/>
       <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
@@ -3066,7 +3105,7 @@
       </c>
     </row>
     <row r="21" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="106"/>
+      <c r="B21" s="118"/>
       <c r="C21" s="4" t="s">
         <v>33</v>
       </c>
@@ -3131,7 +3170,7 @@
       </c>
     </row>
     <row r="22" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="106"/>
+      <c r="B22" s="118"/>
       <c r="C22" s="4" t="s">
         <v>34</v>
       </c>
@@ -3196,7 +3235,7 @@
       </c>
     </row>
     <row r="23" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="106"/>
+      <c r="B23" s="118"/>
       <c r="C23" s="4" t="s">
         <v>35</v>
       </c>
@@ -3261,7 +3300,7 @@
       </c>
     </row>
     <row r="24" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="106"/>
+      <c r="B24" s="118"/>
       <c r="C24" s="4" t="s">
         <v>36</v>
       </c>
@@ -3326,7 +3365,7 @@
       </c>
     </row>
     <row r="25" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="106"/>
+      <c r="B25" s="118"/>
       <c r="C25" s="4" t="s">
         <v>37</v>
       </c>
@@ -3391,7 +3430,7 @@
       </c>
     </row>
     <row r="26" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="106"/>
+      <c r="B26" s="118"/>
       <c r="C26" s="4" t="s">
         <v>38</v>
       </c>
@@ -3456,7 +3495,7 @@
       </c>
     </row>
     <row r="27" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="106"/>
+      <c r="B27" s="118"/>
       <c r="C27" s="4" t="s">
         <v>39</v>
       </c>
@@ -3521,7 +3560,7 @@
       </c>
     </row>
     <row r="28" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="106"/>
+      <c r="B28" s="118"/>
       <c r="C28" s="4" t="s">
         <v>40</v>
       </c>
@@ -3586,7 +3625,7 @@
       </c>
     </row>
     <row r="29" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="106"/>
+      <c r="B29" s="118"/>
       <c r="C29" s="4" t="s">
         <v>41</v>
       </c>
@@ -3651,7 +3690,7 @@
       </c>
     </row>
     <row r="30" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="106"/>
+      <c r="B30" s="118"/>
       <c r="C30" s="4" t="s">
         <v>42</v>
       </c>
@@ -3716,7 +3755,7 @@
       </c>
     </row>
     <row r="31" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="106"/>
+      <c r="B31" s="118"/>
       <c r="C31" s="4" t="s">
         <v>43</v>
       </c>
@@ -3781,7 +3820,7 @@
       </c>
     </row>
     <row r="32" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="106"/>
+      <c r="B32" s="118"/>
       <c r="C32" s="4" t="s">
         <v>44</v>
       </c>
@@ -3846,7 +3885,7 @@
       </c>
     </row>
     <row r="33" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="106"/>
+      <c r="B33" s="118"/>
       <c r="C33" s="4" t="s">
         <v>45</v>
       </c>
@@ -3911,7 +3950,7 @@
       </c>
     </row>
     <row r="34" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="106"/>
+      <c r="B34" s="118"/>
       <c r="C34" s="4" t="s">
         <v>46</v>
       </c>
@@ -3976,7 +4015,7 @@
       </c>
     </row>
     <row r="35" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="106"/>
+      <c r="B35" s="118"/>
       <c r="C35" s="4" t="s">
         <v>47</v>
       </c>
@@ -4041,7 +4080,7 @@
       </c>
     </row>
     <row r="36" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="106"/>
+      <c r="B36" s="118"/>
       <c r="C36" s="4" t="s">
         <v>48</v>
       </c>
@@ -4106,7 +4145,7 @@
       </c>
     </row>
     <row r="37" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="106"/>
+      <c r="B37" s="118"/>
       <c r="C37" s="4" t="s">
         <v>49</v>
       </c>
@@ -4171,7 +4210,7 @@
       </c>
     </row>
     <row r="38" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="106"/>
+      <c r="B38" s="118"/>
       <c r="C38" s="4" t="s">
         <v>50</v>
       </c>
@@ -4236,7 +4275,7 @@
       </c>
     </row>
     <row r="39" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="106"/>
+      <c r="B39" s="118"/>
       <c r="C39" s="4" t="s">
         <v>51</v>
       </c>
@@ -4301,7 +4340,7 @@
       </c>
     </row>
     <row r="40" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="106"/>
+      <c r="B40" s="118"/>
       <c r="C40" s="4" t="s">
         <v>52</v>
       </c>
@@ -4366,7 +4405,7 @@
       </c>
     </row>
     <row r="41" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="106"/>
+      <c r="B41" s="118"/>
       <c r="C41" s="4" t="s">
         <v>53</v>
       </c>
@@ -4431,7 +4470,7 @@
       </c>
     </row>
     <row r="42" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="106"/>
+      <c r="B42" s="118"/>
       <c r="C42" s="4" t="s">
         <v>54</v>
       </c>
@@ -4496,7 +4535,7 @@
       </c>
     </row>
     <row r="43" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="106"/>
+      <c r="B43" s="118"/>
       <c r="C43" s="4" t="s">
         <v>55</v>
       </c>
@@ -4561,7 +4600,7 @@
       </c>
     </row>
     <row r="44" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="106"/>
+      <c r="B44" s="118"/>
       <c r="C44" s="4" t="s">
         <v>56</v>
       </c>
@@ -4626,7 +4665,7 @@
       </c>
     </row>
     <row r="45" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="106"/>
+      <c r="B45" s="118"/>
       <c r="C45" s="4" t="s">
         <v>57</v>
       </c>
@@ -4691,7 +4730,7 @@
       </c>
     </row>
     <row r="46" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="106"/>
+      <c r="B46" s="118"/>
       <c r="C46" s="4" t="s">
         <v>58</v>
       </c>
@@ -4756,7 +4795,7 @@
       </c>
     </row>
     <row r="47" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="106"/>
+      <c r="B47" s="118"/>
       <c r="C47" s="4" t="s">
         <v>59</v>
       </c>
@@ -4821,7 +4860,7 @@
       </c>
     </row>
     <row r="48" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="106"/>
+      <c r="B48" s="118"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
@@ -4886,7 +4925,7 @@
       </c>
     </row>
     <row r="49" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="106"/>
+      <c r="B49" s="118"/>
       <c r="C49" s="18" t="s">
         <v>61</v>
       </c>
@@ -4951,7 +4990,7 @@
       </c>
     </row>
     <row r="50" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="106"/>
+      <c r="B50" s="118"/>
       <c r="C50" s="18" t="s">
         <v>72</v>
       </c>
@@ -5004,7 +5043,7 @@
       <c r="W50" s="28"/>
     </row>
     <row r="51" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="106"/>
+      <c r="B51" s="118"/>
       <c r="C51" s="18" t="s">
         <v>73</v>
       </c>
@@ -5057,7 +5096,7 @@
       <c r="W51" s="28"/>
     </row>
     <row r="52" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="106"/>
+      <c r="B52" s="118"/>
       <c r="C52" s="18" t="s">
         <v>74</v>
       </c>
@@ -5110,7 +5149,7 @@
       <c r="W52" s="28"/>
     </row>
     <row r="53" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="106"/>
+      <c r="B53" s="118"/>
       <c r="C53" s="18" t="s">
         <v>75</v>
       </c>
@@ -5163,7 +5202,7 @@
       <c r="W53" s="28"/>
     </row>
     <row r="54" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="106"/>
+      <c r="B54" s="118"/>
       <c r="C54" s="18" t="s">
         <v>76</v>
       </c>
@@ -5216,7 +5255,7 @@
       <c r="W54" s="28"/>
     </row>
     <row r="55" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="106"/>
+      <c r="B55" s="118"/>
       <c r="C55" s="18" t="s">
         <v>77</v>
       </c>
@@ -5269,7 +5308,7 @@
       <c r="W55" s="28"/>
     </row>
     <row r="56" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="106"/>
+      <c r="B56" s="118"/>
       <c r="C56" s="18" t="s">
         <v>78</v>
       </c>
@@ -5322,7 +5361,7 @@
       <c r="W56" s="28"/>
     </row>
     <row r="57" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="106"/>
+      <c r="B57" s="118"/>
       <c r="C57" s="18" t="s">
         <v>79</v>
       </c>
@@ -5375,7 +5414,7 @@
       <c r="W57" s="28"/>
     </row>
     <row r="58" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="106"/>
+      <c r="B58" s="118"/>
       <c r="C58" s="18" t="s">
         <v>80</v>
       </c>
@@ -5428,7 +5467,7 @@
       <c r="W58" s="28"/>
     </row>
     <row r="59" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="106"/>
+      <c r="B59" s="118"/>
       <c r="C59" s="18" t="s">
         <v>81</v>
       </c>
@@ -5481,7 +5520,7 @@
       <c r="W59" s="28"/>
     </row>
     <row r="60" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="106"/>
+      <c r="B60" s="118"/>
       <c r="C60" s="18" t="s">
         <v>82</v>
       </c>
@@ -5534,7 +5573,7 @@
       <c r="W60" s="28"/>
     </row>
     <row r="61" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="106"/>
+      <c r="B61" s="118"/>
       <c r="C61" s="18" t="s">
         <v>83</v>
       </c>
@@ -5587,7 +5626,7 @@
       <c r="W61" s="28"/>
     </row>
     <row r="62" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="106"/>
+      <c r="B62" s="118"/>
       <c r="C62" s="18" t="s">
         <v>84</v>
       </c>
@@ -5640,7 +5679,7 @@
       <c r="W62" s="28"/>
     </row>
     <row r="63" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="107"/>
+      <c r="B63" s="119"/>
       <c r="C63" s="36" t="s">
         <v>85</v>
       </c>
@@ -5693,7 +5732,7 @@
       <c r="W63" s="41"/>
     </row>
     <row r="64" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="108" t="s">
+      <c r="B64" s="120" t="s">
         <v>62</v>
       </c>
       <c r="C64" s="32" t="s">
@@ -5760,7 +5799,7 @@
       </c>
     </row>
     <row r="65" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="106"/>
+      <c r="B65" s="118"/>
       <c r="C65" s="18" t="s">
         <v>64</v>
       </c>
@@ -5825,7 +5864,7 @@
       </c>
     </row>
     <row r="66" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="106"/>
+      <c r="B66" s="118"/>
       <c r="C66" s="18" t="s">
         <v>65</v>
       </c>
@@ -5890,7 +5929,7 @@
       </c>
     </row>
     <row r="67" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="106"/>
+      <c r="B67" s="118"/>
       <c r="C67" s="18" t="s">
         <v>66</v>
       </c>
@@ -5955,7 +5994,7 @@
       </c>
     </row>
     <row r="68" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="106"/>
+      <c r="B68" s="118"/>
       <c r="C68" s="18" t="s">
         <v>67</v>
       </c>
@@ -6020,7 +6059,7 @@
       </c>
     </row>
     <row r="69" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="106"/>
+      <c r="B69" s="118"/>
       <c r="C69" s="18" t="s">
         <v>68</v>
       </c>
@@ -6085,7 +6124,7 @@
       </c>
     </row>
     <row r="70" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="106"/>
+      <c r="B70" s="118"/>
       <c r="C70" s="18" t="s">
         <v>69</v>
       </c>
@@ -6150,7 +6189,7 @@
       </c>
     </row>
     <row r="71" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="106"/>
+      <c r="B71" s="118"/>
       <c r="C71" s="18" t="s">
         <v>70</v>
       </c>
@@ -6215,7 +6254,7 @@
       </c>
     </row>
     <row r="72" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="106"/>
+      <c r="B72" s="118"/>
       <c r="C72" s="36" t="s">
         <v>71</v>
       </c>
@@ -6263,7 +6302,7 @@
       <c r="R72" s="96">
         <v>0</v>
       </c>
-      <c r="S72" s="127">
+      <c r="S72" s="103">
         <v>0.1</v>
       </c>
       <c r="T72" s="70">
@@ -6280,7 +6319,7 @@
       </c>
     </row>
     <row r="73" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="119" t="s">
+      <c r="B73" s="110" t="s">
         <v>86</v>
       </c>
       <c r="C73" s="6" t="s">
@@ -6347,7 +6386,7 @@
       </c>
     </row>
     <row r="74" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="120"/>
+      <c r="B74" s="111"/>
       <c r="C74" s="4" t="s">
         <v>26</v>
       </c>
@@ -6412,7 +6451,7 @@
       </c>
     </row>
     <row r="75" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="120"/>
+      <c r="B75" s="111"/>
       <c r="C75" s="4" t="s">
         <v>28</v>
       </c>
@@ -6477,7 +6516,7 @@
       </c>
     </row>
     <row r="76" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="120"/>
+      <c r="B76" s="111"/>
       <c r="C76" s="4" t="s">
         <v>29</v>
       </c>
@@ -6542,7 +6581,7 @@
       </c>
     </row>
     <row r="77" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="120"/>
+      <c r="B77" s="111"/>
       <c r="C77" s="4" t="s">
         <v>30</v>
       </c>
@@ -6607,7 +6646,7 @@
       </c>
     </row>
     <row r="78" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="120"/>
+      <c r="B78" s="111"/>
       <c r="C78" s="4" t="s">
         <v>31</v>
       </c>
@@ -6672,7 +6711,7 @@
       </c>
     </row>
     <row r="79" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="120"/>
+      <c r="B79" s="111"/>
       <c r="C79" s="4" t="s">
         <v>32</v>
       </c>
@@ -6737,7 +6776,7 @@
       </c>
     </row>
     <row r="80" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="120"/>
+      <c r="B80" s="111"/>
       <c r="C80" s="4" t="s">
         <v>33</v>
       </c>
@@ -6802,7 +6841,7 @@
       </c>
     </row>
     <row r="81" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="120"/>
+      <c r="B81" s="111"/>
       <c r="C81" s="4" t="s">
         <v>34</v>
       </c>
@@ -6867,7 +6906,7 @@
       </c>
     </row>
     <row r="82" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="120"/>
+      <c r="B82" s="111"/>
       <c r="C82" s="4" t="s">
         <v>35</v>
       </c>
@@ -6932,7 +6971,7 @@
       </c>
     </row>
     <row r="83" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="120"/>
+      <c r="B83" s="111"/>
       <c r="C83" s="4" t="s">
         <v>36</v>
       </c>
@@ -6997,7 +7036,7 @@
       </c>
     </row>
     <row r="84" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="120"/>
+      <c r="B84" s="111"/>
       <c r="C84" s="4" t="s">
         <v>37</v>
       </c>
@@ -7062,7 +7101,7 @@
       </c>
     </row>
     <row r="85" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="120"/>
+      <c r="B85" s="111"/>
       <c r="C85" s="4" t="s">
         <v>38</v>
       </c>
@@ -7127,7 +7166,7 @@
       </c>
     </row>
     <row r="86" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="120"/>
+      <c r="B86" s="111"/>
       <c r="C86" s="4" t="s">
         <v>39</v>
       </c>
@@ -7192,7 +7231,7 @@
       </c>
     </row>
     <row r="87" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="120"/>
+      <c r="B87" s="111"/>
       <c r="C87" s="4" t="s">
         <v>40</v>
       </c>
@@ -7257,7 +7296,7 @@
       </c>
     </row>
     <row r="88" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="120"/>
+      <c r="B88" s="111"/>
       <c r="C88" s="4" t="s">
         <v>41</v>
       </c>
@@ -7322,7 +7361,7 @@
       </c>
     </row>
     <row r="89" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="120"/>
+      <c r="B89" s="111"/>
       <c r="C89" s="4" t="s">
         <v>115</v>
       </c>
@@ -7387,7 +7426,7 @@
       </c>
     </row>
     <row r="90" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="120"/>
+      <c r="B90" s="111"/>
       <c r="C90" s="4" t="s">
         <v>116</v>
       </c>
@@ -7452,7 +7491,7 @@
       </c>
     </row>
     <row r="91" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="120"/>
+      <c r="B91" s="111"/>
       <c r="C91" s="4" t="s">
         <v>42</v>
       </c>
@@ -7517,7 +7556,7 @@
       </c>
     </row>
     <row r="92" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="121"/>
+      <c r="B92" s="112"/>
       <c r="C92" s="36" t="s">
         <v>87</v>
       </c>
@@ -7536,7 +7575,7 @@
       </c>
       <c r="I92" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="J92" s="51">
         <v>0</v>
@@ -7562,20 +7601,30 @@
       <c r="Q92" s="51">
         <v>0</v>
       </c>
-      <c r="R92" s="128">
-        <v>0</v>
-      </c>
-      <c r="S92" s="40"/>
-      <c r="T92" s="40"/>
-      <c r="U92" s="40"/>
-      <c r="V92" s="40"/>
-      <c r="W92" s="41"/>
+      <c r="R92" s="104">
+        <v>0</v>
+      </c>
+      <c r="S92" s="129">
+        <v>2.35</v>
+      </c>
+      <c r="T92" s="129">
+        <v>0</v>
+      </c>
+      <c r="U92" s="129">
+        <v>0</v>
+      </c>
+      <c r="V92" s="129">
+        <v>0</v>
+      </c>
+      <c r="W92" s="130">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="124" t="s">
+      <c r="B93" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="C93" s="122" t="s">
+      <c r="C93" s="113" t="s">
         <v>89</v>
       </c>
       <c r="D93" s="6" t="s">
@@ -7641,8 +7690,8 @@
       </c>
     </row>
     <row r="94" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="124"/>
-      <c r="C94" s="123"/>
+      <c r="B94" s="115"/>
+      <c r="C94" s="114"/>
       <c r="D94" s="4" t="s">
         <v>91</v>
       </c>
@@ -7706,8 +7755,8 @@
       </c>
     </row>
     <row r="95" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="124"/>
-      <c r="C95" s="123"/>
+      <c r="B95" s="115"/>
+      <c r="C95" s="114"/>
       <c r="D95" s="4" t="s">
         <v>92</v>
       </c>
@@ -7771,7 +7820,7 @@
       </c>
     </row>
     <row r="96" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="124"/>
+      <c r="B96" s="115"/>
       <c r="C96" s="18" t="s">
         <v>110</v>
       </c>
@@ -7824,7 +7873,7 @@
       <c r="W96" s="99"/>
     </row>
     <row r="97" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="124"/>
+      <c r="B97" s="115"/>
       <c r="C97" s="18" t="s">
         <v>93</v>
       </c>
@@ -7877,7 +7926,7 @@
       <c r="W97" s="99"/>
     </row>
     <row r="98" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="124"/>
+      <c r="B98" s="115"/>
       <c r="C98" s="18" t="s">
         <v>94</v>
       </c>
@@ -7942,7 +7991,7 @@
       </c>
     </row>
     <row r="99" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="124"/>
+      <c r="B99" s="115"/>
       <c r="C99" s="18" t="s">
         <v>95</v>
       </c>
@@ -8007,7 +8056,7 @@
       </c>
     </row>
     <row r="100" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="124"/>
+      <c r="B100" s="115"/>
       <c r="C100" s="18" t="s">
         <v>96</v>
       </c>
@@ -8060,7 +8109,7 @@
       <c r="W100" s="99"/>
     </row>
     <row r="101" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="125"/>
+      <c r="B101" s="116"/>
       <c r="C101" s="18" t="s">
         <v>97</v>
       </c>
@@ -8347,76 +8396,76 @@
       </c>
     </row>
     <row r="106" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="116" t="s">
+      <c r="B106" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="117"/>
-      <c r="D106" s="117"/>
-      <c r="E106" s="117"/>
-      <c r="F106" s="117"/>
-      <c r="G106" s="117"/>
+      <c r="C106" s="128"/>
+      <c r="D106" s="128"/>
+      <c r="E106" s="128"/>
+      <c r="F106" s="128"/>
+      <c r="G106" s="128"/>
       <c r="H106" s="27">
-        <f>SUM(H4:H105)</f>
+        <f t="shared" ref="H106:W106" si="2">SUM(H4:H105)</f>
         <v>34.550000000000004</v>
       </c>
       <c r="I106" s="14">
-        <f>SUM(I4:I105)</f>
-        <v>24.128999999999994</v>
+        <f t="shared" si="2"/>
+        <v>26.478999999999996</v>
       </c>
       <c r="J106" s="12">
-        <f>SUM(J4:J105)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K106" s="13">
-        <f>SUM(K4:K105)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L106" s="13">
-        <f>SUM(L4:L105)</f>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="M106" s="15">
-        <f>SUM(M4:M105)</f>
+        <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N106" s="15">
-        <f>SUM(N4:N105)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O106" s="15">
-        <f>SUM(O4:O105)</f>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="P106" s="15">
-        <f>SUM(P4:P105)</f>
+        <f t="shared" si="2"/>
         <v>8.9750000000000014</v>
       </c>
       <c r="Q106" s="15">
-        <f>SUM(Q4:Q105)</f>
+        <f t="shared" si="2"/>
         <v>3.4870000000000001</v>
       </c>
       <c r="R106" s="15">
-        <f>SUM(R4:R105)</f>
+        <f t="shared" si="2"/>
         <v>4.407</v>
       </c>
       <c r="S106" s="15">
-        <f>SUM(S4:S105)</f>
-        <v>4.49</v>
+        <f t="shared" si="2"/>
+        <v>6.84</v>
       </c>
       <c r="T106" s="15">
-        <f>SUM(T4:T105)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U106" s="15">
-        <f>SUM(U4:U105)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V106" s="15">
-        <f>SUM(V4:V105)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W106" s="15">
-        <f>SUM(W4:W105)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8429,22 +8478,22 @@
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
-      <c r="J107" s="103" t="s">
+      <c r="J107" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="K107" s="104"/>
-      <c r="L107" s="104"/>
-      <c r="M107" s="104"/>
-      <c r="N107" s="104"/>
-      <c r="O107" s="104"/>
-      <c r="P107" s="104"/>
-      <c r="Q107" s="104"/>
-      <c r="R107" s="104"/>
-      <c r="S107" s="104"/>
-      <c r="T107" s="104"/>
-      <c r="U107" s="104"/>
-      <c r="V107" s="104"/>
-      <c r="W107" s="105"/>
+      <c r="K107" s="106"/>
+      <c r="L107" s="106"/>
+      <c r="M107" s="106"/>
+      <c r="N107" s="106"/>
+      <c r="O107" s="106"/>
+      <c r="P107" s="106"/>
+      <c r="Q107" s="106"/>
+      <c r="R107" s="106"/>
+      <c r="S107" s="106"/>
+      <c r="T107" s="106"/>
+      <c r="U107" s="106"/>
+      <c r="V107" s="106"/>
+      <c r="W107" s="107"/>
     </row>
     <row r="108" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="2"/>
@@ -8469,10 +8518,10 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
-      <c r="H109" s="103" t="s">
+      <c r="H109" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="I109" s="126"/>
+      <c r="I109" s="117"/>
       <c r="J109" s="13">
         <f>H106-J106</f>
         <v>34.550000000000004</v>
@@ -8490,44 +8539,44 @@
         <v>34.28</v>
       </c>
       <c r="N109" s="13">
-        <f t="shared" ref="N109:W109" si="2">M109-N106</f>
+        <f t="shared" ref="N109:W109" si="3">M109-N106</f>
         <v>34.28</v>
       </c>
       <c r="O109" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31.78</v>
       </c>
       <c r="P109" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.805</v>
       </c>
       <c r="Q109" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.317999999999998</v>
       </c>
       <c r="R109" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.910999999999998</v>
       </c>
       <c r="S109" s="13">
-        <f t="shared" si="2"/>
-        <v>10.420999999999998</v>
+        <f t="shared" si="3"/>
+        <v>8.070999999999998</v>
       </c>
       <c r="T109" s="13">
-        <f t="shared" si="2"/>
-        <v>10.420999999999998</v>
+        <f t="shared" si="3"/>
+        <v>8.070999999999998</v>
       </c>
       <c r="U109" s="13">
-        <f t="shared" si="2"/>
-        <v>10.420999999999998</v>
+        <f t="shared" si="3"/>
+        <v>8.070999999999998</v>
       </c>
       <c r="V109" s="13">
-        <f t="shared" si="2"/>
-        <v>10.420999999999998</v>
+        <f t="shared" si="3"/>
+        <v>8.070999999999998</v>
       </c>
       <c r="W109" s="13">
-        <f t="shared" si="2"/>
-        <v>10.420999999999998</v>
+        <f t="shared" si="3"/>
+        <v>8.070999999999998</v>
       </c>
     </row>
     <row r="110" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8550,27 +8599,27 @@
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
-      <c r="H111" s="103" t="s">
+      <c r="H111" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="I111" s="104"/>
-      <c r="J111" s="103">
+      <c r="I111" s="106"/>
+      <c r="J111" s="105">
         <f>H106-I106</f>
-        <v>10.42100000000001</v>
-      </c>
-      <c r="K111" s="104"/>
-      <c r="L111" s="104"/>
-      <c r="M111" s="104"/>
-      <c r="N111" s="104"/>
-      <c r="O111" s="104"/>
-      <c r="P111" s="104"/>
-      <c r="Q111" s="104"/>
-      <c r="R111" s="104"/>
-      <c r="S111" s="104"/>
-      <c r="T111" s="104"/>
-      <c r="U111" s="104"/>
-      <c r="V111" s="104"/>
-      <c r="W111" s="105"/>
+        <v>8.0710000000000086</v>
+      </c>
+      <c r="K111" s="106"/>
+      <c r="L111" s="106"/>
+      <c r="M111" s="106"/>
+      <c r="N111" s="106"/>
+      <c r="O111" s="106"/>
+      <c r="P111" s="106"/>
+      <c r="Q111" s="106"/>
+      <c r="R111" s="106"/>
+      <c r="S111" s="106"/>
+      <c r="T111" s="106"/>
+      <c r="U111" s="106"/>
+      <c r="V111" s="106"/>
+      <c r="W111" s="107"/>
     </row>
     <row r="112" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
@@ -8658,13 +8707,6 @@
     <row r="130" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="J111:W111"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B73:B92"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="B93:B101"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H111:I111"/>
     <mergeCell ref="J2:W2"/>
     <mergeCell ref="J107:W107"/>
     <mergeCell ref="B14:B63"/>
@@ -8673,6 +8715,13 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B106:G106"/>
+    <mergeCell ref="J111:W111"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B73:B92"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="B93:B101"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H111:I111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8686,7 +8735,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8698,7 +8747,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devildrake\Documents\MAP_LegendOfRadev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bichito\Desktop\Alex\MAP_LegendOfRadev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -377,7 +377,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1311,78 +1311,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1423,6 +1351,57 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1432,16 +1411,37 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1462,7 +1462,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1534,22 +1534,22 @@
                   <c:v>8.0209999999999972</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.0209999999999972</c:v>
+                  <c:v>7.6209999999999969</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.0209999999999972</c:v>
+                  <c:v>7.6209999999999969</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.0209999999999972</c:v>
+                  <c:v>7.6209999999999969</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.0209999999999972</c:v>
+                  <c:v>7.6209999999999969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-08BE-4709-9DE4-AEC2E98B8D97}"/>
             </c:ext>
@@ -1604,7 +1604,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1639,7 +1638,7 @@
         <xdr:cNvPr id="4" name="3 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1736,6 +1735,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1771,6 +1787,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1946,31 +1979,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T56" sqref="T56"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q101" sqref="Q101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>113</v>
       </c>
@@ -1978,25 +2011,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="93" t="s">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="95"/>
-    </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="115"/>
+    </row>
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="81" t="s">
         <v>7</v>
       </c>
@@ -2064,8 +2097,8 @@
         <v>43053</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="101" t="s">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="134" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="52" t="s">
@@ -2131,9 +2164,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="102"/>
-      <c r="C5" s="104" t="s">
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="135"/>
+      <c r="C5" s="116" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="69" t="s">
@@ -2198,9 +2231,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="102"/>
-      <c r="C6" s="105"/>
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="135"/>
+      <c r="C6" s="137"/>
       <c r="D6" s="15" t="s">
         <v>20</v>
       </c>
@@ -2263,8 +2296,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="102"/>
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="135"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
@@ -2328,8 +2361,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="102"/>
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="135"/>
       <c r="C8" s="68" t="s">
         <v>16</v>
       </c>
@@ -2393,8 +2426,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="103"/>
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="136"/>
       <c r="C9" s="34" t="s">
         <v>104</v>
       </c>
@@ -2458,8 +2491,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B10" s="99" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="132" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="85" t="s">
@@ -2517,8 +2550,8 @@
       <c r="V10" s="32"/>
       <c r="W10" s="33"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B11" s="99"/>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="132"/>
       <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2574,9 +2607,9 @@
       <c r="V11" s="18"/>
       <c r="W11" s="26"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="B12" s="99"/>
-      <c r="C12" s="104" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="132"/>
+      <c r="C12" s="116" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="45" t="s">
@@ -2633,9 +2666,9 @@
       <c r="V12" s="21"/>
       <c r="W12" s="28"/>
     </row>
-    <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="100"/>
-      <c r="C13" s="108"/>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="133"/>
+      <c r="C13" s="117"/>
       <c r="D13" s="35" t="s">
         <v>112</v>
       </c>
@@ -2655,34 +2688,34 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="118">
-        <v>0</v>
-      </c>
-      <c r="K13" s="119">
-        <v>0</v>
-      </c>
-      <c r="L13" s="119">
-        <v>0</v>
-      </c>
-      <c r="M13" s="119">
-        <v>0</v>
-      </c>
-      <c r="N13" s="119">
-        <v>0</v>
-      </c>
-      <c r="O13" s="119">
-        <v>0</v>
-      </c>
-      <c r="P13" s="119">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="119">
-        <v>0</v>
-      </c>
-      <c r="R13" s="119">
-        <v>0</v>
-      </c>
-      <c r="S13" s="119">
+      <c r="J13" s="94">
+        <v>0</v>
+      </c>
+      <c r="K13" s="95">
+        <v>0</v>
+      </c>
+      <c r="L13" s="95">
+        <v>0</v>
+      </c>
+      <c r="M13" s="95">
+        <v>0</v>
+      </c>
+      <c r="N13" s="95">
+        <v>0</v>
+      </c>
+      <c r="O13" s="95">
+        <v>0</v>
+      </c>
+      <c r="P13" s="95">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="95">
+        <v>0</v>
+      </c>
+      <c r="R13" s="95">
+        <v>0</v>
+      </c>
+      <c r="S13" s="95">
         <v>0</v>
       </c>
       <c r="T13" s="21"/>
@@ -2690,8 +2723,8 @@
       <c r="V13" s="21"/>
       <c r="W13" s="28"/>
     </row>
-    <row r="14" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="96" t="s">
+    <row r="14" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="129" t="s">
         <v>114</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -2717,48 +2750,48 @@
       <c r="J14" s="55">
         <v>0</v>
       </c>
-      <c r="K14" s="121">
-        <v>0</v>
-      </c>
-      <c r="L14" s="121">
-        <v>0</v>
-      </c>
-      <c r="M14" s="121">
-        <v>0</v>
-      </c>
-      <c r="N14" s="121">
-        <v>0</v>
-      </c>
-      <c r="O14" s="121">
-        <v>0</v>
-      </c>
-      <c r="P14" s="117">
+      <c r="K14" s="97">
+        <v>0</v>
+      </c>
+      <c r="L14" s="97">
+        <v>0</v>
+      </c>
+      <c r="M14" s="97">
+        <v>0</v>
+      </c>
+      <c r="N14" s="97">
+        <v>0</v>
+      </c>
+      <c r="O14" s="97">
+        <v>0</v>
+      </c>
+      <c r="P14" s="93">
         <v>1.62</v>
       </c>
-      <c r="Q14" s="117">
-        <v>0</v>
-      </c>
-      <c r="R14" s="117">
-        <v>0</v>
-      </c>
-      <c r="S14" s="117">
-        <v>0</v>
-      </c>
-      <c r="T14" s="117">
-        <v>0</v>
-      </c>
-      <c r="U14" s="117">
-        <v>0</v>
-      </c>
-      <c r="V14" s="117">
-        <v>0</v>
-      </c>
-      <c r="W14" s="122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="96"/>
+      <c r="Q14" s="93">
+        <v>0</v>
+      </c>
+      <c r="R14" s="93">
+        <v>0</v>
+      </c>
+      <c r="S14" s="93">
+        <v>0</v>
+      </c>
+      <c r="T14" s="93">
+        <v>0</v>
+      </c>
+      <c r="U14" s="93">
+        <v>0</v>
+      </c>
+      <c r="V14" s="93">
+        <v>0</v>
+      </c>
+      <c r="W14" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="129"/>
       <c r="C15" s="4" t="s">
         <v>26</v>
       </c>
@@ -2782,19 +2815,19 @@
       <c r="J15" s="46">
         <v>0</v>
       </c>
-      <c r="K15" s="120">
-        <v>0</v>
-      </c>
-      <c r="L15" s="120">
-        <v>0</v>
-      </c>
-      <c r="M15" s="120">
-        <v>0</v>
-      </c>
-      <c r="N15" s="120">
-        <v>0</v>
-      </c>
-      <c r="O15" s="120">
+      <c r="K15" s="96">
+        <v>0</v>
+      </c>
+      <c r="L15" s="96">
+        <v>0</v>
+      </c>
+      <c r="M15" s="96">
+        <v>0</v>
+      </c>
+      <c r="N15" s="96">
+        <v>0</v>
+      </c>
+      <c r="O15" s="96">
         <v>0</v>
       </c>
       <c r="P15" s="51">
@@ -2822,8 +2855,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="96"/>
+    <row r="16" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="129"/>
       <c r="C16" s="4" t="s">
         <v>28</v>
       </c>
@@ -2847,19 +2880,19 @@
       <c r="J16" s="46">
         <v>0</v>
       </c>
-      <c r="K16" s="120">
-        <v>0</v>
-      </c>
-      <c r="L16" s="120">
-        <v>0</v>
-      </c>
-      <c r="M16" s="120">
-        <v>0</v>
-      </c>
-      <c r="N16" s="120">
-        <v>0</v>
-      </c>
-      <c r="O16" s="120">
+      <c r="K16" s="96">
+        <v>0</v>
+      </c>
+      <c r="L16" s="96">
+        <v>0</v>
+      </c>
+      <c r="M16" s="96">
+        <v>0</v>
+      </c>
+      <c r="N16" s="96">
+        <v>0</v>
+      </c>
+      <c r="O16" s="96">
         <v>0</v>
       </c>
       <c r="P16" s="51">
@@ -2887,8 +2920,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="96"/>
+    <row r="17" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="129"/>
       <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
@@ -2912,19 +2945,19 @@
       <c r="J17" s="46">
         <v>0</v>
       </c>
-      <c r="K17" s="120">
-        <v>0</v>
-      </c>
-      <c r="L17" s="120">
-        <v>0</v>
-      </c>
-      <c r="M17" s="120">
-        <v>0</v>
-      </c>
-      <c r="N17" s="120">
-        <v>0</v>
-      </c>
-      <c r="O17" s="120">
+      <c r="K17" s="96">
+        <v>0</v>
+      </c>
+      <c r="L17" s="96">
+        <v>0</v>
+      </c>
+      <c r="M17" s="96">
+        <v>0</v>
+      </c>
+      <c r="N17" s="96">
+        <v>0</v>
+      </c>
+      <c r="O17" s="96">
         <v>0</v>
       </c>
       <c r="P17" s="51">
@@ -2952,8 +2985,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="96"/>
+    <row r="18" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="129"/>
       <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
@@ -2977,19 +3010,19 @@
       <c r="J18" s="46">
         <v>0</v>
       </c>
-      <c r="K18" s="120">
-        <v>0</v>
-      </c>
-      <c r="L18" s="120">
-        <v>0</v>
-      </c>
-      <c r="M18" s="120">
-        <v>0</v>
-      </c>
-      <c r="N18" s="120">
-        <v>0</v>
-      </c>
-      <c r="O18" s="120">
+      <c r="K18" s="96">
+        <v>0</v>
+      </c>
+      <c r="L18" s="96">
+        <v>0</v>
+      </c>
+      <c r="M18" s="96">
+        <v>0</v>
+      </c>
+      <c r="N18" s="96">
+        <v>0</v>
+      </c>
+      <c r="O18" s="96">
         <v>0</v>
       </c>
       <c r="P18" s="51">
@@ -3017,8 +3050,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="96"/>
+    <row r="19" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="129"/>
       <c r="C19" s="4" t="s">
         <v>31</v>
       </c>
@@ -3042,19 +3075,19 @@
       <c r="J19" s="46">
         <v>0</v>
       </c>
-      <c r="K19" s="120">
-        <v>0</v>
-      </c>
-      <c r="L19" s="120">
-        <v>0</v>
-      </c>
-      <c r="M19" s="120">
-        <v>0</v>
-      </c>
-      <c r="N19" s="120">
-        <v>0</v>
-      </c>
-      <c r="O19" s="120">
+      <c r="K19" s="96">
+        <v>0</v>
+      </c>
+      <c r="L19" s="96">
+        <v>0</v>
+      </c>
+      <c r="M19" s="96">
+        <v>0</v>
+      </c>
+      <c r="N19" s="96">
+        <v>0</v>
+      </c>
+      <c r="O19" s="96">
         <v>0</v>
       </c>
       <c r="P19" s="51">
@@ -3082,8 +3115,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="96"/>
+    <row r="20" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="129"/>
       <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
@@ -3107,19 +3140,19 @@
       <c r="J20" s="46">
         <v>0</v>
       </c>
-      <c r="K20" s="120">
-        <v>0</v>
-      </c>
-      <c r="L20" s="120">
-        <v>0</v>
-      </c>
-      <c r="M20" s="120">
-        <v>0</v>
-      </c>
-      <c r="N20" s="120">
-        <v>0</v>
-      </c>
-      <c r="O20" s="120">
+      <c r="K20" s="96">
+        <v>0</v>
+      </c>
+      <c r="L20" s="96">
+        <v>0</v>
+      </c>
+      <c r="M20" s="96">
+        <v>0</v>
+      </c>
+      <c r="N20" s="96">
+        <v>0</v>
+      </c>
+      <c r="O20" s="96">
         <v>0</v>
       </c>
       <c r="P20" s="51">
@@ -3147,8 +3180,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="96"/>
+    <row r="21" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="129"/>
       <c r="C21" s="4" t="s">
         <v>33</v>
       </c>
@@ -3172,19 +3205,19 @@
       <c r="J21" s="46">
         <v>0</v>
       </c>
-      <c r="K21" s="120">
-        <v>0</v>
-      </c>
-      <c r="L21" s="120">
-        <v>0</v>
-      </c>
-      <c r="M21" s="120">
-        <v>0</v>
-      </c>
-      <c r="N21" s="120">
-        <v>0</v>
-      </c>
-      <c r="O21" s="120">
+      <c r="K21" s="96">
+        <v>0</v>
+      </c>
+      <c r="L21" s="96">
+        <v>0</v>
+      </c>
+      <c r="M21" s="96">
+        <v>0</v>
+      </c>
+      <c r="N21" s="96">
+        <v>0</v>
+      </c>
+      <c r="O21" s="96">
         <v>0</v>
       </c>
       <c r="P21" s="51">
@@ -3212,8 +3245,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="96"/>
+    <row r="22" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="129"/>
       <c r="C22" s="4" t="s">
         <v>34</v>
       </c>
@@ -3237,19 +3270,19 @@
       <c r="J22" s="46">
         <v>0</v>
       </c>
-      <c r="K22" s="120">
-        <v>0</v>
-      </c>
-      <c r="L22" s="120">
-        <v>0</v>
-      </c>
-      <c r="M22" s="120">
-        <v>0</v>
-      </c>
-      <c r="N22" s="120">
-        <v>0</v>
-      </c>
-      <c r="O22" s="120">
+      <c r="K22" s="96">
+        <v>0</v>
+      </c>
+      <c r="L22" s="96">
+        <v>0</v>
+      </c>
+      <c r="M22" s="96">
+        <v>0</v>
+      </c>
+      <c r="N22" s="96">
+        <v>0</v>
+      </c>
+      <c r="O22" s="96">
         <v>0</v>
       </c>
       <c r="P22" s="51">
@@ -3277,8 +3310,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="96"/>
+    <row r="23" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="129"/>
       <c r="C23" s="4" t="s">
         <v>35</v>
       </c>
@@ -3302,19 +3335,19 @@
       <c r="J23" s="46">
         <v>0</v>
       </c>
-      <c r="K23" s="120">
-        <v>0</v>
-      </c>
-      <c r="L23" s="120">
-        <v>0</v>
-      </c>
-      <c r="M23" s="120">
-        <v>0</v>
-      </c>
-      <c r="N23" s="120">
-        <v>0</v>
-      </c>
-      <c r="O23" s="120">
+      <c r="K23" s="96">
+        <v>0</v>
+      </c>
+      <c r="L23" s="96">
+        <v>0</v>
+      </c>
+      <c r="M23" s="96">
+        <v>0</v>
+      </c>
+      <c r="N23" s="96">
+        <v>0</v>
+      </c>
+      <c r="O23" s="96">
         <v>0</v>
       </c>
       <c r="P23" s="51">
@@ -3342,8 +3375,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="96"/>
+    <row r="24" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="129"/>
       <c r="C24" s="4" t="s">
         <v>36</v>
       </c>
@@ -3367,19 +3400,19 @@
       <c r="J24" s="46">
         <v>0</v>
       </c>
-      <c r="K24" s="120">
-        <v>0</v>
-      </c>
-      <c r="L24" s="120">
-        <v>0</v>
-      </c>
-      <c r="M24" s="120">
-        <v>0</v>
-      </c>
-      <c r="N24" s="120">
-        <v>0</v>
-      </c>
-      <c r="O24" s="120">
+      <c r="K24" s="96">
+        <v>0</v>
+      </c>
+      <c r="L24" s="96">
+        <v>0</v>
+      </c>
+      <c r="M24" s="96">
+        <v>0</v>
+      </c>
+      <c r="N24" s="96">
+        <v>0</v>
+      </c>
+      <c r="O24" s="96">
         <v>0</v>
       </c>
       <c r="P24" s="51">
@@ -3407,8 +3440,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="96"/>
+    <row r="25" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="129"/>
       <c r="C25" s="4" t="s">
         <v>37</v>
       </c>
@@ -3432,19 +3465,19 @@
       <c r="J25" s="46">
         <v>0</v>
       </c>
-      <c r="K25" s="120">
-        <v>0</v>
-      </c>
-      <c r="L25" s="120">
-        <v>0</v>
-      </c>
-      <c r="M25" s="120">
-        <v>0</v>
-      </c>
-      <c r="N25" s="120">
-        <v>0</v>
-      </c>
-      <c r="O25" s="120">
+      <c r="K25" s="96">
+        <v>0</v>
+      </c>
+      <c r="L25" s="96">
+        <v>0</v>
+      </c>
+      <c r="M25" s="96">
+        <v>0</v>
+      </c>
+      <c r="N25" s="96">
+        <v>0</v>
+      </c>
+      <c r="O25" s="96">
         <v>0</v>
       </c>
       <c r="P25" s="51">
@@ -3472,8 +3505,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="96"/>
+    <row r="26" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="129"/>
       <c r="C26" s="4" t="s">
         <v>38</v>
       </c>
@@ -3497,19 +3530,19 @@
       <c r="J26" s="46">
         <v>0</v>
       </c>
-      <c r="K26" s="120">
-        <v>0</v>
-      </c>
-      <c r="L26" s="120">
-        <v>0</v>
-      </c>
-      <c r="M26" s="120">
-        <v>0</v>
-      </c>
-      <c r="N26" s="120">
-        <v>0</v>
-      </c>
-      <c r="O26" s="120">
+      <c r="K26" s="96">
+        <v>0</v>
+      </c>
+      <c r="L26" s="96">
+        <v>0</v>
+      </c>
+      <c r="M26" s="96">
+        <v>0</v>
+      </c>
+      <c r="N26" s="96">
+        <v>0</v>
+      </c>
+      <c r="O26" s="96">
         <v>0</v>
       </c>
       <c r="P26" s="51">
@@ -3537,8 +3570,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="96"/>
+    <row r="27" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="129"/>
       <c r="C27" s="4" t="s">
         <v>39</v>
       </c>
@@ -3562,19 +3595,19 @@
       <c r="J27" s="46">
         <v>0</v>
       </c>
-      <c r="K27" s="120">
-        <v>0</v>
-      </c>
-      <c r="L27" s="120">
-        <v>0</v>
-      </c>
-      <c r="M27" s="120">
-        <v>0</v>
-      </c>
-      <c r="N27" s="120">
-        <v>0</v>
-      </c>
-      <c r="O27" s="120">
+      <c r="K27" s="96">
+        <v>0</v>
+      </c>
+      <c r="L27" s="96">
+        <v>0</v>
+      </c>
+      <c r="M27" s="96">
+        <v>0</v>
+      </c>
+      <c r="N27" s="96">
+        <v>0</v>
+      </c>
+      <c r="O27" s="96">
         <v>0</v>
       </c>
       <c r="P27" s="51">
@@ -3602,8 +3635,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="96"/>
+    <row r="28" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="129"/>
       <c r="C28" s="4" t="s">
         <v>40</v>
       </c>
@@ -3627,19 +3660,19 @@
       <c r="J28" s="46">
         <v>0</v>
       </c>
-      <c r="K28" s="120">
-        <v>0</v>
-      </c>
-      <c r="L28" s="120">
-        <v>0</v>
-      </c>
-      <c r="M28" s="120">
-        <v>0</v>
-      </c>
-      <c r="N28" s="120">
-        <v>0</v>
-      </c>
-      <c r="O28" s="120">
+      <c r="K28" s="96">
+        <v>0</v>
+      </c>
+      <c r="L28" s="96">
+        <v>0</v>
+      </c>
+      <c r="M28" s="96">
+        <v>0</v>
+      </c>
+      <c r="N28" s="96">
+        <v>0</v>
+      </c>
+      <c r="O28" s="96">
         <v>0</v>
       </c>
       <c r="P28" s="51">
@@ -3667,8 +3700,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="96"/>
+    <row r="29" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="129"/>
       <c r="C29" s="4" t="s">
         <v>41</v>
       </c>
@@ -3692,19 +3725,19 @@
       <c r="J29" s="46">
         <v>0</v>
       </c>
-      <c r="K29" s="120">
-        <v>0</v>
-      </c>
-      <c r="L29" s="120">
-        <v>0</v>
-      </c>
-      <c r="M29" s="120">
-        <v>0</v>
-      </c>
-      <c r="N29" s="120">
-        <v>0</v>
-      </c>
-      <c r="O29" s="120">
+      <c r="K29" s="96">
+        <v>0</v>
+      </c>
+      <c r="L29" s="96">
+        <v>0</v>
+      </c>
+      <c r="M29" s="96">
+        <v>0</v>
+      </c>
+      <c r="N29" s="96">
+        <v>0</v>
+      </c>
+      <c r="O29" s="96">
         <v>0</v>
       </c>
       <c r="P29" s="51">
@@ -3732,8 +3765,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="96"/>
+    <row r="30" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="129"/>
       <c r="C30" s="4" t="s">
         <v>42</v>
       </c>
@@ -3757,19 +3790,19 @@
       <c r="J30" s="46">
         <v>0</v>
       </c>
-      <c r="K30" s="120">
-        <v>0</v>
-      </c>
-      <c r="L30" s="120">
-        <v>0</v>
-      </c>
-      <c r="M30" s="120">
-        <v>0</v>
-      </c>
-      <c r="N30" s="120">
-        <v>0</v>
-      </c>
-      <c r="O30" s="120">
+      <c r="K30" s="96">
+        <v>0</v>
+      </c>
+      <c r="L30" s="96">
+        <v>0</v>
+      </c>
+      <c r="M30" s="96">
+        <v>0</v>
+      </c>
+      <c r="N30" s="96">
+        <v>0</v>
+      </c>
+      <c r="O30" s="96">
         <v>0</v>
       </c>
       <c r="P30" s="51">
@@ -3797,8 +3830,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="96"/>
+    <row r="31" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="129"/>
       <c r="C31" s="4" t="s">
         <v>43</v>
       </c>
@@ -3822,19 +3855,19 @@
       <c r="J31" s="46">
         <v>0</v>
       </c>
-      <c r="K31" s="120">
-        <v>0</v>
-      </c>
-      <c r="L31" s="120">
-        <v>0</v>
-      </c>
-      <c r="M31" s="120">
-        <v>0</v>
-      </c>
-      <c r="N31" s="120">
-        <v>0</v>
-      </c>
-      <c r="O31" s="120">
+      <c r="K31" s="96">
+        <v>0</v>
+      </c>
+      <c r="L31" s="96">
+        <v>0</v>
+      </c>
+      <c r="M31" s="96">
+        <v>0</v>
+      </c>
+      <c r="N31" s="96">
+        <v>0</v>
+      </c>
+      <c r="O31" s="96">
         <v>0</v>
       </c>
       <c r="P31" s="51">
@@ -3862,8 +3895,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="96"/>
+    <row r="32" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="129"/>
       <c r="C32" s="4" t="s">
         <v>44</v>
       </c>
@@ -3887,19 +3920,19 @@
       <c r="J32" s="46">
         <v>0</v>
       </c>
-      <c r="K32" s="120">
-        <v>0</v>
-      </c>
-      <c r="L32" s="120">
-        <v>0</v>
-      </c>
-      <c r="M32" s="120">
-        <v>0</v>
-      </c>
-      <c r="N32" s="120">
-        <v>0</v>
-      </c>
-      <c r="O32" s="120">
+      <c r="K32" s="96">
+        <v>0</v>
+      </c>
+      <c r="L32" s="96">
+        <v>0</v>
+      </c>
+      <c r="M32" s="96">
+        <v>0</v>
+      </c>
+      <c r="N32" s="96">
+        <v>0</v>
+      </c>
+      <c r="O32" s="96">
         <v>0</v>
       </c>
       <c r="P32" s="51">
@@ -3927,8 +3960,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="96"/>
+    <row r="33" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="129"/>
       <c r="C33" s="4" t="s">
         <v>45</v>
       </c>
@@ -3952,19 +3985,19 @@
       <c r="J33" s="46">
         <v>0</v>
       </c>
-      <c r="K33" s="120">
-        <v>0</v>
-      </c>
-      <c r="L33" s="120">
-        <v>0</v>
-      </c>
-      <c r="M33" s="120">
-        <v>0</v>
-      </c>
-      <c r="N33" s="120">
-        <v>0</v>
-      </c>
-      <c r="O33" s="120">
+      <c r="K33" s="96">
+        <v>0</v>
+      </c>
+      <c r="L33" s="96">
+        <v>0</v>
+      </c>
+      <c r="M33" s="96">
+        <v>0</v>
+      </c>
+      <c r="N33" s="96">
+        <v>0</v>
+      </c>
+      <c r="O33" s="96">
         <v>0</v>
       </c>
       <c r="P33" s="51">
@@ -3992,8 +4025,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="96"/>
+    <row r="34" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="129"/>
       <c r="C34" s="4" t="s">
         <v>46</v>
       </c>
@@ -4017,19 +4050,19 @@
       <c r="J34" s="46">
         <v>0</v>
       </c>
-      <c r="K34" s="120">
-        <v>0</v>
-      </c>
-      <c r="L34" s="120">
-        <v>0</v>
-      </c>
-      <c r="M34" s="120">
-        <v>0</v>
-      </c>
-      <c r="N34" s="120">
-        <v>0</v>
-      </c>
-      <c r="O34" s="120">
+      <c r="K34" s="96">
+        <v>0</v>
+      </c>
+      <c r="L34" s="96">
+        <v>0</v>
+      </c>
+      <c r="M34" s="96">
+        <v>0</v>
+      </c>
+      <c r="N34" s="96">
+        <v>0</v>
+      </c>
+      <c r="O34" s="96">
         <v>0</v>
       </c>
       <c r="P34" s="51">
@@ -4057,8 +4090,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="96"/>
+    <row r="35" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="129"/>
       <c r="C35" s="4" t="s">
         <v>47</v>
       </c>
@@ -4082,19 +4115,19 @@
       <c r="J35" s="46">
         <v>0</v>
       </c>
-      <c r="K35" s="120">
-        <v>0</v>
-      </c>
-      <c r="L35" s="120">
-        <v>0</v>
-      </c>
-      <c r="M35" s="120">
-        <v>0</v>
-      </c>
-      <c r="N35" s="120">
-        <v>0</v>
-      </c>
-      <c r="O35" s="120">
+      <c r="K35" s="96">
+        <v>0</v>
+      </c>
+      <c r="L35" s="96">
+        <v>0</v>
+      </c>
+      <c r="M35" s="96">
+        <v>0</v>
+      </c>
+      <c r="N35" s="96">
+        <v>0</v>
+      </c>
+      <c r="O35" s="96">
         <v>0</v>
       </c>
       <c r="P35" s="51">
@@ -4122,8 +4155,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="96"/>
+    <row r="36" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="129"/>
       <c r="C36" s="4" t="s">
         <v>48</v>
       </c>
@@ -4147,19 +4180,19 @@
       <c r="J36" s="46">
         <v>0</v>
       </c>
-      <c r="K36" s="120">
-        <v>0</v>
-      </c>
-      <c r="L36" s="120">
-        <v>0</v>
-      </c>
-      <c r="M36" s="120">
-        <v>0</v>
-      </c>
-      <c r="N36" s="120">
-        <v>0</v>
-      </c>
-      <c r="O36" s="120">
+      <c r="K36" s="96">
+        <v>0</v>
+      </c>
+      <c r="L36" s="96">
+        <v>0</v>
+      </c>
+      <c r="M36" s="96">
+        <v>0</v>
+      </c>
+      <c r="N36" s="96">
+        <v>0</v>
+      </c>
+      <c r="O36" s="96">
         <v>0</v>
       </c>
       <c r="P36" s="51">
@@ -4187,8 +4220,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="96"/>
+    <row r="37" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="129"/>
       <c r="C37" s="4" t="s">
         <v>49</v>
       </c>
@@ -4212,19 +4245,19 @@
       <c r="J37" s="46">
         <v>0</v>
       </c>
-      <c r="K37" s="120">
-        <v>0</v>
-      </c>
-      <c r="L37" s="120">
-        <v>0</v>
-      </c>
-      <c r="M37" s="120">
-        <v>0</v>
-      </c>
-      <c r="N37" s="120">
-        <v>0</v>
-      </c>
-      <c r="O37" s="120">
+      <c r="K37" s="96">
+        <v>0</v>
+      </c>
+      <c r="L37" s="96">
+        <v>0</v>
+      </c>
+      <c r="M37" s="96">
+        <v>0</v>
+      </c>
+      <c r="N37" s="96">
+        <v>0</v>
+      </c>
+      <c r="O37" s="96">
         <v>0</v>
       </c>
       <c r="P37" s="51">
@@ -4252,8 +4285,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="96"/>
+    <row r="38" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="129"/>
       <c r="C38" s="4" t="s">
         <v>50</v>
       </c>
@@ -4277,19 +4310,19 @@
       <c r="J38" s="46">
         <v>0</v>
       </c>
-      <c r="K38" s="120">
-        <v>0</v>
-      </c>
-      <c r="L38" s="120">
-        <v>0</v>
-      </c>
-      <c r="M38" s="120">
-        <v>0</v>
-      </c>
-      <c r="N38" s="120">
-        <v>0</v>
-      </c>
-      <c r="O38" s="120">
+      <c r="K38" s="96">
+        <v>0</v>
+      </c>
+      <c r="L38" s="96">
+        <v>0</v>
+      </c>
+      <c r="M38" s="96">
+        <v>0</v>
+      </c>
+      <c r="N38" s="96">
+        <v>0</v>
+      </c>
+      <c r="O38" s="96">
         <v>0</v>
       </c>
       <c r="P38" s="51">
@@ -4317,8 +4350,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="96"/>
+    <row r="39" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="129"/>
       <c r="C39" s="4" t="s">
         <v>51</v>
       </c>
@@ -4342,19 +4375,19 @@
       <c r="J39" s="46">
         <v>0</v>
       </c>
-      <c r="K39" s="120">
-        <v>0</v>
-      </c>
-      <c r="L39" s="120">
-        <v>0</v>
-      </c>
-      <c r="M39" s="120">
-        <v>0</v>
-      </c>
-      <c r="N39" s="120">
-        <v>0</v>
-      </c>
-      <c r="O39" s="120">
+      <c r="K39" s="96">
+        <v>0</v>
+      </c>
+      <c r="L39" s="96">
+        <v>0</v>
+      </c>
+      <c r="M39" s="96">
+        <v>0</v>
+      </c>
+      <c r="N39" s="96">
+        <v>0</v>
+      </c>
+      <c r="O39" s="96">
         <v>0</v>
       </c>
       <c r="P39" s="51">
@@ -4382,8 +4415,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="96"/>
+    <row r="40" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="129"/>
       <c r="C40" s="4" t="s">
         <v>52</v>
       </c>
@@ -4407,19 +4440,19 @@
       <c r="J40" s="46">
         <v>0</v>
       </c>
-      <c r="K40" s="120">
-        <v>0</v>
-      </c>
-      <c r="L40" s="120">
-        <v>0</v>
-      </c>
-      <c r="M40" s="120">
-        <v>0</v>
-      </c>
-      <c r="N40" s="120">
-        <v>0</v>
-      </c>
-      <c r="O40" s="120">
+      <c r="K40" s="96">
+        <v>0</v>
+      </c>
+      <c r="L40" s="96">
+        <v>0</v>
+      </c>
+      <c r="M40" s="96">
+        <v>0</v>
+      </c>
+      <c r="N40" s="96">
+        <v>0</v>
+      </c>
+      <c r="O40" s="96">
         <v>0</v>
       </c>
       <c r="P40" s="51">
@@ -4447,8 +4480,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="96"/>
+    <row r="41" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="129"/>
       <c r="C41" s="4" t="s">
         <v>53</v>
       </c>
@@ -4472,19 +4505,19 @@
       <c r="J41" s="46">
         <v>0</v>
       </c>
-      <c r="K41" s="120">
-        <v>0</v>
-      </c>
-      <c r="L41" s="120">
-        <v>0</v>
-      </c>
-      <c r="M41" s="120">
-        <v>0</v>
-      </c>
-      <c r="N41" s="120">
-        <v>0</v>
-      </c>
-      <c r="O41" s="120">
+      <c r="K41" s="96">
+        <v>0</v>
+      </c>
+      <c r="L41" s="96">
+        <v>0</v>
+      </c>
+      <c r="M41" s="96">
+        <v>0</v>
+      </c>
+      <c r="N41" s="96">
+        <v>0</v>
+      </c>
+      <c r="O41" s="96">
         <v>0</v>
       </c>
       <c r="P41" s="51">
@@ -4512,8 +4545,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="96"/>
+    <row r="42" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="129"/>
       <c r="C42" s="4" t="s">
         <v>54</v>
       </c>
@@ -4537,19 +4570,19 @@
       <c r="J42" s="46">
         <v>0</v>
       </c>
-      <c r="K42" s="120">
-        <v>0</v>
-      </c>
-      <c r="L42" s="120">
-        <v>0</v>
-      </c>
-      <c r="M42" s="120">
-        <v>0</v>
-      </c>
-      <c r="N42" s="120">
-        <v>0</v>
-      </c>
-      <c r="O42" s="120">
+      <c r="K42" s="96">
+        <v>0</v>
+      </c>
+      <c r="L42" s="96">
+        <v>0</v>
+      </c>
+      <c r="M42" s="96">
+        <v>0</v>
+      </c>
+      <c r="N42" s="96">
+        <v>0</v>
+      </c>
+      <c r="O42" s="96">
         <v>0</v>
       </c>
       <c r="P42" s="51">
@@ -4577,8 +4610,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="96"/>
+    <row r="43" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="129"/>
       <c r="C43" s="4" t="s">
         <v>55</v>
       </c>
@@ -4602,19 +4635,19 @@
       <c r="J43" s="46">
         <v>0</v>
       </c>
-      <c r="K43" s="120">
-        <v>0</v>
-      </c>
-      <c r="L43" s="120">
-        <v>0</v>
-      </c>
-      <c r="M43" s="120">
-        <v>0</v>
-      </c>
-      <c r="N43" s="120">
-        <v>0</v>
-      </c>
-      <c r="O43" s="120">
+      <c r="K43" s="96">
+        <v>0</v>
+      </c>
+      <c r="L43" s="96">
+        <v>0</v>
+      </c>
+      <c r="M43" s="96">
+        <v>0</v>
+      </c>
+      <c r="N43" s="96">
+        <v>0</v>
+      </c>
+      <c r="O43" s="96">
         <v>0</v>
       </c>
       <c r="P43" s="51">
@@ -4642,8 +4675,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="96"/>
+    <row r="44" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="129"/>
       <c r="C44" s="4" t="s">
         <v>56</v>
       </c>
@@ -4667,19 +4700,19 @@
       <c r="J44" s="46">
         <v>0</v>
       </c>
-      <c r="K44" s="120">
-        <v>0</v>
-      </c>
-      <c r="L44" s="120">
-        <v>0</v>
-      </c>
-      <c r="M44" s="120">
-        <v>0</v>
-      </c>
-      <c r="N44" s="120">
-        <v>0</v>
-      </c>
-      <c r="O44" s="120">
+      <c r="K44" s="96">
+        <v>0</v>
+      </c>
+      <c r="L44" s="96">
+        <v>0</v>
+      </c>
+      <c r="M44" s="96">
+        <v>0</v>
+      </c>
+      <c r="N44" s="96">
+        <v>0</v>
+      </c>
+      <c r="O44" s="96">
         <v>0</v>
       </c>
       <c r="P44" s="51">
@@ -4707,8 +4740,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="96"/>
+    <row r="45" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="129"/>
       <c r="C45" s="4" t="s">
         <v>57</v>
       </c>
@@ -4732,19 +4765,19 @@
       <c r="J45" s="46">
         <v>0</v>
       </c>
-      <c r="K45" s="120">
-        <v>0</v>
-      </c>
-      <c r="L45" s="120">
-        <v>0</v>
-      </c>
-      <c r="M45" s="120">
-        <v>0</v>
-      </c>
-      <c r="N45" s="120">
-        <v>0</v>
-      </c>
-      <c r="O45" s="120">
+      <c r="K45" s="96">
+        <v>0</v>
+      </c>
+      <c r="L45" s="96">
+        <v>0</v>
+      </c>
+      <c r="M45" s="96">
+        <v>0</v>
+      </c>
+      <c r="N45" s="96">
+        <v>0</v>
+      </c>
+      <c r="O45" s="96">
         <v>0</v>
       </c>
       <c r="P45" s="51">
@@ -4772,8 +4805,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="96"/>
+    <row r="46" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="129"/>
       <c r="C46" s="4" t="s">
         <v>58</v>
       </c>
@@ -4797,19 +4830,19 @@
       <c r="J46" s="46">
         <v>0</v>
       </c>
-      <c r="K46" s="120">
-        <v>0</v>
-      </c>
-      <c r="L46" s="120">
-        <v>0</v>
-      </c>
-      <c r="M46" s="120">
-        <v>0</v>
-      </c>
-      <c r="N46" s="120">
-        <v>0</v>
-      </c>
-      <c r="O46" s="120">
+      <c r="K46" s="96">
+        <v>0</v>
+      </c>
+      <c r="L46" s="96">
+        <v>0</v>
+      </c>
+      <c r="M46" s="96">
+        <v>0</v>
+      </c>
+      <c r="N46" s="96">
+        <v>0</v>
+      </c>
+      <c r="O46" s="96">
         <v>0</v>
       </c>
       <c r="P46" s="51">
@@ -4837,8 +4870,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="96"/>
+    <row r="47" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="129"/>
       <c r="C47" s="4" t="s">
         <v>59</v>
       </c>
@@ -4862,19 +4895,19 @@
       <c r="J47" s="46">
         <v>0</v>
       </c>
-      <c r="K47" s="120">
-        <v>0</v>
-      </c>
-      <c r="L47" s="120">
-        <v>0</v>
-      </c>
-      <c r="M47" s="120">
-        <v>0</v>
-      </c>
-      <c r="N47" s="120">
-        <v>0</v>
-      </c>
-      <c r="O47" s="120">
+      <c r="K47" s="96">
+        <v>0</v>
+      </c>
+      <c r="L47" s="96">
+        <v>0</v>
+      </c>
+      <c r="M47" s="96">
+        <v>0</v>
+      </c>
+      <c r="N47" s="96">
+        <v>0</v>
+      </c>
+      <c r="O47" s="96">
         <v>0</v>
       </c>
       <c r="P47" s="51">
@@ -4902,8 +4935,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="96"/>
+    <row r="48" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="129"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
@@ -4927,19 +4960,19 @@
       <c r="J48" s="46">
         <v>0</v>
       </c>
-      <c r="K48" s="120">
-        <v>0</v>
-      </c>
-      <c r="L48" s="120">
-        <v>0</v>
-      </c>
-      <c r="M48" s="120">
-        <v>0</v>
-      </c>
-      <c r="N48" s="120">
-        <v>0</v>
-      </c>
-      <c r="O48" s="120">
+      <c r="K48" s="96">
+        <v>0</v>
+      </c>
+      <c r="L48" s="96">
+        <v>0</v>
+      </c>
+      <c r="M48" s="96">
+        <v>0</v>
+      </c>
+      <c r="N48" s="96">
+        <v>0</v>
+      </c>
+      <c r="O48" s="96">
         <v>0</v>
       </c>
       <c r="P48" s="88">
@@ -4967,8 +5000,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="96"/>
+    <row r="49" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="129"/>
       <c r="C49" s="16" t="s">
         <v>61</v>
       </c>
@@ -4992,22 +5025,22 @@
       <c r="J49" s="46">
         <v>0</v>
       </c>
-      <c r="K49" s="120">
-        <v>0</v>
-      </c>
-      <c r="L49" s="120">
-        <v>0</v>
-      </c>
-      <c r="M49" s="120">
-        <v>0</v>
-      </c>
-      <c r="N49" s="120">
-        <v>0</v>
-      </c>
-      <c r="O49" s="120">
-        <v>0</v>
-      </c>
-      <c r="P49" s="120">
+      <c r="K49" s="96">
+        <v>0</v>
+      </c>
+      <c r="L49" s="96">
+        <v>0</v>
+      </c>
+      <c r="M49" s="96">
+        <v>0</v>
+      </c>
+      <c r="N49" s="96">
+        <v>0</v>
+      </c>
+      <c r="O49" s="96">
+        <v>0</v>
+      </c>
+      <c r="P49" s="96">
         <v>0</v>
       </c>
       <c r="Q49" s="62">
@@ -5032,8 +5065,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="96"/>
+    <row r="50" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="129"/>
       <c r="C50" s="16" t="s">
         <v>72</v>
       </c>
@@ -5057,31 +5090,31 @@
       <c r="J50" s="46">
         <v>0</v>
       </c>
-      <c r="K50" s="120">
-        <v>0</v>
-      </c>
-      <c r="L50" s="120">
-        <v>0</v>
-      </c>
-      <c r="M50" s="120">
-        <v>0</v>
-      </c>
-      <c r="N50" s="120">
-        <v>0</v>
-      </c>
-      <c r="O50" s="120">
-        <v>0</v>
-      </c>
-      <c r="P50" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="120">
-        <v>0</v>
-      </c>
-      <c r="R50" s="120">
-        <v>0</v>
-      </c>
-      <c r="S50" s="120">
+      <c r="K50" s="96">
+        <v>0</v>
+      </c>
+      <c r="L50" s="96">
+        <v>0</v>
+      </c>
+      <c r="M50" s="96">
+        <v>0</v>
+      </c>
+      <c r="N50" s="96">
+        <v>0</v>
+      </c>
+      <c r="O50" s="96">
+        <v>0</v>
+      </c>
+      <c r="P50" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="96">
+        <v>0</v>
+      </c>
+      <c r="R50" s="96">
+        <v>0</v>
+      </c>
+      <c r="S50" s="96">
         <v>0</v>
       </c>
       <c r="T50" s="18"/>
@@ -5089,8 +5122,8 @@
       <c r="V50" s="18"/>
       <c r="W50" s="26"/>
     </row>
-    <row r="51" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="96"/>
+    <row r="51" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="129"/>
       <c r="C51" s="16" t="s">
         <v>73</v>
       </c>
@@ -5114,31 +5147,31 @@
       <c r="J51" s="46">
         <v>0</v>
       </c>
-      <c r="K51" s="120">
-        <v>0</v>
-      </c>
-      <c r="L51" s="120">
-        <v>0</v>
-      </c>
-      <c r="M51" s="120">
-        <v>0</v>
-      </c>
-      <c r="N51" s="120">
-        <v>0</v>
-      </c>
-      <c r="O51" s="120">
-        <v>0</v>
-      </c>
-      <c r="P51" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="120">
-        <v>0</v>
-      </c>
-      <c r="R51" s="120">
-        <v>0</v>
-      </c>
-      <c r="S51" s="120">
+      <c r="K51" s="96">
+        <v>0</v>
+      </c>
+      <c r="L51" s="96">
+        <v>0</v>
+      </c>
+      <c r="M51" s="96">
+        <v>0</v>
+      </c>
+      <c r="N51" s="96">
+        <v>0</v>
+      </c>
+      <c r="O51" s="96">
+        <v>0</v>
+      </c>
+      <c r="P51" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="96">
+        <v>0</v>
+      </c>
+      <c r="R51" s="96">
+        <v>0</v>
+      </c>
+      <c r="S51" s="96">
         <v>0</v>
       </c>
       <c r="T51" s="18"/>
@@ -5146,8 +5179,8 @@
       <c r="V51" s="18"/>
       <c r="W51" s="26"/>
     </row>
-    <row r="52" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="96"/>
+    <row r="52" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="129"/>
       <c r="C52" s="16" t="s">
         <v>74</v>
       </c>
@@ -5171,31 +5204,31 @@
       <c r="J52" s="46">
         <v>0</v>
       </c>
-      <c r="K52" s="120">
-        <v>0</v>
-      </c>
-      <c r="L52" s="120">
-        <v>0</v>
-      </c>
-      <c r="M52" s="120">
-        <v>0</v>
-      </c>
-      <c r="N52" s="120">
-        <v>0</v>
-      </c>
-      <c r="O52" s="120">
-        <v>0</v>
-      </c>
-      <c r="P52" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="120">
-        <v>0</v>
-      </c>
-      <c r="R52" s="120">
-        <v>0</v>
-      </c>
-      <c r="S52" s="120">
+      <c r="K52" s="96">
+        <v>0</v>
+      </c>
+      <c r="L52" s="96">
+        <v>0</v>
+      </c>
+      <c r="M52" s="96">
+        <v>0</v>
+      </c>
+      <c r="N52" s="96">
+        <v>0</v>
+      </c>
+      <c r="O52" s="96">
+        <v>0</v>
+      </c>
+      <c r="P52" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="96">
+        <v>0</v>
+      </c>
+      <c r="R52" s="96">
+        <v>0</v>
+      </c>
+      <c r="S52" s="96">
         <v>0</v>
       </c>
       <c r="T52" s="18"/>
@@ -5203,8 +5236,8 @@
       <c r="V52" s="18"/>
       <c r="W52" s="26"/>
     </row>
-    <row r="53" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="96"/>
+    <row r="53" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="129"/>
       <c r="C53" s="16" t="s">
         <v>75</v>
       </c>
@@ -5228,31 +5261,31 @@
       <c r="J53" s="46">
         <v>0</v>
       </c>
-      <c r="K53" s="120">
-        <v>0</v>
-      </c>
-      <c r="L53" s="120">
-        <v>0</v>
-      </c>
-      <c r="M53" s="120">
-        <v>0</v>
-      </c>
-      <c r="N53" s="120">
-        <v>0</v>
-      </c>
-      <c r="O53" s="120">
-        <v>0</v>
-      </c>
-      <c r="P53" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="120">
-        <v>0</v>
-      </c>
-      <c r="R53" s="120">
-        <v>0</v>
-      </c>
-      <c r="S53" s="120">
+      <c r="K53" s="96">
+        <v>0</v>
+      </c>
+      <c r="L53" s="96">
+        <v>0</v>
+      </c>
+      <c r="M53" s="96">
+        <v>0</v>
+      </c>
+      <c r="N53" s="96">
+        <v>0</v>
+      </c>
+      <c r="O53" s="96">
+        <v>0</v>
+      </c>
+      <c r="P53" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="96">
+        <v>0</v>
+      </c>
+      <c r="R53" s="96">
+        <v>0</v>
+      </c>
+      <c r="S53" s="96">
         <v>0</v>
       </c>
       <c r="T53" s="18"/>
@@ -5260,8 +5293,8 @@
       <c r="V53" s="18"/>
       <c r="W53" s="26"/>
     </row>
-    <row r="54" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="96"/>
+    <row r="54" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="129"/>
       <c r="C54" s="16" t="s">
         <v>76</v>
       </c>
@@ -5285,31 +5318,31 @@
       <c r="J54" s="46">
         <v>0</v>
       </c>
-      <c r="K54" s="120">
-        <v>0</v>
-      </c>
-      <c r="L54" s="120">
-        <v>0</v>
-      </c>
-      <c r="M54" s="120">
-        <v>0</v>
-      </c>
-      <c r="N54" s="120">
-        <v>0</v>
-      </c>
-      <c r="O54" s="120">
-        <v>0</v>
-      </c>
-      <c r="P54" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="120">
-        <v>0</v>
-      </c>
-      <c r="R54" s="120">
-        <v>0</v>
-      </c>
-      <c r="S54" s="120">
+      <c r="K54" s="96">
+        <v>0</v>
+      </c>
+      <c r="L54" s="96">
+        <v>0</v>
+      </c>
+      <c r="M54" s="96">
+        <v>0</v>
+      </c>
+      <c r="N54" s="96">
+        <v>0</v>
+      </c>
+      <c r="O54" s="96">
+        <v>0</v>
+      </c>
+      <c r="P54" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="96">
+        <v>0</v>
+      </c>
+      <c r="R54" s="96">
+        <v>0</v>
+      </c>
+      <c r="S54" s="96">
         <v>0</v>
       </c>
       <c r="T54" s="18"/>
@@ -5317,8 +5350,8 @@
       <c r="V54" s="18"/>
       <c r="W54" s="26"/>
     </row>
-    <row r="55" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="96"/>
+    <row r="55" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="129"/>
       <c r="C55" s="16" t="s">
         <v>77</v>
       </c>
@@ -5342,31 +5375,31 @@
       <c r="J55" s="46">
         <v>0</v>
       </c>
-      <c r="K55" s="120">
-        <v>0</v>
-      </c>
-      <c r="L55" s="120">
-        <v>0</v>
-      </c>
-      <c r="M55" s="120">
-        <v>0</v>
-      </c>
-      <c r="N55" s="120">
-        <v>0</v>
-      </c>
-      <c r="O55" s="120">
-        <v>0</v>
-      </c>
-      <c r="P55" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="120">
-        <v>0</v>
-      </c>
-      <c r="R55" s="120">
-        <v>0</v>
-      </c>
-      <c r="S55" s="120">
+      <c r="K55" s="96">
+        <v>0</v>
+      </c>
+      <c r="L55" s="96">
+        <v>0</v>
+      </c>
+      <c r="M55" s="96">
+        <v>0</v>
+      </c>
+      <c r="N55" s="96">
+        <v>0</v>
+      </c>
+      <c r="O55" s="96">
+        <v>0</v>
+      </c>
+      <c r="P55" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="96">
+        <v>0</v>
+      </c>
+      <c r="R55" s="96">
+        <v>0</v>
+      </c>
+      <c r="S55" s="96">
         <v>0</v>
       </c>
       <c r="T55" s="18"/>
@@ -5374,8 +5407,8 @@
       <c r="V55" s="18"/>
       <c r="W55" s="26"/>
     </row>
-    <row r="56" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="96"/>
+    <row r="56" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="129"/>
       <c r="C56" s="16" t="s">
         <v>78</v>
       </c>
@@ -5399,31 +5432,31 @@
       <c r="J56" s="46">
         <v>0</v>
       </c>
-      <c r="K56" s="120">
-        <v>0</v>
-      </c>
-      <c r="L56" s="120">
-        <v>0</v>
-      </c>
-      <c r="M56" s="120">
-        <v>0</v>
-      </c>
-      <c r="N56" s="120">
-        <v>0</v>
-      </c>
-      <c r="O56" s="120">
-        <v>0</v>
-      </c>
-      <c r="P56" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="120">
-        <v>0</v>
-      </c>
-      <c r="R56" s="120">
-        <v>0</v>
-      </c>
-      <c r="S56" s="120">
+      <c r="K56" s="96">
+        <v>0</v>
+      </c>
+      <c r="L56" s="96">
+        <v>0</v>
+      </c>
+      <c r="M56" s="96">
+        <v>0</v>
+      </c>
+      <c r="N56" s="96">
+        <v>0</v>
+      </c>
+      <c r="O56" s="96">
+        <v>0</v>
+      </c>
+      <c r="P56" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="96">
+        <v>0</v>
+      </c>
+      <c r="R56" s="96">
+        <v>0</v>
+      </c>
+      <c r="S56" s="96">
         <v>0</v>
       </c>
       <c r="T56" s="18"/>
@@ -5431,8 +5464,8 @@
       <c r="V56" s="18"/>
       <c r="W56" s="26"/>
     </row>
-    <row r="57" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="96"/>
+    <row r="57" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="129"/>
       <c r="C57" s="16" t="s">
         <v>79</v>
       </c>
@@ -5456,31 +5489,31 @@
       <c r="J57" s="46">
         <v>0</v>
       </c>
-      <c r="K57" s="120">
-        <v>0</v>
-      </c>
-      <c r="L57" s="120">
-        <v>0</v>
-      </c>
-      <c r="M57" s="120">
-        <v>0</v>
-      </c>
-      <c r="N57" s="120">
-        <v>0</v>
-      </c>
-      <c r="O57" s="120">
-        <v>0</v>
-      </c>
-      <c r="P57" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="120">
-        <v>0</v>
-      </c>
-      <c r="R57" s="120">
-        <v>0</v>
-      </c>
-      <c r="S57" s="120">
+      <c r="K57" s="96">
+        <v>0</v>
+      </c>
+      <c r="L57" s="96">
+        <v>0</v>
+      </c>
+      <c r="M57" s="96">
+        <v>0</v>
+      </c>
+      <c r="N57" s="96">
+        <v>0</v>
+      </c>
+      <c r="O57" s="96">
+        <v>0</v>
+      </c>
+      <c r="P57" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="96">
+        <v>0</v>
+      </c>
+      <c r="R57" s="96">
+        <v>0</v>
+      </c>
+      <c r="S57" s="96">
         <v>0</v>
       </c>
       <c r="T57" s="18"/>
@@ -5488,8 +5521,8 @@
       <c r="V57" s="18"/>
       <c r="W57" s="26"/>
     </row>
-    <row r="58" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="96"/>
+    <row r="58" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="129"/>
       <c r="C58" s="16" t="s">
         <v>80</v>
       </c>
@@ -5513,31 +5546,31 @@
       <c r="J58" s="46">
         <v>0</v>
       </c>
-      <c r="K58" s="120">
-        <v>0</v>
-      </c>
-      <c r="L58" s="120">
-        <v>0</v>
-      </c>
-      <c r="M58" s="120">
-        <v>0</v>
-      </c>
-      <c r="N58" s="120">
-        <v>0</v>
-      </c>
-      <c r="O58" s="120">
-        <v>0</v>
-      </c>
-      <c r="P58" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="120">
-        <v>0</v>
-      </c>
-      <c r="R58" s="120">
-        <v>0</v>
-      </c>
-      <c r="S58" s="120">
+      <c r="K58" s="96">
+        <v>0</v>
+      </c>
+      <c r="L58" s="96">
+        <v>0</v>
+      </c>
+      <c r="M58" s="96">
+        <v>0</v>
+      </c>
+      <c r="N58" s="96">
+        <v>0</v>
+      </c>
+      <c r="O58" s="96">
+        <v>0</v>
+      </c>
+      <c r="P58" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="96">
+        <v>0</v>
+      </c>
+      <c r="R58" s="96">
+        <v>0</v>
+      </c>
+      <c r="S58" s="96">
         <v>0</v>
       </c>
       <c r="T58" s="18"/>
@@ -5545,8 +5578,8 @@
       <c r="V58" s="18"/>
       <c r="W58" s="26"/>
     </row>
-    <row r="59" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="96"/>
+    <row r="59" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="129"/>
       <c r="C59" s="16" t="s">
         <v>81</v>
       </c>
@@ -5570,31 +5603,31 @@
       <c r="J59" s="46">
         <v>0</v>
       </c>
-      <c r="K59" s="120">
-        <v>0</v>
-      </c>
-      <c r="L59" s="120">
-        <v>0</v>
-      </c>
-      <c r="M59" s="120">
-        <v>0</v>
-      </c>
-      <c r="N59" s="120">
-        <v>0</v>
-      </c>
-      <c r="O59" s="120">
-        <v>0</v>
-      </c>
-      <c r="P59" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="120">
-        <v>0</v>
-      </c>
-      <c r="R59" s="120">
-        <v>0</v>
-      </c>
-      <c r="S59" s="120">
+      <c r="K59" s="96">
+        <v>0</v>
+      </c>
+      <c r="L59" s="96">
+        <v>0</v>
+      </c>
+      <c r="M59" s="96">
+        <v>0</v>
+      </c>
+      <c r="N59" s="96">
+        <v>0</v>
+      </c>
+      <c r="O59" s="96">
+        <v>0</v>
+      </c>
+      <c r="P59" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="96">
+        <v>0</v>
+      </c>
+      <c r="R59" s="96">
+        <v>0</v>
+      </c>
+      <c r="S59" s="96">
         <v>0</v>
       </c>
       <c r="T59" s="18"/>
@@ -5602,8 +5635,8 @@
       <c r="V59" s="18"/>
       <c r="W59" s="26"/>
     </row>
-    <row r="60" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="96"/>
+    <row r="60" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="129"/>
       <c r="C60" s="16" t="s">
         <v>82</v>
       </c>
@@ -5627,31 +5660,31 @@
       <c r="J60" s="46">
         <v>0</v>
       </c>
-      <c r="K60" s="120">
-        <v>0</v>
-      </c>
-      <c r="L60" s="120">
-        <v>0</v>
-      </c>
-      <c r="M60" s="120">
-        <v>0</v>
-      </c>
-      <c r="N60" s="120">
-        <v>0</v>
-      </c>
-      <c r="O60" s="120">
-        <v>0</v>
-      </c>
-      <c r="P60" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="120">
-        <v>0</v>
-      </c>
-      <c r="R60" s="120">
-        <v>0</v>
-      </c>
-      <c r="S60" s="120">
+      <c r="K60" s="96">
+        <v>0</v>
+      </c>
+      <c r="L60" s="96">
+        <v>0</v>
+      </c>
+      <c r="M60" s="96">
+        <v>0</v>
+      </c>
+      <c r="N60" s="96">
+        <v>0</v>
+      </c>
+      <c r="O60" s="96">
+        <v>0</v>
+      </c>
+      <c r="P60" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="96">
+        <v>0</v>
+      </c>
+      <c r="R60" s="96">
+        <v>0</v>
+      </c>
+      <c r="S60" s="96">
         <v>0</v>
       </c>
       <c r="T60" s="18"/>
@@ -5659,8 +5692,8 @@
       <c r="V60" s="18"/>
       <c r="W60" s="26"/>
     </row>
-    <row r="61" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="96"/>
+    <row r="61" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="129"/>
       <c r="C61" s="16" t="s">
         <v>83</v>
       </c>
@@ -5684,31 +5717,31 @@
       <c r="J61" s="46">
         <v>0</v>
       </c>
-      <c r="K61" s="120">
-        <v>0</v>
-      </c>
-      <c r="L61" s="120">
-        <v>0</v>
-      </c>
-      <c r="M61" s="120">
-        <v>0</v>
-      </c>
-      <c r="N61" s="120">
-        <v>0</v>
-      </c>
-      <c r="O61" s="120">
-        <v>0</v>
-      </c>
-      <c r="P61" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="120">
-        <v>0</v>
-      </c>
-      <c r="R61" s="120">
-        <v>0</v>
-      </c>
-      <c r="S61" s="120">
+      <c r="K61" s="96">
+        <v>0</v>
+      </c>
+      <c r="L61" s="96">
+        <v>0</v>
+      </c>
+      <c r="M61" s="96">
+        <v>0</v>
+      </c>
+      <c r="N61" s="96">
+        <v>0</v>
+      </c>
+      <c r="O61" s="96">
+        <v>0</v>
+      </c>
+      <c r="P61" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="96">
+        <v>0</v>
+      </c>
+      <c r="R61" s="96">
+        <v>0</v>
+      </c>
+      <c r="S61" s="96">
         <v>0</v>
       </c>
       <c r="T61" s="18"/>
@@ -5716,8 +5749,8 @@
       <c r="V61" s="18"/>
       <c r="W61" s="26"/>
     </row>
-    <row r="62" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="96"/>
+    <row r="62" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="129"/>
       <c r="C62" s="16" t="s">
         <v>84</v>
       </c>
@@ -5741,31 +5774,31 @@
       <c r="J62" s="46">
         <v>0</v>
       </c>
-      <c r="K62" s="120">
-        <v>0</v>
-      </c>
-      <c r="L62" s="120">
-        <v>0</v>
-      </c>
-      <c r="M62" s="120">
-        <v>0</v>
-      </c>
-      <c r="N62" s="120">
-        <v>0</v>
-      </c>
-      <c r="O62" s="120">
-        <v>0</v>
-      </c>
-      <c r="P62" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="120">
-        <v>0</v>
-      </c>
-      <c r="R62" s="120">
-        <v>0</v>
-      </c>
-      <c r="S62" s="120">
+      <c r="K62" s="96">
+        <v>0</v>
+      </c>
+      <c r="L62" s="96">
+        <v>0</v>
+      </c>
+      <c r="M62" s="96">
+        <v>0</v>
+      </c>
+      <c r="N62" s="96">
+        <v>0</v>
+      </c>
+      <c r="O62" s="96">
+        <v>0</v>
+      </c>
+      <c r="P62" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="96">
+        <v>0</v>
+      </c>
+      <c r="R62" s="96">
+        <v>0</v>
+      </c>
+      <c r="S62" s="96">
         <v>0</v>
       </c>
       <c r="T62" s="18"/>
@@ -5773,8 +5806,8 @@
       <c r="V62" s="18"/>
       <c r="W62" s="26"/>
     </row>
-    <row r="63" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="97"/>
+    <row r="63" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="130"/>
       <c r="C63" s="34" t="s">
         <v>85</v>
       </c>
@@ -5795,34 +5828,34 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J63" s="119">
-        <v>0</v>
-      </c>
-      <c r="K63" s="124">
-        <v>0</v>
-      </c>
-      <c r="L63" s="124">
-        <v>0</v>
-      </c>
-      <c r="M63" s="124">
-        <v>0</v>
-      </c>
-      <c r="N63" s="124">
-        <v>0</v>
-      </c>
-      <c r="O63" s="124">
-        <v>0</v>
-      </c>
-      <c r="P63" s="124">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="124">
-        <v>0</v>
-      </c>
-      <c r="R63" s="124">
-        <v>0</v>
-      </c>
-      <c r="S63" s="124">
+      <c r="J63" s="95">
+        <v>0</v>
+      </c>
+      <c r="K63" s="100">
+        <v>0</v>
+      </c>
+      <c r="L63" s="100">
+        <v>0</v>
+      </c>
+      <c r="M63" s="100">
+        <v>0</v>
+      </c>
+      <c r="N63" s="100">
+        <v>0</v>
+      </c>
+      <c r="O63" s="100">
+        <v>0</v>
+      </c>
+      <c r="P63" s="100">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="100">
+        <v>0</v>
+      </c>
+      <c r="R63" s="100">
+        <v>0</v>
+      </c>
+      <c r="S63" s="100">
         <v>0</v>
       </c>
       <c r="T63" s="21"/>
@@ -5830,8 +5863,8 @@
       <c r="V63" s="21"/>
       <c r="W63" s="28"/>
     </row>
-    <row r="64" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="98" t="s">
+    <row r="64" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="131" t="s">
         <v>62</v>
       </c>
       <c r="C64" s="30" t="s">
@@ -5857,48 +5890,48 @@
       <c r="J64" s="55">
         <v>0</v>
       </c>
-      <c r="K64" s="121">
-        <v>0</v>
-      </c>
-      <c r="L64" s="121">
-        <v>0</v>
-      </c>
-      <c r="M64" s="121">
-        <v>0</v>
-      </c>
-      <c r="N64" s="121">
-        <v>0</v>
-      </c>
-      <c r="O64" s="121">
-        <v>0</v>
-      </c>
-      <c r="P64" s="125">
+      <c r="K64" s="97">
+        <v>0</v>
+      </c>
+      <c r="L64" s="97">
+        <v>0</v>
+      </c>
+      <c r="M64" s="97">
+        <v>0</v>
+      </c>
+      <c r="N64" s="97">
+        <v>0</v>
+      </c>
+      <c r="O64" s="97">
+        <v>0</v>
+      </c>
+      <c r="P64" s="101">
         <v>1.83</v>
       </c>
-      <c r="Q64" s="125">
-        <v>0</v>
-      </c>
-      <c r="R64" s="125">
-        <v>0</v>
-      </c>
-      <c r="S64" s="125">
-        <v>0</v>
-      </c>
-      <c r="T64" s="125">
-        <v>0</v>
-      </c>
-      <c r="U64" s="125">
-        <v>0</v>
-      </c>
-      <c r="V64" s="125">
-        <v>0</v>
-      </c>
-      <c r="W64" s="126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="96"/>
+      <c r="Q64" s="101">
+        <v>0</v>
+      </c>
+      <c r="R64" s="101">
+        <v>0</v>
+      </c>
+      <c r="S64" s="101">
+        <v>0</v>
+      </c>
+      <c r="T64" s="101">
+        <v>0</v>
+      </c>
+      <c r="U64" s="101">
+        <v>0</v>
+      </c>
+      <c r="V64" s="101">
+        <v>0</v>
+      </c>
+      <c r="W64" s="102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="129"/>
       <c r="C65" s="16" t="s">
         <v>64</v>
       </c>
@@ -5922,25 +5955,25 @@
       <c r="J65" s="46">
         <v>0</v>
       </c>
-      <c r="K65" s="120">
-        <v>0</v>
-      </c>
-      <c r="L65" s="120">
-        <v>0</v>
-      </c>
-      <c r="M65" s="120">
-        <v>0</v>
-      </c>
-      <c r="N65" s="120">
-        <v>0</v>
-      </c>
-      <c r="O65" s="120">
-        <v>0</v>
-      </c>
-      <c r="P65" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="120">
+      <c r="K65" s="96">
+        <v>0</v>
+      </c>
+      <c r="L65" s="96">
+        <v>0</v>
+      </c>
+      <c r="M65" s="96">
+        <v>0</v>
+      </c>
+      <c r="N65" s="96">
+        <v>0</v>
+      </c>
+      <c r="O65" s="96">
+        <v>0</v>
+      </c>
+      <c r="P65" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="96">
         <v>0</v>
       </c>
       <c r="R65" s="91">
@@ -5962,8 +5995,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="96"/>
+    <row r="66" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="129"/>
       <c r="C66" s="16" t="s">
         <v>65</v>
       </c>
@@ -5987,25 +6020,25 @@
       <c r="J66" s="46">
         <v>0</v>
       </c>
-      <c r="K66" s="120">
-        <v>0</v>
-      </c>
-      <c r="L66" s="120">
-        <v>0</v>
-      </c>
-      <c r="M66" s="120">
-        <v>0</v>
-      </c>
-      <c r="N66" s="120">
-        <v>0</v>
-      </c>
-      <c r="O66" s="120">
-        <v>0</v>
-      </c>
-      <c r="P66" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="120">
+      <c r="K66" s="96">
+        <v>0</v>
+      </c>
+      <c r="L66" s="96">
+        <v>0</v>
+      </c>
+      <c r="M66" s="96">
+        <v>0</v>
+      </c>
+      <c r="N66" s="96">
+        <v>0</v>
+      </c>
+      <c r="O66" s="96">
+        <v>0</v>
+      </c>
+      <c r="P66" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="96">
         <v>0</v>
       </c>
       <c r="R66" s="88">
@@ -6027,8 +6060,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="96"/>
+    <row r="67" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="129"/>
       <c r="C67" s="16" t="s">
         <v>66</v>
       </c>
@@ -6052,25 +6085,25 @@
       <c r="J67" s="46">
         <v>0</v>
       </c>
-      <c r="K67" s="120">
-        <v>0</v>
-      </c>
-      <c r="L67" s="120">
-        <v>0</v>
-      </c>
-      <c r="M67" s="120">
-        <v>0</v>
-      </c>
-      <c r="N67" s="120">
-        <v>0</v>
-      </c>
-      <c r="O67" s="120">
-        <v>0</v>
-      </c>
-      <c r="P67" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="120">
+      <c r="K67" s="96">
+        <v>0</v>
+      </c>
+      <c r="L67" s="96">
+        <v>0</v>
+      </c>
+      <c r="M67" s="96">
+        <v>0</v>
+      </c>
+      <c r="N67" s="96">
+        <v>0</v>
+      </c>
+      <c r="O67" s="96">
+        <v>0</v>
+      </c>
+      <c r="P67" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="96">
         <v>0</v>
       </c>
       <c r="R67" s="88">
@@ -6092,8 +6125,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="96"/>
+    <row r="68" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="129"/>
       <c r="C68" s="16" t="s">
         <v>67</v>
       </c>
@@ -6117,25 +6150,25 @@
       <c r="J68" s="46">
         <v>0</v>
       </c>
-      <c r="K68" s="120">
-        <v>0</v>
-      </c>
-      <c r="L68" s="120">
-        <v>0</v>
-      </c>
-      <c r="M68" s="120">
-        <v>0</v>
-      </c>
-      <c r="N68" s="120">
-        <v>0</v>
-      </c>
-      <c r="O68" s="120">
-        <v>0</v>
-      </c>
-      <c r="P68" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="120">
+      <c r="K68" s="96">
+        <v>0</v>
+      </c>
+      <c r="L68" s="96">
+        <v>0</v>
+      </c>
+      <c r="M68" s="96">
+        <v>0</v>
+      </c>
+      <c r="N68" s="96">
+        <v>0</v>
+      </c>
+      <c r="O68" s="96">
+        <v>0</v>
+      </c>
+      <c r="P68" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="96">
         <v>0</v>
       </c>
       <c r="R68" s="88">
@@ -6157,8 +6190,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="96"/>
+    <row r="69" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="129"/>
       <c r="C69" s="16" t="s">
         <v>68</v>
       </c>
@@ -6182,25 +6215,25 @@
       <c r="J69" s="46">
         <v>0</v>
       </c>
-      <c r="K69" s="120">
-        <v>0</v>
-      </c>
-      <c r="L69" s="120">
-        <v>0</v>
-      </c>
-      <c r="M69" s="120">
-        <v>0</v>
-      </c>
-      <c r="N69" s="120">
-        <v>0</v>
-      </c>
-      <c r="O69" s="120">
-        <v>0</v>
-      </c>
-      <c r="P69" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="120">
+      <c r="K69" s="96">
+        <v>0</v>
+      </c>
+      <c r="L69" s="96">
+        <v>0</v>
+      </c>
+      <c r="M69" s="96">
+        <v>0</v>
+      </c>
+      <c r="N69" s="96">
+        <v>0</v>
+      </c>
+      <c r="O69" s="96">
+        <v>0</v>
+      </c>
+      <c r="P69" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="96">
         <v>0</v>
       </c>
       <c r="R69" s="88">
@@ -6222,8 +6255,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="96"/>
+    <row r="70" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="129"/>
       <c r="C70" s="16" t="s">
         <v>69</v>
       </c>
@@ -6247,25 +6280,25 @@
       <c r="J70" s="46">
         <v>0</v>
       </c>
-      <c r="K70" s="120">
-        <v>0</v>
-      </c>
-      <c r="L70" s="120">
-        <v>0</v>
-      </c>
-      <c r="M70" s="120">
-        <v>0</v>
-      </c>
-      <c r="N70" s="120">
-        <v>0</v>
-      </c>
-      <c r="O70" s="120">
-        <v>0</v>
-      </c>
-      <c r="P70" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="120">
+      <c r="K70" s="96">
+        <v>0</v>
+      </c>
+      <c r="L70" s="96">
+        <v>0</v>
+      </c>
+      <c r="M70" s="96">
+        <v>0</v>
+      </c>
+      <c r="N70" s="96">
+        <v>0</v>
+      </c>
+      <c r="O70" s="96">
+        <v>0</v>
+      </c>
+      <c r="P70" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="96">
         <v>0</v>
       </c>
       <c r="R70" s="88">
@@ -6287,8 +6320,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="96"/>
+    <row r="71" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="129"/>
       <c r="C71" s="16" t="s">
         <v>70</v>
       </c>
@@ -6312,25 +6345,25 @@
       <c r="J71" s="46">
         <v>0</v>
       </c>
-      <c r="K71" s="120">
-        <v>0</v>
-      </c>
-      <c r="L71" s="120">
-        <v>0</v>
-      </c>
-      <c r="M71" s="120">
-        <v>0</v>
-      </c>
-      <c r="N71" s="120">
-        <v>0</v>
-      </c>
-      <c r="O71" s="120">
-        <v>0</v>
-      </c>
-      <c r="P71" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="120">
+      <c r="K71" s="96">
+        <v>0</v>
+      </c>
+      <c r="L71" s="96">
+        <v>0</v>
+      </c>
+      <c r="M71" s="96">
+        <v>0</v>
+      </c>
+      <c r="N71" s="96">
+        <v>0</v>
+      </c>
+      <c r="O71" s="96">
+        <v>0</v>
+      </c>
+      <c r="P71" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="96">
         <v>0</v>
       </c>
       <c r="R71" s="88">
@@ -6352,8 +6385,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="96"/>
+    <row r="72" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="129"/>
       <c r="C72" s="34" t="s">
         <v>71</v>
       </c>
@@ -6374,34 +6407,34 @@
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="J72" s="119">
-        <v>0</v>
-      </c>
-      <c r="K72" s="124">
-        <v>0</v>
-      </c>
-      <c r="L72" s="124">
-        <v>0</v>
-      </c>
-      <c r="M72" s="124">
-        <v>0</v>
-      </c>
-      <c r="N72" s="124">
-        <v>0</v>
-      </c>
-      <c r="O72" s="124">
-        <v>0</v>
-      </c>
-      <c r="P72" s="124">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="124">
-        <v>0</v>
-      </c>
-      <c r="R72" s="129">
-        <v>0</v>
-      </c>
-      <c r="S72" s="130">
+      <c r="J72" s="95">
+        <v>0</v>
+      </c>
+      <c r="K72" s="100">
+        <v>0</v>
+      </c>
+      <c r="L72" s="100">
+        <v>0</v>
+      </c>
+      <c r="M72" s="100">
+        <v>0</v>
+      </c>
+      <c r="N72" s="100">
+        <v>0</v>
+      </c>
+      <c r="O72" s="100">
+        <v>0</v>
+      </c>
+      <c r="P72" s="100">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="100">
+        <v>0</v>
+      </c>
+      <c r="R72" s="105">
+        <v>0</v>
+      </c>
+      <c r="S72" s="106">
         <v>0.1</v>
       </c>
       <c r="T72" s="64">
@@ -6417,8 +6450,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="109" t="s">
+    <row r="73" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="118" t="s">
         <v>86</v>
       </c>
       <c r="C73" s="6" t="s">
@@ -6444,48 +6477,48 @@
       <c r="J73" s="55">
         <v>0</v>
       </c>
-      <c r="K73" s="121">
-        <v>0</v>
-      </c>
-      <c r="L73" s="121">
-        <v>0</v>
-      </c>
-      <c r="M73" s="121">
-        <v>0</v>
-      </c>
-      <c r="N73" s="121">
-        <v>0</v>
-      </c>
-      <c r="O73" s="121">
-        <v>0</v>
-      </c>
-      <c r="P73" s="125">
+      <c r="K73" s="97">
+        <v>0</v>
+      </c>
+      <c r="L73" s="97">
+        <v>0</v>
+      </c>
+      <c r="M73" s="97">
+        <v>0</v>
+      </c>
+      <c r="N73" s="97">
+        <v>0</v>
+      </c>
+      <c r="O73" s="97">
+        <v>0</v>
+      </c>
+      <c r="P73" s="101">
         <v>0.05</v>
       </c>
-      <c r="Q73" s="125">
-        <v>0</v>
-      </c>
-      <c r="R73" s="125">
-        <v>0</v>
-      </c>
-      <c r="S73" s="125">
-        <v>0</v>
-      </c>
-      <c r="T73" s="125">
-        <v>0</v>
-      </c>
-      <c r="U73" s="125">
-        <v>0</v>
-      </c>
-      <c r="V73" s="125">
-        <v>0</v>
-      </c>
-      <c r="W73" s="126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="110"/>
+      <c r="Q73" s="101">
+        <v>0</v>
+      </c>
+      <c r="R73" s="101">
+        <v>0</v>
+      </c>
+      <c r="S73" s="101">
+        <v>0</v>
+      </c>
+      <c r="T73" s="101">
+        <v>0</v>
+      </c>
+      <c r="U73" s="101">
+        <v>0</v>
+      </c>
+      <c r="V73" s="101">
+        <v>0</v>
+      </c>
+      <c r="W73" s="102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="119"/>
       <c r="C74" s="4" t="s">
         <v>26</v>
       </c>
@@ -6509,19 +6542,19 @@
       <c r="J74" s="46">
         <v>0</v>
       </c>
-      <c r="K74" s="120">
-        <v>0</v>
-      </c>
-      <c r="L74" s="120">
-        <v>0</v>
-      </c>
-      <c r="M74" s="120">
-        <v>0</v>
-      </c>
-      <c r="N74" s="120">
-        <v>0</v>
-      </c>
-      <c r="O74" s="120">
+      <c r="K74" s="96">
+        <v>0</v>
+      </c>
+      <c r="L74" s="96">
+        <v>0</v>
+      </c>
+      <c r="M74" s="96">
+        <v>0</v>
+      </c>
+      <c r="N74" s="96">
+        <v>0</v>
+      </c>
+      <c r="O74" s="96">
         <v>0</v>
       </c>
       <c r="P74" s="62">
@@ -6549,8 +6582,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="110"/>
+    <row r="75" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="119"/>
       <c r="C75" s="4" t="s">
         <v>28</v>
       </c>
@@ -6574,19 +6607,19 @@
       <c r="J75" s="46">
         <v>0</v>
       </c>
-      <c r="K75" s="120">
-        <v>0</v>
-      </c>
-      <c r="L75" s="120">
-        <v>0</v>
-      </c>
-      <c r="M75" s="120">
-        <v>0</v>
-      </c>
-      <c r="N75" s="120">
-        <v>0</v>
-      </c>
-      <c r="O75" s="120">
+      <c r="K75" s="96">
+        <v>0</v>
+      </c>
+      <c r="L75" s="96">
+        <v>0</v>
+      </c>
+      <c r="M75" s="96">
+        <v>0</v>
+      </c>
+      <c r="N75" s="96">
+        <v>0</v>
+      </c>
+      <c r="O75" s="96">
         <v>0</v>
       </c>
       <c r="P75" s="62">
@@ -6614,8 +6647,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="110"/>
+    <row r="76" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="119"/>
       <c r="C76" s="4" t="s">
         <v>29</v>
       </c>
@@ -6639,19 +6672,19 @@
       <c r="J76" s="46">
         <v>0</v>
       </c>
-      <c r="K76" s="120">
-        <v>0</v>
-      </c>
-      <c r="L76" s="120">
-        <v>0</v>
-      </c>
-      <c r="M76" s="120">
-        <v>0</v>
-      </c>
-      <c r="N76" s="120">
-        <v>0</v>
-      </c>
-      <c r="O76" s="120">
+      <c r="K76" s="96">
+        <v>0</v>
+      </c>
+      <c r="L76" s="96">
+        <v>0</v>
+      </c>
+      <c r="M76" s="96">
+        <v>0</v>
+      </c>
+      <c r="N76" s="96">
+        <v>0</v>
+      </c>
+      <c r="O76" s="96">
         <v>0</v>
       </c>
       <c r="P76" s="62">
@@ -6679,8 +6712,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="110"/>
+    <row r="77" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="119"/>
       <c r="C77" s="4" t="s">
         <v>30</v>
       </c>
@@ -6704,19 +6737,19 @@
       <c r="J77" s="46">
         <v>0</v>
       </c>
-      <c r="K77" s="120">
-        <v>0</v>
-      </c>
-      <c r="L77" s="120">
-        <v>0</v>
-      </c>
-      <c r="M77" s="120">
-        <v>0</v>
-      </c>
-      <c r="N77" s="120">
-        <v>0</v>
-      </c>
-      <c r="O77" s="120">
+      <c r="K77" s="96">
+        <v>0</v>
+      </c>
+      <c r="L77" s="96">
+        <v>0</v>
+      </c>
+      <c r="M77" s="96">
+        <v>0</v>
+      </c>
+      <c r="N77" s="96">
+        <v>0</v>
+      </c>
+      <c r="O77" s="96">
         <v>0</v>
       </c>
       <c r="P77" s="62">
@@ -6744,8 +6777,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="110"/>
+    <row r="78" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="119"/>
       <c r="C78" s="4" t="s">
         <v>31</v>
       </c>
@@ -6769,19 +6802,19 @@
       <c r="J78" s="46">
         <v>0</v>
       </c>
-      <c r="K78" s="120">
-        <v>0</v>
-      </c>
-      <c r="L78" s="120">
-        <v>0</v>
-      </c>
-      <c r="M78" s="120">
-        <v>0</v>
-      </c>
-      <c r="N78" s="120">
-        <v>0</v>
-      </c>
-      <c r="O78" s="120">
+      <c r="K78" s="96">
+        <v>0</v>
+      </c>
+      <c r="L78" s="96">
+        <v>0</v>
+      </c>
+      <c r="M78" s="96">
+        <v>0</v>
+      </c>
+      <c r="N78" s="96">
+        <v>0</v>
+      </c>
+      <c r="O78" s="96">
         <v>0</v>
       </c>
       <c r="P78" s="62">
@@ -6809,8 +6842,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="110"/>
+    <row r="79" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="119"/>
       <c r="C79" s="4" t="s">
         <v>32</v>
       </c>
@@ -6834,19 +6867,19 @@
       <c r="J79" s="46">
         <v>0</v>
       </c>
-      <c r="K79" s="120">
-        <v>0</v>
-      </c>
-      <c r="L79" s="120">
-        <v>0</v>
-      </c>
-      <c r="M79" s="120">
-        <v>0</v>
-      </c>
-      <c r="N79" s="120">
-        <v>0</v>
-      </c>
-      <c r="O79" s="120">
+      <c r="K79" s="96">
+        <v>0</v>
+      </c>
+      <c r="L79" s="96">
+        <v>0</v>
+      </c>
+      <c r="M79" s="96">
+        <v>0</v>
+      </c>
+      <c r="N79" s="96">
+        <v>0</v>
+      </c>
+      <c r="O79" s="96">
         <v>0</v>
       </c>
       <c r="P79" s="62">
@@ -6874,8 +6907,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="110"/>
+    <row r="80" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="119"/>
       <c r="C80" s="4" t="s">
         <v>33</v>
       </c>
@@ -6899,19 +6932,19 @@
       <c r="J80" s="46">
         <v>0</v>
       </c>
-      <c r="K80" s="120">
-        <v>0</v>
-      </c>
-      <c r="L80" s="120">
-        <v>0</v>
-      </c>
-      <c r="M80" s="120">
-        <v>0</v>
-      </c>
-      <c r="N80" s="120">
-        <v>0</v>
-      </c>
-      <c r="O80" s="120">
+      <c r="K80" s="96">
+        <v>0</v>
+      </c>
+      <c r="L80" s="96">
+        <v>0</v>
+      </c>
+      <c r="M80" s="96">
+        <v>0</v>
+      </c>
+      <c r="N80" s="96">
+        <v>0</v>
+      </c>
+      <c r="O80" s="96">
         <v>0</v>
       </c>
       <c r="P80" s="62">
@@ -6939,8 +6972,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="110"/>
+    <row r="81" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="119"/>
       <c r="C81" s="4" t="s">
         <v>34</v>
       </c>
@@ -6964,19 +6997,19 @@
       <c r="J81" s="46">
         <v>0</v>
       </c>
-      <c r="K81" s="120">
-        <v>0</v>
-      </c>
-      <c r="L81" s="120">
-        <v>0</v>
-      </c>
-      <c r="M81" s="120">
-        <v>0</v>
-      </c>
-      <c r="N81" s="120">
-        <v>0</v>
-      </c>
-      <c r="O81" s="120">
+      <c r="K81" s="96">
+        <v>0</v>
+      </c>
+      <c r="L81" s="96">
+        <v>0</v>
+      </c>
+      <c r="M81" s="96">
+        <v>0</v>
+      </c>
+      <c r="N81" s="96">
+        <v>0</v>
+      </c>
+      <c r="O81" s="96">
         <v>0</v>
       </c>
       <c r="P81" s="62">
@@ -7004,8 +7037,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="110"/>
+    <row r="82" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="119"/>
       <c r="C82" s="4" t="s">
         <v>35</v>
       </c>
@@ -7029,19 +7062,19 @@
       <c r="J82" s="46">
         <v>0</v>
       </c>
-      <c r="K82" s="120">
-        <v>0</v>
-      </c>
-      <c r="L82" s="120">
-        <v>0</v>
-      </c>
-      <c r="M82" s="120">
-        <v>0</v>
-      </c>
-      <c r="N82" s="120">
-        <v>0</v>
-      </c>
-      <c r="O82" s="120">
+      <c r="K82" s="96">
+        <v>0</v>
+      </c>
+      <c r="L82" s="96">
+        <v>0</v>
+      </c>
+      <c r="M82" s="96">
+        <v>0</v>
+      </c>
+      <c r="N82" s="96">
+        <v>0</v>
+      </c>
+      <c r="O82" s="96">
         <v>0</v>
       </c>
       <c r="P82" s="62">
@@ -7069,8 +7102,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="110"/>
+    <row r="83" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="119"/>
       <c r="C83" s="4" t="s">
         <v>36</v>
       </c>
@@ -7094,19 +7127,19 @@
       <c r="J83" s="46">
         <v>0</v>
       </c>
-      <c r="K83" s="120">
-        <v>0</v>
-      </c>
-      <c r="L83" s="120">
-        <v>0</v>
-      </c>
-      <c r="M83" s="120">
-        <v>0</v>
-      </c>
-      <c r="N83" s="120">
-        <v>0</v>
-      </c>
-      <c r="O83" s="120">
+      <c r="K83" s="96">
+        <v>0</v>
+      </c>
+      <c r="L83" s="96">
+        <v>0</v>
+      </c>
+      <c r="M83" s="96">
+        <v>0</v>
+      </c>
+      <c r="N83" s="96">
+        <v>0</v>
+      </c>
+      <c r="O83" s="96">
         <v>0</v>
       </c>
       <c r="P83" s="62">
@@ -7134,8 +7167,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="110"/>
+    <row r="84" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="119"/>
       <c r="C84" s="4" t="s">
         <v>37</v>
       </c>
@@ -7159,19 +7192,19 @@
       <c r="J84" s="46">
         <v>0</v>
       </c>
-      <c r="K84" s="120">
-        <v>0</v>
-      </c>
-      <c r="L84" s="120">
-        <v>0</v>
-      </c>
-      <c r="M84" s="120">
-        <v>0</v>
-      </c>
-      <c r="N84" s="120">
-        <v>0</v>
-      </c>
-      <c r="O84" s="120">
+      <c r="K84" s="96">
+        <v>0</v>
+      </c>
+      <c r="L84" s="96">
+        <v>0</v>
+      </c>
+      <c r="M84" s="96">
+        <v>0</v>
+      </c>
+      <c r="N84" s="96">
+        <v>0</v>
+      </c>
+      <c r="O84" s="96">
         <v>0</v>
       </c>
       <c r="P84" s="62">
@@ -7199,8 +7232,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="110"/>
+    <row r="85" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="119"/>
       <c r="C85" s="4" t="s">
         <v>38</v>
       </c>
@@ -7224,19 +7257,19 @@
       <c r="J85" s="46">
         <v>0</v>
       </c>
-      <c r="K85" s="120">
-        <v>0</v>
-      </c>
-      <c r="L85" s="120">
-        <v>0</v>
-      </c>
-      <c r="M85" s="120">
-        <v>0</v>
-      </c>
-      <c r="N85" s="120">
-        <v>0</v>
-      </c>
-      <c r="O85" s="120">
+      <c r="K85" s="96">
+        <v>0</v>
+      </c>
+      <c r="L85" s="96">
+        <v>0</v>
+      </c>
+      <c r="M85" s="96">
+        <v>0</v>
+      </c>
+      <c r="N85" s="96">
+        <v>0</v>
+      </c>
+      <c r="O85" s="96">
         <v>0</v>
       </c>
       <c r="P85" s="62">
@@ -7264,8 +7297,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="110"/>
+    <row r="86" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="119"/>
       <c r="C86" s="4" t="s">
         <v>39</v>
       </c>
@@ -7289,19 +7322,19 @@
       <c r="J86" s="46">
         <v>0</v>
       </c>
-      <c r="K86" s="120">
-        <v>0</v>
-      </c>
-      <c r="L86" s="120">
-        <v>0</v>
-      </c>
-      <c r="M86" s="120">
-        <v>0</v>
-      </c>
-      <c r="N86" s="120">
-        <v>0</v>
-      </c>
-      <c r="O86" s="120">
+      <c r="K86" s="96">
+        <v>0</v>
+      </c>
+      <c r="L86" s="96">
+        <v>0</v>
+      </c>
+      <c r="M86" s="96">
+        <v>0</v>
+      </c>
+      <c r="N86" s="96">
+        <v>0</v>
+      </c>
+      <c r="O86" s="96">
         <v>0</v>
       </c>
       <c r="P86" s="62">
@@ -7329,8 +7362,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="110"/>
+    <row r="87" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="119"/>
       <c r="C87" s="4" t="s">
         <v>40</v>
       </c>
@@ -7354,19 +7387,19 @@
       <c r="J87" s="46">
         <v>0</v>
       </c>
-      <c r="K87" s="120">
-        <v>0</v>
-      </c>
-      <c r="L87" s="120">
-        <v>0</v>
-      </c>
-      <c r="M87" s="120">
-        <v>0</v>
-      </c>
-      <c r="N87" s="120">
-        <v>0</v>
-      </c>
-      <c r="O87" s="120">
+      <c r="K87" s="96">
+        <v>0</v>
+      </c>
+      <c r="L87" s="96">
+        <v>0</v>
+      </c>
+      <c r="M87" s="96">
+        <v>0</v>
+      </c>
+      <c r="N87" s="96">
+        <v>0</v>
+      </c>
+      <c r="O87" s="96">
         <v>0</v>
       </c>
       <c r="P87" s="62">
@@ -7394,8 +7427,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="110"/>
+    <row r="88" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="119"/>
       <c r="C88" s="4" t="s">
         <v>41</v>
       </c>
@@ -7419,19 +7452,19 @@
       <c r="J88" s="46">
         <v>0</v>
       </c>
-      <c r="K88" s="120">
-        <v>0</v>
-      </c>
-      <c r="L88" s="120">
-        <v>0</v>
-      </c>
-      <c r="M88" s="120">
-        <v>0</v>
-      </c>
-      <c r="N88" s="120">
-        <v>0</v>
-      </c>
-      <c r="O88" s="120">
+      <c r="K88" s="96">
+        <v>0</v>
+      </c>
+      <c r="L88" s="96">
+        <v>0</v>
+      </c>
+      <c r="M88" s="96">
+        <v>0</v>
+      </c>
+      <c r="N88" s="96">
+        <v>0</v>
+      </c>
+      <c r="O88" s="96">
         <v>0</v>
       </c>
       <c r="P88" s="62">
@@ -7459,8 +7492,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="110"/>
+    <row r="89" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="119"/>
       <c r="C89" s="4" t="s">
         <v>115</v>
       </c>
@@ -7484,16 +7517,16 @@
       <c r="J89" s="46">
         <v>0</v>
       </c>
-      <c r="K89" s="120">
-        <v>0</v>
-      </c>
-      <c r="L89" s="120">
-        <v>0</v>
-      </c>
-      <c r="M89" s="120">
-        <v>0</v>
-      </c>
-      <c r="N89" s="120">
+      <c r="K89" s="96">
+        <v>0</v>
+      </c>
+      <c r="L89" s="96">
+        <v>0</v>
+      </c>
+      <c r="M89" s="96">
+        <v>0</v>
+      </c>
+      <c r="N89" s="96">
         <v>0</v>
       </c>
       <c r="O89" s="62">
@@ -7524,8 +7557,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="110"/>
+    <row r="90" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="119"/>
       <c r="C90" s="4" t="s">
         <v>116</v>
       </c>
@@ -7549,19 +7582,19 @@
       <c r="J90" s="46">
         <v>0</v>
       </c>
-      <c r="K90" s="120">
-        <v>0</v>
-      </c>
-      <c r="L90" s="120">
-        <v>0</v>
-      </c>
-      <c r="M90" s="120">
-        <v>0</v>
-      </c>
-      <c r="N90" s="120">
-        <v>0</v>
-      </c>
-      <c r="O90" s="120">
+      <c r="K90" s="96">
+        <v>0</v>
+      </c>
+      <c r="L90" s="96">
+        <v>0</v>
+      </c>
+      <c r="M90" s="96">
+        <v>0</v>
+      </c>
+      <c r="N90" s="96">
+        <v>0</v>
+      </c>
+      <c r="O90" s="96">
         <v>0</v>
       </c>
       <c r="P90" s="62">
@@ -7589,8 +7622,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="110"/>
+    <row r="91" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="119"/>
       <c r="C91" s="4" t="s">
         <v>42</v>
       </c>
@@ -7614,19 +7647,19 @@
       <c r="J91" s="46">
         <v>0</v>
       </c>
-      <c r="K91" s="120">
-        <v>0</v>
-      </c>
-      <c r="L91" s="120">
-        <v>0</v>
-      </c>
-      <c r="M91" s="120">
-        <v>0</v>
-      </c>
-      <c r="N91" s="120">
-        <v>0</v>
-      </c>
-      <c r="O91" s="120">
+      <c r="K91" s="96">
+        <v>0</v>
+      </c>
+      <c r="L91" s="96">
+        <v>0</v>
+      </c>
+      <c r="M91" s="96">
+        <v>0</v>
+      </c>
+      <c r="N91" s="96">
+        <v>0</v>
+      </c>
+      <c r="O91" s="96">
         <v>0</v>
       </c>
       <c r="P91" s="62">
@@ -7654,8 +7687,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="111"/>
+    <row r="92" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="120"/>
       <c r="C92" s="34" t="s">
         <v>87</v>
       </c>
@@ -7676,54 +7709,54 @@
         <f t="shared" si="1"/>
         <v>2.35</v>
       </c>
-      <c r="J92" s="119">
-        <v>0</v>
-      </c>
-      <c r="K92" s="124">
-        <v>0</v>
-      </c>
-      <c r="L92" s="124">
-        <v>0</v>
-      </c>
-      <c r="M92" s="124">
-        <v>0</v>
-      </c>
-      <c r="N92" s="124">
-        <v>0</v>
-      </c>
-      <c r="O92" s="124">
-        <v>0</v>
-      </c>
-      <c r="P92" s="124">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="124">
-        <v>0</v>
-      </c>
-      <c r="R92" s="129">
-        <v>0</v>
-      </c>
-      <c r="S92" s="131">
+      <c r="J92" s="95">
+        <v>0</v>
+      </c>
+      <c r="K92" s="100">
+        <v>0</v>
+      </c>
+      <c r="L92" s="100">
+        <v>0</v>
+      </c>
+      <c r="M92" s="100">
+        <v>0</v>
+      </c>
+      <c r="N92" s="100">
+        <v>0</v>
+      </c>
+      <c r="O92" s="100">
+        <v>0</v>
+      </c>
+      <c r="P92" s="100">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="100">
+        <v>0</v>
+      </c>
+      <c r="R92" s="105">
+        <v>0</v>
+      </c>
+      <c r="S92" s="107">
         <v>2.35</v>
       </c>
-      <c r="T92" s="131">
-        <v>0</v>
-      </c>
-      <c r="U92" s="131">
-        <v>0</v>
-      </c>
-      <c r="V92" s="131">
-        <v>0</v>
-      </c>
-      <c r="W92" s="132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="114" t="s">
+      <c r="T92" s="107">
+        <v>0</v>
+      </c>
+      <c r="U92" s="107">
+        <v>0</v>
+      </c>
+      <c r="V92" s="107">
+        <v>0</v>
+      </c>
+      <c r="W92" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="C93" s="112" t="s">
+      <c r="C93" s="121" t="s">
         <v>89</v>
       </c>
       <c r="D93" s="6" t="s">
@@ -7748,49 +7781,49 @@
       <c r="J93" s="55">
         <v>0</v>
       </c>
-      <c r="K93" s="121">
-        <v>0</v>
-      </c>
-      <c r="L93" s="121">
-        <v>0</v>
-      </c>
-      <c r="M93" s="121">
-        <v>0</v>
-      </c>
-      <c r="N93" s="121">
-        <v>0</v>
-      </c>
-      <c r="O93" s="121">
-        <v>0</v>
-      </c>
-      <c r="P93" s="121">
-        <v>0</v>
-      </c>
-      <c r="Q93" s="121">
-        <v>0</v>
-      </c>
-      <c r="R93" s="125">
+      <c r="K93" s="97">
+        <v>0</v>
+      </c>
+      <c r="L93" s="97">
+        <v>0</v>
+      </c>
+      <c r="M93" s="97">
+        <v>0</v>
+      </c>
+      <c r="N93" s="97">
+        <v>0</v>
+      </c>
+      <c r="O93" s="97">
+        <v>0</v>
+      </c>
+      <c r="P93" s="97">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="97">
+        <v>0</v>
+      </c>
+      <c r="R93" s="101">
         <v>0.7</v>
       </c>
-      <c r="S93" s="125">
-        <v>0</v>
-      </c>
-      <c r="T93" s="125">
-        <v>0</v>
-      </c>
-      <c r="U93" s="125">
-        <v>0</v>
-      </c>
-      <c r="V93" s="125">
-        <v>0</v>
-      </c>
-      <c r="W93" s="126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="114"/>
-      <c r="C94" s="113"/>
+      <c r="S93" s="101">
+        <v>0</v>
+      </c>
+      <c r="T93" s="101">
+        <v>0</v>
+      </c>
+      <c r="U93" s="101">
+        <v>0</v>
+      </c>
+      <c r="V93" s="101">
+        <v>0</v>
+      </c>
+      <c r="W93" s="102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="123"/>
+      <c r="C94" s="122"/>
       <c r="D94" s="4" t="s">
         <v>91</v>
       </c>
@@ -7813,25 +7846,25 @@
       <c r="J94" s="46">
         <v>0</v>
       </c>
-      <c r="K94" s="120">
-        <v>0</v>
-      </c>
-      <c r="L94" s="120">
-        <v>0</v>
-      </c>
-      <c r="M94" s="120">
-        <v>0</v>
-      </c>
-      <c r="N94" s="120">
-        <v>0</v>
-      </c>
-      <c r="O94" s="120">
-        <v>0</v>
-      </c>
-      <c r="P94" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="120">
+      <c r="K94" s="96">
+        <v>0</v>
+      </c>
+      <c r="L94" s="96">
+        <v>0</v>
+      </c>
+      <c r="M94" s="96">
+        <v>0</v>
+      </c>
+      <c r="N94" s="96">
+        <v>0</v>
+      </c>
+      <c r="O94" s="96">
+        <v>0</v>
+      </c>
+      <c r="P94" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="96">
         <v>0</v>
       </c>
       <c r="R94" s="62">
@@ -7853,9 +7886,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="114"/>
-      <c r="C95" s="113"/>
+    <row r="95" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="123"/>
+      <c r="C95" s="122"/>
       <c r="D95" s="4" t="s">
         <v>92</v>
       </c>
@@ -7878,25 +7911,25 @@
       <c r="J95" s="46">
         <v>0</v>
       </c>
-      <c r="K95" s="120">
-        <v>0</v>
-      </c>
-      <c r="L95" s="120">
-        <v>0</v>
-      </c>
-      <c r="M95" s="120">
-        <v>0</v>
-      </c>
-      <c r="N95" s="120">
-        <v>0</v>
-      </c>
-      <c r="O95" s="120">
-        <v>0</v>
-      </c>
-      <c r="P95" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="120">
+      <c r="K95" s="96">
+        <v>0</v>
+      </c>
+      <c r="L95" s="96">
+        <v>0</v>
+      </c>
+      <c r="M95" s="96">
+        <v>0</v>
+      </c>
+      <c r="N95" s="96">
+        <v>0</v>
+      </c>
+      <c r="O95" s="96">
+        <v>0</v>
+      </c>
+      <c r="P95" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="96">
         <v>0</v>
       </c>
       <c r="R95" s="62">
@@ -7918,8 +7951,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="114"/>
+    <row r="96" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="123"/>
       <c r="C96" s="16" t="s">
         <v>110</v>
       </c>
@@ -7943,28 +7976,28 @@
       <c r="J96" s="46">
         <v>0</v>
       </c>
-      <c r="K96" s="120">
-        <v>0</v>
-      </c>
-      <c r="L96" s="120">
-        <v>0</v>
-      </c>
-      <c r="M96" s="120">
-        <v>0</v>
-      </c>
-      <c r="N96" s="120">
-        <v>0</v>
-      </c>
-      <c r="O96" s="120">
-        <v>0</v>
-      </c>
-      <c r="P96" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="120">
-        <v>0</v>
-      </c>
-      <c r="R96" s="120">
+      <c r="K96" s="96">
+        <v>0</v>
+      </c>
+      <c r="L96" s="96">
+        <v>0</v>
+      </c>
+      <c r="M96" s="96">
+        <v>0</v>
+      </c>
+      <c r="N96" s="96">
+        <v>0</v>
+      </c>
+      <c r="O96" s="96">
+        <v>0</v>
+      </c>
+      <c r="P96" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="96">
+        <v>0</v>
+      </c>
+      <c r="R96" s="96">
         <v>0</v>
       </c>
       <c r="S96" s="62">
@@ -7983,8 +8016,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="114"/>
+    <row r="97" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="123"/>
       <c r="C97" s="16" t="s">
         <v>93</v>
       </c>
@@ -8008,31 +8041,31 @@
       <c r="J97" s="46">
         <v>0</v>
       </c>
-      <c r="K97" s="120">
-        <v>0</v>
-      </c>
-      <c r="L97" s="120">
-        <v>0</v>
-      </c>
-      <c r="M97" s="120">
-        <v>0</v>
-      </c>
-      <c r="N97" s="120">
-        <v>0</v>
-      </c>
-      <c r="O97" s="120">
-        <v>0</v>
-      </c>
-      <c r="P97" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="120">
-        <v>0</v>
-      </c>
-      <c r="R97" s="120">
-        <v>0</v>
-      </c>
-      <c r="S97" s="120">
+      <c r="K97" s="96">
+        <v>0</v>
+      </c>
+      <c r="L97" s="96">
+        <v>0</v>
+      </c>
+      <c r="M97" s="96">
+        <v>0</v>
+      </c>
+      <c r="N97" s="96">
+        <v>0</v>
+      </c>
+      <c r="O97" s="96">
+        <v>0</v>
+      </c>
+      <c r="P97" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="96">
+        <v>0</v>
+      </c>
+      <c r="R97" s="96">
+        <v>0</v>
+      </c>
+      <c r="S97" s="96">
         <v>0</v>
       </c>
       <c r="T97" s="89"/>
@@ -8040,8 +8073,8 @@
       <c r="V97" s="89"/>
       <c r="W97" s="90"/>
     </row>
-    <row r="98" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="114"/>
+    <row r="98" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="123"/>
       <c r="C98" s="16" t="s">
         <v>94</v>
       </c>
@@ -8065,25 +8098,25 @@
       <c r="J98" s="46">
         <v>0</v>
       </c>
-      <c r="K98" s="120">
-        <v>0</v>
-      </c>
-      <c r="L98" s="120">
-        <v>0</v>
-      </c>
-      <c r="M98" s="120">
-        <v>0</v>
-      </c>
-      <c r="N98" s="120">
-        <v>0</v>
-      </c>
-      <c r="O98" s="120">
-        <v>0</v>
-      </c>
-      <c r="P98" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="120">
+      <c r="K98" s="96">
+        <v>0</v>
+      </c>
+      <c r="L98" s="96">
+        <v>0</v>
+      </c>
+      <c r="M98" s="96">
+        <v>0</v>
+      </c>
+      <c r="N98" s="96">
+        <v>0</v>
+      </c>
+      <c r="O98" s="96">
+        <v>0</v>
+      </c>
+      <c r="P98" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="96">
         <v>0</v>
       </c>
       <c r="R98" s="91">
@@ -8105,8 +8138,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="114"/>
+    <row r="99" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="123"/>
       <c r="C99" s="16" t="s">
         <v>95</v>
       </c>
@@ -8130,25 +8163,25 @@
       <c r="J99" s="46">
         <v>0</v>
       </c>
-      <c r="K99" s="120">
-        <v>0</v>
-      </c>
-      <c r="L99" s="120">
-        <v>0</v>
-      </c>
-      <c r="M99" s="120">
-        <v>0</v>
-      </c>
-      <c r="N99" s="120">
-        <v>0</v>
-      </c>
-      <c r="O99" s="120">
-        <v>0</v>
-      </c>
-      <c r="P99" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="120">
+      <c r="K99" s="96">
+        <v>0</v>
+      </c>
+      <c r="L99" s="96">
+        <v>0</v>
+      </c>
+      <c r="M99" s="96">
+        <v>0</v>
+      </c>
+      <c r="N99" s="96">
+        <v>0</v>
+      </c>
+      <c r="O99" s="96">
+        <v>0</v>
+      </c>
+      <c r="P99" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="96">
         <v>0</v>
       </c>
       <c r="R99" s="62">
@@ -8170,8 +8203,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="114"/>
+    <row r="100" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="123"/>
       <c r="C100" s="16" t="s">
         <v>96</v>
       </c>
@@ -8195,31 +8228,31 @@
       <c r="J100" s="46">
         <v>0</v>
       </c>
-      <c r="K100" s="120">
-        <v>0</v>
-      </c>
-      <c r="L100" s="120">
-        <v>0</v>
-      </c>
-      <c r="M100" s="120">
-        <v>0</v>
-      </c>
-      <c r="N100" s="120">
-        <v>0</v>
-      </c>
-      <c r="O100" s="120">
-        <v>0</v>
-      </c>
-      <c r="P100" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="120">
-        <v>0</v>
-      </c>
-      <c r="R100" s="120">
-        <v>0</v>
-      </c>
-      <c r="S100" s="120">
+      <c r="K100" s="96">
+        <v>0</v>
+      </c>
+      <c r="L100" s="96">
+        <v>0</v>
+      </c>
+      <c r="M100" s="96">
+        <v>0</v>
+      </c>
+      <c r="N100" s="96">
+        <v>0</v>
+      </c>
+      <c r="O100" s="96">
+        <v>0</v>
+      </c>
+      <c r="P100" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="96">
+        <v>0</v>
+      </c>
+      <c r="R100" s="96">
+        <v>0</v>
+      </c>
+      <c r="S100" s="96">
         <v>0</v>
       </c>
       <c r="T100" s="89"/>
@@ -8227,8 +8260,8 @@
       <c r="V100" s="89"/>
       <c r="W100" s="90"/>
     </row>
-    <row r="101" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="115"/>
+    <row r="101" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="124"/>
       <c r="C101" s="16" t="s">
         <v>97</v>
       </c>
@@ -8252,31 +8285,31 @@
       <c r="J101" s="46">
         <v>0</v>
       </c>
-      <c r="K101" s="120">
-        <v>0</v>
-      </c>
-      <c r="L101" s="120">
-        <v>0</v>
-      </c>
-      <c r="M101" s="120">
-        <v>0</v>
-      </c>
-      <c r="N101" s="120">
-        <v>0</v>
-      </c>
-      <c r="O101" s="120">
-        <v>0</v>
-      </c>
-      <c r="P101" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="120">
-        <v>0</v>
-      </c>
-      <c r="R101" s="120">
-        <v>0</v>
-      </c>
-      <c r="S101" s="120">
+      <c r="K101" s="96">
+        <v>0</v>
+      </c>
+      <c r="L101" s="96">
+        <v>0</v>
+      </c>
+      <c r="M101" s="96">
+        <v>0</v>
+      </c>
+      <c r="N101" s="96">
+        <v>0</v>
+      </c>
+      <c r="O101" s="96">
+        <v>0</v>
+      </c>
+      <c r="P101" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="96">
+        <v>0</v>
+      </c>
+      <c r="R101" s="96">
+        <v>0</v>
+      </c>
+      <c r="S101" s="96">
         <v>0</v>
       </c>
       <c r="T101" s="18"/>
@@ -8284,7 +8317,7 @@
       <c r="V101" s="18"/>
       <c r="W101" s="26"/>
     </row>
-    <row r="102" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="27" t="s">
         <v>98</v>
       </c>
@@ -8306,44 +8339,46 @@
       </c>
       <c r="I102" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J102" s="46">
         <v>0</v>
       </c>
-      <c r="K102" s="120">
-        <v>0</v>
-      </c>
-      <c r="L102" s="120">
-        <v>0</v>
-      </c>
-      <c r="M102" s="120">
-        <v>0</v>
-      </c>
-      <c r="N102" s="120">
-        <v>0</v>
-      </c>
-      <c r="O102" s="120">
-        <v>0</v>
-      </c>
-      <c r="P102" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="120">
-        <v>0</v>
-      </c>
-      <c r="R102" s="120">
-        <v>0</v>
-      </c>
-      <c r="S102" s="120">
-        <v>0</v>
-      </c>
-      <c r="T102" s="18"/>
+      <c r="K102" s="96">
+        <v>0</v>
+      </c>
+      <c r="L102" s="96">
+        <v>0</v>
+      </c>
+      <c r="M102" s="96">
+        <v>0</v>
+      </c>
+      <c r="N102" s="96">
+        <v>0</v>
+      </c>
+      <c r="O102" s="96">
+        <v>0</v>
+      </c>
+      <c r="P102" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="96">
+        <v>0</v>
+      </c>
+      <c r="R102" s="96">
+        <v>0</v>
+      </c>
+      <c r="S102" s="96">
+        <v>0</v>
+      </c>
+      <c r="T102" s="88">
+        <v>0.4</v>
+      </c>
       <c r="U102" s="18"/>
       <c r="V102" s="18"/>
       <c r="W102" s="26"/>
     </row>
-    <row r="103" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="27" t="s">
         <v>106</v>
       </c>
@@ -8368,7 +8403,7 @@
       <c r="J103" s="46">
         <v>0</v>
       </c>
-      <c r="K103" s="120">
+      <c r="K103" s="96">
         <v>0</v>
       </c>
       <c r="L103" s="49">
@@ -8383,16 +8418,32 @@
       <c r="O103" s="49">
         <v>0</v>
       </c>
-      <c r="P103" s="51"/>
-      <c r="Q103" s="51"/>
-      <c r="R103" s="51"/>
-      <c r="S103" s="51"/>
-      <c r="T103" s="51"/>
-      <c r="U103" s="51"/>
-      <c r="V103" s="51"/>
-      <c r="W103" s="66"/>
-    </row>
-    <row r="104" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P103" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="49">
+        <v>0</v>
+      </c>
+      <c r="R103" s="49">
+        <v>0</v>
+      </c>
+      <c r="S103" s="49">
+        <v>0</v>
+      </c>
+      <c r="T103" s="49">
+        <v>0</v>
+      </c>
+      <c r="U103" s="49">
+        <v>0</v>
+      </c>
+      <c r="V103" s="49">
+        <v>0</v>
+      </c>
+      <c r="W103" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="27" t="s">
         <v>107</v>
       </c>
@@ -8417,10 +8468,10 @@
       <c r="J104" s="46">
         <v>0</v>
       </c>
-      <c r="K104" s="120">
-        <v>0</v>
-      </c>
-      <c r="L104" s="120">
+      <c r="K104" s="96">
+        <v>0</v>
+      </c>
+      <c r="L104" s="96">
         <v>0</v>
       </c>
       <c r="M104" s="49">
@@ -8457,7 +8508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="17" t="s">
         <v>108</v>
       </c>
@@ -8482,121 +8533,121 @@
       <c r="J105" s="47">
         <v>0</v>
       </c>
-      <c r="K105" s="123">
-        <v>0</v>
-      </c>
-      <c r="L105" s="139">
+      <c r="K105" s="99">
+        <v>0</v>
+      </c>
+      <c r="L105" s="112">
         <v>0.1</v>
       </c>
-      <c r="M105" s="139">
-        <v>0</v>
-      </c>
-      <c r="N105" s="139">
-        <v>0</v>
-      </c>
-      <c r="O105" s="139">
-        <v>0</v>
-      </c>
-      <c r="P105" s="127">
-        <v>0</v>
-      </c>
-      <c r="Q105" s="127">
-        <v>0</v>
-      </c>
-      <c r="R105" s="127">
-        <v>0</v>
-      </c>
-      <c r="S105" s="127">
-        <v>0</v>
-      </c>
-      <c r="T105" s="127">
-        <v>0</v>
-      </c>
-      <c r="U105" s="127">
-        <v>0</v>
-      </c>
-      <c r="V105" s="127">
-        <v>0</v>
-      </c>
-      <c r="W105" s="128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="106" t="s">
+      <c r="M105" s="112">
+        <v>0</v>
+      </c>
+      <c r="N105" s="112">
+        <v>0</v>
+      </c>
+      <c r="O105" s="112">
+        <v>0</v>
+      </c>
+      <c r="P105" s="103">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="103">
+        <v>0</v>
+      </c>
+      <c r="R105" s="103">
+        <v>0</v>
+      </c>
+      <c r="S105" s="103">
+        <v>0</v>
+      </c>
+      <c r="T105" s="103">
+        <v>0</v>
+      </c>
+      <c r="U105" s="103">
+        <v>0</v>
+      </c>
+      <c r="V105" s="103">
+        <v>0</v>
+      </c>
+      <c r="W105" s="104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="107"/>
-      <c r="D106" s="107"/>
-      <c r="E106" s="107"/>
-      <c r="F106" s="107"/>
-      <c r="G106" s="107"/>
+      <c r="C106" s="139"/>
+      <c r="D106" s="139"/>
+      <c r="E106" s="139"/>
+      <c r="F106" s="139"/>
+      <c r="G106" s="139"/>
       <c r="H106" s="25">
         <f t="shared" ref="H106:W106" si="2">SUM(H4:H105)</f>
         <v>34.550000000000004</v>
       </c>
       <c r="I106" s="13">
         <f t="shared" si="2"/>
-        <v>26.529</v>
-      </c>
-      <c r="J106" s="136">
+        <v>26.928999999999998</v>
+      </c>
+      <c r="J106" s="109">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K106" s="137">
+      <c r="K106" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L106" s="137">
+      <c r="L106" s="110">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="M106" s="137">
+      <c r="M106" s="110">
         <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N106" s="137">
+      <c r="N106" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O106" s="137">
+      <c r="O106" s="110">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="P106" s="137">
+      <c r="P106" s="110">
         <f t="shared" si="2"/>
         <v>8.9750000000000014</v>
       </c>
-      <c r="Q106" s="137">
+      <c r="Q106" s="110">
         <f t="shared" si="2"/>
         <v>3.4870000000000001</v>
       </c>
-      <c r="R106" s="137">
+      <c r="R106" s="110">
         <f t="shared" si="2"/>
         <v>4.407</v>
       </c>
-      <c r="S106" s="137">
+      <c r="S106" s="110">
         <f t="shared" si="2"/>
         <v>6.89</v>
       </c>
-      <c r="T106" s="137">
+      <c r="T106" s="110">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U106" s="137">
+        <v>0.4</v>
+      </c>
+      <c r="U106" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V106" s="137">
+      <c r="V106" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W106" s="138">
+      <c r="W106" s="111">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -8605,24 +8656,24 @@
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
-      <c r="J107" s="133" t="s">
+      <c r="J107" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="K107" s="134"/>
-      <c r="L107" s="134"/>
-      <c r="M107" s="134"/>
-      <c r="N107" s="134"/>
-      <c r="O107" s="134"/>
-      <c r="P107" s="134"/>
-      <c r="Q107" s="134"/>
-      <c r="R107" s="134"/>
-      <c r="S107" s="134"/>
-      <c r="T107" s="134"/>
-      <c r="U107" s="134"/>
-      <c r="V107" s="134"/>
-      <c r="W107" s="135"/>
-    </row>
-    <row r="108" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K107" s="127"/>
+      <c r="L107" s="127"/>
+      <c r="M107" s="127"/>
+      <c r="N107" s="127"/>
+      <c r="O107" s="127"/>
+      <c r="P107" s="127"/>
+      <c r="Q107" s="127"/>
+      <c r="R107" s="127"/>
+      <c r="S107" s="127"/>
+      <c r="T107" s="127"/>
+      <c r="U107" s="127"/>
+      <c r="V107" s="127"/>
+      <c r="W107" s="128"/>
+    </row>
+    <row r="108" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -8638,17 +8689,17 @@
       <c r="O108" s="11"/>
       <c r="P108" s="11"/>
     </row>
-    <row r="109" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
-      <c r="H109" s="93" t="s">
+      <c r="H109" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="I109" s="116"/>
+      <c r="I109" s="125"/>
       <c r="J109" s="12">
         <f>H106-J106</f>
         <v>34.550000000000004</v>
@@ -8691,22 +8742,22 @@
       </c>
       <c r="T109" s="12">
         <f t="shared" si="3"/>
-        <v>8.0209999999999972</v>
+        <v>7.6209999999999969</v>
       </c>
       <c r="U109" s="12">
         <f t="shared" si="3"/>
-        <v>8.0209999999999972</v>
+        <v>7.6209999999999969</v>
       </c>
       <c r="V109" s="12">
         <f t="shared" si="3"/>
-        <v>8.0209999999999972</v>
+        <v>7.6209999999999969</v>
       </c>
       <c r="W109" s="12">
         <f t="shared" si="3"/>
-        <v>8.0209999999999972</v>
-      </c>
-    </row>
-    <row r="110" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7.6209999999999969</v>
+      </c>
+    </row>
+    <row r="110" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -8720,35 +8771,35 @@
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
     </row>
-    <row r="111" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
-      <c r="H111" s="93" t="s">
+      <c r="H111" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="I111" s="94"/>
-      <c r="J111" s="93">
+      <c r="I111" s="114"/>
+      <c r="J111" s="113">
         <f>H106-I106</f>
-        <v>8.0210000000000043</v>
-      </c>
-      <c r="K111" s="94"/>
-      <c r="L111" s="94"/>
-      <c r="M111" s="94"/>
-      <c r="N111" s="94"/>
-      <c r="O111" s="94"/>
-      <c r="P111" s="94"/>
-      <c r="Q111" s="94"/>
-      <c r="R111" s="94"/>
-      <c r="S111" s="94"/>
-      <c r="T111" s="94"/>
-      <c r="U111" s="94"/>
-      <c r="V111" s="94"/>
-      <c r="W111" s="95"/>
-    </row>
-    <row r="112" spans="2:23" x14ac:dyDescent="0.3">
+        <v>7.6210000000000058</v>
+      </c>
+      <c r="K111" s="114"/>
+      <c r="L111" s="114"/>
+      <c r="M111" s="114"/>
+      <c r="N111" s="114"/>
+      <c r="O111" s="114"/>
+      <c r="P111" s="114"/>
+      <c r="Q111" s="114"/>
+      <c r="R111" s="114"/>
+      <c r="S111" s="114"/>
+      <c r="T111" s="114"/>
+      <c r="U111" s="114"/>
+      <c r="V111" s="114"/>
+      <c r="W111" s="115"/>
+    </row>
+    <row r="112" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -8762,7 +8813,7 @@
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -8776,7 +8827,7 @@
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -8790,57 +8841,50 @@
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
     </row>
-    <row r="115" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B117" s="9"/>
     </row>
-    <row r="118" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B118" s="9"/>
     </row>
-    <row r="119" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B119" s="9"/>
     </row>
-    <row r="120" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B120" s="9"/>
     </row>
-    <row r="121" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B121" s="9"/>
     </row>
-    <row r="122" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="9"/>
     </row>
-    <row r="123" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B123" s="9"/>
     </row>
-    <row r="124" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="9"/>
     </row>
-    <row r="125" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="9"/>
     </row>
-    <row r="126" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126" s="9"/>
     </row>
-    <row r="127" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="9"/>
     </row>
-    <row r="128" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="9"/>
     </row>
-    <row r="129" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129" s="9"/>
     </row>
-    <row r="130" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="J111:W111"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B73:B92"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="B93:B101"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H111:I111"/>
     <mergeCell ref="J2:W2"/>
     <mergeCell ref="J107:W107"/>
     <mergeCell ref="B14:B63"/>
@@ -8849,6 +8893,13 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B106:G106"/>
+    <mergeCell ref="J111:W111"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B73:B92"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="B93:B101"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H111:I111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8857,24 +8908,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bichito\Desktop\Alex\MAP_LegendOfRadev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Enti\MAP\The_Legend_of_Radev\MAP_LegendOfRadev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -377,7 +377,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1372,9 +1372,51 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1400,48 +1442,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1537,13 +1537,13 @@
                   <c:v>7.6209999999999969</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.6209999999999969</c:v>
+                  <c:v>4.2909999999999968</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.6209999999999969</c:v>
+                  <c:v>4.2909999999999968</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.6209999999999969</c:v>
+                  <c:v>4.2909999999999968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1604,6 +1604,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1735,23 +1736,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1787,23 +1771,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1979,11 +1946,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q101" sqref="Q101"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V101" sqref="V101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2098,7 +2065,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="124" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="52" t="s">
@@ -2165,8 +2132,8 @@
       </c>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="135"/>
-      <c r="C5" s="116" t="s">
+      <c r="B5" s="125"/>
+      <c r="C5" s="127" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="69" t="s">
@@ -2232,8 +2199,8 @@
       </c>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="135"/>
-      <c r="C6" s="137"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="128"/>
       <c r="D6" s="15" t="s">
         <v>20</v>
       </c>
@@ -2297,7 +2264,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="135"/>
+      <c r="B7" s="125"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
@@ -2362,7 +2329,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="135"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="68" t="s">
         <v>16</v>
       </c>
@@ -2427,7 +2394,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="136"/>
+      <c r="B9" s="126"/>
       <c r="C9" s="34" t="s">
         <v>104</v>
       </c>
@@ -2492,7 +2459,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="132" t="s">
+      <c r="B10" s="122" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="85" t="s">
@@ -2551,7 +2518,7 @@
       <c r="W10" s="33"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="132"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2608,8 +2575,8 @@
       <c r="W11" s="26"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="132"/>
-      <c r="C12" s="116" t="s">
+      <c r="B12" s="122"/>
+      <c r="C12" s="127" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="45" t="s">
@@ -2667,8 +2634,8 @@
       <c r="W12" s="28"/>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="133"/>
-      <c r="C13" s="117"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="131"/>
       <c r="D13" s="35" t="s">
         <v>112</v>
       </c>
@@ -2724,7 +2691,7 @@
       <c r="W13" s="28"/>
     </row>
     <row r="14" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="129" t="s">
+      <c r="B14" s="119" t="s">
         <v>114</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -2791,7 +2758,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="129"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="4" t="s">
         <v>26</v>
       </c>
@@ -2856,7 +2823,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="129"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="4" t="s">
         <v>28</v>
       </c>
@@ -2921,7 +2888,7 @@
       </c>
     </row>
     <row r="17" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="129"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
@@ -2986,7 +2953,7 @@
       </c>
     </row>
     <row r="18" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="129"/>
+      <c r="B18" s="119"/>
       <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
@@ -3051,7 +3018,7 @@
       </c>
     </row>
     <row r="19" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="129"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="4" t="s">
         <v>31</v>
       </c>
@@ -3116,7 +3083,7 @@
       </c>
     </row>
     <row r="20" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="129"/>
+      <c r="B20" s="119"/>
       <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
@@ -3181,7 +3148,7 @@
       </c>
     </row>
     <row r="21" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="129"/>
+      <c r="B21" s="119"/>
       <c r="C21" s="4" t="s">
         <v>33</v>
       </c>
@@ -3246,7 +3213,7 @@
       </c>
     </row>
     <row r="22" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="129"/>
+      <c r="B22" s="119"/>
       <c r="C22" s="4" t="s">
         <v>34</v>
       </c>
@@ -3311,7 +3278,7 @@
       </c>
     </row>
     <row r="23" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="129"/>
+      <c r="B23" s="119"/>
       <c r="C23" s="4" t="s">
         <v>35</v>
       </c>
@@ -3376,7 +3343,7 @@
       </c>
     </row>
     <row r="24" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="129"/>
+      <c r="B24" s="119"/>
       <c r="C24" s="4" t="s">
         <v>36</v>
       </c>
@@ -3441,7 +3408,7 @@
       </c>
     </row>
     <row r="25" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="129"/>
+      <c r="B25" s="119"/>
       <c r="C25" s="4" t="s">
         <v>37</v>
       </c>
@@ -3506,7 +3473,7 @@
       </c>
     </row>
     <row r="26" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="129"/>
+      <c r="B26" s="119"/>
       <c r="C26" s="4" t="s">
         <v>38</v>
       </c>
@@ -3571,7 +3538,7 @@
       </c>
     </row>
     <row r="27" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="129"/>
+      <c r="B27" s="119"/>
       <c r="C27" s="4" t="s">
         <v>39</v>
       </c>
@@ -3636,7 +3603,7 @@
       </c>
     </row>
     <row r="28" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="129"/>
+      <c r="B28" s="119"/>
       <c r="C28" s="4" t="s">
         <v>40</v>
       </c>
@@ -3701,7 +3668,7 @@
       </c>
     </row>
     <row r="29" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="129"/>
+      <c r="B29" s="119"/>
       <c r="C29" s="4" t="s">
         <v>41</v>
       </c>
@@ -3766,7 +3733,7 @@
       </c>
     </row>
     <row r="30" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="129"/>
+      <c r="B30" s="119"/>
       <c r="C30" s="4" t="s">
         <v>42</v>
       </c>
@@ -3831,7 +3798,7 @@
       </c>
     </row>
     <row r="31" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="129"/>
+      <c r="B31" s="119"/>
       <c r="C31" s="4" t="s">
         <v>43</v>
       </c>
@@ -3896,7 +3863,7 @@
       </c>
     </row>
     <row r="32" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="129"/>
+      <c r="B32" s="119"/>
       <c r="C32" s="4" t="s">
         <v>44</v>
       </c>
@@ -3961,7 +3928,7 @@
       </c>
     </row>
     <row r="33" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="129"/>
+      <c r="B33" s="119"/>
       <c r="C33" s="4" t="s">
         <v>45</v>
       </c>
@@ -4026,7 +3993,7 @@
       </c>
     </row>
     <row r="34" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="129"/>
+      <c r="B34" s="119"/>
       <c r="C34" s="4" t="s">
         <v>46</v>
       </c>
@@ -4091,7 +4058,7 @@
       </c>
     </row>
     <row r="35" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="129"/>
+      <c r="B35" s="119"/>
       <c r="C35" s="4" t="s">
         <v>47</v>
       </c>
@@ -4156,7 +4123,7 @@
       </c>
     </row>
     <row r="36" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="129"/>
+      <c r="B36" s="119"/>
       <c r="C36" s="4" t="s">
         <v>48</v>
       </c>
@@ -4221,7 +4188,7 @@
       </c>
     </row>
     <row r="37" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="129"/>
+      <c r="B37" s="119"/>
       <c r="C37" s="4" t="s">
         <v>49</v>
       </c>
@@ -4286,7 +4253,7 @@
       </c>
     </row>
     <row r="38" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="129"/>
+      <c r="B38" s="119"/>
       <c r="C38" s="4" t="s">
         <v>50</v>
       </c>
@@ -4351,7 +4318,7 @@
       </c>
     </row>
     <row r="39" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="129"/>
+      <c r="B39" s="119"/>
       <c r="C39" s="4" t="s">
         <v>51</v>
       </c>
@@ -4416,7 +4383,7 @@
       </c>
     </row>
     <row r="40" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="129"/>
+      <c r="B40" s="119"/>
       <c r="C40" s="4" t="s">
         <v>52</v>
       </c>
@@ -4481,7 +4448,7 @@
       </c>
     </row>
     <row r="41" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="129"/>
+      <c r="B41" s="119"/>
       <c r="C41" s="4" t="s">
         <v>53</v>
       </c>
@@ -4546,7 +4513,7 @@
       </c>
     </row>
     <row r="42" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="129"/>
+      <c r="B42" s="119"/>
       <c r="C42" s="4" t="s">
         <v>54</v>
       </c>
@@ -4611,7 +4578,7 @@
       </c>
     </row>
     <row r="43" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="129"/>
+      <c r="B43" s="119"/>
       <c r="C43" s="4" t="s">
         <v>55</v>
       </c>
@@ -4676,7 +4643,7 @@
       </c>
     </row>
     <row r="44" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="129"/>
+      <c r="B44" s="119"/>
       <c r="C44" s="4" t="s">
         <v>56</v>
       </c>
@@ -4741,7 +4708,7 @@
       </c>
     </row>
     <row r="45" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="129"/>
+      <c r="B45" s="119"/>
       <c r="C45" s="4" t="s">
         <v>57</v>
       </c>
@@ -4806,7 +4773,7 @@
       </c>
     </row>
     <row r="46" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="129"/>
+      <c r="B46" s="119"/>
       <c r="C46" s="4" t="s">
         <v>58</v>
       </c>
@@ -4871,7 +4838,7 @@
       </c>
     </row>
     <row r="47" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="129"/>
+      <c r="B47" s="119"/>
       <c r="C47" s="4" t="s">
         <v>59</v>
       </c>
@@ -4936,7 +4903,7 @@
       </c>
     </row>
     <row r="48" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="129"/>
+      <c r="B48" s="119"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
@@ -5001,7 +4968,7 @@
       </c>
     </row>
     <row r="49" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="129"/>
+      <c r="B49" s="119"/>
       <c r="C49" s="16" t="s">
         <v>61</v>
       </c>
@@ -5066,7 +5033,7 @@
       </c>
     </row>
     <row r="50" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="129"/>
+      <c r="B50" s="119"/>
       <c r="C50" s="16" t="s">
         <v>72</v>
       </c>
@@ -5123,7 +5090,7 @@
       <c r="W50" s="26"/>
     </row>
     <row r="51" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="129"/>
+      <c r="B51" s="119"/>
       <c r="C51" s="16" t="s">
         <v>73</v>
       </c>
@@ -5180,7 +5147,7 @@
       <c r="W51" s="26"/>
     </row>
     <row r="52" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="129"/>
+      <c r="B52" s="119"/>
       <c r="C52" s="16" t="s">
         <v>74</v>
       </c>
@@ -5237,7 +5204,7 @@
       <c r="W52" s="26"/>
     </row>
     <row r="53" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="129"/>
+      <c r="B53" s="119"/>
       <c r="C53" s="16" t="s">
         <v>75</v>
       </c>
@@ -5294,7 +5261,7 @@
       <c r="W53" s="26"/>
     </row>
     <row r="54" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="129"/>
+      <c r="B54" s="119"/>
       <c r="C54" s="16" t="s">
         <v>76</v>
       </c>
@@ -5351,7 +5318,7 @@
       <c r="W54" s="26"/>
     </row>
     <row r="55" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="129"/>
+      <c r="B55" s="119"/>
       <c r="C55" s="16" t="s">
         <v>77</v>
       </c>
@@ -5408,7 +5375,7 @@
       <c r="W55" s="26"/>
     </row>
     <row r="56" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="129"/>
+      <c r="B56" s="119"/>
       <c r="C56" s="16" t="s">
         <v>78</v>
       </c>
@@ -5465,7 +5432,7 @@
       <c r="W56" s="26"/>
     </row>
     <row r="57" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="129"/>
+      <c r="B57" s="119"/>
       <c r="C57" s="16" t="s">
         <v>79</v>
       </c>
@@ -5522,7 +5489,7 @@
       <c r="W57" s="26"/>
     </row>
     <row r="58" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="129"/>
+      <c r="B58" s="119"/>
       <c r="C58" s="16" t="s">
         <v>80</v>
       </c>
@@ -5579,7 +5546,7 @@
       <c r="W58" s="26"/>
     </row>
     <row r="59" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="129"/>
+      <c r="B59" s="119"/>
       <c r="C59" s="16" t="s">
         <v>81</v>
       </c>
@@ -5636,7 +5603,7 @@
       <c r="W59" s="26"/>
     </row>
     <row r="60" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="129"/>
+      <c r="B60" s="119"/>
       <c r="C60" s="16" t="s">
         <v>82</v>
       </c>
@@ -5693,7 +5660,7 @@
       <c r="W60" s="26"/>
     </row>
     <row r="61" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="129"/>
+      <c r="B61" s="119"/>
       <c r="C61" s="16" t="s">
         <v>83</v>
       </c>
@@ -5750,7 +5717,7 @@
       <c r="W61" s="26"/>
     </row>
     <row r="62" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="129"/>
+      <c r="B62" s="119"/>
       <c r="C62" s="16" t="s">
         <v>84</v>
       </c>
@@ -5807,7 +5774,7 @@
       <c r="W62" s="26"/>
     </row>
     <row r="63" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="130"/>
+      <c r="B63" s="120"/>
       <c r="C63" s="34" t="s">
         <v>85</v>
       </c>
@@ -5864,7 +5831,7 @@
       <c r="W63" s="28"/>
     </row>
     <row r="64" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="131" t="s">
+      <c r="B64" s="121" t="s">
         <v>62</v>
       </c>
       <c r="C64" s="30" t="s">
@@ -5931,7 +5898,7 @@
       </c>
     </row>
     <row r="65" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="129"/>
+      <c r="B65" s="119"/>
       <c r="C65" s="16" t="s">
         <v>64</v>
       </c>
@@ -5996,7 +5963,7 @@
       </c>
     </row>
     <row r="66" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="129"/>
+      <c r="B66" s="119"/>
       <c r="C66" s="16" t="s">
         <v>65</v>
       </c>
@@ -6061,7 +6028,7 @@
       </c>
     </row>
     <row r="67" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="129"/>
+      <c r="B67" s="119"/>
       <c r="C67" s="16" t="s">
         <v>66</v>
       </c>
@@ -6126,7 +6093,7 @@
       </c>
     </row>
     <row r="68" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="129"/>
+      <c r="B68" s="119"/>
       <c r="C68" s="16" t="s">
         <v>67</v>
       </c>
@@ -6191,7 +6158,7 @@
       </c>
     </row>
     <row r="69" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="129"/>
+      <c r="B69" s="119"/>
       <c r="C69" s="16" t="s">
         <v>68</v>
       </c>
@@ -6256,7 +6223,7 @@
       </c>
     </row>
     <row r="70" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="129"/>
+      <c r="B70" s="119"/>
       <c r="C70" s="16" t="s">
         <v>69</v>
       </c>
@@ -6321,7 +6288,7 @@
       </c>
     </row>
     <row r="71" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="129"/>
+      <c r="B71" s="119"/>
       <c r="C71" s="16" t="s">
         <v>70</v>
       </c>
@@ -6386,7 +6353,7 @@
       </c>
     </row>
     <row r="72" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="129"/>
+      <c r="B72" s="119"/>
       <c r="C72" s="34" t="s">
         <v>71</v>
       </c>
@@ -6451,7 +6418,7 @@
       </c>
     </row>
     <row r="73" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="118" t="s">
+      <c r="B73" s="132" t="s">
         <v>86</v>
       </c>
       <c r="C73" s="6" t="s">
@@ -6518,7 +6485,7 @@
       </c>
     </row>
     <row r="74" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="119"/>
+      <c r="B74" s="133"/>
       <c r="C74" s="4" t="s">
         <v>26</v>
       </c>
@@ -6583,7 +6550,7 @@
       </c>
     </row>
     <row r="75" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="119"/>
+      <c r="B75" s="133"/>
       <c r="C75" s="4" t="s">
         <v>28</v>
       </c>
@@ -6648,7 +6615,7 @@
       </c>
     </row>
     <row r="76" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="119"/>
+      <c r="B76" s="133"/>
       <c r="C76" s="4" t="s">
         <v>29</v>
       </c>
@@ -6713,7 +6680,7 @@
       </c>
     </row>
     <row r="77" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="119"/>
+      <c r="B77" s="133"/>
       <c r="C77" s="4" t="s">
         <v>30</v>
       </c>
@@ -6778,7 +6745,7 @@
       </c>
     </row>
     <row r="78" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="119"/>
+      <c r="B78" s="133"/>
       <c r="C78" s="4" t="s">
         <v>31</v>
       </c>
@@ -6843,7 +6810,7 @@
       </c>
     </row>
     <row r="79" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="119"/>
+      <c r="B79" s="133"/>
       <c r="C79" s="4" t="s">
         <v>32</v>
       </c>
@@ -6908,7 +6875,7 @@
       </c>
     </row>
     <row r="80" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="119"/>
+      <c r="B80" s="133"/>
       <c r="C80" s="4" t="s">
         <v>33</v>
       </c>
@@ -6973,7 +6940,7 @@
       </c>
     </row>
     <row r="81" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="119"/>
+      <c r="B81" s="133"/>
       <c r="C81" s="4" t="s">
         <v>34</v>
       </c>
@@ -7038,7 +7005,7 @@
       </c>
     </row>
     <row r="82" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="119"/>
+      <c r="B82" s="133"/>
       <c r="C82" s="4" t="s">
         <v>35</v>
       </c>
@@ -7103,7 +7070,7 @@
       </c>
     </row>
     <row r="83" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="119"/>
+      <c r="B83" s="133"/>
       <c r="C83" s="4" t="s">
         <v>36</v>
       </c>
@@ -7168,7 +7135,7 @@
       </c>
     </row>
     <row r="84" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="119"/>
+      <c r="B84" s="133"/>
       <c r="C84" s="4" t="s">
         <v>37</v>
       </c>
@@ -7233,7 +7200,7 @@
       </c>
     </row>
     <row r="85" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="119"/>
+      <c r="B85" s="133"/>
       <c r="C85" s="4" t="s">
         <v>38</v>
       </c>
@@ -7298,7 +7265,7 @@
       </c>
     </row>
     <row r="86" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="119"/>
+      <c r="B86" s="133"/>
       <c r="C86" s="4" t="s">
         <v>39</v>
       </c>
@@ -7363,7 +7330,7 @@
       </c>
     </row>
     <row r="87" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="119"/>
+      <c r="B87" s="133"/>
       <c r="C87" s="4" t="s">
         <v>40</v>
       </c>
@@ -7428,7 +7395,7 @@
       </c>
     </row>
     <row r="88" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="119"/>
+      <c r="B88" s="133"/>
       <c r="C88" s="4" t="s">
         <v>41</v>
       </c>
@@ -7493,7 +7460,7 @@
       </c>
     </row>
     <row r="89" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="119"/>
+      <c r="B89" s="133"/>
       <c r="C89" s="4" t="s">
         <v>115</v>
       </c>
@@ -7558,7 +7525,7 @@
       </c>
     </row>
     <row r="90" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="119"/>
+      <c r="B90" s="133"/>
       <c r="C90" s="4" t="s">
         <v>116</v>
       </c>
@@ -7623,7 +7590,7 @@
       </c>
     </row>
     <row r="91" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="119"/>
+      <c r="B91" s="133"/>
       <c r="C91" s="4" t="s">
         <v>42</v>
       </c>
@@ -7688,7 +7655,7 @@
       </c>
     </row>
     <row r="92" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="120"/>
+      <c r="B92" s="134"/>
       <c r="C92" s="34" t="s">
         <v>87</v>
       </c>
@@ -7753,10 +7720,10 @@
       </c>
     </row>
     <row r="93" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="123" t="s">
+      <c r="B93" s="137" t="s">
         <v>88</v>
       </c>
-      <c r="C93" s="121" t="s">
+      <c r="C93" s="135" t="s">
         <v>89</v>
       </c>
       <c r="D93" s="6" t="s">
@@ -7822,8 +7789,8 @@
       </c>
     </row>
     <row r="94" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="123"/>
-      <c r="C94" s="122"/>
+      <c r="B94" s="137"/>
+      <c r="C94" s="136"/>
       <c r="D94" s="4" t="s">
         <v>91</v>
       </c>
@@ -7887,8 +7854,8 @@
       </c>
     </row>
     <row r="95" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="123"/>
-      <c r="C95" s="122"/>
+      <c r="B95" s="137"/>
+      <c r="C95" s="136"/>
       <c r="D95" s="4" t="s">
         <v>92</v>
       </c>
@@ -7952,7 +7919,7 @@
       </c>
     </row>
     <row r="96" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="123"/>
+      <c r="B96" s="137"/>
       <c r="C96" s="16" t="s">
         <v>110</v>
       </c>
@@ -8017,7 +7984,7 @@
       </c>
     </row>
     <row r="97" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="123"/>
+      <c r="B97" s="137"/>
       <c r="C97" s="16" t="s">
         <v>93</v>
       </c>
@@ -8074,7 +8041,7 @@
       <c r="W97" s="90"/>
     </row>
     <row r="98" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="123"/>
+      <c r="B98" s="137"/>
       <c r="C98" s="16" t="s">
         <v>94</v>
       </c>
@@ -8139,7 +8106,7 @@
       </c>
     </row>
     <row r="99" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="123"/>
+      <c r="B99" s="137"/>
       <c r="C99" s="16" t="s">
         <v>95</v>
       </c>
@@ -8204,7 +8171,7 @@
       </c>
     </row>
     <row r="100" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="123"/>
+      <c r="B100" s="137"/>
       <c r="C100" s="16" t="s">
         <v>96</v>
       </c>
@@ -8261,7 +8228,7 @@
       <c r="W100" s="90"/>
     </row>
     <row r="101" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="124"/>
+      <c r="B101" s="138"/>
       <c r="C101" s="16" t="s">
         <v>97</v>
       </c>
@@ -8339,7 +8306,7 @@
       </c>
       <c r="I102" s="29">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>3.73</v>
       </c>
       <c r="J102" s="46">
         <v>0</v>
@@ -8374,7 +8341,9 @@
       <c r="T102" s="88">
         <v>0.4</v>
       </c>
-      <c r="U102" s="18"/>
+      <c r="U102" s="88">
+        <v>3.33</v>
+      </c>
       <c r="V102" s="18"/>
       <c r="W102" s="26"/>
     </row>
@@ -8574,21 +8543,21 @@
       </c>
     </row>
     <row r="106" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="138" t="s">
+      <c r="B106" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="139"/>
-      <c r="D106" s="139"/>
-      <c r="E106" s="139"/>
-      <c r="F106" s="139"/>
-      <c r="G106" s="139"/>
+      <c r="C106" s="130"/>
+      <c r="D106" s="130"/>
+      <c r="E106" s="130"/>
+      <c r="F106" s="130"/>
+      <c r="G106" s="130"/>
       <c r="H106" s="25">
         <f t="shared" ref="H106:W106" si="2">SUM(H4:H105)</f>
         <v>34.550000000000004</v>
       </c>
       <c r="I106" s="13">
         <f t="shared" si="2"/>
-        <v>26.928999999999998</v>
+        <v>30.259</v>
       </c>
       <c r="J106" s="109">
         <f t="shared" si="2"/>
@@ -8636,7 +8605,7 @@
       </c>
       <c r="U106" s="110">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.33</v>
       </c>
       <c r="V106" s="110">
         <f t="shared" si="2"/>
@@ -8656,22 +8625,22 @@
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
-      <c r="J107" s="126" t="s">
+      <c r="J107" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="K107" s="127"/>
-      <c r="L107" s="127"/>
-      <c r="M107" s="127"/>
-      <c r="N107" s="127"/>
-      <c r="O107" s="127"/>
-      <c r="P107" s="127"/>
-      <c r="Q107" s="127"/>
-      <c r="R107" s="127"/>
-      <c r="S107" s="127"/>
-      <c r="T107" s="127"/>
-      <c r="U107" s="127"/>
-      <c r="V107" s="127"/>
-      <c r="W107" s="128"/>
+      <c r="K107" s="117"/>
+      <c r="L107" s="117"/>
+      <c r="M107" s="117"/>
+      <c r="N107" s="117"/>
+      <c r="O107" s="117"/>
+      <c r="P107" s="117"/>
+      <c r="Q107" s="117"/>
+      <c r="R107" s="117"/>
+      <c r="S107" s="117"/>
+      <c r="T107" s="117"/>
+      <c r="U107" s="117"/>
+      <c r="V107" s="117"/>
+      <c r="W107" s="118"/>
     </row>
     <row r="108" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="2"/>
@@ -8699,7 +8668,7 @@
       <c r="H109" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="I109" s="125"/>
+      <c r="I109" s="139"/>
       <c r="J109" s="12">
         <f>H106-J106</f>
         <v>34.550000000000004</v>
@@ -8746,15 +8715,15 @@
       </c>
       <c r="U109" s="12">
         <f t="shared" si="3"/>
-        <v>7.6209999999999969</v>
+        <v>4.2909999999999968</v>
       </c>
       <c r="V109" s="12">
         <f t="shared" si="3"/>
-        <v>7.6209999999999969</v>
+        <v>4.2909999999999968</v>
       </c>
       <c r="W109" s="12">
         <f t="shared" si="3"/>
-        <v>7.6209999999999969</v>
+        <v>4.2909999999999968</v>
       </c>
     </row>
     <row r="110" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8783,7 +8752,7 @@
       <c r="I111" s="114"/>
       <c r="J111" s="113">
         <f>H106-I106</f>
-        <v>7.6210000000000058</v>
+        <v>4.2910000000000039</v>
       </c>
       <c r="K111" s="114"/>
       <c r="L111" s="114"/>
@@ -8885,6 +8854,13 @@
     <row r="130" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="J111:W111"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B73:B92"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="B93:B101"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H111:I111"/>
     <mergeCell ref="J2:W2"/>
     <mergeCell ref="J107:W107"/>
     <mergeCell ref="B14:B63"/>
@@ -8893,13 +8869,6 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B106:G106"/>
-    <mergeCell ref="J111:W111"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B73:B92"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="B93:B101"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H111:I111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8908,7 +8877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8920,7 +8889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Enti\MAP\The_Legend_of_Radev\MAP_LegendOfRadev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\MAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -1063,7 +1063,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1144,8 +1144,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1372,6 +1370,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1405,9 +1433,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1417,32 +1442,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1464,7 +1471,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1534,16 +1541,16 @@
                   <c:v>8.0209999999999972</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.6209999999999969</c:v>
+                  <c:v>6.8709999999999969</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.2909999999999968</c:v>
+                  <c:v>3.5409999999999968</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.2909999999999968</c:v>
+                  <c:v>3.5409999999999968</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.2909999999999968</c:v>
+                  <c:v>3.5409999999999968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1604,7 +1611,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1661,7 +1667,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1736,6 +1742,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1771,6 +1794,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1949,11 +1989,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V101" sqref="V101"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
@@ -1979,164 +2019,164 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="113" t="s">
+      <c r="J2" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="115"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="113"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="82" t="s">
+      <c r="C3" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="84">
+      <c r="J3" s="82">
         <v>43040</v>
       </c>
-      <c r="K3" s="80">
+      <c r="K3" s="78">
         <v>43041</v>
       </c>
-      <c r="L3" s="79">
+      <c r="L3" s="77">
         <v>43042</v>
       </c>
-      <c r="M3" s="80">
+      <c r="M3" s="78">
         <v>43043</v>
       </c>
-      <c r="N3" s="79">
+      <c r="N3" s="77">
         <v>43044</v>
       </c>
-      <c r="O3" s="80">
+      <c r="O3" s="78">
         <v>43045</v>
       </c>
-      <c r="P3" s="79">
+      <c r="P3" s="77">
         <v>43046</v>
       </c>
-      <c r="Q3" s="80">
+      <c r="Q3" s="78">
         <v>43047</v>
       </c>
-      <c r="R3" s="79">
+      <c r="R3" s="77">
         <v>43048</v>
       </c>
-      <c r="S3" s="80">
+      <c r="S3" s="78">
         <v>43049</v>
       </c>
-      <c r="T3" s="79">
+      <c r="T3" s="77">
         <v>43050</v>
       </c>
-      <c r="U3" s="80">
+      <c r="U3" s="78">
         <v>43051</v>
       </c>
-      <c r="V3" s="79">
+      <c r="V3" s="77">
         <v>43052</v>
       </c>
-      <c r="W3" s="80">
+      <c r="W3" s="78">
         <v>43053</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="50">
         <v>3</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="52">
         <v>0.25</v>
       </c>
       <c r="I4" s="29">
         <f>SUM(J4:W4)</f>
         <v>0.05</v>
       </c>
-      <c r="J4" s="59">
-        <v>0</v>
-      </c>
-      <c r="K4" s="55">
-        <v>0</v>
-      </c>
-      <c r="L4" s="55">
-        <v>0</v>
-      </c>
-      <c r="M4" s="55">
-        <v>0</v>
-      </c>
-      <c r="N4" s="55">
-        <v>0</v>
-      </c>
-      <c r="O4" s="55">
-        <v>0</v>
-      </c>
-      <c r="P4" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="70">
+      <c r="J4" s="57">
+        <v>0</v>
+      </c>
+      <c r="K4" s="53">
+        <v>0</v>
+      </c>
+      <c r="L4" s="53">
+        <v>0</v>
+      </c>
+      <c r="M4" s="53">
+        <v>0</v>
+      </c>
+      <c r="N4" s="53">
+        <v>0</v>
+      </c>
+      <c r="O4" s="53">
+        <v>0</v>
+      </c>
+      <c r="P4" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="68">
         <v>0.05</v>
       </c>
-      <c r="R4" s="73">
-        <v>0</v>
-      </c>
-      <c r="S4" s="73">
-        <v>0</v>
-      </c>
-      <c r="T4" s="73">
-        <v>0</v>
-      </c>
-      <c r="U4" s="73">
-        <v>0</v>
-      </c>
-      <c r="V4" s="73">
-        <v>0</v>
-      </c>
-      <c r="W4" s="74">
+      <c r="R4" s="71">
+        <v>0</v>
+      </c>
+      <c r="S4" s="71">
+        <v>0</v>
+      </c>
+      <c r="T4" s="71">
+        <v>0</v>
+      </c>
+      <c r="U4" s="71">
+        <v>0</v>
+      </c>
+      <c r="V4" s="71">
+        <v>0</v>
+      </c>
+      <c r="W4" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="125"/>
-      <c r="C5" s="127" t="s">
+      <c r="B5" s="133"/>
+      <c r="C5" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="67" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -2145,7 +2185,7 @@
       <c r="F5" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="69">
+      <c r="G5" s="67">
         <v>3</v>
       </c>
       <c r="H5" s="22">
@@ -2155,52 +2195,52 @@
         <f t="shared" ref="I5:I53" si="0">SUM(J5:W5)</f>
         <v>0.5</v>
       </c>
-      <c r="J5" s="60">
-        <v>0</v>
-      </c>
-      <c r="K5" s="46">
-        <v>0</v>
-      </c>
-      <c r="L5" s="46">
-        <v>0</v>
-      </c>
-      <c r="M5" s="46">
-        <v>0</v>
-      </c>
-      <c r="N5" s="46">
-        <v>0</v>
-      </c>
-      <c r="O5" s="46">
-        <v>0</v>
-      </c>
-      <c r="P5" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="71">
+      <c r="J5" s="58">
+        <v>0</v>
+      </c>
+      <c r="K5" s="44">
+        <v>0</v>
+      </c>
+      <c r="L5" s="44">
+        <v>0</v>
+      </c>
+      <c r="M5" s="44">
+        <v>0</v>
+      </c>
+      <c r="N5" s="44">
+        <v>0</v>
+      </c>
+      <c r="O5" s="44">
+        <v>0</v>
+      </c>
+      <c r="P5" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="69">
         <v>0.5</v>
       </c>
-      <c r="R5" s="75">
-        <v>0</v>
-      </c>
-      <c r="S5" s="75">
-        <v>0</v>
-      </c>
-      <c r="T5" s="75">
-        <v>0</v>
-      </c>
-      <c r="U5" s="75">
-        <v>0</v>
-      </c>
-      <c r="V5" s="75">
-        <v>0</v>
-      </c>
-      <c r="W5" s="76">
+      <c r="R5" s="73">
+        <v>0</v>
+      </c>
+      <c r="S5" s="73">
+        <v>0</v>
+      </c>
+      <c r="T5" s="73">
+        <v>0</v>
+      </c>
+      <c r="U5" s="73">
+        <v>0</v>
+      </c>
+      <c r="V5" s="73">
+        <v>0</v>
+      </c>
+      <c r="W5" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="125"/>
-      <c r="C6" s="128"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="135"/>
       <c r="D6" s="15" t="s">
         <v>20</v>
       </c>
@@ -2210,7 +2250,7 @@
       <c r="F6" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="69">
+      <c r="G6" s="67">
         <v>3</v>
       </c>
       <c r="H6" s="22">
@@ -2220,51 +2260,51 @@
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="J6" s="60">
-        <v>0</v>
-      </c>
-      <c r="K6" s="46">
-        <v>0</v>
-      </c>
-      <c r="L6" s="46">
-        <v>0</v>
-      </c>
-      <c r="M6" s="46">
-        <v>0</v>
-      </c>
-      <c r="N6" s="46">
-        <v>0</v>
-      </c>
-      <c r="O6" s="46">
-        <v>0</v>
-      </c>
-      <c r="P6" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="71">
+      <c r="J6" s="58">
+        <v>0</v>
+      </c>
+      <c r="K6" s="44">
+        <v>0</v>
+      </c>
+      <c r="L6" s="44">
+        <v>0</v>
+      </c>
+      <c r="M6" s="44">
+        <v>0</v>
+      </c>
+      <c r="N6" s="44">
+        <v>0</v>
+      </c>
+      <c r="O6" s="44">
+        <v>0</v>
+      </c>
+      <c r="P6" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="69">
         <v>0.1</v>
       </c>
-      <c r="R6" s="75">
-        <v>0</v>
-      </c>
-      <c r="S6" s="75">
-        <v>0</v>
-      </c>
-      <c r="T6" s="75">
-        <v>0</v>
-      </c>
-      <c r="U6" s="75">
-        <v>0</v>
-      </c>
-      <c r="V6" s="75">
-        <v>0</v>
-      </c>
-      <c r="W6" s="76">
+      <c r="R6" s="73">
+        <v>0</v>
+      </c>
+      <c r="S6" s="73">
+        <v>0</v>
+      </c>
+      <c r="T6" s="73">
+        <v>0</v>
+      </c>
+      <c r="U6" s="73">
+        <v>0</v>
+      </c>
+      <c r="V6" s="73">
+        <v>0</v>
+      </c>
+      <c r="W6" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="125"/>
+      <c r="B7" s="133"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
@@ -2275,7 +2315,7 @@
       <c r="F7" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="67">
         <v>3</v>
       </c>
       <c r="H7" s="22">
@@ -2285,62 +2325,62 @@
         <f t="shared" si="0"/>
         <v>0.68700000000000006</v>
       </c>
-      <c r="J7" s="60">
-        <v>0</v>
-      </c>
-      <c r="K7" s="46">
-        <v>0</v>
-      </c>
-      <c r="L7" s="46">
-        <v>0</v>
-      </c>
-      <c r="M7" s="46">
-        <v>0</v>
-      </c>
-      <c r="N7" s="46">
-        <v>0</v>
-      </c>
-      <c r="O7" s="46">
-        <v>0</v>
-      </c>
-      <c r="P7" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="71">
+      <c r="J7" s="58">
+        <v>0</v>
+      </c>
+      <c r="K7" s="44">
+        <v>0</v>
+      </c>
+      <c r="L7" s="44">
+        <v>0</v>
+      </c>
+      <c r="M7" s="44">
+        <v>0</v>
+      </c>
+      <c r="N7" s="44">
+        <v>0</v>
+      </c>
+      <c r="O7" s="44">
+        <v>0</v>
+      </c>
+      <c r="P7" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="69">
         <v>0.68700000000000006</v>
       </c>
-      <c r="R7" s="75">
-        <v>0</v>
-      </c>
-      <c r="S7" s="75">
-        <v>0</v>
-      </c>
-      <c r="T7" s="75">
-        <v>0</v>
-      </c>
-      <c r="U7" s="75">
-        <v>0</v>
-      </c>
-      <c r="V7" s="75">
-        <v>0</v>
-      </c>
-      <c r="W7" s="76">
+      <c r="R7" s="73">
+        <v>0</v>
+      </c>
+      <c r="S7" s="73">
+        <v>0</v>
+      </c>
+      <c r="T7" s="73">
+        <v>0</v>
+      </c>
+      <c r="U7" s="73">
+        <v>0</v>
+      </c>
+      <c r="V7" s="73">
+        <v>0</v>
+      </c>
+      <c r="W7" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="125"/>
-      <c r="C8" s="68" t="s">
+      <c r="B8" s="133"/>
+      <c r="C8" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="68"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="69">
+      <c r="G8" s="67">
         <v>3</v>
       </c>
       <c r="H8" s="22">
@@ -2350,175 +2390,183 @@
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="J8" s="60">
-        <v>0</v>
-      </c>
-      <c r="K8" s="46">
-        <v>0</v>
-      </c>
-      <c r="L8" s="46">
-        <v>0</v>
-      </c>
-      <c r="M8" s="46">
-        <v>0</v>
-      </c>
-      <c r="N8" s="46">
-        <v>0</v>
-      </c>
-      <c r="O8" s="46">
-        <v>0</v>
-      </c>
-      <c r="P8" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="71">
+      <c r="J8" s="58">
+        <v>0</v>
+      </c>
+      <c r="K8" s="44">
+        <v>0</v>
+      </c>
+      <c r="L8" s="44">
+        <v>0</v>
+      </c>
+      <c r="M8" s="44">
+        <v>0</v>
+      </c>
+      <c r="N8" s="44">
+        <v>0</v>
+      </c>
+      <c r="O8" s="44">
+        <v>0</v>
+      </c>
+      <c r="P8" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="69">
         <v>0.25</v>
       </c>
-      <c r="R8" s="75">
-        <v>0</v>
-      </c>
-      <c r="S8" s="75">
-        <v>0</v>
-      </c>
-      <c r="T8" s="75">
-        <v>0</v>
-      </c>
-      <c r="U8" s="75">
-        <v>0</v>
-      </c>
-      <c r="V8" s="75">
-        <v>0</v>
-      </c>
-      <c r="W8" s="76">
+      <c r="R8" s="73">
+        <v>0</v>
+      </c>
+      <c r="S8" s="73">
+        <v>0</v>
+      </c>
+      <c r="T8" s="73">
+        <v>0</v>
+      </c>
+      <c r="U8" s="73">
+        <v>0</v>
+      </c>
+      <c r="V8" s="73">
+        <v>0</v>
+      </c>
+      <c r="W8" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="126"/>
-      <c r="C9" s="34" t="s">
+      <c r="B9" s="134"/>
+      <c r="C9" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="36" t="s">
+      <c r="D9" s="32"/>
+      <c r="E9" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="33">
         <v>3</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="37">
         <v>2</v>
       </c>
-      <c r="I9" s="67">
+      <c r="I9" s="65">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="J9" s="61">
-        <v>0</v>
-      </c>
-      <c r="K9" s="47">
-        <v>0</v>
-      </c>
-      <c r="L9" s="47">
-        <v>0</v>
-      </c>
-      <c r="M9" s="47">
-        <v>0</v>
-      </c>
-      <c r="N9" s="47">
-        <v>0</v>
-      </c>
-      <c r="O9" s="47">
-        <v>0</v>
-      </c>
-      <c r="P9" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="72">
+      <c r="J9" s="59">
+        <v>0</v>
+      </c>
+      <c r="K9" s="45">
+        <v>0</v>
+      </c>
+      <c r="L9" s="45">
+        <v>0</v>
+      </c>
+      <c r="M9" s="45">
+        <v>0</v>
+      </c>
+      <c r="N9" s="45">
+        <v>0</v>
+      </c>
+      <c r="O9" s="45">
+        <v>0</v>
+      </c>
+      <c r="P9" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="70">
         <v>0.4</v>
       </c>
-      <c r="R9" s="77">
-        <v>0</v>
-      </c>
-      <c r="S9" s="77">
-        <v>0</v>
-      </c>
-      <c r="T9" s="77">
-        <v>0</v>
-      </c>
-      <c r="U9" s="77">
-        <v>0</v>
-      </c>
-      <c r="V9" s="77">
-        <v>0</v>
-      </c>
-      <c r="W9" s="78">
+      <c r="R9" s="75">
+        <v>0</v>
+      </c>
+      <c r="S9" s="75">
+        <v>0</v>
+      </c>
+      <c r="T9" s="75">
+        <v>0</v>
+      </c>
+      <c r="U9" s="75">
+        <v>0</v>
+      </c>
+      <c r="V9" s="75">
+        <v>0</v>
+      </c>
+      <c r="W9" s="76">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="122" t="s">
+      <c r="B10" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="69"/>
+      <c r="D10" s="67"/>
       <c r="E10" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G10" s="69">
+      <c r="G10" s="67">
         <v>3</v>
       </c>
       <c r="H10" s="22">
         <v>1</v>
       </c>
-      <c r="I10" s="86">
+      <c r="I10" s="84">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="87">
-        <v>0</v>
-      </c>
-      <c r="K10" s="48">
-        <v>0</v>
-      </c>
-      <c r="L10" s="48">
-        <v>0</v>
-      </c>
-      <c r="M10" s="48">
-        <v>0</v>
-      </c>
-      <c r="N10" s="48">
-        <v>0</v>
-      </c>
-      <c r="O10" s="48">
-        <v>0</v>
-      </c>
-      <c r="P10" s="48">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="48">
-        <v>0</v>
-      </c>
-      <c r="R10" s="48">
-        <v>0</v>
-      </c>
-      <c r="S10" s="48">
-        <v>0</v>
-      </c>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="33"/>
+        <v>0.75</v>
+      </c>
+      <c r="J10" s="85">
+        <v>0</v>
+      </c>
+      <c r="K10" s="46">
+        <v>0</v>
+      </c>
+      <c r="L10" s="46">
+        <v>0</v>
+      </c>
+      <c r="M10" s="46">
+        <v>0</v>
+      </c>
+      <c r="N10" s="46">
+        <v>0</v>
+      </c>
+      <c r="O10" s="46">
+        <v>0</v>
+      </c>
+      <c r="P10" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="46">
+        <v>0</v>
+      </c>
+      <c r="R10" s="46">
+        <v>0</v>
+      </c>
+      <c r="S10" s="46">
+        <v>0</v>
+      </c>
+      <c r="T10" s="138">
+        <v>0.75</v>
+      </c>
+      <c r="U10" s="139">
+        <v>0</v>
+      </c>
+      <c r="V10" s="139">
+        <v>0</v>
+      </c>
+      <c r="W10" s="140">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="122"/>
+      <c r="B11" s="130"/>
       <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2535,38 +2583,38 @@
       <c r="H11" s="23">
         <v>0.5</v>
       </c>
-      <c r="I11" s="57">
+      <c r="I11" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="60">
-        <v>0</v>
-      </c>
-      <c r="K11" s="46">
-        <v>0</v>
-      </c>
-      <c r="L11" s="46">
-        <v>0</v>
-      </c>
-      <c r="M11" s="46">
-        <v>0</v>
-      </c>
-      <c r="N11" s="46">
-        <v>0</v>
-      </c>
-      <c r="O11" s="46">
-        <v>0</v>
-      </c>
-      <c r="P11" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="46">
-        <v>0</v>
-      </c>
-      <c r="R11" s="46">
-        <v>0</v>
-      </c>
-      <c r="S11" s="46">
+      <c r="J11" s="58">
+        <v>0</v>
+      </c>
+      <c r="K11" s="44">
+        <v>0</v>
+      </c>
+      <c r="L11" s="44">
+        <v>0</v>
+      </c>
+      <c r="M11" s="44">
+        <v>0</v>
+      </c>
+      <c r="N11" s="44">
+        <v>0</v>
+      </c>
+      <c r="O11" s="44">
+        <v>0</v>
+      </c>
+      <c r="P11" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="44">
+        <v>0</v>
+      </c>
+      <c r="R11" s="44">
+        <v>0</v>
+      </c>
+      <c r="S11" s="44">
         <v>0</v>
       </c>
       <c r="T11" s="18"/>
@@ -2575,57 +2623,57 @@
       <c r="W11" s="26"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="122"/>
-      <c r="C12" s="127" t="s">
+      <c r="B12" s="130"/>
+      <c r="C12" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="39" t="s">
         <v>103</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="43">
         <v>4</v>
       </c>
       <c r="H12" s="24">
         <v>2</v>
       </c>
-      <c r="I12" s="57">
+      <c r="I12" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="60">
-        <v>0</v>
-      </c>
-      <c r="K12" s="46">
-        <v>0</v>
-      </c>
-      <c r="L12" s="46">
-        <v>0</v>
-      </c>
-      <c r="M12" s="46">
-        <v>0</v>
-      </c>
-      <c r="N12" s="46">
-        <v>0</v>
-      </c>
-      <c r="O12" s="46">
-        <v>0</v>
-      </c>
-      <c r="P12" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="46">
-        <v>0</v>
-      </c>
-      <c r="R12" s="46">
-        <v>0</v>
-      </c>
-      <c r="S12" s="46">
+      <c r="J12" s="58">
+        <v>0</v>
+      </c>
+      <c r="K12" s="44">
+        <v>0</v>
+      </c>
+      <c r="L12" s="44">
+        <v>0</v>
+      </c>
+      <c r="M12" s="44">
+        <v>0</v>
+      </c>
+      <c r="N12" s="44">
+        <v>0</v>
+      </c>
+      <c r="O12" s="44">
+        <v>0</v>
+      </c>
+      <c r="P12" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="44">
+        <v>0</v>
+      </c>
+      <c r="R12" s="44">
+        <v>0</v>
+      </c>
+      <c r="S12" s="44">
         <v>0</v>
       </c>
       <c r="T12" s="21"/>
@@ -2634,55 +2682,55 @@
       <c r="W12" s="28"/>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="123"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="35" t="s">
+      <c r="B13" s="131"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="33">
         <v>4</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="35">
         <v>2</v>
       </c>
-      <c r="I13" s="58">
+      <c r="I13" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="94">
-        <v>0</v>
-      </c>
-      <c r="K13" s="95">
-        <v>0</v>
-      </c>
-      <c r="L13" s="95">
-        <v>0</v>
-      </c>
-      <c r="M13" s="95">
-        <v>0</v>
-      </c>
-      <c r="N13" s="95">
-        <v>0</v>
-      </c>
-      <c r="O13" s="95">
-        <v>0</v>
-      </c>
-      <c r="P13" s="95">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="95">
-        <v>0</v>
-      </c>
-      <c r="R13" s="95">
-        <v>0</v>
-      </c>
-      <c r="S13" s="95">
+      <c r="J13" s="92">
+        <v>0</v>
+      </c>
+      <c r="K13" s="93">
+        <v>0</v>
+      </c>
+      <c r="L13" s="93">
+        <v>0</v>
+      </c>
+      <c r="M13" s="93">
+        <v>0</v>
+      </c>
+      <c r="N13" s="93">
+        <v>0</v>
+      </c>
+      <c r="O13" s="93">
+        <v>0</v>
+      </c>
+      <c r="P13" s="93">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="93">
+        <v>0</v>
+      </c>
+      <c r="R13" s="93">
+        <v>0</v>
+      </c>
+      <c r="S13" s="93">
         <v>0</v>
       </c>
       <c r="T13" s="21"/>
@@ -2691,7 +2739,7 @@
       <c r="W13" s="28"/>
     </row>
     <row r="14" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="127" t="s">
         <v>114</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -2714,51 +2762,51 @@
         <f t="shared" si="0"/>
         <v>1.62</v>
       </c>
-      <c r="J14" s="55">
-        <v>0</v>
-      </c>
-      <c r="K14" s="97">
-        <v>0</v>
-      </c>
-      <c r="L14" s="97">
-        <v>0</v>
-      </c>
-      <c r="M14" s="97">
-        <v>0</v>
-      </c>
-      <c r="N14" s="97">
-        <v>0</v>
-      </c>
-      <c r="O14" s="97">
-        <v>0</v>
-      </c>
-      <c r="P14" s="93">
+      <c r="J14" s="53">
+        <v>0</v>
+      </c>
+      <c r="K14" s="95">
+        <v>0</v>
+      </c>
+      <c r="L14" s="95">
+        <v>0</v>
+      </c>
+      <c r="M14" s="95">
+        <v>0</v>
+      </c>
+      <c r="N14" s="95">
+        <v>0</v>
+      </c>
+      <c r="O14" s="95">
+        <v>0</v>
+      </c>
+      <c r="P14" s="91">
         <v>1.62</v>
       </c>
-      <c r="Q14" s="93">
-        <v>0</v>
-      </c>
-      <c r="R14" s="93">
-        <v>0</v>
-      </c>
-      <c r="S14" s="93">
-        <v>0</v>
-      </c>
-      <c r="T14" s="93">
-        <v>0</v>
-      </c>
-      <c r="U14" s="93">
-        <v>0</v>
-      </c>
-      <c r="V14" s="93">
-        <v>0</v>
-      </c>
-      <c r="W14" s="98">
+      <c r="Q14" s="91">
+        <v>0</v>
+      </c>
+      <c r="R14" s="91">
+        <v>0</v>
+      </c>
+      <c r="S14" s="91">
+        <v>0</v>
+      </c>
+      <c r="T14" s="91">
+        <v>0</v>
+      </c>
+      <c r="U14" s="91">
+        <v>0</v>
+      </c>
+      <c r="V14" s="91">
+        <v>0</v>
+      </c>
+      <c r="W14" s="96">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="119"/>
+      <c r="B15" s="127"/>
       <c r="C15" s="4" t="s">
         <v>26</v>
       </c>
@@ -2779,51 +2827,51 @@
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="J15" s="46">
-        <v>0</v>
-      </c>
-      <c r="K15" s="96">
-        <v>0</v>
-      </c>
-      <c r="L15" s="96">
-        <v>0</v>
-      </c>
-      <c r="M15" s="96">
-        <v>0</v>
-      </c>
-      <c r="N15" s="96">
-        <v>0</v>
-      </c>
-      <c r="O15" s="96">
-        <v>0</v>
-      </c>
-      <c r="P15" s="51">
+      <c r="J15" s="44">
+        <v>0</v>
+      </c>
+      <c r="K15" s="94">
+        <v>0</v>
+      </c>
+      <c r="L15" s="94">
+        <v>0</v>
+      </c>
+      <c r="M15" s="94">
+        <v>0</v>
+      </c>
+      <c r="N15" s="94">
+        <v>0</v>
+      </c>
+      <c r="O15" s="94">
+        <v>0</v>
+      </c>
+      <c r="P15" s="49">
         <v>0.1</v>
       </c>
-      <c r="Q15" s="51">
-        <v>0</v>
-      </c>
-      <c r="R15" s="51">
-        <v>0</v>
-      </c>
-      <c r="S15" s="51">
-        <v>0</v>
-      </c>
-      <c r="T15" s="51">
-        <v>0</v>
-      </c>
-      <c r="U15" s="51">
-        <v>0</v>
-      </c>
-      <c r="V15" s="51">
-        <v>0</v>
-      </c>
-      <c r="W15" s="66">
+      <c r="Q15" s="49">
+        <v>0</v>
+      </c>
+      <c r="R15" s="49">
+        <v>0</v>
+      </c>
+      <c r="S15" s="49">
+        <v>0</v>
+      </c>
+      <c r="T15" s="49">
+        <v>0</v>
+      </c>
+      <c r="U15" s="49">
+        <v>0</v>
+      </c>
+      <c r="V15" s="49">
+        <v>0</v>
+      </c>
+      <c r="W15" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="119"/>
+      <c r="B16" s="127"/>
       <c r="C16" s="4" t="s">
         <v>28</v>
       </c>
@@ -2844,51 +2892,51 @@
         <f t="shared" si="0"/>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="J16" s="46">
-        <v>0</v>
-      </c>
-      <c r="K16" s="96">
-        <v>0</v>
-      </c>
-      <c r="L16" s="96">
-        <v>0</v>
-      </c>
-      <c r="M16" s="96">
-        <v>0</v>
-      </c>
-      <c r="N16" s="96">
-        <v>0</v>
-      </c>
-      <c r="O16" s="96">
-        <v>0</v>
-      </c>
-      <c r="P16" s="51">
+      <c r="J16" s="44">
+        <v>0</v>
+      </c>
+      <c r="K16" s="94">
+        <v>0</v>
+      </c>
+      <c r="L16" s="94">
+        <v>0</v>
+      </c>
+      <c r="M16" s="94">
+        <v>0</v>
+      </c>
+      <c r="N16" s="94">
+        <v>0</v>
+      </c>
+      <c r="O16" s="94">
+        <v>0</v>
+      </c>
+      <c r="P16" s="49">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="Q16" s="51">
-        <v>0</v>
-      </c>
-      <c r="R16" s="51">
-        <v>0</v>
-      </c>
-      <c r="S16" s="51">
-        <v>0</v>
-      </c>
-      <c r="T16" s="51">
-        <v>0</v>
-      </c>
-      <c r="U16" s="51">
-        <v>0</v>
-      </c>
-      <c r="V16" s="51">
-        <v>0</v>
-      </c>
-      <c r="W16" s="66">
+      <c r="Q16" s="49">
+        <v>0</v>
+      </c>
+      <c r="R16" s="49">
+        <v>0</v>
+      </c>
+      <c r="S16" s="49">
+        <v>0</v>
+      </c>
+      <c r="T16" s="49">
+        <v>0</v>
+      </c>
+      <c r="U16" s="49">
+        <v>0</v>
+      </c>
+      <c r="V16" s="49">
+        <v>0</v>
+      </c>
+      <c r="W16" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="119"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
@@ -2909,51 +2957,51 @@
         <f t="shared" si="0"/>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="J17" s="46">
-        <v>0</v>
-      </c>
-      <c r="K17" s="96">
-        <v>0</v>
-      </c>
-      <c r="L17" s="96">
-        <v>0</v>
-      </c>
-      <c r="M17" s="96">
-        <v>0</v>
-      </c>
-      <c r="N17" s="96">
-        <v>0</v>
-      </c>
-      <c r="O17" s="96">
-        <v>0</v>
-      </c>
-      <c r="P17" s="51">
+      <c r="J17" s="44">
+        <v>0</v>
+      </c>
+      <c r="K17" s="94">
+        <v>0</v>
+      </c>
+      <c r="L17" s="94">
+        <v>0</v>
+      </c>
+      <c r="M17" s="94">
+        <v>0</v>
+      </c>
+      <c r="N17" s="94">
+        <v>0</v>
+      </c>
+      <c r="O17" s="94">
+        <v>0</v>
+      </c>
+      <c r="P17" s="49">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="Q17" s="51">
-        <v>0</v>
-      </c>
-      <c r="R17" s="51">
-        <v>0</v>
-      </c>
-      <c r="S17" s="51">
-        <v>0</v>
-      </c>
-      <c r="T17" s="51">
-        <v>0</v>
-      </c>
-      <c r="U17" s="51">
-        <v>0</v>
-      </c>
-      <c r="V17" s="51">
-        <v>0</v>
-      </c>
-      <c r="W17" s="66">
+      <c r="Q17" s="49">
+        <v>0</v>
+      </c>
+      <c r="R17" s="49">
+        <v>0</v>
+      </c>
+      <c r="S17" s="49">
+        <v>0</v>
+      </c>
+      <c r="T17" s="49">
+        <v>0</v>
+      </c>
+      <c r="U17" s="49">
+        <v>0</v>
+      </c>
+      <c r="V17" s="49">
+        <v>0</v>
+      </c>
+      <c r="W17" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="119"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
@@ -2974,51 +3022,51 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="J18" s="46">
-        <v>0</v>
-      </c>
-      <c r="K18" s="96">
-        <v>0</v>
-      </c>
-      <c r="L18" s="96">
-        <v>0</v>
-      </c>
-      <c r="M18" s="96">
-        <v>0</v>
-      </c>
-      <c r="N18" s="96">
-        <v>0</v>
-      </c>
-      <c r="O18" s="96">
-        <v>0</v>
-      </c>
-      <c r="P18" s="51">
+      <c r="J18" s="44">
+        <v>0</v>
+      </c>
+      <c r="K18" s="94">
+        <v>0</v>
+      </c>
+      <c r="L18" s="94">
+        <v>0</v>
+      </c>
+      <c r="M18" s="94">
+        <v>0</v>
+      </c>
+      <c r="N18" s="94">
+        <v>0</v>
+      </c>
+      <c r="O18" s="94">
+        <v>0</v>
+      </c>
+      <c r="P18" s="49">
         <v>0.05</v>
       </c>
-      <c r="Q18" s="51">
-        <v>0</v>
-      </c>
-      <c r="R18" s="51">
-        <v>0</v>
-      </c>
-      <c r="S18" s="51">
-        <v>0</v>
-      </c>
-      <c r="T18" s="51">
-        <v>0</v>
-      </c>
-      <c r="U18" s="51">
-        <v>0</v>
-      </c>
-      <c r="V18" s="51">
-        <v>0</v>
-      </c>
-      <c r="W18" s="66">
+      <c r="Q18" s="49">
+        <v>0</v>
+      </c>
+      <c r="R18" s="49">
+        <v>0</v>
+      </c>
+      <c r="S18" s="49">
+        <v>0</v>
+      </c>
+      <c r="T18" s="49">
+        <v>0</v>
+      </c>
+      <c r="U18" s="49">
+        <v>0</v>
+      </c>
+      <c r="V18" s="49">
+        <v>0</v>
+      </c>
+      <c r="W18" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="119"/>
+      <c r="B19" s="127"/>
       <c r="C19" s="4" t="s">
         <v>31</v>
       </c>
@@ -3039,51 +3087,51 @@
         <f t="shared" si="0"/>
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="J19" s="46">
-        <v>0</v>
-      </c>
-      <c r="K19" s="96">
-        <v>0</v>
-      </c>
-      <c r="L19" s="96">
-        <v>0</v>
-      </c>
-      <c r="M19" s="96">
-        <v>0</v>
-      </c>
-      <c r="N19" s="96">
-        <v>0</v>
-      </c>
-      <c r="O19" s="96">
-        <v>0</v>
-      </c>
-      <c r="P19" s="51">
+      <c r="J19" s="44">
+        <v>0</v>
+      </c>
+      <c r="K19" s="94">
+        <v>0</v>
+      </c>
+      <c r="L19" s="94">
+        <v>0</v>
+      </c>
+      <c r="M19" s="94">
+        <v>0</v>
+      </c>
+      <c r="N19" s="94">
+        <v>0</v>
+      </c>
+      <c r="O19" s="94">
+        <v>0</v>
+      </c>
+      <c r="P19" s="49">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="Q19" s="51">
-        <v>0</v>
-      </c>
-      <c r="R19" s="51">
-        <v>0</v>
-      </c>
-      <c r="S19" s="51">
-        <v>0</v>
-      </c>
-      <c r="T19" s="51">
-        <v>0</v>
-      </c>
-      <c r="U19" s="51">
-        <v>0</v>
-      </c>
-      <c r="V19" s="51">
-        <v>0</v>
-      </c>
-      <c r="W19" s="66">
+      <c r="Q19" s="49">
+        <v>0</v>
+      </c>
+      <c r="R19" s="49">
+        <v>0</v>
+      </c>
+      <c r="S19" s="49">
+        <v>0</v>
+      </c>
+      <c r="T19" s="49">
+        <v>0</v>
+      </c>
+      <c r="U19" s="49">
+        <v>0</v>
+      </c>
+      <c r="V19" s="49">
+        <v>0</v>
+      </c>
+      <c r="W19" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="119"/>
+      <c r="B20" s="127"/>
       <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
@@ -3104,51 +3152,51 @@
         <f t="shared" si="0"/>
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="J20" s="46">
-        <v>0</v>
-      </c>
-      <c r="K20" s="96">
-        <v>0</v>
-      </c>
-      <c r="L20" s="96">
-        <v>0</v>
-      </c>
-      <c r="M20" s="96">
-        <v>0</v>
-      </c>
-      <c r="N20" s="96">
-        <v>0</v>
-      </c>
-      <c r="O20" s="96">
-        <v>0</v>
-      </c>
-      <c r="P20" s="51">
+      <c r="J20" s="44">
+        <v>0</v>
+      </c>
+      <c r="K20" s="94">
+        <v>0</v>
+      </c>
+      <c r="L20" s="94">
+        <v>0</v>
+      </c>
+      <c r="M20" s="94">
+        <v>0</v>
+      </c>
+      <c r="N20" s="94">
+        <v>0</v>
+      </c>
+      <c r="O20" s="94">
+        <v>0</v>
+      </c>
+      <c r="P20" s="49">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="Q20" s="51">
-        <v>0</v>
-      </c>
-      <c r="R20" s="51">
-        <v>0</v>
-      </c>
-      <c r="S20" s="51">
-        <v>0</v>
-      </c>
-      <c r="T20" s="51">
-        <v>0</v>
-      </c>
-      <c r="U20" s="51">
-        <v>0</v>
-      </c>
-      <c r="V20" s="51">
-        <v>0</v>
-      </c>
-      <c r="W20" s="66">
+      <c r="Q20" s="49">
+        <v>0</v>
+      </c>
+      <c r="R20" s="49">
+        <v>0</v>
+      </c>
+      <c r="S20" s="49">
+        <v>0</v>
+      </c>
+      <c r="T20" s="49">
+        <v>0</v>
+      </c>
+      <c r="U20" s="49">
+        <v>0</v>
+      </c>
+      <c r="V20" s="49">
+        <v>0</v>
+      </c>
+      <c r="W20" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="119"/>
+      <c r="B21" s="127"/>
       <c r="C21" s="4" t="s">
         <v>33</v>
       </c>
@@ -3169,51 +3217,51 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="J21" s="46">
-        <v>0</v>
-      </c>
-      <c r="K21" s="96">
-        <v>0</v>
-      </c>
-      <c r="L21" s="96">
-        <v>0</v>
-      </c>
-      <c r="M21" s="96">
-        <v>0</v>
-      </c>
-      <c r="N21" s="96">
-        <v>0</v>
-      </c>
-      <c r="O21" s="96">
-        <v>0</v>
-      </c>
-      <c r="P21" s="51">
+      <c r="J21" s="44">
+        <v>0</v>
+      </c>
+      <c r="K21" s="94">
+        <v>0</v>
+      </c>
+      <c r="L21" s="94">
+        <v>0</v>
+      </c>
+      <c r="M21" s="94">
+        <v>0</v>
+      </c>
+      <c r="N21" s="94">
+        <v>0</v>
+      </c>
+      <c r="O21" s="94">
+        <v>0</v>
+      </c>
+      <c r="P21" s="49">
         <v>0.05</v>
       </c>
-      <c r="Q21" s="51">
-        <v>0</v>
-      </c>
-      <c r="R21" s="51">
-        <v>0</v>
-      </c>
-      <c r="S21" s="51">
-        <v>0</v>
-      </c>
-      <c r="T21" s="51">
-        <v>0</v>
-      </c>
-      <c r="U21" s="51">
-        <v>0</v>
-      </c>
-      <c r="V21" s="51">
-        <v>0</v>
-      </c>
-      <c r="W21" s="66">
+      <c r="Q21" s="49">
+        <v>0</v>
+      </c>
+      <c r="R21" s="49">
+        <v>0</v>
+      </c>
+      <c r="S21" s="49">
+        <v>0</v>
+      </c>
+      <c r="T21" s="49">
+        <v>0</v>
+      </c>
+      <c r="U21" s="49">
+        <v>0</v>
+      </c>
+      <c r="V21" s="49">
+        <v>0</v>
+      </c>
+      <c r="W21" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="119"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="4" t="s">
         <v>34</v>
       </c>
@@ -3234,51 +3282,51 @@
         <f t="shared" si="0"/>
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="J22" s="46">
-        <v>0</v>
-      </c>
-      <c r="K22" s="96">
-        <v>0</v>
-      </c>
-      <c r="L22" s="96">
-        <v>0</v>
-      </c>
-      <c r="M22" s="96">
-        <v>0</v>
-      </c>
-      <c r="N22" s="96">
-        <v>0</v>
-      </c>
-      <c r="O22" s="96">
-        <v>0</v>
-      </c>
-      <c r="P22" s="51">
+      <c r="J22" s="44">
+        <v>0</v>
+      </c>
+      <c r="K22" s="94">
+        <v>0</v>
+      </c>
+      <c r="L22" s="94">
+        <v>0</v>
+      </c>
+      <c r="M22" s="94">
+        <v>0</v>
+      </c>
+      <c r="N22" s="94">
+        <v>0</v>
+      </c>
+      <c r="O22" s="94">
+        <v>0</v>
+      </c>
+      <c r="P22" s="49">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="Q22" s="51">
-        <v>0</v>
-      </c>
-      <c r="R22" s="51">
-        <v>0</v>
-      </c>
-      <c r="S22" s="51">
-        <v>0</v>
-      </c>
-      <c r="T22" s="51">
-        <v>0</v>
-      </c>
-      <c r="U22" s="51">
-        <v>0</v>
-      </c>
-      <c r="V22" s="51">
-        <v>0</v>
-      </c>
-      <c r="W22" s="66">
+      <c r="Q22" s="49">
+        <v>0</v>
+      </c>
+      <c r="R22" s="49">
+        <v>0</v>
+      </c>
+      <c r="S22" s="49">
+        <v>0</v>
+      </c>
+      <c r="T22" s="49">
+        <v>0</v>
+      </c>
+      <c r="U22" s="49">
+        <v>0</v>
+      </c>
+      <c r="V22" s="49">
+        <v>0</v>
+      </c>
+      <c r="W22" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="119"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="4" t="s">
         <v>35</v>
       </c>
@@ -3299,51 +3347,51 @@
         <f t="shared" si="0"/>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="J23" s="46">
-        <v>0</v>
-      </c>
-      <c r="K23" s="96">
-        <v>0</v>
-      </c>
-      <c r="L23" s="96">
-        <v>0</v>
-      </c>
-      <c r="M23" s="96">
-        <v>0</v>
-      </c>
-      <c r="N23" s="96">
-        <v>0</v>
-      </c>
-      <c r="O23" s="96">
-        <v>0</v>
-      </c>
-      <c r="P23" s="51">
+      <c r="J23" s="44">
+        <v>0</v>
+      </c>
+      <c r="K23" s="94">
+        <v>0</v>
+      </c>
+      <c r="L23" s="94">
+        <v>0</v>
+      </c>
+      <c r="M23" s="94">
+        <v>0</v>
+      </c>
+      <c r="N23" s="94">
+        <v>0</v>
+      </c>
+      <c r="O23" s="94">
+        <v>0</v>
+      </c>
+      <c r="P23" s="49">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="Q23" s="51">
-        <v>0</v>
-      </c>
-      <c r="R23" s="51">
-        <v>0</v>
-      </c>
-      <c r="S23" s="51">
-        <v>0</v>
-      </c>
-      <c r="T23" s="51">
-        <v>0</v>
-      </c>
-      <c r="U23" s="51">
-        <v>0</v>
-      </c>
-      <c r="V23" s="51">
-        <v>0</v>
-      </c>
-      <c r="W23" s="66">
+      <c r="Q23" s="49">
+        <v>0</v>
+      </c>
+      <c r="R23" s="49">
+        <v>0</v>
+      </c>
+      <c r="S23" s="49">
+        <v>0</v>
+      </c>
+      <c r="T23" s="49">
+        <v>0</v>
+      </c>
+      <c r="U23" s="49">
+        <v>0</v>
+      </c>
+      <c r="V23" s="49">
+        <v>0</v>
+      </c>
+      <c r="W23" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="119"/>
+      <c r="B24" s="127"/>
       <c r="C24" s="4" t="s">
         <v>36</v>
       </c>
@@ -3364,51 +3412,51 @@
         <f t="shared" si="0"/>
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="J24" s="46">
-        <v>0</v>
-      </c>
-      <c r="K24" s="96">
-        <v>0</v>
-      </c>
-      <c r="L24" s="96">
-        <v>0</v>
-      </c>
-      <c r="M24" s="96">
-        <v>0</v>
-      </c>
-      <c r="N24" s="96">
-        <v>0</v>
-      </c>
-      <c r="O24" s="96">
-        <v>0</v>
-      </c>
-      <c r="P24" s="51">
+      <c r="J24" s="44">
+        <v>0</v>
+      </c>
+      <c r="K24" s="94">
+        <v>0</v>
+      </c>
+      <c r="L24" s="94">
+        <v>0</v>
+      </c>
+      <c r="M24" s="94">
+        <v>0</v>
+      </c>
+      <c r="N24" s="94">
+        <v>0</v>
+      </c>
+      <c r="O24" s="94">
+        <v>0</v>
+      </c>
+      <c r="P24" s="49">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="Q24" s="51">
-        <v>0</v>
-      </c>
-      <c r="R24" s="51">
-        <v>0</v>
-      </c>
-      <c r="S24" s="51">
-        <v>0</v>
-      </c>
-      <c r="T24" s="51">
-        <v>0</v>
-      </c>
-      <c r="U24" s="51">
-        <v>0</v>
-      </c>
-      <c r="V24" s="51">
-        <v>0</v>
-      </c>
-      <c r="W24" s="66">
+      <c r="Q24" s="49">
+        <v>0</v>
+      </c>
+      <c r="R24" s="49">
+        <v>0</v>
+      </c>
+      <c r="S24" s="49">
+        <v>0</v>
+      </c>
+      <c r="T24" s="49">
+        <v>0</v>
+      </c>
+      <c r="U24" s="49">
+        <v>0</v>
+      </c>
+      <c r="V24" s="49">
+        <v>0</v>
+      </c>
+      <c r="W24" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="119"/>
+      <c r="B25" s="127"/>
       <c r="C25" s="4" t="s">
         <v>37</v>
       </c>
@@ -3429,51 +3477,51 @@
         <f t="shared" si="0"/>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="J25" s="46">
-        <v>0</v>
-      </c>
-      <c r="K25" s="96">
-        <v>0</v>
-      </c>
-      <c r="L25" s="96">
-        <v>0</v>
-      </c>
-      <c r="M25" s="96">
-        <v>0</v>
-      </c>
-      <c r="N25" s="96">
-        <v>0</v>
-      </c>
-      <c r="O25" s="96">
-        <v>0</v>
-      </c>
-      <c r="P25" s="51">
+      <c r="J25" s="44">
+        <v>0</v>
+      </c>
+      <c r="K25" s="94">
+        <v>0</v>
+      </c>
+      <c r="L25" s="94">
+        <v>0</v>
+      </c>
+      <c r="M25" s="94">
+        <v>0</v>
+      </c>
+      <c r="N25" s="94">
+        <v>0</v>
+      </c>
+      <c r="O25" s="94">
+        <v>0</v>
+      </c>
+      <c r="P25" s="49">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="Q25" s="51">
-        <v>0</v>
-      </c>
-      <c r="R25" s="51">
-        <v>0</v>
-      </c>
-      <c r="S25" s="51">
-        <v>0</v>
-      </c>
-      <c r="T25" s="51">
-        <v>0</v>
-      </c>
-      <c r="U25" s="51">
-        <v>0</v>
-      </c>
-      <c r="V25" s="51">
-        <v>0</v>
-      </c>
-      <c r="W25" s="66">
+      <c r="Q25" s="49">
+        <v>0</v>
+      </c>
+      <c r="R25" s="49">
+        <v>0</v>
+      </c>
+      <c r="S25" s="49">
+        <v>0</v>
+      </c>
+      <c r="T25" s="49">
+        <v>0</v>
+      </c>
+      <c r="U25" s="49">
+        <v>0</v>
+      </c>
+      <c r="V25" s="49">
+        <v>0</v>
+      </c>
+      <c r="W25" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="119"/>
+      <c r="B26" s="127"/>
       <c r="C26" s="4" t="s">
         <v>38</v>
       </c>
@@ -3494,51 +3542,51 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="J26" s="46">
-        <v>0</v>
-      </c>
-      <c r="K26" s="96">
-        <v>0</v>
-      </c>
-      <c r="L26" s="96">
-        <v>0</v>
-      </c>
-      <c r="M26" s="96">
-        <v>0</v>
-      </c>
-      <c r="N26" s="96">
-        <v>0</v>
-      </c>
-      <c r="O26" s="96">
-        <v>0</v>
-      </c>
-      <c r="P26" s="51">
+      <c r="J26" s="44">
+        <v>0</v>
+      </c>
+      <c r="K26" s="94">
+        <v>0</v>
+      </c>
+      <c r="L26" s="94">
+        <v>0</v>
+      </c>
+      <c r="M26" s="94">
+        <v>0</v>
+      </c>
+      <c r="N26" s="94">
+        <v>0</v>
+      </c>
+      <c r="O26" s="94">
+        <v>0</v>
+      </c>
+      <c r="P26" s="49">
         <v>0.05</v>
       </c>
-      <c r="Q26" s="51">
-        <v>0</v>
-      </c>
-      <c r="R26" s="51">
-        <v>0</v>
-      </c>
-      <c r="S26" s="51">
-        <v>0</v>
-      </c>
-      <c r="T26" s="51">
-        <v>0</v>
-      </c>
-      <c r="U26" s="51">
-        <v>0</v>
-      </c>
-      <c r="V26" s="51">
-        <v>0</v>
-      </c>
-      <c r="W26" s="66">
+      <c r="Q26" s="49">
+        <v>0</v>
+      </c>
+      <c r="R26" s="49">
+        <v>0</v>
+      </c>
+      <c r="S26" s="49">
+        <v>0</v>
+      </c>
+      <c r="T26" s="49">
+        <v>0</v>
+      </c>
+      <c r="U26" s="49">
+        <v>0</v>
+      </c>
+      <c r="V26" s="49">
+        <v>0</v>
+      </c>
+      <c r="W26" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="119"/>
+      <c r="B27" s="127"/>
       <c r="C27" s="4" t="s">
         <v>39</v>
       </c>
@@ -3559,51 +3607,51 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="J27" s="46">
-        <v>0</v>
-      </c>
-      <c r="K27" s="96">
-        <v>0</v>
-      </c>
-      <c r="L27" s="96">
-        <v>0</v>
-      </c>
-      <c r="M27" s="96">
-        <v>0</v>
-      </c>
-      <c r="N27" s="96">
-        <v>0</v>
-      </c>
-      <c r="O27" s="96">
-        <v>0</v>
-      </c>
-      <c r="P27" s="51">
+      <c r="J27" s="44">
+        <v>0</v>
+      </c>
+      <c r="K27" s="94">
+        <v>0</v>
+      </c>
+      <c r="L27" s="94">
+        <v>0</v>
+      </c>
+      <c r="M27" s="94">
+        <v>0</v>
+      </c>
+      <c r="N27" s="94">
+        <v>0</v>
+      </c>
+      <c r="O27" s="94">
+        <v>0</v>
+      </c>
+      <c r="P27" s="49">
         <v>0.05</v>
       </c>
-      <c r="Q27" s="51">
-        <v>0</v>
-      </c>
-      <c r="R27" s="51">
-        <v>0</v>
-      </c>
-      <c r="S27" s="51">
-        <v>0</v>
-      </c>
-      <c r="T27" s="51">
-        <v>0</v>
-      </c>
-      <c r="U27" s="51">
-        <v>0</v>
-      </c>
-      <c r="V27" s="51">
-        <v>0</v>
-      </c>
-      <c r="W27" s="66">
+      <c r="Q27" s="49">
+        <v>0</v>
+      </c>
+      <c r="R27" s="49">
+        <v>0</v>
+      </c>
+      <c r="S27" s="49">
+        <v>0</v>
+      </c>
+      <c r="T27" s="49">
+        <v>0</v>
+      </c>
+      <c r="U27" s="49">
+        <v>0</v>
+      </c>
+      <c r="V27" s="49">
+        <v>0</v>
+      </c>
+      <c r="W27" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="119"/>
+      <c r="B28" s="127"/>
       <c r="C28" s="4" t="s">
         <v>40</v>
       </c>
@@ -3624,51 +3672,51 @@
         <f t="shared" si="0"/>
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="J28" s="46">
-        <v>0</v>
-      </c>
-      <c r="K28" s="96">
-        <v>0</v>
-      </c>
-      <c r="L28" s="96">
-        <v>0</v>
-      </c>
-      <c r="M28" s="96">
-        <v>0</v>
-      </c>
-      <c r="N28" s="96">
-        <v>0</v>
-      </c>
-      <c r="O28" s="96">
-        <v>0</v>
-      </c>
-      <c r="P28" s="51">
+      <c r="J28" s="44">
+        <v>0</v>
+      </c>
+      <c r="K28" s="94">
+        <v>0</v>
+      </c>
+      <c r="L28" s="94">
+        <v>0</v>
+      </c>
+      <c r="M28" s="94">
+        <v>0</v>
+      </c>
+      <c r="N28" s="94">
+        <v>0</v>
+      </c>
+      <c r="O28" s="94">
+        <v>0</v>
+      </c>
+      <c r="P28" s="49">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="Q28" s="51">
-        <v>0</v>
-      </c>
-      <c r="R28" s="51">
-        <v>0</v>
-      </c>
-      <c r="S28" s="51">
-        <v>0</v>
-      </c>
-      <c r="T28" s="51">
-        <v>0</v>
-      </c>
-      <c r="U28" s="51">
-        <v>0</v>
-      </c>
-      <c r="V28" s="51">
-        <v>0</v>
-      </c>
-      <c r="W28" s="66">
+      <c r="Q28" s="49">
+        <v>0</v>
+      </c>
+      <c r="R28" s="49">
+        <v>0</v>
+      </c>
+      <c r="S28" s="49">
+        <v>0</v>
+      </c>
+      <c r="T28" s="49">
+        <v>0</v>
+      </c>
+      <c r="U28" s="49">
+        <v>0</v>
+      </c>
+      <c r="V28" s="49">
+        <v>0</v>
+      </c>
+      <c r="W28" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="119"/>
+      <c r="B29" s="127"/>
       <c r="C29" s="4" t="s">
         <v>41</v>
       </c>
@@ -3689,51 +3737,51 @@
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="J29" s="46">
-        <v>0</v>
-      </c>
-      <c r="K29" s="96">
-        <v>0</v>
-      </c>
-      <c r="L29" s="96">
-        <v>0</v>
-      </c>
-      <c r="M29" s="96">
-        <v>0</v>
-      </c>
-      <c r="N29" s="96">
-        <v>0</v>
-      </c>
-      <c r="O29" s="96">
-        <v>0</v>
-      </c>
-      <c r="P29" s="51">
+      <c r="J29" s="44">
+        <v>0</v>
+      </c>
+      <c r="K29" s="94">
+        <v>0</v>
+      </c>
+      <c r="L29" s="94">
+        <v>0</v>
+      </c>
+      <c r="M29" s="94">
+        <v>0</v>
+      </c>
+      <c r="N29" s="94">
+        <v>0</v>
+      </c>
+      <c r="O29" s="94">
+        <v>0</v>
+      </c>
+      <c r="P29" s="49">
         <v>0.1</v>
       </c>
-      <c r="Q29" s="51">
-        <v>0</v>
-      </c>
-      <c r="R29" s="51">
-        <v>0</v>
-      </c>
-      <c r="S29" s="51">
-        <v>0</v>
-      </c>
-      <c r="T29" s="51">
-        <v>0</v>
-      </c>
-      <c r="U29" s="51">
-        <v>0</v>
-      </c>
-      <c r="V29" s="51">
-        <v>0</v>
-      </c>
-      <c r="W29" s="66">
+      <c r="Q29" s="49">
+        <v>0</v>
+      </c>
+      <c r="R29" s="49">
+        <v>0</v>
+      </c>
+      <c r="S29" s="49">
+        <v>0</v>
+      </c>
+      <c r="T29" s="49">
+        <v>0</v>
+      </c>
+      <c r="U29" s="49">
+        <v>0</v>
+      </c>
+      <c r="V29" s="49">
+        <v>0</v>
+      </c>
+      <c r="W29" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="119"/>
+      <c r="B30" s="127"/>
       <c r="C30" s="4" t="s">
         <v>42</v>
       </c>
@@ -3754,51 +3802,51 @@
         <f t="shared" si="0"/>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="J30" s="46">
-        <v>0</v>
-      </c>
-      <c r="K30" s="96">
-        <v>0</v>
-      </c>
-      <c r="L30" s="96">
-        <v>0</v>
-      </c>
-      <c r="M30" s="96">
-        <v>0</v>
-      </c>
-      <c r="N30" s="96">
-        <v>0</v>
-      </c>
-      <c r="O30" s="96">
-        <v>0</v>
-      </c>
-      <c r="P30" s="51">
+      <c r="J30" s="44">
+        <v>0</v>
+      </c>
+      <c r="K30" s="94">
+        <v>0</v>
+      </c>
+      <c r="L30" s="94">
+        <v>0</v>
+      </c>
+      <c r="M30" s="94">
+        <v>0</v>
+      </c>
+      <c r="N30" s="94">
+        <v>0</v>
+      </c>
+      <c r="O30" s="94">
+        <v>0</v>
+      </c>
+      <c r="P30" s="49">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="Q30" s="51">
-        <v>0</v>
-      </c>
-      <c r="R30" s="51">
-        <v>0</v>
-      </c>
-      <c r="S30" s="51">
-        <v>0</v>
-      </c>
-      <c r="T30" s="51">
-        <v>0</v>
-      </c>
-      <c r="U30" s="51">
-        <v>0</v>
-      </c>
-      <c r="V30" s="51">
-        <v>0</v>
-      </c>
-      <c r="W30" s="66">
+      <c r="Q30" s="49">
+        <v>0</v>
+      </c>
+      <c r="R30" s="49">
+        <v>0</v>
+      </c>
+      <c r="S30" s="49">
+        <v>0</v>
+      </c>
+      <c r="T30" s="49">
+        <v>0</v>
+      </c>
+      <c r="U30" s="49">
+        <v>0</v>
+      </c>
+      <c r="V30" s="49">
+        <v>0</v>
+      </c>
+      <c r="W30" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="119"/>
+      <c r="B31" s="127"/>
       <c r="C31" s="4" t="s">
         <v>43</v>
       </c>
@@ -3819,51 +3867,51 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="J31" s="46">
-        <v>0</v>
-      </c>
-      <c r="K31" s="96">
-        <v>0</v>
-      </c>
-      <c r="L31" s="96">
-        <v>0</v>
-      </c>
-      <c r="M31" s="96">
-        <v>0</v>
-      </c>
-      <c r="N31" s="96">
-        <v>0</v>
-      </c>
-      <c r="O31" s="96">
-        <v>0</v>
-      </c>
-      <c r="P31" s="51">
+      <c r="J31" s="44">
+        <v>0</v>
+      </c>
+      <c r="K31" s="94">
+        <v>0</v>
+      </c>
+      <c r="L31" s="94">
+        <v>0</v>
+      </c>
+      <c r="M31" s="94">
+        <v>0</v>
+      </c>
+      <c r="N31" s="94">
+        <v>0</v>
+      </c>
+      <c r="O31" s="94">
+        <v>0</v>
+      </c>
+      <c r="P31" s="49">
         <v>0.05</v>
       </c>
-      <c r="Q31" s="51">
-        <v>0</v>
-      </c>
-      <c r="R31" s="51">
-        <v>0</v>
-      </c>
-      <c r="S31" s="51">
-        <v>0</v>
-      </c>
-      <c r="T31" s="51">
-        <v>0</v>
-      </c>
-      <c r="U31" s="51">
-        <v>0</v>
-      </c>
-      <c r="V31" s="51">
-        <v>0</v>
-      </c>
-      <c r="W31" s="66">
+      <c r="Q31" s="49">
+        <v>0</v>
+      </c>
+      <c r="R31" s="49">
+        <v>0</v>
+      </c>
+      <c r="S31" s="49">
+        <v>0</v>
+      </c>
+      <c r="T31" s="49">
+        <v>0</v>
+      </c>
+      <c r="U31" s="49">
+        <v>0</v>
+      </c>
+      <c r="V31" s="49">
+        <v>0</v>
+      </c>
+      <c r="W31" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="119"/>
+      <c r="B32" s="127"/>
       <c r="C32" s="4" t="s">
         <v>44</v>
       </c>
@@ -3884,51 +3932,51 @@
         <f t="shared" si="0"/>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="J32" s="46">
-        <v>0</v>
-      </c>
-      <c r="K32" s="96">
-        <v>0</v>
-      </c>
-      <c r="L32" s="96">
-        <v>0</v>
-      </c>
-      <c r="M32" s="96">
-        <v>0</v>
-      </c>
-      <c r="N32" s="96">
-        <v>0</v>
-      </c>
-      <c r="O32" s="96">
-        <v>0</v>
-      </c>
-      <c r="P32" s="51">
+      <c r="J32" s="44">
+        <v>0</v>
+      </c>
+      <c r="K32" s="94">
+        <v>0</v>
+      </c>
+      <c r="L32" s="94">
+        <v>0</v>
+      </c>
+      <c r="M32" s="94">
+        <v>0</v>
+      </c>
+      <c r="N32" s="94">
+        <v>0</v>
+      </c>
+      <c r="O32" s="94">
+        <v>0</v>
+      </c>
+      <c r="P32" s="49">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="Q32" s="51">
-        <v>0</v>
-      </c>
-      <c r="R32" s="51">
-        <v>0</v>
-      </c>
-      <c r="S32" s="51">
-        <v>0</v>
-      </c>
-      <c r="T32" s="51">
-        <v>0</v>
-      </c>
-      <c r="U32" s="51">
-        <v>0</v>
-      </c>
-      <c r="V32" s="51">
-        <v>0</v>
-      </c>
-      <c r="W32" s="66">
+      <c r="Q32" s="49">
+        <v>0</v>
+      </c>
+      <c r="R32" s="49">
+        <v>0</v>
+      </c>
+      <c r="S32" s="49">
+        <v>0</v>
+      </c>
+      <c r="T32" s="49">
+        <v>0</v>
+      </c>
+      <c r="U32" s="49">
+        <v>0</v>
+      </c>
+      <c r="V32" s="49">
+        <v>0</v>
+      </c>
+      <c r="W32" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="119"/>
+      <c r="B33" s="127"/>
       <c r="C33" s="4" t="s">
         <v>45</v>
       </c>
@@ -3949,51 +3997,51 @@
         <f t="shared" si="0"/>
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="J33" s="46">
-        <v>0</v>
-      </c>
-      <c r="K33" s="96">
-        <v>0</v>
-      </c>
-      <c r="L33" s="96">
-        <v>0</v>
-      </c>
-      <c r="M33" s="96">
-        <v>0</v>
-      </c>
-      <c r="N33" s="96">
-        <v>0</v>
-      </c>
-      <c r="O33" s="96">
-        <v>0</v>
-      </c>
-      <c r="P33" s="51">
+      <c r="J33" s="44">
+        <v>0</v>
+      </c>
+      <c r="K33" s="94">
+        <v>0</v>
+      </c>
+      <c r="L33" s="94">
+        <v>0</v>
+      </c>
+      <c r="M33" s="94">
+        <v>0</v>
+      </c>
+      <c r="N33" s="94">
+        <v>0</v>
+      </c>
+      <c r="O33" s="94">
+        <v>0</v>
+      </c>
+      <c r="P33" s="49">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="Q33" s="51">
-        <v>0</v>
-      </c>
-      <c r="R33" s="51">
-        <v>0</v>
-      </c>
-      <c r="S33" s="51">
-        <v>0</v>
-      </c>
-      <c r="T33" s="51">
-        <v>0</v>
-      </c>
-      <c r="U33" s="51">
-        <v>0</v>
-      </c>
-      <c r="V33" s="51">
-        <v>0</v>
-      </c>
-      <c r="W33" s="66">
+      <c r="Q33" s="49">
+        <v>0</v>
+      </c>
+      <c r="R33" s="49">
+        <v>0</v>
+      </c>
+      <c r="S33" s="49">
+        <v>0</v>
+      </c>
+      <c r="T33" s="49">
+        <v>0</v>
+      </c>
+      <c r="U33" s="49">
+        <v>0</v>
+      </c>
+      <c r="V33" s="49">
+        <v>0</v>
+      </c>
+      <c r="W33" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="119"/>
+      <c r="B34" s="127"/>
       <c r="C34" s="4" t="s">
         <v>46</v>
       </c>
@@ -4014,51 +4062,51 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="J34" s="46">
-        <v>0</v>
-      </c>
-      <c r="K34" s="96">
-        <v>0</v>
-      </c>
-      <c r="L34" s="96">
-        <v>0</v>
-      </c>
-      <c r="M34" s="96">
-        <v>0</v>
-      </c>
-      <c r="N34" s="96">
-        <v>0</v>
-      </c>
-      <c r="O34" s="96">
-        <v>0</v>
-      </c>
-      <c r="P34" s="51">
+      <c r="J34" s="44">
+        <v>0</v>
+      </c>
+      <c r="K34" s="94">
+        <v>0</v>
+      </c>
+      <c r="L34" s="94">
+        <v>0</v>
+      </c>
+      <c r="M34" s="94">
+        <v>0</v>
+      </c>
+      <c r="N34" s="94">
+        <v>0</v>
+      </c>
+      <c r="O34" s="94">
+        <v>0</v>
+      </c>
+      <c r="P34" s="49">
         <v>0.05</v>
       </c>
-      <c r="Q34" s="51">
-        <v>0</v>
-      </c>
-      <c r="R34" s="51">
-        <v>0</v>
-      </c>
-      <c r="S34" s="51">
-        <v>0</v>
-      </c>
-      <c r="T34" s="51">
-        <v>0</v>
-      </c>
-      <c r="U34" s="51">
-        <v>0</v>
-      </c>
-      <c r="V34" s="51">
-        <v>0</v>
-      </c>
-      <c r="W34" s="66">
+      <c r="Q34" s="49">
+        <v>0</v>
+      </c>
+      <c r="R34" s="49">
+        <v>0</v>
+      </c>
+      <c r="S34" s="49">
+        <v>0</v>
+      </c>
+      <c r="T34" s="49">
+        <v>0</v>
+      </c>
+      <c r="U34" s="49">
+        <v>0</v>
+      </c>
+      <c r="V34" s="49">
+        <v>0</v>
+      </c>
+      <c r="W34" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="119"/>
+      <c r="B35" s="127"/>
       <c r="C35" s="4" t="s">
         <v>47</v>
       </c>
@@ -4079,51 +4127,51 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="J35" s="46">
-        <v>0</v>
-      </c>
-      <c r="K35" s="96">
-        <v>0</v>
-      </c>
-      <c r="L35" s="96">
-        <v>0</v>
-      </c>
-      <c r="M35" s="96">
-        <v>0</v>
-      </c>
-      <c r="N35" s="96">
-        <v>0</v>
-      </c>
-      <c r="O35" s="96">
-        <v>0</v>
-      </c>
-      <c r="P35" s="51">
+      <c r="J35" s="44">
+        <v>0</v>
+      </c>
+      <c r="K35" s="94">
+        <v>0</v>
+      </c>
+      <c r="L35" s="94">
+        <v>0</v>
+      </c>
+      <c r="M35" s="94">
+        <v>0</v>
+      </c>
+      <c r="N35" s="94">
+        <v>0</v>
+      </c>
+      <c r="O35" s="94">
+        <v>0</v>
+      </c>
+      <c r="P35" s="49">
         <v>0.05</v>
       </c>
-      <c r="Q35" s="51">
-        <v>0</v>
-      </c>
-      <c r="R35" s="51">
-        <v>0</v>
-      </c>
-      <c r="S35" s="51">
-        <v>0</v>
-      </c>
-      <c r="T35" s="51">
-        <v>0</v>
-      </c>
-      <c r="U35" s="51">
-        <v>0</v>
-      </c>
-      <c r="V35" s="51">
-        <v>0</v>
-      </c>
-      <c r="W35" s="66">
+      <c r="Q35" s="49">
+        <v>0</v>
+      </c>
+      <c r="R35" s="49">
+        <v>0</v>
+      </c>
+      <c r="S35" s="49">
+        <v>0</v>
+      </c>
+      <c r="T35" s="49">
+        <v>0</v>
+      </c>
+      <c r="U35" s="49">
+        <v>0</v>
+      </c>
+      <c r="V35" s="49">
+        <v>0</v>
+      </c>
+      <c r="W35" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="119"/>
+      <c r="B36" s="127"/>
       <c r="C36" s="4" t="s">
         <v>48</v>
       </c>
@@ -4144,51 +4192,51 @@
         <f t="shared" si="0"/>
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="J36" s="46">
-        <v>0</v>
-      </c>
-      <c r="K36" s="96">
-        <v>0</v>
-      </c>
-      <c r="L36" s="96">
-        <v>0</v>
-      </c>
-      <c r="M36" s="96">
-        <v>0</v>
-      </c>
-      <c r="N36" s="96">
-        <v>0</v>
-      </c>
-      <c r="O36" s="96">
-        <v>0</v>
-      </c>
-      <c r="P36" s="51">
+      <c r="J36" s="44">
+        <v>0</v>
+      </c>
+      <c r="K36" s="94">
+        <v>0</v>
+      </c>
+      <c r="L36" s="94">
+        <v>0</v>
+      </c>
+      <c r="M36" s="94">
+        <v>0</v>
+      </c>
+      <c r="N36" s="94">
+        <v>0</v>
+      </c>
+      <c r="O36" s="94">
+        <v>0</v>
+      </c>
+      <c r="P36" s="49">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="Q36" s="51">
-        <v>0</v>
-      </c>
-      <c r="R36" s="51">
-        <v>0</v>
-      </c>
-      <c r="S36" s="51">
-        <v>0</v>
-      </c>
-      <c r="T36" s="51">
-        <v>0</v>
-      </c>
-      <c r="U36" s="51">
-        <v>0</v>
-      </c>
-      <c r="V36" s="51">
-        <v>0</v>
-      </c>
-      <c r="W36" s="66">
+      <c r="Q36" s="49">
+        <v>0</v>
+      </c>
+      <c r="R36" s="49">
+        <v>0</v>
+      </c>
+      <c r="S36" s="49">
+        <v>0</v>
+      </c>
+      <c r="T36" s="49">
+        <v>0</v>
+      </c>
+      <c r="U36" s="49">
+        <v>0</v>
+      </c>
+      <c r="V36" s="49">
+        <v>0</v>
+      </c>
+      <c r="W36" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="119"/>
+      <c r="B37" s="127"/>
       <c r="C37" s="4" t="s">
         <v>49</v>
       </c>
@@ -4209,51 +4257,51 @@
         <f t="shared" si="0"/>
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="J37" s="46">
-        <v>0</v>
-      </c>
-      <c r="K37" s="96">
-        <v>0</v>
-      </c>
-      <c r="L37" s="96">
-        <v>0</v>
-      </c>
-      <c r="M37" s="96">
-        <v>0</v>
-      </c>
-      <c r="N37" s="96">
-        <v>0</v>
-      </c>
-      <c r="O37" s="96">
-        <v>0</v>
-      </c>
-      <c r="P37" s="51">
+      <c r="J37" s="44">
+        <v>0</v>
+      </c>
+      <c r="K37" s="94">
+        <v>0</v>
+      </c>
+      <c r="L37" s="94">
+        <v>0</v>
+      </c>
+      <c r="M37" s="94">
+        <v>0</v>
+      </c>
+      <c r="N37" s="94">
+        <v>0</v>
+      </c>
+      <c r="O37" s="94">
+        <v>0</v>
+      </c>
+      <c r="P37" s="49">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="Q37" s="51">
-        <v>0</v>
-      </c>
-      <c r="R37" s="51">
-        <v>0</v>
-      </c>
-      <c r="S37" s="51">
-        <v>0</v>
-      </c>
-      <c r="T37" s="51">
-        <v>0</v>
-      </c>
-      <c r="U37" s="51">
-        <v>0</v>
-      </c>
-      <c r="V37" s="51">
-        <v>0</v>
-      </c>
-      <c r="W37" s="66">
+      <c r="Q37" s="49">
+        <v>0</v>
+      </c>
+      <c r="R37" s="49">
+        <v>0</v>
+      </c>
+      <c r="S37" s="49">
+        <v>0</v>
+      </c>
+      <c r="T37" s="49">
+        <v>0</v>
+      </c>
+      <c r="U37" s="49">
+        <v>0</v>
+      </c>
+      <c r="V37" s="49">
+        <v>0</v>
+      </c>
+      <c r="W37" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="119"/>
+      <c r="B38" s="127"/>
       <c r="C38" s="4" t="s">
         <v>50</v>
       </c>
@@ -4274,51 +4322,51 @@
         <f t="shared" si="0"/>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="J38" s="46">
-        <v>0</v>
-      </c>
-      <c r="K38" s="96">
-        <v>0</v>
-      </c>
-      <c r="L38" s="96">
-        <v>0</v>
-      </c>
-      <c r="M38" s="96">
-        <v>0</v>
-      </c>
-      <c r="N38" s="96">
-        <v>0</v>
-      </c>
-      <c r="O38" s="96">
-        <v>0</v>
-      </c>
-      <c r="P38" s="51">
+      <c r="J38" s="44">
+        <v>0</v>
+      </c>
+      <c r="K38" s="94">
+        <v>0</v>
+      </c>
+      <c r="L38" s="94">
+        <v>0</v>
+      </c>
+      <c r="M38" s="94">
+        <v>0</v>
+      </c>
+      <c r="N38" s="94">
+        <v>0</v>
+      </c>
+      <c r="O38" s="94">
+        <v>0</v>
+      </c>
+      <c r="P38" s="49">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="Q38" s="51">
-        <v>0</v>
-      </c>
-      <c r="R38" s="51">
-        <v>0</v>
-      </c>
-      <c r="S38" s="51">
-        <v>0</v>
-      </c>
-      <c r="T38" s="51">
-        <v>0</v>
-      </c>
-      <c r="U38" s="51">
-        <v>0</v>
-      </c>
-      <c r="V38" s="51">
-        <v>0</v>
-      </c>
-      <c r="W38" s="66">
+      <c r="Q38" s="49">
+        <v>0</v>
+      </c>
+      <c r="R38" s="49">
+        <v>0</v>
+      </c>
+      <c r="S38" s="49">
+        <v>0</v>
+      </c>
+      <c r="T38" s="49">
+        <v>0</v>
+      </c>
+      <c r="U38" s="49">
+        <v>0</v>
+      </c>
+      <c r="V38" s="49">
+        <v>0</v>
+      </c>
+      <c r="W38" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="119"/>
+      <c r="B39" s="127"/>
       <c r="C39" s="4" t="s">
         <v>51</v>
       </c>
@@ -4339,51 +4387,51 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="J39" s="46">
-        <v>0</v>
-      </c>
-      <c r="K39" s="96">
-        <v>0</v>
-      </c>
-      <c r="L39" s="96">
-        <v>0</v>
-      </c>
-      <c r="M39" s="96">
-        <v>0</v>
-      </c>
-      <c r="N39" s="96">
-        <v>0</v>
-      </c>
-      <c r="O39" s="96">
-        <v>0</v>
-      </c>
-      <c r="P39" s="51">
+      <c r="J39" s="44">
+        <v>0</v>
+      </c>
+      <c r="K39" s="94">
+        <v>0</v>
+      </c>
+      <c r="L39" s="94">
+        <v>0</v>
+      </c>
+      <c r="M39" s="94">
+        <v>0</v>
+      </c>
+      <c r="N39" s="94">
+        <v>0</v>
+      </c>
+      <c r="O39" s="94">
+        <v>0</v>
+      </c>
+      <c r="P39" s="49">
         <v>0.05</v>
       </c>
-      <c r="Q39" s="51">
-        <v>0</v>
-      </c>
-      <c r="R39" s="51">
-        <v>0</v>
-      </c>
-      <c r="S39" s="51">
-        <v>0</v>
-      </c>
-      <c r="T39" s="51">
-        <v>0</v>
-      </c>
-      <c r="U39" s="51">
-        <v>0</v>
-      </c>
-      <c r="V39" s="51">
-        <v>0</v>
-      </c>
-      <c r="W39" s="66">
+      <c r="Q39" s="49">
+        <v>0</v>
+      </c>
+      <c r="R39" s="49">
+        <v>0</v>
+      </c>
+      <c r="S39" s="49">
+        <v>0</v>
+      </c>
+      <c r="T39" s="49">
+        <v>0</v>
+      </c>
+      <c r="U39" s="49">
+        <v>0</v>
+      </c>
+      <c r="V39" s="49">
+        <v>0</v>
+      </c>
+      <c r="W39" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="119"/>
+      <c r="B40" s="127"/>
       <c r="C40" s="4" t="s">
         <v>52</v>
       </c>
@@ -4404,51 +4452,51 @@
         <f t="shared" si="0"/>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="J40" s="46">
-        <v>0</v>
-      </c>
-      <c r="K40" s="96">
-        <v>0</v>
-      </c>
-      <c r="L40" s="96">
-        <v>0</v>
-      </c>
-      <c r="M40" s="96">
-        <v>0</v>
-      </c>
-      <c r="N40" s="96">
-        <v>0</v>
-      </c>
-      <c r="O40" s="96">
-        <v>0</v>
-      </c>
-      <c r="P40" s="51">
+      <c r="J40" s="44">
+        <v>0</v>
+      </c>
+      <c r="K40" s="94">
+        <v>0</v>
+      </c>
+      <c r="L40" s="94">
+        <v>0</v>
+      </c>
+      <c r="M40" s="94">
+        <v>0</v>
+      </c>
+      <c r="N40" s="94">
+        <v>0</v>
+      </c>
+      <c r="O40" s="94">
+        <v>0</v>
+      </c>
+      <c r="P40" s="49">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="Q40" s="51">
-        <v>0</v>
-      </c>
-      <c r="R40" s="51">
-        <v>0</v>
-      </c>
-      <c r="S40" s="51">
-        <v>0</v>
-      </c>
-      <c r="T40" s="51">
-        <v>0</v>
-      </c>
-      <c r="U40" s="51">
-        <v>0</v>
-      </c>
-      <c r="V40" s="51">
-        <v>0</v>
-      </c>
-      <c r="W40" s="66">
+      <c r="Q40" s="49">
+        <v>0</v>
+      </c>
+      <c r="R40" s="49">
+        <v>0</v>
+      </c>
+      <c r="S40" s="49">
+        <v>0</v>
+      </c>
+      <c r="T40" s="49">
+        <v>0</v>
+      </c>
+      <c r="U40" s="49">
+        <v>0</v>
+      </c>
+      <c r="V40" s="49">
+        <v>0</v>
+      </c>
+      <c r="W40" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="119"/>
+      <c r="B41" s="127"/>
       <c r="C41" s="4" t="s">
         <v>53</v>
       </c>
@@ -4469,51 +4517,51 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="J41" s="46">
-        <v>0</v>
-      </c>
-      <c r="K41" s="96">
-        <v>0</v>
-      </c>
-      <c r="L41" s="96">
-        <v>0</v>
-      </c>
-      <c r="M41" s="96">
-        <v>0</v>
-      </c>
-      <c r="N41" s="96">
-        <v>0</v>
-      </c>
-      <c r="O41" s="96">
-        <v>0</v>
-      </c>
-      <c r="P41" s="51">
+      <c r="J41" s="44">
+        <v>0</v>
+      </c>
+      <c r="K41" s="94">
+        <v>0</v>
+      </c>
+      <c r="L41" s="94">
+        <v>0</v>
+      </c>
+      <c r="M41" s="94">
+        <v>0</v>
+      </c>
+      <c r="N41" s="94">
+        <v>0</v>
+      </c>
+      <c r="O41" s="94">
+        <v>0</v>
+      </c>
+      <c r="P41" s="49">
         <v>0.05</v>
       </c>
-      <c r="Q41" s="51">
-        <v>0</v>
-      </c>
-      <c r="R41" s="51">
-        <v>0</v>
-      </c>
-      <c r="S41" s="51">
-        <v>0</v>
-      </c>
-      <c r="T41" s="51">
-        <v>0</v>
-      </c>
-      <c r="U41" s="51">
-        <v>0</v>
-      </c>
-      <c r="V41" s="51">
-        <v>0</v>
-      </c>
-      <c r="W41" s="66">
+      <c r="Q41" s="49">
+        <v>0</v>
+      </c>
+      <c r="R41" s="49">
+        <v>0</v>
+      </c>
+      <c r="S41" s="49">
+        <v>0</v>
+      </c>
+      <c r="T41" s="49">
+        <v>0</v>
+      </c>
+      <c r="U41" s="49">
+        <v>0</v>
+      </c>
+      <c r="V41" s="49">
+        <v>0</v>
+      </c>
+      <c r="W41" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="119"/>
+      <c r="B42" s="127"/>
       <c r="C42" s="4" t="s">
         <v>54</v>
       </c>
@@ -4534,51 +4582,51 @@
         <f t="shared" si="0"/>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="J42" s="46">
-        <v>0</v>
-      </c>
-      <c r="K42" s="96">
-        <v>0</v>
-      </c>
-      <c r="L42" s="96">
-        <v>0</v>
-      </c>
-      <c r="M42" s="96">
-        <v>0</v>
-      </c>
-      <c r="N42" s="96">
-        <v>0</v>
-      </c>
-      <c r="O42" s="96">
-        <v>0</v>
-      </c>
-      <c r="P42" s="51">
+      <c r="J42" s="44">
+        <v>0</v>
+      </c>
+      <c r="K42" s="94">
+        <v>0</v>
+      </c>
+      <c r="L42" s="94">
+        <v>0</v>
+      </c>
+      <c r="M42" s="94">
+        <v>0</v>
+      </c>
+      <c r="N42" s="94">
+        <v>0</v>
+      </c>
+      <c r="O42" s="94">
+        <v>0</v>
+      </c>
+      <c r="P42" s="49">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="Q42" s="51">
-        <v>0</v>
-      </c>
-      <c r="R42" s="51">
-        <v>0</v>
-      </c>
-      <c r="S42" s="51">
-        <v>0</v>
-      </c>
-      <c r="T42" s="51">
-        <v>0</v>
-      </c>
-      <c r="U42" s="51">
-        <v>0</v>
-      </c>
-      <c r="V42" s="51">
-        <v>0</v>
-      </c>
-      <c r="W42" s="66">
+      <c r="Q42" s="49">
+        <v>0</v>
+      </c>
+      <c r="R42" s="49">
+        <v>0</v>
+      </c>
+      <c r="S42" s="49">
+        <v>0</v>
+      </c>
+      <c r="T42" s="49">
+        <v>0</v>
+      </c>
+      <c r="U42" s="49">
+        <v>0</v>
+      </c>
+      <c r="V42" s="49">
+        <v>0</v>
+      </c>
+      <c r="W42" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="119"/>
+      <c r="B43" s="127"/>
       <c r="C43" s="4" t="s">
         <v>55</v>
       </c>
@@ -4599,51 +4647,51 @@
         <f t="shared" si="0"/>
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="J43" s="46">
-        <v>0</v>
-      </c>
-      <c r="K43" s="96">
-        <v>0</v>
-      </c>
-      <c r="L43" s="96">
-        <v>0</v>
-      </c>
-      <c r="M43" s="96">
-        <v>0</v>
-      </c>
-      <c r="N43" s="96">
-        <v>0</v>
-      </c>
-      <c r="O43" s="96">
-        <v>0</v>
-      </c>
-      <c r="P43" s="51">
+      <c r="J43" s="44">
+        <v>0</v>
+      </c>
+      <c r="K43" s="94">
+        <v>0</v>
+      </c>
+      <c r="L43" s="94">
+        <v>0</v>
+      </c>
+      <c r="M43" s="94">
+        <v>0</v>
+      </c>
+      <c r="N43" s="94">
+        <v>0</v>
+      </c>
+      <c r="O43" s="94">
+        <v>0</v>
+      </c>
+      <c r="P43" s="49">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="Q43" s="51">
-        <v>0</v>
-      </c>
-      <c r="R43" s="51">
-        <v>0</v>
-      </c>
-      <c r="S43" s="51">
-        <v>0</v>
-      </c>
-      <c r="T43" s="51">
-        <v>0</v>
-      </c>
-      <c r="U43" s="51">
-        <v>0</v>
-      </c>
-      <c r="V43" s="51">
-        <v>0</v>
-      </c>
-      <c r="W43" s="66">
+      <c r="Q43" s="49">
+        <v>0</v>
+      </c>
+      <c r="R43" s="49">
+        <v>0</v>
+      </c>
+      <c r="S43" s="49">
+        <v>0</v>
+      </c>
+      <c r="T43" s="49">
+        <v>0</v>
+      </c>
+      <c r="U43" s="49">
+        <v>0</v>
+      </c>
+      <c r="V43" s="49">
+        <v>0</v>
+      </c>
+      <c r="W43" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="119"/>
+      <c r="B44" s="127"/>
       <c r="C44" s="4" t="s">
         <v>56</v>
       </c>
@@ -4664,51 +4712,51 @@
         <f t="shared" si="0"/>
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="J44" s="46">
-        <v>0</v>
-      </c>
-      <c r="K44" s="96">
-        <v>0</v>
-      </c>
-      <c r="L44" s="96">
-        <v>0</v>
-      </c>
-      <c r="M44" s="96">
-        <v>0</v>
-      </c>
-      <c r="N44" s="96">
-        <v>0</v>
-      </c>
-      <c r="O44" s="96">
-        <v>0</v>
-      </c>
-      <c r="P44" s="51">
+      <c r="J44" s="44">
+        <v>0</v>
+      </c>
+      <c r="K44" s="94">
+        <v>0</v>
+      </c>
+      <c r="L44" s="94">
+        <v>0</v>
+      </c>
+      <c r="M44" s="94">
+        <v>0</v>
+      </c>
+      <c r="N44" s="94">
+        <v>0</v>
+      </c>
+      <c r="O44" s="94">
+        <v>0</v>
+      </c>
+      <c r="P44" s="49">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="Q44" s="51">
-        <v>0</v>
-      </c>
-      <c r="R44" s="51">
-        <v>0</v>
-      </c>
-      <c r="S44" s="51">
-        <v>0</v>
-      </c>
-      <c r="T44" s="51">
-        <v>0</v>
-      </c>
-      <c r="U44" s="51">
-        <v>0</v>
-      </c>
-      <c r="V44" s="51">
-        <v>0</v>
-      </c>
-      <c r="W44" s="66">
+      <c r="Q44" s="49">
+        <v>0</v>
+      </c>
+      <c r="R44" s="49">
+        <v>0</v>
+      </c>
+      <c r="S44" s="49">
+        <v>0</v>
+      </c>
+      <c r="T44" s="49">
+        <v>0</v>
+      </c>
+      <c r="U44" s="49">
+        <v>0</v>
+      </c>
+      <c r="V44" s="49">
+        <v>0</v>
+      </c>
+      <c r="W44" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="119"/>
+      <c r="B45" s="127"/>
       <c r="C45" s="4" t="s">
         <v>57</v>
       </c>
@@ -4729,51 +4777,51 @@
         <f t="shared" si="0"/>
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="J45" s="46">
-        <v>0</v>
-      </c>
-      <c r="K45" s="96">
-        <v>0</v>
-      </c>
-      <c r="L45" s="96">
-        <v>0</v>
-      </c>
-      <c r="M45" s="96">
-        <v>0</v>
-      </c>
-      <c r="N45" s="96">
-        <v>0</v>
-      </c>
-      <c r="O45" s="96">
-        <v>0</v>
-      </c>
-      <c r="P45" s="51">
+      <c r="J45" s="44">
+        <v>0</v>
+      </c>
+      <c r="K45" s="94">
+        <v>0</v>
+      </c>
+      <c r="L45" s="94">
+        <v>0</v>
+      </c>
+      <c r="M45" s="94">
+        <v>0</v>
+      </c>
+      <c r="N45" s="94">
+        <v>0</v>
+      </c>
+      <c r="O45" s="94">
+        <v>0</v>
+      </c>
+      <c r="P45" s="49">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="Q45" s="51">
-        <v>0</v>
-      </c>
-      <c r="R45" s="51">
-        <v>0</v>
-      </c>
-      <c r="S45" s="51">
-        <v>0</v>
-      </c>
-      <c r="T45" s="51">
-        <v>0</v>
-      </c>
-      <c r="U45" s="51">
-        <v>0</v>
-      </c>
-      <c r="V45" s="51">
-        <v>0</v>
-      </c>
-      <c r="W45" s="66">
+      <c r="Q45" s="49">
+        <v>0</v>
+      </c>
+      <c r="R45" s="49">
+        <v>0</v>
+      </c>
+      <c r="S45" s="49">
+        <v>0</v>
+      </c>
+      <c r="T45" s="49">
+        <v>0</v>
+      </c>
+      <c r="U45" s="49">
+        <v>0</v>
+      </c>
+      <c r="V45" s="49">
+        <v>0</v>
+      </c>
+      <c r="W45" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="119"/>
+      <c r="B46" s="127"/>
       <c r="C46" s="4" t="s">
         <v>58</v>
       </c>
@@ -4794,51 +4842,51 @@
         <f t="shared" si="0"/>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="J46" s="46">
-        <v>0</v>
-      </c>
-      <c r="K46" s="96">
-        <v>0</v>
-      </c>
-      <c r="L46" s="96">
-        <v>0</v>
-      </c>
-      <c r="M46" s="96">
-        <v>0</v>
-      </c>
-      <c r="N46" s="96">
-        <v>0</v>
-      </c>
-      <c r="O46" s="96">
-        <v>0</v>
-      </c>
-      <c r="P46" s="51">
+      <c r="J46" s="44">
+        <v>0</v>
+      </c>
+      <c r="K46" s="94">
+        <v>0</v>
+      </c>
+      <c r="L46" s="94">
+        <v>0</v>
+      </c>
+      <c r="M46" s="94">
+        <v>0</v>
+      </c>
+      <c r="N46" s="94">
+        <v>0</v>
+      </c>
+      <c r="O46" s="94">
+        <v>0</v>
+      </c>
+      <c r="P46" s="49">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="Q46" s="51">
-        <v>0</v>
-      </c>
-      <c r="R46" s="51">
-        <v>0</v>
-      </c>
-      <c r="S46" s="51">
-        <v>0</v>
-      </c>
-      <c r="T46" s="51">
-        <v>0</v>
-      </c>
-      <c r="U46" s="51">
-        <v>0</v>
-      </c>
-      <c r="V46" s="51">
-        <v>0</v>
-      </c>
-      <c r="W46" s="66">
+      <c r="Q46" s="49">
+        <v>0</v>
+      </c>
+      <c r="R46" s="49">
+        <v>0</v>
+      </c>
+      <c r="S46" s="49">
+        <v>0</v>
+      </c>
+      <c r="T46" s="49">
+        <v>0</v>
+      </c>
+      <c r="U46" s="49">
+        <v>0</v>
+      </c>
+      <c r="V46" s="49">
+        <v>0</v>
+      </c>
+      <c r="W46" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="119"/>
+      <c r="B47" s="127"/>
       <c r="C47" s="4" t="s">
         <v>59</v>
       </c>
@@ -4859,51 +4907,51 @@
         <f t="shared" si="0"/>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="J47" s="46">
-        <v>0</v>
-      </c>
-      <c r="K47" s="96">
-        <v>0</v>
-      </c>
-      <c r="L47" s="96">
-        <v>0</v>
-      </c>
-      <c r="M47" s="96">
-        <v>0</v>
-      </c>
-      <c r="N47" s="96">
-        <v>0</v>
-      </c>
-      <c r="O47" s="96">
-        <v>0</v>
-      </c>
-      <c r="P47" s="51">
+      <c r="J47" s="44">
+        <v>0</v>
+      </c>
+      <c r="K47" s="94">
+        <v>0</v>
+      </c>
+      <c r="L47" s="94">
+        <v>0</v>
+      </c>
+      <c r="M47" s="94">
+        <v>0</v>
+      </c>
+      <c r="N47" s="94">
+        <v>0</v>
+      </c>
+      <c r="O47" s="94">
+        <v>0</v>
+      </c>
+      <c r="P47" s="49">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="Q47" s="51">
-        <v>0</v>
-      </c>
-      <c r="R47" s="51">
-        <v>0</v>
-      </c>
-      <c r="S47" s="51">
-        <v>0</v>
-      </c>
-      <c r="T47" s="51">
-        <v>0</v>
-      </c>
-      <c r="U47" s="51">
-        <v>0</v>
-      </c>
-      <c r="V47" s="51">
-        <v>0</v>
-      </c>
-      <c r="W47" s="66">
+      <c r="Q47" s="49">
+        <v>0</v>
+      </c>
+      <c r="R47" s="49">
+        <v>0</v>
+      </c>
+      <c r="S47" s="49">
+        <v>0</v>
+      </c>
+      <c r="T47" s="49">
+        <v>0</v>
+      </c>
+      <c r="U47" s="49">
+        <v>0</v>
+      </c>
+      <c r="V47" s="49">
+        <v>0</v>
+      </c>
+      <c r="W47" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="119"/>
+      <c r="B48" s="127"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
@@ -4924,51 +4972,51 @@
         <f t="shared" si="0"/>
         <v>0.61699999999999999</v>
       </c>
-      <c r="J48" s="46">
-        <v>0</v>
-      </c>
-      <c r="K48" s="96">
-        <v>0</v>
-      </c>
-      <c r="L48" s="96">
-        <v>0</v>
-      </c>
-      <c r="M48" s="96">
-        <v>0</v>
-      </c>
-      <c r="N48" s="96">
-        <v>0</v>
-      </c>
-      <c r="O48" s="96">
-        <v>0</v>
-      </c>
-      <c r="P48" s="88">
+      <c r="J48" s="44">
+        <v>0</v>
+      </c>
+      <c r="K48" s="94">
+        <v>0</v>
+      </c>
+      <c r="L48" s="94">
+        <v>0</v>
+      </c>
+      <c r="M48" s="94">
+        <v>0</v>
+      </c>
+      <c r="N48" s="94">
+        <v>0</v>
+      </c>
+      <c r="O48" s="94">
+        <v>0</v>
+      </c>
+      <c r="P48" s="86">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="Q48" s="88">
+      <c r="Q48" s="86">
         <v>0.5</v>
       </c>
-      <c r="R48" s="51">
+      <c r="R48" s="49">
         <v>0.1</v>
       </c>
-      <c r="S48" s="51">
-        <v>0</v>
-      </c>
-      <c r="T48" s="51">
-        <v>0</v>
-      </c>
-      <c r="U48" s="51">
-        <v>0</v>
-      </c>
-      <c r="V48" s="51">
-        <v>0</v>
-      </c>
-      <c r="W48" s="66">
+      <c r="S48" s="49">
+        <v>0</v>
+      </c>
+      <c r="T48" s="49">
+        <v>0</v>
+      </c>
+      <c r="U48" s="49">
+        <v>0</v>
+      </c>
+      <c r="V48" s="49">
+        <v>0</v>
+      </c>
+      <c r="W48" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="119"/>
+      <c r="B49" s="127"/>
       <c r="C49" s="16" t="s">
         <v>61</v>
       </c>
@@ -4989,51 +5037,51 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J49" s="46">
-        <v>0</v>
-      </c>
-      <c r="K49" s="96">
-        <v>0</v>
-      </c>
-      <c r="L49" s="96">
-        <v>0</v>
-      </c>
-      <c r="M49" s="96">
-        <v>0</v>
-      </c>
-      <c r="N49" s="96">
-        <v>0</v>
-      </c>
-      <c r="O49" s="96">
-        <v>0</v>
-      </c>
-      <c r="P49" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="62">
+      <c r="J49" s="44">
+        <v>0</v>
+      </c>
+      <c r="K49" s="94">
+        <v>0</v>
+      </c>
+      <c r="L49" s="94">
+        <v>0</v>
+      </c>
+      <c r="M49" s="94">
+        <v>0</v>
+      </c>
+      <c r="N49" s="94">
+        <v>0</v>
+      </c>
+      <c r="O49" s="94">
+        <v>0</v>
+      </c>
+      <c r="P49" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="60">
         <v>1</v>
       </c>
-      <c r="R49" s="51">
-        <v>0</v>
-      </c>
-      <c r="S49" s="51">
-        <v>0</v>
-      </c>
-      <c r="T49" s="51">
-        <v>0</v>
-      </c>
-      <c r="U49" s="51">
-        <v>0</v>
-      </c>
-      <c r="V49" s="51">
-        <v>0</v>
-      </c>
-      <c r="W49" s="66">
+      <c r="R49" s="49">
+        <v>0</v>
+      </c>
+      <c r="S49" s="49">
+        <v>0</v>
+      </c>
+      <c r="T49" s="49">
+        <v>0</v>
+      </c>
+      <c r="U49" s="49">
+        <v>0</v>
+      </c>
+      <c r="V49" s="49">
+        <v>0</v>
+      </c>
+      <c r="W49" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="119"/>
+      <c r="B50" s="127"/>
       <c r="C50" s="16" t="s">
         <v>72</v>
       </c>
@@ -5054,34 +5102,34 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J50" s="46">
-        <v>0</v>
-      </c>
-      <c r="K50" s="96">
-        <v>0</v>
-      </c>
-      <c r="L50" s="96">
-        <v>0</v>
-      </c>
-      <c r="M50" s="96">
-        <v>0</v>
-      </c>
-      <c r="N50" s="96">
-        <v>0</v>
-      </c>
-      <c r="O50" s="96">
-        <v>0</v>
-      </c>
-      <c r="P50" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="96">
-        <v>0</v>
-      </c>
-      <c r="R50" s="96">
-        <v>0</v>
-      </c>
-      <c r="S50" s="96">
+      <c r="J50" s="44">
+        <v>0</v>
+      </c>
+      <c r="K50" s="94">
+        <v>0</v>
+      </c>
+      <c r="L50" s="94">
+        <v>0</v>
+      </c>
+      <c r="M50" s="94">
+        <v>0</v>
+      </c>
+      <c r="N50" s="94">
+        <v>0</v>
+      </c>
+      <c r="O50" s="94">
+        <v>0</v>
+      </c>
+      <c r="P50" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="94">
+        <v>0</v>
+      </c>
+      <c r="R50" s="94">
+        <v>0</v>
+      </c>
+      <c r="S50" s="94">
         <v>0</v>
       </c>
       <c r="T50" s="18"/>
@@ -5090,7 +5138,7 @@
       <c r="W50" s="26"/>
     </row>
     <row r="51" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="119"/>
+      <c r="B51" s="127"/>
       <c r="C51" s="16" t="s">
         <v>73</v>
       </c>
@@ -5111,34 +5159,34 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J51" s="46">
-        <v>0</v>
-      </c>
-      <c r="K51" s="96">
-        <v>0</v>
-      </c>
-      <c r="L51" s="96">
-        <v>0</v>
-      </c>
-      <c r="M51" s="96">
-        <v>0</v>
-      </c>
-      <c r="N51" s="96">
-        <v>0</v>
-      </c>
-      <c r="O51" s="96">
-        <v>0</v>
-      </c>
-      <c r="P51" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="96">
-        <v>0</v>
-      </c>
-      <c r="R51" s="96">
-        <v>0</v>
-      </c>
-      <c r="S51" s="96">
+      <c r="J51" s="44">
+        <v>0</v>
+      </c>
+      <c r="K51" s="94">
+        <v>0</v>
+      </c>
+      <c r="L51" s="94">
+        <v>0</v>
+      </c>
+      <c r="M51" s="94">
+        <v>0</v>
+      </c>
+      <c r="N51" s="94">
+        <v>0</v>
+      </c>
+      <c r="O51" s="94">
+        <v>0</v>
+      </c>
+      <c r="P51" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="94">
+        <v>0</v>
+      </c>
+      <c r="R51" s="94">
+        <v>0</v>
+      </c>
+      <c r="S51" s="94">
         <v>0</v>
       </c>
       <c r="T51" s="18"/>
@@ -5147,7 +5195,7 @@
       <c r="W51" s="26"/>
     </row>
     <row r="52" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="119"/>
+      <c r="B52" s="127"/>
       <c r="C52" s="16" t="s">
         <v>74</v>
       </c>
@@ -5168,34 +5216,34 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J52" s="46">
-        <v>0</v>
-      </c>
-      <c r="K52" s="96">
-        <v>0</v>
-      </c>
-      <c r="L52" s="96">
-        <v>0</v>
-      </c>
-      <c r="M52" s="96">
-        <v>0</v>
-      </c>
-      <c r="N52" s="96">
-        <v>0</v>
-      </c>
-      <c r="O52" s="96">
-        <v>0</v>
-      </c>
-      <c r="P52" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="96">
-        <v>0</v>
-      </c>
-      <c r="R52" s="96">
-        <v>0</v>
-      </c>
-      <c r="S52" s="96">
+      <c r="J52" s="44">
+        <v>0</v>
+      </c>
+      <c r="K52" s="94">
+        <v>0</v>
+      </c>
+      <c r="L52" s="94">
+        <v>0</v>
+      </c>
+      <c r="M52" s="94">
+        <v>0</v>
+      </c>
+      <c r="N52" s="94">
+        <v>0</v>
+      </c>
+      <c r="O52" s="94">
+        <v>0</v>
+      </c>
+      <c r="P52" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="94">
+        <v>0</v>
+      </c>
+      <c r="R52" s="94">
+        <v>0</v>
+      </c>
+      <c r="S52" s="94">
         <v>0</v>
       </c>
       <c r="T52" s="18"/>
@@ -5204,7 +5252,7 @@
       <c r="W52" s="26"/>
     </row>
     <row r="53" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="119"/>
+      <c r="B53" s="127"/>
       <c r="C53" s="16" t="s">
         <v>75</v>
       </c>
@@ -5225,34 +5273,34 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J53" s="46">
-        <v>0</v>
-      </c>
-      <c r="K53" s="96">
-        <v>0</v>
-      </c>
-      <c r="L53" s="96">
-        <v>0</v>
-      </c>
-      <c r="M53" s="96">
-        <v>0</v>
-      </c>
-      <c r="N53" s="96">
-        <v>0</v>
-      </c>
-      <c r="O53" s="96">
-        <v>0</v>
-      </c>
-      <c r="P53" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="96">
-        <v>0</v>
-      </c>
-      <c r="R53" s="96">
-        <v>0</v>
-      </c>
-      <c r="S53" s="96">
+      <c r="J53" s="44">
+        <v>0</v>
+      </c>
+      <c r="K53" s="94">
+        <v>0</v>
+      </c>
+      <c r="L53" s="94">
+        <v>0</v>
+      </c>
+      <c r="M53" s="94">
+        <v>0</v>
+      </c>
+      <c r="N53" s="94">
+        <v>0</v>
+      </c>
+      <c r="O53" s="94">
+        <v>0</v>
+      </c>
+      <c r="P53" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="94">
+        <v>0</v>
+      </c>
+      <c r="R53" s="94">
+        <v>0</v>
+      </c>
+      <c r="S53" s="94">
         <v>0</v>
       </c>
       <c r="T53" s="18"/>
@@ -5261,7 +5309,7 @@
       <c r="W53" s="26"/>
     </row>
     <row r="54" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="119"/>
+      <c r="B54" s="127"/>
       <c r="C54" s="16" t="s">
         <v>76</v>
       </c>
@@ -5282,34 +5330,34 @@
         <f t="shared" ref="I54:I105" si="1">SUM(J54:W54)</f>
         <v>0</v>
       </c>
-      <c r="J54" s="46">
-        <v>0</v>
-      </c>
-      <c r="K54" s="96">
-        <v>0</v>
-      </c>
-      <c r="L54" s="96">
-        <v>0</v>
-      </c>
-      <c r="M54" s="96">
-        <v>0</v>
-      </c>
-      <c r="N54" s="96">
-        <v>0</v>
-      </c>
-      <c r="O54" s="96">
-        <v>0</v>
-      </c>
-      <c r="P54" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="96">
-        <v>0</v>
-      </c>
-      <c r="R54" s="96">
-        <v>0</v>
-      </c>
-      <c r="S54" s="96">
+      <c r="J54" s="44">
+        <v>0</v>
+      </c>
+      <c r="K54" s="94">
+        <v>0</v>
+      </c>
+      <c r="L54" s="94">
+        <v>0</v>
+      </c>
+      <c r="M54" s="94">
+        <v>0</v>
+      </c>
+      <c r="N54" s="94">
+        <v>0</v>
+      </c>
+      <c r="O54" s="94">
+        <v>0</v>
+      </c>
+      <c r="P54" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="94">
+        <v>0</v>
+      </c>
+      <c r="R54" s="94">
+        <v>0</v>
+      </c>
+      <c r="S54" s="94">
         <v>0</v>
       </c>
       <c r="T54" s="18"/>
@@ -5318,7 +5366,7 @@
       <c r="W54" s="26"/>
     </row>
     <row r="55" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="119"/>
+      <c r="B55" s="127"/>
       <c r="C55" s="16" t="s">
         <v>77</v>
       </c>
@@ -5339,34 +5387,34 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J55" s="46">
-        <v>0</v>
-      </c>
-      <c r="K55" s="96">
-        <v>0</v>
-      </c>
-      <c r="L55" s="96">
-        <v>0</v>
-      </c>
-      <c r="M55" s="96">
-        <v>0</v>
-      </c>
-      <c r="N55" s="96">
-        <v>0</v>
-      </c>
-      <c r="O55" s="96">
-        <v>0</v>
-      </c>
-      <c r="P55" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="96">
-        <v>0</v>
-      </c>
-      <c r="R55" s="96">
-        <v>0</v>
-      </c>
-      <c r="S55" s="96">
+      <c r="J55" s="44">
+        <v>0</v>
+      </c>
+      <c r="K55" s="94">
+        <v>0</v>
+      </c>
+      <c r="L55" s="94">
+        <v>0</v>
+      </c>
+      <c r="M55" s="94">
+        <v>0</v>
+      </c>
+      <c r="N55" s="94">
+        <v>0</v>
+      </c>
+      <c r="O55" s="94">
+        <v>0</v>
+      </c>
+      <c r="P55" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="94">
+        <v>0</v>
+      </c>
+      <c r="R55" s="94">
+        <v>0</v>
+      </c>
+      <c r="S55" s="94">
         <v>0</v>
       </c>
       <c r="T55" s="18"/>
@@ -5375,7 +5423,7 @@
       <c r="W55" s="26"/>
     </row>
     <row r="56" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="119"/>
+      <c r="B56" s="127"/>
       <c r="C56" s="16" t="s">
         <v>78</v>
       </c>
@@ -5396,34 +5444,34 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J56" s="46">
-        <v>0</v>
-      </c>
-      <c r="K56" s="96">
-        <v>0</v>
-      </c>
-      <c r="L56" s="96">
-        <v>0</v>
-      </c>
-      <c r="M56" s="96">
-        <v>0</v>
-      </c>
-      <c r="N56" s="96">
-        <v>0</v>
-      </c>
-      <c r="O56" s="96">
-        <v>0</v>
-      </c>
-      <c r="P56" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="96">
-        <v>0</v>
-      </c>
-      <c r="R56" s="96">
-        <v>0</v>
-      </c>
-      <c r="S56" s="96">
+      <c r="J56" s="44">
+        <v>0</v>
+      </c>
+      <c r="K56" s="94">
+        <v>0</v>
+      </c>
+      <c r="L56" s="94">
+        <v>0</v>
+      </c>
+      <c r="M56" s="94">
+        <v>0</v>
+      </c>
+      <c r="N56" s="94">
+        <v>0</v>
+      </c>
+      <c r="O56" s="94">
+        <v>0</v>
+      </c>
+      <c r="P56" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="94">
+        <v>0</v>
+      </c>
+      <c r="R56" s="94">
+        <v>0</v>
+      </c>
+      <c r="S56" s="94">
         <v>0</v>
       </c>
       <c r="T56" s="18"/>
@@ -5432,7 +5480,7 @@
       <c r="W56" s="26"/>
     </row>
     <row r="57" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="119"/>
+      <c r="B57" s="127"/>
       <c r="C57" s="16" t="s">
         <v>79</v>
       </c>
@@ -5453,34 +5501,34 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J57" s="46">
-        <v>0</v>
-      </c>
-      <c r="K57" s="96">
-        <v>0</v>
-      </c>
-      <c r="L57" s="96">
-        <v>0</v>
-      </c>
-      <c r="M57" s="96">
-        <v>0</v>
-      </c>
-      <c r="N57" s="96">
-        <v>0</v>
-      </c>
-      <c r="O57" s="96">
-        <v>0</v>
-      </c>
-      <c r="P57" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="96">
-        <v>0</v>
-      </c>
-      <c r="R57" s="96">
-        <v>0</v>
-      </c>
-      <c r="S57" s="96">
+      <c r="J57" s="44">
+        <v>0</v>
+      </c>
+      <c r="K57" s="94">
+        <v>0</v>
+      </c>
+      <c r="L57" s="94">
+        <v>0</v>
+      </c>
+      <c r="M57" s="94">
+        <v>0</v>
+      </c>
+      <c r="N57" s="94">
+        <v>0</v>
+      </c>
+      <c r="O57" s="94">
+        <v>0</v>
+      </c>
+      <c r="P57" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="94">
+        <v>0</v>
+      </c>
+      <c r="R57" s="94">
+        <v>0</v>
+      </c>
+      <c r="S57" s="94">
         <v>0</v>
       </c>
       <c r="T57" s="18"/>
@@ -5489,7 +5537,7 @@
       <c r="W57" s="26"/>
     </row>
     <row r="58" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="119"/>
+      <c r="B58" s="127"/>
       <c r="C58" s="16" t="s">
         <v>80</v>
       </c>
@@ -5510,34 +5558,34 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J58" s="46">
-        <v>0</v>
-      </c>
-      <c r="K58" s="96">
-        <v>0</v>
-      </c>
-      <c r="L58" s="96">
-        <v>0</v>
-      </c>
-      <c r="M58" s="96">
-        <v>0</v>
-      </c>
-      <c r="N58" s="96">
-        <v>0</v>
-      </c>
-      <c r="O58" s="96">
-        <v>0</v>
-      </c>
-      <c r="P58" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="96">
-        <v>0</v>
-      </c>
-      <c r="R58" s="96">
-        <v>0</v>
-      </c>
-      <c r="S58" s="96">
+      <c r="J58" s="44">
+        <v>0</v>
+      </c>
+      <c r="K58" s="94">
+        <v>0</v>
+      </c>
+      <c r="L58" s="94">
+        <v>0</v>
+      </c>
+      <c r="M58" s="94">
+        <v>0</v>
+      </c>
+      <c r="N58" s="94">
+        <v>0</v>
+      </c>
+      <c r="O58" s="94">
+        <v>0</v>
+      </c>
+      <c r="P58" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="94">
+        <v>0</v>
+      </c>
+      <c r="R58" s="94">
+        <v>0</v>
+      </c>
+      <c r="S58" s="94">
         <v>0</v>
       </c>
       <c r="T58" s="18"/>
@@ -5546,7 +5594,7 @@
       <c r="W58" s="26"/>
     </row>
     <row r="59" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="119"/>
+      <c r="B59" s="127"/>
       <c r="C59" s="16" t="s">
         <v>81</v>
       </c>
@@ -5567,34 +5615,34 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J59" s="46">
-        <v>0</v>
-      </c>
-      <c r="K59" s="96">
-        <v>0</v>
-      </c>
-      <c r="L59" s="96">
-        <v>0</v>
-      </c>
-      <c r="M59" s="96">
-        <v>0</v>
-      </c>
-      <c r="N59" s="96">
-        <v>0</v>
-      </c>
-      <c r="O59" s="96">
-        <v>0</v>
-      </c>
-      <c r="P59" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="96">
-        <v>0</v>
-      </c>
-      <c r="R59" s="96">
-        <v>0</v>
-      </c>
-      <c r="S59" s="96">
+      <c r="J59" s="44">
+        <v>0</v>
+      </c>
+      <c r="K59" s="94">
+        <v>0</v>
+      </c>
+      <c r="L59" s="94">
+        <v>0</v>
+      </c>
+      <c r="M59" s="94">
+        <v>0</v>
+      </c>
+      <c r="N59" s="94">
+        <v>0</v>
+      </c>
+      <c r="O59" s="94">
+        <v>0</v>
+      </c>
+      <c r="P59" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="94">
+        <v>0</v>
+      </c>
+      <c r="R59" s="94">
+        <v>0</v>
+      </c>
+      <c r="S59" s="94">
         <v>0</v>
       </c>
       <c r="T59" s="18"/>
@@ -5603,7 +5651,7 @@
       <c r="W59" s="26"/>
     </row>
     <row r="60" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="119"/>
+      <c r="B60" s="127"/>
       <c r="C60" s="16" t="s">
         <v>82</v>
       </c>
@@ -5624,34 +5672,34 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J60" s="46">
-        <v>0</v>
-      </c>
-      <c r="K60" s="96">
-        <v>0</v>
-      </c>
-      <c r="L60" s="96">
-        <v>0</v>
-      </c>
-      <c r="M60" s="96">
-        <v>0</v>
-      </c>
-      <c r="N60" s="96">
-        <v>0</v>
-      </c>
-      <c r="O60" s="96">
-        <v>0</v>
-      </c>
-      <c r="P60" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="96">
-        <v>0</v>
-      </c>
-      <c r="R60" s="96">
-        <v>0</v>
-      </c>
-      <c r="S60" s="96">
+      <c r="J60" s="44">
+        <v>0</v>
+      </c>
+      <c r="K60" s="94">
+        <v>0</v>
+      </c>
+      <c r="L60" s="94">
+        <v>0</v>
+      </c>
+      <c r="M60" s="94">
+        <v>0</v>
+      </c>
+      <c r="N60" s="94">
+        <v>0</v>
+      </c>
+      <c r="O60" s="94">
+        <v>0</v>
+      </c>
+      <c r="P60" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="94">
+        <v>0</v>
+      </c>
+      <c r="R60" s="94">
+        <v>0</v>
+      </c>
+      <c r="S60" s="94">
         <v>0</v>
       </c>
       <c r="T60" s="18"/>
@@ -5660,7 +5708,7 @@
       <c r="W60" s="26"/>
     </row>
     <row r="61" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="119"/>
+      <c r="B61" s="127"/>
       <c r="C61" s="16" t="s">
         <v>83</v>
       </c>
@@ -5681,34 +5729,34 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J61" s="46">
-        <v>0</v>
-      </c>
-      <c r="K61" s="96">
-        <v>0</v>
-      </c>
-      <c r="L61" s="96">
-        <v>0</v>
-      </c>
-      <c r="M61" s="96">
-        <v>0</v>
-      </c>
-      <c r="N61" s="96">
-        <v>0</v>
-      </c>
-      <c r="O61" s="96">
-        <v>0</v>
-      </c>
-      <c r="P61" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="96">
-        <v>0</v>
-      </c>
-      <c r="R61" s="96">
-        <v>0</v>
-      </c>
-      <c r="S61" s="96">
+      <c r="J61" s="44">
+        <v>0</v>
+      </c>
+      <c r="K61" s="94">
+        <v>0</v>
+      </c>
+      <c r="L61" s="94">
+        <v>0</v>
+      </c>
+      <c r="M61" s="94">
+        <v>0</v>
+      </c>
+      <c r="N61" s="94">
+        <v>0</v>
+      </c>
+      <c r="O61" s="94">
+        <v>0</v>
+      </c>
+      <c r="P61" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="94">
+        <v>0</v>
+      </c>
+      <c r="R61" s="94">
+        <v>0</v>
+      </c>
+      <c r="S61" s="94">
         <v>0</v>
       </c>
       <c r="T61" s="18"/>
@@ -5717,7 +5765,7 @@
       <c r="W61" s="26"/>
     </row>
     <row r="62" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="119"/>
+      <c r="B62" s="127"/>
       <c r="C62" s="16" t="s">
         <v>84</v>
       </c>
@@ -5738,34 +5786,34 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J62" s="46">
-        <v>0</v>
-      </c>
-      <c r="K62" s="96">
-        <v>0</v>
-      </c>
-      <c r="L62" s="96">
-        <v>0</v>
-      </c>
-      <c r="M62" s="96">
-        <v>0</v>
-      </c>
-      <c r="N62" s="96">
-        <v>0</v>
-      </c>
-      <c r="O62" s="96">
-        <v>0</v>
-      </c>
-      <c r="P62" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="96">
-        <v>0</v>
-      </c>
-      <c r="R62" s="96">
-        <v>0</v>
-      </c>
-      <c r="S62" s="96">
+      <c r="J62" s="44">
+        <v>0</v>
+      </c>
+      <c r="K62" s="94">
+        <v>0</v>
+      </c>
+      <c r="L62" s="94">
+        <v>0</v>
+      </c>
+      <c r="M62" s="94">
+        <v>0</v>
+      </c>
+      <c r="N62" s="94">
+        <v>0</v>
+      </c>
+      <c r="O62" s="94">
+        <v>0</v>
+      </c>
+      <c r="P62" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="94">
+        <v>0</v>
+      </c>
+      <c r="R62" s="94">
+        <v>0</v>
+      </c>
+      <c r="S62" s="94">
         <v>0</v>
       </c>
       <c r="T62" s="18"/>
@@ -5774,55 +5822,55 @@
       <c r="W62" s="26"/>
     </row>
     <row r="63" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="120"/>
-      <c r="C63" s="34" t="s">
+      <c r="B63" s="128"/>
+      <c r="C63" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="D63" s="35"/>
-      <c r="E63" s="36" t="s">
+      <c r="D63" s="33"/>
+      <c r="E63" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="F63" s="36" t="s">
+      <c r="F63" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="G63" s="35">
+      <c r="G63" s="33">
         <v>3</v>
       </c>
-      <c r="H63" s="40">
+      <c r="H63" s="38">
         <v>0.25</v>
       </c>
-      <c r="I63" s="43">
+      <c r="I63" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J63" s="95">
-        <v>0</v>
-      </c>
-      <c r="K63" s="100">
-        <v>0</v>
-      </c>
-      <c r="L63" s="100">
-        <v>0</v>
-      </c>
-      <c r="M63" s="100">
-        <v>0</v>
-      </c>
-      <c r="N63" s="100">
-        <v>0</v>
-      </c>
-      <c r="O63" s="100">
-        <v>0</v>
-      </c>
-      <c r="P63" s="100">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="100">
-        <v>0</v>
-      </c>
-      <c r="R63" s="100">
-        <v>0</v>
-      </c>
-      <c r="S63" s="100">
+      <c r="J63" s="93">
+        <v>0</v>
+      </c>
+      <c r="K63" s="98">
+        <v>0</v>
+      </c>
+      <c r="L63" s="98">
+        <v>0</v>
+      </c>
+      <c r="M63" s="98">
+        <v>0</v>
+      </c>
+      <c r="N63" s="98">
+        <v>0</v>
+      </c>
+      <c r="O63" s="98">
+        <v>0</v>
+      </c>
+      <c r="P63" s="98">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="98">
+        <v>0</v>
+      </c>
+      <c r="R63" s="98">
+        <v>0</v>
+      </c>
+      <c r="S63" s="98">
         <v>0</v>
       </c>
       <c r="T63" s="21"/>
@@ -5831,7 +5879,7 @@
       <c r="W63" s="28"/>
     </row>
     <row r="64" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="129" t="s">
         <v>62</v>
       </c>
       <c r="C64" s="30" t="s">
@@ -5854,51 +5902,51 @@
         <f t="shared" si="1"/>
         <v>1.83</v>
       </c>
-      <c r="J64" s="55">
-        <v>0</v>
-      </c>
-      <c r="K64" s="97">
-        <v>0</v>
-      </c>
-      <c r="L64" s="97">
-        <v>0</v>
-      </c>
-      <c r="M64" s="97">
-        <v>0</v>
-      </c>
-      <c r="N64" s="97">
-        <v>0</v>
-      </c>
-      <c r="O64" s="97">
-        <v>0</v>
-      </c>
-      <c r="P64" s="101">
+      <c r="J64" s="53">
+        <v>0</v>
+      </c>
+      <c r="K64" s="95">
+        <v>0</v>
+      </c>
+      <c r="L64" s="95">
+        <v>0</v>
+      </c>
+      <c r="M64" s="95">
+        <v>0</v>
+      </c>
+      <c r="N64" s="95">
+        <v>0</v>
+      </c>
+      <c r="O64" s="95">
+        <v>0</v>
+      </c>
+      <c r="P64" s="99">
         <v>1.83</v>
       </c>
-      <c r="Q64" s="101">
-        <v>0</v>
-      </c>
-      <c r="R64" s="101">
-        <v>0</v>
-      </c>
-      <c r="S64" s="101">
-        <v>0</v>
-      </c>
-      <c r="T64" s="101">
-        <v>0</v>
-      </c>
-      <c r="U64" s="101">
-        <v>0</v>
-      </c>
-      <c r="V64" s="101">
-        <v>0</v>
-      </c>
-      <c r="W64" s="102">
+      <c r="Q64" s="99">
+        <v>0</v>
+      </c>
+      <c r="R64" s="99">
+        <v>0</v>
+      </c>
+      <c r="S64" s="99">
+        <v>0</v>
+      </c>
+      <c r="T64" s="99">
+        <v>0</v>
+      </c>
+      <c r="U64" s="99">
+        <v>0</v>
+      </c>
+      <c r="V64" s="99">
+        <v>0</v>
+      </c>
+      <c r="W64" s="100">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="119"/>
+      <c r="B65" s="127"/>
       <c r="C65" s="16" t="s">
         <v>64</v>
       </c>
@@ -5919,51 +5967,51 @@
         <f t="shared" si="1"/>
         <v>0.66</v>
       </c>
-      <c r="J65" s="46">
-        <v>0</v>
-      </c>
-      <c r="K65" s="96">
-        <v>0</v>
-      </c>
-      <c r="L65" s="96">
-        <v>0</v>
-      </c>
-      <c r="M65" s="96">
-        <v>0</v>
-      </c>
-      <c r="N65" s="96">
-        <v>0</v>
-      </c>
-      <c r="O65" s="96">
-        <v>0</v>
-      </c>
-      <c r="P65" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="96">
-        <v>0</v>
-      </c>
-      <c r="R65" s="91">
+      <c r="J65" s="44">
+        <v>0</v>
+      </c>
+      <c r="K65" s="94">
+        <v>0</v>
+      </c>
+      <c r="L65" s="94">
+        <v>0</v>
+      </c>
+      <c r="M65" s="94">
+        <v>0</v>
+      </c>
+      <c r="N65" s="94">
+        <v>0</v>
+      </c>
+      <c r="O65" s="94">
+        <v>0</v>
+      </c>
+      <c r="P65" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="94">
+        <v>0</v>
+      </c>
+      <c r="R65" s="89">
         <v>0.16</v>
       </c>
-      <c r="S65" s="51">
+      <c r="S65" s="49">
         <v>0.5</v>
       </c>
-      <c r="T65" s="62">
-        <v>0</v>
-      </c>
-      <c r="U65" s="62">
-        <v>0</v>
-      </c>
-      <c r="V65" s="62">
-        <v>0</v>
-      </c>
-      <c r="W65" s="63">
+      <c r="T65" s="60">
+        <v>0</v>
+      </c>
+      <c r="U65" s="60">
+        <v>0</v>
+      </c>
+      <c r="V65" s="60">
+        <v>0</v>
+      </c>
+      <c r="W65" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="119"/>
+      <c r="B66" s="127"/>
       <c r="C66" s="16" t="s">
         <v>65</v>
       </c>
@@ -5984,51 +6032,51 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="J66" s="46">
-        <v>0</v>
-      </c>
-      <c r="K66" s="96">
-        <v>0</v>
-      </c>
-      <c r="L66" s="96">
-        <v>0</v>
-      </c>
-      <c r="M66" s="96">
-        <v>0</v>
-      </c>
-      <c r="N66" s="96">
-        <v>0</v>
-      </c>
-      <c r="O66" s="96">
-        <v>0</v>
-      </c>
-      <c r="P66" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="96">
-        <v>0</v>
-      </c>
-      <c r="R66" s="88">
-        <v>0</v>
-      </c>
-      <c r="S66" s="51">
+      <c r="J66" s="44">
+        <v>0</v>
+      </c>
+      <c r="K66" s="94">
+        <v>0</v>
+      </c>
+      <c r="L66" s="94">
+        <v>0</v>
+      </c>
+      <c r="M66" s="94">
+        <v>0</v>
+      </c>
+      <c r="N66" s="94">
+        <v>0</v>
+      </c>
+      <c r="O66" s="94">
+        <v>0</v>
+      </c>
+      <c r="P66" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="94">
+        <v>0</v>
+      </c>
+      <c r="R66" s="86">
+        <v>0</v>
+      </c>
+      <c r="S66" s="49">
         <v>0.5</v>
       </c>
-      <c r="T66" s="62">
-        <v>0</v>
-      </c>
-      <c r="U66" s="62">
-        <v>0</v>
-      </c>
-      <c r="V66" s="62">
-        <v>0</v>
-      </c>
-      <c r="W66" s="63">
+      <c r="T66" s="60">
+        <v>0</v>
+      </c>
+      <c r="U66" s="60">
+        <v>0</v>
+      </c>
+      <c r="V66" s="60">
+        <v>0</v>
+      </c>
+      <c r="W66" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="119"/>
+      <c r="B67" s="127"/>
       <c r="C67" s="16" t="s">
         <v>66</v>
       </c>
@@ -6049,51 +6097,51 @@
         <f t="shared" si="1"/>
         <v>0.23</v>
       </c>
-      <c r="J67" s="46">
-        <v>0</v>
-      </c>
-      <c r="K67" s="96">
-        <v>0</v>
-      </c>
-      <c r="L67" s="96">
-        <v>0</v>
-      </c>
-      <c r="M67" s="96">
-        <v>0</v>
-      </c>
-      <c r="N67" s="96">
-        <v>0</v>
-      </c>
-      <c r="O67" s="96">
-        <v>0</v>
-      </c>
-      <c r="P67" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="96">
-        <v>0</v>
-      </c>
-      <c r="R67" s="88">
-        <v>0</v>
-      </c>
-      <c r="S67" s="51">
+      <c r="J67" s="44">
+        <v>0</v>
+      </c>
+      <c r="K67" s="94">
+        <v>0</v>
+      </c>
+      <c r="L67" s="94">
+        <v>0</v>
+      </c>
+      <c r="M67" s="94">
+        <v>0</v>
+      </c>
+      <c r="N67" s="94">
+        <v>0</v>
+      </c>
+      <c r="O67" s="94">
+        <v>0</v>
+      </c>
+      <c r="P67" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="94">
+        <v>0</v>
+      </c>
+      <c r="R67" s="86">
+        <v>0</v>
+      </c>
+      <c r="S67" s="49">
         <v>0.23</v>
       </c>
-      <c r="T67" s="62">
-        <v>0</v>
-      </c>
-      <c r="U67" s="62">
-        <v>0</v>
-      </c>
-      <c r="V67" s="62">
-        <v>0</v>
-      </c>
-      <c r="W67" s="63">
+      <c r="T67" s="60">
+        <v>0</v>
+      </c>
+      <c r="U67" s="60">
+        <v>0</v>
+      </c>
+      <c r="V67" s="60">
+        <v>0</v>
+      </c>
+      <c r="W67" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="119"/>
+      <c r="B68" s="127"/>
       <c r="C68" s="16" t="s">
         <v>67</v>
       </c>
@@ -6114,51 +6162,51 @@
         <f t="shared" si="1"/>
         <v>0.33</v>
       </c>
-      <c r="J68" s="46">
-        <v>0</v>
-      </c>
-      <c r="K68" s="96">
-        <v>0</v>
-      </c>
-      <c r="L68" s="96">
-        <v>0</v>
-      </c>
-      <c r="M68" s="96">
-        <v>0</v>
-      </c>
-      <c r="N68" s="96">
-        <v>0</v>
-      </c>
-      <c r="O68" s="96">
-        <v>0</v>
-      </c>
-      <c r="P68" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="96">
-        <v>0</v>
-      </c>
-      <c r="R68" s="88">
-        <v>0</v>
-      </c>
-      <c r="S68" s="51">
+      <c r="J68" s="44">
+        <v>0</v>
+      </c>
+      <c r="K68" s="94">
+        <v>0</v>
+      </c>
+      <c r="L68" s="94">
+        <v>0</v>
+      </c>
+      <c r="M68" s="94">
+        <v>0</v>
+      </c>
+      <c r="N68" s="94">
+        <v>0</v>
+      </c>
+      <c r="O68" s="94">
+        <v>0</v>
+      </c>
+      <c r="P68" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="94">
+        <v>0</v>
+      </c>
+      <c r="R68" s="86">
+        <v>0</v>
+      </c>
+      <c r="S68" s="49">
         <v>0.33</v>
       </c>
-      <c r="T68" s="62">
-        <v>0</v>
-      </c>
-      <c r="U68" s="62">
-        <v>0</v>
-      </c>
-      <c r="V68" s="62">
-        <v>0</v>
-      </c>
-      <c r="W68" s="63">
+      <c r="T68" s="60">
+        <v>0</v>
+      </c>
+      <c r="U68" s="60">
+        <v>0</v>
+      </c>
+      <c r="V68" s="60">
+        <v>0</v>
+      </c>
+      <c r="W68" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="119"/>
+      <c r="B69" s="127"/>
       <c r="C69" s="16" t="s">
         <v>68</v>
       </c>
@@ -6179,51 +6227,51 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="J69" s="46">
-        <v>0</v>
-      </c>
-      <c r="K69" s="96">
-        <v>0</v>
-      </c>
-      <c r="L69" s="96">
-        <v>0</v>
-      </c>
-      <c r="M69" s="96">
-        <v>0</v>
-      </c>
-      <c r="N69" s="96">
-        <v>0</v>
-      </c>
-      <c r="O69" s="96">
-        <v>0</v>
-      </c>
-      <c r="P69" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="96">
-        <v>0</v>
-      </c>
-      <c r="R69" s="88">
-        <v>0</v>
-      </c>
-      <c r="S69" s="51">
+      <c r="J69" s="44">
+        <v>0</v>
+      </c>
+      <c r="K69" s="94">
+        <v>0</v>
+      </c>
+      <c r="L69" s="94">
+        <v>0</v>
+      </c>
+      <c r="M69" s="94">
+        <v>0</v>
+      </c>
+      <c r="N69" s="94">
+        <v>0</v>
+      </c>
+      <c r="O69" s="94">
+        <v>0</v>
+      </c>
+      <c r="P69" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="94">
+        <v>0</v>
+      </c>
+      <c r="R69" s="86">
+        <v>0</v>
+      </c>
+      <c r="S69" s="49">
         <v>0.5</v>
       </c>
-      <c r="T69" s="62">
-        <v>0</v>
-      </c>
-      <c r="U69" s="62">
-        <v>0</v>
-      </c>
-      <c r="V69" s="62">
-        <v>0</v>
-      </c>
-      <c r="W69" s="63">
+      <c r="T69" s="60">
+        <v>0</v>
+      </c>
+      <c r="U69" s="60">
+        <v>0</v>
+      </c>
+      <c r="V69" s="60">
+        <v>0</v>
+      </c>
+      <c r="W69" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="119"/>
+      <c r="B70" s="127"/>
       <c r="C70" s="16" t="s">
         <v>69</v>
       </c>
@@ -6244,51 +6292,51 @@
         <f t="shared" si="1"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="J70" s="46">
-        <v>0</v>
-      </c>
-      <c r="K70" s="96">
-        <v>0</v>
-      </c>
-      <c r="L70" s="96">
-        <v>0</v>
-      </c>
-      <c r="M70" s="96">
-        <v>0</v>
-      </c>
-      <c r="N70" s="96">
-        <v>0</v>
-      </c>
-      <c r="O70" s="96">
-        <v>0</v>
-      </c>
-      <c r="P70" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="96">
-        <v>0</v>
-      </c>
-      <c r="R70" s="88">
-        <v>0</v>
-      </c>
-      <c r="S70" s="51">
+      <c r="J70" s="44">
+        <v>0</v>
+      </c>
+      <c r="K70" s="94">
+        <v>0</v>
+      </c>
+      <c r="L70" s="94">
+        <v>0</v>
+      </c>
+      <c r="M70" s="94">
+        <v>0</v>
+      </c>
+      <c r="N70" s="94">
+        <v>0</v>
+      </c>
+      <c r="O70" s="94">
+        <v>0</v>
+      </c>
+      <c r="P70" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="94">
+        <v>0</v>
+      </c>
+      <c r="R70" s="86">
+        <v>0</v>
+      </c>
+      <c r="S70" s="49">
         <v>0.57999999999999996</v>
       </c>
-      <c r="T70" s="62">
-        <v>0</v>
-      </c>
-      <c r="U70" s="62">
-        <v>0</v>
-      </c>
-      <c r="V70" s="62">
-        <v>0</v>
-      </c>
-      <c r="W70" s="63">
+      <c r="T70" s="60">
+        <v>0</v>
+      </c>
+      <c r="U70" s="60">
+        <v>0</v>
+      </c>
+      <c r="V70" s="60">
+        <v>0</v>
+      </c>
+      <c r="W70" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="119"/>
+      <c r="B71" s="127"/>
       <c r="C71" s="16" t="s">
         <v>70</v>
       </c>
@@ -6309,116 +6357,116 @@
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="J71" s="46">
-        <v>0</v>
-      </c>
-      <c r="K71" s="96">
-        <v>0</v>
-      </c>
-      <c r="L71" s="96">
-        <v>0</v>
-      </c>
-      <c r="M71" s="96">
-        <v>0</v>
-      </c>
-      <c r="N71" s="96">
-        <v>0</v>
-      </c>
-      <c r="O71" s="96">
-        <v>0</v>
-      </c>
-      <c r="P71" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="96">
-        <v>0</v>
-      </c>
-      <c r="R71" s="88">
-        <v>0</v>
-      </c>
-      <c r="S71" s="51">
+      <c r="J71" s="44">
+        <v>0</v>
+      </c>
+      <c r="K71" s="94">
+        <v>0</v>
+      </c>
+      <c r="L71" s="94">
+        <v>0</v>
+      </c>
+      <c r="M71" s="94">
+        <v>0</v>
+      </c>
+      <c r="N71" s="94">
+        <v>0</v>
+      </c>
+      <c r="O71" s="94">
+        <v>0</v>
+      </c>
+      <c r="P71" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="94">
+        <v>0</v>
+      </c>
+      <c r="R71" s="86">
+        <v>0</v>
+      </c>
+      <c r="S71" s="49">
         <v>0.25</v>
       </c>
-      <c r="T71" s="62">
-        <v>0</v>
-      </c>
-      <c r="U71" s="62">
-        <v>0</v>
-      </c>
-      <c r="V71" s="62">
-        <v>0</v>
-      </c>
-      <c r="W71" s="63">
+      <c r="T71" s="60">
+        <v>0</v>
+      </c>
+      <c r="U71" s="60">
+        <v>0</v>
+      </c>
+      <c r="V71" s="60">
+        <v>0</v>
+      </c>
+      <c r="W71" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="119"/>
-      <c r="C72" s="34" t="s">
+      <c r="B72" s="127"/>
+      <c r="C72" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35" t="s">
+      <c r="D72" s="33"/>
+      <c r="E72" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="F72" s="35" t="s">
+      <c r="F72" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="G72" s="35">
+      <c r="G72" s="33">
         <v>2</v>
       </c>
-      <c r="H72" s="39">
+      <c r="H72" s="37">
         <v>0.25</v>
       </c>
-      <c r="I72" s="92">
+      <c r="I72" s="90">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="J72" s="95">
-        <v>0</v>
-      </c>
-      <c r="K72" s="100">
-        <v>0</v>
-      </c>
-      <c r="L72" s="100">
-        <v>0</v>
-      </c>
-      <c r="M72" s="100">
-        <v>0</v>
-      </c>
-      <c r="N72" s="100">
-        <v>0</v>
-      </c>
-      <c r="O72" s="100">
-        <v>0</v>
-      </c>
-      <c r="P72" s="100">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="100">
-        <v>0</v>
-      </c>
-      <c r="R72" s="105">
-        <v>0</v>
-      </c>
-      <c r="S72" s="106">
+      <c r="J72" s="93">
+        <v>0</v>
+      </c>
+      <c r="K72" s="98">
+        <v>0</v>
+      </c>
+      <c r="L72" s="98">
+        <v>0</v>
+      </c>
+      <c r="M72" s="98">
+        <v>0</v>
+      </c>
+      <c r="N72" s="98">
+        <v>0</v>
+      </c>
+      <c r="O72" s="98">
+        <v>0</v>
+      </c>
+      <c r="P72" s="98">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="98">
+        <v>0</v>
+      </c>
+      <c r="R72" s="103">
+        <v>0</v>
+      </c>
+      <c r="S72" s="104">
         <v>0.1</v>
       </c>
-      <c r="T72" s="64">
-        <v>0</v>
-      </c>
-      <c r="U72" s="64">
-        <v>0</v>
-      </c>
-      <c r="V72" s="64">
-        <v>0</v>
-      </c>
-      <c r="W72" s="65">
+      <c r="T72" s="62">
+        <v>0</v>
+      </c>
+      <c r="U72" s="62">
+        <v>0</v>
+      </c>
+      <c r="V72" s="62">
+        <v>0</v>
+      </c>
+      <c r="W72" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="132" t="s">
+      <c r="B73" s="116" t="s">
         <v>86</v>
       </c>
       <c r="C73" s="6" t="s">
@@ -6441,51 +6489,51 @@
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="J73" s="55">
-        <v>0</v>
-      </c>
-      <c r="K73" s="97">
-        <v>0</v>
-      </c>
-      <c r="L73" s="97">
-        <v>0</v>
-      </c>
-      <c r="M73" s="97">
-        <v>0</v>
-      </c>
-      <c r="N73" s="97">
-        <v>0</v>
-      </c>
-      <c r="O73" s="97">
-        <v>0</v>
-      </c>
-      <c r="P73" s="101">
+      <c r="J73" s="53">
+        <v>0</v>
+      </c>
+      <c r="K73" s="95">
+        <v>0</v>
+      </c>
+      <c r="L73" s="95">
+        <v>0</v>
+      </c>
+      <c r="M73" s="95">
+        <v>0</v>
+      </c>
+      <c r="N73" s="95">
+        <v>0</v>
+      </c>
+      <c r="O73" s="95">
+        <v>0</v>
+      </c>
+      <c r="P73" s="99">
         <v>0.05</v>
       </c>
-      <c r="Q73" s="101">
-        <v>0</v>
-      </c>
-      <c r="R73" s="101">
-        <v>0</v>
-      </c>
-      <c r="S73" s="101">
-        <v>0</v>
-      </c>
-      <c r="T73" s="101">
-        <v>0</v>
-      </c>
-      <c r="U73" s="101">
-        <v>0</v>
-      </c>
-      <c r="V73" s="101">
-        <v>0</v>
-      </c>
-      <c r="W73" s="102">
+      <c r="Q73" s="99">
+        <v>0</v>
+      </c>
+      <c r="R73" s="99">
+        <v>0</v>
+      </c>
+      <c r="S73" s="99">
+        <v>0</v>
+      </c>
+      <c r="T73" s="99">
+        <v>0</v>
+      </c>
+      <c r="U73" s="99">
+        <v>0</v>
+      </c>
+      <c r="V73" s="99">
+        <v>0</v>
+      </c>
+      <c r="W73" s="100">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="133"/>
+      <c r="B74" s="117"/>
       <c r="C74" s="4" t="s">
         <v>26</v>
       </c>
@@ -6506,51 +6554,51 @@
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="J74" s="46">
-        <v>0</v>
-      </c>
-      <c r="K74" s="96">
-        <v>0</v>
-      </c>
-      <c r="L74" s="96">
-        <v>0</v>
-      </c>
-      <c r="M74" s="96">
-        <v>0</v>
-      </c>
-      <c r="N74" s="96">
-        <v>0</v>
-      </c>
-      <c r="O74" s="96">
-        <v>0</v>
-      </c>
-      <c r="P74" s="62">
+      <c r="J74" s="44">
+        <v>0</v>
+      </c>
+      <c r="K74" s="94">
+        <v>0</v>
+      </c>
+      <c r="L74" s="94">
+        <v>0</v>
+      </c>
+      <c r="M74" s="94">
+        <v>0</v>
+      </c>
+      <c r="N74" s="94">
+        <v>0</v>
+      </c>
+      <c r="O74" s="94">
+        <v>0</v>
+      </c>
+      <c r="P74" s="60">
         <v>0.03</v>
       </c>
-      <c r="Q74" s="62">
-        <v>0</v>
-      </c>
-      <c r="R74" s="62">
-        <v>0</v>
-      </c>
-      <c r="S74" s="62">
-        <v>0</v>
-      </c>
-      <c r="T74" s="62">
-        <v>0</v>
-      </c>
-      <c r="U74" s="62">
-        <v>0</v>
-      </c>
-      <c r="V74" s="62">
-        <v>0</v>
-      </c>
-      <c r="W74" s="63">
+      <c r="Q74" s="60">
+        <v>0</v>
+      </c>
+      <c r="R74" s="60">
+        <v>0</v>
+      </c>
+      <c r="S74" s="60">
+        <v>0</v>
+      </c>
+      <c r="T74" s="60">
+        <v>0</v>
+      </c>
+      <c r="U74" s="60">
+        <v>0</v>
+      </c>
+      <c r="V74" s="60">
+        <v>0</v>
+      </c>
+      <c r="W74" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="133"/>
+      <c r="B75" s="117"/>
       <c r="C75" s="4" t="s">
         <v>28</v>
       </c>
@@ -6571,51 +6619,51 @@
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="J75" s="46">
-        <v>0</v>
-      </c>
-      <c r="K75" s="96">
-        <v>0</v>
-      </c>
-      <c r="L75" s="96">
-        <v>0</v>
-      </c>
-      <c r="M75" s="96">
-        <v>0</v>
-      </c>
-      <c r="N75" s="96">
-        <v>0</v>
-      </c>
-      <c r="O75" s="96">
-        <v>0</v>
-      </c>
-      <c r="P75" s="62">
+      <c r="J75" s="44">
+        <v>0</v>
+      </c>
+      <c r="K75" s="94">
+        <v>0</v>
+      </c>
+      <c r="L75" s="94">
+        <v>0</v>
+      </c>
+      <c r="M75" s="94">
+        <v>0</v>
+      </c>
+      <c r="N75" s="94">
+        <v>0</v>
+      </c>
+      <c r="O75" s="94">
+        <v>0</v>
+      </c>
+      <c r="P75" s="60">
         <v>0.03</v>
       </c>
-      <c r="Q75" s="62">
-        <v>0</v>
-      </c>
-      <c r="R75" s="62">
-        <v>0</v>
-      </c>
-      <c r="S75" s="62">
-        <v>0</v>
-      </c>
-      <c r="T75" s="62">
-        <v>0</v>
-      </c>
-      <c r="U75" s="62">
-        <v>0</v>
-      </c>
-      <c r="V75" s="62">
-        <v>0</v>
-      </c>
-      <c r="W75" s="63">
+      <c r="Q75" s="60">
+        <v>0</v>
+      </c>
+      <c r="R75" s="60">
+        <v>0</v>
+      </c>
+      <c r="S75" s="60">
+        <v>0</v>
+      </c>
+      <c r="T75" s="60">
+        <v>0</v>
+      </c>
+      <c r="U75" s="60">
+        <v>0</v>
+      </c>
+      <c r="V75" s="60">
+        <v>0</v>
+      </c>
+      <c r="W75" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="133"/>
+      <c r="B76" s="117"/>
       <c r="C76" s="4" t="s">
         <v>29</v>
       </c>
@@ -6636,51 +6684,51 @@
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="J76" s="46">
-        <v>0</v>
-      </c>
-      <c r="K76" s="96">
-        <v>0</v>
-      </c>
-      <c r="L76" s="96">
-        <v>0</v>
-      </c>
-      <c r="M76" s="96">
-        <v>0</v>
-      </c>
-      <c r="N76" s="96">
-        <v>0</v>
-      </c>
-      <c r="O76" s="96">
-        <v>0</v>
-      </c>
-      <c r="P76" s="62">
+      <c r="J76" s="44">
+        <v>0</v>
+      </c>
+      <c r="K76" s="94">
+        <v>0</v>
+      </c>
+      <c r="L76" s="94">
+        <v>0</v>
+      </c>
+      <c r="M76" s="94">
+        <v>0</v>
+      </c>
+      <c r="N76" s="94">
+        <v>0</v>
+      </c>
+      <c r="O76" s="94">
+        <v>0</v>
+      </c>
+      <c r="P76" s="60">
         <v>0.03</v>
       </c>
-      <c r="Q76" s="62">
-        <v>0</v>
-      </c>
-      <c r="R76" s="62">
-        <v>0</v>
-      </c>
-      <c r="S76" s="62">
-        <v>0</v>
-      </c>
-      <c r="T76" s="62">
-        <v>0</v>
-      </c>
-      <c r="U76" s="62">
-        <v>0</v>
-      </c>
-      <c r="V76" s="62">
-        <v>0</v>
-      </c>
-      <c r="W76" s="63">
+      <c r="Q76" s="60">
+        <v>0</v>
+      </c>
+      <c r="R76" s="60">
+        <v>0</v>
+      </c>
+      <c r="S76" s="60">
+        <v>0</v>
+      </c>
+      <c r="T76" s="60">
+        <v>0</v>
+      </c>
+      <c r="U76" s="60">
+        <v>0</v>
+      </c>
+      <c r="V76" s="60">
+        <v>0</v>
+      </c>
+      <c r="W76" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="133"/>
+      <c r="B77" s="117"/>
       <c r="C77" s="4" t="s">
         <v>30</v>
       </c>
@@ -6701,51 +6749,51 @@
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="J77" s="46">
-        <v>0</v>
-      </c>
-      <c r="K77" s="96">
-        <v>0</v>
-      </c>
-      <c r="L77" s="96">
-        <v>0</v>
-      </c>
-      <c r="M77" s="96">
-        <v>0</v>
-      </c>
-      <c r="N77" s="96">
-        <v>0</v>
-      </c>
-      <c r="O77" s="96">
-        <v>0</v>
-      </c>
-      <c r="P77" s="62">
+      <c r="J77" s="44">
+        <v>0</v>
+      </c>
+      <c r="K77" s="94">
+        <v>0</v>
+      </c>
+      <c r="L77" s="94">
+        <v>0</v>
+      </c>
+      <c r="M77" s="94">
+        <v>0</v>
+      </c>
+      <c r="N77" s="94">
+        <v>0</v>
+      </c>
+      <c r="O77" s="94">
+        <v>0</v>
+      </c>
+      <c r="P77" s="60">
         <v>0.03</v>
       </c>
-      <c r="Q77" s="62">
-        <v>0</v>
-      </c>
-      <c r="R77" s="62">
-        <v>0</v>
-      </c>
-      <c r="S77" s="62">
-        <v>0</v>
-      </c>
-      <c r="T77" s="62">
-        <v>0</v>
-      </c>
-      <c r="U77" s="62">
-        <v>0</v>
-      </c>
-      <c r="V77" s="62">
-        <v>0</v>
-      </c>
-      <c r="W77" s="63">
+      <c r="Q77" s="60">
+        <v>0</v>
+      </c>
+      <c r="R77" s="60">
+        <v>0</v>
+      </c>
+      <c r="S77" s="60">
+        <v>0</v>
+      </c>
+      <c r="T77" s="60">
+        <v>0</v>
+      </c>
+      <c r="U77" s="60">
+        <v>0</v>
+      </c>
+      <c r="V77" s="60">
+        <v>0</v>
+      </c>
+      <c r="W77" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="133"/>
+      <c r="B78" s="117"/>
       <c r="C78" s="4" t="s">
         <v>31</v>
       </c>
@@ -6766,51 +6814,51 @@
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="J78" s="46">
-        <v>0</v>
-      </c>
-      <c r="K78" s="96">
-        <v>0</v>
-      </c>
-      <c r="L78" s="96">
-        <v>0</v>
-      </c>
-      <c r="M78" s="96">
-        <v>0</v>
-      </c>
-      <c r="N78" s="96">
-        <v>0</v>
-      </c>
-      <c r="O78" s="96">
-        <v>0</v>
-      </c>
-      <c r="P78" s="62">
+      <c r="J78" s="44">
+        <v>0</v>
+      </c>
+      <c r="K78" s="94">
+        <v>0</v>
+      </c>
+      <c r="L78" s="94">
+        <v>0</v>
+      </c>
+      <c r="M78" s="94">
+        <v>0</v>
+      </c>
+      <c r="N78" s="94">
+        <v>0</v>
+      </c>
+      <c r="O78" s="94">
+        <v>0</v>
+      </c>
+      <c r="P78" s="60">
         <v>0.03</v>
       </c>
-      <c r="Q78" s="62">
-        <v>0</v>
-      </c>
-      <c r="R78" s="62">
-        <v>0</v>
-      </c>
-      <c r="S78" s="62">
-        <v>0</v>
-      </c>
-      <c r="T78" s="62">
-        <v>0</v>
-      </c>
-      <c r="U78" s="62">
-        <v>0</v>
-      </c>
-      <c r="V78" s="62">
-        <v>0</v>
-      </c>
-      <c r="W78" s="63">
+      <c r="Q78" s="60">
+        <v>0</v>
+      </c>
+      <c r="R78" s="60">
+        <v>0</v>
+      </c>
+      <c r="S78" s="60">
+        <v>0</v>
+      </c>
+      <c r="T78" s="60">
+        <v>0</v>
+      </c>
+      <c r="U78" s="60">
+        <v>0</v>
+      </c>
+      <c r="V78" s="60">
+        <v>0</v>
+      </c>
+      <c r="W78" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="133"/>
+      <c r="B79" s="117"/>
       <c r="C79" s="4" t="s">
         <v>32</v>
       </c>
@@ -6831,51 +6879,51 @@
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="J79" s="46">
-        <v>0</v>
-      </c>
-      <c r="K79" s="96">
-        <v>0</v>
-      </c>
-      <c r="L79" s="96">
-        <v>0</v>
-      </c>
-      <c r="M79" s="96">
-        <v>0</v>
-      </c>
-      <c r="N79" s="96">
-        <v>0</v>
-      </c>
-      <c r="O79" s="96">
-        <v>0</v>
-      </c>
-      <c r="P79" s="62">
+      <c r="J79" s="44">
+        <v>0</v>
+      </c>
+      <c r="K79" s="94">
+        <v>0</v>
+      </c>
+      <c r="L79" s="94">
+        <v>0</v>
+      </c>
+      <c r="M79" s="94">
+        <v>0</v>
+      </c>
+      <c r="N79" s="94">
+        <v>0</v>
+      </c>
+      <c r="O79" s="94">
+        <v>0</v>
+      </c>
+      <c r="P79" s="60">
         <v>0.03</v>
       </c>
-      <c r="Q79" s="62">
-        <v>0</v>
-      </c>
-      <c r="R79" s="62">
-        <v>0</v>
-      </c>
-      <c r="S79" s="62">
-        <v>0</v>
-      </c>
-      <c r="T79" s="62">
-        <v>0</v>
-      </c>
-      <c r="U79" s="62">
-        <v>0</v>
-      </c>
-      <c r="V79" s="62">
-        <v>0</v>
-      </c>
-      <c r="W79" s="63">
+      <c r="Q79" s="60">
+        <v>0</v>
+      </c>
+      <c r="R79" s="60">
+        <v>0</v>
+      </c>
+      <c r="S79" s="60">
+        <v>0</v>
+      </c>
+      <c r="T79" s="60">
+        <v>0</v>
+      </c>
+      <c r="U79" s="60">
+        <v>0</v>
+      </c>
+      <c r="V79" s="60">
+        <v>0</v>
+      </c>
+      <c r="W79" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="133"/>
+      <c r="B80" s="117"/>
       <c r="C80" s="4" t="s">
         <v>33</v>
       </c>
@@ -6896,51 +6944,51 @@
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="J80" s="46">
-        <v>0</v>
-      </c>
-      <c r="K80" s="96">
-        <v>0</v>
-      </c>
-      <c r="L80" s="96">
-        <v>0</v>
-      </c>
-      <c r="M80" s="96">
-        <v>0</v>
-      </c>
-      <c r="N80" s="96">
-        <v>0</v>
-      </c>
-      <c r="O80" s="96">
-        <v>0</v>
-      </c>
-      <c r="P80" s="62">
+      <c r="J80" s="44">
+        <v>0</v>
+      </c>
+      <c r="K80" s="94">
+        <v>0</v>
+      </c>
+      <c r="L80" s="94">
+        <v>0</v>
+      </c>
+      <c r="M80" s="94">
+        <v>0</v>
+      </c>
+      <c r="N80" s="94">
+        <v>0</v>
+      </c>
+      <c r="O80" s="94">
+        <v>0</v>
+      </c>
+      <c r="P80" s="60">
         <v>0.03</v>
       </c>
-      <c r="Q80" s="62">
-        <v>0</v>
-      </c>
-      <c r="R80" s="62">
-        <v>0</v>
-      </c>
-      <c r="S80" s="62">
-        <v>0</v>
-      </c>
-      <c r="T80" s="62">
-        <v>0</v>
-      </c>
-      <c r="U80" s="62">
-        <v>0</v>
-      </c>
-      <c r="V80" s="62">
-        <v>0</v>
-      </c>
-      <c r="W80" s="63">
+      <c r="Q80" s="60">
+        <v>0</v>
+      </c>
+      <c r="R80" s="60">
+        <v>0</v>
+      </c>
+      <c r="S80" s="60">
+        <v>0</v>
+      </c>
+      <c r="T80" s="60">
+        <v>0</v>
+      </c>
+      <c r="U80" s="60">
+        <v>0</v>
+      </c>
+      <c r="V80" s="60">
+        <v>0</v>
+      </c>
+      <c r="W80" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="133"/>
+      <c r="B81" s="117"/>
       <c r="C81" s="4" t="s">
         <v>34</v>
       </c>
@@ -6961,51 +7009,51 @@
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="J81" s="46">
-        <v>0</v>
-      </c>
-      <c r="K81" s="96">
-        <v>0</v>
-      </c>
-      <c r="L81" s="96">
-        <v>0</v>
-      </c>
-      <c r="M81" s="96">
-        <v>0</v>
-      </c>
-      <c r="N81" s="96">
-        <v>0</v>
-      </c>
-      <c r="O81" s="96">
-        <v>0</v>
-      </c>
-      <c r="P81" s="62">
+      <c r="J81" s="44">
+        <v>0</v>
+      </c>
+      <c r="K81" s="94">
+        <v>0</v>
+      </c>
+      <c r="L81" s="94">
+        <v>0</v>
+      </c>
+      <c r="M81" s="94">
+        <v>0</v>
+      </c>
+      <c r="N81" s="94">
+        <v>0</v>
+      </c>
+      <c r="O81" s="94">
+        <v>0</v>
+      </c>
+      <c r="P81" s="60">
         <v>0.03</v>
       </c>
-      <c r="Q81" s="62">
-        <v>0</v>
-      </c>
-      <c r="R81" s="62">
-        <v>0</v>
-      </c>
-      <c r="S81" s="62">
-        <v>0</v>
-      </c>
-      <c r="T81" s="62">
-        <v>0</v>
-      </c>
-      <c r="U81" s="62">
-        <v>0</v>
-      </c>
-      <c r="V81" s="62">
-        <v>0</v>
-      </c>
-      <c r="W81" s="63">
+      <c r="Q81" s="60">
+        <v>0</v>
+      </c>
+      <c r="R81" s="60">
+        <v>0</v>
+      </c>
+      <c r="S81" s="60">
+        <v>0</v>
+      </c>
+      <c r="T81" s="60">
+        <v>0</v>
+      </c>
+      <c r="U81" s="60">
+        <v>0</v>
+      </c>
+      <c r="V81" s="60">
+        <v>0</v>
+      </c>
+      <c r="W81" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="133"/>
+      <c r="B82" s="117"/>
       <c r="C82" s="4" t="s">
         <v>35</v>
       </c>
@@ -7026,51 +7074,51 @@
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="J82" s="46">
-        <v>0</v>
-      </c>
-      <c r="K82" s="96">
-        <v>0</v>
-      </c>
-      <c r="L82" s="96">
-        <v>0</v>
-      </c>
-      <c r="M82" s="96">
-        <v>0</v>
-      </c>
-      <c r="N82" s="96">
-        <v>0</v>
-      </c>
-      <c r="O82" s="96">
-        <v>0</v>
-      </c>
-      <c r="P82" s="62">
+      <c r="J82" s="44">
+        <v>0</v>
+      </c>
+      <c r="K82" s="94">
+        <v>0</v>
+      </c>
+      <c r="L82" s="94">
+        <v>0</v>
+      </c>
+      <c r="M82" s="94">
+        <v>0</v>
+      </c>
+      <c r="N82" s="94">
+        <v>0</v>
+      </c>
+      <c r="O82" s="94">
+        <v>0</v>
+      </c>
+      <c r="P82" s="60">
         <v>0.03</v>
       </c>
-      <c r="Q82" s="62">
-        <v>0</v>
-      </c>
-      <c r="R82" s="62">
-        <v>0</v>
-      </c>
-      <c r="S82" s="62">
-        <v>0</v>
-      </c>
-      <c r="T82" s="62">
-        <v>0</v>
-      </c>
-      <c r="U82" s="62">
-        <v>0</v>
-      </c>
-      <c r="V82" s="62">
-        <v>0</v>
-      </c>
-      <c r="W82" s="63">
+      <c r="Q82" s="60">
+        <v>0</v>
+      </c>
+      <c r="R82" s="60">
+        <v>0</v>
+      </c>
+      <c r="S82" s="60">
+        <v>0</v>
+      </c>
+      <c r="T82" s="60">
+        <v>0</v>
+      </c>
+      <c r="U82" s="60">
+        <v>0</v>
+      </c>
+      <c r="V82" s="60">
+        <v>0</v>
+      </c>
+      <c r="W82" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="133"/>
+      <c r="B83" s="117"/>
       <c r="C83" s="4" t="s">
         <v>36</v>
       </c>
@@ -7091,51 +7139,51 @@
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="J83" s="46">
-        <v>0</v>
-      </c>
-      <c r="K83" s="96">
-        <v>0</v>
-      </c>
-      <c r="L83" s="96">
-        <v>0</v>
-      </c>
-      <c r="M83" s="96">
-        <v>0</v>
-      </c>
-      <c r="N83" s="96">
-        <v>0</v>
-      </c>
-      <c r="O83" s="96">
-        <v>0</v>
-      </c>
-      <c r="P83" s="62">
+      <c r="J83" s="44">
+        <v>0</v>
+      </c>
+      <c r="K83" s="94">
+        <v>0</v>
+      </c>
+      <c r="L83" s="94">
+        <v>0</v>
+      </c>
+      <c r="M83" s="94">
+        <v>0</v>
+      </c>
+      <c r="N83" s="94">
+        <v>0</v>
+      </c>
+      <c r="O83" s="94">
+        <v>0</v>
+      </c>
+      <c r="P83" s="60">
         <v>0.03</v>
       </c>
-      <c r="Q83" s="62">
-        <v>0</v>
-      </c>
-      <c r="R83" s="62">
-        <v>0</v>
-      </c>
-      <c r="S83" s="62">
-        <v>0</v>
-      </c>
-      <c r="T83" s="62">
-        <v>0</v>
-      </c>
-      <c r="U83" s="62">
-        <v>0</v>
-      </c>
-      <c r="V83" s="62">
-        <v>0</v>
-      </c>
-      <c r="W83" s="63">
+      <c r="Q83" s="60">
+        <v>0</v>
+      </c>
+      <c r="R83" s="60">
+        <v>0</v>
+      </c>
+      <c r="S83" s="60">
+        <v>0</v>
+      </c>
+      <c r="T83" s="60">
+        <v>0</v>
+      </c>
+      <c r="U83" s="60">
+        <v>0</v>
+      </c>
+      <c r="V83" s="60">
+        <v>0</v>
+      </c>
+      <c r="W83" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="133"/>
+      <c r="B84" s="117"/>
       <c r="C84" s="4" t="s">
         <v>37</v>
       </c>
@@ -7156,51 +7204,51 @@
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="J84" s="46">
-        <v>0</v>
-      </c>
-      <c r="K84" s="96">
-        <v>0</v>
-      </c>
-      <c r="L84" s="96">
-        <v>0</v>
-      </c>
-      <c r="M84" s="96">
-        <v>0</v>
-      </c>
-      <c r="N84" s="96">
-        <v>0</v>
-      </c>
-      <c r="O84" s="96">
-        <v>0</v>
-      </c>
-      <c r="P84" s="62">
+      <c r="J84" s="44">
+        <v>0</v>
+      </c>
+      <c r="K84" s="94">
+        <v>0</v>
+      </c>
+      <c r="L84" s="94">
+        <v>0</v>
+      </c>
+      <c r="M84" s="94">
+        <v>0</v>
+      </c>
+      <c r="N84" s="94">
+        <v>0</v>
+      </c>
+      <c r="O84" s="94">
+        <v>0</v>
+      </c>
+      <c r="P84" s="60">
         <v>0.03</v>
       </c>
-      <c r="Q84" s="62">
-        <v>0</v>
-      </c>
-      <c r="R84" s="62">
-        <v>0</v>
-      </c>
-      <c r="S84" s="62">
-        <v>0</v>
-      </c>
-      <c r="T84" s="62">
-        <v>0</v>
-      </c>
-      <c r="U84" s="62">
-        <v>0</v>
-      </c>
-      <c r="V84" s="62">
-        <v>0</v>
-      </c>
-      <c r="W84" s="63">
+      <c r="Q84" s="60">
+        <v>0</v>
+      </c>
+      <c r="R84" s="60">
+        <v>0</v>
+      </c>
+      <c r="S84" s="60">
+        <v>0</v>
+      </c>
+      <c r="T84" s="60">
+        <v>0</v>
+      </c>
+      <c r="U84" s="60">
+        <v>0</v>
+      </c>
+      <c r="V84" s="60">
+        <v>0</v>
+      </c>
+      <c r="W84" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="133"/>
+      <c r="B85" s="117"/>
       <c r="C85" s="4" t="s">
         <v>38</v>
       </c>
@@ -7221,51 +7269,51 @@
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="J85" s="46">
-        <v>0</v>
-      </c>
-      <c r="K85" s="96">
-        <v>0</v>
-      </c>
-      <c r="L85" s="96">
-        <v>0</v>
-      </c>
-      <c r="M85" s="96">
-        <v>0</v>
-      </c>
-      <c r="N85" s="96">
-        <v>0</v>
-      </c>
-      <c r="O85" s="96">
-        <v>0</v>
-      </c>
-      <c r="P85" s="62">
+      <c r="J85" s="44">
+        <v>0</v>
+      </c>
+      <c r="K85" s="94">
+        <v>0</v>
+      </c>
+      <c r="L85" s="94">
+        <v>0</v>
+      </c>
+      <c r="M85" s="94">
+        <v>0</v>
+      </c>
+      <c r="N85" s="94">
+        <v>0</v>
+      </c>
+      <c r="O85" s="94">
+        <v>0</v>
+      </c>
+      <c r="P85" s="60">
         <v>0.03</v>
       </c>
-      <c r="Q85" s="62">
-        <v>0</v>
-      </c>
-      <c r="R85" s="62">
-        <v>0</v>
-      </c>
-      <c r="S85" s="62">
-        <v>0</v>
-      </c>
-      <c r="T85" s="62">
-        <v>0</v>
-      </c>
-      <c r="U85" s="62">
-        <v>0</v>
-      </c>
-      <c r="V85" s="62">
-        <v>0</v>
-      </c>
-      <c r="W85" s="63">
+      <c r="Q85" s="60">
+        <v>0</v>
+      </c>
+      <c r="R85" s="60">
+        <v>0</v>
+      </c>
+      <c r="S85" s="60">
+        <v>0</v>
+      </c>
+      <c r="T85" s="60">
+        <v>0</v>
+      </c>
+      <c r="U85" s="60">
+        <v>0</v>
+      </c>
+      <c r="V85" s="60">
+        <v>0</v>
+      </c>
+      <c r="W85" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="133"/>
+      <c r="B86" s="117"/>
       <c r="C86" s="4" t="s">
         <v>39</v>
       </c>
@@ -7286,51 +7334,51 @@
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="J86" s="46">
-        <v>0</v>
-      </c>
-      <c r="K86" s="96">
-        <v>0</v>
-      </c>
-      <c r="L86" s="96">
-        <v>0</v>
-      </c>
-      <c r="M86" s="96">
-        <v>0</v>
-      </c>
-      <c r="N86" s="96">
-        <v>0</v>
-      </c>
-      <c r="O86" s="96">
-        <v>0</v>
-      </c>
-      <c r="P86" s="62">
+      <c r="J86" s="44">
+        <v>0</v>
+      </c>
+      <c r="K86" s="94">
+        <v>0</v>
+      </c>
+      <c r="L86" s="94">
+        <v>0</v>
+      </c>
+      <c r="M86" s="94">
+        <v>0</v>
+      </c>
+      <c r="N86" s="94">
+        <v>0</v>
+      </c>
+      <c r="O86" s="94">
+        <v>0</v>
+      </c>
+      <c r="P86" s="60">
         <v>0.03</v>
       </c>
-      <c r="Q86" s="62">
-        <v>0</v>
-      </c>
-      <c r="R86" s="62">
-        <v>0</v>
-      </c>
-      <c r="S86" s="62">
-        <v>0</v>
-      </c>
-      <c r="T86" s="62">
-        <v>0</v>
-      </c>
-      <c r="U86" s="62">
-        <v>0</v>
-      </c>
-      <c r="V86" s="62">
-        <v>0</v>
-      </c>
-      <c r="W86" s="63">
+      <c r="Q86" s="60">
+        <v>0</v>
+      </c>
+      <c r="R86" s="60">
+        <v>0</v>
+      </c>
+      <c r="S86" s="60">
+        <v>0</v>
+      </c>
+      <c r="T86" s="60">
+        <v>0</v>
+      </c>
+      <c r="U86" s="60">
+        <v>0</v>
+      </c>
+      <c r="V86" s="60">
+        <v>0</v>
+      </c>
+      <c r="W86" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="133"/>
+      <c r="B87" s="117"/>
       <c r="C87" s="4" t="s">
         <v>40</v>
       </c>
@@ -7351,51 +7399,51 @@
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="J87" s="46">
-        <v>0</v>
-      </c>
-      <c r="K87" s="96">
-        <v>0</v>
-      </c>
-      <c r="L87" s="96">
-        <v>0</v>
-      </c>
-      <c r="M87" s="96">
-        <v>0</v>
-      </c>
-      <c r="N87" s="96">
-        <v>0</v>
-      </c>
-      <c r="O87" s="96">
-        <v>0</v>
-      </c>
-      <c r="P87" s="62">
+      <c r="J87" s="44">
+        <v>0</v>
+      </c>
+      <c r="K87" s="94">
+        <v>0</v>
+      </c>
+      <c r="L87" s="94">
+        <v>0</v>
+      </c>
+      <c r="M87" s="94">
+        <v>0</v>
+      </c>
+      <c r="N87" s="94">
+        <v>0</v>
+      </c>
+      <c r="O87" s="94">
+        <v>0</v>
+      </c>
+      <c r="P87" s="60">
         <v>0.03</v>
       </c>
-      <c r="Q87" s="62">
-        <v>0</v>
-      </c>
-      <c r="R87" s="62">
-        <v>0</v>
-      </c>
-      <c r="S87" s="62">
-        <v>0</v>
-      </c>
-      <c r="T87" s="62">
-        <v>0</v>
-      </c>
-      <c r="U87" s="62">
-        <v>0</v>
-      </c>
-      <c r="V87" s="62">
-        <v>0</v>
-      </c>
-      <c r="W87" s="63">
+      <c r="Q87" s="60">
+        <v>0</v>
+      </c>
+      <c r="R87" s="60">
+        <v>0</v>
+      </c>
+      <c r="S87" s="60">
+        <v>0</v>
+      </c>
+      <c r="T87" s="60">
+        <v>0</v>
+      </c>
+      <c r="U87" s="60">
+        <v>0</v>
+      </c>
+      <c r="V87" s="60">
+        <v>0</v>
+      </c>
+      <c r="W87" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="133"/>
+      <c r="B88" s="117"/>
       <c r="C88" s="4" t="s">
         <v>41</v>
       </c>
@@ -7416,51 +7464,51 @@
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="J88" s="46">
-        <v>0</v>
-      </c>
-      <c r="K88" s="96">
-        <v>0</v>
-      </c>
-      <c r="L88" s="96">
-        <v>0</v>
-      </c>
-      <c r="M88" s="96">
-        <v>0</v>
-      </c>
-      <c r="N88" s="96">
-        <v>0</v>
-      </c>
-      <c r="O88" s="96">
-        <v>0</v>
-      </c>
-      <c r="P88" s="62">
+      <c r="J88" s="44">
+        <v>0</v>
+      </c>
+      <c r="K88" s="94">
+        <v>0</v>
+      </c>
+      <c r="L88" s="94">
+        <v>0</v>
+      </c>
+      <c r="M88" s="94">
+        <v>0</v>
+      </c>
+      <c r="N88" s="94">
+        <v>0</v>
+      </c>
+      <c r="O88" s="94">
+        <v>0</v>
+      </c>
+      <c r="P88" s="60">
         <v>0.03</v>
       </c>
-      <c r="Q88" s="62">
-        <v>0</v>
-      </c>
-      <c r="R88" s="62">
-        <v>0</v>
-      </c>
-      <c r="S88" s="62">
-        <v>0</v>
-      </c>
-      <c r="T88" s="62">
-        <v>0</v>
-      </c>
-      <c r="U88" s="62">
-        <v>0</v>
-      </c>
-      <c r="V88" s="62">
-        <v>0</v>
-      </c>
-      <c r="W88" s="63">
+      <c r="Q88" s="60">
+        <v>0</v>
+      </c>
+      <c r="R88" s="60">
+        <v>0</v>
+      </c>
+      <c r="S88" s="60">
+        <v>0</v>
+      </c>
+      <c r="T88" s="60">
+        <v>0</v>
+      </c>
+      <c r="U88" s="60">
+        <v>0</v>
+      </c>
+      <c r="V88" s="60">
+        <v>0</v>
+      </c>
+      <c r="W88" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="133"/>
+      <c r="B89" s="117"/>
       <c r="C89" s="4" t="s">
         <v>115</v>
       </c>
@@ -7471,7 +7519,7 @@
       <c r="F89" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G89" s="50">
+      <c r="G89" s="48">
         <v>1</v>
       </c>
       <c r="H89" s="22">
@@ -7481,51 +7529,51 @@
         <f>SUM(J89:W89)</f>
         <v>2.5</v>
       </c>
-      <c r="J89" s="46">
-        <v>0</v>
-      </c>
-      <c r="K89" s="96">
-        <v>0</v>
-      </c>
-      <c r="L89" s="96">
-        <v>0</v>
-      </c>
-      <c r="M89" s="96">
-        <v>0</v>
-      </c>
-      <c r="N89" s="96">
-        <v>0</v>
-      </c>
-      <c r="O89" s="62">
+      <c r="J89" s="44">
+        <v>0</v>
+      </c>
+      <c r="K89" s="94">
+        <v>0</v>
+      </c>
+      <c r="L89" s="94">
+        <v>0</v>
+      </c>
+      <c r="M89" s="94">
+        <v>0</v>
+      </c>
+      <c r="N89" s="94">
+        <v>0</v>
+      </c>
+      <c r="O89" s="60">
         <v>2.5</v>
       </c>
-      <c r="P89" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="62">
-        <v>0</v>
-      </c>
-      <c r="R89" s="62">
-        <v>0</v>
-      </c>
-      <c r="S89" s="62">
-        <v>0</v>
-      </c>
-      <c r="T89" s="62">
-        <v>0</v>
-      </c>
-      <c r="U89" s="62">
-        <v>0</v>
-      </c>
-      <c r="V89" s="62">
-        <v>0</v>
-      </c>
-      <c r="W89" s="63">
+      <c r="P89" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="60">
+        <v>0</v>
+      </c>
+      <c r="R89" s="60">
+        <v>0</v>
+      </c>
+      <c r="S89" s="60">
+        <v>0</v>
+      </c>
+      <c r="T89" s="60">
+        <v>0</v>
+      </c>
+      <c r="U89" s="60">
+        <v>0</v>
+      </c>
+      <c r="V89" s="60">
+        <v>0</v>
+      </c>
+      <c r="W89" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="133"/>
+      <c r="B90" s="117"/>
       <c r="C90" s="4" t="s">
         <v>116</v>
       </c>
@@ -7536,7 +7584,7 @@
       <c r="F90" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G90" s="50">
+      <c r="G90" s="48">
         <v>1</v>
       </c>
       <c r="H90" s="22">
@@ -7546,51 +7594,51 @@
         <f>SUM(J90:W90)</f>
         <v>3</v>
       </c>
-      <c r="J90" s="46">
-        <v>0</v>
-      </c>
-      <c r="K90" s="96">
-        <v>0</v>
-      </c>
-      <c r="L90" s="96">
-        <v>0</v>
-      </c>
-      <c r="M90" s="96">
-        <v>0</v>
-      </c>
-      <c r="N90" s="96">
-        <v>0</v>
-      </c>
-      <c r="O90" s="96">
-        <v>0</v>
-      </c>
-      <c r="P90" s="62">
+      <c r="J90" s="44">
+        <v>0</v>
+      </c>
+      <c r="K90" s="94">
+        <v>0</v>
+      </c>
+      <c r="L90" s="94">
+        <v>0</v>
+      </c>
+      <c r="M90" s="94">
+        <v>0</v>
+      </c>
+      <c r="N90" s="94">
+        <v>0</v>
+      </c>
+      <c r="O90" s="94">
+        <v>0</v>
+      </c>
+      <c r="P90" s="60">
         <v>3</v>
       </c>
-      <c r="Q90" s="62">
-        <v>0</v>
-      </c>
-      <c r="R90" s="62">
-        <v>0</v>
-      </c>
-      <c r="S90" s="62">
-        <v>0</v>
-      </c>
-      <c r="T90" s="62">
-        <v>0</v>
-      </c>
-      <c r="U90" s="62">
-        <v>0</v>
-      </c>
-      <c r="V90" s="62">
-        <v>0</v>
-      </c>
-      <c r="W90" s="63">
+      <c r="Q90" s="60">
+        <v>0</v>
+      </c>
+      <c r="R90" s="60">
+        <v>0</v>
+      </c>
+      <c r="S90" s="60">
+        <v>0</v>
+      </c>
+      <c r="T90" s="60">
+        <v>0</v>
+      </c>
+      <c r="U90" s="60">
+        <v>0</v>
+      </c>
+      <c r="V90" s="60">
+        <v>0</v>
+      </c>
+      <c r="W90" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="133"/>
+      <c r="B91" s="117"/>
       <c r="C91" s="4" t="s">
         <v>42</v>
       </c>
@@ -7611,119 +7659,119 @@
         <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
-      <c r="J91" s="46">
-        <v>0</v>
-      </c>
-      <c r="K91" s="96">
-        <v>0</v>
-      </c>
-      <c r="L91" s="96">
-        <v>0</v>
-      </c>
-      <c r="M91" s="96">
-        <v>0</v>
-      </c>
-      <c r="N91" s="96">
-        <v>0</v>
-      </c>
-      <c r="O91" s="96">
-        <v>0</v>
-      </c>
-      <c r="P91" s="62">
+      <c r="J91" s="44">
+        <v>0</v>
+      </c>
+      <c r="K91" s="94">
+        <v>0</v>
+      </c>
+      <c r="L91" s="94">
+        <v>0</v>
+      </c>
+      <c r="M91" s="94">
+        <v>0</v>
+      </c>
+      <c r="N91" s="94">
+        <v>0</v>
+      </c>
+      <c r="O91" s="94">
+        <v>0</v>
+      </c>
+      <c r="P91" s="60">
         <v>0.3</v>
       </c>
-      <c r="Q91" s="62">
-        <v>0</v>
-      </c>
-      <c r="R91" s="62">
-        <v>0</v>
-      </c>
-      <c r="S91" s="62">
-        <v>0</v>
-      </c>
-      <c r="T91" s="62">
-        <v>0</v>
-      </c>
-      <c r="U91" s="62">
-        <v>0</v>
-      </c>
-      <c r="V91" s="62">
-        <v>0</v>
-      </c>
-      <c r="W91" s="63">
+      <c r="Q91" s="60">
+        <v>0</v>
+      </c>
+      <c r="R91" s="60">
+        <v>0</v>
+      </c>
+      <c r="S91" s="60">
+        <v>0</v>
+      </c>
+      <c r="T91" s="60">
+        <v>0</v>
+      </c>
+      <c r="U91" s="60">
+        <v>0</v>
+      </c>
+      <c r="V91" s="60">
+        <v>0</v>
+      </c>
+      <c r="W91" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="134"/>
-      <c r="C92" s="34" t="s">
+      <c r="B92" s="118"/>
+      <c r="C92" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="D92" s="35"/>
-      <c r="E92" s="36" t="s">
+      <c r="D92" s="33"/>
+      <c r="E92" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="F92" s="35" t="s">
+      <c r="F92" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="G92" s="35">
+      <c r="G92" s="33">
         <v>2</v>
       </c>
-      <c r="H92" s="40">
+      <c r="H92" s="38">
         <v>0.25</v>
       </c>
-      <c r="I92" s="44">
+      <c r="I92" s="42">
         <f t="shared" si="1"/>
         <v>2.35</v>
       </c>
-      <c r="J92" s="95">
-        <v>0</v>
-      </c>
-      <c r="K92" s="100">
-        <v>0</v>
-      </c>
-      <c r="L92" s="100">
-        <v>0</v>
-      </c>
-      <c r="M92" s="100">
-        <v>0</v>
-      </c>
-      <c r="N92" s="100">
-        <v>0</v>
-      </c>
-      <c r="O92" s="100">
-        <v>0</v>
-      </c>
-      <c r="P92" s="100">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="100">
-        <v>0</v>
-      </c>
-      <c r="R92" s="105">
-        <v>0</v>
-      </c>
-      <c r="S92" s="107">
+      <c r="J92" s="93">
+        <v>0</v>
+      </c>
+      <c r="K92" s="98">
+        <v>0</v>
+      </c>
+      <c r="L92" s="98">
+        <v>0</v>
+      </c>
+      <c r="M92" s="98">
+        <v>0</v>
+      </c>
+      <c r="N92" s="98">
+        <v>0</v>
+      </c>
+      <c r="O92" s="98">
+        <v>0</v>
+      </c>
+      <c r="P92" s="98">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="98">
+        <v>0</v>
+      </c>
+      <c r="R92" s="103">
+        <v>0</v>
+      </c>
+      <c r="S92" s="105">
         <v>2.35</v>
       </c>
-      <c r="T92" s="107">
-        <v>0</v>
-      </c>
-      <c r="U92" s="107">
-        <v>0</v>
-      </c>
-      <c r="V92" s="107">
-        <v>0</v>
-      </c>
-      <c r="W92" s="108">
+      <c r="T92" s="105">
+        <v>0</v>
+      </c>
+      <c r="U92" s="105">
+        <v>0</v>
+      </c>
+      <c r="V92" s="105">
+        <v>0</v>
+      </c>
+      <c r="W92" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="137" t="s">
+      <c r="B93" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="C93" s="135" t="s">
+      <c r="C93" s="119" t="s">
         <v>89</v>
       </c>
       <c r="D93" s="6" t="s">
@@ -7745,52 +7793,52 @@
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="J93" s="55">
-        <v>0</v>
-      </c>
-      <c r="K93" s="97">
-        <v>0</v>
-      </c>
-      <c r="L93" s="97">
-        <v>0</v>
-      </c>
-      <c r="M93" s="97">
-        <v>0</v>
-      </c>
-      <c r="N93" s="97">
-        <v>0</v>
-      </c>
-      <c r="O93" s="97">
-        <v>0</v>
-      </c>
-      <c r="P93" s="97">
-        <v>0</v>
-      </c>
-      <c r="Q93" s="97">
-        <v>0</v>
-      </c>
-      <c r="R93" s="101">
+      <c r="J93" s="53">
+        <v>0</v>
+      </c>
+      <c r="K93" s="95">
+        <v>0</v>
+      </c>
+      <c r="L93" s="95">
+        <v>0</v>
+      </c>
+      <c r="M93" s="95">
+        <v>0</v>
+      </c>
+      <c r="N93" s="95">
+        <v>0</v>
+      </c>
+      <c r="O93" s="95">
+        <v>0</v>
+      </c>
+      <c r="P93" s="95">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="95">
+        <v>0</v>
+      </c>
+      <c r="R93" s="99">
         <v>0.7</v>
       </c>
-      <c r="S93" s="101">
-        <v>0</v>
-      </c>
-      <c r="T93" s="101">
-        <v>0</v>
-      </c>
-      <c r="U93" s="101">
-        <v>0</v>
-      </c>
-      <c r="V93" s="101">
-        <v>0</v>
-      </c>
-      <c r="W93" s="102">
+      <c r="S93" s="99">
+        <v>0</v>
+      </c>
+      <c r="T93" s="99">
+        <v>0</v>
+      </c>
+      <c r="U93" s="99">
+        <v>0</v>
+      </c>
+      <c r="V93" s="99">
+        <v>0</v>
+      </c>
+      <c r="W93" s="100">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="137"/>
-      <c r="C94" s="136"/>
+      <c r="B94" s="121"/>
+      <c r="C94" s="120"/>
       <c r="D94" s="4" t="s">
         <v>91</v>
       </c>
@@ -7810,52 +7858,52 @@
         <f t="shared" si="1"/>
         <v>0.93</v>
       </c>
-      <c r="J94" s="46">
-        <v>0</v>
-      </c>
-      <c r="K94" s="96">
-        <v>0</v>
-      </c>
-      <c r="L94" s="96">
-        <v>0</v>
-      </c>
-      <c r="M94" s="96">
-        <v>0</v>
-      </c>
-      <c r="N94" s="96">
-        <v>0</v>
-      </c>
-      <c r="O94" s="96">
-        <v>0</v>
-      </c>
-      <c r="P94" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="96">
-        <v>0</v>
-      </c>
-      <c r="R94" s="62">
+      <c r="J94" s="44">
+        <v>0</v>
+      </c>
+      <c r="K94" s="94">
+        <v>0</v>
+      </c>
+      <c r="L94" s="94">
+        <v>0</v>
+      </c>
+      <c r="M94" s="94">
+        <v>0</v>
+      </c>
+      <c r="N94" s="94">
+        <v>0</v>
+      </c>
+      <c r="O94" s="94">
+        <v>0</v>
+      </c>
+      <c r="P94" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="94">
+        <v>0</v>
+      </c>
+      <c r="R94" s="60">
         <v>0.93</v>
       </c>
-      <c r="S94" s="62">
-        <v>0</v>
-      </c>
-      <c r="T94" s="62">
-        <v>0</v>
-      </c>
-      <c r="U94" s="62">
-        <v>0</v>
-      </c>
-      <c r="V94" s="62">
-        <v>0</v>
-      </c>
-      <c r="W94" s="63">
+      <c r="S94" s="60">
+        <v>0</v>
+      </c>
+      <c r="T94" s="60">
+        <v>0</v>
+      </c>
+      <c r="U94" s="60">
+        <v>0</v>
+      </c>
+      <c r="V94" s="60">
+        <v>0</v>
+      </c>
+      <c r="W94" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="137"/>
-      <c r="C95" s="136"/>
+      <c r="B95" s="121"/>
+      <c r="C95" s="120"/>
       <c r="D95" s="4" t="s">
         <v>92</v>
       </c>
@@ -7875,51 +7923,51 @@
         <f t="shared" si="1"/>
         <v>0.91700000000000004</v>
       </c>
-      <c r="J95" s="46">
-        <v>0</v>
-      </c>
-      <c r="K95" s="96">
-        <v>0</v>
-      </c>
-      <c r="L95" s="96">
-        <v>0</v>
-      </c>
-      <c r="M95" s="96">
-        <v>0</v>
-      </c>
-      <c r="N95" s="96">
-        <v>0</v>
-      </c>
-      <c r="O95" s="96">
-        <v>0</v>
-      </c>
-      <c r="P95" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="96">
-        <v>0</v>
-      </c>
-      <c r="R95" s="62">
+      <c r="J95" s="44">
+        <v>0</v>
+      </c>
+      <c r="K95" s="94">
+        <v>0</v>
+      </c>
+      <c r="L95" s="94">
+        <v>0</v>
+      </c>
+      <c r="M95" s="94">
+        <v>0</v>
+      </c>
+      <c r="N95" s="94">
+        <v>0</v>
+      </c>
+      <c r="O95" s="94">
+        <v>0</v>
+      </c>
+      <c r="P95" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="94">
+        <v>0</v>
+      </c>
+      <c r="R95" s="60">
         <v>0.91700000000000004</v>
       </c>
-      <c r="S95" s="62">
-        <v>0</v>
-      </c>
-      <c r="T95" s="62">
-        <v>0</v>
-      </c>
-      <c r="U95" s="62">
-        <v>0</v>
-      </c>
-      <c r="V95" s="62">
-        <v>0</v>
-      </c>
-      <c r="W95" s="63">
+      <c r="S95" s="60">
+        <v>0</v>
+      </c>
+      <c r="T95" s="60">
+        <v>0</v>
+      </c>
+      <c r="U95" s="60">
+        <v>0</v>
+      </c>
+      <c r="V95" s="60">
+        <v>0</v>
+      </c>
+      <c r="W95" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="137"/>
+      <c r="B96" s="121"/>
       <c r="C96" s="16" t="s">
         <v>110</v>
       </c>
@@ -7940,51 +7988,51 @@
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="J96" s="46">
-        <v>0</v>
-      </c>
-      <c r="K96" s="96">
-        <v>0</v>
-      </c>
-      <c r="L96" s="96">
-        <v>0</v>
-      </c>
-      <c r="M96" s="96">
-        <v>0</v>
-      </c>
-      <c r="N96" s="96">
-        <v>0</v>
-      </c>
-      <c r="O96" s="96">
-        <v>0</v>
-      </c>
-      <c r="P96" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="96">
-        <v>0</v>
-      </c>
-      <c r="R96" s="96">
-        <v>0</v>
-      </c>
-      <c r="S96" s="62">
+      <c r="J96" s="44">
+        <v>0</v>
+      </c>
+      <c r="K96" s="94">
+        <v>0</v>
+      </c>
+      <c r="L96" s="94">
+        <v>0</v>
+      </c>
+      <c r="M96" s="94">
+        <v>0</v>
+      </c>
+      <c r="N96" s="94">
+        <v>0</v>
+      </c>
+      <c r="O96" s="94">
+        <v>0</v>
+      </c>
+      <c r="P96" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="94">
+        <v>0</v>
+      </c>
+      <c r="R96" s="94">
+        <v>0</v>
+      </c>
+      <c r="S96" s="60">
         <v>0.05</v>
       </c>
-      <c r="T96" s="62">
-        <v>0</v>
-      </c>
-      <c r="U96" s="62">
-        <v>0</v>
-      </c>
-      <c r="V96" s="62">
-        <v>0</v>
-      </c>
-      <c r="W96" s="63">
+      <c r="T96" s="60">
+        <v>0</v>
+      </c>
+      <c r="U96" s="60">
+        <v>0</v>
+      </c>
+      <c r="V96" s="60">
+        <v>0</v>
+      </c>
+      <c r="W96" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="137"/>
+      <c r="B97" s="121"/>
       <c r="C97" s="16" t="s">
         <v>93</v>
       </c>
@@ -8005,43 +8053,43 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J97" s="46">
-        <v>0</v>
-      </c>
-      <c r="K97" s="96">
-        <v>0</v>
-      </c>
-      <c r="L97" s="96">
-        <v>0</v>
-      </c>
-      <c r="M97" s="96">
-        <v>0</v>
-      </c>
-      <c r="N97" s="96">
-        <v>0</v>
-      </c>
-      <c r="O97" s="96">
-        <v>0</v>
-      </c>
-      <c r="P97" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="96">
-        <v>0</v>
-      </c>
-      <c r="R97" s="96">
-        <v>0</v>
-      </c>
-      <c r="S97" s="96">
-        <v>0</v>
-      </c>
-      <c r="T97" s="89"/>
-      <c r="U97" s="89"/>
-      <c r="V97" s="89"/>
-      <c r="W97" s="90"/>
+      <c r="J97" s="44">
+        <v>0</v>
+      </c>
+      <c r="K97" s="94">
+        <v>0</v>
+      </c>
+      <c r="L97" s="94">
+        <v>0</v>
+      </c>
+      <c r="M97" s="94">
+        <v>0</v>
+      </c>
+      <c r="N97" s="94">
+        <v>0</v>
+      </c>
+      <c r="O97" s="94">
+        <v>0</v>
+      </c>
+      <c r="P97" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="94">
+        <v>0</v>
+      </c>
+      <c r="R97" s="94">
+        <v>0</v>
+      </c>
+      <c r="S97" s="94">
+        <v>0</v>
+      </c>
+      <c r="T97" s="87"/>
+      <c r="U97" s="87"/>
+      <c r="V97" s="87"/>
+      <c r="W97" s="88"/>
     </row>
     <row r="98" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="137"/>
+      <c r="B98" s="121"/>
       <c r="C98" s="16" t="s">
         <v>94</v>
       </c>
@@ -8062,51 +8110,51 @@
         <f t="shared" si="1"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="J98" s="46">
-        <v>0</v>
-      </c>
-      <c r="K98" s="96">
-        <v>0</v>
-      </c>
-      <c r="L98" s="96">
-        <v>0</v>
-      </c>
-      <c r="M98" s="96">
-        <v>0</v>
-      </c>
-      <c r="N98" s="96">
-        <v>0</v>
-      </c>
-      <c r="O98" s="96">
-        <v>0</v>
-      </c>
-      <c r="P98" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="96">
-        <v>0</v>
-      </c>
-      <c r="R98" s="91">
+      <c r="J98" s="44">
+        <v>0</v>
+      </c>
+      <c r="K98" s="94">
+        <v>0</v>
+      </c>
+      <c r="L98" s="94">
+        <v>0</v>
+      </c>
+      <c r="M98" s="94">
+        <v>0</v>
+      </c>
+      <c r="N98" s="94">
+        <v>0</v>
+      </c>
+      <c r="O98" s="94">
+        <v>0</v>
+      </c>
+      <c r="P98" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="94">
+        <v>0</v>
+      </c>
+      <c r="R98" s="89">
         <v>0.76</v>
       </c>
-      <c r="S98" s="62">
+      <c r="S98" s="60">
         <v>1.5</v>
       </c>
-      <c r="T98" s="62">
-        <v>0</v>
-      </c>
-      <c r="U98" s="62">
-        <v>0</v>
-      </c>
-      <c r="V98" s="62">
-        <v>0</v>
-      </c>
-      <c r="W98" s="63">
+      <c r="T98" s="60">
+        <v>0</v>
+      </c>
+      <c r="U98" s="60">
+        <v>0</v>
+      </c>
+      <c r="V98" s="60">
+        <v>0</v>
+      </c>
+      <c r="W98" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="137"/>
+      <c r="B99" s="121"/>
       <c r="C99" s="16" t="s">
         <v>95</v>
       </c>
@@ -8127,51 +8175,51 @@
         <f t="shared" si="1"/>
         <v>0.84</v>
       </c>
-      <c r="J99" s="46">
-        <v>0</v>
-      </c>
-      <c r="K99" s="96">
-        <v>0</v>
-      </c>
-      <c r="L99" s="96">
-        <v>0</v>
-      </c>
-      <c r="M99" s="96">
-        <v>0</v>
-      </c>
-      <c r="N99" s="96">
-        <v>0</v>
-      </c>
-      <c r="O99" s="96">
-        <v>0</v>
-      </c>
-      <c r="P99" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="96">
-        <v>0</v>
-      </c>
-      <c r="R99" s="62">
+      <c r="J99" s="44">
+        <v>0</v>
+      </c>
+      <c r="K99" s="94">
+        <v>0</v>
+      </c>
+      <c r="L99" s="94">
+        <v>0</v>
+      </c>
+      <c r="M99" s="94">
+        <v>0</v>
+      </c>
+      <c r="N99" s="94">
+        <v>0</v>
+      </c>
+      <c r="O99" s="94">
+        <v>0</v>
+      </c>
+      <c r="P99" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="94">
+        <v>0</v>
+      </c>
+      <c r="R99" s="60">
         <v>0.84</v>
       </c>
-      <c r="S99" s="62">
-        <v>0</v>
-      </c>
-      <c r="T99" s="62">
-        <v>0</v>
-      </c>
-      <c r="U99" s="62">
-        <v>0</v>
-      </c>
-      <c r="V99" s="62">
-        <v>0</v>
-      </c>
-      <c r="W99" s="63">
+      <c r="S99" s="60">
+        <v>0</v>
+      </c>
+      <c r="T99" s="60">
+        <v>0</v>
+      </c>
+      <c r="U99" s="60">
+        <v>0</v>
+      </c>
+      <c r="V99" s="60">
+        <v>0</v>
+      </c>
+      <c r="W99" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="137"/>
+      <c r="B100" s="121"/>
       <c r="C100" s="16" t="s">
         <v>96</v>
       </c>
@@ -8192,43 +8240,43 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J100" s="46">
-        <v>0</v>
-      </c>
-      <c r="K100" s="96">
-        <v>0</v>
-      </c>
-      <c r="L100" s="96">
-        <v>0</v>
-      </c>
-      <c r="M100" s="96">
-        <v>0</v>
-      </c>
-      <c r="N100" s="96">
-        <v>0</v>
-      </c>
-      <c r="O100" s="96">
-        <v>0</v>
-      </c>
-      <c r="P100" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="96">
-        <v>0</v>
-      </c>
-      <c r="R100" s="96">
-        <v>0</v>
-      </c>
-      <c r="S100" s="96">
-        <v>0</v>
-      </c>
-      <c r="T100" s="89"/>
-      <c r="U100" s="89"/>
-      <c r="V100" s="89"/>
-      <c r="W100" s="90"/>
+      <c r="J100" s="44">
+        <v>0</v>
+      </c>
+      <c r="K100" s="94">
+        <v>0</v>
+      </c>
+      <c r="L100" s="94">
+        <v>0</v>
+      </c>
+      <c r="M100" s="94">
+        <v>0</v>
+      </c>
+      <c r="N100" s="94">
+        <v>0</v>
+      </c>
+      <c r="O100" s="94">
+        <v>0</v>
+      </c>
+      <c r="P100" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="94">
+        <v>0</v>
+      </c>
+      <c r="R100" s="94">
+        <v>0</v>
+      </c>
+      <c r="S100" s="94">
+        <v>0</v>
+      </c>
+      <c r="T100" s="87"/>
+      <c r="U100" s="87"/>
+      <c r="V100" s="87"/>
+      <c r="W100" s="88"/>
     </row>
     <row r="101" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="138"/>
+      <c r="B101" s="122"/>
       <c r="C101" s="16" t="s">
         <v>97</v>
       </c>
@@ -8249,34 +8297,34 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J101" s="46">
-        <v>0</v>
-      </c>
-      <c r="K101" s="96">
-        <v>0</v>
-      </c>
-      <c r="L101" s="96">
-        <v>0</v>
-      </c>
-      <c r="M101" s="96">
-        <v>0</v>
-      </c>
-      <c r="N101" s="96">
-        <v>0</v>
-      </c>
-      <c r="O101" s="96">
-        <v>0</v>
-      </c>
-      <c r="P101" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="96">
-        <v>0</v>
-      </c>
-      <c r="R101" s="96">
-        <v>0</v>
-      </c>
-      <c r="S101" s="96">
+      <c r="J101" s="44">
+        <v>0</v>
+      </c>
+      <c r="K101" s="94">
+        <v>0</v>
+      </c>
+      <c r="L101" s="94">
+        <v>0</v>
+      </c>
+      <c r="M101" s="94">
+        <v>0</v>
+      </c>
+      <c r="N101" s="94">
+        <v>0</v>
+      </c>
+      <c r="O101" s="94">
+        <v>0</v>
+      </c>
+      <c r="P101" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="94">
+        <v>0</v>
+      </c>
+      <c r="R101" s="94">
+        <v>0</v>
+      </c>
+      <c r="S101" s="94">
         <v>0</v>
       </c>
       <c r="T101" s="18"/>
@@ -8308,40 +8356,40 @@
         <f t="shared" si="1"/>
         <v>3.73</v>
       </c>
-      <c r="J102" s="46">
-        <v>0</v>
-      </c>
-      <c r="K102" s="96">
-        <v>0</v>
-      </c>
-      <c r="L102" s="96">
-        <v>0</v>
-      </c>
-      <c r="M102" s="96">
-        <v>0</v>
-      </c>
-      <c r="N102" s="96">
-        <v>0</v>
-      </c>
-      <c r="O102" s="96">
-        <v>0</v>
-      </c>
-      <c r="P102" s="96">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="96">
-        <v>0</v>
-      </c>
-      <c r="R102" s="96">
-        <v>0</v>
-      </c>
-      <c r="S102" s="96">
-        <v>0</v>
-      </c>
-      <c r="T102" s="88">
+      <c r="J102" s="44">
+        <v>0</v>
+      </c>
+      <c r="K102" s="94">
+        <v>0</v>
+      </c>
+      <c r="L102" s="94">
+        <v>0</v>
+      </c>
+      <c r="M102" s="94">
+        <v>0</v>
+      </c>
+      <c r="N102" s="94">
+        <v>0</v>
+      </c>
+      <c r="O102" s="94">
+        <v>0</v>
+      </c>
+      <c r="P102" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="94">
+        <v>0</v>
+      </c>
+      <c r="R102" s="94">
+        <v>0</v>
+      </c>
+      <c r="S102" s="94">
+        <v>0</v>
+      </c>
+      <c r="T102" s="86">
         <v>0.4</v>
       </c>
-      <c r="U102" s="88">
+      <c r="U102" s="86">
         <v>3.33</v>
       </c>
       <c r="V102" s="18"/>
@@ -8369,46 +8417,46 @@
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="J103" s="46">
-        <v>0</v>
-      </c>
-      <c r="K103" s="96">
-        <v>0</v>
-      </c>
-      <c r="L103" s="49">
+      <c r="J103" s="44">
+        <v>0</v>
+      </c>
+      <c r="K103" s="94">
+        <v>0</v>
+      </c>
+      <c r="L103" s="47">
         <v>0.1</v>
       </c>
-      <c r="M103" s="49">
-        <v>0</v>
-      </c>
-      <c r="N103" s="49">
-        <v>0</v>
-      </c>
-      <c r="O103" s="49">
-        <v>0</v>
-      </c>
-      <c r="P103" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q103" s="49">
-        <v>0</v>
-      </c>
-      <c r="R103" s="49">
-        <v>0</v>
-      </c>
-      <c r="S103" s="49">
-        <v>0</v>
-      </c>
-      <c r="T103" s="49">
-        <v>0</v>
-      </c>
-      <c r="U103" s="49">
-        <v>0</v>
-      </c>
-      <c r="V103" s="49">
-        <v>0</v>
-      </c>
-      <c r="W103" s="49">
+      <c r="M103" s="47">
+        <v>0</v>
+      </c>
+      <c r="N103" s="47">
+        <v>0</v>
+      </c>
+      <c r="O103" s="47">
+        <v>0</v>
+      </c>
+      <c r="P103" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="47">
+        <v>0</v>
+      </c>
+      <c r="R103" s="47">
+        <v>0</v>
+      </c>
+      <c r="S103" s="47">
+        <v>0</v>
+      </c>
+      <c r="T103" s="47">
+        <v>0</v>
+      </c>
+      <c r="U103" s="47">
+        <v>0</v>
+      </c>
+      <c r="V103" s="47">
+        <v>0</v>
+      </c>
+      <c r="W103" s="47">
         <v>0</v>
       </c>
     </row>
@@ -8434,46 +8482,46 @@
         <f t="shared" si="1"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J104" s="46">
-        <v>0</v>
-      </c>
-      <c r="K104" s="96">
-        <v>0</v>
-      </c>
-      <c r="L104" s="96">
-        <v>0</v>
-      </c>
-      <c r="M104" s="49">
+      <c r="J104" s="44">
+        <v>0</v>
+      </c>
+      <c r="K104" s="94">
+        <v>0</v>
+      </c>
+      <c r="L104" s="94">
+        <v>0</v>
+      </c>
+      <c r="M104" s="47">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N104" s="62">
-        <v>0</v>
-      </c>
-      <c r="O104" s="62">
-        <v>0</v>
-      </c>
-      <c r="P104" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q104" s="62">
-        <v>0</v>
-      </c>
-      <c r="R104" s="62">
-        <v>0</v>
-      </c>
-      <c r="S104" s="62">
-        <v>0</v>
-      </c>
-      <c r="T104" s="62">
-        <v>0</v>
-      </c>
-      <c r="U104" s="62">
-        <v>0</v>
-      </c>
-      <c r="V104" s="62">
-        <v>0</v>
-      </c>
-      <c r="W104" s="63">
+      <c r="N104" s="60">
+        <v>0</v>
+      </c>
+      <c r="O104" s="60">
+        <v>0</v>
+      </c>
+      <c r="P104" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="60">
+        <v>0</v>
+      </c>
+      <c r="R104" s="60">
+        <v>0</v>
+      </c>
+      <c r="S104" s="60">
+        <v>0</v>
+      </c>
+      <c r="T104" s="60">
+        <v>0</v>
+      </c>
+      <c r="U104" s="60">
+        <v>0</v>
+      </c>
+      <c r="V104" s="60">
+        <v>0</v>
+      </c>
+      <c r="W104" s="61">
         <v>0</v>
       </c>
     </row>
@@ -8499,119 +8547,119 @@
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="J105" s="47">
-        <v>0</v>
-      </c>
-      <c r="K105" s="99">
-        <v>0</v>
-      </c>
-      <c r="L105" s="112">
+      <c r="J105" s="45">
+        <v>0</v>
+      </c>
+      <c r="K105" s="97">
+        <v>0</v>
+      </c>
+      <c r="L105" s="110">
         <v>0.1</v>
       </c>
-      <c r="M105" s="112">
-        <v>0</v>
-      </c>
-      <c r="N105" s="112">
-        <v>0</v>
-      </c>
-      <c r="O105" s="112">
-        <v>0</v>
-      </c>
-      <c r="P105" s="103">
-        <v>0</v>
-      </c>
-      <c r="Q105" s="103">
-        <v>0</v>
-      </c>
-      <c r="R105" s="103">
-        <v>0</v>
-      </c>
-      <c r="S105" s="103">
-        <v>0</v>
-      </c>
-      <c r="T105" s="103">
-        <v>0</v>
-      </c>
-      <c r="U105" s="103">
-        <v>0</v>
-      </c>
-      <c r="V105" s="103">
-        <v>0</v>
-      </c>
-      <c r="W105" s="104">
+      <c r="M105" s="110">
+        <v>0</v>
+      </c>
+      <c r="N105" s="110">
+        <v>0</v>
+      </c>
+      <c r="O105" s="110">
+        <v>0</v>
+      </c>
+      <c r="P105" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="101">
+        <v>0</v>
+      </c>
+      <c r="R105" s="101">
+        <v>0</v>
+      </c>
+      <c r="S105" s="101">
+        <v>0</v>
+      </c>
+      <c r="T105" s="101">
+        <v>0</v>
+      </c>
+      <c r="U105" s="101">
+        <v>0</v>
+      </c>
+      <c r="V105" s="101">
+        <v>0</v>
+      </c>
+      <c r="W105" s="102">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="129" t="s">
+      <c r="B106" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="130"/>
-      <c r="D106" s="130"/>
-      <c r="E106" s="130"/>
-      <c r="F106" s="130"/>
-      <c r="G106" s="130"/>
+      <c r="C106" s="137"/>
+      <c r="D106" s="137"/>
+      <c r="E106" s="137"/>
+      <c r="F106" s="137"/>
+      <c r="G106" s="137"/>
       <c r="H106" s="25">
         <f t="shared" ref="H106:W106" si="2">SUM(H4:H105)</f>
         <v>34.550000000000004</v>
       </c>
       <c r="I106" s="13">
         <f t="shared" si="2"/>
-        <v>30.259</v>
-      </c>
-      <c r="J106" s="109">
+        <v>31.009</v>
+      </c>
+      <c r="J106" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K106" s="110">
+      <c r="K106" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L106" s="110">
+      <c r="L106" s="108">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="M106" s="110">
+      <c r="M106" s="108">
         <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N106" s="110">
+      <c r="N106" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O106" s="110">
+      <c r="O106" s="108">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="P106" s="110">
+      <c r="P106" s="108">
         <f t="shared" si="2"/>
         <v>8.9750000000000014</v>
       </c>
-      <c r="Q106" s="110">
+      <c r="Q106" s="108">
         <f t="shared" si="2"/>
         <v>3.4870000000000001</v>
       </c>
-      <c r="R106" s="110">
+      <c r="R106" s="108">
         <f t="shared" si="2"/>
         <v>4.407</v>
       </c>
-      <c r="S106" s="110">
+      <c r="S106" s="108">
         <f t="shared" si="2"/>
         <v>6.89</v>
       </c>
-      <c r="T106" s="110">
+      <c r="T106" s="108">
         <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-      <c r="U106" s="110">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="U106" s="108">
         <f t="shared" si="2"/>
         <v>3.33</v>
       </c>
-      <c r="V106" s="110">
+      <c r="V106" s="108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W106" s="111">
+      <c r="W106" s="109">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8625,22 +8673,22 @@
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
-      <c r="J107" s="116" t="s">
+      <c r="J107" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="K107" s="117"/>
-      <c r="L107" s="117"/>
-      <c r="M107" s="117"/>
-      <c r="N107" s="117"/>
-      <c r="O107" s="117"/>
-      <c r="P107" s="117"/>
-      <c r="Q107" s="117"/>
-      <c r="R107" s="117"/>
-      <c r="S107" s="117"/>
-      <c r="T107" s="117"/>
-      <c r="U107" s="117"/>
-      <c r="V107" s="117"/>
-      <c r="W107" s="118"/>
+      <c r="K107" s="125"/>
+      <c r="L107" s="125"/>
+      <c r="M107" s="125"/>
+      <c r="N107" s="125"/>
+      <c r="O107" s="125"/>
+      <c r="P107" s="125"/>
+      <c r="Q107" s="125"/>
+      <c r="R107" s="125"/>
+      <c r="S107" s="125"/>
+      <c r="T107" s="125"/>
+      <c r="U107" s="125"/>
+      <c r="V107" s="125"/>
+      <c r="W107" s="126"/>
     </row>
     <row r="108" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="2"/>
@@ -8665,10 +8713,10 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
-      <c r="H109" s="113" t="s">
+      <c r="H109" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="I109" s="139"/>
+      <c r="I109" s="123"/>
       <c r="J109" s="12">
         <f>H106-J106</f>
         <v>34.550000000000004</v>
@@ -8711,19 +8759,19 @@
       </c>
       <c r="T109" s="12">
         <f t="shared" si="3"/>
-        <v>7.6209999999999969</v>
+        <v>6.8709999999999969</v>
       </c>
       <c r="U109" s="12">
         <f t="shared" si="3"/>
-        <v>4.2909999999999968</v>
+        <v>3.5409999999999968</v>
       </c>
       <c r="V109" s="12">
         <f t="shared" si="3"/>
-        <v>4.2909999999999968</v>
+        <v>3.5409999999999968</v>
       </c>
       <c r="W109" s="12">
         <f t="shared" si="3"/>
-        <v>4.2909999999999968</v>
+        <v>3.5409999999999968</v>
       </c>
     </row>
     <row r="110" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8746,27 +8794,27 @@
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
-      <c r="H111" s="113" t="s">
+      <c r="H111" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="I111" s="114"/>
-      <c r="J111" s="113">
+      <c r="I111" s="112"/>
+      <c r="J111" s="111">
         <f>H106-I106</f>
-        <v>4.2910000000000039</v>
-      </c>
-      <c r="K111" s="114"/>
-      <c r="L111" s="114"/>
-      <c r="M111" s="114"/>
-      <c r="N111" s="114"/>
-      <c r="O111" s="114"/>
-      <c r="P111" s="114"/>
-      <c r="Q111" s="114"/>
-      <c r="R111" s="114"/>
-      <c r="S111" s="114"/>
-      <c r="T111" s="114"/>
-      <c r="U111" s="114"/>
-      <c r="V111" s="114"/>
-      <c r="W111" s="115"/>
+        <v>3.5410000000000039</v>
+      </c>
+      <c r="K111" s="112"/>
+      <c r="L111" s="112"/>
+      <c r="M111" s="112"/>
+      <c r="N111" s="112"/>
+      <c r="O111" s="112"/>
+      <c r="P111" s="112"/>
+      <c r="Q111" s="112"/>
+      <c r="R111" s="112"/>
+      <c r="S111" s="112"/>
+      <c r="T111" s="112"/>
+      <c r="U111" s="112"/>
+      <c r="V111" s="112"/>
+      <c r="W111" s="113"/>
     </row>
     <row r="112" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
@@ -8854,13 +8902,6 @@
     <row r="130" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="J111:W111"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B73:B92"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="B93:B101"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H111:I111"/>
     <mergeCell ref="J2:W2"/>
     <mergeCell ref="J107:W107"/>
     <mergeCell ref="B14:B63"/>
@@ -8869,6 +8910,13 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B106:G106"/>
+    <mergeCell ref="J111:W111"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B73:B92"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="B93:B101"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H111:I111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8882,7 +8930,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8894,7 +8942,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 2 SampleTextStudio.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\MAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Enti\MAP\The_Legend_of_Radev\MAP_LegendOfRadev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1361,96 +1361,94 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1471,7 +1469,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1544,13 +1542,13 @@
                   <c:v>6.8709999999999969</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5409999999999968</c:v>
+                  <c:v>2.3309999999999969</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.5409999999999968</c:v>
+                  <c:v>0.8809999999999969</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.5409999999999968</c:v>
+                  <c:v>0.8809999999999969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1611,6 +1609,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1667,7 +1666,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1742,23 +1741,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1794,23 +1776,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1989,11 +1954,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100:W100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
@@ -2019,22 +1984,22 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="111" t="s">
+      <c r="J2" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="114"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="79" t="s">
@@ -2105,7 +2070,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="123" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="50" t="s">
@@ -2172,8 +2137,8 @@
       </c>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="133"/>
-      <c r="C5" s="114" t="s">
+      <c r="B5" s="124"/>
+      <c r="C5" s="126" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="67" t="s">
@@ -2239,8 +2204,8 @@
       </c>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="133"/>
-      <c r="C6" s="135"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="127"/>
       <c r="D6" s="15" t="s">
         <v>20</v>
       </c>
@@ -2304,7 +2269,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="133"/>
+      <c r="B7" s="124"/>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
@@ -2369,7 +2334,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="133"/>
+      <c r="B8" s="124"/>
       <c r="C8" s="66" t="s">
         <v>16</v>
       </c>
@@ -2434,7 +2399,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="134"/>
+      <c r="B9" s="125"/>
       <c r="C9" s="32" t="s">
         <v>104</v>
       </c>
@@ -2499,7 +2464,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="121" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="83" t="s">
@@ -2552,21 +2517,21 @@
       <c r="S10" s="46">
         <v>0</v>
       </c>
-      <c r="T10" s="138">
+      <c r="T10" s="111">
         <v>0.75</v>
       </c>
-      <c r="U10" s="139">
-        <v>0</v>
-      </c>
-      <c r="V10" s="139">
-        <v>0</v>
-      </c>
-      <c r="W10" s="140">
+      <c r="U10" s="111">
+        <v>0</v>
+      </c>
+      <c r="V10" s="111">
+        <v>0</v>
+      </c>
+      <c r="W10" s="139">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="130"/>
+      <c r="B11" s="121"/>
       <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
@@ -2623,8 +2588,8 @@
       <c r="W11" s="26"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="130"/>
-      <c r="C12" s="114" t="s">
+      <c r="B12" s="121"/>
+      <c r="C12" s="126" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="43" t="s">
@@ -2682,8 +2647,8 @@
       <c r="W12" s="28"/>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="131"/>
-      <c r="C13" s="115"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="130"/>
       <c r="D13" s="33" t="s">
         <v>112</v>
       </c>
@@ -2739,7 +2704,7 @@
       <c r="W13" s="28"/>
     </row>
     <row r="14" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="127" t="s">
+      <c r="B14" s="118" t="s">
         <v>114</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -2806,7 +2771,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="127"/>
+      <c r="B15" s="118"/>
       <c r="C15" s="4" t="s">
         <v>26</v>
       </c>
@@ -2871,7 +2836,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="127"/>
+      <c r="B16" s="118"/>
       <c r="C16" s="4" t="s">
         <v>28</v>
       </c>
@@ -2936,7 +2901,7 @@
       </c>
     </row>
     <row r="17" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="127"/>
+      <c r="B17" s="118"/>
       <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
@@ -3001,7 +2966,7 @@
       </c>
     </row>
     <row r="18" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="127"/>
+      <c r="B18" s="118"/>
       <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
@@ -3066,7 +3031,7 @@
       </c>
     </row>
     <row r="19" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="127"/>
+      <c r="B19" s="118"/>
       <c r="C19" s="4" t="s">
         <v>31</v>
       </c>
@@ -3131,7 +3096,7 @@
       </c>
     </row>
     <row r="20" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="127"/>
+      <c r="B20" s="118"/>
       <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
@@ -3196,7 +3161,7 @@
       </c>
     </row>
     <row r="21" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="127"/>
+      <c r="B21" s="118"/>
       <c r="C21" s="4" t="s">
         <v>33</v>
       </c>
@@ -3261,7 +3226,7 @@
       </c>
     </row>
     <row r="22" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="127"/>
+      <c r="B22" s="118"/>
       <c r="C22" s="4" t="s">
         <v>34</v>
       </c>
@@ -3326,7 +3291,7 @@
       </c>
     </row>
     <row r="23" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="127"/>
+      <c r="B23" s="118"/>
       <c r="C23" s="4" t="s">
         <v>35</v>
       </c>
@@ -3391,7 +3356,7 @@
       </c>
     </row>
     <row r="24" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="127"/>
+      <c r="B24" s="118"/>
       <c r="C24" s="4" t="s">
         <v>36</v>
       </c>
@@ -3456,7 +3421,7 @@
       </c>
     </row>
     <row r="25" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="127"/>
+      <c r="B25" s="118"/>
       <c r="C25" s="4" t="s">
         <v>37</v>
       </c>
@@ -3521,7 +3486,7 @@
       </c>
     </row>
     <row r="26" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="127"/>
+      <c r="B26" s="118"/>
       <c r="C26" s="4" t="s">
         <v>38</v>
       </c>
@@ -3586,7 +3551,7 @@
       </c>
     </row>
     <row r="27" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="127"/>
+      <c r="B27" s="118"/>
       <c r="C27" s="4" t="s">
         <v>39</v>
       </c>
@@ -3651,7 +3616,7 @@
       </c>
     </row>
     <row r="28" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="127"/>
+      <c r="B28" s="118"/>
       <c r="C28" s="4" t="s">
         <v>40</v>
       </c>
@@ -3716,7 +3681,7 @@
       </c>
     </row>
     <row r="29" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="127"/>
+      <c r="B29" s="118"/>
       <c r="C29" s="4" t="s">
         <v>41</v>
       </c>
@@ -3781,7 +3746,7 @@
       </c>
     </row>
     <row r="30" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="127"/>
+      <c r="B30" s="118"/>
       <c r="C30" s="4" t="s">
         <v>42</v>
       </c>
@@ -3846,7 +3811,7 @@
       </c>
     </row>
     <row r="31" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="127"/>
+      <c r="B31" s="118"/>
       <c r="C31" s="4" t="s">
         <v>43</v>
       </c>
@@ -3911,7 +3876,7 @@
       </c>
     </row>
     <row r="32" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="127"/>
+      <c r="B32" s="118"/>
       <c r="C32" s="4" t="s">
         <v>44</v>
       </c>
@@ -3976,7 +3941,7 @@
       </c>
     </row>
     <row r="33" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="127"/>
+      <c r="B33" s="118"/>
       <c r="C33" s="4" t="s">
         <v>45</v>
       </c>
@@ -4041,7 +4006,7 @@
       </c>
     </row>
     <row r="34" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="127"/>
+      <c r="B34" s="118"/>
       <c r="C34" s="4" t="s">
         <v>46</v>
       </c>
@@ -4106,7 +4071,7 @@
       </c>
     </row>
     <row r="35" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="127"/>
+      <c r="B35" s="118"/>
       <c r="C35" s="4" t="s">
         <v>47</v>
       </c>
@@ -4171,7 +4136,7 @@
       </c>
     </row>
     <row r="36" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="127"/>
+      <c r="B36" s="118"/>
       <c r="C36" s="4" t="s">
         <v>48</v>
       </c>
@@ -4236,7 +4201,7 @@
       </c>
     </row>
     <row r="37" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="127"/>
+      <c r="B37" s="118"/>
       <c r="C37" s="4" t="s">
         <v>49</v>
       </c>
@@ -4301,7 +4266,7 @@
       </c>
     </row>
     <row r="38" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="127"/>
+      <c r="B38" s="118"/>
       <c r="C38" s="4" t="s">
         <v>50</v>
       </c>
@@ -4366,7 +4331,7 @@
       </c>
     </row>
     <row r="39" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="127"/>
+      <c r="B39" s="118"/>
       <c r="C39" s="4" t="s">
         <v>51</v>
       </c>
@@ -4431,7 +4396,7 @@
       </c>
     </row>
     <row r="40" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="127"/>
+      <c r="B40" s="118"/>
       <c r="C40" s="4" t="s">
         <v>52</v>
       </c>
@@ -4496,7 +4461,7 @@
       </c>
     </row>
     <row r="41" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="127"/>
+      <c r="B41" s="118"/>
       <c r="C41" s="4" t="s">
         <v>53</v>
       </c>
@@ -4561,7 +4526,7 @@
       </c>
     </row>
     <row r="42" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="127"/>
+      <c r="B42" s="118"/>
       <c r="C42" s="4" t="s">
         <v>54</v>
       </c>
@@ -4626,7 +4591,7 @@
       </c>
     </row>
     <row r="43" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="127"/>
+      <c r="B43" s="118"/>
       <c r="C43" s="4" t="s">
         <v>55</v>
       </c>
@@ -4691,7 +4656,7 @@
       </c>
     </row>
     <row r="44" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="127"/>
+      <c r="B44" s="118"/>
       <c r="C44" s="4" t="s">
         <v>56</v>
       </c>
@@ -4756,7 +4721,7 @@
       </c>
     </row>
     <row r="45" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="127"/>
+      <c r="B45" s="118"/>
       <c r="C45" s="4" t="s">
         <v>57</v>
       </c>
@@ -4821,7 +4786,7 @@
       </c>
     </row>
     <row r="46" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="127"/>
+      <c r="B46" s="118"/>
       <c r="C46" s="4" t="s">
         <v>58</v>
       </c>
@@ -4886,7 +4851,7 @@
       </c>
     </row>
     <row r="47" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="127"/>
+      <c r="B47" s="118"/>
       <c r="C47" s="4" t="s">
         <v>59</v>
       </c>
@@ -4951,7 +4916,7 @@
       </c>
     </row>
     <row r="48" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="127"/>
+      <c r="B48" s="118"/>
       <c r="C48" s="4" t="s">
         <v>60</v>
       </c>
@@ -5016,7 +4981,7 @@
       </c>
     </row>
     <row r="49" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="127"/>
+      <c r="B49" s="118"/>
       <c r="C49" s="16" t="s">
         <v>61</v>
       </c>
@@ -5081,7 +5046,7 @@
       </c>
     </row>
     <row r="50" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="127"/>
+      <c r="B50" s="118"/>
       <c r="C50" s="16" t="s">
         <v>72</v>
       </c>
@@ -5100,7 +5065,7 @@
       </c>
       <c r="I50" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="J50" s="44">
         <v>0</v>
@@ -5132,13 +5097,17 @@
       <c r="S50" s="94">
         <v>0</v>
       </c>
-      <c r="T50" s="18"/>
-      <c r="U50" s="18"/>
-      <c r="V50" s="18"/>
-      <c r="W50" s="26"/>
+      <c r="T50" s="94">
+        <v>0</v>
+      </c>
+      <c r="U50" s="49">
+        <v>0.78</v>
+      </c>
+      <c r="V50" s="49"/>
+      <c r="W50" s="64"/>
     </row>
     <row r="51" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="127"/>
+      <c r="B51" s="118"/>
       <c r="C51" s="16" t="s">
         <v>73</v>
       </c>
@@ -5157,7 +5126,7 @@
       </c>
       <c r="I51" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J51" s="44">
         <v>0</v>
@@ -5189,13 +5158,17 @@
       <c r="S51" s="94">
         <v>0</v>
       </c>
-      <c r="T51" s="18"/>
-      <c r="U51" s="18"/>
-      <c r="V51" s="18"/>
-      <c r="W51" s="26"/>
+      <c r="T51" s="94">
+        <v>0</v>
+      </c>
+      <c r="U51" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="V51" s="49"/>
+      <c r="W51" s="64"/>
     </row>
     <row r="52" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="127"/>
+      <c r="B52" s="118"/>
       <c r="C52" s="16" t="s">
         <v>74</v>
       </c>
@@ -5214,7 +5187,7 @@
       </c>
       <c r="I52" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J52" s="44">
         <v>0</v>
@@ -5246,13 +5219,17 @@
       <c r="S52" s="94">
         <v>0</v>
       </c>
-      <c r="T52" s="18"/>
-      <c r="U52" s="18"/>
-      <c r="V52" s="18"/>
-      <c r="W52" s="26"/>
+      <c r="T52" s="94">
+        <v>0</v>
+      </c>
+      <c r="U52" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="V52" s="49"/>
+      <c r="W52" s="64"/>
     </row>
     <row r="53" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="127"/>
+      <c r="B53" s="118"/>
       <c r="C53" s="16" t="s">
         <v>75</v>
       </c>
@@ -5271,7 +5248,7 @@
       </c>
       <c r="I53" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J53" s="44">
         <v>0</v>
@@ -5303,13 +5280,17 @@
       <c r="S53" s="94">
         <v>0</v>
       </c>
-      <c r="T53" s="18"/>
-      <c r="U53" s="18"/>
-      <c r="V53" s="18"/>
-      <c r="W53" s="26"/>
+      <c r="T53" s="94">
+        <v>0</v>
+      </c>
+      <c r="U53" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="V53" s="49"/>
+      <c r="W53" s="64"/>
     </row>
     <row r="54" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="127"/>
+      <c r="B54" s="118"/>
       <c r="C54" s="16" t="s">
         <v>76</v>
       </c>
@@ -5328,7 +5309,7 @@
       </c>
       <c r="I54" s="29">
         <f t="shared" ref="I54:I105" si="1">SUM(J54:W54)</f>
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="J54" s="44">
         <v>0</v>
@@ -5360,13 +5341,17 @@
       <c r="S54" s="94">
         <v>0</v>
       </c>
-      <c r="T54" s="18"/>
-      <c r="U54" s="18"/>
-      <c r="V54" s="18"/>
-      <c r="W54" s="26"/>
+      <c r="T54" s="94">
+        <v>0</v>
+      </c>
+      <c r="U54" s="49">
+        <v>0.13</v>
+      </c>
+      <c r="V54" s="49"/>
+      <c r="W54" s="64"/>
     </row>
     <row r="55" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="127"/>
+      <c r="B55" s="118"/>
       <c r="C55" s="16" t="s">
         <v>77</v>
       </c>
@@ -5385,7 +5370,7 @@
       </c>
       <c r="I55" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J55" s="44">
         <v>0</v>
@@ -5417,13 +5402,19 @@
       <c r="S55" s="94">
         <v>0</v>
       </c>
-      <c r="T55" s="18"/>
-      <c r="U55" s="18"/>
-      <c r="V55" s="18"/>
-      <c r="W55" s="26"/>
+      <c r="T55" s="94">
+        <v>0</v>
+      </c>
+      <c r="U55" s="94">
+        <v>0</v>
+      </c>
+      <c r="V55" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="W55" s="64"/>
     </row>
     <row r="56" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="127"/>
+      <c r="B56" s="118"/>
       <c r="C56" s="16" t="s">
         <v>78</v>
       </c>
@@ -5442,7 +5433,7 @@
       </c>
       <c r="I56" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J56" s="44">
         <v>0</v>
@@ -5474,13 +5465,19 @@
       <c r="S56" s="94">
         <v>0</v>
       </c>
-      <c r="T56" s="18"/>
-      <c r="U56" s="18"/>
-      <c r="V56" s="18"/>
-      <c r="W56" s="26"/>
+      <c r="T56" s="94">
+        <v>0</v>
+      </c>
+      <c r="U56" s="94">
+        <v>0</v>
+      </c>
+      <c r="V56" s="49">
+        <v>0.05</v>
+      </c>
+      <c r="W56" s="64"/>
     </row>
     <row r="57" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="127"/>
+      <c r="B57" s="118"/>
       <c r="C57" s="16" t="s">
         <v>79</v>
       </c>
@@ -5499,7 +5496,7 @@
       </c>
       <c r="I57" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="J57" s="44">
         <v>0</v>
@@ -5531,13 +5528,19 @@
       <c r="S57" s="94">
         <v>0</v>
       </c>
-      <c r="T57" s="18"/>
-      <c r="U57" s="18"/>
-      <c r="V57" s="18"/>
-      <c r="W57" s="26"/>
+      <c r="T57" s="94">
+        <v>0</v>
+      </c>
+      <c r="U57" s="94">
+        <v>0</v>
+      </c>
+      <c r="V57" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="W57" s="64"/>
     </row>
     <row r="58" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="127"/>
+      <c r="B58" s="118"/>
       <c r="C58" s="16" t="s">
         <v>80</v>
       </c>
@@ -5556,7 +5559,7 @@
       </c>
       <c r="I58" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J58" s="44">
         <v>0</v>
@@ -5588,13 +5591,19 @@
       <c r="S58" s="94">
         <v>0</v>
       </c>
-      <c r="T58" s="18"/>
-      <c r="U58" s="18"/>
-      <c r="V58" s="18"/>
-      <c r="W58" s="26"/>
+      <c r="T58" s="94">
+        <v>0</v>
+      </c>
+      <c r="U58" s="94">
+        <v>0</v>
+      </c>
+      <c r="V58" s="49">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W58" s="64"/>
     </row>
     <row r="59" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="127"/>
+      <c r="B59" s="118"/>
       <c r="C59" s="16" t="s">
         <v>81</v>
       </c>
@@ -5613,7 +5622,7 @@
       </c>
       <c r="I59" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="J59" s="44">
         <v>0</v>
@@ -5645,13 +5654,19 @@
       <c r="S59" s="94">
         <v>0</v>
       </c>
-      <c r="T59" s="18"/>
-      <c r="U59" s="18"/>
-      <c r="V59" s="18"/>
-      <c r="W59" s="26"/>
+      <c r="T59" s="94">
+        <v>0</v>
+      </c>
+      <c r="U59" s="94">
+        <v>0</v>
+      </c>
+      <c r="V59" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="W59" s="64"/>
     </row>
     <row r="60" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="127"/>
+      <c r="B60" s="118"/>
       <c r="C60" s="16" t="s">
         <v>82</v>
       </c>
@@ -5670,7 +5685,7 @@
       </c>
       <c r="I60" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="J60" s="44">
         <v>0</v>
@@ -5702,13 +5717,19 @@
       <c r="S60" s="94">
         <v>0</v>
       </c>
-      <c r="T60" s="18"/>
-      <c r="U60" s="18"/>
-      <c r="V60" s="18"/>
-      <c r="W60" s="26"/>
+      <c r="T60" s="94">
+        <v>0</v>
+      </c>
+      <c r="U60" s="94">
+        <v>0</v>
+      </c>
+      <c r="V60" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="W60" s="64"/>
     </row>
     <row r="61" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="127"/>
+      <c r="B61" s="118"/>
       <c r="C61" s="16" t="s">
         <v>83</v>
       </c>
@@ -5727,7 +5748,7 @@
       </c>
       <c r="I61" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J61" s="44">
         <v>0</v>
@@ -5759,13 +5780,19 @@
       <c r="S61" s="94">
         <v>0</v>
       </c>
-      <c r="T61" s="18"/>
-      <c r="U61" s="18"/>
-      <c r="V61" s="18"/>
-      <c r="W61" s="26"/>
+      <c r="T61" s="94">
+        <v>0</v>
+      </c>
+      <c r="U61" s="94">
+        <v>0</v>
+      </c>
+      <c r="V61" s="49">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W61" s="64"/>
     </row>
     <row r="62" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="127"/>
+      <c r="B62" s="118"/>
       <c r="C62" s="16" t="s">
         <v>84</v>
       </c>
@@ -5784,7 +5811,7 @@
       </c>
       <c r="I62" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="J62" s="44">
         <v>0</v>
@@ -5816,13 +5843,19 @@
       <c r="S62" s="94">
         <v>0</v>
       </c>
-      <c r="T62" s="18"/>
-      <c r="U62" s="18"/>
-      <c r="V62" s="18"/>
-      <c r="W62" s="26"/>
+      <c r="T62" s="94">
+        <v>0</v>
+      </c>
+      <c r="U62" s="94">
+        <v>0</v>
+      </c>
+      <c r="V62" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="W62" s="64"/>
     </row>
     <row r="63" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="128"/>
+      <c r="B63" s="119"/>
       <c r="C63" s="32" t="s">
         <v>85</v>
       </c>
@@ -5841,7 +5874,7 @@
       </c>
       <c r="I63" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J63" s="93">
         <v>0</v>
@@ -5873,13 +5906,19 @@
       <c r="S63" s="98">
         <v>0</v>
       </c>
-      <c r="T63" s="21"/>
-      <c r="U63" s="21"/>
-      <c r="V63" s="21"/>
-      <c r="W63" s="28"/>
+      <c r="T63" s="98">
+        <v>0</v>
+      </c>
+      <c r="U63" s="98">
+        <v>0</v>
+      </c>
+      <c r="V63" s="104">
+        <v>0.3</v>
+      </c>
+      <c r="W63" s="140"/>
     </row>
     <row r="64" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="129" t="s">
+      <c r="B64" s="120" t="s">
         <v>62</v>
       </c>
       <c r="C64" s="30" t="s">
@@ -5946,7 +5985,7 @@
       </c>
     </row>
     <row r="65" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="127"/>
+      <c r="B65" s="118"/>
       <c r="C65" s="16" t="s">
         <v>64</v>
       </c>
@@ -6011,7 +6050,7 @@
       </c>
     </row>
     <row r="66" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="127"/>
+      <c r="B66" s="118"/>
       <c r="C66" s="16" t="s">
         <v>65</v>
       </c>
@@ -6076,7 +6115,7 @@
       </c>
     </row>
     <row r="67" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="127"/>
+      <c r="B67" s="118"/>
       <c r="C67" s="16" t="s">
         <v>66</v>
       </c>
@@ -6141,7 +6180,7 @@
       </c>
     </row>
     <row r="68" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="127"/>
+      <c r="B68" s="118"/>
       <c r="C68" s="16" t="s">
         <v>67</v>
       </c>
@@ -6206,7 +6245,7 @@
       </c>
     </row>
     <row r="69" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="127"/>
+      <c r="B69" s="118"/>
       <c r="C69" s="16" t="s">
         <v>68</v>
       </c>
@@ -6271,7 +6310,7 @@
       </c>
     </row>
     <row r="70" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="127"/>
+      <c r="B70" s="118"/>
       <c r="C70" s="16" t="s">
         <v>69</v>
       </c>
@@ -6336,7 +6375,7 @@
       </c>
     </row>
     <row r="71" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="127"/>
+      <c r="B71" s="118"/>
       <c r="C71" s="16" t="s">
         <v>70</v>
       </c>
@@ -6401,7 +6440,7 @@
       </c>
     </row>
     <row r="72" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="127"/>
+      <c r="B72" s="118"/>
       <c r="C72" s="32" t="s">
         <v>71</v>
       </c>
@@ -6466,7 +6505,7 @@
       </c>
     </row>
     <row r="73" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="116" t="s">
+      <c r="B73" s="131" t="s">
         <v>86</v>
       </c>
       <c r="C73" s="6" t="s">
@@ -6533,7 +6572,7 @@
       </c>
     </row>
     <row r="74" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="117"/>
+      <c r="B74" s="132"/>
       <c r="C74" s="4" t="s">
         <v>26</v>
       </c>
@@ -6598,7 +6637,7 @@
       </c>
     </row>
     <row r="75" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="117"/>
+      <c r="B75" s="132"/>
       <c r="C75" s="4" t="s">
         <v>28</v>
       </c>
@@ -6663,7 +6702,7 @@
       </c>
     </row>
     <row r="76" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="117"/>
+      <c r="B76" s="132"/>
       <c r="C76" s="4" t="s">
         <v>29</v>
       </c>
@@ -6728,7 +6767,7 @@
       </c>
     </row>
     <row r="77" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="117"/>
+      <c r="B77" s="132"/>
       <c r="C77" s="4" t="s">
         <v>30</v>
       </c>
@@ -6793,7 +6832,7 @@
       </c>
     </row>
     <row r="78" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="117"/>
+      <c r="B78" s="132"/>
       <c r="C78" s="4" t="s">
         <v>31</v>
       </c>
@@ -6858,7 +6897,7 @@
       </c>
     </row>
     <row r="79" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="117"/>
+      <c r="B79" s="132"/>
       <c r="C79" s="4" t="s">
         <v>32</v>
       </c>
@@ -6923,7 +6962,7 @@
       </c>
     </row>
     <row r="80" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="117"/>
+      <c r="B80" s="132"/>
       <c r="C80" s="4" t="s">
         <v>33</v>
       </c>
@@ -6988,7 +7027,7 @@
       </c>
     </row>
     <row r="81" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="117"/>
+      <c r="B81" s="132"/>
       <c r="C81" s="4" t="s">
         <v>34</v>
       </c>
@@ -7053,7 +7092,7 @@
       </c>
     </row>
     <row r="82" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="117"/>
+      <c r="B82" s="132"/>
       <c r="C82" s="4" t="s">
         <v>35</v>
       </c>
@@ -7118,7 +7157,7 @@
       </c>
     </row>
     <row r="83" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="117"/>
+      <c r="B83" s="132"/>
       <c r="C83" s="4" t="s">
         <v>36</v>
       </c>
@@ -7183,7 +7222,7 @@
       </c>
     </row>
     <row r="84" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="117"/>
+      <c r="B84" s="132"/>
       <c r="C84" s="4" t="s">
         <v>37</v>
       </c>
@@ -7248,7 +7287,7 @@
       </c>
     </row>
     <row r="85" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="117"/>
+      <c r="B85" s="132"/>
       <c r="C85" s="4" t="s">
         <v>38</v>
       </c>
@@ -7313,7 +7352,7 @@
       </c>
     </row>
     <row r="86" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="117"/>
+      <c r="B86" s="132"/>
       <c r="C86" s="4" t="s">
         <v>39</v>
       </c>
@@ -7378,7 +7417,7 @@
       </c>
     </row>
     <row r="87" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="117"/>
+      <c r="B87" s="132"/>
       <c r="C87" s="4" t="s">
         <v>40</v>
       </c>
@@ -7443,7 +7482,7 @@
       </c>
     </row>
     <row r="88" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="117"/>
+      <c r="B88" s="132"/>
       <c r="C88" s="4" t="s">
         <v>41</v>
       </c>
@@ -7508,7 +7547,7 @@
       </c>
     </row>
     <row r="89" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="117"/>
+      <c r="B89" s="132"/>
       <c r="C89" s="4" t="s">
         <v>115</v>
       </c>
@@ -7573,7 +7612,7 @@
       </c>
     </row>
     <row r="90" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="117"/>
+      <c r="B90" s="132"/>
       <c r="C90" s="4" t="s">
         <v>116</v>
       </c>
@@ -7638,7 +7677,7 @@
       </c>
     </row>
     <row r="91" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="117"/>
+      <c r="B91" s="132"/>
       <c r="C91" s="4" t="s">
         <v>42</v>
       </c>
@@ -7703,7 +7742,7 @@
       </c>
     </row>
     <row r="92" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="118"/>
+      <c r="B92" s="133"/>
       <c r="C92" s="32" t="s">
         <v>87</v>
       </c>
@@ -7768,10 +7807,10 @@
       </c>
     </row>
     <row r="93" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="121" t="s">
+      <c r="B93" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="C93" s="119" t="s">
+      <c r="C93" s="134" t="s">
         <v>89</v>
       </c>
       <c r="D93" s="6" t="s">
@@ -7837,8 +7876,8 @@
       </c>
     </row>
     <row r="94" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="121"/>
-      <c r="C94" s="120"/>
+      <c r="B94" s="136"/>
+      <c r="C94" s="135"/>
       <c r="D94" s="4" t="s">
         <v>91</v>
       </c>
@@ -7902,8 +7941,8 @@
       </c>
     </row>
     <row r="95" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="121"/>
-      <c r="C95" s="120"/>
+      <c r="B95" s="136"/>
+      <c r="C95" s="135"/>
       <c r="D95" s="4" t="s">
         <v>92</v>
       </c>
@@ -7967,7 +8006,7 @@
       </c>
     </row>
     <row r="96" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="121"/>
+      <c r="B96" s="136"/>
       <c r="C96" s="16" t="s">
         <v>110</v>
       </c>
@@ -8032,7 +8071,7 @@
       </c>
     </row>
     <row r="97" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="121"/>
+      <c r="B97" s="136"/>
       <c r="C97" s="16" t="s">
         <v>93</v>
       </c>
@@ -8089,7 +8128,7 @@
       <c r="W97" s="88"/>
     </row>
     <row r="98" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="121"/>
+      <c r="B98" s="136"/>
       <c r="C98" s="16" t="s">
         <v>94</v>
       </c>
@@ -8154,7 +8193,7 @@
       </c>
     </row>
     <row r="99" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="121"/>
+      <c r="B99" s="136"/>
       <c r="C99" s="16" t="s">
         <v>95</v>
       </c>
@@ -8219,7 +8258,7 @@
       </c>
     </row>
     <row r="100" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="121"/>
+      <c r="B100" s="136"/>
       <c r="C100" s="16" t="s">
         <v>96</v>
       </c>
@@ -8276,7 +8315,7 @@
       <c r="W100" s="88"/>
     </row>
     <row r="101" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="122"/>
+      <c r="B101" s="137"/>
       <c r="C101" s="16" t="s">
         <v>97</v>
       </c>
@@ -8354,7 +8393,7 @@
       </c>
       <c r="I102" s="29">
         <f t="shared" si="1"/>
-        <v>3.73</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="J102" s="44">
         <v>0</v>
@@ -8392,7 +8431,9 @@
       <c r="U102" s="86">
         <v>3.33</v>
       </c>
-      <c r="V102" s="18"/>
+      <c r="V102" s="86">
+        <v>0.54</v>
+      </c>
       <c r="W102" s="26"/>
     </row>
     <row r="103" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8591,21 +8632,21 @@
       </c>
     </row>
     <row r="106" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="136" t="s">
+      <c r="B106" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="137"/>
-      <c r="D106" s="137"/>
-      <c r="E106" s="137"/>
-      <c r="F106" s="137"/>
-      <c r="G106" s="137"/>
+      <c r="C106" s="129"/>
+      <c r="D106" s="129"/>
+      <c r="E106" s="129"/>
+      <c r="F106" s="129"/>
+      <c r="G106" s="129"/>
       <c r="H106" s="25">
         <f t="shared" ref="H106:W106" si="2">SUM(H4:H105)</f>
         <v>34.550000000000004</v>
       </c>
       <c r="I106" s="13">
         <f t="shared" si="2"/>
-        <v>31.009</v>
+        <v>33.668999999999997</v>
       </c>
       <c r="J106" s="107">
         <f t="shared" si="2"/>
@@ -8653,11 +8694,11 @@
       </c>
       <c r="U106" s="108">
         <f t="shared" si="2"/>
-        <v>3.33</v>
+        <v>4.54</v>
       </c>
       <c r="V106" s="108">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="W106" s="109">
         <f t="shared" si="2"/>
@@ -8673,22 +8714,22 @@
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
-      <c r="J107" s="124" t="s">
+      <c r="J107" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="K107" s="125"/>
-      <c r="L107" s="125"/>
-      <c r="M107" s="125"/>
-      <c r="N107" s="125"/>
-      <c r="O107" s="125"/>
-      <c r="P107" s="125"/>
-      <c r="Q107" s="125"/>
-      <c r="R107" s="125"/>
-      <c r="S107" s="125"/>
-      <c r="T107" s="125"/>
-      <c r="U107" s="125"/>
-      <c r="V107" s="125"/>
-      <c r="W107" s="126"/>
+      <c r="K107" s="116"/>
+      <c r="L107" s="116"/>
+      <c r="M107" s="116"/>
+      <c r="N107" s="116"/>
+      <c r="O107" s="116"/>
+      <c r="P107" s="116"/>
+      <c r="Q107" s="116"/>
+      <c r="R107" s="116"/>
+      <c r="S107" s="116"/>
+      <c r="T107" s="116"/>
+      <c r="U107" s="116"/>
+      <c r="V107" s="116"/>
+      <c r="W107" s="117"/>
     </row>
     <row r="108" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="2"/>
@@ -8713,10 +8754,10 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
-      <c r="H109" s="111" t="s">
+      <c r="H109" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="I109" s="123"/>
+      <c r="I109" s="138"/>
       <c r="J109" s="12">
         <f>H106-J106</f>
         <v>34.550000000000004</v>
@@ -8763,15 +8804,15 @@
       </c>
       <c r="U109" s="12">
         <f t="shared" si="3"/>
-        <v>3.5409999999999968</v>
+        <v>2.3309999999999969</v>
       </c>
       <c r="V109" s="12">
         <f t="shared" si="3"/>
-        <v>3.5409999999999968</v>
+        <v>0.8809999999999969</v>
       </c>
       <c r="W109" s="12">
         <f t="shared" si="3"/>
-        <v>3.5409999999999968</v>
+        <v>0.8809999999999969</v>
       </c>
     </row>
     <row r="110" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8794,27 +8835,27 @@
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
-      <c r="H111" s="111" t="s">
+      <c r="H111" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="I111" s="112"/>
-      <c r="J111" s="111">
+      <c r="I111" s="113"/>
+      <c r="J111" s="112">
         <f>H106-I106</f>
-        <v>3.5410000000000039</v>
-      </c>
-      <c r="K111" s="112"/>
-      <c r="L111" s="112"/>
-      <c r="M111" s="112"/>
-      <c r="N111" s="112"/>
-      <c r="O111" s="112"/>
-      <c r="P111" s="112"/>
-      <c r="Q111" s="112"/>
-      <c r="R111" s="112"/>
-      <c r="S111" s="112"/>
-      <c r="T111" s="112"/>
-      <c r="U111" s="112"/>
-      <c r="V111" s="112"/>
-      <c r="W111" s="113"/>
+        <v>0.88100000000000733</v>
+      </c>
+      <c r="K111" s="113"/>
+      <c r="L111" s="113"/>
+      <c r="M111" s="113"/>
+      <c r="N111" s="113"/>
+      <c r="O111" s="113"/>
+      <c r="P111" s="113"/>
+      <c r="Q111" s="113"/>
+      <c r="R111" s="113"/>
+      <c r="S111" s="113"/>
+      <c r="T111" s="113"/>
+      <c r="U111" s="113"/>
+      <c r="V111" s="113"/>
+      <c r="W111" s="114"/>
     </row>
     <row r="112" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
@@ -8902,6 +8943,13 @@
     <row r="130" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="J111:W111"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B73:B92"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="B93:B101"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H111:I111"/>
     <mergeCell ref="J2:W2"/>
     <mergeCell ref="J107:W107"/>
     <mergeCell ref="B14:B63"/>
@@ -8910,13 +8958,6 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B106:G106"/>
-    <mergeCell ref="J111:W111"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B73:B92"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="B93:B101"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H111:I111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8930,7 +8971,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8942,7 +8983,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
